--- a/Latest File/News Storage bank of east asia.xlsx
+++ b/Latest File/News Storage bank of east asia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,82 +468,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bond yields rise in emerging East Asia amid aggressive monetary tightening - China Daily</t>
+          <t>Bank of East Asia : BEA Launches “Green Mortgage x Deposit Plan” - Marketscreener.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 03:13:00 GMT</t>
+          <t>Thu, 01 Dec 2022 06:04:03 GMT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Motorcyclists ride past an APEC 2022 sign in Bangkok. [PHOTO by PEERAPON BOONYAKIAT/GETTY IMAGES] MANILA - Aggressive monetary tightening in advanced economies has pushed up bond yields and worsened the downturn of financial conditions in emerging East Asia, according to a report by the Asian Development Bank (ADB) released on Friday. The latest Asia Bond Monitor said regional currencies fell against the US dollar, equities dropped, and risk premiums widened between Aug 31 and Nov 4, portfolio outflows were also seen in most regional bond markets. The report added that global inflation and economic fallout from the Russia-Ukraine conflict continued to threaten the region's short-term prospects. "Financial conditions in emerging East Asia weakened at a faster pace in September and October than in the first eight months of 2022 due to the aggressive tightening by the US Federal Reserve," ADB Chief Economist Albert Park said. However, he added that the region "remains largely resilient so far, despite various headwinds." The report also said the local currency bond issuance in emerging East Asia contracted 1.1 percent from the previous quarter to $2.2 trillion in the third quarter, amid subdued investment sentiment. Local currency bonds outstanding grew 2.3 percent to $22 trillion.</t>
+          <t>For Immediate Release BEA Launches "Green Mortgage x Deposit Plan" Hong Kong, 30th November, 2022 - The Bank of East Asia, Limited ("BEA" or "the Bank") today announces the launch of its new "Green Mortgage x Deposit Plan". As part of the Bank's efforts to further promote green living and support green financing in Hong Kong, green mortgage customers can now earn a preferential interest rate on online time deposits. Ms. Shirley Wong, General Manager and Head of Personal Banking Division at BEA, said, "BEA supports sustainable development in Hong Kong, and our retail banking operations are actively exploring new green business opportunities. Since the launch of our 'Green Mortgage Plan' last year, over 20% of mortgage customers have chosen this product. In view of this, we are offering a preferential time deposit rate so that our customers can earn a preferential interest rate on online time deposits." "The "Green Mortgage Plan" is offered to prospective purchasers of first-hand, second- hand, or government-subsidised residences that have a valid provisional/final "Platinum" or "Gold" rating under the BEAM Plus New Buildings/Existing Buildings scheme of the Hong Kong Green Building Council. During the promotional period, green mortgage customers can receive an extra cash rebate of up to HK$16,888. The "Green Mortgage x Deposit Plan" allows eligible green mortgage customers to earn a preferential interest rate on 12-month time deposits placed with new funds through the Bank's online channels with paperless processes, for a total deposit amount of up to 100% of their mortgage loan amount. For more information, please call (852) 3608 8686 or visit www.hkbea.com/greenmortgage/en. Promotional period runs until 31st December, 2022. To borrow or not to borrow? Borrow only if you can repay! Terms and conditions apply. 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PHOTO by PEERAPON BOONYAKIAT/GETTY IMAGES] MANILA - Aggressive monetary tightening in advanced economies has pushed up bond yields and worsened the downturn of financial conditions in emerging East Asia, according to a report by the Asian Development Bank (ADB) released on Friday. The report also said the local currency bond issuance in emerging East Asia contracted 1.1 percent from the previous quarter to $2.2 trillion in the third quarter, amid subdued investment sentiment.</t>
+          <t>For Immediate Release BEA Launches "Green Mortgage x Deposit Plan" Hong Kong, 30th November, 2022 - The Bank of East Asia, Limited ("BEA" or "the Bank") today announces the launch of its new "Green Mortgage x Deposit Plan". As part of the Bank's efforts to further promote green living and support green financing in Hong Kong, green mortgage customers can now earn a preferential interest rate on online time deposits.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9999964237213135</v>
+        <v>0.9998255372047424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Kenyans lured to become unwitting 'love' fraudsters - BBC</t>
+          <t>Bank of East Asia selects Wolters Kluwer's OneSumX for Regulatory Reporting - Business Wire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 00:26:15 GMT</t>
+          <t>Tue, 08 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"They fall in love with you and you can tell them about crypto-currency. You start stealing from them," the 31-year-old woman said, describing in Swahili how they were both forced to work in a vast call centre-like hall with hundreds of others made up of a variety of nationalities.</t>
+          <t>HONG KONG--(BUSINESS WIRE)--The Bank of East Asia, Limited (“BEA”), a leading Hong Kong-based financial services group listed on The Stock Exchange of Hong Kong, has chosen to implement award-winning regulatory reporting software from Wolters Kluwer Finance, Risk &amp; Regulatory Reporting (FRR). OneSumX for Regulatory Reporting combines bank data into a single source of data to ensure consistency, reconciliation and accuracy and includes Wolters Kluwer’s Regulatory Update Service. This unique service is maintained by Wolters Kluwer experts who actively monitor regulation in 30 countries. BEA will specifically use the software to aid its automation of Hong Kong Monetary Authority (HKMA) banking returns and GDR (Granular Data Reporting) reports. “With its local expertise and global strength, Wolters Kluwer provides us the regulatory reporting solution that meets our needs,” said Mr. Tong Hon-shing, Deputy Chief Executive &amp; Chief Operating Officer of BEA. “Regulators are looking to build better data-driven insights, and encourage evidence-based, objective decision-making, and so choosing a provider with proven GDR automation, in particular, is key.” Rainer Fuchsluger, Vice President, Global Strategy, and APAC Managing Director of Wolters Kluwer FRR, commented: “We are excited to be working with BEA and its talented team on this important project, helping the bank to meet its all-important regulatory reporting obligations. The OneSumX GDR component contains many out-of-box features that provide fast system rollout and early automation, which will help BEA and other clients save in internal development and operational effort. Notably, the solution provides extensive data lineage capabilities, catering to critical data validation and audit needs.” The OneSumX solution suite, along with the company’s Professional Services offerings in the region, has recently won a number of APAC focused awards, which follow a record 2021 when it comes to industry recognition for the business with prestigious accolades from the likes of Regulation Asia and RegTech Insights. Wolters Kluwer FRR, which is part of the company’s Governance, Risk &amp; Compliance (GRC) division, is a global market leader in the provision of integrated regulatory compliance and reporting solutions. It supports regulated financial institutions in meeting their obligations to external regulators and their own board of directors. Wolters Kluwer’s GRC division provides an array of expert solutions to help financial institutions manage regulatory and risk obligations. Wolters Kluwer Compliance Solutions’ OneSumX® for Regulatory Change Management tracks regulatory changes and organizes them to create structured, value-added content through a single data feed that is paired with an easy-to-use software solution. Compliance Solutions’ iLien Motor Vehicle provides for the processing and management of motor vehicle titles and liens, helping solve the most unique and complicated challenges in title perfection. The division’s legal solutions businesses are Wolters Kluwer CT Corporation and Wolters Kluwer ELM Solutions. About Wolters Kluwer Governance, Risk &amp; Compliance Governance, Risk &amp; Compliance is a division of Wolters Kluwer, which provides legal and banking professionals with solutions to help ensure compliance with ever-changing regulatory and legal obligations, manage risk, increase efficiency, and produce better business outcomes. GRC offers a portfolio of technology-enabled expert services and solutions focused on legal entity compliance, legal operations management, banking product compliance, and banking regulatory compliance. Wolters Kluwer (WKL) is a global leader in professional information, software solutions, and services for the healthcare; tax and accounting; governance, risk and compliance; and legal and regulatory sectors. We help our customers make critical decisions every day by providing expert solutions that combine deep domain knowledge with specialized technology and services. Wolters Kluwer reported 2021 annual revenues of €4.8 billion. The group serves customers in over 180 countries, maintains operations in over 40 countries, and employs approximately 19,800 people worldwide. The company is headquartered in Alphen aan den Rijn, the Netherlands. About The Bank of East Asia, Limited Incorporated in 1918, The Bank of East Asia, Limited (“BEA”) is a leading Hong Kong-based financial services group listed on The Stock Exchange of Hong Kong, with total consolidated assets of HK$908.2 billion (US$115.8 billion) as of 30th June, 2022. BEA provides a comprehensive range of wholesale banking, personal banking, wealth management, and investment services to customers through an extensive network of about 150 outlets covering Hong Kong, the rest of Greater China, Southeast Asia, the United Kingdom, and the United States. For more information, please visit www.hkbea.com.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>"They fall in love with you and you can tell them about crypto-currency. You start stealing from them," the 31-year-old woman said, describing in Swahili how they were both forced to work in a vast call centre-like hall with hundreds of others made up of a variety of nationalities.</t>
+          <t>HONG KONG--(BUSINESS WIRE)--The Bank of East Asia, Limited (“BEA”), a leading Hong Kong-based financial services group listed on The Stock Exchange of Hong Kong, has chosen to implement award-winning regulatory reporting software from Wolters Kluwer Finance, Risk &amp; Regulatory Reporting (FRR). The OneSumX solution suite, along with the company’s Professional Services offerings in the region, has recently won a number of APAC focused awards, which follow a record 2021 when it comes to industry recognition for the business with prestigious accolades from the likes of Regulation Asia and RegTech Insights. Wolters Kluwer FRR, which is part of the company’s Governance, Risk &amp; Compliance (GRC) division, is a global market leader in the provision of integrated regulatory compliance and reporting solutions. Wolters Kluwer Compliance Solutions’ OneSumX® for Regulatory Change Management tracks regulatory changes and organizes them to create structured, value-added content through a single data feed that is paired with an easy-to-use software solution. Wolters Kluwer reported 2021 annual revenues of €4.8 billion.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9958623647689819</v>
+        <v>0.9884189963340759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prevalence and trend of smokeless tobacco use and its associated factors among adolescents aged 12–16 years in 138 countries/territories, 1999–2019 - BMC Medicine - BMC Medicine</t>
+          <t>Banks are boosting Singapore jobs at expense of Hong Kong - eFinancialCareers (US)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 21:25:41 GMT</t>
+          <t>Tue, 29 Nov 2022 23:08:36 GMT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Study design and participants Data on smokeless tobacco use were extracted from the GYTS, which is a cross-sectional and school-based program led by the WHO and the U.S. Centers for Disease Control and Prevention aiming to provide nationally representative estimates on tobacco use among adolescents and guide tobacco control programs worldwide. The GYTS used the same two-stage random cluster sampling framework in each participating country, and at the first stage, schools were randomly selected, and at the second stage, classes were also randomly selected from the target schools. All students in the selected classes were eligible to complete the standardized questionnaires, which were self-administered by students and included the same core set of questions to make them comparable across countries. More information on the GYTS can be found on the Centers for Disease Control and Prevention website (https://www.cdc.gov/tobacco/global/gtss/gtssdata/index.html) [28]. Data in the U.S. were from the NYTS, which is a national, annual, and school-based program to assess tobacco use among U.S. youth. The NYTS followed a similar methodology to the GYTS. The questions and possible closed-ended answers on smokeless tobacco use and related factors are consistent with the GYTS. More information on the NYTS can be found on the U.S. Centers for Disease Control and Prevention website (https://www.cdc.gov/tobacco/data_statistics/surveys/nyts/index.htm) [29]. All GYTSs and NYTSs were approved by the National Ethics Committee, and all students/guardians provided verbal consent. Both the GYTS and NYTS are ongoing. We used the latest data from 138 countries in 2010-2019 to estimate the prevalence of smokeless tobacco use and its associated factors among adolescents aged 12-16 years. We also used data from 100 countries that had conducted two or more surveys between 1999 and 2019 to estimate the secular trend in the prevalence of smokeless tobacco use. Of note, the GYTS did not release the latest data in China, thus we extracted the related information from the Chinese Youth Tobacco Survey report in 2014 [30], which is a part of the GYTS. A flow chart of inclusion and exclusion of countries is shown in Additional file 1: Fig. S1. After excluding participants with missing data on sex, age and current smokeless tobacco use, and those aged &lt;12 or &gt;16 years, a total of 1,039,249 adolescents aged 12–16 years between 1999 and 2019 were included in the data analyses. Dependent variable Current smokeless tobacco use was defined as using any form of smokeless tobacco products during the past 30 days based on response to the question “During the past 30 days, did you use any form of smokeless tobacco products (such as snuff, chewing tobacco, dip, gutka)?”. Independent variable Demographic variables included sex and age. Other independent variables included cigarette smoking, other tobacco product use, parental smoking, smoking status of closest friends, tobacco advertisement exposure, being offered free tobacco products, being taught about dangers of smoking, and World Bank income level. Cigarette smoking was defined as smoking cigarettes on at least one day during the past 30 days based on response to the question “During the past 30 days, on how many days did you smoke cigarettes?”. Other tobacco product use was defined as using combustible tobacco products other than cigarettes during the past 30 days based on response to the question “During the past 30 days, did you use any form of smoked tobacco products other than cigarettes (such as cigars, pipe, waterpipe)?”. Parental smoking was assessed based on response to the question “Do your parents smoke tobacco?”, and it was divided into “Neither smoking,” “Only father smoking,” “Only mother smoking,” and “Both smoking” in our analyses. Smoking status of closest friends was assessed based on response to the question “Do any of your closest friend smoke tobacco?”, and it was divided into “None”, “Some”, “Most”, and “All”. Tobacco advertisement exposure was defined as exposure to more than one type of tobacco advertisement based on responses to the following three questions: “During the past 30 days, did you see any people using tobacco on TV, in videos, or in movies?”, “During the past 30 days, did you see any advertisements or promotions for tobacco products at points of sale (such as stores, shops, restaurant)?”, and “Do you have something with a tobacco product brand logo on it (such as t-shirt, pen, backpack)?”. Being offered free tobacco products was assessed based on response to the question: “Has a person working for a tobacco company ever offered you a free tobacco product?”. Being taught about dangers of smoking was assessed based on response to the question: “During the past 12 months, were you taught in any of your classes about the dangers of tobacco use?”. Income level categories for each country followed the standards of the World Bank's classification based on the survey year of the GYTS/NYTS in our study. Statistical analysis</t>
+          <t>International banks are hiring more talent in Singapore as they continue expanding their presence outside Hong Kong. “Every bank I speak to is looking to increase their footprint in South East Asia and that means hiring or locating more bankers in Singapore,” says one headhunter based in Hong Kong. The shift began as a result of Hong Kong’s Covid restrictions, but now bankers say it’s more permanent. “In the past big banks have located specific country or product bankers in Singapore, while locating industry teams in Hong Kong, but this is changing,” the headhunter said. In particular, as Singapore attracts more fintech companies, so bankers with relevant expertise are starting to follow their clients. For example, Jwalant Nanavati, head of the Asia ex-Japan technology, media and telecom (TMT) team at Nomura is moving to from Hong Kong to Singapore where he will run the Japanese bank’s Southeast Asian investment banking business Last month, Sophie Qian relcoated from New York to Singapore as head of equity capital markets for Southwest Asia. One bank actively hiring in South East Asia is Jefferies. This month, David Biller swapped London for Singapore after joining from Citigroup as Jefferies' head of Southeast Asia. Biller is being reunited with Christopher Laskowski, who joined Jefferies from Citi a year ago as head of Asia investment banking in Hong Kong. “Biller will be building a team,” said one source close to the bank. “But there is limited talent locally, so you could see even more bankers relocate.” Click here to create a profile on eFinancialCareers. Comment ANONYMOUSLY on articles and make yourself visible to recruiters hiring for top jobs in technology and finance. Have a confidential story, tip, or comment you’d like to share? Contact: sbutcher@efinancialcareers.com in the first instance. Whatsapp/Signal/Telegram also available (Telegram: @SarahButcher) Bear with us if you leave a comment at the bottom of this article: all our comments are moderated by human beings. Sometimes these humans might be asleep, or away from their desks, so it may take a while for your comment to appear. Eventually it will – unless it’s offensive or libelous (in which case it won’t.) Photo credit: eFinancialCareers/Dall-e</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Study design and participants Data on smokeless tobacco use were extracted from the GYTS, which is a cross-sectional and school-based program led by the WHO and the U.S. Centers for Disease Control and Prevention aiming to provide nationally representative estimates on tobacco use among adolescents and guide tobacco control programs worldwide. More information on the NYTS can be found on the U.S. Centers for Disease Control and Prevention website (https://www.cdc.gov/tobacco/data_statistics/surveys/nyts/index.htm) [29]. We also used data from 100 countries that had conducted two or more surveys between 1999 and 2019 to estimate the secular trend in the prevalence of smokeless tobacco use. Independent variable Demographic variables included sex and age. Other tobacco product use was defined as using combustible tobacco products other than cigarettes during the past 30 days based on response to the question “During the past 30 days, did you use any form of smoked tobacco products other than cigarettes (such as cigars, pipe, waterpipe)?”. and it was divided into “Neither smoking,” “Only father smoking,” “Only mother smoking,” and “Both smoking” in our analyses.</t>
+          <t>International banks are hiring more talent in Singapore as they continue expanding their presence outside Hong Kong. “ In the past big banks have located specific country or product bankers in Singapore, while locating industry teams in Hong Kong, but this is changing,” the headhunter said. Contact: sbutcher@efinancialcareers.com in the first instance. Sometimes these humans might be asleep, or away from their desks, so it may take a while for your comment to appear.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -552,18 +552,18 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9999992847442627</v>
+        <v>0.9998151659965515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>China’s tech talent rides global Web3 wave despite crypto ban - South China Morning Post</t>
+          <t>Hong Kong Takes Different Path To Open Banking - CDOTrends</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 03:00:18 GMT</t>
+          <t>Mon, 14 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -580,44 +580,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Grain from Ukraine - European Commission</t>
+          <t>China's 2023 iron ore output seen higher as new projects come online: analyst - S&amp;P Global</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 15:05:36 GMT</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>Tue, 29 Nov 2022 11:38:00 GMT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>China's iron ore output in 2023 is expected to rise 3.5% from the previous year to 238 million mt as miners commission new production capacity, an analyst with investment bank Orient Securities said Nov. 29, in a development that could help slightly cut back the country's huge iron ore purchases in the longer term. Not registered? Receive daily email alerts, subscriber notes &amp; personalize your experience. Register Now Miners faced challenges during 2021-2022 as new projects got delayed due to the pandemic and on strict mining safety measures that capped Chinese iron ore output growth, according to the analyst. The upcoming commissioning of some domestic iron ore projects could add 8 million-10 million mt of iron ore output in 2023, the analyst added. China's heavy reliance on iron ore imports in the near term would continue, but future dependence could gradually become less as domestic capacity rises and usage of steel scrap increases, analysts said. China's iron ore imports are expected to fall by 2% in 2022 to 1.102 billion mt before dropping another 1.4% in 2023 to 1.087 billion mt, according to S&amp;P Global Commodity Insights. China imports around 1 billion mt of the steelmaking metal for its behemoth industry, with most of the shipments coming from Australia followed by Brazil. During January-October, China's iron imports from Australia reached 604.93 million mt, accounting for 66% of the total imports, S&amp;P Global data showed. Metallurgical Mines' Association of China, or MMAC, said China's reliance on imported iron ore would dip to around 71% by 2025, led by higher steel scrap usage. Back in 2016-2020, China's dependence on iron ore imports remained more that 80% for five consecutive years, according to data from the China Iron &amp; Steel Industry Association. The MMAC estimated steel scrap usage to reach 330 million mt by 2025, while domestic iron ore concentrates output would reach 350 million mt, requiring China to import around 880 million mt of iron ore concentrates by 2025. Current stock situation Latest data indicated iron ore stocks remained at comfortable levels but were comparatively lower from the year-ago period. Led by weak interest from a Chinese steel sector that is in the midst of output cuts, iron ore surplus in the country is expected to reach the peak level in November, according to consultancy Nanhua Futures. Chinese iron ore demand in December is seen at 110.27 million mt, lower than the November demand of 115.65 million mt, Nanhua Futures said. As of Nov. 25, China's iron ore stocks at key ports were 134.8 million mt, up 1.2% week on week, latest data from Bank of East Asia's research arm East Asia Futures showed. However, inventories were down 12% year on year. Iron ore stocks for trade were 80.6 million mt, up 2% week on week, but 12% down year on year. Stocks at key steel plants reached 90.98 million mt, up 0.34% week on week, with inventories enough to last for 33 days, EAF data showed. In December, China's iron ore sector is expected to have a surplus of 6.24 million mt, narrowing from the surplus of 9.73 million mt in November, Nanhua Futures said.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>China's iron ore output in 2023 is expected to rise 3.5% from the previous year to 238 million mt as miners commission new production capacity, an analyst with investment bank Orient Securities said Nov. 29, in a development that could help slightly cut back the country's huge iron ore purchases in the longer term. Receive daily email alerts, subscriber notes &amp; personalize your experience. Metallurgical Mines' Association of China, or MMAC, said China's reliance on imported iron ore would dip to around 71% by 2025, led by higher steel scrap usage. Iron ore stocks for trade were 80.6 million mt, up 2% week on week, but 12% down year on year.</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.6441228985786438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IBBL recognised as 'Strongest Bank' in Bangladesh - The Business Standard</t>
+          <t>HSBC, Standard Chartered among five lenders raising commercial lending rates to highest level in 14 years after HKMA lifts borrowing costs - Yahoo Finance</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 10:45:00 GMT</t>
+          <t>Thu, 03 Nov 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Islami Bank Bangladesh Limited has been recognised as the "Strongest Bank in Bangladesh" for the year 2022 by The Asian Banker. At the same time, it has also recognised Islami Bank as the "Strongest Islamic bank in Bangladesh", according to a press release. Foo Boon Ping, managing editor of The Asian Banker, officially announced the award on the virtual platform on 24 November 2022. Mohammed Monirul Moula, managing director and CEO of Islami Bank joined the programme as the recipient of the award. Singapore-based banking and financial intelligence platform The Asian Banker selected 22 strongest banks for 2022 after analyzing data from 500 banks from Asia, Middle East and Africa region including China, Australia, Hong Kong, India and New Zealand. The award is based on six indicators – ability to scale, balance sheet growth, risk profile, profitability, asset quality and liquidity. The organisation has been giving such awards since 2007.</t>
+          <t>Hong Kong's five biggest lenders, including the three note-issuing banks HSBC, Standard Chartered and Bank of China (Hong Kong) (BOCHK), will raise key interest rates to the highest levels in 14 years, surprising the market with bigger-than-expected increases, following another jumbo rate hike by local and US monetary authorities. HSBC and subsidiary lender Hang Seng Bank, alongside BOCHK, will lift their prime rates by 25 basis points to 5.375 per cent, surpassing the previous record of 5.25 per cent set in March 2008, during the global financial crisis, according to separate statements on Thursday. Standard Chartered and Bank of East Asia will increase their prime rates by 25 basis points to 5.625 per cent. Do you have questions about the biggest topics and trends from around the world? Get the answers with SCMP Knowledge, our new platform of curated content with explainers, FAQs, analyses and infographics brought to you by our award-winning team. HSBC and Hang Seng will increase the rate from Friday, while the other three lenders will do so on Monday. All five will also boost their Hong Kong dollar savings rates by 25 basis points to 0.375 per cent. "In deciding the level of adjustment today, we have assessed the implications of recent economic reports, affordability for borrowers and interest to depositors," said Luanne Lim, CEO of HSBC Hong Kong. "We will continue to monitor the external environment and would be prepared to adjust our rates as appropriate, with a view to supporting a broad-based economic recovery in Hong Kong." All the increases will be twice as much as a previous rate rise in September. Other banks in the city are expected to follow suit. The Hong Kong Monetary Authority (HKMA) earlier raised its base rate to 4.25 per cent from 3.5 per cent, the sixth increase over eight months to a fresh 14-year high, with immediate effect on Thursday. That was in lockstep with the Federal Reserve's overnight decision to boost its target rate by 75 basis points, while signalling more tightening ahead to cool inflation. Story continues "If the US continues to raise interest rates, it is expected that the Hong Kong dollar interbank rates will continue to rise," HKMA CEO Eddie Yue Wai-man said in a statement. "The public should be prepared for the commercial interest rates to rise further, and carefully assess and manage the relevant risks when making property purchases, mortgages or other borrowing decisions." The local one-month interbank offered rate rose to 3.2 per cent on Thursday, while the three-month rate jumped to a 14-year high of 4.72 per cent, and the 12-month rate surged to 5.32 per cent. People crossing the street in Central on October 7. Photo: Sam Tsang alt=People crossing the street in Central on October 7. Photo: Sam Tsang&gt; The HKMA's cost of funds has surpassed the record 3.75 per cent last seen during the 2008 crisis. The HKMA has been conducting its monetary policy in tandem with the Fed since 1983 to maintain the currency peg to the US dollar under the city's linked exchange rate system. Financial Secretary Paul Chan Mo-po played down fears surrounding the rate rise. The city has a resilient banking system and foreign currency reserves of around US$430 billion, about 1.7 times Hong Kong's monetary base, he told bankers on the final day of the Global Financial Leaders' Investment Summit. "If you bet against the Hong Kong dollar, you are bound to lose," he reiterated his recent warning to currency speculators. "You can verify this with certain hedge fund managers in the US who have been wrong about the Hong Kong dollar time and again," Chan said without naming them, drawing chuckles from the audience. The Fed has now increased its key rate by 75 basis points four times in a lift-off from near zero in March to tame runaway inflation. US consumer prices surged at an annual rate of 8.2 per cent in September, slower than the preceding two months but still hovering near a four-decade high. HKMA CEO Eddie Yue Wai-man delivers his opening remarks at the Global Financial Leaders' Investment Summit at the Four Seasons Hotel in Central on November 2. Photo: Enoch Yiu alt=HKMA CEO Eddie Yue Wai-man delivers his opening remarks at the Global Financial Leaders' Investment Summit at the Four Seasons Hotel in Central on November 2. Photo: Enoch Yiu&gt; "Market expectations for future interest rates have edged marginally higher, with most 2023 rates moving to new cycle highs," said Paul O'Connor, head of multi-asset at Janus Henderson Investors. "Futures prices indicate that the Fed will raise rates by about 50 basis points in December and by a similar amount in the first quarter, to a peak of around 5 per cent." The Hang Seng Index halted a two-day rebound, falling 3.1 per cent to 15,339.49 on Thursday close, bringing this year's slide to 34 per cent. Stocks in Australia dropped 1.8 per cent, while markets in South Korea lost 0.3 per cent and Taiwan retreated by 0.8 per cent. The Global Financial Leaders' Investment Summit held at the Four Seasons Hotel on 2 November 2022. Photo: Sam Tsang alt=The Global Financial Leaders' Investment Summit held at the Four Seasons Hotel on 2 November 2022. Photo: Sam Tsang&gt; The US markets were spooked by the Fed chairman Jay Powell's hawkish tone, which leaves the door open for further aggressive rate increases, with economists predicting inflation to reaccelerate to 10.4 per cent in October. HSBC and other lender's move surprised analysts. Hong Kong's commercial banks were expected to increase their prime lending rate by 12.5 basis points to between 5.25 per cent and 5.375 per cent, they said before the HKMA's decision on Thursday. "The outflow from the banks' current and savings accounts to other banks and to US dollar deposits may start to exert pressure" on Hong Kong's banks, said Tommy Ong, managing director of T.O. &amp; Associates Consultancy. "An increase of 0.125 per cent on both the prime rate and savings rate seems the most palatable option to them." In Hong Kong, many outstanding home mortgages are based on prime, the rate that banks charge their best customers. The prime rate is used as a benchmark to price many personal and corporate loans. A customer with a 30-year HK$5 million (US$637,000) loan will have to pay HK$1,324 more per month after a 75-basis-point rise, according to mReferral. Additional reporting by Zhang Shidong This article originally appeared in the South China Morning Post (SCMP), the most authoritative voice reporting on China and Asia for more than a century. For more SCMP stories, please explore the SCMP app or visit the SCMP's Facebook and Twitter pages. Copyright © 2022 South China Morning Post Publishers Ltd. All rights reserved. Copyright (c) 2022. South China Morning Post Publishers Ltd. All rights reserved.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Islami Bank Bangladesh Limited has been recognised as the "Strongest Bank in Bangladesh" for the year 2022 by The Asian Banker. Foo Boon Ping, managing editor of The Asian Banker, officially announced the award on the virtual platform on 24 November 2022.</t>
+          <t>Hong Kong's five biggest lenders, including the three note-issuing banks HSBC, Standard Chartered and Bank of China (Hong Kong) (BOCHK), will raise key interest rates to the highest levels in 14 years, surprising the market with bigger-than-expected increases, following another jumbo rate hike by local and US monetary authorities. HSBC and subsidiary lender Hang Seng Bank, alongside BOCHK, will lift their prime rates by 25 basis points to 5.375 per cent, surpassing the previous record of 5.25 per cent set in March 2008, during the global financial crisis, according to separate statements on Thursday. Do you have questions about the biggest topics and trends from around the world? Get the answers with SCMP Knowledge, our new platform of curated content with explainers, FAQs, analyses and infographics brought to you by our award-winning team. In deciding the level of adjustment today, we have assessed the implications of recent economic reports, affordability for borrowers and interest to depositors," said Luanne Lim, CEO of HSBC Hong Kong. " That was in lockstep with the Federal Reserve's overnight decision to boost its target rate by 75 basis points, while signalling more tightening ahead to cool inflation. Photo: Sam Tsang alt=The Global Financial Leaders' Investment Summit held at the Four Seasons Hotel on 2 November 2022. Hong Kong's commercial banks were expected to increase their prime lending rate by 12.5 basis points to between 5.25 per cent and 5.375 per cent, they said before the HKMA's decision on Thursday. " Copyright © 2022 South China Morning Post Publishers Ltd. All rights reserved.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -626,148 +634,148 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8371597528457642</v>
+        <v>0.9778400063514709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Inequality rules - Visayan Daily Star</t>
+          <t>Bank of East Asia Executive in China Detained on Bribery Charge - Bloomberg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 17:37:01 GMT</t>
+          <t>Wed, 14 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A World Bank report that put the Philippines 15th out of 63 countries in terms of income inequality said that the top 1 percent of the country’s earners captured 17 percent of the total national income, with 14 percent of the income being shared by the bottom 50 percent. “With an income Gini coefficient of 42.3 percent in 2018, the Philippines ranks 15th of 63 countries for which data on income inequality is available. Of (East Asia and the Pacific) countries for which data are available for 2014-19, only in Thailand is income inequality greater than in the Philippines,” said the WB report. The gross inequality was attributed to “unequal opportunities, slow access to tertiary education among low-income households, inequality in returns to college education, and social norms putting the heavier burden of childcare on women.” The WB added that while the Philippines was able to alleviate poverty from 49.2 percent in 1985 to 16.7 percent in 2018, the problem of inequality still persists. “Inequality of opportunity and low mobility across generations wastes human potential and slow down innovation, which is crucial for building a competitive and prosperous economy that will, in turn, improve the well-being and quality of life of all Filipinos,” said Ndiame Diop, the World Bank Country Director for Brunei, Malaysia, Philippines and Thailand. In a country where the top 1 percent lord over 17 percent of the total national income while the bottom 50 percent make do with a mere 14 percent, more has to be done to reduce inequality. The problem is that it is the same top 1 percent that hold the wealth and the power to make that happen, and that will not happen long as they prioritize their interests. Unfortunately for Filipinos who are feeling the brunt of this inequality, until this country’s leaders feel more empathy towards the struggling masses and relate less with the filthy and well-connected rich, that gap is not going to close anytime soon.*</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A World Bank report that put the Philippines 15th out of 63 countries in terms of income inequality said that the top 1 percent of the country’s earners captured 17 percent of the total national income, with 14 percent of the income being shared by the bottom 50 percent. “ Inequality of opportunity and low mobility across generations wastes human potential and slow down innovation, which is crucial for building a competitive and prosperous economy that will, in turn, improve the well-being and quality of life of all Filipinos,” said Ndiame Diop, the World Bank Country Director for Brunei, Malaysia, Philippines and Thailand.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9512072205543518</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>US stocks wobble to a mixed close, indexes keep weekly gains - Torrington Register Citizen</t>
+          <t>Remittances Grow 5% in 2022, Despite Global Headwinds - World Bank Group</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:45:00 GMT</t>
+          <t>Wed, 30 Nov 2022 15:11:19 GMT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>This is a carousel. Use Next and Previous buttons to navigate Stocks wobbled to a mixed close on Wall Street Friday, but every major index notched weekly gains in a holiday-shortened week. Investors faced a relatively quiet day, though concerns about inflation, high interest rates and a potential recession still hover over Wall Street. Markets were closed on Thursday for the Thanksgiving holiday and closed at 1 p.m. Eastern Friday. The S&amp;P 500 fell 1.14 points, or less than 0.1%, to close at 4,026.12. Nearly 70% of stocks in the benchmark index gained ground, but the broader market was dragged lower by technology companies. High valuations for companies in the technology sector tend to give it more heft in pushing the market higher or lower. The Dow Jones Industrial Average rose 152.97 points, or 0.4%, to 34,347.03. The Nasdaq fell 58.96 points, or 0.5%, to 11,226.36. U.S. crude oil prices fell and weighed down energy stocks. Airlines and other travel-related companies gained ground as the busy holiday travel season kicks in. United Airlines rose 1.7%. Retailers were mixed as shoppers headed to stores for Black Friday. Home Depot rose 1.5% and Best Buy fell 1.4%. Long-term bond yields were relatively stable but still hovered around multi-decade highs. The yield on the 10-year Treasury, which influences mortgage rates, rose to 3.70% from 3.69% late Wednesday. Investors remain concerned about whether the Federal Reserve can tame the hottest inflation in decades by raising interest rates without going too far and causing a recession. The central bank’s benchmark rate currently stands at 3.75% to 4%, up from close to zero in March. It's warned it may have to ultimately raise rates to previously unanticipated levels to rein in high prices on everything from food to clothing. Minutes from the Fed's latest policy meeting, released on Wednesday, show that officials agreed that smaller rate hikes would likely be appropriate “soon.” That was welcomed by investors who are worried that continued aggressive rate hikes could slow the already weak economy too much. Investors also have their eyes on China's lockdowns and restrictions to curb the spread of coronavirus infections, as the direction China takes will impact the rest of Asia and global supply chains. China has been expanding pandemic lockdowns, including in a city where factory workers making Apple's iPhone clashed with police this week, as its number of COVID-19 cases hit a daily record. Apple fell 2%. Markets in Europe and Asia were mixed. Wall Street gets several big economic updates next week. The Conference Board business group will release its November report on consumer confidence, which could give investors more insight on how consumers are dealing with inflation. The U.S. government also releases its closely watched monthly employment report. ___ Yuri Kageyama contributed to this report.</t>
+          <t>WASHINGTON, Nov 30, 2022 — Remittances to low- and middle-income countries (LMICs) withstood global headwinds in 2022, growing an estimated 5% to $626 billion. This is sharply lower than the 10.2% increase in 2021, according to the latest World Bank Migration and Development Brief. Remittances are a vital source of household income for LMICs. They alleviate poverty, improve nutritional outcomes, and are associated with increased birth weight and higher school enrollment rates for children in disadvantaged households. Studies show that remittances help recipient households to build resilience, for example through financing better housing and to cope with the losses in the aftermath of disasters. Remittance flows to developing regions were shaped by several factors in 2022. A reopening of host economies as the COVID-19 pandemic receded supported migrants’ employment and their ability to continue helping their families back home. Rising prices, on the other hand, adversely affected migrants’ real incomes. Also influencing the value of remittances is the appreciation of the ruble, which translated into higher value, in U.S. dollar terms, of outward remittances from Russia to Central Asia. In the case of Europe, a weaker euro had the opposite effect of reducing the U.S. dollar valuation of remittance flows to North Africa and elsewhere. In countries that experienced scarcity of foreign exchange and multiple exchange rates, officially recorded remittance flows declined as flows shifted to alternative channels offering better rates. “Migrants help to ease tight labor markets in host countries while supporting their families through remittances. Inclusive social protection policies have helped workers weather the income and employment uncertainties created by the COVID-19 pandemic. Such policies have global impacts through remittances and must be continued,” said Michal Rutkowski, World Bank Global Director for Social Protection and Jobs. By region, Africa stands to be the most severely exposed to the concurrent crises, including severe drought and spikes in global energy and food commodity prices. Remittances to Sub-Saharan Africa are estimated to have increased 5.2% compared with 16.4% last year. In other regions, remittance flows are estimated to have increased 10.3% to Europe and Central Asia, where rising oil prices and demand for migrant workers in Russia supported remittances, in addition to the currency valuation effect. In Ukraine, remittance growth is estimated at 2%, lower than earlier projections as funds for Ukrainians were sent to countries hosting them, and hand-carried money transfers likely increased. Growth in remittance flows is estimated at 9.3% for Latin America and the Caribbean, 3.5% in South Asia, 2.5% in the Middle East and North Africa, and 0.7% in East Asia and the Pacific. In 2022, for the first time a single country, India, is on track to receive more than $100 billion in yearly remittances. In a special feature on climate-driven migration, the Brief notes that rising pressures from climate change will both drive increases in migration within countries and impair livelihoods. The poorest are likely to be most affected as they often lack the resources necessary to adapt or move. Studies show that migration can play a role in coping with climate impacts, for example, by providing an escape from disasters and also through remittances and other forms of support to affected households. Changes in the international legal norms and institutional frameworks for migration may be required to cope with the challenge of climate-related migration, particularly in the context of cross-border mobility, as is the case for small island nations. “People throughout history have responded to deteriorating climates by moving to survive. Planning for safe and regular migration as a part of adaptation strategies will be required for managing displacement in the affected regions as well as the influx of people in the receiving communities,” said Dilip Ratha, lead author of the Brief and head of the Global Knowledge Partnership on Migration and Development (KNOMAD). “National and regional development strategies should be viewed through a climate migration lens,” he added. Also reported in the Brief is the cost of sending $200 across international borders to LMICs, which remains high at 6% on average in the second quarter of 2022, according to the Remittances Prices Worldwide Database. It is cheapest to send via mobile operators (3.5%), but digital channels account for less than 1% of total transaction volume. Digital technologies allow for significantly faster and cheaper remittance services. However, the burden of compliance with Anti-Money Laundering/Combating the Financing of Terrorism regulations continues to restrict access of new service providers to correspondent banks. These regulations also affect migrants’ access to digital remittance services. Regional Remittance Trends Remittances to the East Asia and Pacific region are estimated to have increased by 0.7% to $134 billion in 2022, arresting the decline of the previous two years. Labor shortages in the hospitality and health sectors of high-income economies and higher oil prices benefiting Gulf Cooperation Council countries boosted demand for workers in 2022, which supported remittances. However, remittances to China are estimated to have dropped by nearly 4%, driven by restrictions on workers from traveling abroad due to COVID-related policies. Remittances as a share of GDP are significant in Tonga (50%) and Samoa (34%). In 2023, remittances are projected to decline by 1% due to weaker conditions in migrants’ destination countries. The cost of sending $200 to the region rose to 6.2% on average in the second quarter of 2022 from 5.8% a year earlier. Remittance flows to Europe and Central Asia are estimated to have increased by 10.3% to $72 billion in 2022. Rising oil prices and demand for migrant workers increased the flow of remittances from Russia to Central Asian countries. The appreciation of the ruble against the U.S. dollar translated into higher value, in dollar terms, of outward remittances from Russia to Central Asia. Remittances to the Kyrgyz Republic and Tajikistan exceed 30% of GDP. In 2023, remittance receipts are projected to moderate further to 4.2% growth due to a softer outlook for major remittance-sending countries. The cost of sending $200 to the region rose slightly to 6.4% on average in the second quarter of 2022 (data excludes corridors originating in Russia). Remittances to Latin America and the Caribbean are estimated to have grown 9.3% in 2022 to $142 billion. Data for the first nine months of 2022 show a 45% increase for Nicaragua, 20% for Guatemala, 15% for Mexico, and 9% for Colombia. Stronger employment of migrants from Latin America in the United States contributed to remittance flows. Remittances received by migrants in transit also contributed to strong flows in Mexico and Central America. As a share of GDP, remittances exceed 20% in El Salvador, Honduras, Jamaica, and Haiti. In 2023, remittances will likely moderate to 4.7% growth due to a weaker economic outlook for the United States, Italy, and Spain. Sending $200 to the region cost 6% on average in the second quarter of 2021, up from 5.6% a year ago. Remittances to the developing countries of the Middle East and North Africa are estimated to have grown 2.5% in 2022 to $63 billion, compared to a 10.5% growth last year. Slower growth in remittances is partly tied to the erosion of real wage gains in the Euro Area, even as demand for remittances in home countries increased amid deteriorating conditions, including drought in the Maghreb and high imported wheat prices. As a share of GDP, remittances are significant in Lebanon (38%) and West Bank and Gaza (19%). Remittance inflows are projected to grow by 2% in 2023. Sending $200 to the region cost 6.3% on average in the second quarter of 2022. Remittances to South Asia grew an estimated 3.5% to $163 billion in 2022, but there is large disparity across countries, from India’s projected 12% gain—which is on track to reach $100 billion in receipts for the year--to Nepal’s 4% increase, to an aggregate decline of 10% for the region’s remaining countries. The easing of flows reflects the discontinuation of special incentives some governments had introduced to attract flows during the pandemic, as well as preferences for informal channels offering better exchange rates. Remittances to India were enhanced by wage hikes and a strong labor market in the United States and other OECD countries. In the Gulf Cooperation Council destination countries, governments ensured low inflation through direct support measures that protected migrants’ ability to remit. Sending $200 to the region cost 4.1% on average in the second quarter of 2022, down from 4.3% a year ago. Remittances to Sub-Saharan Africa, the region most highly exposed to the effects of the global crisis, grew an estimated 5.2% to $53 billion in 2022, compared with 16.4% last year (due mainly to strong flows to Nigeria and Kenya). Remittances in 2023 are projected to soften to 3.9% growth as adverse conditions in the global environment and regional source countries persist. Remittances as a share of GDP are significant in the Gambia (28%), Lesotho (21%), and Comoros (20%). Sending $200 to the region cost 7.8% on average in the second quarter of 2022, down from 8.7% a year ago. Remitting from countries in the least expensive corridors is on average 3.4% compared to 25.2% for the costliest corridors. The Migration and Development Brief analyzes trends in migration-related SDG indicators: increasing the volume of remittances as a percentage of GDP, reducing remittance costs, and reducing recruitment costs.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Use Next and Previous buttons to navigate Stocks wobbled to a mixed close on Wall Street Friday, but every major index notched weekly gains in a holiday-shortened week. Investors faced a relatively quiet day, though concerns about inflation, high interest rates and a potential recession still hover over Wall Street. The yield on the 10-year Treasury, which influences mortgage rates, rose to 3.70% from 3.69% late Wednesday. The U.S. government also releases its closely watched monthly employment report. ___</t>
+          <t>WASHINGTON, Nov 30, 2022 — Remittances to low- and middle-income countries (LMICs) withstood global headwinds in 2022, growing an estimated 5% to $626 billion. This is sharply lower than the 10.2% increase in 2021, according to the latest World Bank Migration and Development Brief. Remittances are a vital source of household income for LMICs. Migrants help to ease tight labor markets in host countries while supporting their families through remittances. In other regions, remittance flows are estimated to have increased 10.3% to Europe and Central Asia, where rising oil prices and demand for migrant workers in Russia supported remittances, in addition to the currency valuation effect. The poorest are likely to be most affected as they often lack the resources necessary to adapt or move. Planning for safe and regular migration as a part of adaptation strategies will be required for managing displacement in the affected regions as well as the influx of people in the receiving communities,” said Dilip Ratha, lead author of the Brief and head of the Global Knowledge Partnership on Migration and Development (KNOMAD). “ In 2023, remittance receipts are projected to moderate further to 4.2% growth due to a softer outlook for major remittance-sending countries. Remittances received by migrants in transit also contributed to strong flows in Mexico and Central America. Remittances to the developing countries of the Middle East and North Africa are estimated to have grown 2.5% in 2022 to $63 billion, compared to a 10.5% growth last year. Slower growth in remittances is partly tied to the erosion of real wage gains in the Euro Area, even as demand for remittances in home countries increased amid deteriorating conditions, including drought in the Maghreb and high imported wheat prices. In the Gulf Cooperation Council destination countries, governments ensured low inflation through direct support measures that protected migrants’ ability to remit. Remittances as a share of GDP are significant in the Gambia (28%), Lesotho (21%), and Comoros (20%). Sending $200 to the region cost 7.8% on average in the second quarter of 2022, down from 8.7% a year ago.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9891237020492554</v>
+        <v>0.6967518329620361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charting the Global Economy: OECD Raises Inflation Forecast - Yahoo Finance</t>
+          <t>China Housing Crisis Fuels Record Loss in Bank of East Asia Debt - Bloomberg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 10:00:00 GMT</t>
+          <t>Wed, 26 Oct 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(Bloomberg) -- Central banks around the world must be steadfast in their inflation fight even though economies will suffer as a result, the OECD said this week. Most Read from Bloomberg The organization boosted its 2023 inflation estimates and said it expects price increases the following year will remain above the targets set by many global central banks. While economies will slow because of tighter monetary policies, the OECD didn’t forecast a recession. Though a survey of US manufacturers showed a fifth month of shrinking activity, another report indicated a healthy increase in business investment. A survey of the euro area businesses indicated that any downturn may not be severe as initially expected. Meantime, the Bank of China eased reserve requirements for banks to help bolster the world’s second-largest economy. Here are some of the charts that appeared on Bloomberg this week on the latest developments in the global economy: World The world’s central banks must keep raising interest rates to fight pervasive inflation, even as the global economy sinks into a significant slowdown, according to the OECD. The organization raised inflation projections for next year and said that while the global economy will suffer a “significant growth slowdown,” it’s not forecasting a recession. This week saw more major rate hikes across the world, with 75 basis-point hikes in Sweden, New Zealand and South Africa and full percentage-point moves in Pakistan and Nigeria. Turkey went the opposite way, cutting rates by 150 basis points. US Business activity contracted for a fifth month in November as demand faltered, while inflationary pressures continued to slowly ease. The S&amp;P Global flash composite purchasing managers’ index slid to the second-lowest level since the immediate aftermath of the pandemic. Story continues Orders placed with US factories for business equipment rebounded in October, suggesting capital spending plans are holding up in the face of higher borrowing costs and broader economic uncertainty. Core capital goods shipments jumped the most since the start of the year, suggesting a solid start to fourth-quarter gross domestic product. Europe Euro-area businesses see tentative signs that the region’s economic slump may be easing as record inflation cools and expectations for future production improve. A gauge measuring activity in manufacturing and services unexpectedly rose in November, according to S&amp;P Global. Sweden’s home-price decline accelerated in October, as the Nordic country gripped by the most severe housing slump in three decades shows what may lie ahead for many other developed economies. Asia For the second time this year, China’s central bank cut the amount of cash lenders must hold in reserve, ramping up support for an economy racked by surging Covid cases and a continued property downturn. The People’s Bank of China reduced the reserve requirement ratio for most banks by 25 basis points. Signs are growing in China that local government debt burdens are becoming unsustainable. China’s 31 provincial governments have a stockpile of outstanding bonds that’s close to the Ministry of Finance’s risk threshold of 120% of income. A major cause of the financial squeeze is the property crisis. Australia has spent big to attract swathes of Indian tourists to its shores, signed a free-trade deal with post-Brexit Britain and uncovered new Middle East markets during its 30-month trade rift with China. Still, outside iron ore and other key commodities, there’s been substantial pain for exporters. Emerging Markets Chile is set to lead the world into a steep interest rate-cutting cycle next year as inflation slows and its economy goes from boom to bust, according to swap markets. Traders are forecasting more than 5 percentage points in cuts in the next 12 months after a surprise inflation print last month and as the economy teeters on the edge of recession. Shipments of boats, vehicles and computer parts are leading Mexico’s export boom, showing growing US demand for industrial products from its southern neighbor. The export of boats produced in Mexico increased 266% in September compared to a year ago, the fastest-growing item among Mexican exports worth more than $100 million. --With assistance from Maya Averbuch, Sebastian Boyd, Valentina Fuentes, Sybilla Gross, William Horobin, John Liu, Yujing Liu, Swati Pandey, Reade Pickert, Jana Randow, Niclas Rolander, Zoe Schneeweiss and Ben Westcott. Most Read from Bloomberg Businessweek ©2022 Bloomberg L.P.</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(Bloomberg) -- Central banks around the world must be steadfast in their inflation fight even though economies will suffer as a result, the OECD said this week. Most Read from Bloomberg The organization boosted its 2023 inflation estimates and said it expects price increases the following year will remain above the targets set by many global central banks. This week saw more major rate hikes across the world, with 75 basis-point hikes in Sweden, New Zealand and South Africa and full percentage-point moves in Pakistan and Nigeria. Core capital goods shipments jumped the most since the start of the year, suggesting a solid start to fourth-quarter gross domestic product. Asia For the second time this year, China’s central bank cut the amount of cash lenders must hold in reserve, ramping up support for an economy racked by surging Covid cases and a continued property downturn. Signs are growing in China that local government debt burdens are becoming unsustainable.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.999998927116394</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Global Refinancing Market is expected to grow at a CAGR of 5.80% by 2030 | Key Players – Wells Fargo Bank N.A., Bank of America N.A., Ally Financial Inc, JPMorgan Chase &amp; Co - Digital Journal</t>
+          <t>Developing Asia adapts to the dollar's strength - East Asia Forum</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 22:43:06 GMT</t>
+          <t>Tue, 08 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The Global Refinancing Market Report comprises an exhaustive analysis of the current market status, market players, region, type, and application. The report provides an in-depth assessment of growth factors, market definition, manufacturers, market potential, and influencing trends to understand future demand and outlook for the global industry along with market size, company share, sales volume, and revenue during the historical and forecast period of 2030. The research report covers key players in the industry, CAGR value, market drivers, restraints, and competitive strategies worldwide from the region. Readers will find this report very helpful in understanding the market in depth as the Refinancing Market report delivers the market outline and development status by types and applications, specifies its price and profit status, market growth drivers, and challenges. Finally, the report also contains the opinions of industry experts. The report includes the completely examined and evaluated data of the noticeable companies and their situation in the market considering impact of Coronavirus. The measured tools including SWOT analysis, Porter’s five powers analysis, and assumption return debt were utilized while separating the improvement of the key players performing in the market. Get PDF sample report with related graphs &amp; charts (Pre &amp; post COVID-19 impact analysis): https://www.marketresearchinc.com/request-sample.php?id=116539 Major Market Players Profiled in the Refinancing Market Report include: Wells Fargo Bank N.A., Bank of America N.A., Ally Financial Inc, JPMorgan Chase &amp; Co, Rocket Mortgage LLC (Quicken Loans), Citigroup Inc, RefiJet, Better Holdco Inc, LoanDepot, Caliber Home Loans Inc, Others. A detailed overview of the purchasing criteria and difficulties confronted in the Refinancing business sector is also elaborated in this report. It likewise constitutes a broad investigation of the restraints on the market, business sector structure and the business pattern of the Refinancing market. Meetings and interviews with the leading market participants have been used in order to present primary information regarding the market. Furthermore, this report gives a complete review of the magnitude and application scope of the market around the world. Why the Refinancing Market Report is Beneficial? The Refinancing report is compiled with a thorough and dynamic research methodology. This report offers a complete picture of the competitive scenario of the Refinancing It comprises vast amount of information about the latest technology and product developments in the industry. The extensive range of analysis associates with the impact of these improvements on the future of Refinancing industry growth. The report has combined the required essential historical data and analysis in the comprehensive research report. The insights in the Refinancing report can be easily understood and contains a graphical representation of the figures in the form of bar graphs, statistics and pie charts, etc. This report can be customized to meet the client’s requirements. Please connect with our sales team, who will ensure that you get a report that suits your needs. Speak to our analyst in case of queries before buying this report: https://www.marketresearchinc.com/enquiry-before-buying.php?id=116539 Study Objectives of this Report: Detailed overview of market. Changing market dynamics of the industry. In-depth market segmentation by Type, Application etc. Historical, current and projected market size in terms of volume and value. Recent industry trends and developments. Competitive landscape of market. Strategies of key players and product offerings. Potential and niche segments/regions exhibiting promising growth. A neutral perspective towards market performance. Market players’ information to sustain and enhance their footprint. Purchase the latest in-depth Refinancing Market Report @ https://www.marketresearchinc.com/checkout?id=116539&amp;price=4600 Global Refinancing Market: By Type On-Premise Cloud-Based By End User Personal Commercial By Geography: North America [U.S., Canada, Mexico] Europe [Germany, UK, France, Italy, Rest of Europe] Asia-Pacific [China, India, Japan, South Korea, Southeast Asia, Australia, Rest of Asia Pacific] South America [Brazil, Argentina, Rest of Latin America] Middle East &amp; Africa [GCC, North Africa, South Africa, Rest of the Middle East and Africa] We appreciate your reading the article in its entirety. If you would like to know more about the Refinancing market, looking for customization, contact us. To achieve a full market reach of Refinancing, or explore more about opportunities reach our research analyst. Our team is available 24/7 to assist and support our customers through reliable research. Access the full report here: https://www.marketresearchinc.com/service-industries/Global-Refinancing-Market-2022—Size–Share–Price–Trends-and-Forecast-to-2030-116539 Contact Us Market Research Inc. Author: Kevin US Address: 51 Yerba Buena Lane, Ground Suite, Inner Sunset San Francisco, CA 94103, USA Call Us: +1 (628) 225-1818 Write Us: [email protected]</t>
+          <t>Author: Michael G Plummer, JHU The US dollar is on a tear. According to the Federal Reserve Bank of St Louis’s US Dollar Index, it has risen by approximately 13 per cent in 2022 against a broad basket of currencies. It is at its highest level since the 2008–09 global financial crisis (GFC). Asian currencies have not been spared. The Japanese yen and the Chinese RMB are at two-decade and 14-year lows, respectively. In 2022, the US dollar has appreciated by one-fifth relative to the South Korean won and by over one-tenth against the Malaysian ringgit, Philippine peso and Thai baht. There are many reasons for the underlying strength of the dollar. Financial markets respond to risk and reward — and these are both changing in support of investments in the United States. Heightened risk in the global marketplace leads to a ‘flight to safety’ phenomenon in favour of US assets, even if the main shock originates in the US market as it did during the GFC. Risk in the global economy is unprecedentedly high. Just as the world economy seemed to be exiting from a once-in-a-century pandemic, it now faces the first major war in Europe since World War II, volatility in key natural resource markets, stagflation in developed economies and the threat of a global recession. The IMF lowered its 2022 global growth forecast to 3.2 per cent, about one half of actual growth in 2021. In terms of reward, the US Federal Reserve (Fed) has raised interest rates several times in 2022 to tame inflation. That significantly increases the return on safe assets in the United States. The market yield on benchmark 10-year US Treasury securities is 4.0 per cent as of October 2022, compared to 1.6 per cent in January. Global risk and uncertainty are likely to persist for some time and the Fed intends to keep raising interest rates until inflation comes down. Many economists predict that this will take a recession, but the Fed has signalled that it is more concerned with inflation at this point. Asia needs to prepare for a continuing strong dollar, at least in the short-term. It may appear that this is not all bad for export-orientated Asian economies, since weaker currencies make exports more competitive. But a large share of Asian exports is embedded in global and regional value chains According to the Asian Development Bank (ADB), Asia’s value chain linkages come to about two-thirds of its total trade — so cheaper exports will be offset by more expensive imported inputs. Trade as a proportion of Vietnam’s GDP rose from 19 per cent in 1989 to 209 per cent in 2020, with much of its trade embedded in global value chains. Depreciating currencies in open economies also raise the price level. More importantly, capital flight to US dollar-based markets has negative implications for investment at home, exacerbated by rising risks due to volatile exchange rates. Central banks of economies with ‘managed float’ exchange rate regimes, like most in Asia, can intervene to reduce the volatility of their currencies. This means that foreign exchange reserves will fall. Most East Asian central banks have kept plenty of foreign-exchange reserves since the Asian financial crisis, protecting them during the GFC and the COVID-19 shock. But rapid reserve depletion could increase uncertainty. This may encourage East Asian economies to accumulate higher levels of reserves in the future. Falling currencies also increase the cost of servicing dollar-denominated debt, a critical concern for some South Asian and Southeast Asian economies. The region’s central banks have little choice but to tighten in their own markets, depreciating their currencies and selling dollar-denominated currency reserves, which will hurt liquidity unless sterilised. More contractionary monetary policy will reduce domestic investment and consumption, suggesting that economies will have to engage in innovative aggregate demand management, including fiscal policy, to the extent they have the fiscal space to do so. This is the direction that East Asian developing economies seem to be taking and most are adapting well. Currencies are depreciating moderately in most cases. Interest rates are rising — perhaps inevitably with rising inflation — and foreign-exchange reserves are falling. The ADB’s September 2022 update projects 5.1 per cent growth for Southeast Asia — up slightly from its April forecast. China’s growth in the third quarter came to 3.9 per cent, exceeding expectations and up from 2.5 per cent growth in the first half of the year. Fearing an economic slowdown, Beijing has refrained from increasing interest rates, instead focussing on defending the declining RMB. The depreciation of the RMB will put pressure on the currencies of East Asian economies competing with China in third markets. Growth in South Asia is projected to be 6.5 per cent, but the performance across economies is mixed. India seems to be doing well compared to Northeast Asia, with the rupee depreciating by about 10 per cent. But Sri Lanka is in a crisis with no end in sight. Pakistan appears to be on edge with a respectable growth forecast of 6 per cent for 2022, but with low foreign exchange reserves. Despite the resumption of an IMF program in August, its currency has lost 30 per cent of its value so far this year. A strong US dollar will likely continue for the near future and Asian economies need to prepare for a rough 2023. But most governments in developing Asia are so far doing an admirable job of walking the tightrope between sustaining growth and dealing with the strong dollar. Michael G Plummer is Director of SAIS Europe, Eni Professor of International Economics at Johns Hopkins University and a non-resident senior fellow at the East–West Center.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The Global Refinancing Market Report comprises an exhaustive analysis of the current market status, market players, region, type, and application. Readers will find this report very helpful in understanding the market in depth as the Refinancing Market report delivers the market outline and development status by types and applications, specifies its price and profit status, market growth drivers, and challenges. A detailed overview of the purchasing criteria and difficulties confronted in the Refinancing business sector is also elaborated in this report. The extensive range of analysis associates with the impact of these improvements on the future of Refinancing industry growth. Potential and niche segments/regions exhibiting promising growth. If you would like to know more about the Refinancing market, looking for customization, contact us.</t>
+          <t>According to the Federal Reserve Bank of St Louis’s US Dollar Index, it has risen by approximately 13 per cent in 2022 against a broad basket of currencies. There are many reasons for the underlying strength of the dollar. The IMF lowered its 2022 global growth forecast to 3.2 per cent, about one half of actual growth in 2021. Global risk and uncertainty are likely to persist for some time and the Fed intends to keep raising interest rates until inflation comes down. Most East Asian central banks have kept plenty of foreign-exchange reserves since the Asian financial crisis, protecting them during the GFC and the COVID-19 shock. The region’s central banks have little choice but to tighten in their own markets, depreciating their currencies and selling dollar-denominated currency reserves, which will hurt liquidity unless sterilised. But most governments in developing Asia are so far doing an admirable job of walking the tightrope between sustaining growth and dealing with the strong dollar. Michael G Plummer is Director of SAIS Europe, Eni Professor of International Economics at Johns Hopkins University and a non-resident senior fellow at the East–West Center.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8507620096206665</v>
+        <v>0.9659911394119263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TE Connectivity Ltd. (NYSE:TEL) Receives Consensus Recommendation of "Hold" from Brokerages - MarketBeat</t>
+          <t>Strong dollar snowballs across Asia - East Asia Forum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 06:51:48 GMT</t>
+          <t>Mon, 28 Nov 2022 11:00:38 GMT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TE Connectivity Ltd. (NYSE:TEL - Get Rating) has been given an average rating of "Hold" by the ten analysts that are covering the company, Marketbeat reports. Five investment analysts have rated the stock with a hold rating and two have given a buy rating to the company. The average 12-month price target among brokers that have issued ratings on the stock in the last year is $138.56. TEL has been the subject of several recent analyst reports. Royal Bank of Canada lowered their target price on shares of TE Connectivity from $147.00 to $138.00 and set an "outperform" rating for the company in a research note on Thursday, November 3rd. Jefferies Financial Group raised their target price on shares of TE Connectivity from $140.00 to $154.00 in a research note on Tuesday. Bank of America lowered their price objective on shares of TE Connectivity from $146.00 to $140.00 in a research note on Wednesday, November 2nd. StockNews.com upgraded shares of TE Connectivity from a "hold" rating to a "buy" rating in a research note on Friday. Finally, JPMorgan Chase &amp; Co. lowered their price objective on shares of TE Connectivity from $145.00 to $135.00 and set a "neutral" rating for the company in a research note on Thursday, November 3rd. TE Connectivity Stock Performance Shares of TEL stock opened at $127.99 on Friday. The firm has a market cap of $40.60 billion, a price-to-earnings ratio of 17.13, a PEG ratio of 2.58 and a beta of 1.31. TE Connectivity has a 52-week low of $104.76 and a 52-week high of $165.81. The company has a quick ratio of 0.99, a current ratio of 1.57 and a debt-to-equity ratio of 0.30. The company's 50 day moving average is $117.78 and its 200 day moving average is $122.15. TE Connectivity (NYSE:TEL - Get Rating) last announced its earnings results on Wednesday, November 2nd. The electronics maker reported $1.88 earnings per share for the quarter, beating the consensus estimate of $1.87 by $0.01. The company had revenue of $4.36 billion during the quarter, compared to the consensus estimate of $4.22 billion. TE Connectivity had a net margin of 14.91% and a return on equity of 22.31%. On average, sell-side analysts anticipate that TE Connectivity will post 6.87 EPS for the current fiscal year. Insider Activity at TE Connectivity In related news, insider Shadrak W. Kroeger sold 42,150 shares of the business's stock in a transaction on Wednesday, November 16th. The shares were sold at an average price of $126.25, for a total transaction of $5,321,437.50. Following the completion of the transaction, the insider now directly owns 15,595 shares in the company, valued at $1,968,868.75. The transaction was disclosed in a legal filing with the Securities &amp; Exchange Commission, which is available at the SEC website. In other TE Connectivity news, EVP John S. Jenkins sold 2,674 shares of TE Connectivity stock in a transaction on Friday, November 18th. The shares were sold at an average price of $125.85, for a total value of $336,522.90. Following the completion of the transaction, the executive vice president now owns 16,782 shares of the company's stock, valued at $2,112,014.70. The transaction was disclosed in a filing with the Securities &amp; Exchange Commission, which can be accessed through this link. Also, insider Shadrak W. Kroeger sold 42,150 shares of TE Connectivity stock in a transaction on Wednesday, November 16th. The shares were sold at an average price of $126.25, for a total transaction of $5,321,437.50. Following the completion of the transaction, the insider now directly owns 15,595 shares of the company's stock, valued at approximately $1,968,868.75. The disclosure for this sale can be found here. 0.73% of the stock is currently owned by insiders. Institutional Trading of TE Connectivity A number of institutional investors and hedge funds have recently modified their holdings of the stock. Farmers &amp; Merchants Trust Co of Chambersburg PA boosted its holdings in TE Connectivity by 135.6% in the 2nd quarter. Farmers &amp; Merchants Trust Co of Chambersburg PA now owns 238 shares of the electronics maker's stock valued at $27,000 after purchasing an additional 137 shares during the last quarter. TD Capital Management LLC purchased a new stake in shares of TE Connectivity in the 3rd quarter valued at approximately $27,000. Tcwp LLC purchased a new stake in shares of TE Connectivity in the 1st quarter valued at approximately $30,000. Selective Wealth Management Inc. increased its position in shares of TE Connectivity by 2,580.0% in the 2nd quarter. Selective Wealth Management Inc. now owns 268 shares of the electronics maker's stock valued at $30,000 after purchasing an additional 258 shares during the last quarter. Finally, Trustcore Financial Services LLC grew its position in shares of TE Connectivity by 107.7% in the 3rd quarter. Trustcore Financial Services LLC now owns 270 shares of the electronics maker's stock valued at $30,000 after buying an additional 140 shares during the last quarter. Hedge funds and other institutional investors own 90.61% of the company's stock. About TE Connectivity TE Connectivity Ltd., together with its subsidiaries, manufactures and sells connectivity and sensor solutions in Europe, the Middle East, Africa, the Asia-Pacific, and the Americas. The company operates through three segments: Transportation Solutions, Industrial Solutions, and Communications Solutions. Featured Stories This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider TE Connectivity, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and TE Connectivity wasn't on the list. While TE Connectivity currently has a "Hold" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>Author: Brad Setser, Council on Foreign Relations The dollar’s strength is placing pressure on economies around the world, including in developing Asia. What makes this bout of dollar strength unique is that the stress is not limited to Asia’s developing economies. Asian economies are diverse and the direct financial impact of dollar strength varies. Some regional economies have significant foreign currency debts and limited foreign currency reserves. Unsurprisingly, these economies are in financial trouble. Sri Lanka defaulted on its bonds earlier in the year and is now trying to restructure its external debt. Pakistan has had to seek an emergency financing package from the International Monetary Fund, backstopped with pledges of additional support from both China and the Gulf. Bangladesh has proactively sought out IMF financing in the face of a terms of trade shock. Laos is, in all probability, relying on the continued forbearance of China’s policy banks to manage its unsustainable debt loads. All these countries are struggling to pay for imports of oil and natural gas. A broader set of Asian economies have relatively strong foreign currency balance sheets and are not at risk of immediate financial distress. Many have been able to rely on their local currency bond markets to finance fiscal deficits, limiting their direct financial vulnerability to swings in the dollar. India is in a much stronger position than during the 2013–14 ‘taper’ tantrum. It started 2022 with US$650 billion in foreign reserves, more than double the US$250 billion it held in 2012. The Indian government’s external debt, primarily to the multilateral development banks, only totalled US$125 billion. Thailand’s government started 2022 with over US$250 billion in foreign exchange reserves — or over 50 per cent of its GDP — while owing a bit over US$30 billion to external creditors. Other countries have more subtle strengths. For example, a substantial share of Indonesia’s US$80 billion in international sovereign bonds are denominated in yen. At the same time, balance sheet resilience is not sufficient to insulate a country’s broader economy from the impacts of a strong dollar. Even countries that have little to fear financially worry about the impact of currency weakness on households’ costs of living. There has been little correlation to date between the extent of currency depreciation across the main Asian currencies and the underlying strength of countries’ foreign currency balance sheets. The currencies of advanced Asian economies have actually depreciated more than the currencies of developing Asian economies. Japan — with plenty of reserves, significant foreign assets in its government pension fund and insurance companies that are structurally ‘long’ dollars — has experienced the largest depreciation. Taiwan and South Korea have followed. Meanwhile India, Indonesia, Malaysia and Thailand have experienced smaller depreciations. The reason for this is simple. Up until Japan’s heavy intervention in late September 2022, lower income Asian economies had been more willing to defend their currencies through a combination of rate increases and foreign reserve sales. There are signs that this is changing. Japan intervened heavily in September and October. South Korea is now worried that the won has become too weak and is seeking to join Japan in obtaining a standing Federal Reserve swap line to meet dollar liquidity needs in its financial sector — potentially freeing up more of its existing reserves for intervention. Even though the dollar is now off its October peak, developing Asian economies continue to face several risks. The first is that certain economies may overestimate their balance sheet strength and sell foreign exchange for longer than is prudent. The basic principle is that temporary shocks can be financed with borrowed or reserve sales while permanent shocks require adjustment. The longer global energy prices remain high and the dollar remains strong, the more difficult it will be for countries to avoid adjustment. The second risk is the possibility of an additional shock from Japan. Japan’s efforts to limit the yen’s depreciation through intervention may fail, as it is harder for Japan to defend its currency through intervention than it is for smaller economies, whose financial markets remain less integrated into global markets. There is the additional risk that yen weakness and imported inflation could lead the Bank of Japan to abandon its policy of ‘yield curve control’ and that the associated rise in long-term Japanese government bond rates could push up interest rates globally. Many emerging economies would likely need to raise their domestic interest rates to avoid importing additional inflation, and to limit popular pressure for fiscal subsidies to offset higher fuel prices. This would be the Asian version of what is now called a reverse currency war. The third risk is a currency shock from China. China has long relied primarily on the signal sent by the People’s Bank of China’s daily fix — the central reference point for daily trading — to manage the yuan with only limited direct intervention by its central bank. To date, the pressure on China appears manageable. News reports suggest that the PBoC has leaned on China’s large state banks to use their balance sheets to help maintain the trading band around the yuan, but there is little evidence of pressure on the central bank’s reserves. However, if its economy remains weak, China may choose to allow more depreciation — both against the dollar and against the currencies of its trading partners to restart its economy. This would be an admission that China’s ability to avoid a prolonged stall through internal demand is limited and that exports are again required for growth. A yuan that is as weak as the yen could easily trigger a race down across the currencies of developing Asia. Many, though not all, developing Asian economies are less vulnerable to a repeat of the 1997 crisis. But few countries will be able to escape the fallout from the dollar’s current strength. A broader overshoot of many currencies that amplifies concentrated pockets of debt difficulties and complicates the fight against inflation globally remains a real risk. Brad W Setser is Whitney Shepardson Senior Fellow at the Council on Foreign Relations.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TE Connectivity Ltd. (NYSE:TEL - Get Rating) has been given an average rating of "Hold" by the ten analysts that are covering the company, Marketbeat reports. Finally, JPMorgan Chase &amp; Co. lowered their price objective on shares of TE Connectivity from $145.00 to $135.00 and set a "neutral" rating for the company in a research note on Thursday, November 3rd. The firm has a market cap of $40.60 billion, a price-to-earnings ratio of 17.13, a PEG ratio of 2.58 and a beta of 1.31. TE Connectivity had a net margin of 14.91% and a return on equity of 22.31%. The shares were sold at an average price of $126.25, for a total transaction of $5,321,437.50. The transaction was disclosed in a filing with the Securities &amp; Exchange Commission, which can be accessed through this link. Tcwp LLC purchased a new stake in shares of TE Connectivity in the 1st quarter valued at approximately $30,000. Trustcore Financial Services LLC now owns 270 shares of the electronics maker's stock valued at $30,000 after buying an additional 140 shares during the last quarter. Please send any questions or comments about this story to contact@marketbeat.com. While TE Connectivity currently has a "Hold" rating among analysts, top-rated analysts believe these five stocks are better buys.</t>
+          <t>Author: Brad Setser, Council on Foreign Relations The dollar’s strength is placing pressure on economies around the world, including in developing Asia. A broader set of Asian economies have relatively strong foreign currency balance sheets and are not at risk of immediate financial distress. Many have been able to rely on their local currency bond markets to finance fiscal deficits, limiting their direct financial vulnerability to swings in the dollar. It started 2022 with US$650 billion in foreign reserves, more than double the US$250 billion it held in 2012. At the same time, balance sheet resilience is not sufficient to insulate a country’s broader economy from the impacts of a strong dollar. There has been little correlation to date between the extent of currency depreciation across the main Asian currencies and the underlying strength of countries’ foreign currency balance sheets. News reports suggest that the PBoC has leaned on China’s large state banks to use their balance sheets to help maintain the trading band around the yuan, but there is little evidence of pressure on the central bank’s reserves. A yuan that is as weak as the yen could easily trigger a race down across the currencies of developing Asia. Brad W Setser is Whitney Shepardson Senior Fellow at the Council on Foreign Relations.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -776,28 +784,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9047508239746094</v>
+        <v>0.5173178911209106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InterContinental Hotels Group PLC (LON:IHG) Given Consensus Recommendation of "Moderate Buy" by Brokerages - MarketBeat</t>
+          <t>Deutsche Bank Targets Asia, Middle East for Wealth Ambitions - Bloomberg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 08:33:45 GMT</t>
+          <t>Mon, 21 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shares of InterContinental Hotels Group PLC (LON:IHG - Get Rating) have been assigned an average recommendation of "Moderate Buy" from the eight ratings firms that are presently covering the company, MarketBeat Ratings reports. Four analysts have rated the stock with a hold rating and four have given a buy rating to the company. The average 1 year price target among brokerages that have issued ratings on the stock in the last year is GBX 5,733.33 ($67.79). A number of research analysts recently issued reports on IHG shares. Citigroup restated a "neutral" rating and set a GBX 4,980 ($58.89) price objective on shares of InterContinental Hotels Group in a report on Wednesday, August 3rd. Barclays restated an "overweight" rating and set a GBX 5,400 ($63.85) price objective on shares of InterContinental Hotels Group in a report on Thursday, November 17th. Shore Capital cut shares of InterContinental Hotels Group to a "neutral" rating in a report on Friday, August 19th. Royal Bank of Canada reiterated an "overweight" rating and issued a GBX 6,100 ($72.13) price target on shares of InterContinental Hotels Group in a report on Wednesday, August 10th. Finally, Deutsche Bank Aktiengesellschaft reiterated a "buy" rating and issued a GBX 5,520 ($65.27) price target on shares of InterContinental Hotels Group in a report on Tuesday. InterContinental Hotels Group Stock Performance Shares of LON IHG opened at GBX 4,787 ($56.60) on Friday. The stock has a market cap of £8.45 billion and a P/E ratio of 2,442.35. The firm has a 50 day moving average price of GBX 4,581.27 and a 200 day moving average price of GBX 4,674.85. InterContinental Hotels Group has a 52-week low of GBX 4,174 ($49.36) and a 52-week high of GBX 5,386 ($63.69). InterContinental Hotels Group Company Profile InterContinental Hotels Group PLC owns, manages, franchises, and leases hotels in the Americas, Europe, Asia, the Middle East, Africa, and Greater China. The company operates hotels under the Six Senses, Regent, InterContinental Hotels &amp; Resorts, Vignette Collection, Kimpton Hotels &amp; Restaurants, Hotel Indigo, EVEN Hotels, HUALUXE, Holiday Inn, Holiday Inn Express, Holiday Inn Club Vacations, avid, Staybridge Suites, Atwell Suites, Candlewood Suites, voco, and Crowne Plaza. See Also This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider InterContinental Hotels Group, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and InterContinental Hotels Group wasn't on the list. While InterContinental Hotels Group currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Shares of InterContinental Hotels Group PLC (LON:IHG - Get Rating) have been assigned an average recommendation of "Moderate Buy" from the eight ratings firms that are presently covering the company, MarketBeat Ratings reports. Citigroup restated a "neutral" rating and set a GBX 4,980 ($58.89) price objective on shares of InterContinental Hotels Group in a report on Wednesday, August 3rd. The stock has a market cap of £8.45 billion and a P/E ratio of 2,442.35. The company operates hotels under the Six Senses, Regent, InterContinental Hotels &amp; Resorts, Vignette Collection, Kimpton Hotels &amp; Restaurants, Hotel Indigo, EVEN Hotels, HUALUXE, Holiday Inn, Holiday Inn Express, Holiday Inn Club Vacations, avid, Staybridge Suites, Atwell Suites, Candlewood Suites, voco, and Crowne Plaza. This story was reviewed by MarketBeat's editorial team prior to publication.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -806,28 +814,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9991973042488098</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Stocks close mixed on Wall Street; S&amp;P notches weekly gain - East Bay Times</t>
+          <t>Bank of East Asia China Denies Rumors Lender Failed to Pay Out on Wealth Products - Yicai Global</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:18:05 GMT</t>
+          <t>Tue, 27 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>By DAMIAN J. TROISE (AP Business Writer) Stocks wobbled to a mixed close on Wall Street Friday, but every major index notched weekly gains in a holiday-shortened week. Investors faced a relatively quiet day, though concerns about inflation, high interest rates and a potential recession still hover over Wall Street. Markets were closed on Thursday for the Thanksgiving holiday and closed at 1 p.m. Eastern Friday. The S&amp;P 500 fell 1.14 points, or less than 0.1%, to close at 4,026.12. Nearly 70% of stocks in the benchmark index gained ground, but the broader market was dragged lower by technology companies. High valuations for companies in the technology sector tend to give it more heft in pushing the market higher or lower. The Dow Jones Industrial Average rose 152.97 points, or 0.4%, to 34,347.03. The Nasdaq fell 58.96 points, or 0.5%, to 11,226.36. U.S. crude oil prices fell and weighed down energy stocks. Airlines and other travel-related companies gained ground as the busy holiday travel season kicks in. United Airlines rose 1.7%. Retailers were mixed as shoppers headed to stores for Black Friday. Home Depot rose 1.5% and Best Buy fell 1.4%. Long-term bond yields were relatively stable but still hovered around multi-decade highs. The yield on the 10-year Treasury, which influences mortgage rates, rose to 3.70% from 3.69% late Wednesday. Investors remain concerned about whether the Federal Reserve can tame the hottest inflation in decades by raising interest rates without going too far and causing a recession. The central bank’s benchmark rate currently stands at 3.75% to 4%, up from close to zero in March. It’s warned it may have to ultimately raise rates to previously unanticipated levels to rein in high prices on everything from food to clothing. Minutes from the Fed’s latest policy meeting, released on Wednesday, show that officials agreed that smaller rate hikes would likely be appropriate “soon.” That was welcomed by investors who are worried that continued aggressive rate hikes could slow the already weak economy too much. Investors also have their eyes on China’s lockdowns and restrictions to curb the spread of coronavirus infections, as the direction China takes will impact the rest of Asia and global supply chains. China has been expanding pandemic lockdowns, including in a city where factory workers making Apple’s iPhone clashed with police this week, as its number of COVID-19 cases hit a daily record. Apple fell 2%. Markets in Europe and Asia were mixed. Wall Street gets several big economic updates next week. The Conference Board business group will release its November report on consumer confidence, which could give investors more insight on how consumers are dealing with inflation. The U.S. government also releases its closely watched monthly employment report. ___ Yuri Kageyama contributed to this report.</t>
+          <t>(Yicai Global) Sept. 27 -- Bank of East Asia’s Chinese mainland unit denied online rumors that the lender has defaulted on wealth management products, claims that come just two weeks after the reported detention of one of its top executives in the mainland on suspicion of taking bribes. BEA China and all branches under its jurisdiction are operating normally and orderly, with sound and stable business and management, its Hong Kong-based parent company told Yicai Global yesterday. The firm has reported the matter to the police, it added. The rumors that BEA China has defaulted on all wealth management products except deposits started to spread on social media platforms yesterday. On Sept. 13, financial news outlet Cailianshe reported that Chinese police had detained Chen Zhiren, assistant to BEA China’s president and head of the lender’s North China region, on July 19, adding that he was suspected of being bribed to make loans. The next day Bank of East Asia told Yicai Global that the matter solely concerned the personal actions of an individual employee. Incorporated in 2007, BEA China has been fined nearly CNY30 million (USD4.2 million) for regulatory breaches in the past two years. The China Banking and Insurance Regulatory Commission fined the lender CNY11.2 million in May last year for 18 violations of laws and regulations, including failing to record loans to property developers in the right accounts. BEA China also received a CNY16.7 million fine on Jan. 10 for violating credit information collection and related regulations, according to the administrative penalty information released by the Shanghai branch of the People’s Bank of China. In April, the bank’s Ningbo branch was fined CNY300,000 (USD41,900) for management failures and misappropriation of property development loans, administrative penalty information from the CBIRC’s local bureau showed. BEA China had over 3,250 employees as of Dec. 31, with 70 outlets in 38 cities in the Chinese mainland. Shares of Bank of East Asia [HKG: 0023] finished today 2.5 percent higher at HKD9.68 (USD1.23) apiece. The broader Hong Kong market ended flat. Editor: Futura Costaglione</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>By DAMIAN J. TROISE (AP Business Writer) Stocks wobbled to a mixed close on Wall Street Friday, but every major index notched weekly gains in a holiday-shortened week. Markets were closed on Thursday for the Thanksgiving holiday and closed at 1 p.m. Eastern Friday. The Dow Jones Industrial Average rose 152.97 points, or 0.4%, to 34,347.03. It’s warned it may have to ultimately raise rates to previously unanticipated levels to rein in high prices on everything from food to clothing.</t>
+          <t>(Yicai Global) Sept. 27 -- Bank of East Asia’s Chinese mainland unit denied online rumors that the lender has defaulted on wealth management products, claims that come just two weeks after the reported detention of one of its top executives in the mainland on suspicion of taking bribes. The rumors that BEA China has defaulted on all wealth management products except deposits started to spread on social media platforms yesterday. The China Banking and Insurance Regulatory Commission fined the lender CNY11.2 million in May last year for 18 violations of laws and regulations, including failing to record loans to property developers in the right accounts.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -836,58 +844,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9997941851615906</v>
+        <v>0.9992119073867798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Herbalife Nutrition Ltd. (NYSE:HLF) Receives Consensus Rating of "Moderate Buy" from Analysts - MarketBeat</t>
+          <t>Hong Kong's Bank of East Asia burned by China property loan losses - Nikkei Asia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 10:17:29 GMT</t>
+          <t>Thu, 18 Aug 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Herbalife Nutrition Ltd. (NYSE:HLF - Get Rating) has received a consensus recommendation of "Moderate Buy" from the six research firms that are covering the company, Marketbeat reports. Two research analysts have rated the stock with a hold rating and four have issued a buy rating on the company. The average 12-month price objective among brokers that have covered the stock in the last year is $24.25. A number of equities analysts have commented on the stock. Royal Bank of Canada upped their price objective on shares of Herbalife Nutrition from $13.00 to $14.00 and gave the stock a "sector perform" rating in a research report on Thursday, August 11th. B. Riley lowered their price target on shares of Herbalife Nutrition from $38.00 to $31.00 and set a "buy" rating on the stock in a research note on Tuesday, November 1st. StockNews.com assumed coverage on shares of Herbalife Nutrition in a research note on Wednesday, October 12th. They set a "buy" rating on the stock. Finally, Citigroup lowered their price target on shares of Herbalife Nutrition from $30.00 to $26.00 and set a "buy" rating on the stock in a research note on Tuesday, November 1st. Insider Transactions at Herbalife Nutrition In other news, major shareholder Windacre Partnership Master Fu sold 205,000 shares of the company's stock in a transaction on Wednesday, November 2nd. The shares were sold at an average price of $17.56, for a total transaction of $3,599,800.00. Following the transaction, the insider now directly owns 9,778,500 shares of the company's stock, valued at approximately $171,710,460. The transaction was disclosed in a filing with the SEC, which is accessible through the SEC website. Corporate insiders own 0.66% of the company's stock. Institutional Investors Weigh In On Herbalife Nutrition A number of large investors have recently added to or reduced their stakes in the business. National Bank of Canada FI grew its stake in Herbalife Nutrition by 5.0% in the 2nd quarter. National Bank of Canada FI now owns 9,990 shares of the company's stock valued at $204,000 after acquiring an additional 480 shares during the last quarter. Price T Rowe Associates Inc. MD boosted its stake in shares of Herbalife Nutrition by 1.1% during the 3rd quarter. Price T Rowe Associates Inc. MD now owns 67,737 shares of the company's stock worth $1,348,000 after purchasing an additional 705 shares during the last quarter. Envestnet Asset Management Inc. boosted its stake in shares of Herbalife Nutrition by 6.5% during the 1st quarter. Envestnet Asset Management Inc. now owns 12,308 shares of the company's stock worth $374,000 after purchasing an additional 747 shares during the last quarter. Eagle Bay Advisors LLC boosted its stake in shares of Herbalife Nutrition by 87.6% during the 3rd quarter. Eagle Bay Advisors LLC now owns 1,799 shares of the company's stock worth $35,000 after purchasing an additional 840 shares during the last quarter. Finally, Teacher Retirement System of Texas boosted its stake in shares of Herbalife Nutrition by 5.1% during the 1st quarter. Teacher Retirement System of Texas now owns 19,767 shares of the company's stock worth $600,000 after purchasing an additional 958 shares during the last quarter. 92.32% of the stock is owned by institutional investors and hedge funds. Herbalife Nutrition Stock Performance Shares of Herbalife Nutrition stock opened at $16.98 on Friday. The company has a market cap of $1.66 billion, a P/E ratio of 5.59 and a beta of 1.15. Herbalife Nutrition has a one year low of $15.33 and a one year high of $45.80. The firm has a fifty day moving average of $19.60 and a two-hundred day moving average of $22.51. Herbalife Nutrition (NYSE:HLF - Get Rating) last announced its quarterly earnings data on Monday, October 31st. The company reported $0.91 EPS for the quarter, topping analysts' consensus estimates of $0.80 by $0.11. The company had revenue of $1.30 billion during the quarter, compared to the consensus estimate of $1.30 billion. Herbalife Nutrition had a net margin of 5.71% and a negative return on equity of 24.55%. Herbalife Nutrition's quarterly revenue was down 9.5% on a year-over-year basis. During the same quarter in the prior year, the firm earned $1.21 EPS. As a group, equities analysts predict that Herbalife Nutrition will post 2.94 earnings per share for the current year. About Herbalife Nutrition Herbalife Nutrition Ltd. offers nutrition solutions in North America, Mexico, South and Central America, Europe, the Middle East, Africa, China, and rest of Asia Pacific. The company provides products in the areas of weight management; targeted nutrition; energy, sports, and fitness; and outer nutrition. Featured Stories This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider Herbalife Nutrition, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and Herbalife Nutrition wasn't on the list. While Herbalife Nutrition currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>HONG KONG -- Bank of East Asia's bottom line plunged during the first half of the year, owing to a spike in impairment charges on loans to mainland China's struggling property sector. The major Hong Kong-based lender reported on Thursday a net profit of 1.49 billion Hong Kong dollars ($191 million) for the first six months of 2022, down 43.9% from a year earlier.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Herbalife Nutrition Ltd. (NYSE:HLF - Get Rating) has received a consensus recommendation of "Moderate Buy" from the six research firms that are covering the company, Marketbeat reports. The average 12-month price objective among brokers that have covered the stock in the last year is $24.25. Royal Bank of Canada upped their price objective on shares of Herbalife Nutrition from $13.00 to $14.00 and gave the stock a "sector perform" rating in a research report on Thursday, August 11th. Price T Rowe Associates Inc. MD boosted its stake in shares of Herbalife Nutrition by 1.1% during the 3rd quarter. Eagle Bay Advisors LLC now owns 1,799 shares of the company's stock worth $35,000 after purchasing an additional 840 shares during the last quarter. The company had revenue of $1.30 billion during the quarter, compared to the consensus estimate of $1.30 billion. This story was reviewed by MarketBeat's editorial team prior to publication. Before you consider Herbalife Nutrition, you'll want to hear this. While Herbalife Nutrition currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys.</t>
+          <t>HONG KONG -- Bank of East Asia's bottom line plunged during the first half of the year, owing to a spike in impairment charges on loans to mainland China's struggling property sector. The major Hong Kong-based lender reported on Thursday a net profit of 1.49 billion Hong Kong dollars ($191 million) for the first six months of 2022, down 43.9% from a year earlier.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9994844198226929</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alphabet Inc. (NASDAQ:GOOG) Receives Average Recommendation of "Moderate Buy" from Brokerages - MarketBeat</t>
+          <t>A Carefree Way to Buy Foreign Currency - That's Online</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 06:52:23 GMT</t>
+          <t>Mon, 28 Nov 2022 04:16:32 GMT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Shares of Alphabet Inc. (NASDAQ:GOOG - Get Rating) have received a consensus recommendation of "Moderate Buy" from the twenty-five research firms that are presently covering the firm, Marketbeat Ratings reports. One investment analyst has rated the stock with a hold recommendation and fifteen have assigned a buy recommendation to the company. The average 1 year price objective among brokers that have covered the stock in the last year is $147.23. GOOG has been the subject of a number of recent research reports. Oppenheimer decreased their price objective on Alphabet from $155.00 to $135.00 and set an "outperform" rating for the company in a report on Wednesday, October 26th. Cowen decreased their price objective on Alphabet from $150.00 to $135.00 and set an "outperform" rating for the company in a report on Wednesday, October 26th. Cowen cut their target price on Alphabet from $150.00 to $135.00 and set an "outperform" rating on the stock in a research note on Wednesday, October 26th. Barclays set a $150.00 target price on Alphabet in a research note on Thursday, September 8th. Finally, Raymond James cut their target price on Alphabet from $143.00 to $120.00 and set an "outperform" rating on the stock in a research note on Wednesday, October 26th. Alphabet Stock Performance Shares of GOOG opened at $97.60 on Friday. The company has a debt-to-equity ratio of 0.06, a quick ratio of 2.47 and a current ratio of 2.52. The stock has a 50 day moving average price of $97.48 and a two-hundred day moving average price of $107.81. The firm has a market capitalization of $1.26 trillion, a P/E ratio of 19.38, a P/E/G ratio of 1.87 and a beta of 1.05. Alphabet has a 52 week low of $83.45 and a 52 week high of $152.10. Alphabet (NASDAQ:GOOG - Get Rating) last issued its quarterly earnings data on Tuesday, October 25th. The information services provider reported $1.06 EPS for the quarter, missing analysts' consensus estimates of $1.25 by ($0.19). The company had revenue of $69.09 billion for the quarter, compared to the consensus estimate of $70.67 billion. Alphabet had a return on equity of 26.41% and a net margin of 23.75%. The business's revenue for the quarter was up 6.1% on a year-over-year basis. During the same period in the prior year, the firm posted $1.40 earnings per share. Equities analysts forecast that Alphabet will post 4.68 earnings per share for the current fiscal year. Insider Transactions at Alphabet In other news, major shareholder 2021 Gp L.L.C. Gv bought 182,312 shares of the company's stock in a transaction dated Wednesday, November 9th. The stock was bought at an average cost of $34.60 per share, for a total transaction of $6,307,995.20. Following the completion of the acquisition, the insider now owns 1,294,527 shares in the company, valued at approximately $44,790,634.20. The acquisition was disclosed in a document filed with the Securities &amp; Exchange Commission, which is available at this link. In other Alphabet news, major shareholder 2021 Gp L.L.C. Gv bought 182,312 shares of the firm's stock in a transaction on Wednesday, November 9th. The stock was acquired at an average price of $34.60 per share, with a total value of $6,307,995.20. Following the completion of the purchase, the insider now owns 1,294,527 shares of the company's stock, valued at $44,790,634.20. The acquisition was disclosed in a document filed with the SEC, which is available at the SEC website. Also, major shareholder 2019 Gp L.L.C. Gv purchased 800,000 shares of Alphabet stock in a transaction that occurred on Monday, October 24th. The shares were purchased at an average cost of $17.00 per share, with a total value of $13,600,000.00. Following the transaction, the insider now directly owns 11,522,248 shares of the company's stock, valued at $195,878,216. The disclosure for this purchase can be found here. Over the last ninety days, insiders bought 1,461,702 shares of company stock worth $36,999,217 and sold 302,441 shares worth $20,007,551. 12.99% of the stock is currently owned by company insiders. Institutional Investors Weigh In On Alphabet A number of large investors have recently added to or reduced their stakes in the stock. OLD Second National Bank of Aurora boosted its stake in shares of Alphabet by 1,900.0% during the 3rd quarter. OLD Second National Bank of Aurora now owns 260 shares of the information services provider's stock worth $25,000 after acquiring an additional 247 shares during the last quarter. Westchester Capital Management Inc. boosted its stake in shares of Alphabet by 1,900.0% during the 3rd quarter. Westchester Capital Management Inc. now owns 260 shares of the information services provider's stock worth $25,000 after acquiring an additional 247 shares during the last quarter. SWS Partners purchased a new position in shares of Alphabet during the 1st quarter worth $28,000. Rational Advisors LLC purchased a new position in shares of Alphabet during the 1st quarter worth $28,000. Finally, Carolina Wealth Advisors LLC boosted its stake in shares of Alphabet by 1,900.0% during the 3rd quarter. Carolina Wealth Advisors LLC now owns 300 shares of the information services provider's stock worth $29,000 after acquiring an additional 285 shares during the last quarter. Institutional investors own 1.49% of the company's stock. Alphabet Company Profile Alphabet Inc provides various products and platforms in the United States, Europe, the Middle East, Africa, the Asia-Pacific, Canada, and Latin America. It operates through Google Services, Google Cloud, and Other Bets segments. The Google Services segment offers products and services, including ads, Android, Chrome, hardware, Gmail, Google Drive, Google Maps, Google Photos, Google Play, Search, and YouTube. Featured Articles This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider Alphabet, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and Alphabet wasn't on the list. While Alphabet currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>Buying foreign currency as an expat doesn't have to be challenging. Easy Operation via Mobile Banking Expat customers may use the mobile app to purchase and remit foreign currency at anytime, and up to the pre-set quota verified by a local branch. Key Benefits Easy foreign exchange for all your legal income earned on the Chinese mainland Real-time exchange on mobile app for up to 11 key currencies Set your transaction time on your mobile bank app to get a favorable exchange rate Multi-currency Purchase the following overseas currencies: United States dollar (USD) Canadian dollar (CAD) Swedish Krona (SEK) Pound sterling (GBP) Swiss franc (CHF) Japanese yen (JPY) New Zealand dollar (NZD) Euro (EUR) Hong Kong dollar (HKD) Australian dollar (AUD) Singapore dollar (SGD) Supporting Documents You may set up a foreign exchange quota by going to a BEA (Bank of East Asia) branch to apply for the service with the following documents: Official ID: bring your valid ID certificate which you used to set up your BEA China account Proof of employment: such as employment contract Proof of income: salary slip issued by your employer or bank statement Tax payment certificates: official tax receipts or other records from the tax office Please note that specific requirments regarding documentation may vary depending on local policies. Exclusive Privileges Special rewards are available until December 31, 2022. Reward No. 1: Gift for New Customers New customers of Remuneration FX service (purchasing any amount of foreign currency) will receive a gift worth RMB200. Reward No. 2: Gift for Referrals For every successful referral of a new customer to Remuneration FX service, the referee will receive a RMB300 JD.com shopping card. Reward No. 3: Gift for Transactions New customers of Remuneration FX service (purchasing any amount of foreign currency) can enjoy BEA selected SupremeGold customer benefits. For more details, please contact a customer relationship manager: [All images via FX]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Shares of Alphabet Inc. (NASDAQ:GOOG - Get Rating) have received a consensus recommendation of "Moderate Buy" from the twenty-five research firms that are presently covering the firm, Marketbeat Ratings reports. Cowen cut their target price on Alphabet from $150.00 to $135.00 and set an "outperform" rating on the stock in a research note on Wednesday, October 26th. The firm has a market capitalization of $1.26 trillion, a P/E ratio of 19.38, a P/E/G ratio of 1.87 and a beta of 1.05. Equities analysts forecast that Alphabet will post 4.68 earnings per share for the current fiscal year. The acquisition was disclosed in a document filed with the Securities &amp; Exchange Commission, which is available at this link. In other Alphabet news, major shareholder 2021 Gp L.L.C. Gv bought 182,312 shares of the firm's stock in a transaction on Wednesday, November 9th. The stock was acquired at an average price of $34.60 per share, with a total value of $6,307,995.20. Following the completion of the purchase, the insider now owns 1,294,527 shares of the company's stock, valued at $44,790,634.20. Carolina Wealth Advisors LLC now owns 300 shares of the information services provider's stock worth $29,000 after acquiring an additional 285 shares during the last quarter. It operates through Google Services, Google Cloud, and Other Bets segments. While Alphabet currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys.</t>
+          <t>Buying foreign currency as an expat doesn't have to be challenging. 3: Gift for Transactions New customers of Remuneration FX service (purchasing any amount of foreign currency) can enjoy BEA selected SupremeGold customer benefits.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -896,192 +904,208 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9640725255012512</v>
+        <v>0.9999735355377197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 'Magical Christmas Around the World' awaits at The Westin - Free Malaysia Today</t>
+          <t>Bank of Thailand raises interest rate by 25 basis points - Central Banking</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 23:00:31 GMT</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>Wed, 30 Nov 2022 12:11:18 GMT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Thailand’s central bank raised its policy rate by 25 basis points for a third straight meeting, as it sought to balance between controlling inflation and supporting an economic recovery. The Bank of Thailand’s monetary policy committee unanimously voted to raise the policy rate from 1% to 1.25%. It has been raising the official rate from a pandemic low of 0.5% since August. “The committee deems that a gradual policy normalisation remains an appropriate course for monetary policy given the growth and inflation outlook,” the BoT said in a statement. “The policy rate should be normalised to the level that is consistent with sustainable growth in the long term in a gradual and measured manner,” the central bank said. It added that the committee would adjust the size and timing of any further rate hikes if needed. All but two of the 19 economists polled by a Reuters survey had expected a 25bp hike, while the remaining two had predicted no change. Related Thailand raises rates for first time since 2018 Bank of Thailand signals more “gradual and measured” rate increases to come The BoT’s decision comes after Thailand’s headline inflation slowed to 6% in October year-on-year, from 6.4% in September. October’s inflation was the slowest since April’s 4.7%. The central bank has maintained its headline inflation forecast for 2022 at 6.3%. But it raised its inflation forecast for 2023 from 2.6% to 3%, citing expected higher electricity charges. It said inflation had peaked in the third quarter of this year. The BoT expects headline inflation to return to its target range of 1–3% by the end of 2023. The central bank slightly lowered Thailand’s GDP growth forecast for 2022 to 3.2%, from its 3.3% estimate made in September. It also cut estimated growth for 2023 to 3.7% from 3.8%. But it stressed that the trajectory of Thai economic growth remains largely unchanged in 2023 and 2024. “The strength of the tourism sector and private consumption will help lessen the impact of the global slowdown on the Thai export sector,” the central bank said. Tourism is one of the key pillars of South-east Asia’s second-largest economy. More than 7.3 million tourists visited Thailand from January to late October, with the government expecting the total number of inbound travellers to be around 10 million this year. Before the pandemic, Thailand’s inbound visitors amounted to more than 39 million in 2019. Policy-makers also noted that the exchange rate between the baht and the US dollar has been “highly volatile”, adding they will closely monitor the foreign exchange market. The baht has strengthened by around 8% against the greenback since mid-October, amid expectations that the Federal Reserve would slow down its tightening pace. But the currency has still lost around 6% of its value against the dollar this year compared with the end of last year.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thailand’s central bank raised its policy rate by 25 basis points for a third straight meeting, as it sought to balance between controlling inflation and supporting an economic recovery. The committee deems that a gradual policy normalisation remains an appropriate course for monetary policy given the growth and inflation outlook,” the BoT said in a statement. “ It said inflation had peaked in the third quarter of this year. The central bank slightly lowered Thailand’s GDP growth forecast for 2022 to 3.2%, from its 3.3% estimate made in September. Tourism is one of the key pillars of South-east Asia’s second-largest economy.</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.5783214569091797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brokerages have given Quaker Chemical Co. (NYSE:KWR) an average recommendation of "Moderate Buy." - Best Stocks</t>
+          <t>Aggressive monetary tightening led to soaring bond yields in East Asia - Fibre2fashion.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:50:36 GMT</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>Mon, 28 Nov 2022 12:00:44 GMT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bond yields have risen due to aggressive monetary tightening during the period between August 31 to November 4, 2022, in emerging East Asia, as per a recent report by the Asian Development Bank (ADB). East Asia’s regional currencies were outshined by dollar and risk premiums widened, thereby worsening the downturn of financial conditions in the region. Portfolio outflows were also seen in most regional bond markets. Global inflation, slower growth in the People’s Republic of China (PRC), and economic fallout from the Russian invasion of Ukraine continued to threaten the East Asia’s short-term prospects, according to the November update of Asia Bond Monitor released by ADB. Bond yields have risen due to aggressive monetary tightening during the period between August 31 to November 4, 2022, in emerging East Asia, as per a recent report by the Asian Development Bank (ADB). East Asia's regional currencies were outshined by dollar and risk premiums widened, thereby worsening the downturn of financial conditions in the region. Local currency bond issuance in emerging East Asia shrank 1.1 per cent to $2.2 trillion in the third quarter, compared to the previous quarter, amid softened investment sentiment. Local currency bonds outstanding rose 2.3 per cent to $22 trillion. Emerging East Asia comprises member economies of the Association of Southeast Asian Nations (ASEAN); China; Hong Kong, China; and South Korea. “Financial conditions in emerging East Asia weakened at a faster pace in September and October than in the first eight months of 2022, due to the aggressive tightening by the US Federal Reserve,” said ADB chief economist Albert Park. “However, the region remains largely resilient so far, despite various headwinds.” In the third quarter of 2022, the government bond issuance dropped 4.5 per cent from the previous quarter, while corporate bond issuance grew 5.7 per cent, mainly supported by Chinese companies taking advantage of domestic monetary easing measures. Rising interest rates caused a 2 per cent decline in corporate bond issuance in ASEAN markets. The sustainable bond market in the ASEAN region; China; Hong Kong, China; and South Korea grew 1.7 per cent to $521.6 billion at the end of September 2022. While the growth was slower than in the previous quarter, the segment saw improved diversification in terms of market profile and bond types. Fibre2Fashion News Desk (DP)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bond yields have risen due to aggressive monetary tightening during the period between August 31 to November 4, 2022, in emerging East Asia, as per a recent report by the Asian Development Bank (ADB). Global inflation, slower growth in the People’s Republic of China (PRC), and economic fallout from the Russian invasion of Ukraine continued to threaten the East Asia’s short-term prospects, according to the November update of Asia Bond Monitor released by ADB. East Asia's regional currencies were outshined by dollar and risk premiums widened, thereby worsening the downturn of financial conditions in the region.</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9999837875366211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Irene Cara, '80s pop star behind 'Fame' and 'Flashdance' theme songs, dies at 63 - Tulsa World</t>
+          <t>Kingston Financial : 2022 Interim Report - Marketscreener.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 14:58:00 GMT</t>
+          <t>Wed, 30 Nov 2022 10:42:31 GMT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Academy Award winner Irene Cara, best known for singing the theme songs for "Fame" and "Flashdance," has died in her Florida home, according to a statement from her publicist made on behalf of the singer's family. She was 63. "This is the absolute worst part of being a publicist. I can't believe I've had to write this, let alone release the news," Judith Moose said in a tweet announcing the singer's death. "Please share your thoughts and memories of Irene. I'll be reading each and every one of them and know she'll be smiling from Heaven. She adored her fans."</t>
+          <t>MANAGEMENT DISCUSSION AND ANALYSIS On behalf of the board of directors (the "Board") of Kingston Financial Group Limited (the "Company"), I am pleased to announce the interim results of the Company and its subsidiaries (collectively, the "Group") for the six months ended 30 September 2022 (the "Period"). OVERVIEW The Group is principally engaged in the provision of a wide range of financial services including securities brokerage, underwriting and placements, margin and initial public offering ("IPO") financing, corporate finance advisory services and futures brokerage services. The Group also provides gaming and hospitality services in Macau. Total unaudited revenue recorded by the Group for the Period amounted to approximately HK$940,235,000, representing an increase of approximately 3% as compared to approximately HK$913,132,000 for the six months ended 30 September 2021 (the "Previous Period"). The unaudited profit for the Period amounted to approximately HK$1,823,000, representing a decrease of approximately 26.4% as compared to approximately HK$2,478,000 for the Previous Period. The decrease was primarily attributable to impairment losses on advances to customers in margin financing of approximately HK$662,691,000 in the Period (Previous Period: HK$568,226,000). Basic earnings per share for the Period decreased by approximately 26.4% to approximately HK0.0105 cents as compared to approximately HK0.0143 cents in the Previous Period. BUSINESS AND FINANCIAL REVIEW The 2019 Novel Coronavirus ("COVID-19") pandemic has spread over the world and has dragged down global economic growth and supply chains of various countries. In September 2022, the US Federal Reserve announced its third interest rate hike of 0.75% and the federal funds rate rose to a range of 3% to 3.25%, hitting a 14-year high. In face of high inflation and uncertainties such as significant interest rate hikes by the US Federal Reserve, the appreciation of the US dollar and the high US dollar index attracted capital flow to the US dollar, which led to a weak Hong Kong dollar. The Hong Kong Monetary Authority entered the market to buy Hong Kong dollar and sell US dollars. The aggregate balance of the Hong Kong banking system fell to the level of nearly HK$100 billion. In addition, the ongoing tension between the PRC and the US and the Russia- Ukraine war have led to greater volatility in the stock and bond markets in Hong Kong. The Hong Kong stock market entered 2022 on a high note followed by a low in the face of multiple uncertainties that Hang Seng Index hit a low at 17,016 points on 30 September 2022, marking a 11-year low.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Academy Award winner Irene Cara, best known for singing the theme songs for "Fame" and "Flashdance," has died in her Florida home, according to a statement from her publicist made on behalf of the singer's family. I can't believe I've had to write this, let alone release the news," Judith Moose said in a tweet announcing the singer's death. "</t>
+          <t>MANAGEMENT DISCUSSION AND ANALYSIS On behalf of the board of directors (the "Board") of Kingston Financial Group Limited (the "Company"), I am pleased to announce the interim results of the Company and its subsidiaries (collectively, the "Group") for the six months ended 30 September 2022 (the "Period"). Total unaudited revenue recorded by the Group for the Period amounted to approximately HK$940,235,000, representing an increase of approximately 3% as compared to approximately HK$913,132,000 for the six months ended 30 September 2021 (the "Previous Period"). The Hong Kong stock market entered 2022 on a high note followed by a low in the face of multiple uncertainties that Hang Seng Index hit a low at 17,016 points on 30 September 2022, marking a 11-year low.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7288622260093689</v>
+        <v>0.9984799027442932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Retail Banking Market Statistical Forecast, Trade Analysis 2022 –BNP Paribas, Citigroup, HSBC, ICBC, JPMorgan Chase, Bank of America, Barclays, China Construction Bank, Deutsche Bank, Mitsubishi UFJ Financial Group, Wells Fargo – Skegness Siren - Skegness Siren</t>
+          <t>Regional Forum for Primary Health Care-Oriented Health Systems launched to strengthen implementation-focused learning and cooperation - World Health Organization</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 16:44:58 GMT</t>
+          <t>Tue, 29 Nov 2022 07:55:48 GMT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The Retail Banking market 2022-2029 report provides a detailed analysis of the dynamic of the market with an extensive focus on secondary research. The report sheds light on the current situation of the market size, share, demand, development patterns, and forecast for the coming years. The research report aims to provide reliable and useful Retail Banking industry information and data on the national and international markets thereby helping the market leaders, investors, small businesses, and others gain market intelligence from around the world. The report provides the global Retail Banking market players the insights needed to make key decisions with regard to international markets like expansion and investments. The Retail Banking report anticipates future economic, business, and political factors and trends that may impact their performance at regional and international levels. The multinational businesses that are on top in the Retail Banking marketplace in the recent years and the topics related to the selected markets are covered in report. The Global Retail Banking Market Size is Projected to Reach a CAGR of 39% during 2022-2029. Exclusive Offer: Flat 30% Discount for A Limited Time Get an Exclusive Sample of Report on the Retail Banking market is available : https://www.mraccuracyreports.com/report-sample/192626 Major Market Players Profiled in the Report include: BNP Paribas, Citigroup, HSBC, ICBC, JPMorgan Chase, Bank of America, Barclays, China Construction Bank, Deutsche Bank, Mitsubishi UFJ Financial Group, Wells Fargo The market report analyzes the top players that dominate the Retail Banking market. The study reviews the characteristics of the Retail Banking industry and the major manufacturers in the world marketplace. The report provides an enhanced and comparative understanding of the market with the help of financial and SWOT analysis. Additionally, the current technology integrations made by the manufacturers for operational efficiency and to improve the market value, the current financial situation of the manufacturers is explored in the report. The study also analyzes the positive and negative impact of and covid-19 pandemic on the manufacturers and the survival strategies adopted by the players. Retail Banking Market Segmentation by Type: Transactional Accounts, Savings Accounts, Debit Cards, Credit Cards, Loans, Others. Retail Banking Market Segmentation by Application: Hardware, Software, Services Access full Report Description, TOC, Table of figures, Chart, etc. : https://www.mraccuracyreports.com/reportdetails/reportview/192626 REGIONAL ANALYSIS North America (US, Canada, Mexico) Europe (Germany, France, UK, Russia, Italy) Asia Pacific (China, Japan, South Korea, India, Southeast Asia) South America (Brazil, Argentina, Colombia, etc.) The Middle East and Africa (Saudi peninsula, UAE), Egypt, Nigeria, and South Korea) Key Questions Answered through the Report (1) How will the global Retail Banking market perform during the forecast period? What will be the market size in terms of value and volume? (2) Which segment will drive the global Retail Banking market? Which regional market will show extensive growth in the future? What are the reasons? (3) How will the Retail Banking market dynamics change because of the impact of future market opportunities, restraints, and drivers? (4) What are the key strategies adopted by players to sustain themselves in the global Retail Banking market? (5) How will these strategies influence the Retail Banking market growth and competition? Key Insights That Study Is Going to Provide: The 360-degree Retail Banking Market overview is based on a global and regional level Market Share &amp; Sales Revenue by Key Players &amp; Emerging Regional Players Competitors – In this section, various Retail Banking industry leading players are studied with respect to their company profile, product portfolio, capacity, price, cost, and revenue. A separate chapter on Retail Banking Market Entropy to gain insights on Leader’s aggressiveness towards market [Merger &amp; Acquisition / Recent Investment and Key Developments] Patent Analysis No of patents / Trademarks filed in recent years. Table of Content: Chapter 1: Introduction, market driving force product Objective of Study, and Research Scope Retail Banking Market Chapter 2: Exclusive Summary – the basic information of the Retail Banking Market. Chapter 3: Displaying the Market Dynamics- Drivers, Trends, and Challenges of Retail Banking Chapter 4: Presenting Retail Banking Market Factor Analysis Porters Five Forces, Supply/Value Chain, PESTEL analysis, Market Entropy, Patent/Trademark Analysis. Chapter 5: Displaying 2015-2020 by Type, End-User, and Region Chapter 6: Evaluating the top manufacturers in the Retail Banking Market, including their Competitive Landscape, Peer Group Analysis, BCG Matrix, and Company Profile. Chapter 7: To evaluate the market by segments, by countries, and by manufacturers with revenue share and sales by key countries in these various regions. Chapter 8 &amp; 9: Displaying the Appendix, Methodology, and Data Source Conclusion: At the end of the Retail Banking Market report, all the findings and estimations are given. It also includes major drivers and opportunities along with regional analysis. The segment analysis is also provided in terms of type and application. Direct Purchase this Market Research Report Now @ https://www.mraccuracyreports.com/checkout/192626 If you have any special requirements, please contact our sales professional (sales@mraccuracyreports.com), No additional cost will be required to pay for limited additional research. we are going to make sure you get the report that works for your desires Thank you for taking the time to read our article…!! ABOUT US: Mr Accuracy Reports is a global front-runner in the research industry, offering customers contextual and data-driven research services. Customers are supported in creating business plans and attaining long-term success in their respective marketplaces by the organization. The industry provides consulting services, Mr Accuracy Reports research studies, and customized research reports.</t>
+          <t>A robust primary health care (PHC)-oriented health system is the most equitable and efficient approach for achieving universal health coverage and health security. To accelerate PHC-oriented transformation of health systems, Member countries of WHO South-East Asia Region, WHO, and Partners today launched the South-East Asia Regional Forum for Primary Health Care-Oriented Health Systems. The importance of PHC-oriented health systems was brought to the fore during the COVID-19 pandemic and subsequent economic challenges. “Amid the ongoing COVID-19 response and recovery, demands on health systems across our Region have increased, demands that must be met amid significant resource constraints, even as we advocate for countries to not just sustain but even increase expenditure on health,” said Dr Poonam Khetrapal Singh, Regional Director, WHO South-East Asia, addressing participants at the launch of the PHC forum. The Regional Director emphasized the importance of coordinated and sustained support toward national priorities, “Our challenges are immense, and our glass is half full. While the last few years have witnessed unprecedented energy and innovation in health, we must grasp these and other opportunities to accelerate transformation across our Region and do so in a manner that is coordinated, aligned with national priorities, and which avoids duplication and fragmentation,” In December last year, the Region launched its new strategy on PHC. The Strategy elaborates a set of 12 interdependent Strategic Actions, which seek to together guide, support and monitor PHC transformation in the Region. The Regional PHC Forum will drive action across countries through capturing and facilitating implementation-focused knowledge and experience, strengthened collaboration across development, implementation, and research partners, towards Member State priorities, and enable joint advocacy for strengthened PHC investment in the Region. Member State priorities and needs will drive the Regional PHC Forum, with partners providing support. “Together, we must be steered by shared learning, synergy and action, focused not just on the ‘what’, but the ‘how’. No more can there be ships in the dark, moving roughly together, but never quite reaching port. Our objectives are simply too important, our responsibilities too great,” said the Regional Director. Representatives from SE Asia Region Member States, WHO, USAID, UNICEF, Asian Development Bank, Gates Foundation, JHPIEGO, PATH International, Access Health/Global Learning Collaborative, and other relevant partner institutions will serve as an Advisory Committee to the Forum. WHO reiterates its support to Member States to formulate policy and strengthen efforts towards quality, accessible, and affordable primary health care, to achieve universal health coverage, health security, and Health for All.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Retail Banking market 2022-2029 report provides a detailed analysis of the dynamic of the market with an extensive focus on secondary research. The report provides an enhanced and comparative understanding of the market with the help of financial and SWOT analysis. 5) How will these strategies influence the Retail Banking market growth and competition? A separate chapter on Retail Banking Market Entropy to gain insights on Leader’s aggressiveness towards market [Merger &amp; Acquisition / Recent Investment and Key Developments] Patent Analysis No of patents / Trademarks filed in recent years. Chapter 5: Displaying 2015-2020 by Type, End-User, and Region Chapter 6: Evaluating the top manufacturers in the Retail Banking Market, including their Competitive Landscape, Peer Group Analysis, BCG Matrix, and Company Profile. The segment analysis is also provided in terms of type and application. Direct Purchase this Market Research Report Now @ https://www.mraccuracyreports.com/checkout/192626 If you have any special requirements, please contact our sales professional (sales@mraccuracyreports.com), No additional cost will be required to pay for limited additional research.</t>
+          <t>A robust primary health care (PHC)-oriented health system is the most equitable and efficient approach for achieving universal health coverage and health security. The Regional Director emphasized the importance of coordinated and sustained support toward national priorities, “Our challenges are immense, and our glass is half full. While the last few years have witnessed unprecedented energy and innovation in health, we must grasp these and other opportunities to accelerate transformation across our Region and do so in a manner that is coordinated, aligned with national priorities, and which avoids duplication and fragmentation,” In December last year, the Region launched its new strategy on PHC.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9999570846557617</v>
+        <v>0.9593936204910278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Activision Sinks on Concern US Will Block Microsoft’s $69 Billion Deal - Yahoo Finance</t>
+          <t>Payment Card Market 2028 Key Insights and Leading Players MasterCard Visa American Express Banco Itau Bank of America Merrill Lynch Bank of Brazil Bank of East Asia Chase Commercial Banking Diner's Club Hang Seng Bank Hyundai JP Morgan - Skegness Siren</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:22:23 GMT</t>
+          <t>Tue, 29 Nov 2022 05:35:48 GMT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(Bloomberg) -- Activision Blizzard Inc. shares sank further away from Microsoft Corp.’s proposed takeover price as investors grow concerned that the US antitrust regulators will block the $69 billion deal. Most Read from Bloomberg The videogame-maker’s stock fell 4.1% to $73.47 on Friday, while Microsoft Corp is offering $95 a share for the company. After the market closed Wednesday, Politico reported that the US Federal Trade Commission is likely to file an antitrust lawsuit to block the sale. “An FTC block has been mostly, but not entirely, priced into the spread,” said Aaron Glick, a merger arbitrage specialist at Cowen &amp; Co. “Many investors were holding out hope that Microsoft’s goodwill on the Hill would lead the FTC to clear the deal.” The market is pricing in roughly 40% odds of the deal successfully closing, based on the assumption that the stock would be trading at $60 should it fail, Glick said. Since the takeover deal was announced in January, the gap between Activision’s trading price and Microsoft’s all-cash bid has been widening, driven by heightened antitrust scrutiny in the US and Europe, as well as its sheer transaction size and long closing process. A broad slump in the technology industry also pushed investors to price in a greater downside risk if the deal fails. The companies have said they expect to close the deal in the first half of 2023. --With assistance from Subrat Patnaik. (Updates stock move at close in the second paragraph) Most Read from Bloomberg Businessweek ©2022 Bloomberg L.P.</t>
+          <t>Payment Card market starts by introducing the fundamentals of the market, such as descriptions, segmentation, Anwendung, and an overview of the business ecosystem. The following section discusses product specifications, industry policies, and strategies. The following diagram depicts production processes, cost structures, and so forth. Then it examines the market circumstances in the major regions of the world, looking at factors including supply, demand, industry growth rate, capacity, production, and pricing. Finally, the paper suggests new project SWOT analysis, investment feasibility analysis, and investment return analyses. The study titledstarts by introducing the fundamentals of the market, such as descriptions, segmentation, Anwendung, and an overview of the business ecosystem. The following section discusses product specifications, industry policies, and strategies. The following diagram depicts production processes, cost structures, and so forth. Then it examines the market circumstances in the major regions of the world, looking at factors including supply, demand, industry growth rate, capacity, production, and pricing. Finally, the paper suggests new project SWOT analysis, investment feasibility analysis, and investment return analyses. The study helps identify the next target by obtaining crucial information about the Payment Card company. This facilitates the appraisal of possible export markets, the presentation of actual possibilities, and the recognition of potential roadblocks that target market exporters may encounter. The paper identifies cross-border opportunities. The study examines the abilities that market players will need to increase their efficiency and adapt to a more competitive environment. To assist market players in planning their enterprises and making crucial investment decisions, several economic scenarios are examined. The study concentrates on countries that are playing a bigger role as external trade crossroads. Key Players in the Payment Card market: MasterCard Visa American Express Banco Itau Bank of America Merrill Lynch Bank of Brazil Bank of East Asia Chase Commercial Banking Diner’s Club Hang Seng Bank Hyundai JP Morgan SimplyCash Sumitomo Mitsui Banking Corporation WEX Inc. Woori Bank Request a sample report : https://www.orbisresearch.com/contacts/request-sample/6643354 Market analysis on the worldwide Payment Card: A thorough insight into the market will be given to readers by this research. To illustrate the characteristics and information, the report uses figures, bar graphs, pie charts, and other visual representations. As a result, the graphical representation is enhanced, and it is easier to analyse the data generated. The Payment Card market is predicted to grow rapidly. The main purpose of the study is to help the reader understand the market in terms of its definition, categorization, industry potential, current trends, and challenges that the market is now facing. Payment Card Market Types: Contactless Payment Card Contact Payment Card Dual Interface Payment Card Payment Card Market Applications: Enterprise Use Individual Use Buy the report at https://www.orbisresearch.com/contact/purchase-single-user/6643354 Questions addressed in this Payment Card report: • What is the market forecast for Payment Card and how fast will it expand by 2029? • What are the most crucial market trends for Payment Card? • What are the reasons driving the Payment Card industry’s growth? • What are the growth hurdles in the Payment Card market? • Who are the industry’s top Payment Card vendors? • What are the market space and limits of the Payment Card major suppliers? • What are the strengths of the Payment Card main suppliers as evaluated by a SWOT &amp; PESTLE analysis? The worldwide Payment Card market research report also includes a COVID-19 analysis to assess the effect and interruptions caused by the unprecedented outbreak. Metrics and market share are compared before to the pandemic’s emergence, and post-emergence industry status is utilised to assess the pandemic’s true impact. A thorough market analysis by type and application assists in analysing trending products across geographies. Furthermore, the report comprising key results from the global Payment Card market inquiry provides a correct market classification based on component type, which defines the range of services and solutions supplied, headed by an application segment, which specifies the specificities of the numerous applications and clients of the global Payment Card market’s services.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(Bloomberg) -- Activision Blizzard Inc. shares sank further away from Microsoft Corp.’s proposed takeover price as investors grow concerned that the US antitrust regulators will block the $69 billion deal. Since the takeover deal was announced in January, the gap between Activision’s trading price and Microsoft’s all-cash bid has been widening, driven by heightened antitrust scrutiny in the US and Europe, as well as its sheer transaction size and long closing process.</t>
+          <t>Payment Card market starts by introducing the fundamentals of the market, such as descriptions, segmentation, Anwendung, and an overview of the business ecosystem. The following diagram depicts production processes, cost structures, and so forth. The study titledstarts by introducing the fundamentals of the market, such as descriptions, segmentation, Anwendung, and an overview of the business ecosystem. The study examines the abilities that market players will need to increase their efficiency and adapt to a more competitive environment. To assist market players in planning their enterprises and making crucial investment decisions, several economic scenarios are examined. What are the market space and limits of the Payment Card major suppliers? •</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9999607801437378</v>
+        <v>0.9999902248382568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Thousands flocked to a spiritual leader who claimed he could multiply money. Then, dead bodies turned up - CNA</t>
+          <t>World Bank: Philippines has one of the widest wealth gaps in East Asia - Philstar.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 22:01:11 GMT</t>
+          <t>Thu, 24 Nov 2022 06:50:00 GMT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PROBOLINGGO REGENCY, EAST JAVA: They came in droves from all over the country. Even high-ranking officials flocked to him. At every gathering spiritual leader Dimas Kanjeng held, tens of thousands would attend, recalled businessman and lawyer Muhammad Ali. At the height of Dimas’ popularity, he was estimated to have 23,000 followers. “I was enchanted,” Muhammad Ali said, going on to describe the spiritual leader as convincing, authoritative, and charismatic. But it was more than just his personality. Dimas, whose real name is Taat Pribadi, claimed he had the power to multiply money – a “power” that he demonstrated to great effect among those watching him. Word of his supposed power started spreading rapidly throughout Indonesia from 2009. In 2012, he officially registered his foundation, Padepokan Dimas Kanjeng Taat Pribadi, and started collecting even larger sums of money, and assets, from followers, promising handsome returns. Over two years from early 2014, Muhammad Ali handed over 35 billion rupiah (S$3.068m) – and he was just one of thousands who gave the man money. But it was also around that time that Dimas’ scam began to unravel. Then, the dead bodies of two of his foundation’s leaders were discovered and identified. Dimas has since been unmasked as a fraud and jailed. But even today, there are some who remain loyal to him. What exactly made him so extraordinary? The programme Catching A Scammer explores the con – and the appeal of the man himself. EXPLORE CNA’S SCAMS MICROSITE: Scammers exposed: Investigating Asia-based scams targetting victims around the world</t>
+          <t>MANILA, Philippines — Despite steady progress for three decades, the Philippines still struggles to close one of the widest wealth gaps in East Asia, with the country ranking 15th out of 65 countries in terms of inequality, the World Bank found in a study released Thursday. In a report entitled “Overcoming Poverty and Inequality in the Philippines: Past, Present, and Prospects for the Future," the Washington-based lender noted that while the Philippines has made strides in poverty reduction, it still has among the highest inequality rates in East Asia. With an income Gini coefficient — a standard measure of income inequality from 0 to 1, with 0 representing total income equality — of 42.3 percent in 2018, the Philippines had one of the highest rates of income inequality in East Asia. Poverty fell from 49.2 percent in 1985 to 16.7 percent in 2018 due to the expansion of jobs outside agriculture, the World Bank said. But by 2018, the middle class had expanded to nearly 12 million people and the economically secure population had risen to 44 million. Today, the top one percent of earners together capture 17 percent of national income, World Bank found, with only 14 percent being shared by the bottom 50 percent. “The Philippines aims to become a middle-class society free of poverty by 2040, but we know from global experience that no country has managed to make this transition while maintaining high levels of inequality,” said Ndiamé Diop, World Bank Country Director for Brunei, Malaysia, Philippines, and Thailand. “Inequality of opportunity and low mobility across generations wastes human potential and slowdown innovation, which is crucial for building a competitive and prosperous economy that will in turn improve the well-being and quality of life of all Filipinos," Diop also said in a press release. The World Bank also said that while the gap between top and bottom earners in the Philippines has narrowed, it is still higher than in many of the country's regional peers. Among East Asia Pacific countries whose data are available for 2014–19, only in Thailand is income inequality greater than in the Philippines. Based on data from the World Inequality Database from 1980 to 2019, only Thailand's top one percent had a greater share of the national income, though the Philippines notably ranked higher than China, Malaysia, and Indonesia in that metric heading into 2020. In terms of consumption inequality, the Philippines performs better globally, ranking 30th out of 72 countries. But it is still higher than East Asia Pacific countries except Laos. COVID-19 hampered earlier progress At the virtual launch of the report, Nadia Belhaj Hassine Belghith, Senior Economist with the East Asia Poverty Global Practice covering Thailand and the Philippines who led the study, said the Philippines actually achieved three decades of sustained decline in poverty and a decade of reduction in inequality starting from 1985, when poverty fell by two-thirds. In that period, the gradual shift of workers to more productive sectors with higher reliance on wage income was identified as among the drivers in the reduction of poverty at the time, Belghith said. However, unequal opportunities, slow access to tertiary education among low-income households, inequality in returns to college education, and social norms putting the heavier burden of childcare on women has slowed down the narrowing of inequality in the Philippines, particularly amid the COVID-19 pandemic. The World Bank also found that construction, accommodation and transport were the sectors most affected by job losses at the onset of the pandemic, and households who tend to concentrate in those sectors saw the largest decline in income in the first half of 2020. "Despite the strong recovery of growth and the labor market, the COVID-19 pandemic has partly reversed decades-long gains in reducing poverty and inequality in the Philippines. It halted economic growth momentum in 2020, and unemployment shot up in industries that require in-person work. In 2021, the national poverty rate rose to 18.1 percent despite government assistance," the report reads. "Recovery in the Philippines is uneven across the income distribution and the poorest who suffered the most from COVID have yet to fully recover their incomes. With food prices going up, many families coped by reducing their consumption, including eating less. These coping strategies can have serious consequences on the health and nutrition of children in these vulnerable households." World Bank urges policies for workers, education, rural dev't To solve this, the World Bank recommended both the government and private sector look into policies supporting employment and workers. The bank also suggested raising education quality and improving access, as well as boosting rural development, strengthening social protection to reduce inequality, and increasing Filipinos' chances for improving their well-being. Moving forward, the report highlighted three key themes to reduce inequality: healing the pandemic’s scars and building resilience; setting the stage for a vibrant and inclusive recovery; and promoting greater equality of opportunity. It also noted that the expansion of secondary education, mobility to better-paying jobs, access to basic services, and government social assistance have started to reduce inequality since the mid-2000s. "Promoting greater equality of opportunity entails increasing access to quality health care, increasing equality of opportunity in education, and improving access to quality housing, among others. Equality of opportunity needs to target the lagging regions and other people disadvantaged in accessing these because of the circumstances of their birth," the report said. Social aid amid pandemic recovery pushed At the same time, the World Bank said healing the COVID-19 pandemic’s scars will require promoting greater vaccine booster uptake, overcoming the learning loss due to COVID-19, strengthening social assistance, implementing unemployment insurance programs for the informal sector, and taming inflation. Beyond entering the new normal, decreasing inequality post-pandemic also entails the reskilling of workers, promoting entrepreneurship, increasing the participation of women in the labor force, and raising the productivity of agriculture, said the World Bank. "Inequality starts even before birth and is perpetuated over the life cycle. It starts with maternal nutrition and health during pregnancy. Differences continue into childhood, where disparities in access to health care, proper nutrition, safe drinking water, sanitation, and quality education determine the extent to which a child’s human capital develops," Belghith said. “Inequality shapes outcomes later in life, such as employment opportunities and income, which in turn influence how much support adult Filipinos are able to provide for their children to help maximize their potential," she added.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PROBOLINGGO REGENCY, EAST JAVA: They came in droves from all over the country. Dimas, whose real name is Taat Pribadi, claimed he had the power to multiply money – a “power” that he demonstrated to great effect among those watching him. Word of his supposed power started spreading rapidly throughout Indonesia from 2009.</t>
+          <t>MANILA, Philippines — Despite steady progress for three decades, the Philippines still struggles to close one of the widest wealth gaps in East Asia, with the country ranking 15th out of 65 countries in terms of inequality, the World Bank found in a study released Thursday. In a report entitled “Overcoming Poverty and Inequality in the Philippines: Past, Present, and Prospects for the Future," the Washington-based lender noted that while the Philippines has made strides in poverty reduction, it still has among the highest inequality rates in East Asia. Among East Asia Pacific countries whose data are available for 2014–19, only in Thailand is income inequality greater than in the Philippines. However, unequal opportunities, slow access to tertiary education among low-income households, inequality in returns to college education, and social norms putting the heavier burden of childcare on women has slowed down the narrowing of inequality in the Philippines, particularly amid the COVID-19 pandemic. The World Bank also found that construction, accommodation and transport were the sectors most affected by job losses at the onset of the pandemic, and households who tend to concentrate in those sectors saw the largest decline in income in the first half of 2020. " World Bank urges policies for workers, education, rural dev't To solve this, the World Bank recommended both the government and private sector look into policies supporting employment and workers. Inequality starts even before birth and is perpetuated over the life cycle.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9943763017654419</v>
+        <v>0.8102140426635742</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The Climate Connection: The cool food movement in Napa - Napa Valley Register</t>
+          <t>Singapore, Geneva of Southeast Asia? - The Asset</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 02:27:00 GMT</t>
+          <t>Wed, 30 Nov 2022 10:45:23 GMT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Food is important in so many ways, not just to sustain us physically, but as a reflection of important aspects of our lives and culture. But in the age of climate change, we also need to be mindful that food makes up between a quarter and a third of our carbon footprint. Luckily, small changes in our dietary decisions can reduce carbon emissions, slowing down climate change and helping keep the earth cool. In fact, a Cool Food revolution is already underway. Quality journalism doesn't happen without your help. Subscribe today! Support local news coverage and the people who report it by subscribing to the Napa Valley Register. The Cool Food movement, launched by the World Resources Institute (WRI) in 2019, is a certification program to help consumers choose climate-friendly dining options, identified by a Cool Food Meals badge for dishes with a lower carbon footprint (https://www.wri.org/initiatives/cool-food-pledge). It has been an astounding success, with more than 63 organizations signing up, serving over 3 billion meals annually. These include Nestle, Bloomberg, Cambridge University, Panera Bread, the cities of Toronto, Washington D.C and Milan, Aramark, New York University, Harvard University, IKEA, Seattle Children's Hospital and the World Bank. The aim is to cover 12 billion meals by 2025, demonstrating that changing how we eat can be a powerful way to address the climate crisis. The program has three phases: pledging, monitoring and promotion. The goal is to “provide delicious food that is better for the planet,” then commit to reduce by 25 percent the greenhouse gas emissions associated with the food being served. A meal’s carbon footprint is analyzed, looking at emissions from the supply chain. If the carbon footprint falls below an established per-meal threshold and meets nutritional criteria, it is approved as a Cool Food Meal. With this certification, consumers know their food choices are helping the climate. We can all do our part. More than half of Americans have stated it’s important that their food choices are sustainable, according to data from The International Food Information Council (IFIC) https://ific.org/media-information/press-releases/consumer-research-on-sustainable-eating-and-food-waste/ ). It’s not hard to imagine Napa becoming a Cool Food City. Ideas to reduce your food climate footprint -- Introduce vegetarian meals. Producing beef uses 20 times more land and emits 20 times more greenhouse gases than producing beans, per gram of protein. -- Make plant-rich meals. Enjoying more plant-based foods is an important way to reduce pressure on the climate. -- Reduce meat portions. If you aren’t ready for meals without meat, simply eat less of it. The benefits are a healthier lifestyle and planet. -- Make your own meals. In addition to being satisfying, making your own food is cheaper and less carbon-emitting than products that are ready made. -- Introduce dairy-free days. Animal products are the most water-intensive foods on the planet, so cutting down on them makes a big difference. -- Reduce food waste. Anything you can do minimize food waste helps. Share excess produce, make a meal from leftovers, and pay attention to what is in your fridge. -- Buy local, seasonal and organic. Napa's award-winning farmers market is delightful, and the available local produce is amazing. Addressing climate change can feel overwhelming, but making everyday food choices is something within our reach. Simple changes to diets and enjoying more plant-based foods reaps big rewards. If you are interested in getting more information on cooling down your diet, you can take an individual pledge at http://coolfood.net/en/take-the-cool-food-challenge/ Whether it is one day a week, a complete lifestyle change, or something in between, let us look at our food choices, and cool it down, Napa.</t>
+          <t>Singapore, Geneva of Southeast Asia? Savouring the vibes of a city that has moved on from the pandemic</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Food is important in so many ways, not just to sustain us physically, but as a reflection of important aspects of our lives and culture. The Cool Food movement, launched by the World Resources Institute (WRI) in 2019, is a certification program to help consumers choose climate-friendly dining options, identified by a Cool Food Meals badge for dishes with a lower carbon footprint (https://www.wri.org/initiatives/cool-food-pledge). More than half of Americans have stated it’s important that their food choices are sustainable, according to data from The International Food Information Council (IFIC) https://ific.org/media-information/press-releases/consumer-research-on-sustainable-eating-and-food-waste/ ). Ideas to reduce your food climate footprint -- Introduce vegetarian meals. Animal products are the most water-intensive foods on the planet, so cutting down on them makes a big difference. --</t>
+          <t>Savouring the vibes of a city that has moved on from the pandemic</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1090,148 +1114,140 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9940903782844543</v>
+        <v>0.9998250603675842</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conceptual poverty of foreign policy - Opinion - Business Recorder</t>
+          <t>Rich Asians Not Crazy About Credit Suisse Worries - Forbes</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 00:48:32 GMT</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>By looking closely at the interlinked deprivations of poor people, this report provides valuable insights on how to tackle multidimensional poverty—referred to simply as “poverty” throughout—by addressing its multiple dimensions—Global Multidimensional Poverty Index 2022 (MPI) The above cited report, (MPI), issued by United Nations Development Programme (UNDP), based on comparable data from 111 countries, “identifies a series of ‘deprivation bundles’—recurring patterns of poverty—that commonly impact those who live in multidimensional poverty across the world”. MPI includes 23 low-income, 85 middle-income and 3 high-income countries, mentioning that these are home to 6.1 billion people, out of which 1.2 billion, approximately 19.1%, are living in poverty. This gap further widens in developing countries where the ratio of poverty is recorded at 92%. MPI reveals that the most common profile affecting 3.9% of poor people includes deprivations in exactly four indicators: nutrition, cooking fuel, sanitation, and housing. The MPI finds that “more than 45.5 million poor people are deprived” in only above four indicators. “Of those people, 34.4 million live in India, 2.1 million in Bangladesh and 1.9 million in Pakistan—making this a predominantly South Asian profile”, it adds. It further highlights that 328.9 million people are deprived of these four indicators as well as others related to commonly accepted indicators of poverty. According to MPI, “of the 374.4 million poor people deprived in these four indicators (some of whom are deprived in others), 224.8 million are in Sub-Saharan Africa, 122.9 million are in South Asia and 26.7 million are in other regions”. The MPI mentions that around 4.1 million people across 111 countries are deprived in all the 10 indicators, out of which 3.8 million in Sub-Saharan Africa, including 910,000 in Nigeria, 685,000 in Niger and 615,000 in Ethiopia. However, the ratio of deprivation in nutrition, child mortality, years of schooling, school attendance, cooking fuel, sanitation, drinking water, electricity, housing, and assets is lower in the Arab states, 214,000 alone in Sudan, and 110,000 in Pakistan and Afghanistan. In Latin America and the Caribbean, Haiti has the poorest people, around 20,000. In East Asia and the Pacific, Papua New Guinea has 27,000 people and Myanmar 24,000. The MPI covers pre-flood situation in Pakistan and does not discuss its impact, which has affected one-third of Pakistan, causing a loss of over USD 30 billion. The devastating floods have not only damaged infrastructure but also destroyed the crops which are going to negatively impact the production of sugarcane as well as cotton’s. The MPI states that 38.3% of the population in Pakistan is poor, out of which an additional 12.9% is classified as vulnerable to multidimensional poverty. Unfortunately, the ratio of people living in multidimensional poverty is as high as 51.7%. Similarly, Pakistan’s ranking on the World Bank’s Human Capital Index (HCI) downgraded from 154/189 to 161/189 in 2021-2022. The HCI highlights that life expectancy rate in Pakistan at birth is 66.1 years, whereas years of schooling are around 8 years. The country’s gross per capita income was recorded at just US$4,624. In global surveys, whether related to poverty, human capital development, corruption, tax evasion, judicial system, democracy, governance, human rights or free speech, our performance is ranked low and/or poor. Despite being the fifth largest populous country and the seventh nuclear state in the world, located in the middle of the two largest and most strategically important countries in the world, Pakistan has neither tried to capitalise on its strategic location, nor has it explored new opportunities to improve its economic condition by strengthening its diplomatic ties with its neighbors and rest of the world. Foreign policy plays an important role in attracting foreign investment, increasing export, reducing poverty and setting the direction of economy. However, our foreign policy has predominantly revolved around partnering in regional conflicts and participating in defense-related matters. During Pervez Musharraf’s regime (1999-2008), Pakistan received attention as an important non-NATO ally in war against terrorism while focus remained on generating revenue through aid and grants. He miserably failed to capitalise Pakistan’s position to seek long-term economic benefits from the United States and its allies. Resultantly, when forced to leave the presidency, he left Pakistan in quite a bad shape. Terrorism was at its peak, law and order situation was at its worst, there were daily 6 to 8 hours of load-shedding of electricity, and the economy was on a constant decline. Pakistan People’s Party (PPP) created the Friends of Pakistan Forum to seek guidance and technical support to strengthen Pakistan’s economy. President Barack Obama chaired the first meeting of the forum but PPP government became victim of Chief Justice Iftikhar Muhammad Chaudhry’s judicial activism spending most of its time responding to suo motu notices. Muhammad Nawaz Sharif, three-times elected Prime Minister, during his last tenure before disqualification, resorted to strengthen his relationship with China and Turkey and tried to improve ties with Central Asian states as well. However, due to short-sightedness of his party, Pakistan lost Middle Eastern countries’ support, especially Saudi Arabia’s and the United Arab Emirates’s (UAE’s), known as trusted partners and friends, due to mishandling of the Yemen issue. Both Saudi Arabia and the UAE tried to normalise relations with Pakistan during Imran Khan’s tenure. However, due to immature handling of affairs, relations became tense, not only with Middle Eastern countries, but other friendly countries as well. During his rule [16 August 2018 to 9 April 2022], Pakistan’s economic situation worsened on all fronts. At the time of his departure from the Prime Minister’s Office, Pakistan was facing the risk of default on the external front. It is a fact that due to our imprudent foreign policy, no state is ready to bail us out at this time of need. Pakistan’s close friends Saudi Arabia and China though verbally commit to supporting us in meeting financial needs, but practically nothing materialises. Our foreign reserves are depleting despite import restrictions. This policy is causing huge losses to importers as well as the overall economy. Moreover, the International Monetary Fund (IMF) has imposed severe conditions during its sixth, seventh and eighth reviews, but is not ready to send its delegation to Islamabad for the Ninth Review, without which release of a new tranche is not possible. In the light of the above, Pakistan needs to reconsider its foreign policy priorities. We as a nation cannot treat the international community like an opposition as in the past. The only way forward for economic engagement, socio and geopolitical relations is a paradigm shift in foreign policy making it balanced and pragmatic. We need a new foreign policy that can help us in improving our economy through trade and investment. Unless it is done, the journey of 75 years carrying begging bowls will continue unabated, and we will continue to be rated among “poor and bottom performing nations” in every survey on international level. (Huzaima Bukhari &amp; Dr. Ikramul Haq, lawyers and partners of Huzaima, Ikram &amp; Ijaz, are Adjunct Faculty at Lahore University of Management Sciences (LUMS), members Advisory Board and Visiting Senior Fellows of Pakistan Institute of Development Economics (PIDE). Abdul Rauf Shakoori is a corporate lawyer based in the USA and an expert in ‘White Collar Crimes and Sanctions Compliance’. They have coauthored a book, Pakistan Tackling FATF: Challenges and Solutions) Copyright Business Recorder, 2022</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>By looking closely at the interlinked deprivations of poor people, this report provides valuable insights on how to tackle multidimensional poverty—referred to simply as “poverty” throughout—by addressing its multiple dimensions—Global Multidimensional Poverty Index 2022 (MPI) The above cited report, (MPI), issued by United Nations Development Programme (UNDP), based on comparable data from 111 countries, “identifies a series of ‘deprivation bundles’—recurring patterns of poverty—that commonly impact those who live in multidimensional poverty across the world”. The MPI finds that “more than 45.5 million poor people are deprived” in only above four indicators. “ The MPI mentions that around 4.1 million people across 111 countries are deprived in all the 10 indicators, out of which 3.8 million in Sub-Saharan Africa, including 910,000 in Nigeria, 685,000 in Niger and 615,000 in Ethiopia. In Latin America and the Caribbean, Haiti has the poorest people, around 20,000. The HCI highlights that life expectancy rate in Pakistan at birth is 66.1 years, whereas years of schooling are around 8 years. He miserably failed to capitalise Pakistan’s position to seek long-term economic benefits from the United States and its allies. Muhammad Nawaz Sharif, three-times elected Prime Minister, during his last tenure before disqualification, resorted to strengthen his relationship with China and Turkey and tried to improve ties with Central Asian states as well. However, due to short-sightedness of his party, Pakistan lost Middle Eastern countries’ support, especially Saudi Arabia’s and the United Arab Emirates’s (UAE’s), known as trusted partners and friends, due to mishandling of the Yemen issue. This policy is causing huge losses to importers as well as the overall economy. They have coauthored a book, Pakistan Tackling FATF: Challenges and Solutions) Copyright Business Recorder, 2022</t>
-        </is>
-      </c>
+          <t>Fri, 25 Nov 2022 10:55:19 GMT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9957635402679443</v>
+        <v>0.9673531651496887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sailing towards common ground: Recasting the discourse on the West Philippine Sea - Rappler</t>
+          <t>Hong Kong's Bank of East Asia proposes $372 million share buyback - Reuters</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 06:00:00 GMT</t>
+          <t>Fri, 28 Jan 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>If the ecosystem services that create the heritage value of the West Philippine Sea were not protected and secured, interests on any part of it would not make sense The West Philippine Sea is about a third of the 2.2 million square kilometers of the Philippines’ maritime domain (territorial waters, Exclusive Economic Zone, and Extended Continental Shelf). It’s about 20% of the South China Sea’s area of 3.8 million square kilometers. It’s a rich fishing ground, has considerable hydrocarbon deposits, and is part of the South China Sea (SCS) where ships transit commerce and trade between Asia and the world. There are contending territorial claims to parts of the SCS and challenges to the internationally recognized jurisdiction of the Philippines over the WPS. They’re creating grave economic and political security concerns in the world. To establish presence, some claimants and challengers are converting reefs and atolls into lands for habitation. They have created a regime of resource extraction that encourages illegal, unreported, and unregulated (IUU) fishing. These have decimated and depleted large areas of water once thriving with life. In these places, the once living sea is gone. As a certain genius mind was supposed to have once said (albeit not in these exact same words), “We can’t solve our problems by using the same kind of thinking we used when we created them,” it is clear that we need a new way of approaching the WPS issue. We should start by seeing the WPS as a totality, beyond the monolithic marine resources that everyone tends to see. There are its natural processes, products, and outcomes of complex ecosystem dynamics that create diverse life forms and conditions for life. They define the unique features of the environment in the WPS. They affect the state and life systems in surrounding seas and lands. They produce ecological, economic, and social benefits (and risks) to people, which give the WPS immense value. Ecological Value. The WPS hosts marine biota, materials, and spaces that people use. It produces fisheries and other organisms that are consumed for food. It has materials and other natural assets that could be used to support lifestyles and cultural practices of people living around it. Its marine life is among the most diverse in the world. It hosts a rich treasury of genetic information that sustains life. Its hydrocarbon reserves are a life spark to a chronically energy-anemic country. Its vast area offers spaces for commerce and industries. These are provisioning ecosystem services of the WPS. The WPS also supports life systems. Its ecological processes sustain life within the WPS, in the SCS, and in waters and lands beyond it. Its coral reefs, seagrass meadows, mangroves, sandy bottoms, and intertidal flats support carbon, nutrient, and other biogeochemical cycles that maintain the populations of biota in nearby waters and lands. Winds and currents in the WPS, for the most part due to heat exchanges between the sea and the atmosphere, the moon’s gravitational pull, and the Coriolis force of earth’s rotation, create upwellings and downwellings that stir up life across its depths and surfaces. Another ecosystems service of the WPS is its ability to regulate the natural processes that allow life to thrive. It serves as a conduit of surface heat flows across the SCS and the northeastern Pacific and the Sulu Sea. These heat flows affect the biological productivity and biodiversity of these waters and surrounding lands. They regulate weather conditions. The WPS absorbs atmospheric carbon that helps regulate the climate. Its plankton and microplankton populations produce oxygen that sustains life. Its waters absorb and disperse plastics and chemicals which affect the condition of its biota. It spreads larvae, nutrients, and organisms that affect life systems in nearby lands and seas. The ecosystem services of the WPS make it an important influence on peoples and cultures. This is its cultural service. Its ecological processes affect ways of life, seasonal behavior patterns, diets, and livelihoods in surrounding communities. They shape opportunities for social and cultural expressions, including among Indigenous peoples whose lifestyles largely revolve around nature’s primary productivity. They create amenities for human pleasures and emotional experiences. Natural formations and phenomena in the WPS like beaches, rocky outcrops, surfs, sunsets, and moon rises mirrored in the sea, create occasions for recreation, rituals, and moments for introspections and celebrations. These elevate the human spirit. Economic Value. Ecosystem services generate economic value. This value could be gleaned from indications and estimates of the worth in money terms of some of its ecological production and processes: Fisheries. In 2018, 27% of catch fisheries in the Philippines were harvested from the WPS. They were worth P40.687 billion. They fortified the nation’s food security and protein supply and the health and nutrition of Filipinos. Fisheries provide 36% of the Filipinos’ protein intake. They contain micronutrients that improve brain and cardiac health, growth and body development, and joint support. They help prevent immunity disorders, reduce inflammations, and control weight. Marine biodiversity. Seaweeds, seagrass meadows, mangroves, and coral reefs are known to have high economic values. While there are no estimates of their value in the WPS, seaweeds were valued at $10 billion/year globally in 2013. In 2018, the Philippines produced P11 billion worth of seaweeds. Worldwide, seagrass beds were worth $8.3 trillion in 2004. Intact mangroves were valued from $500 to $1,500/hectare/year in 2000. Coral reefs were valued at $352,248/hectare/year globally in 2007. Marine biodiversity in the WPS offers potentials for biotechnology applications in agriculture, medicine, energy, and environmental remediation. Marine cones, sponges, and seaweeds could be sources of peptides and compounds for biotechnology uses. The global biotechnology industry is estimated to grow to $2.44 trillion by 2028. If properly and safely used, the genetic treasury of the WPS could shift the locus of its economic value from the consumption of organisms (that’s difficult to sustain) to only the use of their genetic information (which imposes little threat to stocks). Hydrocarbon. In 2018, the WPS was reported to hold an estimated 125 billion barrels of oil and 500 trillion cubic feet of natural gas. These included proven and suspected reserves. Earlier in 2012, the known reserves were estimated to meet the country’s energy needs for two decades. That time, Malampaya was generating $1 billion/year of gas and was saving the country of $500 million/year in foreign exchange for importing fuel. Malampaya spawned the Philippines’ natural gas industry. Commerce and Industry. The value of trade transiting the SCS is about $3.4 to $5.3 trillion a year. That’s 21% of global trade in 2016. They include oil, gas, and raw and processed materials that are crucial to the economies in East and Southeast Asia. They transit the SCS Sea Lines of Communication (SLOC). Portions of this SLOC run through the WPS. Transited trade include most of the exports and imports of the Philippines valued in December 2021 at $17.75 billion. The WPS hosts four big industries: fisheries, hydrocarbon fuel production, port operations, and tourism. Two of the Philippines’ 12 Fisheries Management Areas (FMAs) are in the WPS. They’re the second and third largest in the country. Petroleum and gas production continue in the WPS and new ones are being eyed in the Recto Bank. The biggest seaports in the Philippines face the WPS (Manila, Batangas, Subic, San Fernando in La Union, Limay, and Zamboanga). Many tourist destinations in the country are in the WPS (or are in its contiguous waters). These include El Nido, Taytay, and Calamian Islands in Palawan; Boracay in Panay; Puerto Galera in Mindoro; and destinations in western Luzon (like in the Ilocos region, Subic Bay, Pangasinan, La Union, and Batanes). Estimates of the economic value of fisheries and hydrocarbon production have been noted earlier. There are no clear numbers on the value of port operations but these could be implied by the value of Philippine trade, most of which are shipped by sea. Tourism is a big industry for the WPS. It generated $9.39 billion in revenues in 2019. It accounted for 5.4% of GDP in 2020. It averaged 7.4% of GDP from 2000 to 2018. Value to society. The combined ecological and economic values of the WPS give it its value to Filipino society and others living in waters and lands around it. They create prospects for pursuing preferred lifestyles, traditions, languages, norms, and world views. Goods and services from the WPS are among the tangible and intangible cultural heritage of communities around it: their sacred groves, legacy foods, traditional technologies, housewares and products, and local art forms (music, visual arts, dance, architecture, and materials used to create or articulate them). Local lifestyles and cultures are reflected in the infrastructure and content of marine tourism in the WPS. Human security is one immeasurable value of the WPS to society. Beyond food security, protein security, and physical security, human security ensues from people being able to safely and peacefully avail of the benefits from the WPS. Peace and security are critical conditions for people to sustain life and lifestyles, particularly those with fragile populations and cultural infrastructure like Indigenous peoples, and any others affected by the biogeographical and climatic dynamics of the WPS. A legacy of the West Philippine Sea These valus of the WPS help shape the identities and ways of life of Filipinos and of others around the SCS and beyond. They’re irreplaceable and inimitable legacies – a common heritage – to them. These have to be protected and preserved, secured and sustained, because if they’re lost they’d erode, even break, cultures and life systems around it and beyond. Jurisdiction embeds both obligation and right to take care of the compass of its authority. This way, the Philippines has the ascendant legal, political, and moral position to take the lead in assuming custodial responsibility over the ecosystem services of the WPS, and do so for Filipinos and for all others who benefit from them. A narrative of inclusionary protection could be pursued as policy by the Philippines despite and alongside the narrative of exclusionary claims being posed by challengers to its jurisdiction over the WPS. Collective protection of the heritage value of the WPS could be made a fulcrum for constructive engagement among stakeholders of the WPS and the SCS, even if the challengers opt to maintain and not void their challenge. Amidst conflict, “a cooperative approach aligns with the process of interest-based or integrative bargaining, which leads parties to seek win-win solutions” (Spangler, 2003). Challengers might agree to recast the WPS discourse from territorial contentions to collaborations on a common purpose of protecting its universal heritage value. This, because losing this value would emasculate any and all interests and stakes on the WPS. Difficult? Unrealistic? Cooperation amidst maritime conflicts has been done in Antarctica, in the Caribbean, the North Atlantic, between Maine and Nova Scotia, in the Natuna Sea between Indonesia and Malaysia, and the Great Lakes between the US and Canada. It’s not impossible. It’s the better option than the volatile situation we have now. It’s the right and responsible option. In fact, it’s the only option we have to protect the heritage value of the WPS that is of great worth to all in the Philippines, Asia, and the world. Sailing towards a common ground may indeed be difficult in this case, but the times call for a new mindset. If the ecosystem services that create the heritage value of the West Philippine Sea were not protected and secured, interests on any part of it would not make sense. The Philippines and those who challenge its jurisdiction over it, must recognize and commit to the elemental need to protect the universal commons in the West Philippine Sea. – Rappler.com Ben S. Malayang III is Silliman University Professor Emeritus and USAID Fish Right Program Research Fellow for West Philippine Sea This article is based on the synthesis paper “The Heritage Value of the West Philippine Sea” (2022) that was prepared for the USAID Fish Right Program by Ben S. Malayang III, Lourdes Cruz, Joan Regina Castro, Rodelio Subade, and Ramon Benedicto Alampay. The views expressed and opinions contained in this article are those of the author’s and do not necessarily reflect the views of USAID or the Fish Right Program. About USAID Fish Right Program The USAID Fish Right Program is a partnership between the governments of the United States and the Philippines to promote fisheries management and marine biodiversity conservation. Fish Right enables sustainable fisheries by reducing threats to biodiversity and improving marine ecosystem governance.</t>
+          <t>Jan 28 (Reuters) - Hong Kong's Bank of East Asia Ltd (0023.HK) said on Friday it intends to buy back 8.43% of its total issued shares worth HK$2.904 billion ($372.65 million) owned by hedge fund Elliott Investment Management's affiliated entities. The share buyback, which will be settled using the bank's internal resources, will take place in an off-market transaction at a maximum of HK$11.78 per share, a 7.2% discount to its last close on Friday. The share buyback would result in a 6% hike in the consolidated net asset value per share attributable to its shareholders, the Hong Kong-based lender said in a statement. "This reinforces and builds upon the series of actions our management team has taken over the last few years to strengthen operations, generate value creation opportunities, and further position the bank for growth and long-term success," Adrian Li and Brian Li, Co-Chief Executives for the bank said. (This story corrects spelling of Elliott Investment Management in first paragraph) ($1 = 7.7929 Hong Kong dollars) Reporting by Tejaswi Marthi in Bengaluru; Editing by Krishna Chandra Eluri Our Standards: The Thomson Reuters Trust Principles.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>If the ecosystem services that create the heritage value of the West Philippine Sea were not protected and secured, interests on any part of it would not make sense The West Philippine Sea is about a third of the 2.2 million square kilometers of the Philippines’ maritime domain (territorial waters, Exclusive Economic Zone, and Extended Continental Shelf). To establish presence, some claimants and challengers are converting reefs and atolls into lands for habitation. There are its natural processes, products, and outcomes of complex ecosystem dynamics that create diverse life forms and conditions for life. They affect the state and life systems in surrounding seas and lands. Its hydrocarbon reserves are a life spark to a chronically energy-anemic country. Its plankton and microplankton populations produce oxygen that sustains life. They create amenities for human pleasures and emotional experiences. Natural formations and phenomena in the WPS like beaches, rocky outcrops, surfs, sunsets, and moon rises mirrored in the sea, create occasions for recreation, rituals, and moments for introspections and celebrations. In 2018, 27% of catch fisheries in the Philippines were harvested from the WPS. Intact mangroves were valued from $500 to $1,500/hectare/year in 2000. The value of trade transiting the SCS is about $3.4 to $5.3 trillion a year. The biggest seaports in the Philippines face the WPS (Manila, Batangas, Subic, San Fernando in La Union, Limay, and Zamboanga). Many tourist destinations in the country are in the WPS (or are in its contiguous waters). Goods and services from the WPS are among the tangible and intangible cultural heritage of communities around it: their sacred groves, legacy foods, traditional technologies, housewares and products, and local art forms (music, visual arts, dance, architecture, and materials used to create or articulate them). Beyond food security, protein security, and physical security, human security ensues from people being able to safely and peacefully avail of the benefits from the WPS. Jurisdiction embeds both obligation and right to take care of the compass of its authority. This way, the Philippines has the ascendant legal, political, and moral position to take the lead in assuming custodial responsibility over the ecosystem services of the WPS, and do so for Filipinos and for all others who benefit from them. A narrative of inclusionary protection could be pursued as policy by the Philippines despite and alongside the narrative of exclusionary claims being posed by challengers to its jurisdiction over the WPS.</t>
+          <t>Jan 28 (Reuters) - Hong Kong's Bank of East Asia Ltd (0023.HK) said on Friday it intends to buy back 8.43% of its total issued shares worth HK$2.904 billion ($372.65 million) owned by hedge fund Elliott Investment Management's affiliated entities. The share buyback would result in a 6% hike in the consolidated net asset value per share attributable to its shareholders, the Hong Kong-based lender said in a statement. "</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9992029070854187</v>
+        <v>0.6231483817100525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Turkish engineering, consultancy, architecture firms undertakes $2.9 billion in overseas projects - Yeni Şafak English</t>
+          <t>Key trends to unlocking investment opportunities in Asia - Law.asia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 07:10:00 GMT</t>
+          <t>Tue, 29 Nov 2022 16:13:42 GMT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Praising Türkiye's successes in build-operate-transfer and public-private partnerships projects in which ATCEA members provide services as lenders’ technical assistance for the concession projects before financial close, during construction as well as in operation phase, Aker said: "I am proud to say that we have six firms from Türkiye ranked in the first 225 in the Engineering News-Record (ENR) list,"</t>
+          <t>As the world acknowledges the real threat of global recession, where and how a company should invest has never been more challenging. General counsel hold the keys to unlocking opportunity, and more than ever are relied upon for sound advice. There are many positives, but market knowledge is paramount in an insecure world. Putro Harnowo sheds light by turning to key trends Following a significant rebound last year with booming M&amp;A markets and rapid growth in international project finance, the UN Conference on Trade and Development’s (UNCTAD) World Investment Report 2022 highlighted that the war in Ukraine and the lingering effects of the pandemic have caused a triple crisis regarding food, fuel and finance in many countries. The June report expected global foreign direct investment (FDI) flows in 2022 to move on a downward trajectory or remain flat at best, while signalling an increasing trend in FDI screening among developed countries. The UNCTAD report notes that the recovery brought growth in all regions last year, mostly caused by M&amp;A transactions and high levels of retained earnings of multinational enterprises. In 2021, multinationals from developed economies more than doubled their investments abroad to USD1.3 trillion from USD408 billion the previous year. For in-house counsel at companies either investing or considering investment abroad, there are trends to be both welcomed and wary of. Evolutions of regulation to accompany policies surrounding sovereignty and security need constant vigilance from legal teams, and trends outbound and inbound reflect these vigilant times. “Companies recognise they must make their supply chains resilient, and to do so will require investment abroad,” says Steven Okun, founder and CEO of APAC Advisors and chair of AmChams of Asia-Pacific in Singapore. Okun says trade agreements provide great flexibility in the region to diversify their supply chains – of which companies are just starting to take advantage. The US-led, 14-nation Indo-Pacific Economic Framework (IPEF) is committed to making supply chains more resilient, robust and integrated, which could include creating an information sharing and crisis response mechanism, strengthening supply chain logistics and transparency, and investing in training and development to ensure enough skilled workers. “These actions, if taken, will further increase the appetite for Asian companies to invest abroad,” says Okun. Being the region’s powerhouse, Japan is expected to continue to expand abroad and seek targets of investment. “Japanese companies need to invest abroad since the economic growth rate has been slim domestically,” says Junko Suetomi, a partner at Baker McKenzie’s Tokyo office. “Overall in Asia, life science, artificial intelligence [AI], the IT industry, semiconductor industry as well as energy sectors are the industries in which I anticipate seeing an increase in investment.” Companies interested in investing in Japan should note the Foreign Exchange and Foreign Trade Act, which requires foreign investors to submit pre-transaction notifications filed through the Bank of Japan before acquiring equity, changing a shareholder in a reorganisation, or taking certain other corporate actions. The 2019 amendment lowered the ownership threshold for foreign investment approval from 10% to 1% in companies regarded as sensitive to national security. Ian Robertson, senior director of the Association of Corporate Counsel (ACC) for East Asia in Hong Kong, says that the US is still the world’s largest market and is relatively straightforward from a foreign investment point of view. “The attraction to Japanese and Asian investors generally is the sheer size of the US market – still the largest and wealthiest in the world with a GDP of USD23 trillion and 333.9 million population,” says Robertson. “An added attraction for Asian investors generally is the ability to establish research and development units in the US, which, despite all the rhetoric about China, is still where most of the world’s innovation gets done.” CHINA’S CHALLENGES Following a strong year for deals in 2021, China has experienced a modest slowdown in inbound and outbound total transaction value this year. According to data from China’s Ministry of Commerce (MOFCOM), outbound direct investment grew 9% and reached USD145.2 billion in 2021, mainly aimed at the Belt and Road Initiative (BRI) and Asean countries. Meanwhile, investment into the US dropped 30% in 2021 from the previous year, reaching only USD6 billion. Carl Li, a senior partner at AllBright Law Offices in Shanghai, says the covid-19 situation is restricting travel, and the political tensions are making it very difficult to conduct large-sized transactions in major developed markets. “Chinese enterprises have found themselves in a progressively complex environment when investing overseas,” says Li. “Regional geopolitical tension continues to bring challenges to global economic momentum.” Li argues that the pandemic’s resurgence in China has also had an effect on economic growth and the profitability of enterprises. As a result, Chinese enterprises may lean towards caution when investing abroad in the short term. “Nonetheless, overseas markets that have transformational potential are still attractive to Chinese enterprises, such as in the new energy automotive sector,” he says. In terms of regulation, Li observes that China’s outbound investment policies haven’t changed dramatically in the past 12 months, and the focus continues to be on encouraging companies to do the right outbound transactions in preferred sectors such as healthcare, technology, advanced manufacturing, energy and resources. On the inbound side, stronger GDP growth and the removal of certain investment restrictions have helped sustain and boost FDI. “To boost FDI amid the crisis, the government of China has revised its negative list, liberalising several more industries for investment, and removing restrictions in others,” says Li. “In addition, the recently released Five-Year Plan and long-term vision for 2035 indicate the government’s intention to ease more restrictions in the near future to boost FDI to pre-pandemic levels.” Following an easing of regulations as China softens its attitude toward big tech companies, Li anticipates that technology or software and tech-enabled services will continue to lead the way in deal volume. “Investment and M&amp;A activities related to generic drugs, green energy and data assets are likely to boom, while M&amp;A activity in other sections is likely to slow down or even decrease, especially in highly regulated sectors such as education,” says Li. Beyond global macroeconomic headwinds, Marcia Ellis, partner and global chair of Morrison Foerster’s private equity group in Hong Kong, says China-related transactions are being impacted by the evolving domestic regulatory landscape and the evolution of international regulations and enforcement priorities, with a specific impact on China-related transactions. “Looking abroad, geopolitical tensions and the steady rise of national security review regimes around the world have continued to put a damper on outbound activity,” says Ellis. “Many geographies where good targets have been located historically, such as the US and Europe, have doubled down on reviews of foreign investment in sensitive sectors. “As a consequence, Chinese acquirers are often looking further afield for opportunities in markets like Southeast Asia, the Middle East and Latin America.” Ellis believes that longer-term investor sentiment across corporate and private equity players active in China remains positive. Strategic M&amp;A transactions in sectors that support China’s national policy directives aimed at decarbonisation, digitalisation and domestic consumption are attractive, as well as investments that can be linked to the general theme of common prosperity. “We have observed significant deals in technology, media and telecoms, healthcare and life sciences, and alternative energy reach completion this year as investors look to enhance market share and deepen capabilities in targeted areas,” says Ellis. THE SOUTHEAST Southeast Asia is hailed as an FDI growth engine with inflows up 44% in 2021 compared to the previous year, according to the UNCTAD report. In general, FDI inflow to developing Asia increased by 19% to reach a new high of USD619 billion, driven mostly by East and Southeast Asia. The rise of Southeast Asia was underpinned by strong investment in manufacturing, the digital economy and infrastructure. Global FDI inflow and outflow had shown improvement in 2021. In Southeast Asia, only outflow from Singapore and Malaysia increased. As Asian multinationals represent a good amount of outward FDI and will continue to access more profitable markets in North America, the EU, and within Asia, the City University of Hong Kong’s professor of law, Julien Chaisse, observes that the share of investment coming from developing Asia keeps increasing and will further rise in the next year. “A number of indicators suggest that three to four key sectors will attract the largest share of FDI, namely manufacturing, services, high-tech sectors [i.e. digital economy] and infrastructure,” says Chaisse. “As for decline, I think two sectors emerge: extractive industries and transportation.” When it comes to inbound investment, Chaisse sees that Southeast Asia has shown a considerable increase in the past three years, especially Malaysia. “Malaysia has attracted a significant volume of FDI, as have Vietnam and Singapore, but it could attract FDI in semiconductors, which is going to be of considerable importance in the coming years with a significant potential for further expansion,” says Chaisse. Morrison Foerster Singapore-based partner, Ang Lip Kian, also sees keen interest in acquisition and investment transactions in the technology, payments and data centre sectors in Southeast Asia. However, he notes that deals are taking longer to complete as acquirers and investors grow more cautious due to tightening liquidity and broader macro conditions. As Southeast Asia is a heterogeneous market, Ang suggests an acquirer or investor should have access to legal advisers with strong local expertise and awareness of on-the-ground developments in relevant markets. “Deal terms will likely turn more buyer-friendly if current market conditions persist or worsen,” says Ang. “For example, we have seen investors asking for more aggressive liquidation preferences or, in the case of convertible note financing, more information and governance rights and higher discount rates upon conversion.” Ceferino Rodolfo, vice chairman and managing head of the Philippine Board of Investments (BOI) in Manila, is optimistic that the Philippines will breach its pre-pandemic FDI inflow this year. The consistently strong macroeconomic fundamentals of the country, coupled with recent liberalisation reforms through amendments in the Retail Trade Liberalisation Act, Public Service Act and Foreign Investments Act, are the key drivers. The central bank, Bangko Sentral ng Pilipinas, recently released its final FDI inflow of the Philippines for 2021, which was USD12.41 billion, up from 2020 at USD6.8 billion. “The bulk of the equity capital placements in 2022 was sourced from Singapore, Japan, the US, Hong Kong and Germany,” says Rodolfo. “These were channelled mainly to manufacturing, electricity, gas, steam and air-conditioning, financial and insurance, and real estate industries.” In the past five years, the top country sources of BOI-approved foreign investment were Singapore, China, Malaysia, the Netherlands and South Korea. INDIA’S WALLS Rapid growth in investment from China accompanied by a deteriorating political relationship in the past few years has brought about the formalisation of the national security screening process in India. Press Note 3 was issued by the Indian government in 2020 to restrict FDI from neighbouring countries. “Earlier foreign investments were scrutinised from a national security perspective on a selective basis,” notes Santosh Pai, a partner at Link Legal in New Delhi. “Direct or indirect investment in Indian companies from countries sharing a land border with India will require approval under Press Note 3.” Following the ban placed on more than 200 internet applications from China, it is likely that Chinese investment in the digital economy will attract more scrutiny. However, Pai believes that investment from private companies in China in the manufacturing sector, especially with significant employment generation potential, are unlikely to be impacted. Joint ventures with Indian companies accompanied by a transfer of essential technical know-how will also be welcome. While Press Note 3 covers investment in India where the beneficial owner is situated in, or is a citizen of, a bordering country, Mohit Gogia, a partner at S&amp;R Associates in New Delhi, notes that it does not elaborate on how the beneficial ownership test is to be calculated and applied, and no clarity has been issued to date. “India and Indian companies have also tried to position themselves as an alternative to supply disruption from China, and invite global companies to partner and set up manufacturing in India rather than look outward for acquisitions,” says Gogia. “At the same time, big Indian conglomerates have always been interested in good overseas assets, but the impact of interest rates on global debt markets has impacted some of these transactions.” In terms of regulatory development, one of the most significant changes, according to Gogia, is the new overseas investment rules for cross-border transactions that have liberalised Indian companies from investing in overseas companies with underlying Indian operations. Previously, no Indian company was allowed to make a financial commitment to a foreign entity that has invested in India. The rule now means that such commitment does not require approval from the Reserve Bank of India if the investee involves less than two levels of subsidiaries. Pai, of Link Legal, agrees that the liberalisation of the overseas investment rules will certainly encourage outbound investment, and notes notes that FDI in India has been registering steady growth despite the pandemic. As India always seeks benefits from investments by multinationals looking to diversify and build resilience into their global supply chains, Pai advises general counsel aiming at the Indian market to pay attention to India’s new fast-track negotiations on bilateral free trade agreements (FTAs), which have resulted in FTAs with the UAE and Australia. “Several more FTAs with countries such as the UK, Canada and the EU are expected,” says Pai. “Such FTAs will also boost the appetite among Indian companies for outbound investments.” THE US MOOD Following the launch of the Indo-Pacific Economic Framework for Prosperity (IPEF) in May, the Biden administration demonstrated its intent to pursue a US-centric approach to global trade. South Korea seems eager to respond, especially after president Yoon Suk-yeol encouraged companies to invest in the US, as observed by Lee Junsang, managing partner at Yoon &amp; Yang in Seoul. “As is the case in many other countries, politics and the economy in Korea are highly intertwined, and the new administration is openly pledging to be both pro-business and pro-US,” says Lee. While US companies see foreign investors as alternative sources of funding with better economic terms, Carl Valenstein, a partner at Morgan Lewis &amp; Bockius in Boston, sees certain foreign investors, particularly from China, find that these investments are useful to build their own domestic market while acquiring technology, products and talent abroad. However, with the increasing scrutiny of the Committee on Foreign Investment in the US (CFIUS), foreign investors need to consider how they’re funding the investment, who owns and controls it, and whether any other foreign government, indirectly referring to many state-owned companies in countries of concern, is involved. “Whether you’re able to participate in the US market will depend on your reputation, whether you are subject to sanctions, and whether you have a positive track record with the US federal agencies,” says Valenstein. “What we’re seeing now under the Biden administration is increased use of federal assistance as a means of ensuring domestic production and supply.” A recent example is the Creating Helpful Incentives to Produce Semiconductors (CHIPS) and Science Act 2022, which offers almost USD53 billion in grants for the US semiconductor industry and up to 25% in investment tax credits for capital expenses for semiconductor manufacturing and related equipment, with some caveats. Any semiconductor company that receives federal financial assistance is required to notify the Department of Commerce and seek clearance of any significant transactions involving the material expansion of semiconductor manufacturing capacity in China, and certain other countries of concern. The ACC’s Ian Robertson observes that this move has attracted Asian semiconductor companies to invest in the US, signalling global demand for the next couple of years. “Given the current supply-chain issues with semiconductors, it’s become apparent to the US government how dependent their manufacturers are on semiconductor supply chains in the Far East,” says Robertson. “It’s not going too far to say that congress sees this as a national security issue for the US, as something like 75% of world semiconductor production comes from East Asia.” South Korean leading semiconductor companies Samsung and SK Hynix are already re-evaluating their existing facilities in China as the act restricts companies receiving US federal funds from expanding or upgrading their advanced facilities in China for 10 years. For general counsel aiming at the US market, Robertson highlights antitrust as a key area where investors should be particularly careful. Transactions with a value of USD101 million or less are not subject to merger control under the Hart–Scott–Rodino Antitrust Improvements Act, but could still be subject to non-competition merger control laws.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Praising Türkiye's successes in build-operate-transfer and public-private partnerships projects in which ATCEA members provide services as lenders’ technical assistance for the concession projects before financial close, during construction as well as in operation phase, Aker said: "I am proud to say that we have six firms from Türkiye ranked in the first 225 in the Engineering News-Record (ENR) list,"</t>
+          <t>As the world acknowledges the real threat of global recession, where and how a company should invest has never been more challenging. For in-house counsel at companies either investing or considering investment abroad, there are trends to be both welcomed and wary of. Japanese companies need to invest abroad since the economic growth rate has been slim domestically,” says Junko Suetomi, a partner at Baker McKenzie’s Tokyo office. “ Companies interested in investing in Japan should note the Foreign Exchange and Foreign Trade Act, which requires foreign investors to submit pre-transaction notifications filed through the Bank of Japan before acquiring equity, changing a shareholder in a reorganisation, or taking certain other corporate actions. The attraction to Japanese and Asian investors generally is the sheer size of the US market – still the largest and wealthiest in the world with a GDP of USD23 trillion and 333.9 million population,” says Robertson. “ According to data from China’s Ministry of Commerce (MOFCOM), outbound direct investment grew 9% and reached USD145.2 billion in 2021, mainly aimed at the Belt and Road Initiative (BRI) and Asean countries. Li argues that the pandemic’s resurgence in China has also had an effect on economic growth and the profitability of enterprises. As a result, Chinese enterprises may lean towards caution when investing abroad in the short term. “ Beyond global macroeconomic headwinds, Marcia Ellis, partner and global chair of Morrison Foerster’s private equity group in Hong Kong, says China-related transactions are being impacted by the evolving domestic regulatory landscape and the evolution of international regulations and enforcement priorities, with a specific impact on China-related transactions. “ The rise of Southeast Asia was underpinned by strong investment in manufacturing, the digital economy and infrastructure. As Asian multinationals represent a good amount of outward FDI and will continue to access more profitable markets in North America, the EU, and within Asia, the City University of Hong Kong’s professor of law, Julien Chaisse, observes that the share of investment coming from developing Asia keeps increasing and will further rise in the next year. “ A number of indicators suggest that three to four key sectors will attract the largest share of FDI, namely manufacturing, services, high-tech sectors [i.e. digital economy] and infrastructure,” says Chaisse. “ Following the ban placed on more than 200 internet applications from China, it is likely that Chinese investment in the digital economy will attract more scrutiny. Joint ventures with Indian companies accompanied by a transfer of essential technical know-how will also be welcome. The rule now means that such commitment does not require approval from the Reserve Bank of India if the investee involves less than two levels of subsidiaries. Pai, of Link Legal, agrees that the liberalisation of the overseas investment rules will certainly encourage outbound investment, and notes notes that FDI in India has been registering steady growth despite the pandemic. As India always seeks benefits from investments by multinationals looking to diversify and build resilience into their global supply chains, Pai advises general counsel aiming at the Indian market to pay attention to India’s new fast-track negotiations on bilateral free trade agreements (FTAs), which have resulted in FTAs with the UAE and Australia. “ However, with the increasing scrutiny of the Committee on Foreign Investment in the US (CFIUS), foreign investors need to consider how they’re funding the investment, who owns and controls it, and whether any other foreign government, indirectly referring to many state-owned companies in countries of concern, is involved. “ What we’re seeing now under the Biden administration is increased use of federal assistance as a means of ensuring domestic production and supply.”</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9999995231628418</v>
+        <v>0.9812052249908447</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hydrogen Market Growth, Trends, Revenue, Share and Demands Research Report to 2031 - Digital Journal</t>
+          <t>Tencent Highlights Its Global Vision and Strategies on Leading Next Wave of Cloud at Flagship Summit - Yahoo Finance</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 17:42:20 GMT</t>
+          <t>Wed, 30 Nov 2022 05:54:04 GMT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hydrogen Market – Report Scope Persistence Market Research (PMR) recently published a study report on the global hydrogen market. The report provides detailed valuation of key market dynamics, such as the drivers, trends, opportunities, and restraints, along with detailed information about the hydrogen market structure. This market research report presents exclusive facts and figures about how the hydrogen market is expected to expand over the forecast period. Hydrogen is often called the fuel of the future. It is a clean-burning, emissions-free alternative to gasoline and other fossil fuels, and it can be used to power cars, trucks, buses, trains, ships, and even airplanes. Hydrogen can also be used to generate electricity in place of other fuels like coal or natural gas. Many countries are investing in hydrogen infrastructure and development programs in an effort to reduce greenhouse gas emissions and combat climate change. Hydrogen fuel cells are also being seen as a potential solution to the energy crisis facing many countries. Request for Free Sample Copy of this [email protected]https://www.persistencemarketresearch.com/samples/4146 The study is relevant for stakeholders in the hydrogen market, as well as manufacturers, distributors, suppliers, and investors, as it can help them understand applicable strategies to grow in the market. Stakeholders, investors, industry experts, researchers, and journalists, as well as business researchers in the hydrogen market can leverage the information and statistics presented in PMR’s research report. The report includes facts &amp; figures related to the macro- as well as macroeconomic factors that are impacting the growth of the hydrogen market. The study also offers actionable insights based on the future trends in the hydrogen market. Furthermore, regional players and new entrants in the hydrogen market can also use the information presented in this report to make business decisions and gain momentum in the market. Key Players- Air Liquide S.A. The Linde Group Air Products and Chemicals, Inc. Iwatani Corporation Showa Denko K.K. Teledyne Technologies Inc. Messer Group GmbH Hydrogenics Corp. Nel ASA Southern Industrial Gas Sdn Bhd Hy.Gear B.V. and more Get Full Access of this Report and Get Up to 20% [email protected]https://www.persistencemarketresearch.com/checkout/4146 Hydrogen Market: Research Methodology In PMR’s research report, an exclusive research methodology is utilized to conduct comprehensive research on the development of the hydrogen market and reach conclusions on the future growth factors of the market. In this research methodology, secondary and primary research is utilized by analysts to ensure precision and reliability of the conclusions. Secondary resources are referred to by analysts during the evaluation of the hydrogen market study, and comprise facts and figures from the World Bank, OEM websites, government websites, white papers, trade journals, and external and internal databases. Analysts have thoroughly interviewed several industry experts, such as sales supervisors, sales operation managers, product portfolio managers, senior managers, market intelligence managers, marketing/product managers, and production managers, to provide insightful information. Comprehensive information acquired from primary and secondary resources is validated from companies operating in the market, to make PMR’s projections on the growth prospects of the hydrogen market more accurate and reliable. You Can Customize this Report As per Your [email protected]https://www.persistencemarketresearch.com/request-customization/4146 Region Coverage (Regional Production, Demand &amp; Forecast by Countries etc.): North America (U.S., Canada, Mexico) Europe (Germany, U.K., France, Italy, Russia, Spain etc.) Asia-Pacific (China, India, Japan, Southeast Asia etc.) South America (Brazil, Argentina etc.) Middle East &amp; Africa (Saudi Araia, South Africa etc.) Key Stakeholders Hydrogen Market Manufacturers Hydrogen Market Distributors/Traders/Wholesalers Hydrogen Market Subcomponent Manufacturers Industry Association Downstream Vendors Request you to Read More- Tartaric Acid Market Glycol Ethers Market Color Masterbatches Market Cerium Market About us: – Persistence Market Research (PMR), as a 3rd-party research organization, does operate through an exclusive amalgamation of market research and data analytics for helping businesses ride high, irrespective of the turbulence faced on the account of financial/natural crunches. Contact Us: Persistence market research Address – 305 Broadway, 7th Floor, New York City, NY 10007 United States U.S. Ph. – +1-646-568-7751 USA-Canada Toll-free – +1 800-961-0353 Sales – [email protected] This Press Release has been written with the intention of providing accurate market information which will enable our readers to make informed strategic investment decisions. If you notice any problem with this content, please feel free to reach us on [email protected]</t>
+          <t>Annual flagship summit alongside its first-ever international summit to showcase how Tencent's industrial internet and cloud expertise help businesses succeed globally in digital transformation SINGAPORE, Nov. 30, 2022 /PRNewswire/ -- Tencent introduced its first-ever Global Digital Ecosystem Summit at its annual Digital Ecosystem Summit held on 30 November and 1 December in Shenzhen, in effort to deepen the company's ties with international audiences. Tencent introduced its first-ever Global Digital Ecosystem Summit at its annual Digital Ecosystem Summit held on 30 November and 1 December in Shenzhen. Tencent Cloud and Smart Industries Group (CSIG)'s leaders and experts, as well as strategic business partners, joined together to share their visions for the future of cloud, immersive convergence, Web 3.0 and other detailed strategies to accelerate international growth, while showcasing a diverse portfolio of business success stories on integrating cloud solutions into gaming, fintech, social communications, entertainment, e-commerce, and other verticals. Industrial Internet: Propelling Collective Success across Multiple Industries As Tencent looks to further create sustainable growth, Dowson Tong, Senior Executive Vice President of Tencent and President of CSIG, underlined 'Immersive Convergence' as an important strategy and roadmap for the company's future pipeline, "The convergence between our physical and virtual worlds is transforming the way we live. Leveraging our technologies and connectivity solutions, we will continue driving innovations for enterprises to boost their digital competitiveness." Tencent has been spearheading the evolution of the Industrial Internet, creating innovative enterprise solutions to enhance performance and bring business value. Today, Tencent's enterprise communication platform, WeCom connects over 10 million organizations to 500 million Weixin/WeChat active users. Tencent's cloud conferencing tool, Tencent Meeting/VooV Meeting supports more than 300 million users worldwide, while its blockchain-powered e-signature service supports millions of users to complete signing a contract in only 15 seconds. More than three million of developers have also used Tencent CloudBase to create mini programs, deploy web applications and develop mobile applications. Story continues Global Partner Ecosystem: Co-creating Business Values Approaching its seventh year of operating in international markets, Tencent Cloud has already made significant strides in supporting enterprises' growth globally, as well as their expansion into China - including the likes of Fortune Global 500 companies BMW Group, Sanofi, and Novartis. This year, Tencent Cloud also rolled out its first global partner program, aimed at nurturing a stronger and more diverse partner ecosystem around the world – including more channel partners, technology partners, service providers and consulting partners – to support global digital transformation. To date, Tencent has built more than 400 customized solutions for over 10,000 partners – jointly serving 2 million customers in their digital transformation journey. The Tencent Cloud's partner ecosystem is generating up to one-third of its total revenues. Tencent Cloud continues to see an upward growth trajectory and it is now turning to further expansions into Latin America, and the Middle East. Tencent Cloud currently operates in five key regions and markets – Hong Kong &amp; Macau, Southeast Asia, Northeast Asia, Europe and the Americas. Tong added "Going forward, we will continue to invest in the global market for our cloud and software businesses by expanding our overseas infrastructure coverage, developing our local integration and service partnership network, as well as enriching our product offerings around cloud, video, AI, database, and network security for the international markets. All of this with the goal of building a competitive product portfolio and a sustainable technology business to service and scale with our global customers and partners as the world embraces digital transformation." Last year, Tencent Cloud opened six new data centers in Bangkok, Frankfurt, Hong Kong, Jakarta, Tokyo, and Sao Paulo, bringing its total to 26 geographic areas on five continents and 70 availability zones, as well as exabyte-level storage capacity. Its content delivery network has deployed 2,800 acceleration nodes worldwide. Next Wave of Cloud: Empowering Partners in Web 3.0 Era Best known for its expertise in cloud and years of experience in the fields of games, audio and video solutions, Tencent Cloud provides a solid and reliable foundation for businesses to adapt and scale into Web 3.0. Poshu Yeung, Senior Vice President, Tencent Cloud International pointed out that more global partners are looking to integrate their operations and services to adapt and scale into Web 3.0. Poshu Yeung, Senior Vice President, Tencent Cloud International further pointed out that more global partners are looking to integrate their operations and services to adapt and scale into Web 3.0. He added, "From providing the best hyperscale infrastructure to creating a one-stop shop for cloud solutions, we aim to support the Web 3.0 community to adopt critical technologies, such as the Internet of Things, Tencent Real-Time Communication (TRTC), extended reality, remote and multi-sensory interaction, to drive deeper connection between the virtual and real worlds." Digital Transformation in Southeast Asia During the summit, Tencent Cloud shared more on how it provides support to partners and clients across a variety of industries in their digital transformation journey across Southeast Asia, namely Bank Neo Commerce (BNC), STTelemedia Global Data Centres, Millennium Technology Services (MTS), Helios Informatika Nusantara (Helios), KinderWorld, and more. Vice President of Tencent Cloud, Southeast Asia's Krittee Manoleehagul also echoed Tencent Cloud's ability as a digital enabler in "providing secure, reliable, and smart cloud technologies to support enterprises to improve their business agility." Manoleehagul also added, "Web 3.0 is a new focus industry and is a natural extension of Tencent's internet services." For example, since the adoption of Tencent Cloud Distributed Database (TDSQL), Bank Neo Commerce (BNC), a digital bank headquartered in Indonesia, is now able to process 2 million transactions and 150,000 loan disbursements per day. This provides reliable and powerful support for more than 50% of BNC's monthly active user growth, and its 20 million users and 35 million accounts acquired each year. In another example, STTelemedia Global Data Centres (STT GDC) has collaborated with Tencent Cloud to provide smart building solutions for STT Bangkok 1, a carrier-neutral data centre in the STT Bangkok Data Centre Campus, located at Hua Mak, one of Bangkok's major business districts. With the adoption of Tencent Cloud Weiling, STT Bangkok 1 has become Thailand's first smart building with Instavue and database security service (DBSS) implementation, and Raydata 3D visual management, and is now able to deliver up to 20 MW and scale to 40 MW of total IT load capacity, to support their customers' business expansion demands. For further information, please visit: www.tencentcloud.com. About Tencent Digital Ecosystem Summit 2022 Tencent Digital Ecosystem Summit is the annual event of Tencent Group facing the industrial Internet with the highest specification, the largest scale and the widest coverage. And the Tencent Digital Ecosystem Summit 2022 aims to gather global wisdom and insight into new opportunities for industrial development, depict the development blueprint of key technologies such as cloud, AI, big data and security, and display Tencent's latest research results, strategic planning, cutting-edge technologies, core products and solutions. The conference gathered the industry best practices accumulated by Tencent's global digital ecological partners in the process of promoting "industrial digitization" and "digital industrialization". It is regarded as a panoramic interface for enterprises, partners, developers and the public to understand Tencent's digital ecology. About Tencent Cloud Tencent Cloud, one of the world's leading cloud companies, is committed to creating innovative solutions to resolve real-world issues and enabling digital transformation for smart industries. Through our extensive global infrastructure, Tencent Cloud provides businesses across the globe with stable and secure industry-leading cloud products and services, leveraging technological advancements such as cloud computing, Big Data analytics, AI, IoT and network security. It is our constant mission to meet the needs of industries across the board, including the fields of gaming, media and entertainment, finance, healthcare, property, retail, travel and transportation. About Tencent Tencent uses technology to enrich the lives of Internet users. Our communication and social services, Weixin and QQ, connect users with each other and with digital content and services, both online and offline, making their lives more convenient. Our targeted advertising service helps advertisers reach out to hundreds of millions of consumers in China. Our FinTech and business services support our partners' business growth and assist their digital upgrade. Tencent invests heavily in talent and technological innovation, actively promoting the development of the Internet industry. Tencent was founded in Shenzhen, China, in 1998. Shares of Tencent (00700.HK) are listed on the Main Board of the Stock Exchange of Hong Kong. SOURCE Tencent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hydrogen Market – Report Scope Persistence Market Research (PMR) recently published a study report on the global hydrogen market. It is a clean-burning, emissions-free alternative to gasoline and other fossil fuels, and it can be used to power cars, trucks, buses, trains, ships, and even airplanes. Request for Free Sample Copy of this [email protected]https://www.persistencemarketresearch.com/samples/4146 The study is relevant for stakeholders in the hydrogen market, as well as manufacturers, distributors, suppliers, and investors, as it can help them understand applicable strategies to grow in the market. Key Players- Air Liquide S.A. The Linde Group Air Products and Chemicals, Inc. Iwatani Corporation Showa Denko K.K. Teledyne Technologies Inc. Messer Group GmbH Hydrogenics Corp. Nel ASA Southern Industrial Gas Sdn Bhd Hy. Comprehensive information acquired from primary and secondary resources is validated from companies operating in the market, to make PMR’s projections on the growth prospects of the hydrogen market more accurate and reliable.</t>
+          <t>Annual flagship summit alongside its first-ever international summit to showcase how Tencent's industrial internet and cloud expertise help businesses succeed globally in digital transformation SINGAPORE, Nov. 30, 2022 /PRNewswire/ -- Tencent introduced its first-ever Global Digital Ecosystem Summit at its annual Digital Ecosystem Summit held on 30 November and 1 December in Shenzhen, in effort to deepen the company's ties with international audiences. Tencent introduced its first-ever Global Digital Ecosystem Summit at its annual Digital Ecosystem Summit held on 30 November and 1 December in Shenzhen. Tencent Cloud and Smart Industries Group (CSIG)'s leaders and experts, as well as strategic business partners, joined together to share their visions for the future of cloud, immersive convergence, Web 3.0 and other detailed strategies to accelerate international growth, while showcasing a diverse portfolio of business success stories on integrating cloud solutions into gaming, fintech, social communications, entertainment, e-commerce, and other verticals. Industrial Internet: Propelling Collective Success across Multiple Industries As Tencent looks to further create sustainable growth, Dowson Tong, Senior Executive Vice President of Tencent and President of CSIG, underlined 'Immersive Convergence' as an important strategy and roadmap for the company's future pipeline, "The convergence between our physical and virtual worlds is transforming the way we live. Today, Tencent's enterprise communication platform, WeCom connects over 10 million organizations to 500 million Weixin/WeChat active users. All of this with the goal of building a competitive product portfolio and a sustainable technology business to service and scale with our global customers and partners as the world embraces digital transformation." Poshu Yeung, Senior Vice President, Tencent Cloud International pointed out that more global partners are looking to integrate their operations and services to adapt and scale into Web 3.0. For example, since the adoption of Tencent Cloud Distributed Database (TDSQL), Bank Neo Commerce (BNC), a digital bank headquartered in Indonesia, is now able to process 2 million transactions and 150,000 loan disbursements per day. About Tencent Tencent uses technology to enrich the lives of Internet users.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9998761415481567</v>
+        <v>0.9982994198799133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26th November Current Affairs Quiz for Bank Exams 2022 - Bankersadda</t>
+          <t>Hong Kong sees IPO slowdown reversing; eyes international issuers - Yahoo Finance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 03:30:09 GMT</t>
+          <t>Wed, 30 Nov 2022 07:11:42 GMT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>26th November Current Affairs Quiz: Here, we are providing the Current Affairs Quiz. These types of topics are important for candidates who prepare for Bank Exam 2022. In this article, we are covering the following topics Headlines: Exercise GARUDA SHAKTI Prasar Bharati European Space Agency FICCI Vijay Hazare Trophy 26th November Current Affairs Quiz The Current Affairs section constitutes a major part of the General Awareness section in a competitive examination and plays an instrumental role. To supplement your preparation for the General Awareness Section of the upcoming exams like IBPS PO/Clerk Mains, SBI PO Mains and SEBI Grade A Prelims, we are providing you Current Affairs Quiz of 26th November 2022 covering the following topics Headlines: Exercise GARUDA SHAKTI, Prasar Bharati, European Space Agency, FICCI, Vijay Hazare Trophy. Q1. Who has been awarded Lifetime Achievement Award 2022 by FICCI? (a) Jayanti Prasad (b) Rajiv Kumar (c) Vinayak Pai (d) Rajarshi Gupta (e) Rajendra Pawar Q2. Indian army is participating in a bilateral joint training Exercise GARUDA SHAKTI with which country’s forces? (a) Australia (b) Russia (c) Indonesia (d) USA (e) Japan Q3. According to the data revealed by 1 Lattice (previously PNG), which of the following banks dominated the credit cards market in October 2022, with a 21% share? (a) State Bank of India (b) HDFC Bank (c) Indian Bank (d) Axis Bank (e) ICICI Bank Q4. Who among the following has been nominated as the CEO-designate of Deloitte India? (a) Atul Dhawan (b) Krishna Rangnath Chaturvedi (c) Nandita Shyamsunder Pai (d) Romal Shetty (e) Charu Sehgal Q5. Which of the following has signed the world’s ‘longest’ gas supply deal with China in November 2022? (a) Russia (b) Sri Lanka (c) Qatar (d) Azerbaijan (e) Pakistan Q6. Who among the following cricketer achieved the world record for the highest ever individual score in List A cricket by scoring a 141-ball 277 against Arunachal Pradesh in Vijay Hazare Trophy? (a) Narayanan Jagadeesan (b) Ruturaj Gaikwad (c) Prithvi Shaw (d) Yash Dull (e) Yashavi Jaiswal Q7. The International Day for the Elimination of Violence against Women is observed on _______, every year. (a) November 21 (b) November 22 (c) November 23 (d) November 24 (e) November 25 Q8. What is the theme of International Day for the Elimination of Violence Against Women 2022? (a) Orange the World: Fund, Respond, Prevent, Collect! (b) Orange the World: End Violence against Women Now! (c) UNITE! Activism to End Violence against Women and Girls (d) Orange the World: Generation Equality Stands Against Rape (e) Orange the World – raise funds to end violence against women Q9. In Nepal, Prime Minister ________ has elected for the consecutive 7th time from the home district of Dadeldhura. (a) KP Sharma Oli (b) Pushpa Kamal Dahal (c) Sher Bahadur Deuba (d) Sushil Koirala (e) Khil Raj Regmi Q10. Prasar Bharati celebrated the silver jubilee or 25 years of its establishment on _________, 2022. (a) 21 November (b) 23 November (c) 24 November (d) 22 November (e) 25 November Q11. The European Space Agency has named the first ever “parastronaut” in a major step towards allowing people with physical disabilities to work and live in space. What is the name of parastronaut? (a) John McFall (b) Daniel Dias (c) Jingjing guo (d) Darren Kenny (e) David Roberts Q12. Who among the following has been named as new army chief of Pakistan Army? (a) General Mirza Aslam Beg (b) Field Marshal Muhammad Zia-ul-Haq (c) General Tikka Khan (d) Lt General Asim Munir (e) General Muhammad Musa Khan Q13. E- commerce major Flipkart has partnered with which of the following banks to launch Super Elite Credit Card in November 2022? (a) Axis Bank (b) HDFC Bank (c) ICICI Bank (d) Bank of Baroda (e) Federal Bank Q14. Which of the following bank has opened it’s first mid-corporate Branch in Kerala at Kochi? (a) Union Bank of India (b) State bank of India (c) Punjab National Bank (d) Canara Bank (e) Bank of Baroda Q15. Tata Consumer to acquire packaged water giant Bisleri for about _________. (a) Rs 5,000 crore (b) Rs 6,000 crore (c) Rs 7,000 crore (d) Rs 8,000 crore (e) Rs 9,000 crore Solutions S1. Ans.(e) Sol. The Federation of Indian Chambers of Commerce &amp; Industry (FICCI) has honoured Rajendra Singh Pawar (Chairman and Founder, NIIT) with Lifetime Achievement Award 2022. S2. Ans.(c) Sol. Indian army is participating in a bilateral joint training Exercise GARUDA SHAKTI with Indonesian Special Forces at Karawang, Indonesia. S3. Ans.(b) Sol. In the credit cards market, India’s largest private sector bank, HDFC bank led the share with a whopping 21 per cent. The lead was followed by SBI Card (19%), ICICI Bank (17%), Axis Bank (11%). S4. Ans.(d) Sol. Senior consultant Romal Shetty has been nominated CEO-designate of Deloitte India. Shetty has been a President, Consulting at Deloitte India and is based out of the Bengaluru office. S5. Ans.(c) Sol. QatarEnergy announced a 27-year natural gas supply deal with China, calling it the “longest” ever seen as it strengthened ties with Asia at a time when Europe is scrambling for alternative sources.The state energy company will send four million tonnes of liquefied natural gas annually from its new North Field East project to China Petroleum and Chemical Corporation. S6. Ans.(a) Sol. Tamil Nadu batter Narayan Jagadeesan broke the world record for the highest ever individual score in List A cricket by hammering a 141-ball 277 against Arunachal Pradesh in Vijay Hazare Trophy here. S7. Ans.(e) Sol. The International Day for the Elimination of Violence against Women is observed on November 25, every year. S8. Ans.(c) Sol. The 2022 theme of International Day for the Elimination of Violence Against Women is ‘UNITE! Activism to End Violence against Women and Girls.’ S9. Ans.(c) Sol. In Nepal, Prime Minister Sher Bahadur Deuba has elected for the consecutive 7th time from the home district of Dadeldhura. S10. Ans.(b) Sol. Prasar Bharati celebrated the silver jubilee or 25 years of its establishment on 23 November, 2022. It was on this day in 1997, that it came into being as a statutory autonomous body set up by an Act of Parliament. S11. Ans.(a) Sol. The European Space Agency has named the first ever “parastronaut” in a major step towards allowing people with physical disabilities to work and live in space. The 22-nation agency said it had appointed British Paralympic sprinter John McFall. S12. Ans.(d) Sol. Pakistan named Lieutenant-General Asim Munir as chief of its army, will replace General Qamar Javed Bajwa. S13. Ans.(a) Sol. In a bid to scale Flipkart’s SuperCoins reward program, the e-commerce major and Axis Bank have partnered to launch Super Elite Credit Card. In an effort to scale the Flipkart SuperCoins reward programme and enhance the customer shopping experience, this card will serve extensive value to shoppers. S14. Ans.(e) Sol. Bank of Baroda has opened it’s first mid-corporate Branch in Kerala at Kochi. The branch was inaugurated by Debadatta Chand, Executive Director in the presence of S. Rengarajan, GM (Head – Mid Corporate Cluster South) and Sreejith Kottarathil, Zonal Head-Ernakulam. S15. Ans.(c) Sol. Tata Consumer is set to acquire India’s largest packaged drinking water company, Bisleri, for an estimated 7,000 crore. You may also like to read: Join Our Telegram Channels-</t>
+          <t>FILE PHOTO: Hong Kong Exchanges and Clearing Ltd (HKEX) chairman Laura Cha Shih May-lung speaks during a ceremony marking the first day of trade after Lunar New Year at the Hong Kong stock exchange in Hong Kong By Sumeet Chatterjee HONG KONG (Reuters) - Hong Kong has more than a hundred applicants in the pipeline for initial public offerings (IPOs) and is eyeing more companies and investors from markets including the Middle East and Southeast Asia, the chairman of the city's bourse operator said. China's economic slowdown, a sweeping regulatory crackdown that has tightened scrutiny over companies' fundraising outside mainland China and geopolitical tensions have all resulted in a bleak year for new listings in Hong Kong. In recent years, anti-government protests, the imposition of a sweeping national security law, and punishing COVID-19 containment measures have also clouded Hong Kong's status as a premier financial centre. Public floats by Chinese companies account for most of the IPOs in Hong Kong, one of the top listing venues globally and a major driver of revenue and fee income for the world's biggest investment banks. Roughly $6 billion has been raised via 50 IPOs so far this year in the Asian financial hub, Refinitiv data shows, down sharply from more than $25 billion in 2021. The bourse is on course to see its lowest IPO proceeds in a decade. "I am quite confident that the IPO market activity will return very quickly in the new year," Hong Kong Exchanges and Clearing Ltd (HKEX) Chairman Laura Cha said in an interview at the Reuters NEXT conference. "Currently, we have over a hundred companies in the pipeline. Many of them are waiting for the market sentiment to improve so that their valuations could be better when they come to the market," she said. While Cha expects Chinese companies, mostly those from the new economy sector, to revive their capital raising plans in Hong Kong, HKEX is also looking to attract others from elsewhere to burnish its credentials as an international platform. On the radar are prospective investors and issuers from the Middle East and Southeast Asia. "We are trying to broaden our international footprint in terms of the products that we are offering," she said. "In other words, we will make ourselves much more diversified (with) many more international companies and that will be our strategy." Story continues International investors account for about 42% of investments in Hong Kong's equity market, and that share is "a lot higher" in the derivatives market, Cha said. "So, we are already international in nature, but we will continue to expand that." Years of strict COVID restrictions have also badly hit Hong Kong's economy, but the city has lifted most of its curbs in the last couple of months. "With COVID restrictions being removed, almost completely now, and the financial markets also performing well, I think we will be able to continue to attract new talents into Hong Kong," Cha said. "So for us, there was, like the rest of Hong Kong, a higher attrition rate about 12 months ago, and that has come down now." (To view the Reuters NEXT conference live on Nov. 30 and Dec. 1, please click here) (Reporting by Sumeet Chatterjee; Editing by Ana Nicolaci da Costa)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26th November Current Affairs Quiz: Here, we are providing the Current Affairs Quiz. To supplement your preparation for the General Awareness Section of the upcoming exams like IBPS PO/Clerk Mains, SBI PO Mains and SEBI Grade A Prelims, we are providing you Current Affairs Quiz of 26th November 2022 covering the following topics Headlines: Exercise GARUDA SHAKTI, Prasar Bharati, European Space Agency, FICCI, Vijay Hazare Trophy. a) State Bank of India (b) HDFC Bank (c) Indian Bank (d) Axis Bank (e) ICICI Bank Q4. In Nepal, Prime Minister ________ has elected for the consecutive 7th time from the home district of Dadeldhura. ( Prasar Bharati celebrated the silver jubilee or 25 years of its establishment on _________, 2022. ( a) 21 November (b) 23 November (c) 24 November (d) 22 November (e) 25 November Q11. The European Space Agency has named the first ever “parastronaut” in a major step towards allowing people with physical disabilities to work and live in space. E- commerce major Flipkart has partnered with which of the following banks to launch Super Elite Credit Card in November 2022? ( a) Rs 5,000 crore (b) Rs 6,000 crore (c) Rs 7,000 crore (d) Rs 8,000 crore (e) Rs 9,000 crore Solutions S1. In the credit cards market, India’s largest private sector bank, HDFC bank led the share with a whopping 21 per cent. In an effort to scale the Flipkart SuperCoins reward programme and enhance the customer shopping experience, this card will serve extensive value to shoppers.</t>
+          <t>FILE PHOTO: Hong Kong Exchanges and Clearing Ltd (HKEX) chairman Laura Cha Shih May-lung speaks during a ceremony marking the first day of trade after Lunar New Year at the Hong Kong stock exchange in Hong Kong By Sumeet Chatterjee HONG KONG (Reuters) - Hong Kong has more than a hundred applicants in the pipeline for initial public offerings (IPOs) and is eyeing more companies and investors from markets including the Middle East and Southeast Asia, the chairman of the city's bourse operator said. While Cha expects Chinese companies, mostly those from the new economy sector, to revive their capital raising plans in Hong Kong, HKEX is also looking to attract others from elsewhere to burnish its credentials as an international platform. We are trying to broaden our international footprint in terms of the products that we are offering," she said. " To view the Reuters NEXT conference live on Nov. 30 and Dec. 1, please click here) (Reporting by Sumeet Chatterjee; Editing by Ana Nicolaci da Costa)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1240,88 +1256,88 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9999896287918091</v>
+        <v>0.9999624490737915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shift toward manufacturing needed if Africa is to fully benefit from AfCFTA - The East African</t>
+          <t>Big banks face scrutiny over business with Myanmar lender - Al Jazeera English</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 14:02:57 GMT</t>
+          <t>Thu, 03 Nov 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>By DORINE NININAHAZWE More by this Author In March of 2018, Africa witnessed the signing of the African Continental Free Trade Area (AfCFTA). The historic moment represented the dawn of possibilities as it gave birth to the world’s largest new free trade area since the establishment of the World Trade Organisation in 1994. The AfCFTA allows enterprises to trade more value-added goods and services more freely throughout the continent, driving industrialisation. The World Bank estimates that the AfCFTA will by 2040 lift 30 million out of extreme poverty and substantially increase the income of 68 million people who are just above the poverty line. The United Nations Economic Commission for Africa envisions the AfCFTA boosting intra-African trade in goods and services by up to 25 percent by 2040. This figure takes a significant importance given the evidence that Africa trades with the rest of the world and not with itself. Intra-African trade is currently below 20 percent. The challenges The African manufacturing sector is projected to more than double to $1 trillion by 2025, a significant growth by any measure. However, the continent’s labour force continues to be largely low skilled as trade is marked by unprocessed agricultural and natural resource produce. Advertisement The AfCFTA provides the opportunity for Africa to develop its manufacturing and industrial sector and improve the global competitiveness of the continent. The need for a fundamental shift in the structure of our economies is urgent and long overdue as manufacturing must account for the greater share of domestic investment. Exporting raw materials The AfCFTA will not realise its full potential if its members continue to export raw materials and import finished goods and products from global manufactures in Asia, Europe and the Americas. The fourth industrial revolution provides an opportunity for Africa to improve its efficiency and productivity. The technological innovation that comes with the fourth industrial revolution will lead to outstanding transformation in manufacturing, with long-term benefits in efficiency and production. Transportation and communication costs will fall, logistics and global supply chains will become more efficient and trade costs will fall, opening up new markets, creating jobs and driving economic growth. Industrialisation that can sustainably generate sufficient outputs to satisfy both domestic and export markets and create jobs for the continents huge unemployed youth population must therefore be anchored on well-coordinated and thought-out policy interventions. A good starting point is the need for development and implementation of national industrial policies that stimulate investment flows to sectors that are both competitive and labour-intensive. The establishment of special economic zones in some African countries like Kenya, Nigeria, Egypt and Ethiopia has been seen as a big incentive to investors. Albeit they need to be well structured for purpose. Attracting investment While our leaders have made it clear that Africa wants trade and not aid, it is important to put in place policies that will make it easy and affordable to do business and attract investors who want to set up factories on the continent. Furthermore, strategic investment in the right infrastructure is a prerequisite to industrialisation. We need investment in the right infrastructure. Access to affordable and reliable electricity forms the basis of an industrialised economy. Transport and connectivity on the continent is an important linchpin. Industrialisation will increase demand for different modes of transport, including maritime transport. It is, therefore, critical and urgent to finance adequate transport infrastructure. This is an area we cannot leapfrog; we must simply build it from the ground up. Last, modernisation of agri-systems and value addition will ensure better foreign exchange inflows as well as food security for the continent’s population. Agriculture done right will move millions of Africans from poverty. Modernisation of agriculture must, however, be guided by an acknowledgment of the prevailing climate change pressures. As we shift focus to Niamey, Niger, where African leaders converged on November 25 for a special African Union summit on industrialisation and economic diversification, many young people are hopeful and following closely the outcomes of the summit that has the potential to transform our continent. The writer is director for East Africa and the AU at ONE Campaign</t>
+          <t>This article has been updated with a response from ANZ and to clarify its transactions concerned individual Innwa Bank accounts. Major international banks, including Australia’s ANZ, have continued to do business with a bank owned by Myanmar’s military administration despite its bloody crackdown on anti-coup protests, according to an advocacy group and leaked documents. ANZ, one of Australia’s “big four” banks, was used by Hong Kong-based insurer AIA to transfer funds to accounts operated by Innwa Bank, which is owned by military conglomerate Myanmar Economic Corporation (MEC), in August and September 2021, Justice for Myanmar said, citing leaked bank documents. Malaysian company edotco, which leases towers to Myanmar mobile operator Mytel, also used ANZ to carry out transactions with Innwa Bank accounts in April and June 2021, according to a report released by the activist group on Wednesday. Singapore’s UOB, one of Southeast Asia’s biggest banks, facilitated transactions between a Chinese shipping firm and MEC in June and July last year, according to the report. The Singaporean lender was also used for transactions between Myanmar-based Lamintayar, a supplier of powdered milk, and a number of its executives, the report said. Meanwhile, BIDV, a lender jointly owned by the State Bank of Vietnam and South Korea’s KEB Hana Bank, carried out at least 18 transactions with Telecom International Myanmar, which is part owned by MEC, according to Justice for Myanmar. The leaked Innwa Bank documents were obtained and published online by Distributed Denial of Secrets, a self-described transparency collective that regularly releases information hacked from governments and businesses. An ANZ spokesperson said the bank had “no commercial relationship” with Innwa Bank. “ANZ must comply with all applicable laws in all of the jurisdictions in which it operates, including requirements of supra-national organisations, such as the United Nations and European Union,” the spokesperson told Al Jazeera. “While we are unable to comment on specific relationships or transactions, ANZ has robust processes in place to ensure all activities undertaken are compliant with the applicable regulations. These processes are in line with The Financial Action Task Force Recommendations.” It is understood ANZ’s transactions likely related to payroll operations that it handles for corporate clients like AIA, with the bank having no control over where its clients’ employees choose to bank. A UOB spokesperson said the bank could not comment on individual client relationships but will implement “enhanced due diligence on client relationships and transactions involving Myanmar where applicable”. “We are closely monitoring the situation and at the same time, ensuring compliance with local and international rules and regulations,” the spokesperson told Al Jazeera. “When applying enhanced due diligence measures, we will ensure that flows of funds for humanitarian assistance, legitimate non-profit organisation activity and remittances are not disrupted.” Al Jazeera contacted BIDV, AIA and KEB Hana Bank for comment. Innwa Bank has played an important role in Myanmar’s military-owned corporations being able to maintain access to the international banking system amid United States sanctions, according to a 2019 independent fact-finding mission by the United Nations Human Rights Council While the EU, United Kingdom and US have imposed sanctions on MEC over the 2021 military coup, leading economies such as Australia, Japan, Singapore and South Korea have not taken action against the conglomerate. Justice for Myanmar said the international banks’ business with Innwa Bank showed “a failure of governments to take a coordinated approach to isolating military conglomerates and cutting the junta’s sources of revenue”. “Banks must immediately ban transactions with Myanmar military banks, or risk complicity in the junta’s international crimes,” the activist group said. Myanmar’s military administration has killed more than 2,400 civilians since overthrowing Aung San Suu Kyi’s democratically elected government in February 2021, according to activists.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>By DORINE NININAHAZWE More by this Author In March of 2018, Africa witnessed the signing of the African Continental Free Trade Area (AfCFTA). A good starting point is the need for development and implementation of national industrial policies that stimulate investment flows to sectors that are both competitive and labour-intensive. It is, therefore, critical and urgent to finance adequate transport infrastructure. Last, modernisation of agri-systems and value addition will ensure better foreign exchange inflows as well as food security for the continent’s population. As we shift focus to Niamey, Niger, where African leaders converged on November 25 for a special African Union summit on industrialisation and economic diversification, many young people are hopeful and following closely the outcomes of the summit that has the potential to transform our continent. The writer is director for East Africa and the AU at ONE Campaign</t>
+          <t>This article has been updated with a response from ANZ and to clarify its transactions concerned individual Innwa Bank accounts. Meanwhile, BIDV, a lender jointly owned by the State Bank of Vietnam and South Korea’s KEB Hana Bank, carried out at least 18 transactions with Telecom International Myanmar, which is part owned by MEC, according to Justice for Myanmar. While we are unable to comment on specific relationships or transactions, ANZ has robust processes in place to ensure all activities undertaken are compliant with the applicable regulations. A UOB spokesperson said the bank could not comment on individual client relationships but will implement “enhanced due diligence on client relationships and transactions involving Myanmar where applicable”. “ Banks must immediately ban transactions with Myanmar military banks, or risk complicity in the junta’s international crimes,” the activist group said.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9401895403862</v>
+        <v>0.9999090433120728</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bangabandhu Tunnel: PM announces completion of south tube’s civil work - The Business Standard</t>
+          <t>Hong Kong's big 'coming-in' party points to a city losing its lustre - Euromoney magazine</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 12:44:17 GMT</t>
+          <t>Mon, 07 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The civil work of the south-tube of the "Bangabandhu Sheikh Mujibur Rahman Tunnel' beneath the Karnaphuli River has been completed, connecting Chattogram's Anwara upazila to Patenga of the city. At a programme held in Chattogram on Saturday, Prime Minister Sheikh Hasina announced the completion of the civil works of the first tube of the infrastructure. Joining virtually from her official residence Gonobhaban, the premier said, "Karnaphuli Tunnel was the first such project in South Asia. The tunnel under the river is an astonishing infrastructure of Bangladesh. With completion of the project, the economic progress of the country including Chattogram will be more visible. "Planned development on the south end of the river will be possible. Chattogram will be "one city twin town" by connecting the southern part of the port city with Anwara upazila on the other bank of the river. There will be an opportunity to expand facilities for Chattogram Port to the river's south bank. Moreover, the tunnel will contribute a lot to the economy of the country through planned urbanisation and industrialisation," she added. A documentary on the tunnel was screened at the programme. The premier also witnessed a colourful cultural function at the programme venue in Chattogram. Bridges Division Minister Obaidul Quader, Chinese Ambassador to Bangladesh Li Jiming, Cabinet Secretary Khandker Anwarul Islam and Bridges Division Secretary Md Monjur Hossain also spoke at the programme. Chinese ambassador Li Ziming said China's relationship with Bangladesh is long-standing. Bangladesh is now an inspiration to the world as a developing country. The country has emerged as a role model to the world. Its GDP growth has shown consistency at an enviable level for the past few years. The tunnel will further accelerate the economic progress of Bangladesh. Bridges Minister Obaidul Quader said the tunnel built under the river is a unique achievement for Bangladesh. The country's second dream scheme after the Padma Bridge is now almost finished. Some electrical and mechanical work left to do. After the completion of those works, the tunnel will be opened to traffic early next year, through formal inauguration by the premier, he added. According to the project officials, the overall progress of the project is 95 % as of 25 November Besides, the works of three cross passages between the two tunnels, approach road, viaduct, carpeting, painting, cable wiring, and construction of service area are in the final stage. The 9.39km tunnel will connect the Naval avenue point of the port city and CUFL point under Anwara upazila in the district. Of the total length, the main tunnel will be 3.32 kilometres, approach roads on the east and west ends 5.35 kilometres and an over bridge (viaduct) 727 metres. China Communications Construction Company Limited is implementing the Tk10,374-crore project. Alongside taking loans from donors, Bangladesh government is spending Tk4,461.23 crore.</t>
+          <t>Just for a moment, if you squinted your eyes and blocked out memories of the past three years, it all felt blessedly normal. The event – a three-day Global Financial Leaders’ Investment Summit sponsored by the Hong Kong Monetary Authority (HKMA), the city’s de-facto central bank – certainly looked the part. It bore all the trappings of normality, from the venue – a bland conference hall in Hong Kong’s Exchange Square – to the attendees: top-tier global banking, private equity and asset management chief executives, most of whom had flown in specially from New York and London. But nothing is normal in Hong Kong these days. Take the event itself, a kind of ‘coming in’ party – a way of reminding global investors that the city is still open for business. Delegates were happy enough to play the role of booster. In a pre-recorded speech, People’s Bank of China governor Yi Gang pointed to its “great potential” as a bridge to the mainland, and in areas such as fintech and green finance. UBS chair Colm Kelleher insisted global bankers were all “very pro-China”. Hong Kong chief executive John Lee extolled the city as the “only place [where] global advantages and the China advantage come together” and pledged to continue to ease quarantine restrictions. [Hong Kong is] losing its lustre. The role of Asia’s chief financial centre – a mantle it once wore with insouciant ease – is being usurped by Singapore Plenty of people couldn’t make it. Citigroup chief executive Jane Fraser pulled out after testing positive for Covid. So did Blackstone president Jonathan Gray. The city’s financial secretary Paul Chan delayed his arrival after catching coronavirus in the Middle East. But that was to be expected. The world has grown to accommodate Covid as it shifts to its endemic stage. Only China has not. It shows no sign of opening its borders or of abandoning a draconian zero-Covid policy that’s sucking the life out of Asia’s largest economy. And where mainland China goes, so goes its offshore financial hub. Which is what made the event so odd. Garlanded delegates pretended that everything was normal, or was at least headed in that direction. Yet they had to take tests on arrival, before departure and every day in between. They stayed at designated hotels and ate in private rooms, separating them from residents. It had echoes of the closed-loop system Beijing used to segregate participants at February’s Winter Olympics. Bridge to what? Outside, it wasn’t hard to find reasons to fret about the city’s future. Since 2021, around 300,000 mostly white-collar workers have fled the city. The Hang Seng Index has lost more than a third of its value this year and is trading at its lowest level since early 2009. In his keynote speech on Thursday, Chan praised Hong Kong’s “small but open” economy. Paul Chan, financial secretary of Hong Kong, attends the Global Financial Leaders' Investment Summit in Hong Kong. Photo: Reuters Paul Chan, financial secretary of Hong Kong, attends the Global Financial Leaders' Investment Summit in Hong Kong. Photo: Reuters He’s half-right. GDP is small and getting smaller. Output has contracted for three quarters in a row, shrinking 4.5% year-on-year in the three months to the end of September. A weak external environment, depressed spending and China’s woes make that unlikely to change. Chan tried to put on a brave face. “I hope you all feel recharged and energized,” he beamed, as the camera panned back to reveal a row of weary-looking men all wearing face masks. Opinion on the sidelines was mixed. “It was very impactful to have so many [blue-chip] financial firms here,” said the head of Asia investment banking at a Western lender. “There were some good discussions and interesting sharing of views.” Another delegate said Hong Kong’s problem was it couldn’t return to normality until its big brother did. “This place is all about China, and in private the mood is incredibly bearish. Though no one would say it in public, China is uninvestible.” Disappointing answers The final day’s first panel was overseen by Weijian Shan, the trim and straight-talking head of Asia-focused alternative investment firm PAG. To kick things off, Shan asked a simple question: in which of the four big economic nations and blocs – China, the European Union, Japan, the US – would panellists put their money to work. Their answers surely disappointed any Hong Kong/China boosters in the crowd. William Conway, co-chairman of Carlyle, opted for Japan, largely because the yen was so weak and “everything is on sale for people who have dollars”. Man Group chief executive Luke Ellis said that for equity investors, Japan was the “most attractive” option. Jim Zelter, co-president of Apollo Global Management, which oversees $550 billion in assets, added: “Unabashedly, the most interesting opportunity right now is US credit.” None of them mentioned China. Hong Kong still offers a lot of positives. The rule of law is just about clinging on. Chan pointed to the city’s excellent regulators and well-capitalized banks. There’s no better venue to buy and sell mainland-listed and registered assets and securities. But it’s losing its lustre. The role of Asia’s chief financial centre – a mantle it once wore with insouciant ease – is being usurped by Singapore. Global investment dollars and euros are fleeing China, not flocking to it. Everyone sees this fragility; some seek to benefit from it. Earlier last week in Doha, the chief executive of Commercial Bank of Qatar Joseph Abraham made a point of comparing stability between the Gulf state and parts of east Asia. “There are opportunities from Asia given the uncertainties in Hong Kong [and] Taiwan,” he told Euromoney. “All these high-net-worth people need alternative safe-haven locations, and Qatar ticks that box.” This week, Hong Kong’s financial leaders took great pains to remind the financial world the city was still open for business. You had to wonder how many of them really cared.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The civil work of the south-tube of the "Bangabandhu Sheikh Mujibur Rahman Tunnel' beneath the Karnaphuli River has been completed, connecting Chattogram's Anwara upazila to Patenga of the city. Planned development on the south end of the river will be possible. According to the project officials, the overall progress of the project is 95 % as of 25 November Besides, the works of three cross passages between the two tunnels, approach road, viaduct, carpeting, painting, cable wiring, and construction of service area are in the final stage. The 9.39km tunnel will connect the Naval avenue point of the port city and CUFL point under Anwara upazila in the district. Alongside taking loans from donors, Bangladesh government is spending Tk4,461.23 crore.</t>
+          <t>Just for a moment, if you squinted your eyes and blocked out memories of the past three years, it all felt blessedly normal. It bore all the trappings of normality, from the venue – a bland conference hall in Hong Kong’s Exchange Square – to the attendees: top-tier global banking, private equity and asset management chief executives, most of whom had flown in specially from New York and London. In a pre-recorded speech, People’s Bank of China governor Yi Gang pointed to its “great potential” as a bridge to the mainland, and in areas such as fintech and green finance. The city’s financial secretary Paul Chan delayed his arrival after catching coronavirus in the Middle East. Outside, it wasn’t hard to find reasons to fret about the city’s future. Paul Chan, financial secretary of Hong Kong, attends the Global Financial Leaders' Investment Summit in Hong Kong. A weak external environment, depressed spending and China’s woes make that unlikely to change. There were some good discussions and interesting sharing of views.” William Conway, co-chairman of Carlyle, opted for Japan, largely because the yen was so weak and “everything is on sale for people who have dollars”.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9999979734420776</v>
+        <v>0.8189938068389893</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Polyisoprene Latex Market 2022 Analysis by Suppliers, Regions, Type and Application, Forecast to 2030 - Digital Journal</t>
+          <t>AIA Group Agrees to Buy Bank of East Asia's Non-Life Insurance Businesses for $278M - Insurance Journal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 17:42:20 GMT</t>
+          <t>Mon, 07 Mar 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Polyisoprene Latex Market – Report Scope As per PMR estimates, the global polyisoprene latex market is estimated to expand at a CAGR of 8% in terms of value over the forecast period of 2020-2030. Persistence Market Research (PMR) recently published a study report on the global polyisoprene latex market. The report provides detailed valuation on key market dynamics, such as the drivers, trends, opportunities, and restraints, along with detailed information about the polyisoprene latex market structure. This market research report presents exclusive facts and figures about how the polyisoprene latex market will grow over the forecast period of 2020 to 2030. Request For Free Sample Report of Polyisoprene Latex Market @ https://www.persistencemarketresearch.com/samples/30010 Synthetic rubber such as polyisoprene latex has similar properties to natural rubber, along with additional protection and physical properties. Polyisoprene latex is extensively used for manufacturing products such as gloves, condoms, adhesives, and various PPE. Increasing demand from the medical sector is expected to drive the production of polyisoprene latex. As the preference of using PPE is increasing for the protection of medical workers and patients, manufactures are increasing investments toward product development in the polyisoprene latex market. Also, growing awareness regarding unplanned pregnancies and STDs is expected to propel the demand for polyisoprene latex from the wearable contraceptive market. The study is relevant for stakeholders in the polyisoprene latex market, as well as manufacturers, distributors, suppliers, and investors, as it can help them understand applicable strategies to grow in the market. Stakeholders, investors, industry experts, researchers, and journalists, as well as business researchers in the polyisoprene latex market can leverage the information and statistics presented in PMR’s research report. The report includes facts &amp; figures related to the macro- as well as micro-economic factors that are impacting the growth of the polyisoprene latex market. The study also offers actionable insights based on the future trends in the polyisoprene latex market. Furthermore, regional players and new entrants in the polyisoprene latex market can also use the information presented in this report to make business decisions and gain momentum in the market. Key Players- Ansell Limited JSR Corporation Kraton Corporation Kent Elastomers Linchi Chem Dipped Products Plc Top Glove Corporation Bhd Rubberex Corporation (M) Bhd. Johnson Wilshire Inc. Protective Industrial Products, Inc. Smart Glove Corporation Sdn. Bhd. Southern Glove, Inc. 3M Company Hartalega Holdings Berhad SEMPERIT AG HOLDING and more Get Full Access of this Report and Get Up to 20% [email protected] https://www.persistencemarketresearch.com/checkout/30010 Polyisoprene Latex Market: Research Methodology In PMR’s research report, an exclusive research methodology is utilized to conduct comprehensive research on the development of the polyisoprene latex market and reach conclusions on the future growth factors of the market. In this research methodology, secondary and primary research is utilized by analysts to ensure precision and reliability of the conclusions. Secondary resources are referred to by analysts during the evaluation of the polyisoprene latex market study, which comprises facts and figures from the World Bank, OEM websites, government websites, white papers, trade journals, and external and internal databases. Analysts have thoroughly interviewed several industry experts, such as sales supervisors, sales operation managers, product portfolio managers, senior managers, market intelligence managers, marketing/product managers, and production managers to provide insightful information. Comprehensive information acquired from primary and secondary resources is validated from companies operating in the market to make PMR’s projections on the growth prospects of the polyisoprene latex market more accurate and reliable. Region Coverage (Regional Production, Demand &amp; Forecast by Countries etc.): North America (U.S., Canada, Mexico) Europe (Germany, U.K., France, Italy, Russia, Spain etc.) Asia-Pacific (China, India, Japan, Southeast Asia etc.) South America (Brazil, Argentina etc.) Middle East &amp; Africa (Saudi Araia, South Africa etc.) Key Stakeholders Polyisoprene Latex Market Manufacturers Polyisoprene Latex Market Distributors/Traders/Wholesalers Polyisoprene Latex Market Subcomponent Manufacturers Industry Association Downstream Vendors For critical insights on this market, request for customization [email protected] https://www.persistencemarketresearch.com/request-customization/30010 Key Questions Answered in the Polyisoprene Latex Market Report How is the Polyisoprene Latex Market expected to grow over the projected period? What direction is the Polyisoprene Latex Market expected to take in terms of volume and value during the forecast period? What is the impact of macroeconomic factors on the Polyisoprene Latex Market in future? What are the key market drivers in the Polyisoprene Latex Market? What are significant opportunities and improvement areas for Polyisoprene Latex Market manufacturers? What are the key developments and trends taking over the Polyisoprene Latex Market? Which are the emerging countries that are expected to create significant growth opportunities in the Polyisoprene Latex Market? Request you to Read More- Polymer Concrete Market Plastic Compounding Market About us: – Persistence Market Research (PMR), as a 3rd-party research organization, does operate through an exclusive amalgamation of market research and data analytics for helping businesses ride high, irrespective of the turbulence faced on the account of financial/natural crunches. Contact Us: Persistence market research Address – 305 Broadway, 7th Floor, New York City, NY 10007 United States U.S. Ph. – +1-646-568-7751 USA-Canada Toll-free – +1 800-961-0353 Sales – [email protected] This Press Release has been written with the intention of providing accurate market information which will enable our readers to make informed strategic investment decisions. If you notice any problem with this content, please feel free to reach us on [email protected]</t>
+          <t>Bank of East Asia (BEA) said late on Friday it has agreed to sell its non-life insurance and healthcare services businesses to a unit of AIA Group Ltd. for an aggregate HK$2.168 billion ($278 million). BEA agreed to sell its medical, travel and general insurance services unit Blue Cross (Asia-Pacific) Insurance and all of its 80% interest in healthcare services unit Blue Care JV (BVI) Holdings to AIA to generate value for shareholders. AIA Group to Buy Life Insurance Business of Bank of East Asia The Hong Kong-based bank expected to book an aggregate profit of HK$1.534 billion upon completion of the deals, it said in a filing to the Hong Kong bourse. Asia-focused AIA’s largest market is mainland China, which along with Hong Kong accounts for about half of its business. BEA shares have risen 11.8% so far this year as of last close, while AIA shares have gained 1%. ($1 = 7.8136 Hong Kong dollars) (Reporting by Donny Kwok; editing by Christian Schmollinger) Topics Mergers &amp; Acquisitions</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Polyisoprene Latex Market – Report Scope As per PMR estimates, the global polyisoprene latex market is estimated to expand at a CAGR of 8% in terms of value over the forecast period of 2020-2030. Polyisoprene latex is extensively used for manufacturing products such as gloves, condoms, adhesives, and various PPE. Southern Glove, Inc. 3M Company Hartalega Holdings Berhad SEMPERIT AG HOLDING and more Get Full Access of this Report and Get Up to 20% [email protected] https://www.persistencemarketresearch.com/checkout/30010 Polyisoprene Latex Market: Research Methodology In PMR’s research report, an exclusive research methodology is utilized to conduct comprehensive research on the development of the polyisoprene latex market and reach conclusions on the future growth factors of the market. Comprehensive information acquired from primary and secondary resources is validated from companies operating in the market to make PMR’s projections on the growth prospects of the polyisoprene latex market more accurate and reliable. North America (U.S., Canada, Mexico) Europe (Germany, U.K., France, Italy, Russia, Spain etc.) What are the key developments and trends taking over the Polyisoprene Latex Market? If you notice any problem with this content, please feel free to reach us on [email protected]</t>
+          <t>Bank of East Asia (BEA) said late on Friday it has agreed to sell its non-life insurance and healthcare services businesses to a unit of AIA Group Ltd. for an aggregate HK$2.168 billion ($278 million). AIA Group to Buy Life Insurance Business of Bank of East Asia The Hong Kong-based bank expected to book an aggregate profit of HK$1.534 billion upon completion of the deals, it said in a filing to the Hong Kong bourse.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1330,28 +1346,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.995902955532074</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Exterior Car Accessories Market 2022 Latest Innovations, Demand and Business Outlook 2022 to 2029 - Digital Journal</t>
+          <t>Adapting Across East Asia and Pacific - How the World Bank is standing with a region at climate risk - Marshall Islands - ReliefWeb</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 17:12:14 GMT</t>
+          <t>Mon, 07 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Exterior Car Accessories Market 2022- Scope of the Report The global Exterior Car Accessories market will reach the value of US$ 51.6 Bn by the end of 2029, expanding at a moderate CAGR during 2019 – 2029. Persistence Market Research (PMR) recently published a study report on the global Exterior Car Accessories market. The report provides detailed valuation on key market dynamics such as drivers, trends, opportunities, and restraints, along with detailed information about the Exterior Car Accessories market structure. This market research report presents exclusive facts and figures about how the Exterior Car Accessories market will grow over the forecast period. To remain ‘ahead’ of your competitors, request for a [email protected] https://www.persistencemarketresearch.com/samples/30823 Exterior Car Accessories Market is booming as the demand for customization grows. The market has seen a significant rise in sales over the past few years, with more and more people looking to customize the look of their car. This has led to a burgeoning Exterior Car Accessories Market, with a wide variety of products available to consumers. The Exterior Car Accessories Market can be divided into two main categories: functional and aesthetic. Functional accessories are those which serve a specific purpose, such as adding protection to the car or improving its performance. Aesthetic accessories are those which simply make the car look nicer, without serving any practical purpose. The study is relevant for stakeholders in the Exterior Car Accessories market, as well as manufacturers, distributors, suppliers, and investors, as it can help them understand applicable strategies to grow in the market. Stakeholders, investors, industry experts, researchers, and journalists, as well as business researchers in the Exterior Car Accessories market can leverage the information and statistics presented in PMR’s research report. The report includes facts &amp; figures related to the macro as well as macroeconomic factors that are impacting the growth of the Exterior Car Accessories market. The study also offers actionable insights based on the future trends in the Exterior Car Accessories market. Furthermore, regional players and new entrants in the Exterior Car Accessories market can also use the information presented in this report to make business decisions and gain momentum in the market. Key Players- Curt Manufacturing LLC Covercraft Industries, LLC CAR MATE MFG. CO., LTD. Dee Zee, Inc Eastman Chemical Company Go Rhino Hol-Mac Corporation Lund International Mont Blac Industri AB N-Fab Inc. Owens Products Onki Corporation and more Request for Free Sample Copy of this [email protected] https://www.persistencemarketresearch.com/checkout/30823 Exterior Car Accessories Market: Research Methodology In PMR’s research report, exclusive research methodology is utilized to conduct comprehensive research on the development of the Exterior Car Accessories market and reach conclusions on the future growth factors of the market. In this research methodology, secondary and primary research is utilized by assistant analysts to ensure precision and reliability of the conclusions. Secondary resources are referred by analysts during the evaluation of the Exterior Car Accessories market study, which comprises of the facts and figures from the World Bank, OEM websites, government websites, white papers, trade journals, and external and internal databases. Analysts have thoroughly interviewed several industry experts, such as sales supervisors, sales operation managers, product portfolio managers, senior managers, market intelligence managers, marketing/product managers, and production managers to provide insightful information. Comprehensive information acquired from primary resources and secondary resources is validated from companies operating in the market to make PMR’s projection on growth prospects of the Exterior Car Accessories market more accurate and reliable. Automotive Exterior Accessories Market – Key Takeaways The automotive industry has witnessed reduction in sales volume by 0.6% versus the last fiscal. However, demand from existing fleet of passenger cars and light commercial vehicles (LCVs), especially pickup trucks, is highly influencing sales of automotive exterior accessories. Product replacements and demand for specific accessories by consumers are anticipated to ensure persistent sales of automotive exterior accessories. In developing countries such as India, China, Indonesia, and Thailand, price and service life of automotive exterior accessories are deciding factors for aftermarket sales. Consumers in developed regions such as the U.S. and EU are more inclined towards accessories of premium brands. North America is estimated to hold a major share in the global automotive exterior accessories market due to healthy patronage for the product from all vehicle class owners. Body kit products are anticipated to remain as primary accessories installed in vehicles as per product type analysis of the global automotive exterior accessories market For critical insights on this market, request for customization here @ https://www.persistencemarketresearch.com/request-customization/30823 Region Coverage (Regional Production, Demand &amp; Forecast by Countries etc.): North America (U.S., Canada, Mexico) Europe (Germany, U.K., France, Italy, Russia, Spain etc.) Asia-Pacific (China, India, Japan, Southeast Asia etc.) South America (Brazil, Argentina etc.) Middle East &amp; Africa (Saudi Araia, South Africa etc.) Key Stakeholders Exterior Car Accessories Market Manufacturers Exterior Car Accessories Market Distributors/Traders/Wholesalers Exterior Car Accessories Market Subcomponent Manufacturers Industry Association Downstream Vendors Request you to Read More- Smart Bicycle Accessories Market According to the latest study by Persistence Market Research (PMR), the smart bicycle accessories market will grow at ~8% year-over-year to cross the one billion mark in 2019. Bicycle Accessories Market The global bicycle accessories market is estimated to expand at a healthy CAGR of close to 7% over the forecast period of 2021-2031.. About us: – Persistence Market Research (PMR), as a 3rd-party research organization, does operate through an exclusive amalgamation of market research and data analytics for helping businesses ride high, irrespective of the turbulence faced on the account of financial/natural crunches. Contact Us: Persistence market research Address – 305 Broadway, 7th Floor, New York City, NY 10007 United States U.S. Ph. – +1-646-568-7751 USA-Canada Toll-free – +1 800-961-0353 Sales – [email protected] This Press Release has been written with the intention of providing accurate market information which will enable our readers to make informed strategic investment decisions. If you notice any problem with this content, please feel free to reach us on [email protected]</t>
+          <t>There is a saying in the Pacific that when it comes to climate change, ‘we are not drowning; we are fighting’. This could also sum up the wider East Asia and Pacific region as a whole in the face of climate change; a region that, despite being exposed to some of the worst climate impacts in the world, is responding with innovation, strength and immense resilience. The World Bank is standing with the countries in the region in these efforts. In East Asia and the Pacific, 46% of new World Bank commitments in fiscal year 2022 contributed to climate action. Three countries across the region – Indonesia, the Marshall Islands, and Vietnam – highlight how the Bank is supporting their fight to adapt to climate change while securing resources and safeguarding important conservation gains far into the future. Diversity and challenges in a region on the rise The East Asia Pacific region is immense – encompassing everything from dynamic economies and large cities, to the rich Mekong Delta, to the world’s largest archipelagic state in Indonesia, to the vast Pacific with some of the world’s smallest, most isolated nations. Like the countries themselves, the challenges and risks from climate change in the region are extraordinarily diverse. In Vietnam’s Mekong Delta, millions of livelihoods are under threat from severe flooding and drought, storm surges, and land salinization. In Indonesia, coastal communities face steady encroachment from sea-level rise. And in the low-lying atoll nation of Marshall Islands, the country is facing an existential threat from rising seas, forcing the country to consider extreme adaptation measures such as land raising and even migration. It is in these three countries that the World Bank’s partnership and support is having some of the most profound impacts. See the full photo story here.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Exterior Car Accessories Market 2022- Scope of the Report The global Exterior Car Accessories market will reach the value of US$ 51.6 Bn by the end of 2029, expanding at a moderate CAGR during 2019 – 2029. The study is relevant for stakeholders in the Exterior Car Accessories market, as well as manufacturers, distributors, suppliers, and investors, as it can help them understand applicable strategies to grow in the market. The study also offers actionable insights based on the future trends in the Exterior Car Accessories market. Comprehensive information acquired from primary resources and secondary resources is validated from companies operating in the market to make PMR’s projection on growth prospects of the Exterior Car Accessories market more accurate and reliable. North America (U.S., Canada, Mexico) Europe (Germany, U.K., France, Italy, Russia, Spain etc.) Bicycle Accessories Market The global bicycle accessories market is estimated to expand at a healthy CAGR of close to 7% over the forecast period of 2021-2031.. About us: – Persistence Market Research (PMR), as a 3rd-party research organization, does operate through an exclusive amalgamation of market research and data analytics for helping businesses ride high, irrespective of the turbulence faced on the account of financial/natural crunches. If you notice any problem with this content, please feel free to reach us on [email protected]</t>
+          <t>There is a saying in the Pacific that when it comes to climate change, ‘we are not drowning; we are fighting’. Three countries across the region – Indonesia, the Marshall Islands, and Vietnam – highlight how the Bank is supporting their fight to adapt to climate change while securing resources and safeguarding important conservation gains far into the future. In Vietnam’s Mekong Delta, millions of livelihoods are under threat from severe flooding and drought, storm surges, and land salinization.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1360,50 +1376,58 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9965935349464417</v>
+        <v>0.916073739528656</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Analysts have given Serco Group plc (LON:SRP) an average rating of "Buy." - Best Stocks</t>
+          <t>Groupe Indosuez Wealth Management : Indosuez Wealth Management continues to attract Senior bankers to boost presence in Southeast Asia - Marketscreener.com</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 18:27:25 GMT</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>Wed, 30 Nov 2022 10:42:24 GMT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Singapore, 30 November 2022 - Indosuez Wealth Management, the global wealth management brand of Crédit Agricole Group, welcomes three experienced wealth management experts including bankers, following the recent establishment of new market segments, including Southeast Asia and North Asia, that anchor the company's presence in Asia. The appointments are: Sandy Chen, Managing Director, Senior Banker Mark Chester Ng, Executive Director, Senior Banker Sarah Lee, Director, Senior Portfolio Manager, Asset Management Sandy has close to 20 years' experience in wealth management in the industry. Before joining Indosuez, she was Senior Vice President at UOB Private Banking where she managed ultra-high-net-worth clients in Singapore and China. With extensive experience in private wealth allocation and family trust inheritance, Sandy's clients include well-known entrepreneurs plus other ultra-high net worth individuals. Mark joins Indosuez with 28 years of banking experience. He spent 13 years at Citibank, where he began his banking career and was with Citibank Private Client before moving into private banking in 2008. Prior to Indosuez, Mark was at J. Safra Sarasin where he expanded the ultra-high-net-worth segment targeted at entrepreneurs, business owners and their families in Southeast Asia. Both Sandy and Mark report to Ong Yeng Fang, Global Market Head, Southeast Asia who was appointed in September 2022 to lead the Southeast Asia market segment. Sarah, who has close to 18 years of investment experience in the private banking sector, is part of the Asset Management team. Before Indosuez, Sarah was in BNP Paribas Wealth Management, where she led the global equities portfolio with a focus on thematic and sustainable mandates. Sarah also supported in tailor-made solutions for multi-asset portfolios and equity portfolios. Commenting on these latest appointments, Omar Shokur, Chief Executive Officer, Asia and Branch Manager, Singapore, Indosuez, said: "Over the past few years, Indosuez has been increasingly strengthening our team in Asia. We are confident about the long-term growth potential of Asia and these senior colleagues are major additions to our team, underlining our commitment to enhance the bank's long-term development." "Backed by the assurance and stability that comes with being the wealth management brand of the Crédit Agricole Group, we are confident our clients will benefit from the strong suite of wealth solutions offered by Indosuez." Ong Yeng Fang, Global Market Head, Southeast Asia, said: "With our breadth and depth of wealth management expertise, we are well placed to offer value-added bespoke solutions, which is an important trait of our bank, to clients." Indosuez Wealth Management Charmaine Toh, charmaine.toh@ca-indosuez.sg Melinda Raverdy, melinda.reverdy@ca-indosuez.ch PR agency - Ruder Finn Asia Ng Rui Sin, ngrs@RuderFinnAsia.com, +65 9117 7993 Vanessa Teo, teov@RuderFinnAsia.com, +65 9641 1558 About Indosuez Wealth Management Indosuez Wealth Management is the global wealth management brand of Crédit Agricole Group, ranked 10th largest bank in the world based on balance sheet (The Banker 2022). Shaped by more than 145 years of experience supporting families and entrepreneurs around the world, Indosuez Wealth Management offers a tailor-made approach that allows our clients to protect and develop their wealth in alignment with their aspirations. Its teams take a comprehensive view and provide expert advice and exceptional service, offering a wide range of services for the management of both personal and business assets. Renowned for its international reach combined with a human scale, Indosuez Wealth Management employs nearly 3,000 people in 10 locations around the world, in Europe (Belgium, France, Italy, Luxembourg, Monaco, Spain and Switzerland), Asia-Pacific (Hong Kong SAR, New Caledonia and Singapore) and the Middle East (United Arab Emirates). With 135 billion euros in assets under management (as at 31/12/2021), Indosuez Wealth Management is one of the global leaders in wealth management. Indosuez has a solid foundation in Asia as a pioneering bank with more than a century old heritage, when Banque de l'Indochine opened its historic offices in Hong Kong SAR and Singapore. From these two locations, branches of CA Indosuez (Switzerland) SA, almost 350 highly specialised wealth managers combine their knowledge of the region with the vast opportunities provided by the global network of Indosuez Wealth Management and the Credit Agricole Group.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Singapore, 30 November 2022 - Indosuez Wealth Management, the global wealth management brand of Crédit Agricole Group, welcomes three experienced wealth management experts including bankers, following the recent establishment of new market segments, including Southeast Asia and North Asia, that anchor the company's presence in Asia. Prior to Indosuez, Mark was at J. Safra Sarasin where he expanded the ultra-high-net-worth segment targeted at entrepreneurs, business owners and their families in Southeast Asia. Before Indosuez, Sarah was in BNP Paribas Wealth Management, where she led the global equities portfolio with a focus on thematic and sustainable mandates. Backed by the assurance and stability that comes with being the wealth management brand of the Crédit Agricole Group, we are confident our clients will benefit from the strong suite of wealth solutions offered by Indosuez." Ong Yeng Fang, Global Market Head, Southeast Asia, said: "With our breadth and depth of wealth management expertise, we are well placed to offer value-added bespoke solutions, which is an important trait of our bank, to clients."</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9979715943336487</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Loktak under serious threat from anthropogenic activities: Asnikumar : 26th nov22 ~ E-Pao! Headlines - E-Pao.net</t>
+          <t>Bank of East Asia's (HKG:23) Dividend Is Being Reduced To HK$0.16 - Simply Wall St</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 03:23:21 GMT</t>
+          <t>Mon, 22 Aug 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>&lt;!EpnHeading35&gt;Loktak under serious threat from anthropogenic activities: Asnikumar&lt;!EpnHeading35End&gt; Source: Chronicle News Service Imphal, November 25 2022: Loktak Development Authority (LDA) chairman M Asnikumar has said that anthropogenic activities such as encroachment, pollution, adverse conditions due to changes in water levels and various developmental activities in and around the lake posed serious threat to Loktak lake, the largest freshwater lake in the North East India. M Asnikumar stated this during the inaugural session of International Conference on 'Environmental Policy Discourses since the 1960s: Politics, Problems and Narratives of Environment Policies in Europe and Asia' organised jointly by Centre for Study of Social Systems, Jawaharlal Nehru University, New Delhi; Institute for Governance, Policies &amp;Politics, New Delhi; German Research Foundation and Justus Liebig University, Germany at Committee Room, School of Social Sciences, Jawaharlal Nehru University, New Delhi. Addressing participants, Asnikumar pointed out that there is fear about extinction of Loktak lake in view of encroachment, pollution and development activities around the lake. Though the lake is associated with Manipur's civilisation, time has come to let others decide on the fate of the iconic lake rather than by local people. Highlighting that the Government of Manipur is determined to make Loktak lake an iconic wetland in the entire world, Asnikumar stated that under the guidance of chief minister N Biren, LDA is moving ahead with community participation, research, policies and conservation activities to fulfil the mandate of conservation and sustainable management of the lake. The LDA has constituted an Expert Advisory Committee to address the issues related to the fast-changing ecological status and their impact on the socio-economic condition of the community dependent on them. The committee is being led by professor Dr Rajiv Sinha of IIT, Kanpur and its report will be submitted soon. According to Asnikumar, the state government is working on a long-term plan to conserve and preserve the lake and a detailed project report to rejuvenate the lake and improve the livelihood of those dependent on the lake for sustenance has been made and Asian Development Bank will fund the project. He also said that the state government has already approved the short-term plan of wise use of Loktak Lake and is awaiting approval from the Ministry of Environment. Regarding the prevention of encroachers in the lake, Asnikumar informed that an empowered committee chaired by the chief minister of Manipur and consisting of senior officials and various heads of departments has already been formed to notify and demarcate the lake's boundary. Stating that LDA is committed to safeguard livelihood of the fishing community, he contended that LDA has suggested to the state government to regulate and come up with a fishing policy to check on the dwindling fish population and overfishing in the lake. Maintaining that construction of floating homestays would provide ample employment opportunities to our youth, promote eco-tourism in the state and decrease the dependency on the lake for sustenance, he reiterated that the government is setting up guidelines for construction of floating homestays that reflect cultural heritage and are environment-friendly. Comment * Comments posted by users in this discussion thread and other parts of this site are opinions of the individuals posting them (whose user ID is displayed alongside) and not the views of e-pao.net. We strongly recommend that users exercise responsibility, sensitivity and caution over language while writing your opinions which will be seen and read by other users.</t>
+          <t>The Bank of East Asia, Limited ( ) has announced that on 30th of September, it will be paying a dividend ofHK$0.16, which a reduction from last year's comparable dividend. Based on this payment, the dividend yield will be 5.2%, which is lower than the average for the industry. Bank of East Asia's Earnings Will Easily Cover The Distributions While yield is important, another factor to consider about a company's dividend is whether the current payout levels are feasible. Bank of East Asia has a long history of paying out dividends, with its current track record at a minimum of 10 years. Taking data from its last earnings report, calculating for the company's payout ratio shows 45%, which means that Bank of East Asia would be able to pay its last dividend without pressure on the balance sheet. Looking forward, EPS is forecast to rise by 79.6% over the next 3 years. The future payout ratio could be 47% over that time period, according to analyst estimates, which is a good look for the future of the dividend. SEHK:23 Historic Dividend August 22nd 2022 Dividend Volatility The company's dividend history has been marked by instability, with at least one cut in the last 10 years. The annual payment during the last 10 years was HK$0.94 in 2012, and the most recent fiscal year payment was HK$0.51. The dividend has shrunk at around 5.9% a year during that period. Generally, we don't like to see a dividend that has been declining over time as this can degrade shareholders' returns and indicate that the company may be running into problems. Bank of East Asia May Find It Hard To Grow The Dividend Given that dividend payments have been shrinking like a glacier in a warming world, we need to check if there are some bright spots on the horizon. However, Bank of East Asia's EPS was effectively flat over the past five years, which could stop the company from paying more every year. Growth of 1.5% per annum is not particularly high, which might explain why the company is paying out a higher proportion of earnings. While this isn't necessarily a negative, it definitely signals that dividend growth could be constrained in the future unless earnings start to pick up again. In Summary Overall, we think that Bank of East Asia could make a reasonable income stock, even though it did cut the dividend this year. The payout ratio looks good, but unfortunately the company's dividend track record isn't stellar. Taking all of this into consideration, the dividend looks viable moving forward, but investors should be mindful that the company has pushed the boundaries of sustainability in the past and may do so again. Market movements attest to how highly valued a consistent dividend policy is compared to one which is more unpredictable. At the same time, there are other factors our readers should be conscious of before pouring capital into a stock. For example, we've picked out that investors should know about before committing capital to this stock. If you are a dividend investor, you might also want to look at our Valuation is complex, but we're helping make it simple. Find out whether Bank of East Asia is potentially over or undervalued by checking out our comprehensive analysis, which includes fair value estimates, risks and warnings, dividends, insider transactions and financial health. View the Free Analysis Have feedback on this article? Concerned about the content? with us directly. Alternatively, email editorial-team (at) simplywallst.com. This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EpnHeading35&gt;Loktak under serious threat from anthropogenic activities: Asnikumar&lt;!EpnHeading35End&gt; Source: Chronicle News Service Imphal, November 25 2022: Loktak Development Authority (LDA) chairman M Asnikumar has said that anthropogenic activities such as encroachment, pollution, adverse conditions due to changes in water levels and various developmental activities in and around the lake posed serious threat to Loktak lake, the largest freshwater lake in the North East India. Highlighting that the Government of Manipur is determined to make Loktak lake an iconic wetland in the entire world, Asnikumar stated that under the guidance of chief minister N Biren, LDA is moving ahead with community participation, research, policies and conservation activities to fulfil the mandate of conservation and sustainable management of the lake. Comment * Comments posted by users in this discussion thread and other parts of this site are opinions of the individuals posting them (whose user ID is displayed alongside) and not the views of e-pao.net.</t>
+          <t>The Bank of East Asia, Limited ( ) has announced that on 30th of September, it will be paying a dividend ofHK$0.16, which a reduction from last year's comparable dividend. Taking data from its last earnings report, calculating for the company's payout ratio shows 45%, which means that Bank of East Asia would be able to pay its last dividend without pressure on the balance sheet. The dividend has shrunk at around 5.9% a year during that period. Bank of East Asia May Find It Hard To Grow The Dividend Given that dividend payments have been shrinking like a glacier in a warming world, we need to check if there are some bright spots on the horizon. Market movements attest to how highly valued a consistent dividend policy is compared to one which is more unpredictable. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1412,140 +1436,140 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999550998210907</v>
+        <v>0.9858189821243286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WRC Safari Rally 2023 date released - Capital FM Kenya</t>
+          <t>Weak yen reveals Japan’s fundamental challenges - East Asia Forum</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fri, 25 Nov 2022 21:37:56 GMT</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+          <t>Wed, 09 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Author: Takeshi Tashiro, Peterson Institute for International Economics A peculiar characteristic of the Japanese economy is continued low inflation despite the current global inflationary period. Though Japan’s headline inflation rose to 3 per cent in September 2022, it is minor compared to 8 per cent in the United States and 10 per cent in the United Kingdom. The Bank of Japan views the current inflation as temporary and maintains its expansionary monetary policy. There are questions about why Japan has experienced far lower inflation than the rest of the developed world for so long. Two macroeconomic puzzles haunt Japan — very low exchange rate depreciation pass-through to inflation and weak wage growth. The first puzzle is that a weaker yen has far less impact on inflation and the economy than macroeconomic analysis predicts. The Bank of Japan kept its policy rate negative while other developed-world central banks raised interest rates to combat inflation, causing the yen to fall by 30 per cent against the US dollar. In September 2022, the yen dropped to a 24-year low, leading the government to intervene to prop up the currency for the first time since 1998. Currency depreciation should cause inflation by driving up the price of imports. Yet the weakness of the yen in the absence of high inflation demonstrates the low impact of depreciation. In September 2022, the yen-based import price index rose 48 per cent, but the consumer price increased only modestly. Similarly, during other episodes of currency depreciation — such as when Abenomics was in effect — domestic inflation did not rise. Low wage growth is another puzzle. Despite a 2.6 per cent unemployment rate in September 2022, wages have not kept pace with inflation. Commodity price increases triggered a wage-price spiral in other places. In the United States, as firms raised prices to reflect higher input costs, workers demanded and received pay raises because of their strong bargaining position in the current tight labour market, causing firms to raise prices even further. Despite near-full employment, wage dynamics in Japan do not follow this pattern. Features specific to the Japanese context can help explain these puzzles. First, there has been insufficient aggregate demand. Japan’s COVID-19 recovery has been slow with GDP only recovering after the second quarter of 2022. This level remains significantly lower than the pre-COVID-19 peak, which was before the 2019 consumption tax increase. Second, while the private sector’s balance sheet has been significantly repaired since the financial crisis in the 1990s, private savings remain substantial. Households are generally frugal with money and hoard their savings. Corporate savings have risen while the labour share has decreased, with large firms experiencing the greatest decline in the labour share. No other sector has become a net borrower since the crisis except for the government. Japan is widely regarded as the first modern example of secular stagnation as well as a testing ground for developing an escape strategy. After its ‘bubble’ economy burst, causing a financial crisis in the 1990s, Japan entered a period of low growth known as the ‘lost decades’ with GDP never reaching its potential. When its declining population is taken into account, Japan’s performance during the ‘lost decades’ is not as bad as it seems. Since the 2000s, Japan’s per capita GDP growth has been not far behind that of the other advanced countries. The unemployment rate is extremely low. The most challenging issue is in the private sector where both households and businesses have excessive savings — resulting in a lack of borrowers. Budget deficits have instead supported the economy. Private savings are likely to be excessive due to a lack of investment opportunities and demographic changes, both of which contributed to Japan’s ‘lost decades’. Low interest rates result from an abundance of lenders and a scarcity of borrowers as more people prefer to save for the future rather than spend now. Longer life expectancy has increased personal retirement savings while the relative decline in current demand for later consumption has caused prices to fall, resulting in a surplus of savings for the future and a decrease in interest rates. An aging population is sometimes said to imply a higher proportion of dissavers, which is the case. It is also said to lower overall saving, but this has not occurred. The trend of private savings is likely to continue. Many people are concerned with increasing productivity but this is not a panacea. Structural reforms that encourage innovation and productivity should be continued. But human predictive ability is limited when it comes to ‘promoting innovation’, which creates a greater demand for savings rather than investment. Japan must rethink its agenda to address excess private savings and consider alternative ways to manage its savings when the private sector cannot meet demand on its own. Given its high level of government debt, Tokyo should also seek out the most promising investment opportunities while prioritising alternatives to budget deficits in order to sustain demand. Low inflation in a period of yen depreciation shows that managing the economy in the face of huge private savings continues to be Japan’s major challenge. Takeshi Tashiro is Non-Resident Fellow at the Peterson Institute of International Economics. The views expressed in the article are solely those of the author and do not represent the views of the organisations to which the author belongs.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Author: Takeshi Tashiro, Peterson Institute for International Economics A peculiar characteristic of the Japanese economy is continued low inflation despite the current global inflationary period. The Bank of Japan kept its policy rate negative while other developed-world central banks raised interest rates to combat inflation, causing the yen to fall by 30 per cent against the US dollar. Currency depreciation should cause inflation by driving up the price of imports. Yet the weakness of the yen in the absence of high inflation demonstrates the low impact of depreciation. Japan’s COVID-19 recovery has been slow with GDP only recovering after the second quarter of 2022. Households are generally frugal with money and hoard their savings. Since the 2000s, Japan’s per capita GDP growth has been not far behind that of the other advanced countries. The most challenging issue is in the private sector where both households and businesses have excessive savings — resulting in a lack of borrowers. Structural reforms that encourage innovation and productivity should be continued.</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9715443253517151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Flood risk rises in Asia as cities grow, land sinks - Nikkei Asia</t>
+          <t>How Southeast Asia can futureproof its energy sector - Power Engineering International</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 03:10:00 GMT</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BANGKOK -- Flooding and other water hazards have become a serious threat to many people living in Asia's cities, as rapid economic development has caused land subsidence in big cities and sea levels keep rising due to global warming and other climate changes. As many as 1.2 billion people, about a third of Asia's population, face the risk of flood damage. The heightened risk of flooding and other water hazards in the world's growth engine may also hinder economic recovery in the post-pandemic era.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>BANGKOK -- Flooding and other water hazards have become a serious threat to many people living in Asia's cities, as rapid economic development has caused land subsidence in big cities and sea levels keep rising due to global warming and other climate changes. As many as 1.2 billion people, about a third of Asia's population, face the risk of flood damage.</t>
-        </is>
-      </c>
+          <t>Tue, 29 Nov 2022 01:34:00 GMT</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9999004602432251</v>
+        <v>0.9673531651496887</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A great rotation is brewing in Asia as investors head north - The Straits Times</t>
+          <t>Japan must reform its inflexible work culture - East Asia Forum</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 07:12:16 GMT</t>
+          <t>Wed, 23 Nov 2022 23:00:30 GMT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TOKYO – The nascent revival in North Asian equities is being touted as the start of a potential bull run as bets for China’s gradual reopening as well as the bottoming out of the chip industry intensify. Strategists at Goldman Sachs Group Inc. expect Asia’s equity leadership to shift from South-east Asia and India to markets like China and South Korea next year, while Societe Generale SA says Taiwan’s tech-heavy market is also at an inflection point. Jefferies Financial Group Inc. has echoed similar views. Stocks listed in Hong Kong as well as South Korea and Taiwan have languished for most of the year owing to their heavy reliance on China’s economy, which has been crimped by stringent Covid controls and a property crisis. Meanwhile, domestic-demand driven southern markets of Indonesia and India boasted resilience. The tables have turned this month after a slew of positive policy moves by Beijing. “Of concern to us is that Southeast Asia is beginning to underperform in the last few weeks, as investors rotate back into North Asia,” said Alexander Redman, chief equity strategist at CLSA. “Indonesia, as a defensive, domestically-orientated commodity exporter, was a logical refuge to ride out the equity storm,” he said, adding that the market will be “less favored as investors reengage some deep value cyclical exposure in North Asia.” Key equity gauges in Hong Kong have rallied about 20 per cent in November, easily topping the rest of Asia and major global peers, as China urged more targeted Covid restrictions and boosted policy support for the real estate sector. Foreigners have piled US$5.8 billion into Taiwan stocks this month, on track for the first inflows in six months and the biggest in 15 years. Net purchases of Korean shares are set to exceed US$2 billion for a second straight month. In contrast, Indonesia’s market – once investors’ favourite as an inflation hedge – is flat in November, and poised to see monthly flows turn negative for the first time since July. Investors are also more wary about valuations in India, where benchmarks recently hit record highs, with Goldman Sachs expecting the market to relatively underperform in 2023. “Any positive catalysts such as a potential China re-opening and policy support, lowering of geopolitical tensions or tech cycle bottoming is likely to drive a sharp rerating” of North Asian markets, Jefferies strategists led by Desh Peramunetilleke wrote in a note. The brokerage is overweight Hong Kong, China, Korea and Taiwan, neutral on Indonesia and underweight India. The bullish case for South Korea and Taiwan is also built on their chip dominance, as the markets are home to industry heavyweights such as Samsung Electronics Co and Taiwan Semiconductor Manufacturing Co. They also have China as their largest trading partner. SocGen and Lombard Odier Private Bank this month joined Morgan Stanley in saying that investors should tip-toe back into Asia’s semiconductor stocks. “Share prices typically bottom out two-to-three quarters ahead of the bottom of the semiconductor cycle,” SocGen strategists led by Alain Bokobza wrote in a note last week. “We may be at this point.” Chinese shares in Hong Kong are poised for their best monthly showing since 2006, as asset managers from M&amp;G Investments and Eastspring Investments to Franklin Templeton Investments buy into the rally. On the mainland, foreign funds have snapped up about 49 billion yuan ($6.8 billion) worth of stocks via trading links with Hong Kong.</t>
+          <t>Author: Hiroshi Ono, Hitotsubashi University Business School Working in Japan is full of inflexibilities. Flexible work arrangements, such as remote work and flexible work hours, remain low compared to other OECD countries. Digitalisation has been slow to launch and, even controlling for the state of Japan’s digital infrastructure, flexible work arrangements remain low. The problem is not just because of the poor state of digitalisation, but the ingrained work culture. The Prime Minister’s Office launched the Work Style Reform Action Plan in 2016, which helped build momentum towards creating a more flexible work culture, promoting work–life balance and improving overall productivity in the workplace. The number of employers offering flexible work practices, such as remote work and flexible work, has risen since its launch. But the core aspects of the inflexible work culture remain. Inflexibility may be rooted in collectivism. Yamagishi and associates argue that the tolerance for ‘free-riders’ is lower in collectivist societies such as Japan. Mechanisms to monitor and sanction behaviours, like micromanagement, are often present in such societies. If the prevailing norm is to work for fixed hours at the office, working flexible hours or working remotely may be viewed as a deviation from the norm. Flexible work disturbs group harmony and signals an inability to conform. If some workers in a particular division can work flexibly but others cannot, the whole division may be forced to forego the flexible work option. Work culture in Japan is still input-based. A key reason that Japanese workers continue to work long hours at the office is because it is viewed favourably, as an act of hard work and commitment. Input measures, such as work hours and tenure, are also easier to observe and monitor than are output measures, such as performance. In a 2019 survey of company managers by the Ministry of Health, Labour and Welfare, ‘difficulty in monitoring work hours’ was the number one problem reported among firms that had remote work in place. For Japanese companies, the ideal worker is still the Japanese male. Companies seek workers that can put in long hours at the office, have minimal responsibilities at home and can focus on work. The ideal worker does not demand flexibility. The company does not have to be flexible to workers’ needs, but workers are expected to be flexible to the needs of the company. Many Japanese men still cling to the traditional role of the male breadwinner and devote long hours at the office to fulfil this role. As Mary Brinton argues, women’s role in Japanese society is now more broadly defined and includes working mothers. In contrast, men’s role in society is still narrowly defined and centred around work. Social norms and expectations constrain men from taking a larger role in the household and family. Such narrow views lead to structural inflexibility at the societal level. The average duration of employment in Japan is one of the longest in the world. Along with collectivism, ‘long-termism’ is another distinguishing feature of Japanese society as measured by Hofstede’s index of national culture. Long-term employment can be beneficial as it provides employees with stability, predictability and a sense of protection. But long-termism can also result in structural rigidities and inefficiencies. If companies do not adjust employment in response to short-term fluctuations, employees may be forced into overtime work when the company is doing well. And when the company is performing poorly, it may end up carrying excess labour. The macro-level implications of structural rigidity are severe. A 2022 Bank of Japan paper showed that countries with low labour mobility, such as Japan, also suffer from low productivity growth. A lack of flexibility leads to misallocation of human capital. The inability to adjust employment levels and manage excess labour were key reasons behind the slow economic recovery of the lost decades from 1991. The COVID-19 pandemic may have been the exogenous shock that Japan needed to make people and organisations realise the downsides of an inflexible work culture. The assumptions behind the traditional work practices were established long before COVID-19 and digitalisation, but people are starting to question them now. Japanese workers now realise that they can work just as effectively at home as they can at the office. Paper is increasingly being replaced by digital documents with digital signatures without a loss of efficiency. These are all welcome changes. Globalisation and demographic change are also impetus for change. Surveys have shown that working long hours at the office is one of the biggest reasons why international students avoid working in Japanese companies. Many Japanese women and younger workers now see working from home as a necessary condition for employment. Some workers even consider accepting lower pay as a trade-off for the option to work remotely. Many firms still believe that workers should adapt to the firm once they join. But given Japan’s shrinking population, the ideal worker model, with its single-minded focus on loyal Japanese males, is no longer sustainable. The labour force is diversifying, not just demographically, but also in terms of people’s needs and preferences. It’s time for organisations to adapt to workers — and not the other way around. Hiroshi Ono is Professor of Human Resource Management at Hitotsubashi University Business School.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TOKYO – The nascent revival in North Asian equities is being touted as the start of a potential bull run as bets for China’s gradual reopening as well as the bottoming out of the chip industry intensify. Indonesia, as a defensive, domestically-orientated commodity exporter, was a logical refuge to ride out the equity storm,” he said, adding that the market will be “less favored as investors reengage some deep value cyclical exposure in North Asia.” The brokerage is overweight Hong Kong, China, Korea and Taiwan, neutral on Indonesia and underweight India. Chinese shares in Hong Kong are poised for their best monthly showing since 2006, as asset managers from M&amp;G Investments and Eastspring Investments to Franklin Templeton Investments buy into the rally.</t>
+          <t>Author: Hiroshi Ono, Hitotsubashi University Business School Working in Japan is full of inflexibilities. Yamagishi and associates argue that the tolerance for ‘free-riders’ is lower in collectivist societies such as Japan. As Mary Brinton argues, women’s role in Japanese society is now more broadly defined and includes working mothers. Such narrow views lead to structural inflexibility at the societal level. Along with collectivism, ‘long-termism’ is another distinguishing feature of Japanese society as measured by Hofstede’s index of national culture. If companies do not adjust employment in response to short-term fluctuations, employees may be forced into overtime work when the company is doing well. The COVID-19 pandemic may have been the exogenous shock that Japan needed to make people and organisations realise the downsides of an inflexible work culture. Globalisation and demographic change are also impetus for change. Many Japanese women and younger workers now see working from home as a necessary condition for employment.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9999817609786987</v>
+        <v>0.9999693632125854</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IBBL gets Asian Banker award - Dhaka - newagebd.net</t>
+          <t>Singer's Elliott to Exit Decade-Long Holding in Hong Kong Lender BEA - Bloomberg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 17:29:00 GMT</t>
+          <t>Fri, 28 Jan 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Islami Bank Bangladesh Limited has been recognised as the ‘Strongest Bank in Bangladesh’ for the year 2022 by The Asian Banker, said a press release. At the same time, the bank has also been recognised as the ‘Strongest Islamic bank in Bangladesh’. The Asian Banker managing editor Foo Boon Ping announced the award on the virtual platform on Thursday. Islami Bank managing director and CEO Mohammed Monirul Moula joined the programme as the recipient of the award. Singapore-based banking and financial intelligence platform The Asian Banker selected 22 strongest banks for 2022 after analysing data from 500 banks from Asia, Middle East and Africa regions. The organisation has been giving such awards since 2007.</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Islami Bank Bangladesh Limited has been recognised as the ‘Strongest Bank in Bangladesh’ for the year 2022 by The Asian Banker, said a press release. The Asian Banker managing editor Foo Boon Ping announced the award on the virtual platform on Thursday.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.954931378364563</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Things to do this week: Nov. 28-Dec. 4 - The Cincinnati Enquirer</t>
+          <t>BEA’s Qianhai headquarters to serve as gateway to Greater Bay Area expansion - South China Morning Post</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 04:05:35 GMT</t>
+          <t>Sun, 26 Jun 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Monday, Nov. 28 CHARITY: Toyz N Da Neighborhood Toy Drive is accepting donations through Dec. 15. Productoftheproject.org/donations. RECREATION: Skiing and Snowboarding, daily, Perfect North Slopes, 19074 Perfect Lane, Lawrenceburg. perfectnorth.com. Tuesday, Nov. 29 ART: The Works of Daryl Urig, 10 a.m.-6 p.m., Museum of Spiritual Art &amp; Fine Art Gallery, 318 S. River St., Franklin. Runs through Dec. 30. soulandfineartgallery.com. ART: Candace Black: Accoutrements, Weston Art Gallery, 650 Walnut St., Downtown. Exhibition features series of body extensions subjected to pressures illustrated through afflictions and protective barriers such as fire and silver mirroring. Runs Nov. 18-Jan. 15. Free. ART: Steven Thurston: Lost in Translation, Deception and Desire, Weston Art Gallery, 650 Walnut St., Downtown. Artist explores notions of authenticity and translation through ongoing series of iconic porcelain busts depicting the founding fathers of the United States, examining translational misunderstanding and conflicting mythologies surrounding the subjects. Runs Nov. 18-Jan. 15. Free. ART: Mary Jo Bole: Family White Elephants, Weston Art Gallery, 650 Walnut St., Downtown. Artist explores her family's industrial history and the lineage of women who preserved it. Her experiences are filtered through counter-culture and the punk scene from her youth and Lake Erie. Runs Nov. 18-Jan. 15. Free. MUSEUM: Natural World, 11 a.m.-5 p.m., Cincinnati Art Museum, 953 Eden Park Drive, Mount Adams. Explores collaboration between artists John Edmonds and David Hartt, and poet/scholar Jason Allen-Paisant. Runs Sept. 30-Jan. 15. cincinnatiartmuseum.org. MUSEUM: Beyond Bollywood, 11 a.m.-5 p.m., Cincinnati Art Museum, 953 Eden Park Drive, Mount Adams. Through more than 100 artworks drawn from US museums and private collections, you can explore the representation of dance in the arts from South Asia, Southeast Asia and the Himalayan region from the 1st to the 21st centuries. Runs Nov. 11-Feb. 5. cincinnatiartmuseum.org. MUSIC: Music Live at Lunch: Vincenzo G. Volpe and Michael Delfin, 12:10 p.m., Christ Church Cathedral, 318 E. Fourth St., Downtown. Free. MUSIC: Christmas with the Celts, Memorial Hall. RECREATION: FIFA World Cup Watch Party: US Men's National Team vs Iran, 2 p.m., Molly Malone's Irish Pub, 112 E. Fourth St., Covington. mollymalonesirishpub.com/covington. RECREATION: FIFA World Cup Watch Party: US Men's National Team vs Iran, 2 p.m., The Banks, Downtown. Wednesday, Nov. 30 COMEDY: Emma Willmann, Funny Bone Comedy Club, 7518 Bales St., Liberty Township. One night only. liberty.funnybone.com. HOLIDAY OPENING: 19th Century Holiday Guided Tour, 10 a.m.-3 p.m., Heritage Village Museum, 11500 Lebanon Road, Sharonville. See glimpses of the earliest Christmases of Cincinnati, the impact of the Civil War on celebrations, and the new traditions introduced by Queen Victoria. Runs Nov. 30-Dec. 3 and Dec. 7-9. $10 per person. heritagevillagecincinnati.org. MUSEUM: Craft and Camera: The Art of Nancy Ford Cones, Taft Museum of Art, 316 Pike St., Downtown. Runs Oct. 1-Jan. 15. $15, $10 seniors and children. Admission is free every Sunday. taftmuseum.org. MUSEUM: Free As They Want To Be: Artists Committed to Memory, 10 a.m.-5 p.m. Wednesday-Sunday, National Underground Railroad Freedom Center, 50 E. Freedom Way, Downtown. Runs Sept. 30-March 5. Included with admission. $15, $10.50 ages 3-12. freedomcenter.org. SHOPPING: Fort Thomas Holiday Market, 3-7 p.m., Mess Hall, Tower Park, 801 Cochran Ave., Fort Thomas. Artists, crafters and more. Runs Wednesdays Nov. 30-Dec. 14. THEATER OPENING: The Dancing Princesses, Ensemble Theatre, 1127 Vine St., Over-the-Rhine. This family-friendly musical is suitable for all ages. Special relaxed (sensory-friendly) performances at 7 p.m. Nov. 18-19 and 2 p.m. Nov. 26. Runs Nov. 30-Dec. 30. ensemblecincinnati.org. Thursday, Dec. 1 COMEDY: Mike Cronin, Go Bananas Comedy Club, 8410 Market Place Lane, Montgomery. Runs Dec. 1-4. gobananascomedy.com. DANCE: Hip Hop Nutcracker, Taft Theatre. Touring production features hip-hop pioneer Kurtis Blow. tafttheatre.org. EXPO: After Hours Bridal Show, 6-9:30 p.m., Fitton Center for Creative Arts, 101 S. Monument Ave., Hamilton. Free, but registration required. Eventbrite.com. FILM: Dinosaurs of Antarctica, Cincinnati Museum Center, 1301 Western Ave., Queensgate. Dinosaurs have never been cooler. See these prehistoric beasts in action in this new Omnimax film. Runs Oct. 14-Jan. 15. $9.50, $7.50 ages 3-12. cincymuseum.org. HOLIDAY OPENING: Light in the Forest, 5:30-9 p.m., Rowe Woods, Cincinnati Nature Center, 4949 Tealtown Road, Milford. Runs Dec. 1-Jan. 1. Closed Dec. 24-25. $12, $7 ages 3-17. cincynature.org. HOLIDAY: Holiday Junction, Cincinnati Museum Center, 1301 Western Ave., Queensgate. Cincinnati’s beloved holiday tradition, the Duke Energy Holiday Trains, returns to the Museum Center. Santa awaits at the Public Landing just outside of Holiday Junction. $10, or $5 with the purchase of any other museum experience. Cincymuseum.org. HOLIDAY: Christkindlmarkt, 4-10 p.m. Thursday, 4-11 p.m. Friday, 11 a.m.-11 p.m. Saturday, 11 a.m.-7 p.m. Sunday, Schmidlapp Lawn adjacent to Moerlein Lager House, 115 Joe Nuxhall Way, Downtown. cincinnatichristkindlmarkt.com. MUSEUM: Dinosaurs of Antarctica, Cincinnati Museum Center, 1301 Western Ave., Queensgate. Dinosaurs have never been cooler. This new exhibition uncovers never-before-seen dinosaur fossils buried beneath the snow and ice and dials back the hands of time to 200 million years ago, when Antarctica was a lush woodland teeming with prehistoric beasts. Runs Oct. 14-Jan. 15. Included with museum admission. $16.50, $12.50 ages 3-12. cincymuseum.org. MUSIC: Island Christmas Holiday, 7 p.m., The Redmoor, 3187 Linwood Ave., Mount Lookout. "White Christmas" meets Bob Marley in this fun soca party sing-along with original Christmas songs. theredmoor.com. SHOPPING: Fair Trade Marketplace, 4-9 p.m. Thursday-Friday, 10 a.m.-4 p.m. Saturday, Agner Hall, Dearborn County Fairgrounds, 351 E. Eads Parkway, Lawrenceburg. Free admission. facebook.com/InternationalFairTrade. THEATER OPENING: A Christmas Carol, Covedale Center for the Performing Arts, 4990 Glenway Ave., West Price Hill. Musical version of the classic Charles Dickens tale. Runs Dec. 1-23. $31, $28 seniors and students. 513-241-6550. cincinnatilandmarkproductions.com. THEATER OPENING: Next to Normal, Footlighters at Stained Glass Theater, 802 York St., Newport. This play is an unflinching look at a suburban family struggling with the effects of mental illness. Runs Dec. 1-18. footlighters.org. THEATER: The Nutcracker, Thursday-Sunday, School for Creative and Performing Arts, 108 W. Central Parkway, Over-the-Rhine. Presented by SCPA Dance Dept. Runs Dec. 1-4. scpa.cps-k12.org. THEATER ENDING: Little Women, Cincinnati Shakespeare Company, 1195 Elm St., Over-the-Rhine. Runs Nov. 11-Dec. 3. cincyshakes.com. Friday, Dec. 2 ART: Holiday ArtWalk, 6-10 p.m. Friday-Saturday, Essex Studios, 2511 Essex Place, Walnut Hills. More than 100 artists open their studios to the public. Guest artists display work in hallways. Live music, food truck, special poetry reading by Saad Ghosn. Free admission and parking. 513-476-2170; essexstudioscincinnati.com/artwalk. ART/CHARITY: Panorama of Cincinnati Art XXXVII, 5-8 p.m., Cincinnati Art Galleries, 225 E. Sixth St., Downtown. Benefits Cincinnati Art Club Art Restoration Fund. $100 per person. Exhibition opens to public on Dec. 3 and runs through Dec. 31. CHARITY: Friends Holiday Fete, 5-8 p.m., Krohn Conservatory, 1501 Eden Park Drive, Mount Adams. Tour A Celestial Holiday exhibit, enjoy dinner by the bite, open bar and more. Benefits Friends of Music Hall. $100. COMEDY: Godfrey, Funny Bone Comedy Club, 7518 Bales St., Liberty Township. Runs Dec. 2-4. liberty.funnybone.com. COMEDY: Michael Turner, 7:30 p.m. Friday-Saturday, MOTR Pub Basement, 1345 Main St., Over-the-Rhine. Ages 21-up. $25 per night. Motrpub.com. DANCE: Mutual Dance Theatre: Rojo and Nightcap, 7:30 p.m., Friday-Saturday, Mutual Arts Center, 8222 Monon Ave., Hartwell. Runs Dec. 2-10. $25. Cincinnatiarts.org. FESTIVAL: RedsFest, 3-10:30 p.m. Friday, 11 a.m.-6:30 p.m. Saturday, Duke Energy Convention Center, 525 Elm St., Downtown. $25 single day, $20 ages 12-under both days, $15 ages 12-under single day. reds.com. FESTIVAL: Dark Charge Winter Block Party, Friday-Saturday, Braxton Brewing Co., 25 W. Seventh St., Covington. Limited edition beer releases, live music and more. VIP $175 both days, $90 single day. darkchargeday.com. HOLIDAY: Cirque Dreams Holidaze, 7:30 p.m. Friday, 11 a.m., 3 and 7:30 p.m. Saturday, 1 p.m. Sunday, Aronoff Center for the Arts, 650 Walnut St., Downtown. Broadway-style production with an infusion of contemporary circus arts. Runs Dec. 2-4. Cincinnatiarts.org. HOLIDAY: The Christmas Casino, Rising Star Casino Resort, 777 Rising Star Drive, Rising Sun. Runs through Jan.2. thechristmascasino.com. HOLIDAY: Reading Holiday Walk, 6:30-9 p.m., Reading Bridal District, Reading Road and Benson St., Reading. Stroll along the street and enjoy decorated storefronts, photos with Santa, s'more station, scavenger hunt, carolers, face painting and more. HOLIDAY: Christkindlmarkt, 5-9 p.m. Friday, 11 a.m.-9 p.m. Saturday, Butler County Fairgrounds, 1715 Fairgrove Ave., Hamilton. Santa visits Saturday from 2-4 p.m. and there’s a kinderfest area for kids. $1 admission, free ages 12-under. Free parking. HOLIDAY: Pickers and Grinners Christmas Market, 4-9 p.m., Second St., Maysville. Coincides with Twilight Christmas Parade. Market features live music, handmade arts and crafts, baked goods and food vendors. Parade starts at 6:30 p.m. HOLIDAY: Yuletide Village, 5-10 p.m. Friday, 3-10 p.m. Saturday, Renaissance Park, Harveysburg. Runs Nov. 25-Dec. 17. yuletidevillage.com. MUSIC: Cincinnati Symphony Orchestra: Gershwin &amp; The Planets, 7:30 p.m. Friday-Saturday, Music Hall, 1241 Elm St., Over-the-Rhine. cincinnatisymphony.org. MUSIC: Chris Comer Trio, 9 p.m., Hearth Lounge, 125 W. Fourth St., Downtown. MUSIC: Ryan Adams, Andrew J. Brady Music Center. MUSIC: Granger Smith, MegaCorp Pavilion. Featuring Earl Dibbles Jr. MUSIC: Ruben Studdard sings Luther, Ludlow Garage. MUSIC: The Steel Woods, Madison Live. SHOPPING: Mustard Seed Market, 11 a.m.-7 p.m., Clermont County Fairgrounds, 1000 Locust St., Owensville. $10. SPORTS: Cyclones vs Walleye, 7:30 p.m., Heritage Bank Center, 100 Broadway, Downtown. Superman Night. cycloneshockey.com. SPORTS: Holiday Havoc, 8 p.m., 20th Century Theater, 3021 Madison Road, Oakley. Cincinnati wrestling championship featuring KC Navarro vs Cody Hall, Jake Crist vs Savion, Infared vs GKFam, and 4-way elimination tables match. $15, $10 advance. the20thcenturytheater.com. THEATER OPENING: Sanders Family Christmas, The Drama Workshop, 3716 Glenmore Ave., Cheviot. Heartwarming sequel to the bluegrass gospel musical Smoke on the Mountain. Enjoy hilarious and touching stories and songs. Runs Dec. 2-18. 513-598-8303; thedramaworkshop.org. THEATER OPENING: C.S. Lewis on Stage: Further Up &amp; Further In, Friday-Sunday, Aronoff Center for the Arts. When C.S. Lewis came to faith in 1931, it wasn’t obvious he would become the most influential Christian writer of the 20th century. How did that happen? This theatrical event, starring award-winning actor Max McLean, tells the story. Runs Dec. 2-4. cincinnatiarts.org. THEATER OPENING: Peter &amp; the Starcatcher, Northern Kentucky University School of the Arts, Highland Heights. Runs Dec. 2-11. nku.edu. Saturday, Dec. 3 ART: Panorama of Cincinnati Art XXXVII, 10 a.m.-4 p.m., Cincinnati Art Galleries, 225 E. Sixth St., Downtown. Runs Dec. 3-31. Cincyart.com. ART: Open House Warming, noon-4 p.m., Manifest Drawing Center, 3464 Central Parkway, Clifton. Free. COMEDY: Helltown Comedy Showcase, 7:30 p.m., The Comet, 4579 Hamilton Ave., Northside. Weekly showcase of local and professional comedians. This week's headliner: Dan Alten. Free. bombsawaycomedy.com. CRAFT SHOW: Campbell County Band Boosters Craft &amp; Vendor Show, 9 a.m.-2 p.m., Campbell County High School, 909 Camel Crossing, Alexandria. facebook.com. CRAFT SHOW: Batavia Holiday Maker’s Market, 11 a.m.-4 p.m., Nakama Studio, 600 Kilgore Ave., Batavia. Variety of local businesses visit. Food trucks, kid crafts and activities and more. $3 admission. Nakamastudio.org/marketinfo. CRAFT SHOW: Little Britain Art Fair, 10 a.m.-7 p.m. Saturday, 10 a.m.-4 p.m. Sunday, Little Britain Carriage House, 5307 Idlewild Road, Burlington. Indoor art fair includes painting, photography, pottery, jewelry and more. Light refreshments for sale in cafe. CRAFT SHOW: Ohio Holiday Market, 11 a.m.-4 p.m., Clifton Community Center, 320 McAlpin Ave., Clifton. Shopping, music, door prizes. Ugly sweater contest at 2 p.m. Meet Santa 1-3 p.m. ohioholidaymarket.eventbrite.com. CRAFT SHOW: Holiday Pottery Fair, 10 a.m.-3 p.m., Clifton Recreation Center, 320 McAlpin Ave., Clifton. Handmade pottery from local artists. Marty's Waffle Truck visits. CRAFT SHOW: Small Business Holiday Shopping Fair, 10 a.m.-3 p.m., Willow Event Center, 7881 Colerain Ave., Colerain Township. Shop dozens of small businesses with unique gifts. CRAFT SHOW: Market Bleu Winter Quarter Show, 6-10 p.m., Contemporary Arts Center, 44 E. Sixth St., Downtown Artisans and artists showcase and sell products. Free admission. CRAFT SHOW: Showcase of Arts, 10 a.m.-5 p.m. Saturday, noon-4 p.m. Sunday, The Barn at Woman's Art Club of Cincinnati, 6980 Cambridge Ave., Mariemont. Features knits and woven items, jewelry, pottery, paintings, baked goods, soaps, woodwork, glass and more by local artisans. Fresh wreaths, food truck. Free admission. CRAFT SHOW: Holiday Beers &amp; Cheers Market, 11 a.m.-2 p.m., Sonder Brewing, 8584 Duke Blvd., Mason. Shopping and experience stations. Free admission. Eventbrite.com. CRAFT SHOW: Winter Market, 11 a.m.-5 p.m. Saturday-Sunday, Washington Park, 1230 Elm St., Over-the-Rhine. Runs weekends Nov. 25-Dec. 18. CRAFT SHOW: St. John Christmas Craft Fair, 9 a.m.-3 p.m., St. John the Evangelist Catholic Church, 9080 Cincinnati Dayton Road, West Chester. Shop 100 unique crafters in three buildings. Lunch is available, as well as a bakery booth and raffle. CRAFT SHOW: Cookie Sale, 9 a.m.-1 p.m., St. Joseph, 25 E. Harrison Ave., North Bend. Ladies Society of St. Joseph Church host sale in hospitality room in lower level of church. Handmade ornaments and craft items. Homemade cookies and candy. $8 per pound. Free parking and admission. CRAFT SHOW: Blue Ash Holiday Craft Show, 10 a.m.-3 p.m., Blue Ash Recreation Center, 4433 Cooper Road, Blue Ash. HOLIDAY: Frontier Christmas, 10 a.m.-4 p.m., Old Washington Historic District, Maysville. Handmade arts and craft vendors line the streets of Old Washington, and local shops and museums will be open with holiday activities for all ages. HOLIDAY: Victorian Christmas Home Tour &amp; Tea, 1-7 p.m. Saturday-Sunday, Historic East Row Neighborhood, Newport. Visit 8 distinct homes decorated for the holidays. See inside newly renovated homes, including one still under renovation, and enjoy outdoor lighting displays. Tea service seatings are all sold out. Runs Dec. 3-4. $25, $20 advance. eastrow.org. HOLIDAY: Lebanon Horse-Drawn Carriage Parade and Festival, 10 a.m.-8 p.m., Historic Downtown Lebanon. Parade hours are 1 and 7 p.m., Santa hours are 10:30 a.m.-noon and 4-6 p.m. lebanonchamber.org. HOLIDAY: Santa's 5K Fun Run, 1 p.m., Independence Fire Station, Delaware Crossing, Independence. Participants receive a race T-shirt, mask and Santa hat. Prizes. Part of Independence Christmas Walk. $25. runsignup.com. HOLIDAY: Independence Christmas Walk, 1-9 p.m., Independence. Santa visits from 1-3 p.m. at the Kenton County Courthouse. From 4-9 p.m. a craft fair is at the courthouse. Tree lighting takes place at 5:15 p.m. on courthouse lawn, followed by lighted Christmas parade and old fashioned walk from Independence Christian Church to the Independence Senior and Community Center. Free. 41051.com. HOLIDAY: Family Day: Holiday Fun, 10:30 a.m.-2:30 p.m., American Sign Museum, 1330 Monmouth St., Camp Washington. Create your own wrapping paper, see puppet show, meet Santa, live music and more. Included with museum admission. HOLIDAY; Christmas at the Homestead, 1-5 p.m. Saturday-Sunday, Christian Waldschmidt Homestead Museum, 7567 Glendale Milford Road, Camp Dennison. Sponsored by the Ohio Society Daughters of the American Revolution. HOLIDAY: Christmas Tree Lighting Festival, 4-8 p.m., 116 N. Karl Brown Way, Loveland. Ring in the holiday season with family activities, holiday market, live entertainment and holiday treats. Free. MUSIC: Trampled by Turtles, Andrew J. Brady Music Center. MUSIC: Hyryder, Riverfront Live. MUSIC: Cincinnati Men's Chorus: Family, 8 p.m. Saturday, 2 p.m. Sunday, Memorial Hall. Collecting personal care and clothing items for Lighthouse Youth Services. $25, $20 advance. memorialhallotr.com. MUSIC: Cat Country 94.1 presents 2022 Homegrown Concert, Madison Theater. With Derek Alan Band, Ryan Alfred. RECREATION: Ugly Sweater Bar Crawl, 2-9 p.m., On the Rhine Eatery, 100 E. Court St., Downtown. Start at On the Rhine and visit six other OTR bars. $15-$21. Eventbrite.com. THEATER ENDING: Betrayal, Falcon Theatre, 636 Monmouth St., Newport. Runs Nov. 18-Dec. 3. $28, $15 students with valid ID. Falcontheater.net. Sunday, Dec. 4 CHARITY: Sip &amp; Slay Drag Brunch, 10:30 a.m.-1 p.m., Northern Row Brewery, 111 W. McMicken Ave., Over-the-Rhine. Benefits Living With Change. $65-up. Eventbrire.com. CRAFT SHOW: Chanukah Bazaar, 10 a.m.-2 p.m., Adath Israel Synagogue, 3201 E. Galbraith Road, Amberley Village. Shop local artists and food vendors for your Chanukah needs. CRAFT SHOW: Ultimate Holiday Craft Expo, 10 a.m.-4 p.m., Hilton Cincinnati Airport, 7373 Turfway Road, Florence. Free parking and admission. CRAFT SHOW: Ludlow Flea &amp; Craft Fair, 11 a.m., Bircus Brewing Co., 322 Elm St., Ludlow. CRAFT SHOW: Holiday Market, 3-7 p.m., The Redmoor, 3187 Linwood Ave., Mount Lookout. HOLIDAY: Lunch with Santa, 11:30 a.m.-2 p.m., The Grove Event Center, 9158 Winton Road, Springfield Township. $18 per child ages 2-up, $8 adults. HOLIDAY: Cincinnati Civic Orchestra Holiday Concert, 4-6 p.m., The Grove Event Center, 9158 Winton Road, Springfield Township. Free. HOLIDAY: An Elegant Victorian Family Christmas, 3-7 p.m., Promont House, 906 Main St., Milford. milfordhistory.net. HOLIDAY: German Village Christmas Walk, noon-5 p.m., German Village, N. Second St., Hamilton. Enjoy holiday decorations, horse-drawn carriage rides, tour historic homes and businesses, live music, crafters and visit from Santa. Free. Gettothebc.com. MUSIC: Foxing, Madison Live. With Shinra Knives. MUSIC: Westwood First Concert Series, 2:30 p.m., Westwood First Presbyterian Church, 3011 Harrison Ave., Westwood. Dec. 4: James Bunte Trio with Emily Jordan. Free, 513-661-6846. Ext. 101. Wfpc.org. MUSIC: Westwood Community Band: It’s the Holiday Season, 2 p.m., Mount St. Joseph University Auditorium, 5701 Delhi Road, Delhi Township. Benefits Nate’s Toy Box. Free. Bring new, unwrapped toy. 513-328-4853; westwoodcommunityband.org. RECREATION: Pregame Festivities, 1-4:30 p.m., The Banks, E. Freedom Way, Downtown. SPORTS: Cincinnati Bengals vs Kansas City Chiefs, Paycor Stadium. THEATER ENDING: The Lion, Warsaw Federal Incline Theater, 801 Matson Place, East Price Hill. Runs Nov. 12-Dec. 4. 513-421-3888; cincyplay.com. Have an event you’d like us to know about? Send all the details to calendar@cincinnati.com with “Things To Do” in the subject line.</t>
+          <t>BEA has over 1.3 million customers in Hong Kong and another 600,000 in the Greater Bay Area. Photo: Bloomberg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Monday, Nov. 28 CHARITY: Toyz N Da Neighborhood Toy Drive is accepting donations through Dec. 15. Artist explores notions of authenticity and translation through ongoing series of iconic porcelain busts depicting the founding fathers of the United States, examining translational misunderstanding and conflicting mythologies surrounding the subjects. ART: Mary Jo Bole: Family White Elephants, Weston Art Gallery, 650 Walnut St., Downtown. RECREATION: FIFA World Cup Watch Party: US Men's National Team vs Iran, 2 p.m., Molly Malone's Irish Pub, 112 E. Fourth St., Covington. See glimpses of the earliest Christmases of Cincinnati, the impact of the Civil War on celebrations, and the new traditions introduced by Queen Victoria. FILM: Dinosaurs of Antarctica, Cincinnati Museum Center, 1301 Western Ave., See these prehistoric beasts in action in this new Omnimax film. Santa awaits at the Public Landing just outside of Holiday Junction. Exhibition opens to public on Dec. 3 and runs through Dec. 31. CHARITY: Friends Holiday Fete, 5-8 p.m., Krohn Conservatory, 1501 Eden Park Drive, Mount Adams. Tour A Celestial Holiday exhibit, enjoy dinner by the bite, open bar and more. FESTIVAL: RedsFest, 3-10:30 p.m. Friday, 11 a.m.-6:30 p.m. Saturday, Duke Energy Convention Center, 525 Elm St., Downtown. $25 single day, $20 ages 12-under both days, $15 ages 12-under single day. Heartwarming sequel to the bluegrass gospel musical Smoke on the Mountain. This theatrical event, starring award-winning actor Max McLean, tells the story. THEATER OPENING: Peter &amp; the Starcatcher, Northern Kentucky University School of the Arts, Highland Heights. CRAFT SHOW: Ohio Holiday Market, 11 a.m.-4 p.m., Clifton Community Center, 320 McAlpin Ave., CRAFT SHOW: St. John Christmas Craft Fair, 9 a.m.-3 p.m., St. John the Evangelist Catholic Church, 9080 Cincinnati Dayton Road, West Chester. See inside newly renovated homes, including one still under renovation, and enjoy outdoor lighting displays. Sponsored by the Ohio Society Daughters of the American Revolution. HOLIDAY: Christmas Tree Lighting Festival, 4-8 p.m., 116 N. Karl Brown Way, Loveland. Ring in the holiday season with family activities, holiday market, live entertainment and holiday treats. MUSIC: Cat Country 94.1 presents 2022 Homegrown Concert, Madison Theater. Enjoy holiday decorations, horse-drawn carriage rides, tour historic homes and businesses, live music, crafters and visit from Santa. SPORTS: Cincinnati Bengals vs Kansas City Chiefs, Paycor Stadium. THEATER ENDING: The Lion, Warsaw Federal Incline Theater, 801 Matson Place, East Price Hill. Send all the details to calendar@cincinnati.com with “Things To Do” in the subject line.</t>
+          <t>BEA has over 1.3 million customers in Hong Kong and another 600,000 in the Greater Bay Area.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1554,28 +1578,28 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9999991655349731</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>South Korea's defense industry doubles overseas orders - Nikkei Asia</t>
+          <t>East Timor opens new port in largest ever foreign investment - Business Recorder</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 00:06:00 GMT</t>
+          <t>Thu, 01 Dec 2022 00:47:24 GMT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SEOUL -- The South Korean defense industry has doubled orders from overseas compared with last year, underscoring the government's ambitions of transforming the country into an arms-exporting powerhouse. President Yoon Suk-yeol visited Korea Aerospace Industries' (KAI) main production hub in Sacheon Thursday to hold a strategy meeting concerning how the public and private sectors can boost weapons exports.</t>
+          <t>DILI, (East Timor): East Timor inaugurated a new deepwater port Wednesday operated by a French conglomerate, in the largest ever single foreign investment on an infrastructure project in Southeast Asia’s youngest country. The $490 million port at Tibar Bay near the capital Dili is expected to expand trade for East Timor, one of the poorest countries in the region. “It was necessary for East Timor to be connected to the main shipping lines in Asia,” French transport giant Bollore’s director of ports Olivier de Noray told AFP. UAE to build Red Sea port in Sudan in $6bn investment package The port will be able to receive ships of more than 8,000 containers, he said, and vessels sailing from Singapore through the Indonesian archipelago to Australia will be able to call there. East Timor, which gained independence from Indonesian occupation in 2002, already has a port in Dili but it is not deep enough to accommodate large container ships.’</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SEOUL -- The South Korean defense industry has doubled orders from overseas compared with last year, underscoring the government's ambitions of transforming the country into an arms-exporting powerhouse. President Yoon Suk-yeol visited Korea Aerospace Industries' (KAI) main production hub in Sacheon Thursday to hold a strategy meeting concerning how the public and private sectors can boost weapons exports.</t>
+          <t>DILI, (East Timor): East Timor inaugurated a new deepwater port Wednesday operated by a French conglomerate, in the largest ever single foreign investment on an infrastructure project in Southeast Asia’s youngest country. The $490 million port at Tibar Bay near the capital Dili is expected to expand trade for East Timor, one of the poorest countries in the region. “</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1584,58 +1608,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5629748702049255</v>
+        <v>0.9882535934448242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Francisco Named Host City for 2023 Asia-Pacific Economic Cooperation Leaders’ Summit - Post News Group</t>
+          <t>Wolters Kluwer wins plaudits for APAC Finance, Risk &amp; Regulatory Reporting business - Yahoo Finance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 02:37:30 GMT</t>
+          <t>Thu, 01 Dec 2022 02:11:29 GMT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>By Nadia Lopez, CalMatters The California Air Resources Board unveiled a new version of its highly anticipated strategy for battling climate change on Nov. 16, setting more ambitious targets for cutting greenhouse gases and scaling up controversial projects that capture carbon. If adopted by the air board at its Dec. 15 meeting, the plan would radically reshape California’s economy, alter how Californians’ vehicles, buildings and appliances are powered, and ultimately serve as a blueprint for other states and countries to follow. “Failure is not an option,” said air board Chair Liane Randolph. “There is too much at stake and we need to move as fast and as far as we can to lessen the worst impacts of climate change and leave future generations a livable and healthy California.” The five-year climate change strategy, called a scoping plan, outlines in its 297 pages how California could end its reliance on oil and also clean up the nation’s worst air pollution. The staff’s final draft plan adds bolder commitments, reducing oil use by 94% from 2022 levels by 2045 — up from a goal of 91% in the September version of the plan. The plan also sets a more aggressive goal of cutting carbon emissions 48% below 1990 levels by 2030 — up from the 40% by 2030 required under state law. Net-zero emissions would be achieved in 2045. (Net-zero or carbon neutrality means striking a balance between the carbon dioxide added to the air and the carbon that’s removed.) California has a long way to go to meet the new 48% goal in just eight years. By 2020 it had cut emissions only about 14% below 1990 levels, according to air board officials. Danny Cullenward, a climate economist who serves on a committee advising the state about its system for trading greenhouse gas credits, said California isn’t on track to meet its existing 2030 reduction target, much less the new, more stringent goal. “I don’t want to say California isn’t doing anything on climate. We’ve done a lot of things,” said Cullenward, who serves on the Independent Emissions Market Advisory Committee. “But this is such a superficial exercise and it’s filled with so many faults and errors.” Air board officials, however, said they are confident that the state can achieve the new target, largely with mandates and policies enacted this year. State officials phased out sales of new gas-powered cars by 2035, set a more stringent low-carbon fuel standard and streamlined siting and permitting of renewable energy projects. “This plan is a comprehensive roadmap to achieve a pollution-free future,” Gov. Gavin Newsom said in a statement. “It’s the most ambitious set of climate goals of any jurisdiction in the world, and, if adopted, it’ll spur an economic transformation akin to the industrial revolution.” But Cullenward criticized the staff’s modeling, which is used to predict how each sector of the economy will reduce emissions. He said the plan lacks a thorough analysis of the feasibility of its projections and makes major assumptions. One example, he said, is that the plan relies on other agencies, such as the California Energy Commission, setting new policies, but it doesn’t address the timing and roadblocks they may face or other details. “It’s a pretty aspirational document but it’s filled with bureaucratic doublespeak,” he said. “It’s really frustrating because there’s so much work to be done.” Some policy experts say setting ambitious goals is a crucial step toward cleaning up air pollution and combating climate change. “The scoping plan can at least help us direct our attention even if it doesn’t give us as much detail as we want,” said Dave Weiskopf, senior policy advisor with NextGen Policy, a progressive advocacy group. “On the one hand, that is really frustrating. On the other hand, it tells us that if we put in the effort to say what we think a good plan should look like, we at least have a shot of getting the state to take meaningful action.” The new plan relies more than the original versions on two controversial, advanced technologies for eliminating planet-warming carbon dioxide. Combined, 15% — increased from 5% — of all of the state’s targeted greenhouse gas cuts will come from carbon removal and carbon capture and storage. One strategy removes carbon from the atmosphere, such as replanting trees or storing it in soils. Another, called carbon capture and storage, collects carbon spewed from industry smokestacks and injects it into the ground. California currently has no carbon removal or capture and storage projects, and air board officials say they wouldn’t be deployed until 2028. The state’s scenario predicts that carbon-capture technology will be installed on most of California’s 17 oil refineries by 2030 and on all cement, clay, glass, and stone facilities by 2045. Environmental groups oppose both technologies, saying they extend the lives of fossil fuels, while oil companies say they are necessary to achieve the state’s long-term climate goals. The debate pits those who want to mandate an end to fossil fuels against those who want an approach that relies somewhat on technology to clean up carbon. Globally, 27 carbon capture and storage projects are operating so far. Oil industry officials declined to comment on the plan Wednesday. Achieving the plan’s targets would cost $18 billion in 2035 and $27 billion in 2045, according to air board estimates. The move to decarbonize and transition away from fossil fuels will also drastically increase electricity use, which is expected to soar by as much as 68% in 2045. At Newsom’s direction, the air board in September already strengthened its draft plan, originally released last May, to include new goals for offshore wind, cleaner aviation fuels and reducing vehicle miles traveled. Other changes include constructing 3 million climate-friendly homes by 2030 and 7 million by 2035, installing at least 6 million heat pumps by 2030, and eliminating the option of building new natural gas plants or using fossil fuels in the electricity sector to maintain grid reliability. Eliminating 100 million tons of carbon Under a new law that Newsom prioritized in his climate package at the end of this year’s legislative session, the air board was directed to create a new program that puts guardrails on carbon capture, use and storage projects while streamlining the permitting process. These technologies aim to remove or capture and store at least 20 million metric tons of carbon by 2030 and 100 million metric tons by 2045, according to the plan. Once captured from smokestacks, the carbon could be transported to sites in the Central Valley. Air board staff say the valley is an ideal location for injecting carbon dioxide deep into rock formations because it has the capacity to store at least 17 billion tons. Though controversial, air board staff say the technologies are a “necessary tool” to reduce emissions from industrial sectors, such as the cement industry, where no other alternatives may exist. “We’ve squeezed out all of the emissions that we can under the inventory for manufacturing for transportation and for industry, but we know residual emissions will remain,” said Rajinder Sahota, the board’s deputy executive officer for climate change and research. “We’re going to need all the tools in all of these categories.” But at an Oct. 28 workshop, members of the state’s Environmental Justice Advisory Committee raised several concerns about engineered carbon removal, saying it is an unproven strategy that could continue to plague local communities with air pollution. They also say it would delay closure of oil facilities and act as a substitute for direct emissions reductions. “The Air Resources Board’s latest climate plan once again pins California’s future on a dangerous carbon capture pipe dream,” said Jason Pfeifle, a senior climate campaigner at the Center for Biological Diversity. “Caving to polluters who want to keep burning fossil fuels and dirty biomass energy is a one-way ticket to climate destruction. California needs a plan that rejects industry scams, preserves our ecosystems, and rapidly phases out fossil fuels.” Air board staff acknowledged these concerns, but Randolph, the board’s chair, said many of the greenhouse gas targets could not be achieved without them. She said the board has prioritized creating a metric to measure how residents could be affected by these projects and also consider the needs of people who are most affected by air pollution. Randolph said the plan’s heavy emphasis on cutting emissions from transportation will also significantly improve air quality in vulnerable communities. Cutting vehicle miles traveled and improving access to mass transit, designing more pedestrian-friendly neighborhoods and increasing access to electric bikes and vehicles all play a role. The board expects the state’s landmark cap and trade program — which allows big polluters to buy credits to offset their greenhouse gas emissions — to play a much smaller role over time. In the 2017 version of their scoping plan, air board officials estimated about 38% of emissions reductions would come from cap and trade. Instead, it now would help “fill the gap” to meet the accelerated 2030 emissions target. Cap and trade has been heavily criticized by legislators and experts in recent years. One criticism is that there are at least 310 million unused credits currently in the system, which is a problem because companies hoard credits that allow them to keep polluting past state limits in later years. Air board officials say they hope to reform the program and address the oversupply of credits at the end of next year.</t>
+          <t>SINGAPORE, December 01, 2022--(BUSINESS WIRE)--Wolters Kluwer Finance, Risk &amp; Regulatory Reporting (FRR) has won a number of independent industry awards celebrating excellence and innovation in the Asia Pacific (APAC) region. Regulation Asia has named Wolters Kluwer’s OneSumX for Regulatory Reporting the "Best Solution in Regulatory Reporting" in its prestigious Awards for Excellence for the fourth time in five years and APAC Insider has recognized the company’s leading position in the field, naming the company Best Regulatory Reporting Provider for Singapore. RegTech Insight, meanwhile, has awarded the firm its Best Regulatory Compliance Solution for IFRS 9 accolade in its APAC Awards. OneSumX for Regulatory Reporting combines bank data into a single source of data to ensure consistency, reconciliation and accuracy and includes Wolters Kluwer’s Regulatory Update Service. This unique service is maintained by Wolters Kluwer experts who actively monitor regulation in 30 countries. Regulation Asia judges noted how Wolters Kluwer FRR has "continued to evolve and stay relevant in an ever-changing industry, for example by expanding its coverage to areas such as ESG reporting. Wolters Kluwer is seen by banks and regulators alike as a trusted technology partner." The Regulation Asia award was presented to Rainer Fuchsluger from Wolters Kluwer FRR, who is also this year’s recipient of APAC Insider’s RegTech Executive Leader of the Year, in the magazine’s South East Asia Awards. Formerly Managing Director of Wolters Kluwer FRR for APAC, Fuchsluger now has a global remit as Vice President, Strategic Planning &amp; Business Development for the company. Regulation Asia, founded in 2013, is a leading online publication, providing actionable regulatory intelligence for APAC markets. Its free-to-enter Awards for Excellence program recognizes companies that have shaped the regulatory landscape across APAC, providing independent verification of excellence and innovation. Story continues RegTech Insight is part of A-Team Insight and APAC Insider is part of international publishing house AI Global Media. Award programs run by RegTech Insight and APAC Insider are also entirely free to enter. Wolters Kluwer FRR, which is part of the company’s Governance, Risk &amp; Compliance (GRC) division, is a global market leader in the provision of integrated regulatory compliance and reporting solutions. It supports regulated financial institutions in meeting their obligations to external regulators and their own board of directors. The company’s OneSumX for Regulatory Reporting solution was named Regulatory Reporting System of the Year in Risk.net’s annual Technology Awards. Wolters Kluwer FRR is also this year’s winner of the Liquidity Risk category in the hotly contested Chartis RiskTech100® Rankings and was named Category Leader in the Chartis published "Regulatory Reporting Solutions, 2022: Market and Vendor Landscape" report. About Wolters Kluwer Wolters Kluwer (WKL) is a global leader in professional information, software solutions, and services for the healthcare; tax and accounting; governance, risk and compliance; and legal and regulatory sectors. We help our customers make critical decisions every day by providing expert solutions that combine deep domain knowledge with specialized technology and services. Wolters Kluwer reported 2021 annual revenues of €4.8 billion. The group serves customers in over 180 countries, maintains operations in over 40 countries, and employs approximately 19,800 people worldwide. The company is headquartered in Alphen aan den Rijn, the Netherlands. View source version on businesswire.com: https://www.businesswire.com/news/home/20221130005978/en/ Contacts Media Contact for Wolters Kluwer GRC (Including for Wolters Kluwer Finance, Risk &amp; Regulatory Reporting; Wolters Kluwer Compliance Solutions; Wolters Kluwer ELM Solutions, and Wolters Kluwer CT Corporation) Paul Lyon Senior Director, Global Corporate Communications: Global Marketing, Communications &amp; Planning Governance, Risk &amp; Compliance Division Wolters Kluwer Office +44 20 3197 6586 Paul.Lyon@wolterskluwer.com</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>By Nadia Lopez, CalMatters The California Air Resources Board unveiled a new version of its highly anticipated strategy for battling climate change on Nov. 16, setting more ambitious targets for cutting greenhouse gases and scaling up controversial projects that capture carbon. If adopted by the air board at its Dec. 15 meeting, the plan would radically reshape California’s economy, alter how Californians’ vehicles, buildings and appliances are powered, and ultimately serve as a blueprint for other states and countries to follow. “ The staff’s final draft plan adds bolder commitments, reducing oil use by 94% from 2022 levels by 2045 — up from a goal of 91% in the September version of the plan. I don’t want to say California isn’t doing anything on climate. But this is such a superficial exercise and it’s filled with so many faults and errors.” State officials phased out sales of new gas-powered cars by 2035, set a more stringent low-carbon fuel standard and streamlined siting and permitting of renewable energy projects. “ It’s a pretty aspirational document but it’s filled with bureaucratic doublespeak,” he said. “ The debate pits those who want to mandate an end to fossil fuels against those who want an approach that relies somewhat on technology to clean up carbon. Oil industry officials declined to comment on the plan Wednesday. We’ve squeezed out all of the emissions that we can under the inventory for manufacturing for transportation and for industry, but we know residual emissions will remain,” said Rajinder Sahota, the board’s deputy executive officer for climate change and research. “ Air board staff acknowledged these concerns, but Randolph, the board’s chair, said many of the greenhouse gas targets could not be achieved without them. In the 2017 version of their scoping plan, air board officials estimated about 38% of emissions reductions would come from cap and trade. Instead, it now would help “fill the gap” to meet the accelerated 2030 emissions target.</t>
+          <t>SINGAPORE, December 01, 2022--(BUSINESS WIRE)--Wolters Kluwer Finance, Risk &amp; Regulatory Reporting (FRR) has won a number of independent industry awards celebrating excellence and innovation in the Asia Pacific (APAC) region. Its free-to-enter Awards for Excellence program recognizes companies that have shaped the regulatory landscape across APAC, providing independent verification of excellence and innovation. Wolters Kluwer FRR, which is part of the company’s Governance, Risk &amp; Compliance (GRC) division, is a global market leader in the provision of integrated regulatory compliance and reporting solutions. Wolters Kluwer FRR is also this year’s winner of the Liquidity Risk category in the hotly contested Chartis RiskTech100® Rankings and was named Category Leader in the Chartis published "Regulatory Reporting Solutions, 2022: Market and Vendor Landscape" report. The company is headquartered in Alphen aan den Rijn, the Netherlands.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9998506307601929</v>
+        <v>0.9997188448905945</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Statement by President von der Leyen at the "Grain from Ukraine" - World - ReliefWeb</t>
+          <t>Bank of East Asia Unit Fined $2.6 Million for Violating Credit Information Rules - Caixin Global</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 20:46:31 GMT</t>
+          <t>Tue, 11 Jan 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Check against delivery" Thank you, dear Volodymyr, for convening us on this very important day. This meeting falls on the Holodomor memorial day – when 90 years ago, hunger was used as a weapon by the Soviet Union against the Ukrainian people. Today, Russia is again using food as a weapon. As part of its brutal aggression against Ukraine, Russia has destroyed your agricultural production, targeted your grain silos, and blockaded your ports. Thus Russia is depriving of vital access to food the most vulnerable countries in Africa, the Middle East and Asia. And then it uses disinformation to blame others for its despicable actions. We must continue to fight back against this. Your initiative "Grain from Ukraine", which has my full support, is crucial to our efforts. You are showing unwavering commitment to global food security, international responsibility and solidarity with those most in need. And we stand by your side. In Bali, G20 leaders called for global solidarity to fight hunger caused by Russia's war of aggression. We will not falter in our responsibilities and will continue to do everything we can on this front. The Solidarity Lanes established by the Commission and bordering Member States are a major success. Since May, they have enabled the export of more than 17 million tonnes of Ukrainian grain and food products. And they are the only option for the export of all other, non-agricultural Ukrainian goods to the rest of the world. The Solidarity Lanes have become a lifeline for Ukraine's economy, bringing more than 19 billion euros of much-needed income to Ukrainian farmers and businesses. The European Commission, together with Financial Institutions such as the EIB, the EBRD, and the World Bank, have now mobilised 1 billion euros of additional funding to boost the capacity of these Solidarity Lanes. And we welcome the extension of the Black Sea Grain Initiative for 120 days. Taken together, the EU Solidarity Lanes and the Black Sea Grain Initiative have allowed the export of more than 28 million tonnes of agricultural products to the world market, especially to the countries most in need. It is very important to signal to the world today that we will not let our most vulnerable partners down. This is why I am very pleased to announce the support of the European Commission to load two ships with grain. We will pay to transport 40,000 tons of grain which is the remainder of the grain that you have made available. Whatever the costs are. 90 years after the Holodomor, we honour the memory of Ukraine's victims. They died in silence, starving to death, and, at that time, the world did not rise to help them. We will not let this happen again. As we come together with Ukraine today to help avert hunger around the world, we also stand with Ukraine as it mourns the innocent victims of the Holodomor. And we will stand with Ukraine for as long as it takes. Slava Ukraini!</t>
+          <t>China’s central bank has fined a Chinese mainland subsidiary of The Bank of East Asia Ltd. (BEA) 16.74 million yuan ($2.6 million) for violations related to the collection and management of credit information. The decision to penalize The Bank of East Asia (China) Ltd. (BEA China) was made on Jan. 6, according to a notice released Monday by the Shanghai office of the People’s Bank of China (PBOC).</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>"Check against delivery" Thank you, dear Volodymyr, for convening us on this very important day. As part of its brutal aggression against Ukraine, Russia has destroyed your agricultural production, targeted your grain silos, and blockaded your ports. And then it uses disinformation to blame others for its despicable actions. We will not falter in our responsibilities and will continue to do everything we can on this front. Taken together, the EU Solidarity Lanes and the Black Sea Grain Initiative have allowed the export of more than 28 million tonnes of agricultural products to the world market, especially to the countries most in need.</t>
+          <t>China’s central bank has fined a Chinese mainland subsidiary of The Bank of East Asia Ltd. (BEA) 16.74 million yuan ($2.6 million) for violations related to the collection and management of credit information. The decision to penalize The Bank of East Asia (China) Ltd. (BEA China) was made on Jan. 6, according to a notice released Monday by the Shanghai office of the People’s Bank of China (PBOC).</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1644,58 +1668,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9831033945083618</v>
+        <v>0.6648867130279541</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Protesters chant 'Step down CCP' against China's zero-Covid policy - DTNEXT</t>
+          <t>China fines Bank of East Asia $2.6 mln for violating credit information rules - Nasdaq</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 04:45:48 GMT</t>
+          <t>Mon, 10 Jan 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SHANGHAI: Protests erupted in China's Shanghai on Saturday night against Beijing's strict Covid-19 policy. Several videos have emerged on social media which showcased people chanting slogans against restrictions imposed by the Chinese government to curb the spread of Covid. The protests erupted after 10 people died and nine others were injured in an apartment fire in Urumqi. Saturday saw protests erupt in Shanghai with people calling to relax Covid-19 curbs across the country. Expressing anger over the stringent Covid policy, Chinese citizens took to the streets in large numbers. According to a video posted by DW News East Asia Correspondent William Yang on Twitter, people at 'Urumqi Road' held a protest against Xi Jinping-led Chinese Communist Party (CCP), chanting slogans like "Step down the Communist Party" and " the Communist Party, Step down. Xi Jinping, step down." In a series of tweets regarding the protests in Shanghai, William Yang said that countless people gathered on Urumqi Road and chanted slogans, "I don't want PCR test, I want freedom." In another tweet, William Yang said, people in 'Urumqi Road' also called for ending the lockdown in Xinjiang. "Citizens chanting #Xinjiang, end lockdown, #Xinjiang, end lockdown," Yang wrote on Twitter. Continuing the thread, he said that a scuffle broke out between people and police at the site of a protest in Shanghai. In a tweet, William Yang said, "Police surrounded the last few dozens of protesters at the scene in Shanghai and some women were reportedly taken away." "Incredible footage from #China's #Shanghai, where countless people gathered at a road called "#Urumqi road," chanting the slogan "Step down, the Communist Party" very loudly," William Yang wrote on Twitter. Notably, the Chinese government has been adhering to strict COVID-19 policy in order to curb the spread of the virus ever since the pandemic emerged in China. The restrictions imposed by the Chinese government include strict lockdowns, travel restrictions and mass testing.</t>
+          <t>BEIJING, Jan 10 (Reuters) - China's central bank said on Monday it fined Hong Kong's Bank of East Asia 0023.HK 16.74 million yuan ($2.63 million) for violating rules on collecting credit information, a filing showed. The penalty, which was conducted on Jan. 6 but revealed on Monday, did not provide other details, the filing posted on the Shanghai office of the People's Bank of China (PBOC) showed. China's central bank finalised rules on the management of credit assessment in September, to prevent over-collection and misuse of credit information from individuals and businesses, and imposed requirements on agencies to ensure they protect personal information. The rules took effect from Jan. 1. ($1 = 6.3727 Chinese yuan renminbi) (Reporting by Cheng Leng, Zhang Yan and Ryan Woo; Editing by Louise Heavens) ((cheng.leng@thomsonreuters.com; +8610-5669-2129;)) The views and opinions expressed herein are the views and opinions of the author and do not necessarily reflect those of Nasdaq, Inc.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SHANGHAI: Protests erupted in China's Shanghai on Saturday night against Beijing's strict Covid-19 policy. According to a video posted by DW News East Asia Correspondent William Yang on Twitter, people at 'Urumqi Road' held a protest against Xi Jinping-led Chinese Communist Party (CCP), chanting slogans like "Step down the Communist Party" and " the Communist Party, Step down. In another tweet, William Yang said, people in 'Urumqi Road' also called for ending the lockdown in Xinjiang. "</t>
+          <t>BEIJING, Jan 10 (Reuters) - China's central bank said on Monday it fined Hong Kong's Bank of East Asia 0023.HK 16.74 million yuan ($2.63 million) for violating rules on collecting credit information, a filing showed. The penalty, which was conducted on Jan. 6 but revealed on Monday, did not provide other details, the filing posted on the Shanghai office of the People's Bank of China (PBOC) showed.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8473054766654968</v>
+        <v>0.9308136701583862</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>US Jobs Report Likely to Show Subtle Progress for Fed: Eco Week - Yahoo Finance</t>
+          <t>East West Bank CEO to focus on climate, tech in heading global trade council - American Banker</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 21:00:00 GMT</t>
+          <t>Tue, 29 Nov 2022 18:20:00 GMT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(Bloomberg) -- The latest reading of the US labor market on Friday is expected to show job growth on more of the downward glide path sought by Federal Reserve policy makers in their fight to beat back inflation. Most Read from Bloomberg Payrolls are projected to have risen about 200,000 in November, a second month of decelerating gains. Such growth, while moderating, is nonetheless consistent with solid hiring that will extend the Fed’s rate-hiking campaign into 2023. The report will be the last of its kind before the central bank’s final policy meeting of the year. Job openings data on Wednesday are seen illustrating a still-healthy appetite for labor. Later that day, at a Brookings Institution event, Fed Chair Jerome Powell will offer his assessment of the economy as investors seek clues about the peak in the benchmark interest rate. Read more: Most Fed Officials Seek to Slow Pace of Rate Hikes Soon The jobs report is also forecast to show moderating average hourly earnings growth. The Bloomberg survey median calls for a 4.6% annual increase, which would be the smallest since August 2021 and a step in the right direction for Fed policymakers. The unemployment rate probably held at 3.7%, just above a five-decade low. Among other key US data, the income and spending report on Thursday is forecast to indicate a softening in core inflation for October. While simmering down, the annual pace is still more than twice the central bank’s goal. For more, read Bloomberg Economics’ full Week Ahead for the US Other reports include a survey of manufacturing purchasing managers, weekly jobless claims, consumer confidence, and the Fed’s Beige Book of regional economic conditions across the country. Story continues What Bloomberg Economics Says: “Even though mid- to lower-income households have depleted excess savings built up during the pandemic, household balance sheets are still historically strong in aggregate. Many lower-income households are getting a boost from state and local government stimulus checks. Older Americans are about to get an 8.7% cost-of-living adjustment to their social-security payments. Residual savings from pandemic-era federal stimulus continue to keep household spending resilient.” --Anna Wong, Andrew Husby and Eliza Winger, economists. For full analysis, click here Elsewhere, the euro-zone may reveal another double-digit inflation reading -- the last such report before the European Central Bank’s December rate decision. Australian consumer prices are likely to increase again, and rate hikes are expected from Thailand to southern Africa. Click here for what happened last week and below is our wrap of what is coming up in the global economy. Asia Factory output figures from Japan and South Korea will give an indication of how slower global growth is weighing on production there, while export figures from Korea at the end of the week will offer the latest health check on the state of global demand. Japan’s labor market is likely to show continued tightness, though not enough to guarantee the wage gains Bank of Japan Governor Haruhiko Kuroda seeks for sustainable inflation. Capital spending data may show Japanese firms are still betting on a post-pandemic recovery rather than a looming recession. The numbers will feed into revised GDP figures the following week. Australia’s monthly inflation rate is expected to speed up, though quarterly figures will continue to hold more sway on policy making. The Reserve Bank of Australia’s Jonathan Kearns is set to speak on Wednesday, with Governor Philip Lowe giving remarks on Friday. China’s PMI reports on Wednesday will be closely watched as the resurgence in Covid cases, and lockdowns to contain the spread, hamper activity yet again. Data published Sunday showed profits at industrial firms in China continued to decline in the first 10 months of the year, weighed down by virus restrictions and falling factory-gate prices. Almost all economists reckon the Bank of Thailand will raise its key rate by a quarter point, returning the benchmark to the level it had before the pandemic. For more, read Bloomberg Economics’ full Week Ahead for Asia Europe, Middle East, Africa A pivotal week for euro-zone monetary policy will feature both key data and high-profile remarks from ECB officials. Most important is the inflation reading for November, due on Wednesday. Multiple officials have pointed to this as a significant input for their final decision of the year, on Dec. 15, both as an indicator of price pressures and as a data point to feed into their economic projections. While projected to slow for the first time this year, inflation probably held above 10% for a second month in November, economists say. Their median prediction is for an outcome of 10.4%, down from 10.6% in October. Inflation data from the region’s four biggest economies will also be released, with all but Spain predicted to show at least a slight a slowdown. ECB President Christine Lagarde testifies in the European Parliament on Monday, and will make an appearance in Thailand later in the week. Chief Economist Philip Lane delivers a speech in Florence on Thursday. A so-called non-monetary policy meeting of the Governing Council takes place Wednesday, the day of the inflation data. Inflation figures will also be released in Switzerland. While running less than a third of that in the neighboring euro region, the consumer-price report will take on added significance because it too is the final take before the Swiss National Bank’s rate decision on Dec. 15, the same day as the ECB. Swiss inflation probably held at 3% in November, the median of 14 forecasts shows. That would mark the sixth consecutive month where it has been at least a percentage point above the central bank’s 2% ceiling. Looking south, Ghana’s rate decision on Monday may be a close call. Inflation at 40% has yet to peak, producer prices are surging, and the cedi has depreciated by almost 28% against the dollar since last month’s 250 basis-point hike. At the same time, business sentiment has slumped. Rate setters in Lesotho and Namibia are expected to follow South Africa’s Reserve Bank and raise rates on Tuesday and Wednesday, respectively, to protect their currency pegs. Also on Wednesday, Mozambique’s central bank is set to keep borrowing costs unchanged. Policymakers in Botswana will probably do likewise on Thursday for a second straight meeting after a large cut in gasoline prices that may ease pressure on inflation. For more, read Bloomberg Economics’ full Week Ahead for EMEA Latin America October trade results kick off a busy week in Mexico, followed by unemployment, remittances, the year-to-date budget balance, manufacturing, and Banco de Mexico’s quarterly inflation report. The resilience of Latin America’s second-biggest economy in the second half of 2022 may see Banxico mark up its full-year output forecast, while the specter of recession in the US pushes the bank to cut its 2023 GDP forecast of 1.6%. After posting 11.7% growth in 2021 it’s all gone downhill for Chile: the economy shrank in July-September, will likely do so again in the fourth quarter, and the central bank is forecasting a negative print for 2023. Of the seven October economic indicators posted this week, expect some double-digit tumbles. Consumer prices in Peru’s capital of Lima appear to have peaked, but still-surging core inflation may cinch the case for a 17th straight rate hike at the central bank’s Dec. 7 meeting. Brazil’s broadest measure of inflation -- the IGP-M index -- is expected to have fallen for a fourth month in November. Third-quarter output figures from Brazil released on Thursday may represent a near-term high-water mark for Latin America’s biggest economy, with analysts forecasting a protracted bout of below-trend growth into 2024. For more, read Bloomberg Economics’ full Week Ahead for Latin America --With assistance from Malcolm Scott, Robert Jameson, Sylvia Westall and Monique Vanek. (Updates with China industrial profits in Asia section) Most Read from Bloomberg Businessweek ©2022 Bloomberg L.P.</t>
+          <t>East West Bank Chairman and CEO Dominic Ng is about to step into the spotlight of the global economic stage. Ng, who has led East West for 30 years , built it from a $600 million-asset company into a $62.6 billion stalwart that specializes in banking U.S. businesses that trade with Asian enterprises. The veteran banker will apply that experience to his new, one-year role as 2023 head of the Asia-Pacific Economic Cooperation's Business Advisory Council. APEC is a regional economic forum established in 1989 to promote economic integration and shared prosperity across 21 nations that border the Pacific Ocean, from North America to China to Australia. Collectively, these countries make up nearly 40% of the world's population and more than 60% of global economic activity. The United States will host APEC's meetings next year. Throughout the process, Ng will lead the advisory council, providing world leaders from U.S. President Biden to Chinese President Xi Jinping — heads of the two largest economies on the globe — with policy advice on everything from trade transparency to sustainable economic growth . Ng said in an interview that, inevitably, the council's policy priorities will center on climate change and ways to foster economic vibrancy while combating pollution and other known contributors to global warming. "We have always helped U.S. businesses connect to Asia, including China, and vice versa," said East West Bank Chairman and CEO Dominic Ng. "The way we are living is not sustainable; we have to change," Ng said from East West's headquarters in Pasadena, California. "We don't want to build the economy by damaging the environment further … the U.S. and China need to be the leaders." As the chief executive of East West, which has branches in both countries , Ng said he brings a deep understanding of both U.S. and Chinese policies to the table. He hopes to guide discussions over the coming year and develop recommendations to slow climate change when APEC culminates its U.S. gatherings in San Francisco next November. "We know Asia quite well," Ng said. "We have always helped U.S. businesses connect to Asia, including China, and vice versa." Any proposed strategies would extend well into the next decade, Ng said. "It's really a long haul," he said. Efforts will span everything from human rights to inclusive workforces that encourage diversity and fortify the strength of economies, Ng said. But perhaps the biggest challenge is climate change — and identifying ways that countries across the Asia-Pacific can find common ground to blunt its impacts. "The good news is that the technology is already here," Ng said. The council is likely to focus in large part on ways that some countries are using technology to reduce carbon emissions and minimize damage to the environment, he said. The goal is to demonstrate the effectiveness of renewable energy sources such as wind and solar, for example, then develop financial incentives for APEC member countries to emulate each other's successes. Ng noted that China reduced emissions by developing and operating a vast network of electric-powered, high-speed railways. China's rapid rail expansion over the past decade at first added pollution, because much of the country relies on coal to generate electricity. However, the rail system created new capacity for freight on conventional trains, ultimately pulling gas-burning trucks off highways and reducing overall greenhouse gas emissions, according to Chinese studies. More progress lies ahead if China can follow the lead of the U.S. and others by using cleaner power sources for electricity than coal. Ng also noted that wealthy nations throughout the Asia-Pacific are promoting the development of electric vehicles. Some, including the U.S. and China, are studying ways to perfect and expand the development of plant-based meat alternatives. This could lower methane emissions from cattle and dramatically reduce physical footprints needed to raise livestock. "We already have proven paths," he said. The 2022 APEC meetings wrapped up this month in Bangkok. Host country Thailand brokered support among member countries to condemn Russia's war in Ukraine while also broadly committing to sustainable economic growth, opening the door for Ng's ambitions in 2023. U.S. Vice President Kamala Harris and China's Xi met at the final APEC summit of the year and agreed to keep open lines of communication. Biden and Xi had met earlier this fall, and Xi said he viewed the talks as an important step toward a "next stage" in the two countries' relations, according to a Chinese government summary provided to the Associated Press. It marked a small but notable shift in tone from the Chinese leader following several years of fraying relations with the U.S. Ng said China's government and businesses, while often not on the same geopolitical page as the West, want to maintain trade and, over the coming decades, contribute to new practices needed to slow climate change and grow their economies.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(Bloomberg) -- The latest reading of the US labor market on Friday is expected to show job growth on more of the downward glide path sought by Federal Reserve policy makers in their fight to beat back inflation. Most Read from Bloomberg Payrolls are projected to have risen about 200,000 in November, a second month of decelerating gains. Many lower-income households are getting a boost from state and local government stimulus checks. Older Americans are about to get an 8.7% cost-of-living adjustment to their social-security payments. Australian consumer prices are likely to increase again, and rate hikes are expected from Thailand to southern Africa. The numbers will feed into revised GDP figures the following week. The Reserve Bank of Australia’s Jonathan Kearns is set to speak on Wednesday, with Governor Philip Lowe giving remarks on Friday. Their median prediction is for an outcome of 10.4%, down from 10.6% in October. A so-called non-monetary policy meeting of the Governing Council takes place Wednesday, the day of the inflation data. For more, read Bloomberg Economics’ full Week Ahead for EMEA Latin America October trade results kick off a busy week in Mexico, followed by unemployment, remittances, the year-to-date budget balance, manufacturing, and Banco de Mexico’s quarterly inflation report. Consumer prices in Peru’s capital of Lima appear to have peaked, but still-surging core inflation may cinch the case for a 17th straight rate hike at the central bank’s Dec. 7 meeting.</t>
+          <t>East West Bank Chairman and CEO Dominic Ng is about to step into the spotlight of the global economic stage. Throughout the process, Ng will lead the advisory council, providing world leaders from U.S. President Biden to Chinese President Xi Jinping — heads of the two largest economies on the globe — with policy advice on everything from trade transparency to sustainable economic growth . We don't want to build the economy by damaging the environment further … the U.S. and China need to be the leaders." As the chief executive of East West, which has branches in both countries , Ng said he brings a deep understanding of both U.S. and Chinese policies to the table. But perhaps the biggest challenge is climate change — and identifying ways that countries across the Asia-Pacific can find common ground to blunt its impacts. " Ng also noted that wealthy nations throughout the Asia-Pacific are promoting the development of electric vehicles.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1704,28 +1728,28 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.7350615262985229</v>
+        <v>0.9959657192230225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The Upcoming Recession and its Ramifications on the World Economies - Modern Diplomacy</t>
+          <t>Bank of East Asia Exec Detained in China for Taking Bribes - Regulation Asia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 04:46:43 GMT</t>
+          <t>Tue, 20 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The recent decision of the new head of Twitter, Elon Musk, to sack approximately 50 percent of the workforce is only indicative of the recession that is glooming over the world. The story of Twitter is just one example among many visible ones. Almost all the major firms around the globe have or are planning to lay off employees, including Microsoft, Meta, Tencent, Xiaomi, Unacademy, etc. According to a comprehensive study titled ‘Risk of Global Recession in 2023 Rises Amid Simultaneous Rate Hikes’ by the World Bank, all the nation-states are tilting towards a cascade of economic crises in global financial markets and emerging economies, leading to long-term damages. The report blames central banks around the globe for raising interest rates to tackle inflation caused due to the Coronavirus pandemic and Russia’s aggression on Ukraine in the European arena. The report states that even raising the interest rates to an unprecedented high not seen over the past five decades will be insufficient to pull global inflation down to the pre-pandemic levels. It further instils the need to focus on supply disruptions and subside labour-market pressures. The President of the World Bank Group, David Malpass urged policymakers to focus on boosting production instead of cutting consumption and make policies that generate auxiliary investments, improving productivity and capital allocation, which are crucial for growth. Economics 101: Recession Amidst the pandemic, many states released relief and stimulus packages that heavily leaned on measures to expand liquidity, such as loosening lending restrictions or reducing repo rates (the rate at which commercial banks borrow money from the central bank) as well as reverse repo rates (the rate at which commercial banks lend money to the central bank). China was the first state to act upon these stimulus measures to counteract the disruptions caused by the covid, followed by Japan, the EU, Germany, India and so on. Though the measures helped economies absorb the pandemic’s impact, one major drawback was increased demand due to induced money flow in the market, leading to inflation. Inflation, defined as the rate of increase in prices of general goods and commodities in a given period of time, can be caused by multiple factors. A shortfall in aggregate supply, one of the most common factors, can lead to excessive demand pressures in the market. To curb inflation, central banks often tweak or change the fiscal and monetary policies of the nation. Increasing the interest rates is one such measure, as it tightens the economy’s banking system and thus contracts the flow of money, reducing already high demands. However, suppose only the rates are increased without substantial reforms in line with resetting the supply chains, increasing production and overall growth to meet the demand; in that case, a country may move towards a recessionary period. Therefore, alongside rising rates, a nation must diversify its suppliers, invest in technology (without increasing the debt burden), and focus on self-reliance while sustaining employment. The International Monetary Fund (IMF) defines recession practically as the fall in a country’s Gross Domestic Product (GDP), i.e. a decline in the value of all the produced goods and services in a country for two consecutive quarters. Simply, a recession is a period of massive economic slowdown. Pointing at a specific moment when a recession occurs is almost impossible and futile. However, a few indicators, like the downfall of GDP and public spending, increased unemployment, and a decline in sales and a country’s output, generally point towards an upcoming recession. To sum up, there are various ways for a recession to start, from sudden shocks to the economy and excessive debt to uncontrolled inflation (or deflation) and non-performing asset bubbles. The Stumbling Economies According to IMF Managing Director Kristalina Georgieva, “First, Covid, then Russia’s invasion of Ukraine and climate disasters on all continents have inflicted immeasurable harm on people’s lives.” One-third of the world economies, including the United States, Europe and China, are expected to contract in the subsequent quarters. For US economists and forecasters, the recession is no longer about ‘if’ but ‘when’. The decision of the Fed (US Central Bank) to increase rates to cool inflation without inducing higher unemployment and an economic downturn has only shrunk the possibility of a ‘soft landing,’ which occurs when the tightened monetary policies of the Fed reduce inflation without causing a recession. Nouriel Roubini, one of the few economists who rightly predicted the financial crisis of 2008, also claims a prolonged and inevitable recession in 2022 that will last till 2023. Economists expect a growth rate of 0.4 percent in the fourth quarter of 2023 as opposed to the fourth quarter of the previous year, and in 2024, they expect the economy to grow at 1.8 percent. The rate of unemployment is expected to rise to 3.7 percent in December this year and to 4.3 percent in June 2023, compared to 3.5 percent in September. Like the US, Europe was also under the impression that the economic situation would improve without a recession. Assumptions of subsiding or transitory inflation due to solid businesses, enough public savings and adequate fiscal adjustments turned out wrong for the European economies. The Euro area (5.1 percent), and the UK (6.8 percent), are among the countries with the most expected output loss. Europe has mainly been affected by the Russian war on Ukraine and the resulting oil and gas disruptions leading to an ‘Energy War’ against the former. Similarly, China doesn’t lie far from them, with an expected output loss of 5.7 percent in 2023. Zero Covid Policy, coupled with the mortgage crisis and exodus in the manufacturing sector, has led to the economic slowdown of the Asian giant. Impact on the Indian Economy India reported a growth of 13.5 percent in the April to June quarter and became the world’s fifth-biggest economy, taking the spot of Great Britain. However, this growth results from the nation’s shutdown amid Delta-driven covid lockdowns during previous quarters and not because of the significant improvements in the economic activities. India needs to focus on skill-based human development projects to unleash its economic potential and effectively utilise its demographic dividend. However, India is not immune to the global slowdown. It is expected to face an output loss of 7.8 percent in 2023. Indian CEOs are also expecting a decline in the growth of companies, but the economy is expected to bounce back in the short term, according to KPMG 2022 report. Moreover, 86 percent of CEOs in India expect an impact of up to 10 percent on earnings in the next 12 months. Reducing profit margins, boosting productivity, diversifying supply chains, and implementing a hiring freeze (worst case, layoff policies) are a few steps firms can take to weather such challenges. India, thus, needs to tap the potential of start-ups and small enterprises, as opposed to just established firms, by expanding and enhancing the private sector’s access to capital investments and curbing environment-related risks. Reforms in dispute resolution mechanisms are also long overdue, evident through the Ease of Doing Business report, where India ranked 63rd out of 190 countries worldwide. India needs to prove its worth by showing investors that not only can their money achieve decent returns, but it is safe in Indian soil as well. The stand on India’s future remains split. The global rating agency S&amp;P claims that India will not face the true and horrifying brunt of the global recession thanks to its decoupled economy with huge domestic demand, healthy balance sheets and enough foreign exchange reserves. On the contrary, according to the Japanese brokerage firm- Nomura, policymakers are misplaced in their optimism about India’s growth trajectory. Its economists assert India’s estimated growth at 7 percent in FY23, which is at par with the RBI’s revised forecasts, but it also predicts a sharp decline to 5.2 percent in FY24. This estimated growth doesn’t align with India’s commitment to becoming a 5 Trillion USD economy. Way Forward UNCLAD’s Trade and Development Report 2022 projects global economic growth will plunge down to 2.5 percent in 2022, followed by a drop to 2.2 percent in 2023, costing the world a loss of more than 17 trillion USD in productivity. It further warns that the developing nations will be most vulnerable to the slowdown resulting in a cascade of health, debt and climate crises. Regarding the proportion of revenue to public debt, Somalia, Sri Lanka, Angola, Gabon, and Laos are the worst-hit countries, evident through the excessive inflation these states face. Similarly, Indian fuel and food commodities prices have increased, but India’s sturdy performance when other countries are struggling can be attributed to its efficient policies. India does not have a perpetual external debt burden to hamper its growth. In addition, the government has focussed on developing the industrial and service sector to promote jobs and increase savings, especially after the Pandemic, to revitalise the Indian economy. Domestically, the government has provided effective social safety nets to ensure healthy livelihood for the population. Despite these factors, India must realize and accept the harsh reality of the upcoming turbulent times. India may have a decoupled economy, but the world is one interlinked system. Global slowdowns will lead to a recession in India as well, whose effects are becoming more and more visible with each passing day. Major tech firms in India like Wipro, Tech Mahindra and Infosys have revoked their offer letters to young freshers, while others have started laying off employees amidst the fear of global recession. Irrespective of whether India becomes the “fastest growing economy” in the end, even a modest growth rate of about 5 percent will push millions into poverty in a country like India. It’s only imperative to realise that a depreciating currency and elevated inflation will hit the poorest the hardest, and India must be prepared to deal with this challenge.</t>
+          <t>Get access today Sign up for a free 2-week trial and get instant, unrestricted and unlimited access to Regulation Asia. FREE TRIAL Already taken your free trial? Get in touch with our team and enquire about a subscription today. Select subscribe below to view our subscription packages or you can email us at [email protected] to discuss your options. Subscribe</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The recent decision of the new head of Twitter, Elon Musk, to sack approximately 50 percent of the workforce is only indicative of the recession that is glooming over the world. The story of Twitter is just one example among many visible ones. The report blames central banks around the globe for raising interest rates to tackle inflation caused due to the Coronavirus pandemic and Russia’s aggression on Ukraine in the European arena. It further instils the need to focus on supply disruptions and subside labour-market pressures. However, suppose only the rates are increased without substantial reforms in line with resetting the supply chains, increasing production and overall growth to meet the demand; in that case, a country may move towards a recessionary period. Simply, a recession is a period of massive economic slowdown. Economists expect a growth rate of 0.4 percent in the fourth quarter of 2023 as opposed to the fourth quarter of the previous year, and in 2024, they expect the economy to grow at 1.8 percent. Like the US, Europe was also under the impression that the economic situation would improve without a recession. India needs to focus on skill-based human development projects to unleash its economic potential and effectively utilise its demographic dividend. Reforms in dispute resolution mechanisms are also long overdue, evident through the Ease of Doing Business report, where India ranked 63rd out of 190 countries worldwide. Way Forward UNCLAD’s Trade and Development Report 2022 projects global economic growth will plunge down to 2.5 percent in 2022, followed by a drop to 2.2 percent in 2023, costing the world a loss of more than 17 trillion USD in productivity. In addition, the government has focussed on developing the industrial and service sector to promote jobs and increase savings, especially after the Pandemic, to revitalise the Indian economy. Despite these factors, India must realize and accept the harsh reality of the upcoming turbulent times.</t>
+          <t>Get access today Sign up for a free 2-week trial and get instant, unrestricted and unlimited access to Regulation Asia. Get in touch with our team and enquire about a subscription today.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1734,72 +1758,88 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.6595519781112671</v>
+        <v>0.9999946355819702</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Let’s celebrate another peaceful transfer of power | Free Malaysia Today - Free Malaysia Today</t>
+          <t>StanChart sees Asia, Middle East as bright spots in weak global economy - Yahoo Finance</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 23:00:53 GMT</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>Mon, 21 Nov 2022 08:15:54 GMT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The Standard Chartered bank logo is seen at their headquarters in London By Anshuman Daga SINGAPORE (Reuters) - Standard Chartered expects Asia and the Middle East to outperform other regions even as spiralling inflation and a spike in borrowing costs risk tipping major global economies into a recession next year, a senior executive at the bank said. The London-headquartered lender has been beefing up its transaction banking and financial markets businesses, betting the two regions will still see economic growth while many Western countries face contraction, said Simon Cooper, StanChart's CEO of corporate, commercial and institutional banking business. "I don't see recession as a big risk in this part of the world. In Asia and the Middle East, I see economies doing well," said Cooper, 55, who is widely seen by the investment community as a potential successor to CEO Bill Winters. StanChart, which operates in 59 countries with a focus on Asia, Middle East and Africa, is seeing its European and U.S. clients move more business to low-cost Asia. "In the aftermath of COVID, we've seen the shift to Southeast Asia and neighbouring countries from a manufacturing perspective. That's continued and if anything, accelerated," Singapore-based Cooper told Reuters in an interview. He said markets are looking to see the timeline for China moving out of its zero-COVID policy. StanChart, which earns most of its revenue in Asia, reported a 40% rise in pretax profit in the third quarter and raised its income growth forecast for the year as rising rates boost its mainstay lending business. Cooper also highlighted India as a big beneficiary of supply chain shifts and strong economic growth. "India is probably at the sweetest spot it has been in quite a while. People are starting to see it as a real opportunity," he said. Cooper, who previously spent more than two decades at HSBC, heads the division that contributed about three-fourths of StanChart's pretax profit in the nine months to September. Story continues StanChart's focus on growth markets and its ability to better withstand the economic downtown come at a time when some global banks have flagged plans to cut jobs as they hunker down for a recession and are impacted by their weak investment banking business. Income at StanChart's financial markets business surged 17% to a record in the latest quarter. "We've now got a much more balanced financial markets business than we had before, from macro trading to foreign exchange to global credit markets," said Cooper. "We've seen net client income grow double digits this year," said Cooper, who is also the CEO of StanChart's Europe &amp; Americas business. (Reporting by Anshuman Daga; Editing by Muralikumar Anantharaman)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>The Standard Chartered bank logo is seen at their headquarters in London By Anshuman Daga SINGAPORE (Reuters) - Standard Chartered expects Asia and the Middle East to outperform other regions even as spiralling inflation and a spike in borrowing costs risk tipping major global economies into a recession next year, a senior executive at the bank said. In Asia and the Middle East, I see economies doing well," said Cooper, 55, who is widely seen by the investment community as a potential successor to CEO Bill Winters. India is probably at the sweetest spot it has been in quite a while. Reporting by Anshuman Daga; Editing by Muralikumar Anantharaman)</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9999980926513672</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>No need for 'rebirth', says Costa Rica's coach after Spain humiliation - Free Malaysia Today</t>
+          <t>Singapore-headquartered AI credit modelling FinTech finbots.ai secures a digital bank client in Asia - PR Newswire APAC - PR Newswire Asia</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 22:51:48 GMT</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>Wed, 30 Nov 2022 00:30:00 GMT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>finbots.ai's AI credit modelling solution will enable M bank, Mongolia's first Neobank to build a high growth, robust and agile digital lending business SINGAPORE, Nov. 30, 2022 /PRNewswire/ -- Accel-backed finbots.ai, a Singapore-headquartered Business-to-Business (B2B) Software as a Service (SaaS) FinTech has announced signing M bank as its first client in Mongolia. M bank is Mongolia's first Neobank. MCS Holding is a major shareholder of M bank and one of the largest conglomerates in Mongolia with an aim to provide a holistic suite of digital financial services. finbots.ai's Artificial Intelligence (AI) credit modelling solution, finbots creditX, will enable M bank to rapidly develop and deploy high accuracy Application and Behaviour Scorecards with superior predictive power and stability. This will help M bank accelerate new customer acquisition as well as effectively manage the risk levels of existing customers. A report by The Global Findex Database[1] showed that 93 per cent of adults in Mongolia already have bank accounts, hence the smarter and inclusive credit models developed by M bank using finbots.ai's platform, will empower M bank to better penetrate its core target audience which include Millennials and Gen-Zs. Further, this will also help M bank overcome limitations faced with legacy credit modelling methods in quickly recalibrating credit models in line with rapid market developments. finbots creditX will allow M bank to recalibrate existing models or develop and deploy new credit models within hours, a process that used to take M bank three to six months previously. Commenting on their first Neobank client, Sanjay Uppal, Founder and CEO of finbots.ai said, "We see enormous potential in emerging markets like Mongolia for democratising access to quality credit. We are excited to embark on our journey here with a progressive Neobank like M bank. This client win is a further testament of capability of our solution to empower lenders of all types - tradition and digital - across diverse markets, for smarter, faster and inclusive lending." This deal with M bank follows finbots.ai's recent announcement of signing their first client in Indonesia. Soronzonbold Lkhagvasuren, CEO of M bank commented, "We are delighted to work alongside finbots.ai who share the same vision as us in striving for financial inclusion. finbots.ai provides a robust AI-powered solution that can be easily deployed and it further enables us to reach an audience segment and improve profitability of our lending business." finbots.ai was recently recognised as one of Singapore's Top 10 FinTechs by the Monetary Authority of Singapore (MAS) at the SFF Global Fintech Awards 2022. About finbots.ai finbots.ai is an Accel Portfolio Series A FinTech company with a mission to empower lenders to make smarter, faster, and inclusive credit decisions using AI. finbots creditX, a B2B SaaS AI-powered credit modelling solution, helps lenders build, validate and deploy high performance credit models across the full credit lifecycle of Application, Behaviour and Collection. creditX is used by lenders across 4 regions, specifically Africa, Middle East, North Asia and Southeast Asia, and by the full spectrum of lending companies, including digital banks, SME lenders, consumer lenders and Credit Bureaus. finbots.ai has been recognised among 'Top 10 FinTechs in Singapore' at the Monetary Authority of Singapore (MAS) FinTech Awards 2022, and a Finalist at MEED's SME Awards 2022 for the category 'Gulf Capital Fintech Solution of the Year'. The FinTech is also part of PwC's Partner Programme and a Featured Partner for Tata Consultancy Services. finbots.ai is headquartered in Singapore and has offices in India (Hyderabad), the United Arab Emirates (Dubai), Indonesia (Jakarta) and Philippines (Manila). For more information on finbots.ai, click here: https://www.finbots.ai/.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>finbots.ai's AI credit modelling solution will enable M bank, Mongolia's first Neobank to build a high growth, robust and agile digital lending business SINGAPORE, Nov. 30, 2022 /PRNewswire/ -- Accel-backed finbots.ai, a Singapore-headquartered Business-to-Business (B2B) Software as a Service (SaaS) FinTech has announced signing M bank as its first client in Mongolia. A report by The Global Findex Database[1] showed that 93 per cent of adults in Mongolia already have bank accounts, hence the smarter and inclusive credit models developed by M bank using finbots.ai's platform, will empower M bank to better penetrate its core target audience which include Millennials and Gen-Zs. This client win is a further testament of capability of our solution to empower lenders of all types - tradition and digital - across diverse markets, for smarter, faster and inclusive lending." finbots.ai has been recognised among 'Top 10 FinTechs in Singapore' at the Monetary Authority of Singapore (MAS) FinTech Awards 2022, and a Finalist at MEED's SME Awards 2022 for the category 'Gulf Capital Fintech Solution of the Year'. For more information on finbots.ai, click here: https://www.finbots.ai/.</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9988903403282166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Retiree's Dividend Portfolio - Jane's October Update - Seeking Alpha</t>
+          <t>Unmasked by Qatar World Cup, China’s Nationalism Is Transforming Itself to Internationalism - Modern Diplomacy</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 14:00:00 GMT</t>
+          <t>Wed, 30 Nov 2022 12:20:29 GMT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hiraman/E+ via Getty Images Background For those interested in John and Jane's full background, please click the following link here for the last time I published their full story. The details below are updated for 2022. This is a real portfolio with actual shares being traded. I am not a financial advisor and merely provide guidance based on a relationship that goes back several years. John retired in January 2018 and now only collects Social Security income as his regular source of income. Jane officially retired at the beginning of 2021, and she is collecting Social Security as her only regular source of income. John and Jane have decided to start taking draws from the Taxable Account and John's Traditional IRA to the tune of $1,000/month each. These draws are currently covered in full by the dividends generated in each account. John and Jane have other investments outside of what I manage. These investments primarily consist of minimal-risk bonds and low-yield certificates. John and Jane have no debt and no monthly payments other than basic recurring bills such as water, power, property taxes, etc. I started helping John and Jane with their retirement accounts because I was infuriated by the fees their previous financial advisor was charging them. I do not charge John and Jane for anything that I do, and all I have asked of them is that they allow me to write about their portfolio anonymously in order to help spread knowledge and to make me a better investor in the process. Generating a stable and growing dividend income is the primary focus of this portfolio, and capital appreciation is the least important characteristic. Providing John and Jane with as much certainty in their retirement remains the primary objective. Dividend Decreases No stocks in Jane's Traditional or Roth IRA paid a decreased dividend during the month of October. Dividend And Distribution Increases American Tower (AMT) Avient (AVNT) Altria (MO) Realty Income (O) OGE Energy (OGE) Philip Morris (PM) W.P. Carey (WPC) MO, O, and WPC were covered in the Taxable Account update so I will only include information about the dividend increases. Those interested in reading the summary of these three companies can check the link included at the end of the article. American Tower AMT is a compelling investment, especially when the share price recently touched off of its 52-week-low. Trading to AMT has been quite a bit more active as we set limit trades to sell some of the higher-cost shares and use the excess cash on hand to accumulate stock when the share price is under $200/share. We are looking to set a limit trade for another five shares at $225/share because this will drop the total cost basis significantly. AMT has stronger growth prospects and its dividend has better long-term payout coverage due to a low payout ratio. At its current price, the stock is fairly valued so investors might want to hold for another pullback before adding to or building a position. AMT - FastGraphs 2022-11 (FastGraphs) The dividend was increased from $1.43/share per quarter to $1.47/share per quarter. This represents an increase of 2.8% and a new full-year payout of $5.88/share compared with the previous $5.72/share. This results in a current yield of 2.64% based on the current share price of $215.93. Avient AVNT announced a major setback in Q3-2022 figures and slashed FY-2022 guidance from $3.50/share down to $2.70/share. These figures were primarily setback by "economic weakness in Europe and COVID-19 lockdowns in Asia" along with future concerns about rising interest rates in the United States and reduced consumer demand. Borrowers looking at a long-term horizon will want to consider adding at the current price because these setbacks are likely to be temporary. We recently added this position to Jane's Traditional IRA and also to my wife's retirement account. For those looking for more on AVNT you can read my previous article Avient: 4 Reasons Why It Belongs In Your Portfolio. AVNT - FastGraphs - 2022-11 (FastGraphs) The dividend was increased from $.2375share per quarter to $.2475/share per quarter. This represents an increase of 4.2% and a new full-year payout of $.99/share compared with the previous $.95/share. This results in a current yield of 3.04% based on the current share price of $32.54. Altria The dividend was increased from $.90/share per quarter to $.94/share per quarter. This represents an increase of 4.4% and a new full-year payout of $3.76/share compared with the previous $3.60/share. This results in a current yield of 8.63% based on the current share price of $44.20. Realty Income The dividend was increased from $.2475/share per month to $.2480/share per quarter. This represents an increase of .2% and a new full-year payout of $2.976/share compared with the previous $2.97/share. This results in a current yield of 4.60% based on the current share price of $64.70. OGE Energy OGE is an interesting utility that has made a significant transition to being a pure-play electrical utility by selling off its ownership in natural gas assets that had significant volatility depending on market conditions. Enable Midstream, which was acquired by Energy Transfer (ET) was responsible for significant swings in the company's earnings report depending on the price of oil and natural gas. At its current price, OGE appears to be fully valued and this is largely because there are no identifiable growth drivers in the short term. OGE has minimal exposure to floating-rate debt ($200 million) and there are no fixed-rate maturities until 2027. Now that OGE is a pure-play utility we are likely to see a dividend yield slightly lower than its historical yield but also more stable and range bound. OGE - Dividend Yield - 2022-11 (Seeking Alpha) The dividend was increased from $.41/share per quarter to $.4141/share per quarter. This represents an increase of 1% and a new full-year payout of $1.66/share compared with the previous $1.64/share. This results in a current yield of 4.19% based on the current share price of $39.24. Philip Morris PM's stock price has touched on its 52-week-lows as concerns about the Swedish Match (OTCPK:SWMAY) merger came into question with PM needing to raise its bid to complete the transaction. On October 24th it was noted that EU regulators planned to give the transaction a green light and its stock price moved up swiftly. We like accumulating shares in the low $90/share range and cutting back on our higher cost shares when they reach triple digits. We have a limit trade to sell 25 shares at $100. Data by YCharts The dividend was increased from $1.25/share per quarter to $1.27/share per quarter. This represents an increase of 1.6% and a new full-year payout of $5.08/share compared with the previous $5.00/share. This results in a current yield of 5.18% based on the current share price of $98.11. W.P. Carey The dividend was increased from $1.059/share per quarter to $1.061/share per quarter. This represents an increase of .2% and a new full-year payout of $.4.244/share compared with the previous $4.236/share. This results in a current yield of 5.33% based on the current share price of $79.66. Retirement Account Positions There are currently 38 different positions in Jane's Traditional IRA and 21 different positions in Jane's Roth IRA. While this may seem like a lot, it is important to remember that many of these stocks cross over in both accounts and are also held in the Taxable Portfolio. Below is a list of the trades that took place in the Traditional IRA during the month of October. Traditional IRA - 10-2022 - Trades (Charles Schwab) Below is a list of the trades that took place in the Roth IRA during the month of October. Roth IRA - 10-2022 - Trades (Charles Schwab) For a more detailed discussion about these trades and the rationale behind them please see my most recent articles on Recent Purchases and Limit Trades. The Retirees Dividend Portfolio - Account Transactions Through October 31st The month of October was a heavy month for deployment of funds which makes sense because many of these stocks saw their share price drop anywhere from 25-40%. October Income Tracker - 2021 Vs. 2022 Income for the month of October was up slightly year-over-year for Jane's Traditional IRA and basically flat for her Roth IRA. The average monthly income for the Traditional IRA in 2022 (compared to 2021) is expected to be up about 14.0% based on current estimates (roughly half of this increase is due to LYB's special dividend) and the Roth IRA is looking to grow by 10.1% for the same timeframe. This means the Traditional IRA would generate an average monthly income of $1,580.04/month and the Roth IRA would generate an average income of $652.63/month. This compares with 2021 figures that were $1,386.13/month and $592.61/month, respectively. SNLH = Stocks No Longer Held - Dividends in this row represent the dividends collected on stocks that are no longer held in that portfolio. We still count the dividend income that comes from stocks no longer held in the portfolio even though it is non-recurring. All images below come from Consistent Dividend Investor, LLC. (Abbreviated to CDI). Traditional IRA - 2021 V 2022 - October Dividends (CDI) Roth IRA - 2021 V 2022 - October Dividends (CDI) Here is a graphical illustration of the dividends received on a monthly basis for the Traditional and Roth IRAs. Retirement Projections - 2022 - October - Monthly Dividends (Bar Graph) (CDI) The table below represents the actual full-year results for 2022 and the prior year. Retirement Projections - 2022 - October (CDI) Below is an expanded table that shows the full dividend history since inception for both the Traditional IRA and Roth IRA. Retirement Projections - 2022 - October - 5 YR History (CDI) I have included line graphs that better represent the trends associated with Jane's monthly dividend income generated by her retirement accounts. The images below represent the Traditional IRA and Roth IRA, respectively. Retirement Projections - 2022 - October - Monthly Dividends (CDI) Here is a table to show how the account balances stack up year over year (I previously used a graph but believe the table is more informative). It is worth noting that with John and Jane Retired, there will be no additional contributions to these accounts. In fact, they have already begun to take regular distributions from the Taxable Account and John's Traditional IRA. Retirement Account Balances - 2022 - October (CDI) The next images are the tables that indicate how much cash Jane had in her Traditional and Roth IRA Accounts at the end of the month as indicated on their Charles Schwab statements. Retirement Projections - 2022 -October - Cash Balances (CDI) The next image provides a history of the unrealized gain/loss at the end of each month in the Traditional and Roth IRAs going back to the beginning in January of 2018. Retirement Projections - 2022 - October - Unrealized Gain-Loss (CDI) I like to show readers the actual unrealized gain/loss associated with each position in the portfolio because it is important to consider that in order to become a proper dividend investor, it is necessary to learn how to live with volatility. The market value and cost basis below are accurate at the market close on October 20th. Here is the unrealized gain/loss associated with Jane's Traditional and Roth IRAs. Traditional IRA - 2022 - October - Gain-Loss (CDI) Roth IRA - 2022 - October - Gain-Loss (CDI) The last two graphs show how dividend income has increased, stayed the same, or decreased in each respective month on an annualized basis. I believe that the graph will continue to become more valuable as more years of data become available (with the fifth year of data being added, we can really see the trajectory of the income change for each month). Traditional IRA - 2022 - October - Monthly Year-Over-Year Comparison (CDI) Roth IRA - 2022 - October - Monthly Year-Over-Year Comparison (CDI) Conclusion With October in the books we can say confidently that the amount of trading activity will be significantly less in the month of November since prices have rebounded significantly. October trades show a significant capital deployment in both retirement accounts. We have set a number of limit trades to pare back the high-cost portion of positions in American Tower (AMT), Main Street Capital (MAIN), and Philip Morris (PM). October Articles I have provided the link to the October 2022 Taxable Account below. The Retirees' Dividend Portfolio: John And Jane's October Taxable Account Update In Jane's Traditional and Roth IRAs, she is currently long the following mentioned in this article: AbbVie (ABBV), Agree Realty (ADC), Agree Realty Preferred Series A (ADC.PA), Archer-Daniels-Midland (ADM), Broadcom (AVGO), Avient (AVNT), Broadcom Preferred Series A (AVGOP), Bank of America (BAC), BlackRock Health Sciences Trust (BME), Bank of Montreal (BMO), Bank of Nova Scotia (BNS), BP (BP), British American Tobacco (BTI), Canadian Imperial Bank of Commerce (CM), Cummins (CMI), Concentrix (CNXC), Digital Realty (DLR), Eaton Vance Floating-Rate Advantage Fund A (EAFAX), Enbridge (ENB), EPR Properties Preferred Series E (EPR.PE), Eaton Corporation (ETN), Emera Inc. (OTCPK:EMRAF), East West Bancorp (EWBC), General Mills (GIS), GasLog Partners Preferred C (GLOP.PC), Honeywell (HON), International Business Machines (IBM), Iron Mountain (IRM), Lexington Realty Preferred Series C (LXP.PC), Lumen Technologies (LUMN), LyondellBasell (LYB), Main Street Capital (MAIN), 3M (MMM), Altria (MO), Annaly Capital Preferred Series G (NLY.PG), NextEra Energy (NEE), NetApp (NTAP), New York Community Bank (NYCB), Realty Income (O), OGE Energy Corp. (OGE), Oxford Lane Capital Corp. 6.75% Cum Red Pdf Shares Series 2024 (OXLCM), Philip Morris (PM), PPG Industries (PPG), PIMCO Corporate &amp; Income Opportunity Fund (PTY), Cohen &amp; Steers REIT &amp; Preferred Income Fund (RNP), Royal Bank of Canada (RY), TD SYNNEX Corp. (SNX), STORE Capital (STOR), Toronto-Dominion Bank (TD), Unilever (UL), UMH Properties (UMH), Verizon (VZ), Williams Companies (WMB), W. P. Carey (WPC).</t>
+          <t>Authors: Dr. Abhishek Srivastava and Ms. Shreyasi* Cinemas are an effective tool to project soft power and influence communities at large. A number of Hollywood production-finance firms in the last decade have seen a major rise in Chinese investments. Some of the biggest Hollywood box office hits are backed by Yuan. To maximize profit off of the Chinese domestic movie consumption market, these movies either have elements of Chinese culture or they self-censor to appease the Chinese censorship authorities. A dominant explanation to this phenomenon is that China pursues a significant influence in the American culture by infiltrating Hollywood. Hollywood itself has, through its movies, exported American values since its inception. Any impact on this industry will consequently reflect on its movie consumers eventually. China wears the global box office crown worth $7.3 billion and reigns as the biggest movie consumer market in the world. It bounced back from the pandemic slump of 2020 and turned twice the amount of revenue only 26% less than pre-pandemic numbers. During the pandemic movie theatres all over the world were shut down, literally zeroing down the movie theatre business. China due to its regime style, somehow managed to open up theatres to some extent and garner revenues. China opened its domestic movie market for outside films only in the 1990’s. The ever-growing domestic movie market China has made it a golden spot for foreign language films to get screen time and thereby huge returns. More and more Hollywood movies and especially blockbuster category movies are lining up to get a spot since Chinese authorities allow only 34 films per year quota to foreign language movies. This strategy along with the promise of money has resulted in Hollywood movies altering their plot, stories, scenes etc., to suite the regulations of the Chinese censorship authority. The censorship authority’s aim is to induct Chinese values and promote their ideas through the Hollywood movies. Last 10 years has culminated into an intersection of free market and Chinese censorship. This is an unprecedented path whose outcome is very unpredictable. Another strategy is the use of China’s economic power to get into the American movie business and then trying to induct a cultural change. Los Angeles has a big presence of Chinese firms and conglomerates who have major or minor shares in big production houses or have co- financed individual movie projects. It is not only limited to production companies but theatre chains, distributing retails and public relations management companies are also being brought by Chinese firms. Chinese Soft power and public diplomacy through movies Joseph Nye coined the term soft power and further broadened the area of study to public diplomacy. Much of what he has written on soft power, tools used by the United States to exercise soft power is relevant even today. According to Nye, Hollywood in itself is the biggest soft power influencer of the United States. The power Hollywood movies have had on different countries through generations is incomparable. According to Stanley Rosen, a professor of political science in University of South California and a specialist on politics in the People’s Republic of China, even after spending $10 billion year in exercising soft power, China has not been able to compete with the U.S. Chinese soft power is much more involved in dealing with the domestic crowd. Much of the soft power is controlled by the state. This does not allow a natural spurt in soft power. Successful American soft power on the other hand has largely grown away from the clutches of the government. And this is what Chinese authorities are trying to bank on. China in Hollywood As explained before, the Chinese production house and firms exert control by buying up screen spaces. But movies themselves self-censor to appease the censorship board of China. The aim is to make it to the list of 34 movies which is allowed screen time in the domestic movie landscape. Chinese real-estate and entertainment conglomerate Dalian Wanda Group Co. has signed a deal for a majority stake in Legendary Entertainment that would value the U.S. film and television company at nearly $4 billion. Chinese internet giant Tencent Holdings bought 10% of Skydance Media, the Hollywood company behind movie Terminator. The valuation of the deal of the production company is at approximately $1.5 billion. As part of the arrangement, Tencent and Skydance will co-finance movies, TV shows and video game projects too. Apart from the Chinese values, an instance which shows the Chinese government’s good governance, foresight, China’s technology boom, good standard of living are expected to be shown in the movie by the producers themselves. The production houses of these movies often have Chinese co-financiers who work to make the Chinese authority happy. Any image which shows the country in a bad light is frowned upon. In the disaster movie, 2012, humanity is saved because the Chinese government had the foresight to build the life-saving arcs. In Gravity, Sandra Bullock survives by getting herself to the Chinese Space Station which was shown to be the most advanced one. The 2006 released book titled World War Z, a zombie apocalyptic horror novel written by American author Max Brooks was adapted in a 2013 movie of the same name by the Paramount pictures production. The original plot of the book is about a global pandemic in which people infected with the virus turns into a zombie. The virus origins or the patient zero as mentioned in the book is found in China but the movie adaptation refers to the source of the virus to be in Taiwan. This allowed the release of the movie in Chinese theatres. In 2014, hacked Sony e-mails revealed that the original script of the movie PIXELS, which was released in 2015, called for blowing up of the Great Wall of China but finally in the movie, Taj Mahal of Agra is seen being blown up. This change was done with the hope that the movie could gain access to the Chinese theatre market. Blowing up of a national heritage site was not something the audience or the national film agencies of China would have appreciated. This incident is a classic example of American movie self- censoring themselves to gain access to a huge market, thereby ensuring a decent profit margin. Understanding how important movies are in constructing imagery, the Chinese authorities make sure the country is represented in the fairest and best way possible. This includes hand picking visuals of the country in movies, curating dialogues, altering plots, storylines and characters, changing the way the people are represented in the movies. The censorship is so strong and rigid that certain words and cases are not allowed in the movies. Issues of homosexuality, democratic values and free spirit, rejection of authority, liberty and equal rights are certain areas which are a significant part of the Western cultural discourse. Nuances regarding these issues are often put up in public discourse through movies. But when such movies are presented to the Chinese censorship for approval, scenes representing these issues are straight away omitted. This is an attempt by the authority to isolate the local population from western cultural values. A prime example is the 2018 hit, Oscar awarded movie The Bohemian Rhapsody. The movie represented the life and times of Freddie Mercury, lead singer of the British music band The Queen and a well-known member of the LGBT community who died of AIDS. The movie’s cut which was shown in Chinese theatres lacked certain sections of the cinema which talked about the lead singer’s life as a homo sexual. This takes us again to Stanley Rosen’s argument that a bigger chunk of Chinese soft power strategy is within its border for its own public. The country keeps her media in check by regulating movies, especially foreign ones. The 1997 movie, Seven years in Tibet starring Brad Pitt, depicts China’s controversial takeover of Tibet and the harsh Chinese rule in the country. Director Jean-Jacques Annaud and stars Brad Pitt and David Thewlis were allegedly banned from even entering China. In the May month of 2021, actor John Cena apologised publicly on Chinese social media platform for referring Taiwan as a country. The production house of the movie, Universal pictures has a long-term co-financing deal with a Chinese entertainment company called the Perfect World Pictures. The movie is backed by Chinese money which made it mandatory for the actor to publicly apologise. The sensitivity regarding Taiwan is so much that even public acknowledgement of the island nation as a country sparks outrage and objection by China. Tibet, Taiwan, Tiannamen square, Uighur province etc. are certain sensitive issues for the Chinese. The authority does not want any incident, in real life or in movies, to happen that could legitimise their existence, both amongst the domestic and the international audience. China’s sensitivity to Tibet could be seen in the 2016 hit movie Doctor Strange, part of the popular Marvel Cinematic Universe of the Marvel production house. The ethnicity of a major character was changed completely. In the original comic books, the Ancient one is a Tibetan character, and the studio that was making Doctor Strange changed it to a Celtic character. The movie went on to earn around $109 million in the country. Eliminating a Tibetan character is an attempt to remove the issue of Tibet from the minds of any average movie watcher. One of the top three highest grossing films in the box office of 2022 is the movie Top Gun: Maverick, a sequel to the 1986 movie Top Gun. In the original 1986 movie, the central character of Tom Cruise’s wears a jacket which went on to become a national rage in Northern America and consequently in more English language movie watching countries. The jacket on its back had a flag patch of US, Japan and Taiwan. In the trailer for the sequel released around two years back, Taiwan’s flag, which the island country has used since 1949, was seen being replaced with an ambiguous patch. This self-censoring by the movie makers was somewhat expected by audience since the movie’s co –producer, Paramount Pictures signed on Tencent, a Chinese tech firm to co-finance the movie. The Shenzhen-based conglomerate hoped to act as an “investor and co-marketer” of the film. But things turned out to be a different when the movie was released. How receptive is the American movie industry and consumer? The reaction of the American audience to the trailer, specifically to the changes made in the original jacket in the movie was extremely fierce. The aware audience has somehow grown a resentment towards artistic changes and additions made to American movies, done solely to appease the Chinese authorities. The makers of the movie sensed it and reverted to the original jacket which had the flag patch of Taiwan. The case of Chinese authorities curating American movies is seen by Hollywood stakeholders as an attempt at altering culture and value system of the nation as well as the larger audience who are American movie watchers. Another matter of concern is the literal buying up of domestic movie production and distribution houses of America by big Chinese firms and conglomerates. A law has been introduced to the US Congress, that would regulate funding of these big American production house by foreign companies. In April 2020, Republican Ted Cruz introduced a bill titled “The Stopping Censorship, Restoring Integrity, Protecting Talkies Act” that the Texas Senator described as “cutting off Hollywood studios from assistance they receive from the Department of Defence if those studios censor their films for screening in China.” The legislation, called the SCRIPT Act, was introduced in May and referred to the Committee on Homeland Security and Governmental Affairs. 2020 was also the time when tensions between the U. S. and China were at its peak and a probable trade war between the two countries was looming large. Conclusion Soft power is a long-term strategy which reaps benefit only in future. It’s arduous, laborious and results might not be visible instantly, unlike hard power which yields outcomes almost as soon as it is used. But when it does, it is the most profitable and significant investment a country could make in terms of both time and money. China realised this way back in the 1970s, when it mended relations with the U.S. The country has come a long way since the days when Bruce Lee’s movies were dubbed and rationalized to suit American and world audience. It is amazing to see how the world’s most powerful movie industry plays tune to China’s censorship authority’s pipe. However, Beijing’s strategy of using money to implement soft power tactics has been unveiled. For a very long time this phenomenon was under wraps. Chinese firms pumping money in Hollywood production houses rose only post-2010 but it was done aggressively around 2015. When it comes to allowing foreign language movies to open in China, a limit of 34 movies have been posed. But these movies happen to be the biggest blockbusters of Hollywood, watched by a huge audience across globe. The impression these movies make is simply unimaginable. By censoring and planting favourable plot lines in movies, Chinese authorities intend to artificially manufacture of opinions. Off course, these opinions work in favour of the Chinese regime. This allows them to present to the world a narrative on issues close to Beijing’s heart. *Ms. Shreyasi Post graduate Student, School of International Studies, Jawaharlal Nehru University, New Delhi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hiraman/E+ via Getty Images Background For those interested in John and Jane's full background, please click the following link here for the last time I published their full story. Jane officially retired at the beginning of 2021, and she is collecting Social Security as her only regular source of income. John and Jane have decided to start taking draws from the Taxable Account and John's Traditional IRA to the tune of $1,000/month each. These draws are currently covered in full by the dividends generated in each account. These investments primarily consist of minimal-risk bonds and low-yield certificates. I started helping John and Jane with their retirement accounts because I was infuriated by the fees their previous financial advisor was charging them. Dividend And Distribution Increases American Tower (AMT) Avient (AVNT) Altria (MO) Realty Income (O) OGE Energy (OGE) Philip Morris (PM) W.P. Carey (WPC) MO, O, and WPC were covered in the Taxable Account update so I will only include information about the dividend increases. AMT - FastGraphs 2022-11 (FastGraphs) The dividend was increased from $1.43/share per quarter to $1.47/share per quarter. This results in a current yield of 8.63% based on the current share price of $44.20. This represents an increase of .2% and a new full-year payout of $2.976/share compared with the previous $2.97/share. At its current price, OGE appears to be fully valued and this is largely because there are no identifiable growth drivers in the short term. Now that OGE is a pure-play utility we are likely to see a dividend yield slightly lower than its historical yield but also more stable and range bound. Roth IRA - 10-2022 - Trades (Charles Schwab) For a more detailed discussion about these trades and the rationale behind them please see my most recent articles on Recent Purchases and Limit Trades. The Retirees Dividend Portfolio - Account Transactions Through October 31st The month of October was a heavy month for deployment of funds which makes sense because many of these stocks saw their share price drop anywhere from 25-40%. Retirement Projections - 2022 - October - Monthly Dividends (Bar Graph) (CDI) The table below represents the actual full-year results for 2022 and the prior year. Retirement Projections - 2022 - October (CDI) Below is an expanded table that shows the full dividend history since inception for both the Traditional IRA and Roth IRA. Retirement Projections - 2022 -October - Cash Balances (CDI) The next image provides a history of the unrealized gain/loss at the end of each month in the Traditional and Roth IRAs going back to the beginning in January of 2018. Traditional IRA - 2022 - October - Gain-Loss (CDI) Roth IRA - 2022 - October - Gain-Loss (CDI) The last two graphs show how dividend income has increased, stayed the same, or decreased in each respective month on an annualized basis.</t>
+          <t>Authors: Dr. Abhishek Srivastava and Ms. Shreyasi* Cinemas are an effective tool to project soft power and influence communities at large. Some of the biggest Hollywood box office hits are backed by Yuan. To maximize profit off of the Chinese domestic movie consumption market, these movies either have elements of Chinese culture or they self-censor to appease the Chinese censorship authorities. More and more Hollywood movies and especially blockbuster category movies are lining up to get a spot since Chinese authorities allow only 34 films per year quota to foreign language movies. According to Stanley Rosen, a professor of political science in University of South California and a specialist on politics in the People’s Republic of China, even after spending $10 billion year in exercising soft power, China has not been able to compete with the U.S. Chinese soft power is much more involved in dealing with the domestic crowd. The valuation of the deal of the production company is at approximately $1.5 billion. Apart from the Chinese values, an instance which shows the Chinese government’s good governance, foresight, China’s technology boom, good standard of living are expected to be shown in the movie by the producers themselves. The 2006 released book titled World War Z, a zombie apocalyptic horror novel written by American author Max Brooks was adapted in a 2013 movie of the same name by the Paramount pictures production. In 2014, hacked Sony e-mails revealed that the original script of the movie PIXELS, which was released in 2015, called for blowing up of the Great Wall of China but finally in the movie, Taj Mahal of Agra is seen being blown up. This change was done with the hope that the movie could gain access to the Chinese theatre market. Blowing up of a national heritage site was not something the audience or the national film agencies of China would have appreciated. This incident is a classic example of American movie self- censoring themselves to gain access to a huge market, thereby ensuring a decent profit margin. A prime example is the 2018 hit, Oscar awarded movie The Bohemian Rhapsody. In the original comic books, the Ancient one is a Tibetan character, and the studio that was making Doctor Strange changed it to a Celtic character. In the original 1986 movie, the central character of Tom Cruise’s wears a jacket which went on to become a national rage in Northern America and consequently in more English language movie watching countries. This self-censoring by the movie makers was somewhat expected by audience since the movie’s co –producer, Paramount Pictures signed on Tencent, a Chinese tech firm to co-finance the movie. The aware audience has somehow grown a resentment towards artistic changes and additions made to American movies, done solely to appease the Chinese authorities. The makers of the movie sensed it and reverted to the original jacket which had the flag patch of Taiwan. By censoring and planting favourable plot lines in movies, Chinese authorities intend to artificially manufacture of opinions. Ms. Shreyasi Post graduate Student, School of International Studies, Jawaharlal Nehru University, New Delhi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1808,80 +1848,88 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.999992847442627</v>
+        <v>0.5020056366920471</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Get a health boost with 3 Cup's tasty protein shakes - Free Malaysia Today</t>
+          <t>Southeast Asia's Crypto Frenzy - Asia Media Centre</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 23:00:45 GMT</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>Tue, 29 Nov 2022 23:52:23 GMT</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>The bankruptcy of the Bahamas-registered FTX cryptocurrency exchange has had a snowball effect on the whole industry. Asian investors are unlikely to be spared, as the chilly wind cools the global crypto-mania. Robert Bociaga reports on Asia's obsession with these unregulated financial instruments Founded in 2018 by Sam Bankman-Fried, the FTX Exchange was a leading centralised cryptocurrency exchange specializing in derivatives and leveraged products. Now, it is suddenly gone, exposing yawning gaps in regulatory oversight, and leaving a lot of people seriously out of pocket. From its peak value at $32 billion, the platform has now $8 billion of liabilities it can't pay, and as many as 1 million creditors. Since applying for bankruptcy, the various cryptocurrencies dropped in value, but quickly stabilised and began to attract new capital from speculators. “This is the daily food for crypto activists, especially investors or traders,” says Mirza Richie, a trader from Jakarta who has been active on the market since early 2017. “Maybe new investors would be surprised, but for those who have been living from crypto for a long time something like this has happened many times in the past few years,” he adds. Traders like Mirza are attracted by the high volatility of the cryptocurrencies, and their low investment threshold. “Not everyone has enough capital, but in crypto you have seen people investing a few dollars and making hundreds of thousands or even millions of dollars,” he says. Cryptocurrency traders in Singapore/ photo R Bociaga Cryptocurrencies are defined as any type of digital or virtual currency that employs encryption to safeguard transactions. They lack a central issuing or regulating body and instead rely on a decentralised system to record transactions and issue new units. This has caused headaches for governments, that worry about the personal savings of their people, and the possibility of illicit activities receiving funding from unknown sources. Bitcoin was the first cryptocurrency invented, and it is still the most well-known today. Much of the interest in cryptocurrencies is purely speculative. China banned this and other cryptos in 2021, while Western countries have taken a sit-and-wait approach. But crypto trading is not for the faint-hearted as the currencies are highly volatile. “If you are too afraid to take advantage of opportunities and read the crypto market situation then you will be left behind,” Mirza Richie says. “The point is to use a healthy, mature mind, and manage your risk of loss according to your psychology.” In his country, cryptocurrencies have become very popular, Mirza Richie says, “even our current government often discusses the subject of establishing applicable laws. Crypto is like a hurricane, you can't stop it,” he adds. However, when it was initially introduced in 2008, Bitcoin was meant to be a medium for daily transactions, allowing users to purchase everything from a cup of coffee to a computer or even large-ticket things such as real estate. That hasn't happened yet, and while the number of institutions adopting cryptocurrencies is increasing, significant transactions involving them are uncommon. Nonetheless, several tech corporations accepted now cryptocurrency, while luxury goods and car manufacturers followed suit. Against this background, cryptocurrency crime is on the rise, leaving the holders of cryptos with a promise for enormous profits. SOUTH-EAST ASIA LEADS THE WORLD According to Chainalysis' newest "Geography of Cryptocurrency" report, Vietnam leads the globe in grassroots cryptocurrency usage. The country was one of three Southeast Asian nations at the top of the 2022 list, having led the ratings for the second year in a row. The list is once again dominated by nations classified as "lower middle income" by the World Bank, such as Vietnam, the Philippines, Ukraine, India, Pakistan, and Thailand. In general, these are economies where the national currency is weak and services for moving or receiving cash across borders are few. According to the research, users in these nations "rely on cryptocurrencies to transmit remittances, safeguard their funds in times of fiat currency instability, and satisfy other financial demands particular to their economy." Apart from that, the region's growth is driven by play-to-earn games. "EthVietnam" is the first blockchain event series with the participation of global blockchain and cryptocurrency organisations/ photo R Bociaga Axie Infinity, a digital pet game in which players raise, trade, and fight virtual creatures for in-game assets became extremely popular, particularly in the Philippines, where some players earned significantly more than the country's average salary. The most successful gamers utilised their gaming gains to pay for their children's school fees and even to purchase property. However, Axie Infinity's popularity plummeted in March after North Korean hackers stole $625 million in assets. According to the statistics, the number of active players in September was less than one-third of what it was during the game's high in January. Away from that, in China, decentralised cryptocurrencies do not fit the ruling party’s strategy to control its people. Last year, the government launched a crackdown on crypto-mining, which is an energy-intensive process aimed at generating new coins in cryptocurrencies. While China now focuses on developing its official digital coin that will harness the advantages of the technology on its own terms, the move has opened up the market to other competitors in the region. Debt-laden Laos wants to profit from digital currency mining, and has authorised the mining and trading of cryptocurrencies. Their success in the sector remains to be seen. MYANMAR’S FIGHT GOES ON “November was a bad week for crypto as a whole,” says Myo Nzo, a 25-year-old Burmese girl from Yangon. “But personally, I had a couple of really reaffirming experiences with crypto”. Nzo was able to send funds for food to her cousin who fights the military junta as a rebel in the jungle. In post-coup Myanmar, people's reliance on banking systems has been reduced, pushing citizens to use digital currency as an alternative payment mode. The idea is straightforward: avoid traditional banking networks controlled by Myanmar's military government, which has dominated the country since a coup in February 2021. Shortly after receiving their cryptocurrency, Nzo's cousin was able to buy food for his small rebel unit. / Photo R Bociaga Since then, Myanmar's economy has been in a very poor shape, while the World Bank predicted that it would shrink by 18 percent this year. As a result, the Myanmar kyat has lost 60 percent of its value as of September 2021. As support for the official currency ebbed away, the opposition National Unity Government (NUG), Myanmar's government-in-exile, launched its own cryptocurrency, the Digital Myanmar Kyat, the DMMK. Analysts say Myanmar's crypto revolution is only getting started in its tug-of-war between repression and resistance. Cryptos will be crucial in Myanmar's political transition, determining whether the nation will be able to restore democracy or sink further into dictatorship. How the trust in the digital Myanmar currency is built will be critical to funding and winning the fight against the military junta. -Asia Media Centre</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>The bankruptcy of the Bahamas-registered FTX cryptocurrency exchange has had a snowball effect on the whole industry. Traders like Mirza are attracted by the high volatility of the cryptocurrencies, and their low investment threshold. “ Bitcoin was the first cryptocurrency invented, and it is still the most well-known today. If you are too afraid to take advantage of opportunities and read the crypto market situation then you will be left behind,” Mirza Richie says. “ However, when it was initially introduced in 2008, Bitcoin was meant to be a medium for daily transactions, allowing users to purchase everything from a cup of coffee to a computer or even large-ticket things such as real estate. EthVietnam" is the first blockchain event series with the participation of global blockchain and cryptocurrency organisations/ photo R Bociaga Axie Infinity, a digital pet game in which players raise, trade, and fight virtual creatures for in-game assets became extremely popular, particularly in the Philippines, where some players earned significantly more than the country's average salary. Away from that, in China, decentralised cryptocurrencies do not fit the ruling party’s strategy to control its people. MYANMAR’S FIGHT GOES ON “November was a bad week for crypto as a whole,” says Myo Nzo, a 25-year-old Burmese girl from Yangon. “ But personally, I had a couple of really reaffirming experiences with crypto”. As support for the official currency ebbed away, the opposition National Unity Government (NUG), Myanmar's government-in-exile, launched its own cryptocurrency, the Digital Myanmar Kyat, the DMMK.</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.995070219039917</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chattisgarh Elections 2023: Future of United Progressive Alliance and BJP - Modern Diplomacy</t>
+          <t>Hong Kong's BEA Weighs Selling General Insurer Blue Cross - Bloomberg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 20:09:46 GMT</t>
+          <t>Thu, 02 Dec 2021 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The deep state or establishment constitutes Pakistan Army and the Inter-Services Intelligence (ISI) and it has always been in the driving seat since the birth of Pakistan due to numerous reasons. The prominent one was the accepted legitimacy of the Army amongst the masses that always pushed the civilian leadership to the back foot. History has repeated itself time and again from the military coup by Ayyub Khan, Zia to Musharaff when military dictators uprooted the civil-political structure and imposed martial law. Moreover, those martial laws in fact sustained for longer tenures only due to the popularity and trust for the establishment and a subsequent reasonable distrust for the civilian administration due to corruption, red tape, chaos and poor administration. But the latest development in the geopolitics of Pakistan has turned the table and it may change the politics of South Asia forever. Following are a few telling indicators: i) the defensive mode of the establishment is clearly evident from the latest developments such as the Joint briefing by DG-ISI (Director-General of Inter-Services Intelligence) and ISPR (Inter-Services Public Relations) ii) the performance by Imran Khan and his party in by-elections in Punjab and other provinces too iii) the Election Commission ruling against Imran Khan and subsequently leading to his cancellation of candidature. The above-mentioned are some of the formidable developments that show that Imran Khan has been successfully mobilizing mass support in his favour, which is not acceptable to the ruling regime and the establishment as well. Locating the differentiating elements It is the same establishment that is criticized for favouring Imran Khan in the last general elections (2018) that later turned against him in such a short span of time. But what differentiates the political dynamics this time are a number of factors that are tilting the narrative in Imran Khan’s favour. This has compelled the deep state to feel the heat and cause damage to the military hold over the civilian government. First and foremost, the ongoing economic crisis that is compelling the government to heavy taxation resulted to further inflation. This situation has been cunningly utilized by the Pakistan Tehreek Insaaf with a blend of a scorching social media campaign against the ongoing regime. Imran khan and his supporters are aggressively turning out against the Army and ISI which is damaging their public perception, accumulated through their so-called sacrifice and dedication to the nation. This fact can also be attested by the historical study of the economic situation of Pakistan just prior to the four martial laws, the only factor that has been taken care of before imposing the coup is the economic stability that is missing out this time. Secondly, the charismatic leadership of Imran Khan, himself is also a dominant factor that cannot be denied. The long socio-political process of Pakistan has given democratic space to a few leaders such as Md. Ali Jinnah, Zulfiqar Bhutto but in modern days, Imran has used social media and some media houses as a tool of information warfare to enhance his outreach and henceforth establish his narrative out and clear among the popular discourse. This tool was not that prevalent with utmost outreach in earlier times which clearly demarcates the differentiating element. Despite severe criticism from opponents, Imran and his party had already proclaimed themselves as honest and staunch Islamic patriots of ‘Naya Pakistan’ amongst the masses which could not help out the regime to defame or sabotage their public image. This mass support for Imran and his party cannot be acclaimed as the only bluff or disorientation as several power blocs of Army and Ex-military personnel have also supported his narrative and he has accurately fused the mistrust and corrupt image of the ruling regime with the agenda of foreign involvement, particularly the US, in the domestic politics of Pakistan. Subsequently, he blamed the establishment behind this game plan and that narrative having travelled to the masses has successfully occupied a space in domestic politics, thus aiding his survival. Thirdly, one of the major tools that the establishment had earlier used to settle the score with the previous civilian leadership is by declaring them as an ‘Indian agent’ but today, this is not really the case because Imran’s government and his bitter relationship with the Indian government is not a hidden story. Rather some back channel engagements could be witnessed during Sharif’s government when a sting operation floated recently in which Maryam Nawaz allegedly stated some business deals with India for his family members and Shahbaz Sharif could be heard diluting the matter. It is quite evident to the people of Pakistan that the establishment is behind this ruling dispensation as it is the only umbrella of the establishment that can keep intact all major coalition partners together. Fourth is the constant struggle and bargain for power, evident after the dismissal of Imran’s government. Imran is not ready to give a perception to the public that his party is willing to any kind of negotiation because he rightly knows that it will only dilute his stature in a long battle of perception and whosoever wins this battle of dominance will prevail over the other. But the thing that differentiates Imran from his predecessors is keeping his resolution intact and changing strategies at each step which is very frustrating and surprising for the ruling regimes. The current developments are playing in favour of Imran Khan such as the Killing of the famous Journalist in Kenya (Arshad Sharif) and subsequent anger and perception building against the culmination of free speech, the deadly attack on Imran khan during the long-awaited march from Lahore to Islamabad in October 2022. Several cases on Imran Khan over the last six months are some of the recent factors that have created a sympathy wave in his favour and this has all been done in the knowledge of the establishment. Conclusion These are some of the facets of the story that shows why the establishment is not able to manage Imran unlike his predecessors and this has led to a new evolution in the socio-political sphere of Pakistan that mass support is shifting towards the civilian leadership from the establishment and if new government of PTI comes to power, then it is not going to be easy for the establishment too as Imran will try to consolidate and define a demarcated boundary for the establishment that will surely encroach some of the privileges of the army. But it doesn’t imply that it is easy going for him too as the structural functioning of the establishment is very deep-rooted in Pakistan’s society and the deep state is not an individual rather, it represents an institution that has prevailed through all thick and thin and it will be a humongous challenge to break this institutional solidarity for the democratic socio-political structure to survive and thrive.</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The deep state or establishment constitutes Pakistan Army and the Inter-Services Intelligence (ISI) and it has always been in the driving seat since the birth of Pakistan due to numerous reasons. The prominent one was the accepted legitimacy of the Army amongst the masses that always pushed the civilian leadership to the back foot. History has repeated itself time and again from the military coup by Ayyub Khan, Zia to Musharaff when military dictators uprooted the civil-political structure and imposed martial law. Moreover, those martial laws in fact sustained for longer tenures only due to the popularity and trust for the establishment and a subsequent reasonable distrust for the civilian administration due to corruption, red tape, chaos and poor administration. This mass support for Imran and his party cannot be acclaimed as the only bluff or disorientation as several power blocs of Army and Ex-military personnel have also supported his narrative and he has accurately fused the mistrust and corrupt image of the ruling regime with the agenda of foreign involvement, particularly the US, in the domestic politics of Pakistan. Conclusion These are some of the facets of the story that shows why the establishment is not able to manage Imran unlike his predecessors and this has led to a new evolution in the socio-political sphere of Pakistan that mass support is shifting towards the civilian leadership from the establishment and if new government of PTI comes to power, then it is not going to be easy for the establishment too as Imran will try to consolidate and define a demarcated boundary for the establishment that will surely encroach some of the privileges of the army.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.5059331655502319</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Structural characterization of protective non-neutralizing antibodies targeting Crimean-Congo hemorrhagic fever virus - Nature.com</t>
+          <t>What is the best crypto use case? Community answers - Cointelegraph</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 22:26:47 GMT</t>
+          <t>Wed, 30 Nov 2022 21:45:00 GMT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Biosafety and ethics All work with infectious virus or infected animals was conducted in a biosafety level 4 (BSL-4) laboratory at the Centers for Disease Control and Prevention (CDC). All animal experiments were approved by the CDC Institutional Animal Care and Use Committee (3102SPEMOUC) and performed in an AAALAC-approved facility. CCHFV GP38 production Plasmid constructs to produce GP38 (Hoti, Aigai-Pentalofos, Afg-09, Turkey-2004, IbAr 10200) included the N-terminal region of CCHFV GPC from the N-terminal signal peptide to the end GP38 domain, excluding the C-terminal site-1 protease cleavage which was replaced with an HRV3C protease followed by an 8X HisTag and Twin-Strep-tag (GenBank: AWX63617.1, AVO00706.1, ADQ57289.1, ASW22359.1, AWX63620.1). The plasmid inserts were codon-optimized for expression in human cells and cloned into pTwistBeta vector. Expi293 cells (Thermo Fischer) were maintained in Expi293 Media (Thermo Fischer) based on their specifications. Expi293 were transfected with FectoPro reagent (Polyplus). CCHFV GP38 expression plasmids were co-transfected with pCDNA3.1-human furin plasmid, generously provided by N.G. Seidah (Clinical Research Institute of Montreal), at a ratio of 4:1 in Expi293 cells. Four hours after transfection, kifunesine was added to a final concentration of 5 µM to inhibit the processing of complex glycans, which could interfere in the crystallization process. The cell supernatant was harvested between 5 and 6 days then the cells and debris were removed by centrifugation and filtered through a 0.2 µm filter. The sodium chloride concentration of media was adjusted to 500 mM final using 5 M NaCl solution. Supernatants were then run over a Histrap-Excel nickel column (Cytiva) and eluted using 500 mM Imidazole. The eluted proteins were digested overnight with HRV3C protease. The cleaved GP38 was purified by size exclusion chromatography on a Superdex 200 column. Patient recruitment Patients infected with CCHFV who were admitted to Farabi Hospital (Karadeniz Technical University, Trabzon, Turkey) and in the convalescence phase were recruited. Blood was drawn and separated into PBMCs and Plasma. All patients signed informed consent, and the study was approved by IRBs in Karadeniz Technical University and the University of Maryland, Baltimore. Anti-GP38 antibody ELISA The microtiter Immulon 2 HB 96-well flat bottom plates (Immuno Chemistry Technologies, Bloomington, MN) were coated with 0.2 µg of the GP38 antigen (Hoti strain)-overnight and blocked with 10% dried milk in TBS and 0.1% NP-40 (Blotto solution). For running ELISA, a 1:100 dilution for plasma samples and 10 µg/ml of the isolated mAbs were used as starting point. Following 1:2 serial dilutions of the samples, they were added to the wells and incubated for 1 h at 37 °C. After washing the plates for 4 times with TBS-T (Tris-buffered saline with 0.1% Tween® 20 detergent), a 1:1000 dilution of goat anti human IgG antibody conjugated to alkaline phosphatase (Southern Biotech, Birmingham, AL) was added to the wells and microplates were incubated for 1 h at 37 °C. The wells were washed 6 times with TBS-T and the substrate (BluePhos® Microwell, Seracare, Milford, MA) was added to each well for 15 min at 37 °C. Then the signal was read at 650 nm. The tests were done in duplicates, and the average of the background subtracted results are reported. To analyze the data, they were fitted using non-linear regression (curve fitting) using Prism 5 for Windows version 5.04. Isolation and generation of human anti-GP38 antibodies The antibody was isolated from a donor CC5 (recruited as noted above). A combined transcriptomics and genomics approach was used for the identification of the specific antibodies. The circulating anti-GP38 antibodies in plasma were isolated using sequential affinity chromatography. The isolated antibodies were digested with proteases (trypsin, chymotrypsin, and Glu-C), and the resulting peptides were subjected to Mass spectrometry to construct a proteomics library (Northwestern Proteomics Center of Excellence, which was not involved in the data analysis). For the genomics analysis, the memory B cells were isolated from PBMC using EasySep™ Human Memory B Cell Isolation Kit (Cat#17864), then the single cell suspension was loaded onto the 10x Genomics Chromium Controller, microfluidics chip, and the VDJ library were prepared based on manufacturer’s instruction. The LC-MS/MS peptide spectra were searched against the memory B cell database using PEAKS Studio (v 7.5) (Bioinformatics Solutions Inc., Ontario, CA). The sequence of the matched paired heavy and light chains was used for the production of the mAbs. For this purpose, the variable regions of the antibodies were cloned in the plasmids contained constant regions of the IgG1 or IgG3 and k or λ. The paired heavy and light chain plasmids were co-transfected into the FreeStyle-293 cells, and recombinant antibodies were purified from culture supernatants by Protein A affinity chromatography. Anti-GP38 Fab production To produce His-tagged Fabs, Expi293 cells were transfected with 1:1 ratio of His-tagged heavy chain plasmid to untagged light chain plasmid. Fab containing supernatant were equilibrated and purified by immobilized metal affinity chromatography as previously described above for GP38 purification. Anti-GP38 mAb production Expi293 cells were transfected with 1:1 ratio of heavy chain plasmid to light chain plasmid. The cell supernatant was harvested between 5 and 6 days then the cells and debris were removed by centrifugation and filtered through a 0.2 µm filter. The mAb supernatant was equilibrated to a pH of 7.4, 200 mM NaCl, and 40 mM sodium phosphate dibasic and then flowed over a mAb Select Sure column (Cytva). Bound protein was eluted via 100% elution buffer (100 mM sodium Citrate pH 3.4) and 1 ml fractions were neutralized using 200 mM of Tris-Base pH 10.0. Fractions were confirmed using SDS-Page and then dialyzed to 200 mM NaCl, 4 mM Tris-HCl pH 8.0 for use in BLI studies. Crystallization of GP38-Fab complexes Proteins were equilibrated to 4 mM Tris-HCl pH 8.0, 200 mM NaCl, a 1:1.2 ratio of GP38 to Fab was incubated for 4 h. After incubation, the complex was purified over a Superdex 200 column using a Biorad NGC. Fractions were collected and run using SDS-PAGE to confirm purity. Fractions containing the complex were then concentrated to 10–13 mg/ml using a 10 K Vivaspin Centrifugal Concentrator. Nextel crystal screens solutions were plated via an SPT Lab Tech Mosquito using a 1:1 ratio of protein to well solution hanging drop to a total volume of 600 nL. Drops were checked over 2–3 weeks for crystal formation. GP38 Hoti formed in a solution of 20% PEG3350, 0.4 M NH 4 I. 13G8Fab-GP38Hoti was formed in a solution of 1.1 M sodium malonate, 0.1 M HEPES pH 7.0, and 0.5% Jeffamine ED-2001, while CC5-17 Fab-GP38Hoti was formed in a solution of 20% PEG1000, and 0.1 M HEPES pH 6.4. Crystals were then flash-frozen in liquid nitrogen. Data collection, processing and refinement Data were collected at the Advanced Photon Source (APS) beamlines 19-BM. Data Processing was performed using HKL-2000 (v 719.2) and CCP4 suite (v 8.0.005). Molecular Replacement was performed using Phaser-MR (simple one-component interface) for 8DC5 and Phaser-MR (full-featured) for 8DCY and 8DDK out of the Phenix suite of programs. To phase the complexes, 13G8 Fab and CC5-17 Fab models were generated using SWISS-MODEL, while the GP38-Hoti model was generated using MODELLER (v 9.22) (PDBID 6VKF)49,50,51,52,53,54. After phasing structures went through multiple rounds of refinement in Coot (v 0.9.8.3) and Phenix (v1.20.1)55,56. BLI kinetics assay mAb to GP38 An Octet R8 BLI protein analysis system (Sartorius) was used to determine binding kinetics of GP38 mAb. Anti-hIgG Fc Capture (AHC) sensors from Sartorius which was dipped into baseline 1× Octet kinetics buffer for 60 s. Sensors then encountered a 1 µg/mL antibody solution of either c13G8 or CC5-17 for 150 s as a loading step, following loading, they were then dipped into a second baseline containing 1× Octet Kinetics buffer. Sensors were then dipped into varying nM concentrations (0.3125, 0.625, 1.25, 2.5, 5.0, 10.0, 20.0) of either CCHFV strains IbAr10200, Turkey-2004, and Hoti, or Aigai virus strain Pentalofos GP38 for 300 s as an association step, and then transferred back to 1× Octet kinetics buffer for 600 s as a dissociation step. KD were determined from BLI curves obtained from the analysis of GP38 concentration ranging from 0.3125 to 20 nM. Data from binding kinetics curves were fit globally using a 1:1 binding model with Sartorius Analysis software (v 12.2). BLI mutational studies Protein A (ProA) BLI sensors from Gator Bio were dipped into baseline Gator Bio Kinetics Buffer (K Buffer) for 120 s. Sensors then encountered a 25 µg/mL antibody solution of either c13G8 or CC5-17 for 300 s as a loading step, following loading they were then dipped into a second baseline containing Gator Bio K Buffer. Sensors were then dipped into varying nM concentrations (1500, 500, 166.67 or 250, 50, 10) of CCHFV strain Hoti, Aigai strain Pentalofos, or mutants of these for 1000 s as an association step, and then transferred back to Gator Bio K Buffer for 4000 s as a dissociation step. KD’s were calculated via Gator Bio’s software (Gator Part 11 v 2.7). Surface plasmon resonance On and off rate and affinity measurements were performed on Biacore X100. Each antibody (CC5’s mAbs and c13G8) was immobilized onto Protein A chip (Biacore Series S Sensor Chip) at an Rmax of ~50 RU (response units). Measurements were made using serial dilutions of the recombinant GP38 protein, CCHFV Hoti GP38, starting from 20 to 0.625 nM in HBS-EP + buffer (0.1 M HEPES, 1.5 M NaCl and 0.5% v/v Surfactant P20, pH 7.4). The protein A chip was regenerated by 10 mM Glycine-HCl, pH 1.5. The data were analyzed with the Biacore X100 evaluation software (v 2.0.4) with a 1:1 binding model. BLI competition assay Site I, II, and III antibodies were bought from BEI resources. BLI competition was performed through Sartorius Octet Discovery software (v 12.2). PentaHis Sartorius probes were soaked into a solution of 10 µg/ml Turkey2004 GP38-his/strep for 60 s. Following loading of the probe these were then dipped into Sartorius 1× kinetics buffer for 30 s. Probes were then dipped into the first antibody solution 10 µg/ml for 600 s to saturate. Probes were then dipped into kinetics buffer for 30 s and then dipped into competing a 10 µg/ml antibody solution for 300 s. Following competition, the probes were then regenerated in 10 mM glycine for 10 s and then dipped into kinetics buffer to wash the probes for 10 s. This step was done three times to fully dissociate the previous proteins. Processing was performed by taken by the maximum signal during each step involving the antibody. Calculation of percent inhibition was performed by taking the competing antibodies signal and dividing by the max signal by the same antibody during when it was used as a saturating step. This number was multiplied by a 100 to give a percentage inhibition, and lower percentages indicate less shift in nm and more competition between two antibodies and calculations were performed in Microsoft Excel. Neutralization of rCCHFV/ZSG by the monoclonal antibodies Threefold, 9-point dilution series of the monoclonal antibodies were prepared in DMEM supplemented with 2% heat-inactivated FBS, sodium pyruvate and penicillin-streptomycin (Gibco). These dilutions as well as no-antibody controls, were mixed 1:1 with rCCHFV/ZSG (strain IbAr10200)57 grown on Huh7 cells diluted in the same so that the final antibody concentrations ranged from 10 µg/mL to 1.52 ng/mL and that virus titer of appr. 150 focus-forming units/40 µL was achieved. The mixes were incubated for 1 h at +37 C. Then, medium was removed from Vero-E6 cells growing in 96-wells, and quadruplicate wells were infected with 40 µl each at +37 °C, 5% CO2 with periodic shaking. After 1 h, the inocula were removed and the cells overlaid with MEM (Gibco) containing 1.25% carboxymethylcellulose (Sigma-Aldrich), 4% HI-FBS, sodium pyruvate, and penicillin-streptomycin. Fluorescent foci were imaged 2 days later using a Cytation3 instrument (BioTek), and the focus counts normalized against no-antibody controls. To graph the data and to determine the FRNT50 value, a 4-parameter non-linear regression analysis with top constraint of 1 was performed with GraphPad Prism v9.0 using log-transformed antibody concentrations. Generation of c13G8 and CC5-17 for animal studies Plasmids of c13G8 and CC5-17 were standardized to a human IgG1 Fc backbone and were then expressed by transient transfection of expiCHO-S cells. Briefly, expiCHO-S cells were transfected with plasmids of the heavy and light chains of antibodies and expressed according to the manufacturer’s instructions for 10 days at 32 °C. Culture supernatants were collected and clarified, and antibodies were purified with HiTrap MabSelect Sure pcc (Cytiva) protein A affinity chromatography column on AKTA start fast protein liquid chromatography system. The CC5-17 antibody was eluted with pH2.2 glycine and c13G8 was eluted using IgG Elution Buffer (Thermo Scientific). Eluted fractions were neutralized with 2 M Tris. Following neutralization fractions containing antibodies were applied to HiLoad 26/600 Superdex 200 pg column to both improve the purity and buffer exchange to PBS. Pure fractions of antibodies were pooled, quantified by Nanodrop 2000c (Thermo Scientific), and stored at −20 °C. For the animal experiments, aliquots of mAbs were diluted in sterile PBS pH 7.4 at 0.25 mg/ml and 1 mg/ml for c13G8 and CC5-17 and 1 mg/ml for the isotype control. Diluted antibodies were further quantified using BLI in Octet R8 (Sartorius) with Protein A biosensors to confirm accuracy of the doses. Evaluating c13G8 and CC5-17 treatment against CCHFV in mice B6.129S2-Ifnar1tm1Agt/Mmjax mice (MMRRC Stock No: 32045-JAX; male and female, 5–6 weeks old) were housed in a climate-controlled laboratory (68–79 °C and 30–70% humidity) with a 12 h day/night cycle; provided sterilized commercially available mouse chow (Laboratory Autoclavable Rodent Diet 5010, LabDiet), and sterile water ad libitum; and group-housed on autoclaved bedding (Bed-o’Cobs® ¼”, Anderson Lab Bedding; Care Fresh, Healthy Pet; Enviro-Dry, Shepherd Specialty Papers) with cotton nestlets in an isolator-caging system (Tecniplast GM500, West Chester, PA, USA) with a HEPA-filtered inlet and exhaust air supply. Mice were infected SC in the interscapular region with 100 µL of CCHFV Turkey-200406546 (passaged 1× suckling mouse brain and 1× in SW13 cells; GenBank: KY362517, KY362519, KY362515) under isoflurane anesthesia (target dose: 100 TCID 50 ; back-titer dose: 63 TCID 50 ). The virus stock was verified by next-generation sequencing and confirmed mycoplasma free. Viral stock titers and inoculum back-titers (calculated as TCID 50 ) were determined by a method based on that of Reed and Muench on BSR-T7/5 cells fixed and stained at 5 dpi (rabbit anti-CCHFV NP pAb, IBT Bioservices 04-0011; 1:2500) and Alexa-488 goat anti-rabbit secondary antibody (IgG H&amp;L cross-adsorbed, Invitrogen A11034; 1:2500). Groups of 6 mice (3 female and 3 male) were treated intraperitoneally (IP; 500 µL total volume) with monoclonal antibody (13G8 or CC5-17) 30 min post-challenge or at both 1- and 4-days post-challenge with 0.25 or 1.0 mg of antibody. Groups of 4 mice (2 female and 2 male) were mock treated IP with IgG1 isotype control (1 mg dose). Baseline weights were obtained at day 0, prior to inoculation, and mice were monitored daily for 21 dpi. Clinical signs in mice were scored based on 14 parameters: 2 points each for quiet, dull, responsive (QDR) disposition, hunched back or ruffled coat; 3 points each for dehydration or abnormal huddling/hypoactivity; 5 points each for ataxia/circling/tremors/paresis, abnormal breathing, or anemia; 7 points for weight loss of &gt;20%; 10 points each for inability to bear weight, paralysis, frank hemorrhage or bleeding, moribund state, or weight loss of &gt;25%. Animals were humanely euthanized when end-point criteria were reached (clinical score ≥ 10) or at study completion (21 dpi). Mean clinical scores were calculated by dividing the daily sum of all scores in an experimental group by the total by the number of animals remaining. Reporting summary Further information on research design is available in the Nature Portfolio Reporting Summary linked to this article.</t>
+          <t>While fears surround the crypto market because of how big projects and firms file bankruptcy one after the other, community members continue to remind the world of the best use cases for cryptocurrency. On Twitter, the Cointelegraph social team asked the community to share their perspectives on what the best crypto use case is. From payments and self-custody to transparency and investment, community members gave a wide range of responses. What is the best use case of crypto? — Cointelegraph (@Cointelegraph) November 29, 2022 One community member highlighted the use of stablecoins like Tether (USDT) as payment methods while pointing out that other cryptocurrencies can be used as investment tools. On the other hand, another response brought up the transparency that crypto brings. Apart from these, one answer also raised the concept of saving, spending and self-custody, which recently became more talked about since the FTX collapse. Meanwhile, another answer wrote the best use case is still how crypto provides a decentralized, peer-to-peer transaction mechanism that eliminates middlemen like banks and allows the bankless to have access to a financial instrument. Contrary to some answers, a community member replied that the crypto space should target everyday utility. According to the Twitter user, decentralized finance (DeFi), nonfungible tokens (NFTs) and trading might not move crypto adoption forward to the rest of the world. The community member pointed out that it’s time for the crypto ecosystem to upgrade its utility. Related: Will Ethereum ever surpass Bitcoin? Crypto community answers Another Twitter user echoed the previous sentiments by highlighting that payments still remain the best use cases of crypto. The community member also pointed out the possibility of Dogecoin (DOGE) being implemented on Twitter as a means of payment within the social platform. Amid the downturn of crypto markets, many community members believe that Bitcoin (BTC) and crypto are here to stay. Some argue that the current FTX crisis is only a black swan event, while others reaffirmed their undying faith in crypto.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Biosafety and ethics All work with infectious virus or infected animals was conducted in a biosafety level 4 (BSL-4) laboratory at the Centers for Disease Control and Prevention (CDC). CCHFV GP38 expression plasmids were co-transfected with pCDNA3.1-human furin plasmid, generously provided by N.G. Seidah (Clinical Research Institute of Montreal), at a ratio of 4:1 in Expi293 cells. The cell supernatant was harvested between 5 and 6 days then the cells and debris were removed by centrifugation and filtered through a 0.2 µm filter. Supernatants were then run over a Histrap-Excel nickel column (Cytiva) and eluted using 500 mM Imidazole. The eluted proteins were digested overnight with HRV3C protease. For running ELISA, a 1:100 dilution for plasma samples and 10 µg/ml of the isolated mAbs were used as starting point. The wells were washed 6 times with TBS-T and the substrate (BluePhos® Microwell, Seracare, Milford, MA) was added to each well for 15 min at 37 °C. A combined transcriptomics and genomics approach was used for the identification of the specific antibodies. Fractions were collected and run using SDS-PAGE to confirm purity. Sensors were then dipped into varying nM concentrations (1500, 500, 166.67 or 250, 50, 10) of CCHFV strain Hoti, Aigai strain Pentalofos, or mutants of these for 1000 s as an association step, and then transferred back to Gator Bio K Buffer for 4000 s as a dissociation step. Surface plasmon resonance On and off rate and affinity measurements were performed on Biacore X100. The data were analyzed with the Biacore X100 evaluation software (v 2.0.4) with a 1:1 binding model. PentaHis Sartorius probes were soaked into a solution of 10 µg/ml Turkey2004 GP38-his/strep for 60 s. Following loading of the probe these were then dipped into Sartorius 1× kinetics buffer for 30 s. Probes were then dipped into the first antibody solution 10 µg/ml for 600 s to saturate. Processing was performed by taken by the maximum signal during each step involving the antibody. These dilutions as well as no-antibody controls, were mixed 1:1 with rCCHFV/ZSG (strain IbAr10200)57 grown on Huh7 cells diluted in the same so that the final antibody concentrations ranged from 10 µg/mL to 1.52 ng/mL and that virus titer of appr. Fluorescent foci were imaged 2 days later using a Cytation3 instrument (BioTek), and the focus counts normalized against no-antibody controls. Animals were humanely euthanized when end-point criteria were reached (clinical score ≥ 10) or at study completion (21 dpi). Reporting summary Further information on research design is available in the Nature Portfolio Reporting Summary linked to this article.</t>
+          <t>While fears surround the crypto market because of how big projects and firms file bankruptcy one after the other, community members continue to remind the world of the best use cases for cryptocurrency. On Twitter, the Cointelegraph social team asked the community to share their perspectives on what the best crypto use case is. Apart from these, one answer also raised the concept of saving, spending and self-custody, which recently became more talked about since the FTX collapse.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1890,28 +1938,28 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9999958276748657</v>
+        <v>0.9935624599456787</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Radical Khalis Sentiments-Hurting the Indo-Canadian Zeal - Modern Diplomacy</t>
+          <t>World Bank Lowers Growth Forecasts for East Asia and Pacific - Bloomberg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 16:56:02 GMT</t>
+          <t>Mon, 26 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Recently the referendum, which has taken place in Brampton, Canada, over the demand of Khalistan as a separate country from India, has intensified the flames of mutual distrust between the relations of the two counties. Over a lakh Sikhs could be seen participating in the voting, followed by the protests and vandalizing a Hindu Temple, in which anti-India slogans were being raised. This so-called referendum was organised by the well-known pro-Khalistan group Sikhs for Justice (SfJ). The Ministry of External Affairs (MEA) of India took no time to respond and raise its objection over the happenings and, in its weekly media briefing, stated, “The extremist and Radical elements held a ridiculous exercise. The matter has been taken with Canadian authorities through diplomatic channels.” Following this, a travel advisory was issued for students and Indian nationals travelling to Canada “to exercise due caution and remain vigilant.” Now, this hyped the issue as, in return to this advisory, Canada issued an advisory for its citizens not to travel to areas nearby the Indo-Pak border, especially the states of Rajasthan, Punjab, and Gujarat. Withering Bilateral Relationship? It’s not new to see something similar between the two countries. This ongoing process of mutual distrust has continued for a long time. The main issue behind all these tensions remains the same: the Khalistan movement and the extremist activities planned and performed by radical and extremist elements. Khalistan has always been a security concern from an Indian perspective, as it has time and again questioned India’s internal security by influencing public sentiments, especially of those who largely align themselves with the thought of a separate Sikh state, be it in India or the Indian diaspora in Canada or any part of the world. It seems like the diplomatic relations have deteriorated more since Justin Trudeau assumed office. During the farmer’s protests of 2020-21 in New Delhi, Trudeau supported the Indian farmers as the protests intensified. Again, it created a hostile situation between the two sides as the MEA went on to summon the Canadian high commissioner, lodging a solemn protest over Trudeau’s remarks, quoting it as – ill-informed and unwarranted, advising him not to interfere in internal matters. Other than that, EAM Jaishankar refused to attend the Covid-19 foreign ministers grouping, headed by Canada the same year. During his last state visit to India, PM Trudeau allegedly got Jaspal Atwal, a Khalistan militant, along with his official delegate. This was certainly not welcomed by the Indian side, as Atwal was a convict in an attempt to assassinate Punjab Minister Malkiat Sidhu in 1986. A Chronology of the Khalistan Issue Khalistan, in literal meaning, is the pure land. But in Sikh political ideology, it’s the land of Khalsa that is the Sikh homeland. The Khalistan movement, as what it seems, indeed, came into existence after Operation Blue Star, but the story began in 1929 when Motilal Nehru presented ‘Poorna Swaraj’ at the Lahore session of INC. There were three people, who opposed it, Mohammed Ali Jinnah – for Muslims, Dr. B R Ambedkar – for Dalits, and Master Tara Singh of Akali Dal- for Sikhs. And this was the first demand for the Sikh homeland, which gradually became popular and gained support at the grass-root level in Punjab, which in turn, proved to be the base for the beginning of the Punjabi Suba Movement. This movement demanded a separate Sikh state within India on linguistic grounds. It continued over for 19 odd years. Following this, Punjab got trifurcated into three states; Punjab, Haryana, and Himachal Pradesh, with Chandigarh as the shared capital of Punjab and Haryana. This movement turned violent and became a radical one with the rise of Jarnail Singh Bhindranwale. Some called him ‘Sant,’ some militant. But it’s a matter of fact, that he railed in an armed struggle against the Indira Gandhi government for a separate Sikh nation, culminating with Operation Blue Star. This operation not only ended the armed struggle but also left a dark imprint of hatred amongst many Sikhs towards their own government. This was followed by the assassination of Indira Gandhi by her security personnel, who were Sikh. Due to this, almost 3000 Sikhs got killed in the anti-Sikh violence of 1984. Khalistan Agenda: A Political Tool for separatism The recent trends and the political discourse so far show that ‘Khalistan’ is being used as a political tool by people in power like Trudeau, as part of their agenda of identity politics to increase the vote share by gaining the support of Canadian Sikhs. According to the figures released by Immigration, Refugees and Citizenship Canada(IRCC), Canada is home to over 19 lakhs Indians which amounts to almost 5.1% of the total population of Canada, in which 8 lakh are Sikhs, constituting about 2.1% of the total population of Canada, along with over 2 lakh Gujaratis, constituting approximately 0.6% of the total population. Trudeau’s last state visit to India was dubbed an absolute political disaster by many speculators, as the Indian side did not give him much attention. But looking at the same state visit from a different perspective, the grass seems greener on Trudeau’s side. It is because he landed at the Palam Air Base along with his wife and three kids, through which he depicted himself as a family man. Then during his week-long stay in India, he went on to visit the Harmandir Sahib, Amritsar, to target the Sikh population of Canada. Besides that, he visited the heritage city of Ahmedabad, to target the Gujarati population of Canada, along with visiting Mumbai, where he met a lot of celebrities from Bollywood, and Bollywood has the utmost influence on Indians as a whole. PM Trudeau has so far been successful in gaining the support of a large chunk of Canadian Sikhs, and to preserve this support, Canadian authorities tend to refuse to take any actions against radical separatist elements and advocate them by saying it’s their right to protest peacefully. Conclusion It’s crystal clear from the current geopolitical situation that the Khalistan movement is worsening the bilateral relationship between both countries, because Khalistan and the extremist activities associated with it have always been a concern over internal security for India, and matters related to internal security do reflect on foreign policy. At the same time, it is being used as a political tool to score some brownie points amongst a sect of the population by defaming the very status of the Republic of India. Canada has the upper hand, attracting thousands of Indian students to pursue higher education, which the Indian side can never ignore. If India wants to nullify the effect of separatist influence over Canadian Sikhs, it must be done in a way that tends to heal the deep scars of the anti-Sikh riots of 1984, which could help the Sikhs to move on from the bitter memories of that bloodshed, by making policies which favor Sikh population in India and abroad.</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Recently the referendum, which has taken place in Brampton, Canada, over the demand of Khalistan as a separate country from India, has intensified the flames of mutual distrust between the relations of the two counties. This so-called referendum was organised by the well-known pro-Khalistan group Sikhs for Justice (SfJ). The matter has been taken with Canadian authorities through diplomatic channels.” Now, this hyped the issue as, in return to this advisory, Canada issued an advisory for its citizens not to travel to areas nearby the Indo-Pak border, especially the states of Rajasthan, Punjab, and Gujarat. This ongoing process of mutual distrust has continued for a long time. Khalistan has always been a security concern from an Indian perspective, as it has time and again questioned India’s internal security by influencing public sentiments, especially of those who largely align themselves with the thought of a separate Sikh state, be it in India or the Indian diaspora in Canada or any part of the world. It seems like the diplomatic relations have deteriorated more since Justin Trudeau assumed office. During his last state visit to India, PM Trudeau allegedly got Jaspal Atwal, a Khalistan militant, along with his official delegate. Khalistan Agenda: A Political Tool for separatism The recent trends and the political discourse so far show that ‘Khalistan’ is being used as a political tool by people in power like Trudeau, as part of their agenda of identity politics to increase the vote share by gaining the support of Canadian Sikhs.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1920,28 +1968,28 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9990180730819702</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Watch Live: Gran Turismo World Finals - Manufacturers Cup Final - GTPlanet</t>
+          <t>EWC: The Reasons I Still Like Canada In 2023 (NYSEARCA:EWC) - Seeking Alpha</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 14:30:00 GMT</t>
+          <t>Thu, 01 Dec 2022 01:52:00 GMT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The first Gran Turismo World Series champions of the Gran Turismo 7 era will be crowned later today, November 26, as the Manufacturers Cup final gets underway at 1600 UTC. In its traditional place as the prelude to the solo Nations Cup, the Manufacturers Cup will provide a little more insight into who’s coming into the live event in Monaco in the strongest form. For the Manufacturers Cup, there’s 12 qualified brands including the series sponsors Genesis, Mazda, and Toyota. Each has three drivers representing them, consisting of the top driver for each within each region — Americas, Asia-Oceania, and Europe/Middle East/Africa — during Online Season 2. There’ll be two races in the final, each of which requires the drivers to drive their brand’s car one each and with minimum stint lengths. First, the teams will tackle a 30-lap race around Deep Forest Reverse, in a race worth 12 points to the winner — scaling back to 10 for second, 8 for third, and one fewer point for each position thereafter. That will be followed by a double-points race, a 20-lap challenge at Circuit de Spa-Francorchamps. These points are added to the teams’ season tallies, and the overall points winner will take the title. Coming into the event there’s two former champions tied on ten points each. 2020 champion Subaru, with its Showdown squad of Kylian Drumont, Daniel Solis, and the returning Takuma Miyazono is level with defend champion Toyota and its fearsome-looking line-up of Igor Fraga, Ryota Kokubun, and Nikita Moysov. Mercedes is just three points further back, with the in-form Lucas Bonelli racing with Baptiste Beauvois and finalist debutant Syunsuke Tsuboi, while the Porsche squad of Angel Inostroza, Jose Serrano, and Takuma Sasaki is also particularly robust. We also get to see a first-time finalist. After being selected for the very first invitational events in 2018, McLaren has never qualified for a live event and makes its debut with Hayato Imazato, Konstantin Konstantinou, and Ethan Lim. You’ll be able to pick who you think will come out as champion in the special, in-game “Bonus Campaign“. Correctly select the eventual winner — you’ll need to pick before the stream starts — and you’ll earn 1,000,000cr for your GT7 bank balance, to be distributed next week. There’s also the matter of the “Viewer Campaign“. Carefully watch the stream and answer the related question on the in-game portal — and as a quick hint, both questions thus far have related to the events of the final race of the stream — to win an Engine Roulette Ticket. If you haven’t already answered question 2, you have until 1559 UTC today, and the answer is Adriano Carrazza. The race will broadcast at 1600 UTC, and you can watch it in the embed at the top of the page or via one of the alternative language streams below: Alternative Language Streams Competitors See more articles on Gran Turismo World Series.</t>
+          <t>AlxeyPnferov Main Thesis And Background The purpose of this article is to evaluate the iShares MSCI Canada ETF (NYSEARCA:EWC) as an investment option at its current market price. This is a fund that is exclusively focused on Canadian equities, with a bias towards large and medium sized companies. I have owned and recommended EWC for a while, reiterating this stance back in August. Since then, EWC has continued to modestly beat the S&amp;P 500: Fund Performance (Seeking Alpha) As I look ahead to 2023, I continue to believe Canadian equities should have a place in my portfolio. I have made some rotations throughout Q4, but EWC is one fund I plan on adding to, not divesting from. Even though the share price has risen a bit, in my view a buy case can still be made. I will explain why in the paragraphs below. Why Canada? There Is No Silver Bullet Diversification Play Out There To begin, I want to level set expectations on portfolio management. I personally see value in Canadian equities (and EWC by extension) and see the fund as a reasonable way to diversify from my U.S./Tech heavy portfolio. To me this is a no-brainer. But there are other ways one can diversify. Europe and Australia are competitive developed markets. And emerging markets like China and East Asia remain beaten down and could be potential value plays. In short, there are a number of different options - so why choose Canada? In fairness, Canada is not the only non-U.S. investment I have. But I like the country and the expense of other riskier geographical regions. Canada is a mature, democratic country, with less geo-political risk than we are seeing in Europe and even Australia right now given its ongoing spate with China. There is some safety in North America given the continents locale away from some of the world's more contentious areas. In addition, the nation's large-cap stock index is heavily reliant on Financials and Energy. This is not necessarily "good" or "bad" as it depends on one's own objectives and portfolio. But for U.S. investors like myself that are overweight the S&amp;P 500 - and therefore large-cap Tech stocks - I see this exposure in a positive light. I think these are important because having some relative safety in my diversification tactic is important. This is because I don't see any "sure thing" when it comes to any country overseas right now. They all have pros and cons, so why not pick one that has less political risk and has been a reasonable performer in a difficult year? (For perspective, the following graphic shows EWC's performance, along with the S&amp;P 500 and an Emerging Market Index and European index): YTD Performance (Google Finance) As you can see, EWC is a clear winner, although performance is still in the red. There is no getting around that, but the point I am making is there has not been a nation or geographical area that has been immune to the challenges of 2022. While some stocks and sectors, notably Energy, have been big winners this calendar year, broader country or region indexes have not. The "world" has been impacted as a whole by the Russia-Ukraine conflict, slowing economic metrics, and rising interest rates, especially in the United States. In fact, the World Index has been moving in a very clear inverse relation with the 10-year Treasury yield here at home: Stocks vs. Yields (Goldman Sachs) The point I am making here is that the globe has been impacted by many of the same factors. Nobody has really been immune, but some have handled it better than others. Canada is one such country, and I see a similar environment in early 2023 as we have now. This makes me continuously bullish on this exposure, even if the outlook is challenged by these macro-forces at the same time. Canadian Consumers Have Been Resilient Digging deeper into Canada specifically, one bright spot has been the consumer. Despite a rising rate environment, inflationary pressures, and a gloomier economic environment, Canadian households have been willing to spend. While rising prices have sent sales up inherently, if we look at "real" sales figures (which factor in inflation), we still see growth in Canada on a year-over-year basis: Retail Sales (Canada) (S&amp;P Global) The conclusion I draw here is that household spending has continued to propel economic growth in Canada. This has been driven by a resilient labor market conditions and excess savings. Neither of these factors are guaranteed to persist in early 2023, but I don't see a high likelihood of an immediate reversal. While EWC is not overly reliant on the Consumer directly, with only 8.5% exposure to Consumer Discretionary and Consumer Staples, a healthy consumer picture is still vital to overall economic health: EWC's Sector Weightings (iShares) Ultimately, I see the consumer backdrop as favorable for equities as a whole right now. This should support EWC, even if the impact is mostly indirect. As long as Canadians are willing and able to part with their cash, the chances of a recession decline. Bank Of Canada Is Slowing Pace Of Rate Hikes As the chart in the prior paragraph shows, a bet on EWC is a heavy bet on the Canadian Financials sector. At over 36% total assets, one would have to be bullish on this sector idea in order to justify buying this ETF. Fortunately, I am, and that is a key reason I will be adding to my exposure through early 2023. This stems from the fact that I see the interest rate environment in Canada as a bit of a "best of both worlds" scenario. Financials can benefit disproportionately from a higher rate environment as they pass on higher borrowing costs to their customers. But, raised rates too high, and the economy faces a restrictive environment that can lead to less loan/mortgage originations and a higher probability of delinquency or default. This creates a bit of a balancing act. Banks and other lenders want higher rates, but not to the point where they see demand dry up and/or their customers stop paying them back. So finding the right balance is key. The good news is that I do believe Canada has the right balance. The nation has a higher benchmark than most of the globe, given its central bank started to raise rates sooner and more aggressively than its counterparts: Global Benchmark Rates (1-year out is a forecast) (World Bank) With this backdrop Canadian banks have been performing reasonably well, especially since widespread delinquencies have not been occurring. The other side of the equation is how restrictive this level is. This brings us to the other set of good news - the Bank of Canada has started to pump the brakes at bit. This is evidenced by its decision to raise rates by "only" .50 basis points when it last met in late October: Latest Move By Central Bank (Bank of Canada) I view this positively because it demonstrates the Bank of Canada is being reactive to changing economic conditions. The growth outlook has moderated a bit, with probabilities of a recession rising. It is also taking in to account that interest rates in Canada are already high by global standards. With a less hawkish attitude, it should calm investors to a degree. But at the same token, the last action was still to raise rates, limiting the chances of a rate cut any time soon. To me, this signals rates will be at current levels for a while, and these are levels that should allow banks and lenders to grow their profits. As an owner of EWC, this is a win-win. I Like The Energy Exposure, But It Also Presents Risks Beyond Financials, Energy is a major component to the Canadian index that EWC tracks. Once we consider the Materials sector as well, we see that almost one-third of total assets are tied some way or another to commodity prices. This has served Canada well in the past, but it poses serious risks if the economy - domestic or global - declines into a prolonged recession. Importantly, we can look at current conditions to see why this is a paramount risk. With Covid cases spiking in China, the government there has imposed some very strict lockdown measures. The resulting impact on oil (and other commodity prices) has been swift. While prices have rebounded a bit over the past week, they are still down sharply over the past month: WTI Crude Spot Price (Bloomberg) If 2022 has taught us anything about the oil market it is this. One, it will continue to be very volatile. Two, it has provided investors with a great hedge when everything else is seemingly floundering. So - what does this mean? It suggests that if economic conditions are consistent in Q1 2023, then Energy is likely to have a good run and EWC is likely to benefit from it. But we have to also weigh the counter-argument, which is that economic conditions will weaken, oil prices will decline and/or be volatile with an emphasis on the downside, and this exposure will harm performance. In my opinion this remains a reasonable place to be as we wrap up the year and begin a new one. But I will manage expectations by saying that every sector bull market runs out of steam eventually. If we see central banks continue to hike interest rates, China remains heavily locked-down, and investor worries mount, then Energy seems ripe for a downward correction. The sector has performed extremely well, and investors may be looking to take some chips off the table. This is especially true at the start of the year if investors were waiting for a fresh calendar before triggering tax gains. Therefore, while I remain an Energy bull and see this exposure as a tailwind for EWC, readers should give serious thought to the counter-argument that it could be a drag on performance going forward. This risk should not be ignored. The Domestic Yield Curve Is A Reason For Buying Foreign My final point touches on a key risk I see here at home - an impending recession. The U.S. has managed to perform very well coming out of the worst of the pandemic, but challenges remain. With interest rates elevated and consumer and investor sentiment very weak, a recession in 2023 is looking likely. The bond market is definitely telling us to prepare for one, as the treasury yield curves has reached its most inverted level since the Fed’s last inflation battle in the 1980's: Yield Curve (St. Louis Fed) I am not trying to come across as overly alarmist. I have been raising my cash holding to be sure, but the bulk of my portfolio is still U.S. stocks. So while I have been divesting a bit, I am still heavily exposed to large-cap U.S. companies and am hoping for a strong year in 2023. But I am planning for a difficult year. If the market surges and I make less than I otherwise would have, so be it. But after the run the indices have had over the past month, I am taking some short-term profit and waiting for better entry points on the S&amp;P 500 and Dow. In the interim, aside from taking advantage of higher interest rates in savings accounts and municipal bonds, I am looking outside U.S. borders again for value. With the inverted yield curve telling me to be cautious domestically, I think Canada has plenty to offer. This is fundamental to why I am buying EWC at the moment - the relative economic potential. Bottom-line EWC has had its ups and downs in 2022 and, to be fair, it has been mostly down. But the fund has recently gotten a bit higher and I see that as a sign to have confidence going forward. In relative terms, Canada has been a reasonable place to hide out. The economy is developed, quite stable by global standards, and continues to chug along in positive growth territory: Canada's GDP Growth (Quarterly) (Yahoo Finance) When looking overseas for exposure, Canada's growth story here seems like a safer bet to make. I trust developed markets more than emerging markets right now will all the headwinds facing the world. This, combined with sectors that will benefit from a continued higher interest rate and inflationary backdrop, makes EWC a good spot to park some cash. Therefore, I reiterate my "buy" rating on this fund, and encourage readers to give it some thought as we approach the end of the year.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The first Gran Turismo World Series champions of the Gran Turismo 7 era will be crowned later today, November 26, as the Manufacturers Cup final gets underway at 1600 UTC. There’ll be two races in the final, each of which requires the drivers to drive their brand’s car one each and with minimum stint lengths. After being selected for the very first invitational events in 2018, McLaren has never qualified for a live event and makes its debut with Hayato Imazato, Konstantin Konstantinou, and Ethan Lim. You’ll be able to pick who you think will come out as champion in the special, in-game “Bonus Campaign“.</t>
+          <t>AlxeyPnferov Main Thesis And Background The purpose of this article is to evaluate the iShares MSCI Canada ETF (NYSEARCA:EWC) as an investment option at its current market price. In short, there are a number of different options - so why choose Canada? But I like the country and the expense of other riskier geographical regions. But for U.S. investors like myself that are overweight the S&amp;P 500 - and therefore large-cap Tech stocks - I see this exposure in a positive light. I think these are important because having some relative safety in my diversification tactic is important. Despite a rising rate environment, inflationary pressures, and a gloomier economic environment, Canadian households have been willing to spend. Neither of these factors are guaranteed to persist in early 2023, but I don't see a high likelihood of an immediate reversal. While EWC is not overly reliant on the Consumer directly, with only 8.5% exposure to Consumer Discretionary and Consumer Staples, a healthy consumer picture is still vital to overall economic health: EWC's Sector Weightings (iShares) Ultimately, I see the consumer backdrop as favorable for equities as a whole right now. As long as Canadians are willing and able to part with their cash, the chances of a recession decline. Bank Of Canada Is Slowing Pace Of Rate Hikes As the chart in the prior paragraph shows, a bet on EWC is a heavy bet on the Canadian Financials sector. This is evidenced by its decision to raise rates by "only" .50 basis points when it last met in late October: Latest Move By Central Bank (Bank of Canada) I view this positively because it demonstrates the Bank of Canada is being reactive to changing economic conditions. Once we consider the Materials sector as well, we see that almost one-third of total assets are tied some way or another to commodity prices. But we have to also weigh the counter-argument, which is that economic conditions will weaken, oil prices will decline and/or be volatile with an emphasis on the downside, and this exposure will harm performance. The Domestic Yield Curve Is A Reason For Buying Foreign My final point touches on a key risk I see here at home - an impending recession. The bond market is definitely telling us to prepare for one, as the treasury yield curves has reached its most inverted level since the Fed’s last inflation battle in the 1980's: Yield Curve (St. Louis Fed) I am not trying to come across as overly alarmist. In the interim, aside from taking advantage of higher interest rates in savings accounts and municipal bonds, I am looking outside U.S. borders again for value. But the fund has recently gotten a bit higher and I see that as a sign to have confidence going forward. This, combined with sectors that will benefit from a continued higher interest rate and inflationary backdrop, makes EWC a good spot to park some cash.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1950,132 +1998,148 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9997629523277283</v>
+        <v>0.8545555472373962</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pakistani ex-PM Khan calls off protest march to avoid 'havoc' - Free Malaysia Today</t>
+          <t>IMF strategy chief heads to China to focus on speeding up debt treatments for poor nations - The Straits Times</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 22:37:35 GMT</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+          <t>Wed, 30 Nov 2022 22:57:04 GMT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WASHINGTON - The International Monetary Fund’s (IMF) strategy chief will travel to China next week for high-level meetings with senior Chinese officials as the IMF continues to press for quicker progress on debt restructurings for countries in need. Ms Ceyla Pazarbasioglu said on Wednesday she welcomed China’s participation in a debt treatment package for Chad, the first country to complete the process under the Common Framework set up in late 2020 by the Group of 20 (G-20) major economies. All eyes are on Zambia now, whose creditors are still hammering out a debt treatment solution, said Ms Pazarbasioglu, who described Zambia’s larger and more complicated debt restructuring as the real test case for the Common Framework. “It’s really critical that we need to move forward. We are working on this. Of course, the outreach to China next week is very important, at the highest levels,” she told reporters, noting that President Xi Jinping alone mentioned the framework in his remarks at the G-20 summit in Indonesia. The IMF, World Bank and officials in the Group of Seven advanced economies have criticised China - now the world’s largest sovereign creditor - for delaying efforts to restructure the debts of heavily indebted countries. About a quarter of emerging market economies - and 60 per cent of low-income countries - are at or near debt distress, the IMF has said, and it is urging countries to seek help early rather than wait until they are in full-blown crisis. Ms Pazarbasioglu said China was hosting a meeting of the “Premiere Plus”, including international financial institutions and officials from China Development Bank and the Export-Import Bank of China. Such meetings used to take place regularly, but were cancelled during the height of the Covid-19 pandemic. “It’s moving - very slowly, but it’s moving,” Ms Pazarbasioglu said, noting that the participation of mining company Glencore in the Chad treatment was also “a very good sign” that “even the most difficult private sector participants” were participating. REUTERS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>WASHINGTON - The International Monetary Fund’s (IMF) strategy chief will travel to China next week for high-level meetings with senior Chinese officials as the IMF continues to press for quicker progress on debt restructurings for countries in need. Of course, the outreach to China next week is very important, at the highest levels,” she told reporters, noting that President Xi Jinping alone mentioned the framework in his remarks at the G-20 summit in Indonesia.</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9992539286613464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Molson Coors Beverage (NYSE:TAP) Given Consensus Rating of "Hold" by Analysts - MarketBeat</t>
+          <t>Hibiscus signs RM554mil term loan, revolving credit deal - The Star Online</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 08:56:18 GMT</t>
+          <t>Thu, 01 Dec 2022 01:15:34 GMT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Molson Coors Beverage (NYSE:TAP - Get Rating) has been given a consensus recommendation of "Hold" by the thirteen analysts that are presently covering the company, MarketBeat reports. Two analysts have rated the stock with a sell recommendation and seven have given a hold recommendation to the company. The average 1-year price objective among brokers that have updated their coverage on the stock in the last year is $53.70. A number of research firms recently issued reports on TAP. Wedbush began coverage on Molson Coors Beverage in a research report on Monday, October 10th. They set a "neutral" rating and a $50.00 price objective for the company. Sanford C. Bernstein reduced their price objective on Molson Coors Beverage to $57.00 in a research report on Tuesday, August 9th. Bryan, Garnier &amp; Co cut Molson Coors Beverage from a "buy" rating to a "sell" rating and set a $54.00 price objective for the company. in a research report on Thursday, September 1st. Credit Suisse Group reduced their price objective on Molson Coors Beverage from $49.00 to $48.00 and set an "underperform" rating for the company in a research report on Thursday, October 27th. Finally, Deutsche Bank Aktiengesellschaft reduced their price objective on Molson Coors Beverage from $54.00 to $52.00 in a research report on Wednesday, August 3rd. Molson Coors Beverage Stock Performance Shares of Molson Coors Beverage stock opened at $55.58 on Friday. The stock has a market cap of $12.03 billion, a PE ratio of 24.38, a price-to-earnings-growth ratio of 3.66 and a beta of 0.84. The business has a fifty day simple moving average of $50.16 and a 200-day simple moving average of $53.06. The company has a quick ratio of 0.52, a current ratio of 0.77 and a debt-to-equity ratio of 0.45. Molson Coors Beverage has a 12 month low of $42.60 and a 12 month high of $60.12. Molson Coors Beverage Announces Dividend The company also recently declared a quarterly dividend, which will be paid on Thursday, December 15th. Investors of record on Friday, December 2nd will be paid a dividend of $0.38 per share. The ex-dividend date of this dividend is Thursday, December 1st. This represents a $1.52 annualized dividend and a yield of 2.73%. Molson Coors Beverage's dividend payout ratio is 66.67%. Institutional Investors Weigh In On Molson Coors Beverage A number of institutional investors have recently added to or reduced their stakes in TAP. SG Americas Securities LLC acquired a new stake in Molson Coors Beverage during the first quarter valued at approximately $466,000. Mutual of America Capital Management LLC boosted its holdings in Molson Coors Beverage by 1.1% during the first quarter. Mutual of America Capital Management LLC now owns 24,880 shares of the company's stock valued at $1,328,000 after purchasing an additional 260 shares in the last quarter. Arizona State Retirement System boosted its holdings in Molson Coors Beverage by 2.2% during the first quarter. Arizona State Retirement System now owns 53,033 shares of the company's stock valued at $2,831,000 after purchasing an additional 1,164 shares in the last quarter. Envestnet Asset Management Inc. boosted its holdings in shares of Molson Coors Beverage by 239.6% in the 1st quarter. Envestnet Asset Management Inc. now owns 108,976 shares of the company's stock worth $5,817,000 after acquiring an additional 76,883 shares in the last quarter. Finally, Commonwealth Equity Services LLC boosted its holdings in shares of Molson Coors Beverage by 6.9% in the 1st quarter. Commonwealth Equity Services LLC now owns 110,410 shares of the company's stock worth $5,893,000 after acquiring an additional 7,160 shares in the last quarter. 79.22% of the stock is owned by institutional investors and hedge funds. Molson Coors Beverage Company Profile Molson Coors Beverage Company manufactures, markets, and sells beer and other malt beverage products under various brands in the Americas, Europe, Middle East, Africa, and Asia Pacific. It offers flavored malt beverages, craft, and ready to drink beverages. The company was formerly known as Molson Coors Brewing Company and changed its name to Molson Coors Beverage Company in January 2020. Featured Stories This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider Molson Coors Beverage, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and Molson Coors Beverage wasn't on the list. While Molson Coors Beverage currently has a "Hold" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>PETALING JAYA: Hibiscus Petroleum Bhd , via its direct wholly-owned subsidiary Asia Hibiscus Sdn Bhd, has entered into its maiden long-term debt facility agreement for a total of US$120mil (RM553.7mil). The deal was signed yesterday with four banks – HSBC Bank Malaysia Bhd, Bank of China Malaysia Bhd, Industrial and Commercial Bank of China (M) Bhd and Standard Chartered Bank Malaysia Bhd. Hibiscus said in a statement the facility comprises a US$99mil (RM440.3mil) term loan and a US$21mil (RM93.4mil) revolving credit facility. It said the facility will be used primarily to drive the group’s organic growth plans for its current producing and development assets, as well as to fund working capital requirements. “We are delighted to have been able to develop a banking relationship with this consortium of banks which is supporting us with a flexible debt facility. We would like to sincerely thank them for their confidence and trust. “Our geographical footprint covers South-East Asia and the United Kingdom Continental Shelf and we believe this grouping of reputable financial institutions will provide the ideal foundation upon which we can build and grow a sustainable business in the years to come in these regions. “We are excited by the opportunity to work together, humbled by the trust that has been extended and cognizant of our responsibilities in this partnership,” said managing director Dr Kenneth Gerard Pereira. “Our relationship with Hibiscus is an example of what can be achieved through great collaboration with our prospective and existing client base,” said HSBC Malaysia head of commercial banking Karel Doshi.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Molson Coors Beverage (NYSE:TAP - Get Rating) has been given a consensus recommendation of "Hold" by the thirteen analysts that are presently covering the company, MarketBeat reports. Credit Suisse Group reduced their price objective on Molson Coors Beverage from $49.00 to $48.00 and set an "underperform" rating for the company in a research report on Thursday, October 27th. The stock has a market cap of $12.03 billion, a PE ratio of 24.38, a price-to-earnings-growth ratio of 3.66 and a beta of 0.84. The ex-dividend date of this dividend is Thursday, December 1st. Mutual of America Capital Management LLC now owns 24,880 shares of the company's stock valued at $1,328,000 after purchasing an additional 260 shares in the last quarter. Finally, Commonwealth Equity Services LLC boosted its holdings in shares of Molson Coors Beverage by 6.9% in the 1st quarter. Featured Stories This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. Before you consider Molson Coors Beverage, you'll want to hear this.</t>
+          <t>PETALING JAYA: Hibiscus Petroleum Bhd , via its direct wholly-owned subsidiary Asia Hibiscus Sdn Bhd, has entered into its maiden long-term debt facility agreement for a total of US$120mil (RM553.7mil). Our geographical footprint covers South-East Asia and the United Kingdom Continental Shelf and we believe this grouping of reputable financial institutions will provide the ideal foundation upon which we can build and grow a sustainable business in the years to come in these regions. “</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9483233094215393</v>
+        <v>0.9999836683273315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>International Commercial Cards Market Status by Manufactures, SWOT Analysis, Types and Competitors Study, Key Application, Outlook 2022 - 2029 - openPR</t>
+          <t>Hong Kong’s BEA Sells Non-Life Insurance Assets to AIA Unit - Asia Financial</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 07:01:00 GMT</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+          <t>Sat, 05 Mar 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>The Hong Kong-based bank expected to book an aggregate profit of HK$1.534 billion upon completion of the deals, according to a stock exchange filing Bank of East Asia (BEA) said it has agreed to sell its non-life insurance and healthcare services businesses to a unit of AIA Group for an aggregate HK$2.168 billion ($278 million). BEA agreed to sell its medical, travel and general insurance services unit Blue Cross (Asia-Pacific) Insurance and all of its 80% interest in healthcare services unit Blue Care JV (BVI) Holdings to AIA. “This transaction will expand the scope of BEA’s existing life bancassurance partnership with AIA, bringing benefits to customers, providing further sales opportunities and ultimately delivering additional value to shareholders,” BEA said in a statement. The Hong Kong-based bank expected to book an aggregate profit of HK$1.534 billion upon completion of the deals, it said in a filing to the Hong Kong bourse. Asia-focused AIA’s largest market is mainland China, which along with Hong Kong accounts for about half of its business. BEA shares have risen 11.8% so far this year as of last close, while AIA shares have gained 1%. “Our unrivalled multichannel distribution platform is at the heart of our strategy,” said Jacky Chan, AIA chief executive. This week, BEA announced that all branches will be closed on Saturdays from this weekend due to rising Covid-19 cases in the city. Previously, BEA temporarily closed 15 of its branches, and changed the branch opening hours for Mondays to Fridays to 9:00 a.m. until 4:00 p.m. George Russell READ MORE:</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>The Hong Kong-based bank expected to book an aggregate profit of HK$1.534 billion upon completion of the deals, according to a stock exchange filing Bank of East Asia (BEA) said it has agreed to sell its non-life insurance and healthcare services businesses to a unit of AIA Group for an aggregate HK$2.168 billion ($278 million). The Hong Kong-based bank expected to book an aggregate profit of HK$1.534 billion upon completion of the deals, it said in a filing to the Hong Kong bourse.</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9996280670166016</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mondelez International, Inc. (NASDAQ:MDLZ) Receives Consensus Recommendation of "Moderate Buy" from Brokerages - MarketBeat</t>
+          <t>Bank of East Asia to sell insurance business with Elliott backing - Reuters</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 08:54:45 GMT</t>
+          <t>Tue, 22 Sep 2020 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mondelez International, Inc. (NASDAQ:MDLZ - Get Rating) has been given an average rating of "Moderate Buy" by the eighteen analysts that are covering the stock, MarketBeat Ratings reports. Three analysts have rated the stock with a hold recommendation and ten have given a buy recommendation to the company. The average 12-month price objective among brokerages that have updated their coverage on the stock in the last year is $70.94. MDLZ has been the subject of several research reports. Exane BNP Paribas initiated coverage on shares of Mondelez International in a research note on Tuesday, November 15th. They set a "neutral" rating and a $68.00 price objective for the company. TheStreet cut shares of Mondelez International from a "b" rating to a "c+" rating in a research note on Tuesday, November 1st. Piper Sandler lowered their price objective on shares of Mondelez International to $68.00 in a research note on Wednesday, October 5th. Deutsche Bank Aktiengesellschaft boosted their price objective on shares of Mondelez International from $70.00 to $72.00 in a research note on Wednesday, November 2nd. Finally, The Goldman Sachs Group lowered their price objective on shares of Mondelez International from $75.00 to $65.00 and set a "buy" rating for the company in a research note on Monday, October 10th. Mondelez International Stock Up 0.0 % MDLZ stock opened at $66.69 on Friday. Mondelez International has a one year low of $54.72 and a one year high of $69.47. The company has a 50 day moving average price of $60.39 and a two-hundred day moving average price of $61.83. The stock has a market capitalization of $91.07 billion, a P/E ratio of 29.64, a PEG ratio of 3.36 and a beta of 0.66. The company has a debt-to-equity ratio of 0.74, a quick ratio of 0.46 and a current ratio of 0.69. Hedge Funds Weigh In On Mondelez International A number of institutional investors have recently added to or reduced their stakes in MDLZ. First Personal Financial Services raised its stake in shares of Mondelez International by 124.1% in the 3rd quarter. First Personal Financial Services now owns 484 shares of the company's stock valued at $27,000 after purchasing an additional 268 shares in the last quarter. Orion Capital Management LLC acquired a new stake in shares of Mondelez International in the 2nd quarter valued at about $31,000. Larson Financial Group LLC raised its stake in shares of Mondelez International by 332.2% in the 2nd quarter. Larson Financial Group LLC now owns 523 shares of the company's stock valued at $32,000 after purchasing an additional 402 shares in the last quarter. MCF Advisors LLC acquired a new stake in shares of Mondelez International in the 1st quarter valued at about $33,000. Finally, Selective Wealth Management Inc. raised its stake in shares of Mondelez International by 178.5% in the 2nd quarter. Selective Wealth Management Inc. now owns 557 shares of the company's stock valued at $35,000 after purchasing an additional 357 shares in the last quarter. Institutional investors and hedge funds own 76.41% of the company's stock. Mondelez International Company Profile Mondelez International, Inc, through its subsidiaries, manufactures, markets, and sells snack food and beverage products in the Latin America, North America, Asia, the Middle East, Africa, and Europe. It provides biscuits, including cookies, crackers, and salted snacks; chocolates; and gums and candies, as well as various cheese and grocery, and powdered beverage products. See Also This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider Mondelez International, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and Mondelez International wasn't on the list. While Mondelez International currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>HONG KONG (Reuters) - Hong Kong-based Bank of East Asia Ltd (BEA) 0023.HK said on Wednesday it had decided to initiate a sale of its insurance business and seek a strategic partner for its mainland China business following a review of its portfolios and assets. FILE PHOTO: A logo of the Bank of East Asia is displayed at a news conference in Hong Kong, China, in this February 15, 2016 file photo. REUTERS/Bobby Yip/Files The bank said in March it had agreed to carry out the review, pausing four-year-old legal proceedings brought by activist investor Elliott Management demanding change at the lender. BEA, whose main markets are Hong Kong and mainland China, said in its Wednesday statement that Elliott supported the move. Shares of BEA rose as much as 4.7% to HK$16.40 after the announcement, recovering from two consecutive sessions of falls. They have lost about 20% over the last 12 months. BEA has survived as an independent lender in a Hong Kong market dominated by majors HSBC HSBA.L, BOC Hong Kong 2388.HK and Standard Chartered STAN.L, while several of the territory's other family-owned firms have been put up for sale amid deteriorating business conditions. Having hired Goldman Sachs GS.N to assist with the review, BEA said it would seek to enter into a long-term exclusive distribution agreement with the buyer of BEA Life. The agreement would be a new source of revenue for the bank, it said. BEA Life is a wholly-owned subsidiary of the bank in Hong Kong, and it reported gross written premiums of HK$4.8 billion ($620 million) in 2019, the lender said in a filing to the Hong Kong stock exchange. In addition, BEA will look “to grow its core businesses, including through strategic and synergistic partnerships with, but not limited to, our Mainland China banking business,” the filing said. Elliott, which owns 7.5% of BEA according to data from Refinitiv’s Eikon, had previously urged the bank to explore putting itself up for sale in an open letter to shareholders, saying that it was poorly run. “The sale of BEA Life will be a good first step and we look forward to continuing our engagement while the Company follows through on this and the other important conclusions of the review,” Jonathan Pollock, co-CEO and chief investment officer at Elliott Management Corporation, said in a BEA news release. In 2016, Dah Sing Financial, another local Hong Kong bank, sold its life insurance business for $1.4 billion, the financial hub’s most expensive insurance M&amp;A, during a surge in outbound deals by deep-pocketed Chinese investors.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mondelez International, Inc. (NASDAQ:MDLZ - Get Rating) has been given an average rating of "Moderate Buy" by the eighteen analysts that are covering the stock, MarketBeat Ratings reports. Finally, The Goldman Sachs Group lowered their price objective on shares of Mondelez International from $75.00 to $65.00 and set a "buy" rating for the company in a research note on Monday, October 10th. The company has a debt-to-equity ratio of 0.74, a quick ratio of 0.46 and a current ratio of 0.69. Larson Financial Group LLC now owns 523 shares of the company's stock valued at $32,000 after purchasing an additional 402 shares in the last quarter. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. While Mondelez International currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys.</t>
+          <t>HONG KONG (Reuters) - Hong Kong-based Bank of East Asia Ltd (BEA) 0023.HK said on Wednesday it had decided to initiate a sale of its insurance business and seek a strategic partner for its mainland China business following a review of its portfolios and assets. BEA has survived as an independent lender in a Hong Kong market dominated by majors HSBC HSBA.L, BOC Hong Kong 2388.HK and Standard Chartered STAN.L, while several of the territory's other family-owned firms have been put up for sale amid deteriorating business conditions. In addition, BEA will look “to grow its core businesses, including through strategic and synergistic partnerships with, but not limited to, our Mainland China banking business,” the filing said.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9985465407371521</v>
+        <v>0.9977178573608398</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VIETNAM NEWS HEADLINES NOVEMBER 26 - VietNamNet</t>
+          <t>BEA opens TLAC market for Asia - GlobalCapital</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 14:35:44 GMT</t>
+          <t>Wed, 29 Jun 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Chairman of the National Assembly Vuong Dinh Hue (Photo: VNA) National Assembly Chairman Vuong Dinh Hue will pay official visits to Australia and New Zealand from November 30-December 6, announced the NA Foreign Relations Committee. The visits will be made at invitations by Speaker of the Australian House of Representatives Milton Dick, President of the Australian Senate Sue Lines, and Speaker of the New Zealand House of Representatives Adrian Rurawhe. Vietnam has two more Asia-Pacific documentary heritage Two heritage pieces of Vietnam were recognised as part of documentary heritage in Asia and the Pacific on November 26, at the 9th general meeting of the Memory of the World Committee for Asia and the Pacific in Andong city, the Republic of Korea.​ They are a collection of handwritten Chinese and Nom documents in Ha Tinh province and the 78 “ma nhai” steles on Ngu Hanh Son Mountain in Da Nang city. The steles feature writings of various genres by kings and mandarins of the Nguyen Dynasty, monks, and scholars who used to set foot in the scenic landscape between the first half of the 17th century and the 1960s. With the two abovementioned pieces, Vietnam now has nine in documentary heritage lists of UNESCO, including three in the world list and six in the Asia-Pacific list. Drivers test positive for drugs on Noi Bai-Lao Cai Expressway Five drivers have tested positive for drugs as police intensified their checks on the Noi Bai-Lao Cai Expressway for a week from November 15-21. The Traffic Police Department announced on November 23 that they had carried out more intensified checks on drivers and vehicles on roads nationwide for a week to prepare for the peak travel time during the coming Lunar New Year Festival. On the evening of November 22, a 32-year-old driver who was checked while driving on the Hanoi-Thai Nguyen Expressway tested positive for methamphetamine. A day earlier at 5 pm on November 21, a 30-year-old driver tested positive for drugs when being checked on the Noi Bai-Lao Cai Expressway. Police also found three other cases in which three drivers tested positive for drugs while running on the Noi Bai-Lao Cai Expressway. Decree 123 states that drivers testing positive for drugs will be subject to a fine of between VND 30-40 million and have their driving licenses revoked from 22-24 months. UNDP and Norway support Vietnamese marine spatial planning The UN Development Program (UNDP) and the Norwegian Embassy signed an agreement on November 23 in Hanoi to support the planning of national marine space for ocean sustainability and climate change response in the country over the next three years. The new technical package aims to assist the Vietnamese Government to implement the Marine Spatial Planning (MSP), thereby creating and establishing a more rational marine space structure, whilst finding a balance between growth demand and demand for maintaining marine ecosystem and socio-economic goals. The technical package is expected to assist the country to diversify the economy, respond to climate change, including marine renewable energy, offshore wind power, marine-derived pharmaceuticals, and enhance the production of seaweed in line with environmental protection requirements. Public awareness key to reducing risks associated with NCDs A comprehensive approach is needed among all sectors and stakeholders to reduce the risks associated with non-communicable diseases (NCDs), and to promote interventions to prevent and control them, medical experts said. Speaking at a conference on non-communicable diseases on Tuesday, Prof. Dr. Nguyễn Lân Việt, vice president of the Việt Nam Cardiology Association, said it was important to raise people’s awareness about the risks of NCDs for early detection and treatment management. During the event, the Việt Nam Cardiology Association and Merck Healthcare Vietnam Co., Ltd. signed an agreement to enhance awareness and knowledge about non-communicable diseases for the community and health workers. Under the agreement, training programmes will be organised for health workers in the 2023-2025 period. A website (www.01minh.com) will be developed to act as a medical “handbook” about NCDs for patients and medical staff. Among the problems facing the health sector include the shortage of medical staff in the field of NCDs, especially at hospitals at provincial, district and commune levels. There is also a shortage of drugs, facilities and equipment, especially at grassroots medical stations. “Color secret” shows unique paintings by Thai and Vietnamese artists A painting exhibition titled “Color Secret” and launched by artists Vichit Nongnual of Thailand and Ha Hung Dung of Vietnam has opened in Ho Chi Minh City, leaving a hugely positive impression on art lovers. A total of 36 artworks are on display at the event, showcasing the combination between traditional artistic values and contemporary global art. Born in 1971, Vichit Nongnual is well known throughout Asia, Europe, and the United States, having graduated from the faculty of ceramic decorative arts in Silpakorn University of Thailand. In 2019, an exhibition introducing works by Thai artist Vichit Nongnual took place at Dong A Gallery in Hanoi, with 25 colourful portrait artworks on display depicting typical characteristics of Asian people. Meanwhile, Ha Hung Dung, a Ho Chi Minh City - based artist, is renowned for his paintings depicting life in rural areas of the country’s northwestern region. The exhibition is held at Luala Art Space &amp; Gallery on 189 C/4 Nguyen Van Huong street of Thao Dien ward in District 2 of Ho Chi Minh City, and will last through to November 28. Futabusline to start shuttle service to new Mien Dong Coach next month Phuong Trang Futabusline Passenger Car Corporation will provide passengers with free shuttle services from and to the new Mien Dong Coach Station beginning in December. The HCMC Department of Transport officially approved Futabusline’s proposal for their free shuttle service yesterday afternoon, November 23, with the aim to assist transportation from inner-city areas to the station, and back again. Saigon Transportation Mechanical Corporation (SAMCO) has been assigned to coordinate with Futabusline in organizing free shuttle services from December 1, 2022 to at least June 30, 2023. Both units have to ensure the convenience of their passengers, as well as objectivity and transparency in management, administration, and application of information technology. Previously, SAMCO sought approval for setting up additional transit areas in the inner-city districts. Although SAMCO offered shuttle services to their passengers, the number of transit vehicles has been inadequate to satisfy the current travel demand. National Traffic Safety Committee has new Vice Chairman Prime Minister Pham Minh Chinh has signed a decision assigning Minister of Transport Nguyen Van Thang as Standing Vice Chairman of the National Traffic Safety Committee (NTSC). Minister of Transport Nguyen Van Thang is assigned as Standing Vice Chairman of the National Traffic Safety Committee The NTSC is headed by Standing Deputy Prime Minister Pham Binh Minh. The other two Vice Chairmen of the committee include Khuat Viet Hung (Executive Vice Chairman), and Deputy Minister of Public Security Le Quoc Hung. Under the Prime Minister's Decision 22/2017/QD-TTg, dated June 22, 2017, the NTSC is an inter-agency coordinator responsible for assisting the Prime Minister in directing ministries, sectors and localities to implement national strategies and projects on ensuring traffic safety and order as well as deploy interdisciplinary solutions in this field on a national scale. Food festival helps promote intra-ASEAN friendship A food festival themed “Unity in Diversity” opened in Ho Chi Minh City on November 24, with the aim of promoting friendship and cooperation between the people of Vietnam and other member countries of the Association of Southeast Asian Nations (ASEAN). Hosted by the Ho Chi Minh City Union of Friendship Organisations (HUFO), the four-day event features 50 booths of businesses and restaurants which introduce special traditional dishes of Vietnam and other countries in the region. HUFO Vice President Ho Xuan Lam underlined the significance of the event, saying that it is part of activities organised in 2022 to celebrate ASEAN’s 55th founding anniversary (1967-2022). Within the framework of the festival, an art exchange night, shows of traditional costumes and street art performances will be also organised. “Ego-Human” exhibition creates an urban space with the soul of the nation The “Ego-Human” exhibition from artist Ngo Xuan Binh has opened at the Hanoi Museum as a part of 50 events within the Hanoi Creative Design Festival in 2022 with the theme “Creativity and Technology”. This is the largest art exhibition in the artist’s career, featuring more than 200 lacquer and oil paintings and more than 100 sculptures from materials such as bronze, stone, and wood. These works are designed for urban spaces, contributing to creating a colourful cultural life for modern citizens. According to Binh, it takes humanity thousands of years to form an ego or national identity, but only takes a few decades, or even just a few years, to erase the cultural ties typical of a region or a nation, such as craft villages, customs, architecture, farming methods, and religion. He therefore always takes tradition as the source of his works. The exhibition will run until the end of March. "Run for the Heart 2023" charity programme launched The “Run for the Heart 2023”, an annual charity programme which aims to raise funds for children who need heart surgeries, has been launched by VinaCapital Foundation and Gamuda Land Vietnam. The programme will conclude with a charity-run event on February 12, 2023 with the participation of up to 10,000 people. Those, who are interested in or want to support the programme, can contribute to the fund by visiting Gamuda Land's offices in Ho Chi Minh City, transfer money to Heartbeat Vietnam programme or participate in Vietrace365, one of the most popular online virtual race platforms in the running community in Vietnam. Since 2013, the programme has raised over 35 billion VND (1.4 million USD) to help more than 1,300 Vietnamese children receive free heart surgeries. World Peace Council’s 22nd Assembly elect new Executive Committee The 22nd Assembly of the World Peace Council (WPC), which is underway in Hanoi, elected a new executive committee with 40 members on November 24. The new executive committee elected Pallab Sengupta, General Secretary of the All India Peace and Solidarity Organisation, as President of the WPC with absolute consensus. Athanasios Pafilis was re-elected General Secretary of the council, and Iraklis Tsavdaridis was elected executive secretary. The committee also elected five Vice Presidents representing the Americas, Asia-Pacific, Middle East, Africa, and Europe, and 11 members of the council’s secretariat. The same day, the Vietnam Fatherland Front Central Committee held a meeting with the WPC delegation. Samsung continues efforts for sustainable investment in Vietnam Samsung Vietnam organised its third recruitment drive for university graduates in 2022 at the Global Samsung Aptitude Test (GSAT) in Hanoi on November 23 as one of its efforts to demonstrate commitment to long-term and sustainable investment in Vietnam. Similar tests were also held in March and June this year. GSAT is a global Samsung competency test for university graduates, consisting of three basic parts: “logical math”, “reasoning” and "visual thinking”. This is one of the important rounds in the recruitment process of employees who are university graduates for all Samsung Group’s companies in the world. Candidates who pass the GSAT round will move forward to the interview round scheduled to take place on December 10. The outstanding candidates with the best results from the interview round will officially become Samsung Vietnam employees in early 2023 and work at one of Samsung's branches: Samsung Vietnam Mobile Research and Development Center (SVMC), Samsung Electronics Vietnam Company (SEV), Samsung Electronics Vietnam Thai Nguyen (SEVT), Samsung Display Vietnam (SDV), Samsung Electro-Mechanics Vietnam (SEMV), and Samsung SDS Vietnam (SDS). Ba Ria-Vung Tau hosts 29th meeting of Mekong River Commission Council The 29th Meeting of the Mekong River Commission (MRC) Council was held in the southern province of Ba Ria-Vung Tau on November 24 under the chair of Vietnamese Minister of Natural Resources and Environment Tran Hong Ha. The event brought together MRC Council members from Cambodia, Laos, Thailand and Vietnam, and representatives from development and dialogue partners, along with international organisations in the region. On the occasion, a meeting of the 27th development partner consultative group was also convened. In 2022, the MRC continued to complete commitments made by high-ranking leaders of the countries by accelerating the implementation of the 2021-2030 Basin Development Strategy for the Mekong River Basin and procedures regarding the use of water resources, heard the meeting. The delegates approved a plan for the MRC for 2023-2024, focusing on upgrading the monitoring network for water resources and environment, and intensifying the sharing of information and data on the exploration and use of water resources between the member countries and upstream countries including China and Myanmar, among others. At the end of the meeting, Ha handed over the MRC Council Chairmanship to Cambodia. The 30th meeting of the council is scheduled to take place in Cambodia next year. Policy toolkit to strengthen ASEAN women’s entrepreneurship launched The Association of Southeast Asian Nations (ASEAN), United Nations Economic and Social Commission for Asia and the Pacific (ESCAP), and the Government of Canada on November 23 launched the Policymakers Toolkit “Strengthening Women’s Entrepreneurship in National Micro, Small and Medium Enterprise Policies and Action Plans”. The toolkit was developed by ESCAP in close collaboration with all 10 ASEAN member countries. It was designed to enable policymakers involved in promoting women entrepreneurship, especially the MSME development agencies, assess gaps, take stock of opportunities, and design gender-focused interventions through national policies to advance women’s entrepreneurship in the ASEAN region. It is a priority economic deliverable under Cambodia’s ASEAN Chairmanship in 2022 and was endorsed by the ASEAN Economic Ministers at the 54th ASEAN Economic Ministers Meeting in September 2022, and was subsequently acknowledged at the 40th and 41st ASEAN Summits. Australian professor wins Ho Chi Minh Prize for joint TB research One of two 2022 Ho Chi Minh Scientific Prize in the area of health care has been presented to a team of 23 respiratory researchers that include three researchers from Australian universities and research institute. The group of infectious disease experts combating the spread of tuberculosis in Vietnam has been recognised for their tireless research and advocacy, which has spanned over a decade. Since 2009, the Australian medical researchers have collaborated with the National Tuberculosis Program to work closely with Vietnamese researchers across 135 clinics throughout Vietnam to find effective ways to tackle this challenge. Their work and discoveries range from a ground-breaking innovation to end TB by using modern medical technology to perform community-wide testing for, and treatment of, TB to stop the disease in its tracks, to new effective and shorter treatment regimens for latent TB infection and active TB disease, and digital health as well as social psychological support for TB patients by improving their treatment adherence and better managing their side effects. In accepting the award, Greg Fox, Professor of Respiratory Medicine at The University of Sydney, Australia, and the Woolcock Institute of Medical Research, said it was an immense honour to receive the award from the Government of Vietnam, in recognition of his work advocating for greater access and equity for Tuberculosis diagnosis and treatment in the country. The University of Sydney and the Woolcock Institute of Medical Research are key partners to run significant research on tuberculosis area for the last 10 years in Vietnam. Research outcomes were published in prestigious international scientific journals and have been translated into global or national policies. As a result of this work, active case finding to detect TB is implemented widely throughout Vietnam and in many other high burden countries in the world, saving thousand lives. World champion Duy Nhat to compete in MTGP Vietnam Championship 2023 Local fighter Nguyen Tran Duy Nhat, who rose to prominence after winning a gold medal at the World Games 2022, will compete in the Muaythai Grand Prix (MTGP) Vietnam Championship 2023 which is scheduled to take place in March next year. Information about the scheduling of the tournament was released at a press conference held on November 23 in Hanoi. Moving forward, the competition is set to get underway in Ho Chi Minh City in March, 2023. MTGP Vietnam Championship 2023 will attract the participation of several of the world’s leading fighters, including Changpuak Pongtong of Thailand, Jeremy Payet of France, Liam Chirag Patel of Britain, and Duy Nhat of Vietnam. According to details given by the organisers, MTGP and Vietnam Television (VTVcab), all matches will be broadcast live on VTVcab’s channels and social networks. Athletes will compete in 12 weight categories, including three professional and nine semi-pro events. Fighters who win in the semi-pro events will receive a cash prize of VND10 million each, whilst the winners of the professional events will be awarded VND35 million each. In particular, the World Welterweight Title Fight will be held in Ho Chi Minh City on December 29 ahead of MTGP Vietnam Championship 2023. The occasion will see Huynh Van Tuan of Vietnam take on Wara Yut Wanahamriang of Thailand in the 51kg category, Truong Cao Minh Phat and Liam Chirag Patel of Britain in the 60kg category, and Nguyen Tran Duy Nhat and Ponphitak Sukparised in the 60kg category. Local tennis ace off to great start at Yokkaichi Challenger 80 Leading Vietnamese tennis player Ly Hoang Nam defeated Japanese opponent James Trotter in the first round of the ongoing Yokkaichi Challenger 80. The Japanese player, world No.491, proved to be a challenging opponent for Nam, world No.234, during the first set. However, Nam was able to take advantage of his rival’s mistakes to successfully beat him with a score of 6-3. Moving into the second set, Nam continued to dominate the match and produced a stunning display to win 6-1, whilst the Vietnamese player accumulated an additional seven points thanks to the impressive win. Moving forward, No. 7 seed Nam will face off against another Japanese player Sho Shimakukuro, world No.284, in the next round. If Nam qualifies for the quarterfinals of the competition, he will play against No. 1 seed in the form of Japanese opponent Kaichi Uchida, who ranks 165th in the ATP rankings. Prosecution starts in iSchool food poisoning case The Khánh Hòa Police Department announced on Wednesday they have started the prosecution process in the case of "Violation in food safety regulation" happening at iSchool Nha Trang. The decision was made after a police investigation into a mass food poising which hospitalised 665 students and teachers and killed a Malaysian-Vietnamese student named Lee Zhe X., aged 6. He died on the way to an HCM City hospital. The Khánh Hòa Police Investigation Agency was present at iSchool Nha Trang to investigate and took testimonies from canteen workers. On November 17, over 800 students had lunch at the campus of iSchool Nha Trang. The lunch consisted of rice, fried chicken, vegetables and a sauce made from eggs and cooking oil. After eating, many iSchool Nha Trang students began displaying food poisoning symptoms, including fever, vomiting, and diarrhea. Hospitals in Khánh Hòa registered 665 cases relating to the food poisoning incident at iSchool Nha Trang. Eighty six cases are currently hospitalised. A study by Nha Trang's Pasteur Institute found three dangerous bacteria types in the food. Salmonella, Bacillus cerus and E.coli was present in the fried chicken. Bacillus cerus is also found in the sauce and a toxin that causes hemolysis. Authorities have identified the canteen manager who provided the lunch as Bùi Phúc Lam, 40. Lam was registered officially with authorities to run a food catering business in September 2015, and had a food safety certification granted by Nha Trang's Public Health Station on October 19. The Khánh Hòa Police Investigation Agency ordered the Khánh Hòa Department of Health to gather data on iSchool Nha Trang students who came to the hospitals for treatment. Medical files and blood samples of patients must also be available for investigative work, according to the Khánh Hòa Police Investigation Agency in their document. Friendly match against Dortmund important for Việt Nam, says Park A friendly match against Borussia Dortmund is considered a good opportunity for the national team of Việt Nam to get better in different areas. Head coach Park Hang-seo spoke to reporters on the first day of his team's practice in Hà Nội. Park said Việt Nam could learn a lot from Dortmund when the two sides meet each other later this month in Hà Nội. He said although there was a gap between the two teams, his players would not let their supporters leave disappointed. Meanwhile, the friendly match gives Park a chance to test new players and check his formation ahead of the 2022 AFF Cup in December. Park and the national team will have one week of practice before they entertain Dortmund at Mỹ Đình Stadium on November 30. Dortmund, bringing its stars such as Emre Can, Mats Hummels and Marco Reus, will land in Việt Nam on November 29 after playing matches in Singapore and Malaysia. Supporters will have a chance to watch the team at an open training session on November 29 evening. Meanwhile, those who attend the match will have opportunities to win prizes worth a total of about VNĐ157 million (US$6,350). Hanoi, Binh Dinh to meet in National Cup final Hà Nội will defend its National Cup title in the finals against Topenland Bình Định on November 27 in Hà Nội. Reigning Hà Nội defeated Hoàng Anh Gia Lai 2-0 in the first semi-final match on November 23 in the Central Highlands city of Pleiku. In the second semi-final, Bình Định trounced Thanh Hóa 4-0 on their home ground of Quy Nhơn Stadium. Rafaelson Bezerra Fernandes made a hattrick with goals at the 15th, 45th and 63rd minutes. The other goal went to Hendrio Da Silva seven minutes to the end. In the final, Hà Nội will hope for a more positive outcome playing at home as in their latest meeting in September, Bình Định won 3-0 at Hàng Đẫy. Ha Long to close another open-cast mine The 917 open-cast mine operated by the Hon Gai Coal Company in Quang Ninh Province's Ha Long City will be closed in December, which is the second of its kind to be closed in over a year in the area. Earlier Nui Beo, the largest open-cast coal mine in the northern province was completely closed in 2021 following the province's target to switch to more environmentally-friendly coal mining. Nui Beo started to shift to underground mining in 2012 and extracted its first tonnes in 2017. The mine achieved an output of 1.10 million tonnes last year. Nui Beo used to be the biggest open cast coal source in Ha Long City with an average annual output of five million tonnes. Quang Ninh plans to close the last open-cast coal mine operated by Ha Tu Coal Company latest by 2028 to transform entirely to underground coal mining. The province has worked open-cast coal mines for decades, work that has had serious environmental consequences for Ha Long City and Ha Long Bay. Fujikin Da Nang Research Center launched Fujikin Da Nang Research, Development and Production Center was officially introduced yesterday. Being a cooperative project between Fujikin Incoporated and University of Science and Technology (member of Da Nang University), it is located in Da Nang Hi-tech Park (in Hoa Lien Commune of Hoa Vang District), with a total surface area of 33,100m2 and total investment of US$35 million. When in operation, Fujikin Da Nang Research, Development and Production Center aims at boosting scientific research and technological development in the fields of flying and unmanned equipment, hydrogen energy equipment, Nano equipment, AI technology, water filter systems, wireless power transmission, and new materials. Another focus on the Center is the development of robot versions, medical equipment. It will commercialize successful research results. Transport experts call for comprehensive roadmap on converting buses to clean fuel The State and transport enterprises need to conduct detailed studies on challenges in replacing petrol and diesel-powered public buses with electric vehicles. More research is needed in order to build a comprehensive roadmap for the replacements in each locality, the Institute for Transportation and Development Policy has said. In that way, the country could achieve the goal of 50 per cent of buses running on clean fuel by 2030, it said. Results of the institute’s recent survey on public transport demand in five big cities showed that the market share of buses was between 8-9 per cent in Hà Nội. HCM City had a rate of 7.5 per cent while the cities of Hải Phòng, Đà Nẵng and Cần Thơ only reached approximately 1 per cent. The country currently has 854 bus routes and 8,500 buses running on a total length of 32,344 kilometres of roads. However, only 849 are environmentally friendly vehicles. Of those, 702 buses, or 82.7 per cent, use compressed natural gas (CNG) and the rest are electric vehicles. Figures from Hà Nội’s Department of Transport’s Public Transport Management Centre showed that the city currently has 130 bus routes with 1,966 vehicles. Only 220 buses are electric or run on clean fuel. The majority, accounting for 89 per cent of the total, are petrol and diesel-powered buses. Many forest rangers in Binh Thuan quit their jobs The Department of Agriculture and Rural Development of Binh Thuan Province, on November 24, said that from October 2020 to the present time, up to 116 people who are forest rangers and local forest protection forces have resigned. The Department of Agriculture and Rural Development of Binh Thuan Province has one forest protection branch, ten forest ranger districts, and 17 specialized units for forest protection, with a total staff of 829 people. Forest protection forces quit their jobs partly due to the hard-working conditions, difficulties in many aspects, and low income. In addition, the forest protection forces face lots of pressure and potential dangers, while the tools to support them in performing their tasks are extremely rudimentary. The Department of Agriculture and Rural Development of Binh Thuan Province has reported to the Vietnam Administration of Forestry, proposing the competent authority to issue specific support policies for officials and laborers, managing and protecting forests, such as occupational preferential allowances, toxic allowances; regime for wounded soldiers and martyrs due to accidents while performing their duties; adjusting and amending wage policies, increasing allowances, and raising wages; equipping support tools with enough deterrent for the specialized forest protection forces so that they are confident enough when doing their duties. WB education projects prove effective in Vietnam Many projects on education and training funded by the World Bank (WB) have reported good results, affirmed Minister of Education and Training Nguyen Kim Son during his recent working session with Cristian Aedo, Practice Manager for the Global Practice Education in South Asia at the WB. Son affirmed that his ministry attaches special importance to its cooperation with the international lender. The effectiveness of the bank’s investment projects such as the construction of the Vietnam-Germany University, the Enhancing Teacher Education Project (ETEP) and the Support for Autonomous Higher Education Project (SAHEP) has had important contributions to the development of education and training in Vietnam, he stated. The minister expressed his hope for more support from the World Bank in implementing a new preschool education programme, and in support of preserving ethnic minority languages. Vietnam honoured as Asia's Best Golf Destination 2022 The nation has been named as the Asia's Best Golf Destination 2022 at the ninth annual World Golf Awards which was recently held in Abu Dhabi in the United Arab Emirates. The awards saw the country surpass strong rivals such as Japan, the Republic of Korea, Thailand, and Malaysia to win the title. Most notably, it marks the sixth consecutive year that Vietnam has been honoured with the Asian title since 2017. Asia’s Best Golf Destination award is part of World Golf Awards, an event which has been held annually since 2014 and is widely viewed as the most prestigious award in the golf tourism industry. Most notably, the Vietnam Tourism Golf Association (VTGA) also received the World's Best Golf Association 2022, while Els Performance Golf Academy also won the World's Best Par 3 Golf Course 2022. UN facilitates women’s participation in peacekeeping operations: UN Under-Secretary-General The United Nations will continue creating a favourable environment for women, including those from Vietnam, to effectively participate in peacekeeping operations, UN Under-Secretary-General for Peace Operations Jean-Pierre Lacroix told a conference in Hanoi on November 26. Deputy Minister of National Defence Sen. Lieut. Gen. Hoang Xuan Chien, who is head of the ministry’s steering committee on Vietnam’s participation in UN peacekeeping missions, said that Vietnam has joined the UN’s work since 2014. Among 512 Vietnamese officers and soldiers sent to the UN peacekeeping missions, over 70 are women. Maj. Gen. Hoang Kim Phung, Director of the Vietnam Peacekeeping Department, said that Vietnamese female soldiers hold many different positions such as military observers, doctors and nurses, and have been all assessed by the UN as successfully and excellently completing their tasks. In addition, Vietnamese female soldiers are also bright spots in many UN activities in field missions, especially in people-to-people diplomacy. Source: VNA/SGT/VNS/VOV/Dtinews/SGGP/VGP/Hanoitimes</t>
+          <t>The content you are trying to view is exclusive to our subscribers. To unlock this article:</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Chairman of the National Assembly Vuong Dinh Hue (Photo: VNA) National Assembly Chairman Vuong Dinh Hue will pay official visits to Australia and New Zealand from November 30-December 6, announced the NA Foreign Relations Committee. A day earlier at 5 pm on November 21, a 30-year-old driver tested positive for drugs when being checked on the Noi Bai-Lao Cai Expressway. Color secret” shows unique paintings by Thai and Vietnamese artists A painting exhibition titled “Color Secret” and launched by artists Vichit Nongnual of Thailand and Ha Hung Dung of Vietnam has opened in Ho Chi Minh City, leaving a hugely positive impression on art lovers. National Traffic Safety Committee has new Vice Chairman Prime Minister Pham Minh Chinh has signed a decision assigning Minister of Transport Nguyen Van Thang as Standing Vice Chairman of the National Traffic Safety Committee (NTSC). Food festival helps promote intra-ASEAN friendship A food festival themed “Unity in Diversity” opened in Ho Chi Minh City on November 24, with the aim of promoting friendship and cooperation between the people of Vietnam and other member countries of the Association of Southeast Asian Nations (ASEAN). Hosted by the Ho Chi Minh City Union of Friendship Organisations (HUFO), the four-day event features 50 booths of businesses and restaurants which introduce special traditional dishes of Vietnam and other countries in the region. Ego-Human” exhibition creates an urban space with the soul of the nation The “Ego-Human” exhibition from artist Ngo Xuan Binh has opened at the Hanoi Museum as a part of 50 events within the Hanoi Creative Design Festival in 2022 with the theme “Creativity and Technology”. Those, who are interested in or want to support the programme, can contribute to the fund by visiting Gamuda Land's offices in Ho Chi Minh City, transfer money to Heartbeat Vietnam programme or participate in Vietrace365, one of the most popular online virtual race platforms in the running community in Vietnam. The same day, the Vietnam Fatherland Front Central Committee held a meeting with the WPC delegation. The delegates approved a plan for the MRC for 2023-2024, focusing on upgrading the monitoring network for water resources and environment, and intensifying the sharing of information and data on the exploration and use of water resources between the member countries and upstream countries including China and Myanmar, among others. It was designed to enable policymakers involved in promoting women entrepreneurship, especially the MSME development agencies, assess gaps, take stock of opportunities, and design gender-focused interventions through national policies to advance women’s entrepreneurship in the ASEAN region. The group of infectious disease experts combating the spread of tuberculosis in Vietnam has been recognised for their tireless research and advocacy, which has spanned over a decade. Moving forward, the competition is set to get underway in Ho Chi Minh City in March, 2023. In particular, the World Welterweight Title Fight will be held in Ho Chi Minh City on December 29 ahead of MTGP Vietnam Championship 2023. Moving into the second set, Nam continued to dominate the match and produced a stunning display to win 6-1, whilst the Vietnamese player accumulated an additional seven points thanks to the impressive win. 7 seed Nam will face off against another Japanese player Sho Shimakukuro, world No.284, in the next round. The Khánh Hòa Police Investigation Agency was present at iSchool Nha Trang to investigate and took testimonies from canteen workers. After eating, many iSchool Nha Trang students began displaying food poisoning symptoms, including fever, vomiting, and diarrhea. Bacillus cerus is also found in the sauce and a toxin that causes hemolysis. Friendly match against Dortmund important for Việt Nam, says Park A friendly match against Borussia Dortmund is considered a good opportunity for the national team of Việt Nam to get better in different areas. Head coach Park Hang-seo spoke to reporters on the first day of his team's practice in Hà Nội. Supporters will have a chance to watch the team at an open training session on November 29 evening. Meanwhile, those who attend the match will have opportunities to win prizes worth a total of about VNĐ157 million (US$6,350). In the second semi-final, Bình Định trounced Thanh Hóa 4-0 on their home ground of Quy Nhơn Stadium. Rafaelson Bezerra Fernandes made a hattrick with goals at the 15th, 45th and 63rd minutes. Nui Beo used to be the biggest open cast coal source in Ha Long City with an average annual output of five million tonnes. Fujikin Da Nang Research Center launched Fujikin Da Nang Research, Development and Production Center was officially introduced yesterday. Another focus on the Center is the development of robot versions, medical equipment. The country currently has 854 bus routes and 8,500 buses running on a total length of 32,344 kilometres of roads. The majority, accounting for 89 per cent of the total, are petrol and diesel-powered buses. WB education projects prove effective in Vietnam Many projects on education and training funded by the World Bank (WB) have reported good results, affirmed Minister of Education and Training Nguyen Kim Son during his recent working session with Cristian Aedo, Practice Manager for the Global Practice Education in South Asia at the WB. The awards saw the country surpass strong rivals such as Japan, the Republic of Korea, Thailand, and Malaysia to win the title. Gen. Hoang Xuan Chien, who is head of the ministry’s steering committee on Vietnam’s participation in UN peacekeeping missions, said that Vietnam has joined the UN’s work since 2014.</t>
+          <t>The content you are trying to view is exclusive to our subscribers.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2084,192 +2148,204 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9982231259346008</v>
+        <v>0.9999725818634033</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brokerages have given Alphabet Inc. (NASDAQ:GOOG) an average recommendation of "Moderate Buy." - Best Stocks</t>
+          <t>Bank of East Asia to ride on AIA dominance in China after divesting insurance assets in partial victory for Paul Singer's hedge fund - Yahoo Finance</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 23:12:51 GMT</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+          <t>Sun, 28 Mar 2021 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The latest sale also comes with a 15-year deal giving AIA Group the exclusive right to sell life insurance products to BEA'S personal banking customers in mainland China, Hong Kong and Macau for a fee. The banking group had US$114.1 billion of assets at the end of 2020, while AIA Group had US$326.1 billion. Do you have questions about the biggest topics and trends from around the world? Get the answers with SCMP Knowledge, our new platform of curated content with explainers, FAQs, analyses and infographics brought to you by our award-winning team. "This will allow us to earn a good commission income every year," BEA'S co-chief executive Adrian Li Man-kiu said by phone on Thursday. "It will also be a good strategic partnership" for both parties to capture the big cross-border business opportunities, he added. Adrian Li Man-kiu (right) and Brian Li Man-bun (left) became co-chief executives of the Bank of East Asia from July 2019. Photo: Handout alt=Adrian Li Man-kiu (right) and Brian Li Man-bun (left) became co-chief executives of the Bank of East Asia from July 2019. Photo: Handout&gt; The BEA-AIA partnership will challenge home rivals with a longer history of tie-up who are positioning themselves in the much heralded Greater Bay Area development. The anticipated cross-border Wealth Management Connect and Insurance Connect could be "the next big thing," Li added. HSBC, the biggest bank in Europe and Hong Kong, struck a similar long-term deal with AXA in 2012 after hiving off its general insurance business to the French group in 2012. Standard Chartered agreed in 2017 to sell Allianz's general insurance products to its retail banking clients in China and the region. The purchase of BEA Life will further entrench AIA's commanding position. Hong Kong and mainland China each contributed 35 per cent and 21 per cent to its operating profit after tax of US$5.94 billion in 2020, its two single-largest markets. Story continues "The many partnerships is a clear indication that banks are struggling to make good profit, particularly during economic downturns following the global financial crisis in 2008 and also in recent years during the pandemic," said Kenny Ng Lai-yin, a strategist at Everbright Sun Hung Kai. BEA, with a large network of 140 branches in Hong Kong and mainland cities, could help AIA to expand sales, especially in the Greater Bay Area, Ng said. Collapse of a market alt=Collapse of a market&gt; For Paul Singer's Elliott Management, the sale of BEA Life represents a partial victory. His fund, which held an 8.54 per cent stake at the end of 2020, fought BEA and some of its directors from 2014 to force the lender to sell its business or slim down. His reward may be some payout from part of the HK$5.07 billion proceeds. Elliott Management, under its CEO and founder Paul Singer, battles with BEA and its directors after emerging as a shareholder in 2014. Photo: Reuters alt=Elliott Management, under its CEO and founder Paul Singer, battles with BEA and its directors after emerging as a shareholder in 2014. Photo: Reuters&gt; The stock was little changed this year at HK$16.54 while the Hang Seng Index climbed 4.1 per cent. Still, the bank has slumped 42 per cent over the past five years while the benchmark index rose 38.2 per cent, partly battered by huge loan losses in its mainland China operations. BEA will consider how to reward shareholders, with options including paying a special dividend or share buy-back, co-CEO Li said in the phone interview. It will also use the proceeds to hire more people to strengthen its wealth management and digital banking units. "We will continue to look for other partnerships to expand our business in future or to make acquisitions when good opportunities arise," he said. For now, however, it has no further plans to sell its existing assets, Li added. This article originally appeared in the South China Morning Post (SCMP), the most authoritative voice reporting on China and Asia for more than a century. For more SCMP stories, please explore the SCMP app or visit the SCMP's Facebook and Twitter pages. Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved. Copyright (c) 2021. South China Morning Post Publishers Ltd. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The latest sale also comes with a 15-year deal giving AIA Group the exclusive right to sell life insurance products to BEA'S personal banking customers in mainland China, Hong Kong and Macau for a fee. Do you have questions about the biggest topics and trends from around the world? Photo: Handout alt=Adrian Li Man-kiu (right) and Brian Li Man-bun (left) became co-chief executives of the Bank of East Asia from July 2019. Story continues "The many partnerships is a clear indication that banks are struggling to make good profit, particularly during economic downturns following the global financial crisis in 2008 and also in recent years during the pandemic," said Kenny Ng Lai-yin, a strategist at Everbright Sun Hung Kai. His reward may be some payout from part of the HK$5.07 billion proceeds. Photo: Reuters alt=Elliott Management, under its CEO and founder Paul Singer, battles with BEA and its directors after emerging as a shareholder in 2014. Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved.</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9876769781112671</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brokerages have a general recommendation of "Hold" for TE Connectivity Ltd. (NYSE:TEL), according to the consensus. - Best Stocks</t>
+          <t>‘It all failed’: did Japan get tackling an ageing society wrong? - South China Morning Post</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 22:06:46 GMT</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+          <t>Mon, 28 Nov 2022 02:04:03 GMT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Elderly people walk with others through the Asakusa area of Tokyo. South Korea’s central bank chief thinks Japan’s ‘sideshow’ of using stimulus to combat the challenges of an ageing economy is best avoided. Photo: Kyodo</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Elderly people walk with others through the Asakusa area of Tokyo. South Korea’s central bank chief thinks Japan’s ‘sideshow’ of using stimulus to combat the challenges of an ageing economy is best avoided.</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.6399792432785034</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Regime Change In Pakistan: The Conspiracy And Its Aftermath – Analysis - Eurasia Review</t>
+          <t>Anthony Albanese jets to Cambodia for East Asia summit despite cost of living problems in Australia - Daily Mail</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 23:35:45 GMT</t>
+          <t>Thu, 10 Nov 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>By Brigadier (Retd.) Dr. Ahsan ur Rahman Khan The Conspiracy, Conspirators, and Abettors My article titled, “Upsurge of Foreign–sponsored Terrorism and Subversion for ‘Regime Change’ in Pakistan” (1), was published on 20 March 2022, i.e. three weeks before the Regime Change conspiracy in Pakistan was actualized by the conspirators and abettors. It highlighted that:- After quite a period of internal security calm in Pakistan a new wave of deadly acts of terrorism had commenced ; and in tandem with these acts, the opposition parties had also raised the impetus of their efforts for Regime Change, i.e. to remove the existing elected government of Prime Minister Imran Khan from political power and install their own government. and in tandem with these acts, the opposition parties had also raised the impetus of their efforts for Regime Change, i.e. to remove the existing elected government of Prime Minister Imran Khan from political power and install their own government. As for the renewed upsurge of foreign – sponsored terrorism, while the long history of India’s enmity and hostility is already known, the role of US’ Establishment in using terrorism as a tool of attaining its ‘ hegemonic ’ objectives in world affairs is also well – acknowledge. In that context quotation of just three credible persons should suffice – (iii) India’s Saeed Naqvi the distinguished fellow of Observer Research Foundation of New Delhi (India) asserted that “ I have in recent columns written about the US Establishment’s role in promoting terrorism as an unstated asset. The distillate of this wisdom is available extensively in the columns of New York Time’s Thomas Friedman ” . (2) ; (ii) Polymeropoulos, a highly decorated senior intelligence service officer, who was a Middle – East and South Asia specialist operation officer of CIA and retired in July 2019, admitted in an interview that “ The most interesting part of the US relationship in the counter – ISIS (Daesh) campaign is that we partnered in essence with a terrorist group, the PKK ” . (3) ; and (iii) In 2017 Afghanistan’s and other media reported that when ISIS suffered crippling defeat in Middle East and was compelled to disperse, its remnants were brought secretly by US to Afghanistan and deployed in unmarked helicopters in Tora Bora cave complex in Nangarhar close to border with Pakistan. Even Hamid Karzai, who was himself the US – planted President of Afghanistan for 12 years from 2002 to 2014, had in an interview accused US for the emergence and flourishing of ISIS in Afghanistan and its collusion with US. (4) sponsored terrorism, while the long history of India’s enmity and hostility is already known, the role of US’ Establishment in using terrorism as a tool of attaining its hegemonic objectives in world affairs is also well acknowledge. In that context quotation of just three credible persons should suffice (iii) India’s Saeed Naqvi the distinguished fellow of Observer Research Foundation of New Delhi (India) asserted that I have in recent columns written about the US Establishment’s role in promoting terrorism as an unstated asset. The distillate of this wisdom is available extensively in the columns of New York Time’s Thomas Friedman . (2) (ii) Polymeropoulos, a highly decorated senior intelligence service officer, who was a Middle East and South Asia specialist operation officer of CIA and retired in July 2019, admitted in an interview that The most interesting part of the US relationship in the counter ISIS (Daesh) campaign is that we partnered in essence with a terrorist group, the PKK . (3) and (iii) In 2017 Afghanistan’s and other media reported that when ISIS suffered crippling defeat in Middle East and was compelled to disperse, its remnants were brought secretly by US to Afghanistan and deployed in unmarked helicopters in Tora Bora cave complex in Nangarhar close to border with Pakistan. Even Hamid Karzai, who was himself the US planted President of Afghanistan for 12 years from 2002 to 2014, had in an interview accused US for the emergence and flourishing of ISIS in Afghanistan and its collusion with US. (4) There were/are unmistakable evidences/credible reports – including those of recovery of US – made state of the art weapons from the terrorists in Baluchistan – that the premier intelligence agency of US (CIA), supported by India’s (RAW), Israel’s (Mossad) and UK’s (MI – 6) were/are behind this upsurge of terrorism for creating chaos in the country as a prelude to subversion of political parties for Regime Change in Pakistan and bringing in an ‘ assuredly pliant and subservient ’ government in the country. including those of recovery of US made state of the art weapons from the terrorists in Baluchistan that the premier intelligence agency of US (CIA), supported by India’s (RAW), Israel’s (Mossad) and UK’s (MI 6) were/are behind this upsurge of terrorism for creating chaos in the country as a prelude to subversion of political parties for Regime Change in Pakistan and bringing in an assuredly pliant and subservient government in the country. US planned for this Regime Change because it was after many decades of the successive ‘ pliant and subservient ’ governments in Pakistan of Nawaz Sharif’s PMLN and Asif Zardari’s PPP that Pakistani masses had brought Imran Khan’s party PTI to power through general elections in 2018 ; and, in formulating Pakistan’s national policies, Prime Minister Imran Khan refused to accept any foreign pressure which was against Pakistan’s national interest or the concept of national sovereignty. US thus wanted their ‘ tested pliant and subservient ’ parties to rule Pakistan again even though against the will of Pakistani nation. The obvious US’ choice thus was for PMLN and PPP whose leaders (Nawaz Sharif’s and Asif Zardari’s families) have their enormous corruption – gotten wealth hidden in UK, US and other countries in the form of companies, property, bank accounts, etc., and thus they could not/ cannot afford to disobey US’ dictates. pliant and subservient governments in Pakistan of Nawaz Sharif’s PMLN and Asif Zardari’s PPP that Pakistani masses had brought Imran Khan’s party PTI to power through general elections in 2018 and, in formulating Pakistan’s national policies, Prime Minister Imran Khan refused to accept any foreign pressure which was against Pakistan’s national interest or the concept of national sovereignty. US thus wanted their tested pliant and subservient parties to rule Pakistan again even though against the will of Pakistani nation. The obvious US’ choice thus was for PMLN and PPP whose leaders (Nawaz Sharif’s and Asif Zardari’s families) have their enormous corruption gotten wealth hidden in UK, US and other countries in the form of companies, property, bank accounts, etc., and thus they could not/ cannot afford to disobey US’ dictates. Even Maulana Fazalur Rahman, leader of his religious party JUIF, is included in that list of “pliants and subservients” because (i) he is under investigation for massive corruption charges, and is reported to have “plundered billions of rupees from national exchequer through his frontmen when he was a public office holder during the past regimes”, and have “made investment abroad and bought properties in Qatar and the United Arab Emirates (UAE)” besides making enormous properties in different parts of Pakistan. (5); and (ii) at one stage when there were chances of PPP (then under Benazir Bhutto) forming the government after Musharraf’s government, Maulana Fazalur Rahman invited Anne Patterson US’ ambassador in Pakistan over a lunch meeting. Discussions in that meeting were reported by Anne Patterson in a classified message to US. That message was leaked by Wiki Leaks and was published in the world including Pakistan. In that message Anne Patterson had communicated to US government that (underlining added for highlighting): “Responding to an invitation, Ambassador met for lunch with Jamiat Ulema-e-Islam (JUI-F) leader Fazlur Rehman on November 20. Ambassador reiterated that the USG supporting lifting the state of emergency and steps to ensure the elections are free and fair. Rehman agreed, but he affirmed that his party would not boycott the elections. Seeking USG approval in the event he became Prime Minister,”——–.; “Also attending the lunch were Maulana Abdul Ghafoor Haideri, Senator Talha Mahmood, Senator Aza Swati and Malik Sikander Khan”—-.; and “Even if JUI-F’s voter support drops, he has made it clear that, free and fair elections notwithstanding, his still significant number of votes are up for sale”. (6) US then started its covert political subversion techniques to collate its pliant and subservient parties to put up a joint challenge to Imran Khan’s coalition government. For that purpose Asif Zardari’s PPP, Nawaz Sharif’f PMLN, and Maulana Fazalur Rahman’s JUIF readily joined hands; and managed to bring in their fold other smaller parties, forming the alliance called PDM. And, of course, the power–hungry Maulana Fazalur Rahman, who was sulking being out of parliament after being soundly rejected by public vote in 2018 elections, was made the head of PDM. Additionally, in October 2021 US’ diplomats in US embassy Islamabad started meetings with PTI’s parliamentarians, parliamentarians of PTI government’s coalition partner parties, other parties’ leaders, and Pakistan’s media persons, to subvert their loyalties to support US’ conspiracy for Regime Change in Pakistan. Those US’ efforts continued till March 2022 and ultimately succeeded; and many PTI’s parliamentarians as well as coalition partner parties, and many Pakistani media persons accepted to become ‘turn coats’ to support the Regime Change Conspiracy. (7). To further solidify those efforts to purchase the conscience of those ‘turn coats’, huge monetary payments were brazenly made to those ‘turn coats’ in Sind Government’s official Sind House located in close vicinity of important buildings like Supreme Court etc. in the Red Zone of Islamabad (8); and police from Sind (under PPP provincial government) was brought to safeguard this activity in Sind House. (9) Then US’ Assistant Secretary Donald Lu met Pakistan’s ambassador to US and communicated the threat, referring to a move by Pakistan’s opposition parties for vote of no confidence against PM Imran Khan. He threatened that “If the vote of no confidence does not succeeded and Prime minister Imran Khan remains in office, He will be isolated from US and we will take the issue head on. If the vote of no confidence succeeds, all will be forgiven“. (10) And, then that move also materialised. Details are already known as to how that no confidence move was made to work for actualising US’ conspired Regime Change in Pakistan during the night 9/10 April 2022. However the most unfortunate aspect of that was the fact that the unprecedented acts of Islamabad High Court and Supreme Court suddenly opening up in that night, as well as deployment of Islamabad police and the rangers with prisoner vans without the orders of the interior minister, gave the impression to the masses that all those acts were linked to the actualisation of the Regime Change conspiracy. The Astoundingly Defiant Reaction of the Masses However, the conspirators and abettors of that Regime Change conspiracy got their first shock when Pakistani masses in the country and abroad put up an immediate defiant reaction to that Regime Change. In a completely unprecedented manner Pakistani masses, educated and uneducated alike, immediately came out in the streets in tens of thousands throughout the country, and vehemently announced their refusal to accept that US–sponsored Regime Change. That reaction was certainly surprising from the masses who have historically been mostly docile to such governmental changes in the past accepting those as fait accompli. However, that sudden major change in the behaviour of Pakistani masses can be understood relying upon the two branches of epistemology (the theory of knowledge), i.e. revealed knowledge and man–made knowledge. Available explanation of this phenomenon in the revealed knowledge is provided by Ayah 30 of Surah Al–Anfal in Quran. Translation “Remember how the Unbelievers plotted against thee, to keep thee in bonds, or slay thee, or get thee out (of thy home).They plot and plan, And God too plans, But the best of planners is God”. (11) From this verdict given by our Creator Allah (SWT) it is evident without doubt that this time around Allah (SWT) intervened to save Pakistani masses from this conspiracy, and it was His plan which checkmated the plan of the Regime Change conspirators and abettors. And, the man–made knowledge relating to human behaviour clearly leads to the understanding that this change of masses’ behaviour occurred due to two factors: i.e. The open and criminally arrogant acts of US to communicate the threat through Pakistan’s ambassador to remove Pakistan’s elected government of Imran Khan from power or else to face the consequences, and then having that threat materialised conspiratorially with the help of US’ “ tentacles ” in Pakistan, greatly hurt Pakistani nation’s national pride ; and, tentacles in Pakistan, greatly hurt Pakistani nation’s national pride and, The “Regime Change” PDM government thus brought to power by that US’ conspiracy was/is led by the well–known corruption and money laundering political mafia of Nawaz Sharif and Asif Zardari under whose alternative governments during last three decades Pakistani nation had already suffered miserable socio–economic suffering. This mindset of the masses defying this ‘Regime Change’ PDM government, therefore, is not only undefeatable; it is also getting more and more strengthened now as a reaction to the extremely fascist and criminally inhuman manner of this PDM government in openly defying rule of law and human rights throughout Pakistan for criminally crushing its opponents/critics. That is also the reason that Imran Khan’s popularity graph in the masses is continuously rising – has crossed the 76 percent mark by now in the recent by– elections. Damages Already Done due to Regime Change Factually right from its inception this ‘Regime Change’ PDM government was bound to be a governance failure and hence to bring serious disaster in the country; reasons being:- Most of the hierarchical leaderships of PDM’s main parties are either convicted criminals or facing court charges of corruption, money – laundering, or other crime – 60 percent of its original cabinet members were/are on bail for such cases pending in courts. Entire focus of this PDM government was therefore expected to be only on getting themselves out of law’s grip on them due to their criminal acts. And, for that purpose, after forming the PDM government they have been busy only in amending the related laws/rules through acts of the ‘ Regime Change parliament ’ , and appointing their ‘ pliant officials ’ in National Accountability Bureau and other law enforcing institutions. They had/have no interest in, or time for, resolving governance matters/issues. So far they have already succeeded in getting rid of many of the corruption/money laundering cases against them, including such cases of Rupees eleven hundred billion against Nawaz Sharif’s, Shahbaz Sharif’s, Asif Zardari’s, and affiliates’ families ; laundering, or other crime 60 percent of its original cabinet members were/are on bail for such cases pending in courts. Entire focus of this PDM government was therefore expected to be only on getting themselves out of law’s grip on them due to their criminal acts. And, for that purpose, after forming the PDM government they have been busy only in amending the related laws/rules through acts of the Regime Change parliament , and appointing their pliant officials in National Accountability Bureau and other law enforcing institutions. They had/have no interest in, or time for, resolving governance matters/issues. So far they have already succeeded in getting rid of many of the corruption/money laundering cases against them, including such cases of Rupees eleven hundred billion against Nawaz Sharif’s, Shahbaz Sharif’s, Asif Zardari’s, and affiliates’ families The PDM government comprises of 13 political parties of different ideological mindset/political objectives. These parties continue vying for political power, hence too unwieldy for logical governance decisions ; These 13 PDM component parties are so greedy of ‘governmental advantages’ that through ‘political blackmail’ these have by now forced the PDM prime minister to increase his cabinet ministerial appointments from the original 34 to a mammoth number of 76 – causing huge unnecessary burden of billions of Rupees per month on the already badly depleted national treasury, thus further aggravating Pakistan’s economy crisis. It is because of these reasons that since the last six months, after the installation of PDM government, economy as also political and internal stability of Pakistan has nose–dived to catastrophic proportion. In that:- Pakistan’s economy (which under Imran Khan’s PTI government despite Covid – 19 damages had produced a rise of GDP growth rate from – 0 . 9 % in 2020 to a booming 6 % (12) by beginning of 2022) , has crashed downwards to “ only 2 percent in the current fiscal year ending June 2023 ” (13). 19 damages had produced a rise of GDP growth rate from 0 9 % in 2020 to a booming 6 % (12) by beginning of 2022) has crashed downwards to only 2 percent in the current fiscal year ending June 2023 (13). Due to the professional inability as also lack of attention for carefully making logical governmental decisions by PDM government: massive new wide–ranging taxes worth about Rupees 876 billion have been levied in the country(14); fuel prices have been exorbitantly raised, as compared to the prices under Imran Khan’s PTI government (Table below). As a result of these ill–conceived policies of PDM, prices of even essential food items and medicine have gone beyond the reach of majority of the masses. 16 February 2022 (PTI Govt.) 1 October 2022 (PDM Govt.) Petrol (Premium) Rs. 159.86 /Ltr Rs. 224.8/Ltr Diesel (high speed) Rs154.15 /Ltr Rs. 235.3/Ltr Diesel (light speed) Rs123.97 /Ltr Rs. 186.5/Ltr Kerosene Oil Rs126.56 /Ltr Rs. 191.83/Ltr Reference. (15) (16) Pakistan Rupee has suffered devaluation against US Dollar, in that “ The Pakistani Rupee (PKR) crashed by about 17 per cent against the US dollar in the month of July 2022 owing to weakness in balance of payment and political instability ” . (17) And, devaluation of Pakistan Rupee has gone further in subsequent months ; further raising the already unbearable price hike of essential food items/commodities. The Pakistani Rupee (PKR) crashed by about 17 per cent against the US dollar in the month of July 2022 owing to weakness in balance of payment and political instability . (17) And, devaluation of Pakistan Rupee has gone further in subsequent months further raising the already unbearable price hike of essential food items/commodities. Pakistan’s textile industry is the largest foreign exchange earner for the country. It contributes “ more than 60 % to the country’s total exports ” (18) During the last fiscal year (2021 – 2022) it had boomed because Imran Khan’s PTI government had kept electricity and gas prices under control and had provided the textile industry with competitive power tariff. But the PDM government not only withdrew that competitive power tariffs to this industry, it also exorbitantly raised electricity bills. As a result now this industry finds itself economically unfeasible to function. As a result in the beginning of October 2022 All Pakistan Textile Mills Association (APTMA) announced the decision “ to shut down textile units across the country from Saturday to protest the withdrawal of competitive power tariffs. ”; “ 1,600 textile mills have already shut shops ”; and “ Five million employees will lose their jobs and 30 million people will be affected due to the closure of these units ” . (19) more than 60 % to the country’s total exports (18) During the last fiscal year (2021 2022) it had boomed because Imran Khan’s PTI government had kept electricity and gas prices under control and had provided the textile industry with competitive power tariff. But the PDM government not only withdrew that competitive power tariffs to this industry, it also exorbitantly raised electricity bills. As a result now this industry finds itself economically unfeasible to function. As a result in the beginning of October 2022 All Pakistan Textile Mills Association (APTMA) announced the decision to shut down textile units across the country from Saturday to protest the withdrawal of competitive power tariffs. 1,600 textile mills have already shut shops and Five million employees will lose their jobs and 30 million people will be affected due to the closure of these units . (19) Asif Zardari’s PPP Sindh government’s ineptitude in preventing flood disasters, and criminal negligence in proving essential relief work after recent flood calamity, has caused immense human, economic and material loss of masses in Sindh province. (20) In that context latest World Bank report has also highlighted, “ Poverty in the hardest – hit regions will likely worsen in the context of the recent flooding. Preliminary estimates suggest that – without decisive relief and recovery efforts to help the poor – the national poverty rate may increase by 2 . 5 to 4 percentage points, pushing between 5 . 8 and 9 million people into poverty. (21) Poverty in the hardest hit regions will likely worsen in the context of the recent flooding. Preliminary estimates suggest that without decisive relief and recovery efforts to help the poor the national poverty rate may increase by 2 5 to 4 percentage points, pushing between 5 8 and 9 million people into poverty. (21) According to a 13 September 2022 report, the Global Report on Food Crises 2022 has highlighted that “ Pakistan is experiencing a growing debt crisis, significant currency depreciation and a record food inflation, reducing households’ purchasing power ” . (22) Pakistan is experiencing a growing debt crisis, significant currency depreciation and a record food inflation, reducing households’ purchasing power . (22) As a result of these criminally inept policies Pakistani masses are facing unbearable miseries, to the extent that :- About the current massive price hike in the country, the report published on 1 st November 2022 highlighted that according to the data released by Pakistan Bureau of Statistics, inflation based upon Consumer Price Index (CPI), which was just 9 . 2 % during Imran Khan’s PTI government in October 2021, has risen as high as 26 . 6 % by October 2022 under PDM government.(23) Due to this unbearable price hike created by ‘ Regime Change PDM government’, specially of essential food items and medicine, more than half of Pakistani masses are finding it too difficult to pay for what is needed to survive ; November 2022 highlighted that according to the data released by Pakistan Bureau of Statistics, inflation based upon Consumer Price Index (CPI), which was just 9 2 % during Imran Khan’s PTI government in October 2021, has risen as high as 26 6 % by October 2022 under PDM government.(23) Due to this unbearable price hike created by Regime Change PDM government’, specially of essential food items and medicine, more than half of Pakistani masses are finding it too difficult to pay for what is needed to survive An article published on 23 rd of October 2022 has highlighted that according to the survey report of International Labour Organisation (ILO)’s Household Income and Expenditure Survey (HIES), “ it is a fact that 77 . 60 percent of Pakistan’s population lives in poor conditions (less than $5 . 50 per day income) ” . (24) of October 2022 has highlighted that according to the survey report of International Labour Organisation (ILO)’s Household Income and Expenditure Survey (HIES), it is a fact that 77 60 percent of Pakistan’s population lives in poor conditions (less than $5 50 per day income) . (24) Due to the aforementioned ineptitude of Asif Zardari’s PPP provincial government in preventing flood disasters and criminal negligence in proving essential relief work after recent flood calamity, the unbearable poverty of masses in Sindh has reached the stage where according to recent report from Mirpur Khas, “People who have lost everything have been left with no option but to sell their young and underage girls to feed their starving families and to get their ailing near and dear ones treated at private hospitals”. (25) And now, people of Pakistan, elite and masses alike, are facing further worst of the ‘Regime Change’ disaster . In that, when the thus traumatised Pakistanis started raising their voices against these miseries unleashed due the government policies, the ‘ Regime Change PDM government ’ resorted to most inhuman fascist measures . Those include:- Extreme inhuman custodial torture of media persons, professor, and senator ; Blackmailing in the most inhuman manner ; registering false and baseless cases against the opposition party leaders to arrest them and keep them under detention ; registering false and baseless cases against the opposition party leaders to arrest them and keep them under detention Forcefully gagging the media, obliterating the universal human right of freedom of speech ; Denying the right of people to launch peaceful protest. And that fascism of “Regime Change” PDM government went further when PDM’s interior minister and other PDM leaders conveyed murder threat to Imran Khan. And that threat was then actualised after just a few days when assassination of Imran Khan was attempted by more than one assassins during his public rally in Wazirabad. One of his supporters was killed and about 11 PTI leaders around Imran Khan were wounded. Imran Khan was seriously wounded. One of the assassins was arrested. Imran Khan, being the main aggrieved person, sent his complaint to the concerned police station for registering the FIR about his assassination attempt. In his complaint Imran Khan nominated three persons, i.e. PDM’s prime minister, interior minister and a senior officer of intelligence agency, for their involvement in his assassination attempt. PDM government forced the media not to disclose the name of that senior officer and his intelligence agency; though through the social media name of that officer and intelligence agency, as mentioned by Imran khan in his complaint, became known to everyone in Pakistan and abroad. However the police, which is legally bound to register such FIR according to the complaint of the complainant, refused to do so. Even the inspector general of provincial police showed his inability for registration of FIR because the complaint included the name of that senior officer of intelligence agency. That act of police authority shocked the nation, because it reflected that “powerful elite” is above even the constitution of Pakistan. That disgusting realisation, if not mended immediately, is most likely to create dangerous polarisation between the nation and the powerful organs of the Establishment of the country. This alarming economic breakdown, obliteration of rule of law, chaos and instability thus created in Pakistan suits the US’ design to bring Pakistan to its knees to accept US’ dictates in international politics, including: (a) US’ requirements of Pakistan accepting to have “US’ desired” relations with US’ main strategic partner India despite India’s recent illegal actions in Kashmir, and diplomatically “opening up” with Israel despite Israel’s illegal actions in Palestine; and (b) ultimately compelling Pakistan to forego its nuclear weapon assets. Recent reports have already shown the inclination of PDM government to so diplomatically “open up” with India and Israel. And recent statement of US president Joe Biden also indicates that US is now eying the opportunity to actualise its objective relating to the nuclear assets of Pakistan. In his speech at a reception of the Democratic Congressional Campaign Committee US president clearly declared, “Pakistan is one of the ‘most dangerous’ nations which has nuclear weapons without any cohesion”. (26) When that declaration of US’ president received serious criticism by Pakistani public, some of the US’ officials issued statements to the contrary to save the situation, but in vain; because “White House press secretary Karine Jean–Pierre said there was nothing new in Biden’s statement regarding Pakistan’s nuclear assets, clarifying that the Democrat leader has made such comments before as well.” (27) Current Situation Salient features of the current happenings:- Despite public’s anguished uproar, PTI – PMLQ ruled Punjab government’s police stuck to its stance of not recording the FIR according to the complaint of former Prime Minister Imran Khan who is the aggrieved person in the case of his murder attempt. That act clearly shows that “ powerful elite ” is above even the constitution of Pakistan, and that it can obliterate rule of law at will. PMLQ ruled Punjab government’s police stuck to its stance of not recording the FIR according to the complaint of former Prime Minister Imran Khan who is the aggrieved person in the case of his murder attempt. That act clearly shows that powerful elite is above even the constitution of Pakistan, and that it can obliterate rule of law at will. Journalist Arshad Sharif who was credibly lifting the veil of the “Regime Change conspiracy in Pakistan ” , indicating who could possibly be the conspirators and abettors abroad and in Pakistan, was targeted by the “ Regime Change ” PDM government by registering multiple serous cases against him in different parts of Pakistan – some even carrying death sentence. Then a life threat was conveyed to him. He appealed to the PDM government and the court to provide him safety from such threat, but no action was taken by the authorities. Thus pressurised, he had to leave the country, but he was followed by the conspirators and was got murdered after severe torture in Kenya. His postmortem was conducted in Islamabad’s government hospital. His mother contacted the hospital authority to get copy of the postmortem report which is her legal right. Hospital authorities refused to provide her that report, blatantly obliterating their constitutional obligation – and all state/governmental organs preferred to remain silent! Again a show of the “ powerful elite ” being above the constitution/rule of law. , indicating who could possibly be the conspirators and abettors abroad and in Pakistan, was targeted by the Regime Change PDM government by registering multiple serous cases against him in different parts of Pakistan some even carrying death sentence. Then a life threat was conveyed to him. He appealed to the PDM government and the court to provide him safety from such threat, but no action was taken by the authorities. Thus pressurised, he had to leave the country, but he was followed by the conspirators and was got murdered after severe torture in Kenya. His postmortem was conducted in Islamabad’s government hospital. His mother contacted the hospital authority to get copy of the postmortem report which is her legal right. Hospital authorities refused to provide her that report, blatantly obliterating their constitutional obligation and all state/governmental organs preferred to remain silent! Again a show of the powerful elite being above the constitution/rule of law. In the case of the media persons, professor, and senator – who critisised the “ Regime Change conspiracy ” and were picked up by Islamabad police and subjected to extreme inhuman custodial torture by the organs of PDM government – justice has still not been provided to these aggrieved persons despite public’s pronounced indignation. who critisised the Regime Change conspiracy and were picked up by Islamabad police and subjected to extreme inhuman custodial torture by the organs of PDM government justice has still not been provided to these aggrieved persons despite public’s pronounced indignation. The brutal practice of registering fabricated cases and thus getting arrest warrants of Imran Khan and his party leaders continues unabated by PDM government. Due to the lack of attention of the “self–serving” PDM government crime rate in Pakistan has increased manifold, as shown by these media reports:- Pakistan Revenue report of June 2022 – “ It is generally known that affordability issues in buying essential items lead to rise in street crime. Pakistan is witnessing massive surge in prices o</t>
+          <t>Anthony Albanese will jet off overseas and leave behind Australia as it grapples with the rising cost of living crisis, which critics say has been made worse by his broken election promises. The Prime Minister will travel to Cambodia on Friday for the East Asia summit before then attending the G20 in Bali and APEC in Bangkok. High up on the agenda will be discussions about the state of the global economy that has been crippled by Covid and worsened by Russia's invasion of the Ukraine. Mr Albanese will join world leaders to talk about the international repercussions despite Australia facing its own economic crisis back home. Anthony Albanese has jetted off overseas and left behind Australia as it grapples with the rising cost of living crisis made worse by his broken election promises (pictured, Mr Albanese with partner Jodie Haydon in June) Mr Albanese will join world leaders to talk about the international repercussions despite Australia facing its own economic crisis back home (stock image) It comes after the Prime Minister failed to deliver on two key election promises that aimed to ease the rising cost of living. He vowed to increase real wages and slash power bills by $275, but failed to adequately address both points in the Budget his government released in October. Before the May federal election Mr Albanese backed a minimum wage increase of 5.1 per cent saying the 'minimum wage should at least keep up with the cost of living'. Real wages then fell around 3.5 per cent over 2021 and 2022 due to a 'combination of high inflation and modest wage growth', budget papers revealed. Mr Albanese was caught breaking another election promise after failing to help Australians save $275 a year on their power bills. Treasury now estimates energy prices will in fact soar by 56 per cent next year. Mr Albanese will meet with Cambodian Prime Minister Hun Sen and US President Joe Biden during the the East Asia summit at Phnom Pen. The summit comes as Cambodia and Australia mark the 70th anniversary of their diplomatic relationship. Mr Albanese vowed to increase real wages and slash power bills by $275, but failed to adequately address both points in the Budget his government released in October Jobs, economic growth and regional resilience are expected to be high on the agenda. 'Australia has always been an outward facing nation and we have never shied away from facing up to global challenges,' Mr Albanese said. 'The global economic outlook is stark, and Russia's invasion of Ukraine has exacerbated the challenges of food insecurity, rising energy prices, rising inflation and cost of living pressures globally. 'Australia strongly supports ASEAN's central role in the region and its vision for the region is closely aligned with our own. 'My role at these summits will be one of advocacy for not only Australians, but also for those of our Pacific neighbours who face many of the same pressures that we do. Next week, Mr Albanese will join leaders from the world's top economies at the G20 summit in Bali. 'At each summit I will emphasise Australia's commitment to the global transition to net zero, and our vision for a stable, peaceful, resilient and prosperous region,' Mr Albanese said. Mr Albanese will meet with Cambodian Prime Minister Hun Sen and US President Joe Biden during the the East Asia summit at Phnom Pen 'I will remain, on behalf of the Australian people, a fierce opponent to Russia's immoral and illegal invasion of Ukraine. 'I look forward to engaging my counterparts in Phnom Penh, Bali and Bangkok in the next week.' It will be the second time the prime minister has travelled to Indonesia since the federal election in May. Indonesian President Joko Widodo has invited Mr Albanese and Indian Prime Minister Narendra Modi to deliver a keynote address at the Business 20 Summit. Food security, energy and global health will be topics of discussion at the G20. But the fallout from Russia's invasion of Ukraine and the state of the global economy is also set to be a major talking point. While Russian President Vladimir Putin will not attend, Ukrainian President Volodymyr Zelenskiy is expected to take part virtually. Indonesian President Joko Widodo has invited Mr Albanese and Indian Prime Minister Narendra Modi (pictured) to deliver a keynote address at the Business 20 Summit United States President Joe Biden, Chinese President Xi Jinping and UK Prime Minister Rishi Sunak are also expected to attend. The summits will be an opportunity for leaders to discuss the economic instability faced across the globe in the wake of the pandemic. 'We must work together with our international partners to tackle inflation, technical skills shortages, to tackle climate change,' Mr Albanese told parliament on Thursday. 'That is how we can promote stability at home.' Mr Albanese is also keeping his options open when it comes to sideline meetings with fellow leaders, saying he's happy to talk to anyone. He told reporters any dialogue among world leaders is a good thing. 'It will be an extensive nine days and a very busy nine days,' he said.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dr. Ahsan ur Rahman Khan The Conspiracy, Conspirators, and Abettors My article titled, “Upsurge of Foreign–sponsored Terrorism and Subversion for ‘Regime Change’ in Pakistan” (1), was published on 20 March 2022, i.e. three weeks before the Regime Change conspiracy in Pakistan was actualized by the conspirators and abettors. As for the renewed upsurge of foreign – sponsored terrorism, while the long history of India’s enmity and hostility is already known, the role of US’ Establishment in using terrorism as a tool of attaining its ‘ hegemonic ’ objectives in world affairs is also well – acknowledge. The distillate of this wisdom is available extensively in the columns of New York Time’s Thomas Friedman ” . ( 2) ; (ii) Polymeropoulos, a highly decorated senior intelligence service officer, who was a Middle – East and South Asia specialist operation officer of CIA and retired in July 2019, admitted in an interview that “ The most interesting part of the US relationship in the counter – ISIS (Daesh) campaign is that we partnered in essence with a terrorist group, the PKK ” . ( In that context quotation of just three credible persons should suffice (iii) India’s Saeed Naqvi the distinguished fellow of Observer Research Foundation of New Delhi (India) asserted that I have in recent columns written about the US Establishment’s role in promoting terrorism as an unstated asset. and thus they could not/ cannot afford to disobey US’ dictates. pliant and subservient governments in Pakistan of Nawaz Sharif’s PMLN and Asif Zardari’s PPP that Pakistani masses had brought Imran Khan’s party PTI to power through general elections in 2018 and, in formulating Pakistan’s national policies, Prime Minister Imran Khan refused to accept any foreign pressure which was against Pakistan’s national interest or the concept of national sovereignty. Translation “Remember how the Unbelievers plotted against thee, to keep thee in bonds, or slay thee, or get thee out (of thy home).They plot and plan, And God too plans, But the best of planners is God”. ( Entire focus of this PDM government was therefore expected to be only on getting themselves out of law’s grip on them due to their criminal acts. They had/have no interest in, or time for, resolving governance matters/issues. So far they have already succeeded in getting rid of many of the corruption/money laundering cases against them, including such cases of Rupees eleven hundred billion against Nawaz Sharif’s, Shahbaz Sharif’s, Asif Zardari’s, and affiliates’ families The PDM government comprises of 13 political parties of different ideological mindset/political objectives. It is because of these reasons that since the last six months, after the installation of PDM government, economy as also political and internal stability of Pakistan has nose–dived to catastrophic proportion. 17) And, devaluation of Pakistan Rupee has gone further in subsequent months ; further raising the already unbearable price hike of essential food items/commodities. It contributes “ more than 60 % to the country’s total exports ” (18) During the last fiscal year (2021 – 2022) it had boomed because Imran Khan’s PTI government had kept electricity and gas prices under control and had provided the textile industry with competitive power tariff. But the PDM government not only withdrew that competitive power tariffs to this industry, it also exorbitantly raised electricity bills. As a result now this industry finds itself economically unfeasible to function. 20) In that context latest World Bank report has also highlighted, “ Poverty in the hardest – hit regions will likely worsen in the context of the recent flooding. 21) According to a 13 September 2022 report, the Global Report on Food Crises 2022 has highlighted that “ Pakistan is experiencing a growing debt crisis, significant currency depreciation and a record food inflation, reducing households’ purchasing power ” . ( 24) of October 2022 has highlighted that according to the survey report of International Labour Organisation (ILO)’s Household Income and Expenditure Survey (HIES), it is a fact that 77 60 percent of Pakistan’s population lives in poor conditions (less than $5 50 per day income) . ( 24) Due to the aforementioned ineptitude of Asif Zardari’s PPP provincial government in preventing flood disasters and criminal negligence in proving essential relief work after recent flood calamity, the unbearable poverty of masses in Sindh has reached the stage where according to recent report from Mirpur Khas, “People who have lost everything have been left with no option but to sell their young and underage girls to feed their starving families and to get their ailing near and dear ones treated at private hospitals”. ( That act of police authority shocked the nation, because it reflected that “powerful elite” is above even the constitution of Pakistan. That disgusting realisation, if not mended immediately, is most likely to create dangerous polarisation between the nation and the powerful organs of the Establishment of the country. 27) Current Situation Salient features of the current happenings:- Despite public’s anguished uproar, PTI – PMLQ ruled Punjab government’s police stuck to its stance of not recording the FIR according to the complaint of former Prime Minister Imran Khan who is the aggrieved person in the case of his murder attempt. Journalist Arshad Sharif who was credibly lifting the veil of the “Regime Change conspiracy in Pakistan ” , indicating who could possibly be the conspirators and abettors abroad and in Pakistan, was targeted by the “ Regime Change ” PDM government by registering multiple serous cases against him in different parts of Pakistan – some even carrying death sentence. He appealed to the PDM government and the court to provide him safety from such threat, but no action was taken by the authorities. Thus pressurised, he had to leave the country, but he was followed by the conspirators and was got murdered after severe torture in Kenya. His postmortem was conducted in Islamabad’s government hospital. His mother contacted the hospital authority to get copy of the postmortem report which is her legal right. Hospital authorities refused to provide her that report, blatantly obliterating their constitutional obligation – and all state/governmental organs preferred to remain silent! Again a show of the powerful elite being above the constitution/rule of law. Pakistan is witnessing massive surge in prices of essential items over the period of last few months with the rise in prices of commodities ——— . ( 28) GEO News report of September 2022 – “ More than 56,500 street crimes were reported in Karachi in the ongoing year, so far ” . ( Think not that God doth not heed the deeds of those who do wrong. https://analysedreviews.com/single/blog/detail/17 (2).https://www.newagebd.net/article/154558/uss-afghan-terror-assets-will-weaken-delhis-anti-pak-plaints (3).https://www.aa.com.tr/en/americas/us-worked-with-ypg-pkk-terrorists-in-syria-cia-veteran/1829863 (4).https://www.aljazeera.com/news/2017/11/10/hamid-karzai-us-colluded-with-isil-in-afghanistan (5).https://www.thenews.com.pk/print/774009-murad-shares-details-of- properties-owned-by-fazl-s-frontmen (6). 19).https://www.pakistantoday.com.pk/2022/10/05/textile-producers-union-announces-nationwide-closure/ (20).</t>
+          <t>Anthony Albanese will jet off overseas and leave behind Australia as it grapples with the rising cost of living crisis, which critics say has been made worse by his broken election promises. Mr Albanese will join world leaders to talk about the international repercussions despite Australia facing its own economic crisis back home. Mr Albanese vowed to increase real wages and slash power bills by $275, but failed to adequately address both points in the Budget his government released in October Jobs, economic growth and regional resilience are expected to be high on the agenda. ' Australia has always been an outward facing nation and we have never shied away from facing up to global challenges,' Mr Albanese said. ' The global economic outlook is stark, and Russia's invasion of Ukraine has exacerbated the challenges of food insecurity, rising energy prices, rising inflation and cost of living pressures globally. ' Indonesian President Joko Widodo has invited Mr Albanese and Indian Prime Minister Narendra Modi (pictured) to deliver a keynote address at the Business 20 Summit United States President Joe Biden, Chinese President Xi Jinping and UK Prime Minister Rishi Sunak are also expected to attend. The summits will be an opportunity for leaders to discuss the economic instability faced across the globe in the wake of the pandemic. '</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9999736547470093</v>
+        <v>0.9770367741584778</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Thai gangs traffic Kenyans to Myanmar scam factories - Thaiger</t>
+          <t>Vietnam’s bond market contracts amid monetary tightening - http://en.vietnamplus.vn/</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 10:32:24 GMT</t>
+          <t>Wed, 30 Nov 2022 12:10:00 GMT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Thai gangs trafficked more than 60 Kenyans who have been rescued from Laos and Myanmar over the last few months after call-centre jobs turned out to be a cover for cybercrime, prostitution and even organ theft. According to Kenya’s foreign affairs ministry, at least one Kenyan has died as a result of a botched operation in Myanmar. A 31 year old woman with a diploma in hotel management left the country for a job in Thailand with a promised monthly salary of U$800 (28,500 baht). A month before departure, she told the BBC, she borrowed nearly US$2,000 (70,000 baht) to pay the agents for the trip and had a short training session. As soon as she arrived in Thailand, now with another woman on her way to a similar job, their handlers took them on a long road journey that ended in a 15-storey building in neighbouring Laos. This was their new home, but they had no idea where they were located. It was here they learned that the “call centre” where they were to work, targeted Americans through Tinder, Instagram and Facebook. The rescued woman said… “They fall in love with you and you then tell them about crypto-currency. Then you start stealing from them.” Both women were forced to work in a factory with hundreds of others made up of a variety of nationalities. Neither of them received their promised salary but instead were threatened with sex work or organ harvesting if they turned out to be no good at scamming foreigners. “They told us to pay U$10,000 (350,00 baht) to buy your freedom because they owned us.” Cybercrime means being online, and the pair managed to make contact with Awareness Against Human Trafficking, a Kenyan charity. They were eventually rescued and flown home with the help of the UN and Kenyan authorities. The two young women are now left with huge debts and are in a worse situation than they were five months ago. Despite awareness campaigns and government crackdowns, non-existent jobs in Thailand are widely advertised and Kenyans continued to fall victim. Some return home on crutches after being beaten in the factories. The Thai gangs traffic the Kenyans mainly into Kachin state, where rebel separatists are fighting the military, hampering rescue efforts. Recent army operations killed over 60 people in the area controlled by rebel groups, who protect Chinese cartels. In total 76 victims, including 10 Ugandans and one Burundian, have been repatriated since August with the help of officials at Kenya’s embassy in Thailand. The revelations of Southeast Asia job scams follow continuing reports of the mistreatment of Africans in the Middle East. The African Development Bank estimates that while more than 12 million young people enter the workforce in Africa each year, only three million formal jobs are created.</t>
+          <t>An advertisement for corporate bonds. (Photo: baodautu.vn) - After strong growth in the previous quarter, Vietnam’s currency bond market contracted 0.2% due to a decline in the Government bond market and slower growth in corporate bonds.On an annual basis, the market increased 21.1% to 97.4 billion USD.The information was released in a recent report by the Asian Development Bank (ADB).The country's Government bond s contracted 2% as the outstanding stock of central bank bills fell 70.3% from the previous quarter. Outstanding government bonds reached 67.3 billion USD. Expansion of corporate bonds moderated to 4.1% from the previous quarter, putting the segment at 30.1 billion USD.The report said that aggressive monetary tightening in advanced economies has pushed up bond yields and worsened the downturn of financial conditions in emerging East Asia.Regional currencies fell against the US dollar, equities dropped, and risk premiums widened between August 31 and November 4, according to the latest update of Asia Bond Monitor, released on Sunday today. Portfolio outflows were also seen in most regional bond markets. Global inflation, slower growth in China, and economic fallout from the Russian 'military operation' in Ukraine continued to threaten the region's short-term prospects."Financial conditions in emerging East Asia weakened at a faster pace in September and October than in the first eight months of 2022, due to the aggressive tightening by the US Federal Reserve," said ADB Chief Economist Albert Park. "However, the region remains largely resilient so far, despite various headwinds."Local currency bond issuance in emerging East Asia contracted 1.1% from the previous quarter to 2.2 trillion USD in the third quarter amid subdued investment sentiment. Local currency bonds outstanding grew 2.3% to 22 trillion USD. Emerging East Asia comprises member economies of the Association of Southeast Asian Nations (ASEAN); China; Hong Kong (China); and the Republic of Korea.Government bond issuance dropped 4.5% from the previous quarter, while corporate bond issuance grew 5.7%, largely supported by Chinese companies taking advantage of domestic monetary easing measures. Rising interest rates drove a 2.0% decline in corporate bond issuance in ASEAN market s.The sustainable bond market in the ASEAN region plus China; Hong Kong (China); Japan and the RoK grew 1.7% to 521.6 billion USD at the end of September. While the growth was slower than in the previous quarter, the segment witnessed improved market profile and bond types diversification./.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thai gangs trafficked more than 60 Kenyans who have been rescued from Laos and Myanmar over the last few months after call-centre jobs turned out to be a cover for cybercrime, prostitution and even organ theft. According to Kenya’s foreign affairs ministry, at least one Kenyan has died as a result of a botched operation in Myanmar. A 31 year old woman with a diploma in hotel management left the country for a job in Thailand with a promised monthly salary of U$800 (28,500 baht). As soon as she arrived in Thailand, now with another woman on her way to a similar job, their handlers took them on a long road journey that ended in a 15-storey building in neighbouring Laos. Neither of them received their promised salary but instead were threatened with sex work or organ harvesting if they turned out to be no good at scamming foreigners. “</t>
+          <t>Photo: baodautu.vn) - After strong growth in the previous quarter, Vietnam’s currency bond market contracted 0.2% due to a decline in the Government bond market and slower growth in corporate bonds. Global inflation, slower growth in China, and economic fallout from the Russian 'military operation' in Ukraine continued to threaten the region's short-term prospects. Rising interest rates drove a 2.0% decline in corporate bond issuance in ASEAN market s.The sustainable bond market in the ASEAN region plus China; Hong Kong (China); Japan and the RoK grew 1.7% to 521.6 billion USD at the end of September.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.9841271042823792</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>What Covid-19 taught us about the potential of rail connectivity with India - The Business Standard</t>
+          <t>All internet services restored: PTA - Pakistan - Business Recorder</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 04:58:20 GMT</t>
+          <t>Thu, 01 Dec 2022 00:47:37 GMT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>In addition to trade using land ports, there has been a beneficial shift in the cross-border transportation of goods through the railway interchange focal stations recently. Photo: TBS The land boundary separating India and Bangladesh is approximately 4,000 kilometres long. The cross-border trade between the two nations is facilitated by 34 Land Customs Stations (LCS), two Integrated Check Posts (ICP) and five Railway Interchange Focal Points (IFP). Even though there are several LCS still being used, the Benapole-Petrapole ICP handles the preponderance of overland freight movement. It is the only ground terminal that permits the import and export of nearly all commodities, with the exception of a few that are subject to customs agency restrictions. It is one of the oldest and most crowded land ports. According to the World Bank's recent study, it requires 138 hours to transfer a vehicle through the ICP from the Indian side to the Bangladesh side. Other LCS, including Changrabandha-Burimari, Ghojadonga-Bhomra and Mahadipur-Sonamasjid have experienced a significant rise in freight traffic in recent years. As a result, there has been a rise in awareness among stakeholders about the need to improve equipment facilities at these LCS. There has also been a beneficial shift in the cross-border transportation of goods through the railway interchange focal stations recently. As most of the LCS was shut down to freight traffic due to the outbreak of Covid-19, the railroads of both Bangladesh and India worked to maintain trade relations by using the five railway interchange sites. Trade relations via railways have increased twofold compared to pre-pandemic levels. Apart from the plethora of goods transported by rail, three significant advances have been made in cross-border rail operations during this period. Until recently, bulk cargo such as gypsum, corn, limestone, fly ash, food grains and project cargo were the only cargo transported by railroads. Due to the COVID-19 pandemic's restrictions and restricted use of land ports, there was an increase in the usage of railroads to transport freight, which resulted in a diversification of goods being moved for consumption and development purposes. To meet the growing demand for fast-moving consumer goods, raw materials for industry, vehicles, automobiles and tractors, freight trains were used to deliver basic commodities such as sugar, cotton, cottonseed, spices and tractors. Furthermore, a parcel train service was launched between Bangladesh and India in a response to the popularity of transporting goods by rail. Due to the limited carrying capacity of parcel trains, traders now have the opportunity to export smaller quantities of high-value items, including cotton yarn, fast-moving consumer goods, cotton, chemicals, textiles, fabric and other supplies for the apparel sector. Last but not least, a container train service and automotive cargo mobility were also added. These actions have enabled railroads to emerge as a trustworthy option for delivering quick and secure logistics-related solutions that boost international trade between the two nations. Another aspect that has given rail a unique advantage over road for cross-border trade is that freight trains can reach much closer to their final destinations within Bangladesh than trucks, because goods carried by trucks are transshipped onto other trucks at the border. Between 2019 and 2020, the flow of cargo between India and Bangladesh increased by more than 130% (Figure-1). The transport of goods from road to rail has also undergone a significant change in sectors such as the automotive industry. Compared to two years ago, the railway now carries the majority of car freight from India to Bangladesh. In addition, the development of container rail services has created various opportunities for transporting valuable goods. Bangladesh was India's fourth largest export market in 2022, with exports to Bangladesh increasing significantly from US $9.6 billion in 2020-21 to $14.5 billion in 2021-22 (Department of Commerce, 2022). The positive effects of rail freight transport on the growth of reciprocal trade between the two nations have been recorded. The transition in trade flows between Bangladesh and India is depicted in Figure-2. Prospects and consequences In 2015, India's Ministry of External Affairs declared its "Act East" policy. India focussed on strengthening connectivity, one of the core aspects of the country's bilateral cooperation with its neighbours. This pertains to Bangladesh and encompasses strategic measures to promote rail connectivity and cross-border trade. Meanwhile, for the South Asia Subregional Economic Cooperation (SASEC) as a whole, reducing trade costs and cross-border movement of cargoes is a must for enhancing equitably sustainable and inclusive development. In addition to making business more accessible and fostering trade, the expansion of bilateral trade brought about by the use of rail logistics has the potential to transform the cross-border logistics landscape. There could be significant impact from the expansion of cross-border rail logistics if the trajectory persists. It would lead to a diminution in traffic congestion in the Benapole-to-Petrapole ICP, an expedited transport system lead-time and the option to reduce port bottlenecks and late shipping delivery. It would also lower transportation expenses, be more efficient in terms of energy potency and would generally be an alternative to using roads, which has problems with exorbitant charges, numerous local authorities and a lack of safety. However, to enjoy benefits from the expanded economic advantages of rail operations, supportive additional policy initiatives will be required. These initiatives include building inland cargo facilities in Bangladesh that are rail-based and developing extra freight cargo handling capacity in the Bangladesh Railway Management System. A system has to be established where services are available round-the-clock. Private sector needs to be engaged, including both in infrastructure development and logistical management. Technology usage needs to be enhanced for trade facilitation, including streamlining customs procedures. We need mechanisms for reviewing joint applications that are unvarying, for the synchronisation of operating days or hours from both entities, mutual acceptance of inspection and maintenance, testing and certification, pooling of facilities, combined controls from both sides and implementation of single-point border control. There is a significant possibility for both countries to economically benefit from collaborating together to interconnect their railway links in order to build cross-border logistics services. In the coming decades, business in the region might be significantly augmented by rail logistics, and it might even become a feasible option for shipments. To support the expansion of cross-border rail trade, sustained and all-encompassing efforts are required. For this to happen, steady and comprehensive efforts are vital to facilitate the improvement of cross-border trade through rail. Dr Munshi Muhammad Abdul Kader Jilani is an Assistant Professor of the Bangladesh Institute of Governance and Management (BIGM), Email: [email protected], and His Twitter handle is @MunshiJilani Disclaimer: The views and opinions expressed in this article are those of the author and do not necessarily reflect the opinions and views of The Business Standard.</t>
+          <t>ISLAMABAD: The Pakistan Telecommunication Authority (PTA) on Wednesday said that all internet services were restored hours after disruption was reported across the country. “Faults in the terrestrial segment of SEAMEWE-5 have been repaired at 2 AM PST. Internet services are operational as per normal routine,” said the PTA in a tweet. SEAMEWE-5, also known as South East Asia–Middle East–Western Europe 5, is a submarine communications cable system that carries telecom links between Singapore and France. The spokesperson of Pakistan Telecommunication Company Ltd (PTCL) said the cut in International Submarine Cable AAE-1 has been repaired and PTCL services have been fully restored across the country. On Tuesday, a cable cut in the International Submarine Cable AAE-1 in Egypt partially impacted the internet services in Pakistan. Copyright Business Recorder, 2022</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>In addition to trade using land ports, there has been a beneficial shift in the cross-border transportation of goods through the railway interchange focal stations recently. As most of the LCS was shut down to freight traffic due to the outbreak of Covid-19, the railroads of both Bangladesh and India worked to maintain trade relations by using the five railway interchange sites. Trade relations via railways have increased twofold compared to pre-pandemic levels. Last but not least, a container train service and automotive cargo mobility were also added. These actions have enabled railroads to emerge as a trustworthy option for delivering quick and secure logistics-related solutions that boost international trade between the two nations. Between 2019 and 2020, the flow of cargo between India and Bangladesh increased by more than 130% (Figure-1). In addition, the development of container rail services has created various opportunities for transporting valuable goods. Bangladesh was India's fourth largest export market in 2022, with exports to Bangladesh increasing significantly from US $9.6 billion in 2020-21 to $14.5 billion in 2021-22 (Department of Commerce, 2022). Meanwhile, for the South Asia Subregional Economic Cooperation (SASEC) as a whole, reducing trade costs and cross-border movement of cargoes is a must for enhancing equitably sustainable and inclusive development. To support the expansion of cross-border rail trade, sustained and all-encompassing efforts are required.</t>
+          <t>ISLAMABAD: The Pakistan Telecommunication Authority (PTA) on Wednesday said that all internet services were restored hours after disruption was reported across the country. “ On Tuesday, a cable cut in the International Submarine Cable AAE-1 in Egypt partially impacted the internet services in Pakistan.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.9995848536491394</v>
+        <v>0.9882518649101257</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cristiano Ronaldo To Receive Another Mouthwatering Offer From The Saudis As Club Asks The Free Agent To Name - SportzWiki</t>
+          <t>Bank of East Asia half-year profit up 75 per cent as economy rebounds - South China Morning Post</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 02:02:47 GMT</t>
+          <t>Thu, 19 Aug 2021 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cristiano Ronaldo’s second spell at Manchester United has come to an end, in the most abrupt manner. There was no going back for the 37-year-old forward who is currently on international duty with Portugal at the 2022 FIFA World Cup after his tirade against the Red Devils in the Piers Morgan interview. Ronaldo bashed the club from every direction, as he also had a go at the manager Erik ten Hag, owners of the Glazers family, and even some former players and interim manager Ralf Rangnick. As a result, even before he kicked a ball at the FIFA World Cup Portugal, Cristiano Ronaldo and Manchester United parted ways after a contract termination was agreed upon. The Portuguese captain led his country out of the tunnel in their opening against Ghana as a free agent for the first time in his career. With a heap of questions piling up on his future, Ronaldo soo could be the subject of another lucrative offer from the Saudis, who are ready to do everything in order to bring the global star to the middle-east. Saudis ready to double their previous offer for Cristiano Ronaldo Cristiano Ronaldo already had attempted to leave United in the summer market but was unable to do so. Many of the clubs from around the world had lined up at his doorsteps, but couldn’t take the forward out of Old Trafford. Bayern Munich, Chelsea, Sporting Cp, Atletico Madrid, and Napoli were all said to be heavily interested in Ronaldo, but the ones who tabled a mammoth offer were the Saudis. Riyadh-based Al Hilal came calling with a ridiculous bid which was also confirmed by the player himself in the Piers Morgan interview. According to multiple reports, the Saudi club offered Ronaldo around £300 million with a contract of two years. That said, the five-time Ballon d’Or winner would have easily pocketed £150 million per year, and could have retired at the end of his contract with an extra £300 million in his already bulging bank account. However, as expected, Ronaldo refused the offer as he still wants to remain in Europe for at least three more years as he revealed in the interview. But the Saudis are not going to back down so easily, as they are ready to attempt and lure the now free agent after he wraps up the World Cup campaign with Portugal. As per Daily Mirror, Al Hilal is now planning to put a blank cheque in front of Ronaldo and ask him to fill it with the figures which would please him. That’s an audacious offer given they were already ready to pay him £150 million-per-year in the summer. The Saudis’ desperate moves to entice Cristiano Ronaldo to the middle-east are said to have some underlying reasons. The Gulf nation is bidding to host the 2030 FIFA World Cup, and wants to use Ronaldo, who recently became the first ever person to gather 500 million Instagram followers, as the face of their bid. The former Real Madrid superstar kicking a ball around in Saudi Arabia itself would be their biggest show of power, after their recent win over Argentina at the 2022 World Cup, and the takeover of Newcastle United which they accomplished last year. Even the Saudi Sports Minister Prince Abdulaziz bin Turki Al-Faisal has endorsed the idea of Ronaldo gracing the country’s football league. On being asked whether he knows in detail Al Hilal’s plans of trying their luck to land the five-time Champions League winner, he told CNN in an interview: “I don’t know, that’s a straight answer. I read the same thing as you read in the news. I don’t know what his future plans are. Why not? We have a strong league. In each team, we have seven foreign players playing and we are looking to increase that. Our teams play at the top level in Asia. Football is strong in Saudi. So why not?” However, it is expected that Ronaldo is set to reject the gigantic offer once again, as he searches for a Champions League club. The all-time top scorer of the competition can still grace it as the teams qualified for the Round of 16 need to submit a fresh list of players for the knockouts after the January transfer market. Ronaldo is certainly eyeing the same for now, he strongly stated that he is committed to the Portuguese national team to take as far as he can at the World Cup.</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Cristiano Ronaldo’s second spell at Manchester United has come to an end, in the most abrupt manner. There was no going back for the 37-year-old forward who is currently on international duty with Portugal at the 2022 FIFA World Cup after his tirade against the Red Devils in the Piers Morgan interview. With a heap of questions piling up on his future, Ronaldo soo could be the subject of another lucrative offer from the Saudis, who are ready to do everything in order to bring the global star to the middle-east. Saudis ready to double their previous offer for Cristiano Ronaldo Cristiano Ronaldo already had attempted to leave United in the summer market but was unable to do so. The former Real Madrid superstar kicking a ball around in Saudi Arabia itself would be their biggest show of power, after their recent win over Argentina at the 2022 World Cup, and the takeover of Newcastle United which they accomplished last year.</t>
-        </is>
-      </c>
+          <t>The Bank of East Asia in Central, Hong Kong. Photo: Felix Wong</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.9984026551246643</v>
+        <v>0.9673531651496887</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Irene Cara, '80s pop star behind 'Fame' and 'Flashdance' theme songs, dies at 63 - Quad-City Times</t>
+          <t>December 1 Asia bond pipeline: What's coming up? - GlobalCapital</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 14:58:00 GMT</t>
+          <t>Thu, 01 Dec 2022 03:18:34 GMT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Actress and singer Irene Cara, an Oscar and Grammy winner best known for the theme songs of "Fame" and "Flashdance" in the early '80s, has died, her publicist said. She was 63. "Please share your thoughts and memories of Irene," Judith Moose said in a tweet announcing the singer's death. "I'll be reading each and every one of them and know she'll be smiling from Heaven. She adored her fans. "She was a beautifully gifted soul whose legacy will live forever through her music and films." Cara died in her Florida home. The cause of death is unknown, according to Moose's statement. As a youth, Cara appeared on TV's "Electric Company" before acting as a teen in the movies "Aaron Loves Angela" and "Sparkle." Her breakthrough came as Coco Hernandez in the 1980 musical "Fame," about New York's High School for the Performing Arts. She had a hit record with that movie's title song, and another with the ballad "Out Here on My Own." She was nominated for a Golden Globe and two Grammys that year. Three years later, Cara co-wrote the lyrics for "Flashdance... What a Feeling," another radio smash for which she received an Oscar for Best Original Song and a Grammy for Best Pop Vocal Performance, Female. She had a few other hits, including "Why Me" and "Breakdance." She also acted in movies such as "City Heat" with Burt Reynolds and Clint Eastwood, "D.C. Cab" with Mr. T and "Certain Fury" with Tatum O'Neal.</t>
+          <t>The content you are trying to view is exclusive to our subscribers. To unlock this article:</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Actress and singer Irene Cara, an Oscar and Grammy winner best known for the theme songs of "Fame" and "Flashdance" in the early '80s, has died, her publicist said. I'll be reading each and every one of them and know she'll be smiling from Heaven. She had a hit record with that movie's title song, and another with the ballad "Out Here on My Own."</t>
+          <t>The content you are trying to view is exclusive to our subscribers.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2278,28 +2354,28 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9218683838844299</v>
+        <v>0.9999725818634033</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Avatar marks landmark ten years – CAJ News Africa - Caj News Africa</t>
+          <t>AIA acquires Blue Cross in Hong Kong and deepens Bank of East Asia bancassurance partnership -Asian Wealth Management and Asian Private Banking - Hubbis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 11:29:15 GMT</t>
+          <t>Mon, 07 Mar 2022 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>by AKANI CHAUKE JOHANNESBURG, (CAJ News) – FROM humble beginnings with R2 000 (US$117), South Africa’s largest 100-percent black-owned agency has grown into a multimillion-Rand business. Avatar, founded by entrepreneurs Zibusiso Mkhwanazi and Veli Ngubane, is celebrating its ten-year anniversary. In marking the occasion, Avatar also announced a new talent programme for ten students in the creative field. The programme will open in the second quarter of 2023, with further details will be shared closer to the time. “As we continue our mission to do world-class work for world-class clients through our world-class people, we’ve been hard at work in the last ten years strengthening our core: building a business culture that wins,” said Mzamo Xala, Group Chief Executive Officer. The humble beginning of Avatar is reminiscent of the usual bootstrapping story – starting out in Mkhwanazi’s bedroom with R2 000 to its name. M+N, the holding company which Avatar belongs to, has now grown to a R400-million business. It counts the likes of Tecno, one of Africa’s biggest smartphone makers, among its clients. The agency group works on brands including Caltex, Central Energy Fund, Converse, BCX, Development Bank of Southern Africa, KFC Add Hope, South African Airways, Telkom, Unilever and Wesbank among others. More recently, Avatar was named as Isuzu South Africa’s Agency of Record. “But 10 is only the beginning,” Xala said. “We’ve got a lot of work to do if we are going to liberate our fellow Africans to power their own stories with ideas that move people, so clients can build greater brands, and we can be in a great place to shine our talents.” – CAJ News</t>
+          <t>AIA has announced that it has agreed to acquire 100 per cent of the shares in Blue Cross (Asia-Pacific) Insurance Limited (“Blue Cross”) and 80 per cent of the shares in Blue Care JV (BVI) Holdings Limited (“Blue Care”) from The Bank of East Asia, Limited (“BEA”). Blue Cross is a well-established insurer in Hong Kong focused on providing leading health insurance products. Blue Care operates medical centres with a large medical network in Hong Kong. AIA and BEA have also agreed to extend the scope of their existing exclusive bancassurance partnership. Through the acquisition of Blue Cross, their partnership will include a 15-year agreement covering personal lines general insurance products. This will provide a comprehensive suite of AIA’s insurance solutions, including health insurance, to BEA’s personal banking customers in Hong Kong. This transaction significantly accelerates AIA’s health and wellness strategy in Hong Kong, deepens the distribution partnership with BEA and brings new product expertise to support AIA’s distribution channels. Jacky Chan, AIA’s Regional Chief Executive, said: “I am delighted to expand our successful partnership with BEA and welcome Blue Cross to AIA. This investment builds on our long history in Hong Kong and underscores our confidence in its future. Our unrivalled multi-channel distribution platform is at the heart of our strategy and this new agreement deepens our exclusive relationship with one of the leading domestic banks in Hong Kong. This transaction also strengthens our position as a leading health insurer. Powered by AIA’s digital transformation and a full suite of health insurance propositions, we will unlock further growth potential and help many more people live Healthier, Longer, Better lives.” Adrian Li and Brian Li, Co-Chief Executives of BEA, said: “With our shared vision and excellent working relationship, the bancassurance partnership between BEA and AIA, which officially commenced in July last year, has enjoyed a promising start. We are delighted to announce yet another milestone in this partnership by extending our cooperation into the general insurance arena.” The acquisition of Blue Cross brings together two trusted names in health insurance. AIA is a leading private health insurer in Hong Kong with a powerful brand and a long operating history, providing health insurance coverage to close to 1.7 million individuals and more than 450,000 members of corporate schemes. Blue Cross brings extensive operating experience and specialist expertise in health insurance, enabling AIA Hong Kong to capture additional value across its distribution channels. The combined scale and strengths of the two companies will deliver leading propositions and improved health outcomes for customers AIA’s Health and Wellness Ecosystem in Hong Kong will benefit from additional Blue Cross capabilities as well as Blue Care’s two medical centres and a city-wide medical network with over 300 affiliated service providers. AIA will also be able to capture further profitable growth through its multi-channel distribution platform in Hong Kong by offering a broader range of products, creating additional opportunities to deepen customer engagement. AIA will pay a total consideration of US$278 million for the transaction. The transaction is subject to regulatory approvals and other closing conditions.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>by AKANI CHAUKE JOHANNESBURG, (CAJ News) – FROM humble beginnings with R2 000 (US$117), South Africa’s largest 100-percent black-owned agency has grown into a multimillion-Rand business. As we continue our mission to do world-class work for world-class clients through our world-class people, we’ve been hard at work in the last ten years strengthening our core: building a business culture that wins,” said Mzamo Xala, Group Chief Executive Officer. It counts the likes of Tecno, one of Africa’s biggest smartphone makers, among its clients.</t>
+          <t>AIA has announced that it has agreed to acquire 100 per cent of the shares in Blue Cross (Asia-Pacific) Insurance Limited (“Blue Cross”) and 80 per cent of the shares in Blue Care JV (BVI) Holdings Limited (“Blue Care”) from The Bank of East Asia, Limited (“BEA”). Our unrivalled multi-channel distribution platform is at the heart of our strategy and this new agreement deepens our exclusive relationship with one of the leading domestic banks in Hong Kong. Adrian Li and Brian Li, Co-Chief Executives of BEA, said: “With our shared vision and excellent working relationship, the bancassurance partnership between BEA and AIA, which officially commenced in July last year, has enjoyed a promising start. The combined scale and strengths of the two companies will deliver leading propositions and improved health outcomes for customers AIA’s Health and Wellness Ecosystem in Hong Kong will benefit from additional Blue Cross capabilities as well as Blue Care’s two medical centres and a city-wide medical network with over 300 affiliated service providers. The transaction is subject to regulatory approvals and other closing conditions.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2308,58 +2384,58 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.9999966621398926</v>
+        <v>0.9997298121452332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Digital Payments Market Size &amp; Revenue, Development Strategies, Business Risk Factors Analysis, Industry Key Players Overview, and Segmentation Forecasts to 2028 - Digital Journal</t>
+          <t>A review of popular unrest in China in light of the ongoing anti-lockdown protests - Modern Diplomacy</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 18:05:42 GMT</t>
+          <t>Thu, 01 Dec 2022 05:13:12 GMT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>The Digital Payments Market SWOT Analysis by Key Players – Aurus Inc., PayPal Holdings Inc., WEX Inc., Total System Services Inc., Paysafe Holdings U.K. Limited, Global Payments Inc. &amp; More This press release was orginally distributed by SBWire Pune, Maharashtra — (SBWIRE) — 11/25/2022 — Digital Payments Market Scope &amp; Overview 2022: An electronic transaction, also called a digital payment, is a method of transferring money that uses a digital device, such as a mobile phone, computer, or PoS, along with electronic channels such as SWIFT or mobile wireless data. In this process, the merchant, the customer, the payment network, and the bank are all involved. The transition to digital payments and receipts has helped small companies all over the world to make rapid and secure payments at no cost and without risk. Consumers, governments, companies, and international development organizations have benefited from the advantages of this innovation, including lower costs and greater transparency and security. "According to SNS insider, the Digital Payments Market Size was valued at US$ 65.32 Bn in 2021, and is projected to reach US$ 256.64 Bn by 2028, with a growing CAGR of 21.56% during the Forecast Period 2022-2028." Get a Free Sample Report of Digital Payments Market @ https://www.snsinsider.com/sample-request/1388 for more information or customization mail us at [email protected] The Digital Payments market research report examines changes in raw materials, final consumers, product distribution and sales channels, and product distribution and sales channels. Businesses can utilize the research report to develop effective expansion strategies and obtain a better understanding of the market. Market research considers macroeconomic policies, industrial policies, regional industrial layout characteristics, key business product dynamics, and industry growth trends. In terms of growth rate, market segmentation, market size, predicted trends, and regional viewpoint, the research report contains both qualitative and quantitative data. Digital Payments market research assesses the current condition, which is expected to have an impact on the market's potential in the future. There is also information accessible on the industry's historical growth, CAGR standing, price structure, and supply-demand dynamics. Major Key Company profiles analysis covered in Digital Payments Market are: – Aurus Inc. – PayPal Holdings Inc. – WEX Inc. – Total System Services Inc. – Paysafe Holdings U.K. Limited – Global Payments Inc. – YapStone Inc. – Novatti Group Limited – Financial Software &amp; Systems Pvt. Ltd. – Fiserv Inc. Digital Payments Market Segmentation Outlook 2022 The Digital Payments market research study examines the major market categories based on end-use, type, and location in depth. The market size was calculated using both primary and secondary sources. The strategy evaluation considers everything from long-term growth plans for both new and experienced market competitors to marketing channels and market positioning. Major Segments and Sub-Segment of Digital Payments Market are Listed Below: Segmentation by Component: Solutions – Payment Gateway Solutions – Payment Processing Solutions – Payment Wallet Solutions – Payment Security and Fraud Management Solutions – Point of Sale (POS) Solutions Services – Professional Services – Consulting – Implementation – Support and Maintenance – Managed Services Segmentation by Payment: – Bank Cards – Digital Currencies – Digital Wallets – Net Banking – Point of Sales – Others Segmentation by Deployment Type: – On-premises – Cloud Segmentation by Organization Size: – Small and Medium-sized Enterprises – Large Enterprises Segmentation by Vertical: – Banking, Financial Services, And Insurance – Retail and Ecommerce – Healthcare – Travel and Hospitality – Transportation and Logistics – Media and Entertainment – Other Verticals Key Reasons to Purchase This Market Study: ? This report gives you analytical view of global market where all regional analysis Are covered ? This report contains market current size, share, growth prospectus and also included forecasted data ? report studied on actual market growth so you can easily understand where market stands after several years. ? Company partnership, future growth analysis, new opportunities values analysis are covered in this report. Covid-19 Impact Analysis The global coronavirus (COVID-19) epidemic has affected every aspect of life. The research offers a market overview, including definitions, applications, and manufacturing techniques. The Digital Payments market research contains both qualitative and quantitative data that are solely focused on the various factors. Enquiry about report @ https://www.snsinsider.com/enquiry/1388 (Black Friday Sale Is Live till 31st November 2022!! 20% Flat Discount on All Reports) Regional Analysis &amp; Outlook Extensive multi-level research was undertaken on a wide range of geographical regions around the world in order to collect qualitative and quantitative market data from both internal and external sources. The strategy also requires the creation of a regional market analysis and forecast for each Digital Payments market area. Regional Analysis Covered in this report: – North America [United States, Canada] – Europe [Germany, France, U.K., Italy, Russia] – Asia-Pacific [China, Japan, South Korea, India, Australia, China Taiwan, Indonesia, Thailand, Malaysia] – Latin America [Mexico, Brazil, Argentina] – Middle East &amp; Africa [Turkey, Saudi Arabia, UAE] Digital Payments Market Competitive Analysis The purpose of this research is to outline past, present, and forecast changes in supply, market size, competition, and the value chain. The market report includes information on all of the industry's major players, such as company profiles, sizes, product values, specifications, and capacities. The Digital Payments market analysis attempts to forecast market estimates for the following year by evaluating market statistics from previous years for certain sectors and countries. Key Questions Answered in the Digital Payments Market Report – What are the most effective tactics for sustaining industry competition? – What are the market's primary growth possibilities in the next years? – What are the dimensions of the target market and its potential future growth? Major Conclusion of This Research Study: The Digital Payments market report will be used as a reference to help users fully comprehend every area of the industry. It focuses on the current market and anticipated trends to provide organizations with better knowledge. Table of Contents – Major Key Points 1. Introduction 2. Research Methodology 3. Market Dynamics 4. Impact Analysis 5. Value Chain Analysis 6. Porter's 5 Forces Model 7. PEST Analysis 8. Digital Payments Market Segmentation, By Component 9. Digital Payments Market Segmentation, By Payment 10. Digital Payments Market Segmentation, By Deployment Type 11. Digital Payments Market Segmentation, By Organization Size 12. Digital Payments Market Segmentation, By Vertical 13. Regional Analysis 14. Company Profiles 15. Competitive Landscape 16. Conclusion Buy 1-User PDF of Digital Payments Market 2022 @ https://www.snsinsider.com/checkout/1388 Contact Us: Akash Anand – Head of Business Development &amp; Strategy [email protected] Phone: +1-415-230-0044 (US) | +91-7798602273 (IND) About Us: SNS Insider is a market research and insights firm that has won several awards and earned a solid reputation for service and strategy. We are not merely a research organization. We are a strategic partner who can assist you in reframing issues and generating answers to the trickiest business difficulties. For greater consumer insight and client experiences, we leverage the power of experience and people. When you employ our services, you will collaborate with qualified and experienced staff. We believe it is crucial to collaborate with our clients to ensure that each project is customized to meet their demands. Nobody knows your customers or community better than you do. Therefore, our team needs to ask the correct questions that appeal to your audience in order to collect the best information. For more information on this press release visit: http://www.sbwire.com/press-releases/digital-payments-market-size-revenue-development-strategies-business-risk-factors-analysis-industry-key-players-overview-and-segmentation-forecasts-to-2028-1367001.htm</t>
+          <t>Late 1970s saw the Chinese people standing up to exercise their right to dissent for the first time since the foundation of the People’s Republic, coinciding with the end of the Mao era. Here, I touch upon some of the iconic protests that China witnessed in the past five decades. *** The ongoing popular protests in mainland China against the Xi Jinping-led party-state’s harsh “zero-Covid” policy, entailing strict lockdown measures, were triggered by a fire outbreak incident in an apartment building in northwestern China’s Urumqi that killed ten people and injured many. The tragedy happened on the night of 24 November 2022 as the residents were unable to escape the building, with the rescue efforts hampered due to the excessively strict lockdown policy. Tens of millions of people in mainland China are still under an extended lockdown of some kind or the other, while much of the rest of the world came back to normal. The backdrop Some Chinese workers were reportedly forced to sleep inside the factories itself, while undergoing quarantine. Previously, reports of people trying to come out of shops and factories due to fears that they could be locked inside surfaced in the media. In this backdrop, when the news of Urumqi fire incident came out, it soon struck a chord with the Chinese people, which soon acted as a catalyst for protests and demonstrations in several cities throughout the country, including in Beijing and Shanghai. Hundreds of people took to the streets, pouring out their frustration and anger against the state’s continued oppression of their freedoms under a maximalist approach to Covid response. Contrary to expectations, the 20th National Congress of the Chinese Communist Party (CCP) that concluded in October 2022 never announced any relaxations to the “zero-Covid” policy, despite the damages it has done to the economy. For the first time in at least three decades, the CCP General Secretary Xi Jinping, who also holds the ceremonial position of the President of China, has consolidated all powers in the recent party congress, in which he eliminated all the rival factions within the party from yielding power in the Politburo Standing Committee (PSC) and the other higher ranks in the party. The “Xi faction” is now the only faction within the CCP’s higher echelons of power. Déjà vu 1976 Democratic protests seem to be a far-fetched dream in a communist one-party authoritarian state like China. However, the country do have a history of protests, particularly following the dictatorial Mao era (1949-76), when people were given the freedom to express themselves during the “reform and opening-up period” that began in 1978 under the new paramount leader Deng Xiaoping, who openly denounced Mao’s hardline policies, which curtailed civil rights of the people and pushed millions into starvation and poverty, resulting from disastrous movements such as the Great Leap Forward (1958-62) and the Cultural Revolution (1966-76). It is estimated that during this period, about 65 million Chinese people lost their lives by execution, imprisonment or human-made famines. Thirteen years before the 1989 Tiananmen Square protests and massacre happened, there was another mass gathering of Chinese people in the same place, in April 1976, that was triggered by the death of the widely-popular Premier Zhou Enlai, who has also served as the foreign minister of China from 1949 to 1958. Back then, the Chinese people protested for their right to mourn their much-loved leader as the CCP placed limits on public mourning. People gathered at the Square, coinciding with the Chinese Tomb-Sweeping Day (Qingming Festival) and protested the actions of Mao’s team of protégés known as the “Gang of Four”, who ordered the place to be cleared. This was probably the first instance of mass protests in mainland China since 1949 as the Mao era drew closer to its end. Leadership transition With the heralding of the Deng Xiaoping-era, shortly following a power struggle with Mao’s designated successor Hua Guofeng at the third plenum of the 11th CCP Central Committee in December 1978, some amount of toleration of political dissent and political expression were allowed, in what came to be known as the “Democracy Wall Movement” or the “Beijing Spring”. But, it lasted only for a year. This was also the time of rapprochement with the United States, which saw the opening of formal diplomatic ties with the People’s Republic for the first time. Washington recognized Beijing as the sole legitimate government of China, at the cost of Taipei. Shortly after this, Deng Xiaoping became the first paramount leader of mainland China to visit the U.S. in January 1979. Despite these happenings in the diplomatic stage, the CCP continued to remain autocratic at home. The 1980s witnessed the beginning of China’s transformation into a modern industrial powerhouse as private corporations and foreign investments flooded into the country. With the socioeconomic transformation underway and the higher exposure to new ideas of living, the Chinese people started demanding more political freedoms. Hu Yaobang, one of the most trusted lieutenants of Deng, had overseen much of the changes that happened in China in the 1980s in his capacity as CCP General Secretary. He passed away in 1989, two years after he was stripped of power by the party hardliners. Tiananmen turns bloody Like Zhou Enlai, Hu was also a widely respected and loved leader in China. Tens of thousands of people gathered at his funeral venue in April 1989 and called for greater political freedoms, mostly youngsters and students. In the weeks that followed, protesters reached Tiananmen Square again. The CCP officials initially had differing views on how to deal with the escalating protests, but only a few maintained a liberal outlook. The hardliners ultimately prevailed over the others in party deliberations. It was also the time the Soviet Union was beginning to disintegrate and China was patching up its ties with the crumbling superpower. The last Soviet leader Mikhail Gorbachev was in Beijing, in May 1989, while the student protests were still underway. This was the first engagement between the two countries since the onset of the “Sino-Soviet split” in the 1950s. Martial law was declared in Beijing later that month. The People’s Liberation Army (PLA) was ordered to clear off the protesters. The first of week of June 1989 saw the PLA tanks and troops marching on the roads of Beijing, finally reaching Tiananmen Square, where they opened fire on peaceful, unarmed protesters and brutally crushed the protests. Hundreds of Chinese civilians, mostly university students, were killed in the military action, inviting international condemnation of the CCP regime, which continues to erase this dark episode from the public memory. Commemorations of this incident is not allowed in the mainland, while Hong Kong used to do so until 2020-21, when Beijing hijacked the city’s security apparatus by opening a national security office there, which made sure that Tiananmen vigils remained banned in Hong Kong as well. The purge of Falun Gong The 1990s saw the rise of a new spiritual movement in China called the Falun Gong, rooted in the traditional practice of Qigong that combines meditation, slow physical movements, and regulated breathing exercises. Having endorsed atheism as state ideology, the CCP under Jiang Zemin perceived the rise of this movement as a threat as it never aligned itself with the official party line. By the end of the decade, China has about seventy million Falun Gong practitioners. Famous China scholar David Ownby mentions in his 2008 book “Falun Gong and the Future of China” that the group has been engaged in about 300 protests and demonstrations between 1996 and 1999. In April, protests escalated initially in Tianjin and later spread to Beijing’s central administrative area where the CCP and the Chinese State Council were headquartered. This is often cited as the beginning of the end of the movement in China as the CCP started a series of propaganda campaign, chiefly led by the Ministry of Public Security, against its practitioners, which in some cases entailed the use of excessive force including arbitrary arrests, forced labor and physical torture, and at times resulting in deaths, according to a 2000 report by Amnesty International. However, Falun Gong continues to survive among the Chinese diaspora in North America, Southeast Asia and other parts of the world. The killing of Hong Kong’s democracy Hong Kong is one of the two special administrative regions (SAR) of China, along with Macau, with a history of living under a democratic system. In 2014, Hong Kongers protested an attempt by Beijing to dilute the democratic procedure to elect the city’s Chief Executive by introducing a new mandatory pre-screening of candidates. This was aimed at jeopardizing the “one country, two systems” principle and to install a pro-CCP regime in the city, where polls were scheduled to take place three years later. The protesters occupied the city for 79 days, bringing it to a standstill. This came to be known as the “Umbrella Movement” as they used umbrellas to protect themselves from the pepper spray and tear gas used by the police. Five years later, in 2019, Hong Kongers took to the streets again when the pro-Beijing government of Hong Kong tried to introduce an extradition bill that would have allowed the handover of crime suspects in Hong Kong to mainland China, which could end up in arbitrary detention and unfair trials. This led to series of demonstrations with several instances of violence. Even though the bill was eventually suspended, the protesters numbering in tens of thousands, continued to raise a new set of demands for democracy, thereby spiraling into a broader movement that led to Beijing upping the ante on its crackdown on dissent in the city. Beijing termed the protesters as ‘separatists’ and introduced a new national security law in 2020 that effectively jeopardized the city’s autonomy, in what was dubbed as the Hong Kong’s worst crisis since 1997, the year in which the city’s sovereignty was transferred back to China from the UK. Oher than the aforementioned instances, China has also witnessed various other protests in the past, but most of them were sporadic in nature, relating to corruption, forced evictions of people for development projects, labour strikes, environmental degradation and so on. With the current leader of China, Xi Jinping, having the firmest grip on power since Mao Zedong, Chinese democratic aspirations appear to be doomed in the foreseeable future.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The Digital Payments Market SWOT Analysis by Key Players – Aurus Inc., PayPal Holdings Inc., WEX Inc., Total System Services Inc., Paysafe Holdings U.K. Limited, Global Payments Inc. &amp; More This press release was orginally distributed by SBWire Pune, Maharashtra — (SBWIRE) — 11/25/2022 — Digital Payments Market Scope &amp; Overview 2022: An electronic transaction, also called a digital payment, is a method of transferring money that uses a digital device, such as a mobile phone, computer, or PoS, along with electronic channels such as SWIFT or mobile wireless data. In this process, the merchant, the customer, the payment network, and the bank are all involved. Get a Free Sample Report of Digital Payments Market @ https://www.snsinsider.com/sample-request/1388 for more information or customization mail us at [email protected] The Digital Payments market research report examines changes in raw materials, final consumers, product distribution and sales channels, and product distribution and sales channels. Ltd. – Fiserv Inc. Digital Payments Market Segmentation Outlook 2022 The Digital Payments market research study examines the major market categories based on end-use, type, and location in depth. This report gives you analytical view of global market where all regional analysis Are covered ? What are the market's primary growth possibilities in the next years? – Major Conclusion of This Research Study: The Digital Payments market report will be used as a reference to help users fully comprehend every area of the industry. Digital Payments Market Segmentation, By Organization Size 12. We are a strategic partner who can assist you in reframing issues and generating answers to the trickiest business difficulties.</t>
+          <t>Late 1970s saw the Chinese people standing up to exercise their right to dissent for the first time since the foundation of the People’s Republic, coinciding with the end of the Mao era. The ongoing popular protests in mainland China against the Xi Jinping-led party-state’s harsh “zero-Covid” policy, entailing strict lockdown measures, were triggered by a fire outbreak incident in an apartment building in northwestern China’s Urumqi that killed ten people and injured many. The backdrop Some Chinese workers were reportedly forced to sleep inside the factories itself, while undergoing quarantine. Thirteen years before the 1989 Tiananmen Square protests and massacre happened, there was another mass gathering of Chinese people in the same place, in April 1976, that was triggered by the death of the widely-popular Premier Zhou Enlai, who has also served as the foreign minister of China from 1949 to 1958. This was probably the first instance of mass protests in mainland China since 1949 as the Mao era drew closer to its end. Despite these happenings in the diplomatic stage, the CCP continued to remain autocratic at home. Hu Yaobang, one of the most trusted lieutenants of Deng, had overseen much of the changes that happened in China in the 1980s in his capacity as CCP General Secretary. In the weeks that followed, protesters reached Tiananmen Square again. The People’s Liberation Army (PLA) was ordered to clear off the protesters. Hundreds of Chinese civilians, mostly university students, were killed in the military action, inviting international condemnation of the CCP regime, which continues to erase this dark episode from the public memory. By the end of the decade, China has about seventy million Falun Gong practitioners. Oher than the aforementioned instances, China has also witnessed various other protests in the past, but most of them were sporadic in nature, relating to corruption, forced evictions of people for development projects, labour strikes, environmental degradation and so on.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.9999983310699463</v>
+        <v>0.9439620971679688</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Spent Political Capital - OrissaPOST</t>
+          <t>Binance acquires regulated crypto exchange in Japan - Cointelegraph</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 05:30:38 GMT</t>
+          <t>Wed, 30 Nov 2022 10:04:59 GMT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The BJP government went into 2019 with a lot of energy and momentum. The electoral victory in May that year was decisive and rewarded the Prime Minister with more seats than he had secured in 2014. With the confidence of that mandate, and the idea that the people were with him on change, he began to spend the political capital he had earned. For one year, till June 2020, this continued and then it ran out of steam. In this period of 12 months things happened, and much of the aftermath still remain with us. Let us look at how things unfolded. On 25 July, the triple talaq bill was passed in the Lok Sabha. The Supreme Court had already invalidated it earlier, but now it was made a criminal offence. This was accompanied by a series of ‘freedom of religion’ laws in BJP states banning marriage between Hindus and Muslims. These were against what was called love jihad. A few days after that, on 5 August Article 370 was undone. This was a special moment for the BJP. On 31 August, the final National Register of Citizens was published by Assam, which had begun the process of jailing those who could not prove their ancestors had been in the state before 1971. Another triumphal moment for the BJP came a few weeks after that, on 9 November. The Supreme Court delivered the Ayodhya judgement and handed the full site over for the temple, capping a three decade movement from the BJP. The next month, on 9 December, the Citizenship Amendment Act was passed in the Lok Sabha. Readers will recall that the Home Minister had promised that it was one claw of a two-part pincer. The other being a nationwide NRC. The peak arrived a few weeks after that with the visit of then US President Donald Trump in the Narendra Modi stadium in Ahmedabad. This was possibly the point after which the agenda seems to have been exhausted. A nationwide movement against the CAA came with global outrage at what India was doing. The pogrom in Delhi during the presidential visit showed how little control there was even in the capital. The next month came the national lockdown which some said was the world’s most severe. It didn’t change the trajectory of COVID infections in India. A few weeks after that was the terrible sequence in Ladakh where we lost 20 soldiers and which altered the national security dynamic of India by default, shifting focus from the west and against Pakistan to the east. We do not know, and even the Foreign Ninister says he is baffled, why China did what it did. On 5 June, one year after the victory came the last attempt at big change: the farm laws ordinance. The protest against them stalled the government’s momentum. In Kashmir, having gutted Article 370, the BJP didn’t appear to know what to do next. It still doesn’t appear to know. Kashmir is the only part of South Asia to not have an elected government. It is three years since Article 370 went and four years since its Assembly was dissolved. Violence is not lower than it was in the few years before 2015 and we have seen the minority Pandits protesting about the way they have been treated. The laws targeting minorities ran into trouble because they were not passed without application of mind. This month, a legal website ran this headline: “Madhya Pradesh Freedom Of Religion Act: HC finds provision requiring inter-faith couples to declare conversion before Collector ‘Prima Facie Unconstitutional’.” Gujarat High Court also sent a judgment against the law there. The farm laws were undone with an apology from the Prime Minister after the largest mass mobilisation this country has seen. The CAA law is now three years old but the government for some reason cannot implement it. The talk of a nationwide NRC has ended. Finally, even on the economy, not much was possible on the positive side after this period. The government’s data showed that GDP growth slowed across nine quarters, meaning for two years and three months, beginning January 2018. The arrival of COVID and the hit the economy took masked the damage it had already sustained. The reason Bangladesh overtook India in per capita GDP was not only because India mismanaged the pandemic. Our neighbour had been catching up since 2015 and it was inevitable that unless India did something remarkable to turn around its trajectory it would be left behind, and it was. Unemployment data from the government shows joblessness has been at record highs for four years. The BJP’s 2019 manifesto said one of the indicators of its governance was the improvement in India’s position on the World Bank’s Doing Business (previously ease of doing business) rankings. Unfortunately, this ranking was discontinued in 2020 after some countries were found manipulating the process to improve their scores. There is not much to show on governance after that one year burst of activity. The second wave finished off any credibility on that front and it was for a reason that even someone as fond of publicity as the Prime Minister did not appear in public for 20 days. The listlessness shows in endless political campaigning conducted without much reference to performance, only to charisma. The past is not spoken about though it has not gone away and indeed even demonetisation is being heard by the Supreme Court now though the BJP wants it to be forgotten.</t>
+          <t>Cryptocurrency exchange Binance plans to reenter the Japanese market after acquiring a 100% stake in a licensed crypto service provider in the country, Cointelegraph Japan reported. In an official public announcement on Nov. 30, Binance CEO Changpeng Zhao said the crypto exchange was committed to re-entering the Japanese market under regulatory compliance. The acquisition of Sakura Exchange BitCoin (SEBC), a Japan Financial Services Agency-licensed business, would mark the re-entry of global exchange in the Japanese market after four years. #Binance Acquires JFSA Registered Sakura Exchange BitCoin, Committed to Enter Japan Under Regulatory Compliancehttps://t.co/xfdnaY2hiO — CZ Binance (@cz_binance) November 30, 2022 Talking about the importance of the latest acquisition, a Binance spokesperson told Cointelegraph: “We can say that the acquisition of SEBC marks Binance’s first license in East Asia, and as Asia is a market with potential, we hope to expand in other regions.” Binance had to shut its operations and plans to open a headquarter in Japan in 2018 after an FSA notice for operating without a license. The Japanese government warned the crypto exchange again in 2021 on similar grounds. Binance’s acquisition of a regulated entity to enter a crypto market where it has found it difficult to acquire a license independently is nothing new. Earlier, Binance managed to reenter the Malaysian market after acquiring a stake in a regulated entity. Similarly, the exchange reentered the Singapore market with an 18% stake in a regulated stock exchange. The crypto exchange also managed to access United Kingdom’s sterling payment network with a partnership with Paysafe after the regulators declined it access to the same. Related: Bank of Japan to trial digital yen with three megabanks Cointelegraph reached out to Binance to enquire whether the exchange had applied for an independent license in Japan as well, but a spokesperson declined to comment. Japan is considered one of the first crypto nations to introduce some form of regulation on trading crypto assets. While strict, the Japanese approach to cryptocurrency regulations was widely appreciated, and G20 nations even consulted the nation over global crypto parameters. Recently, Japan has eased up its regulatory policy further to encourage more crypto startups and allow them to flourish and has made coin listings easier.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The BJP government went into 2019 with a lot of energy and momentum. This was accompanied by a series of ‘freedom of religion’ laws in BJP states banning marriage between Hindus and Muslims. On 31 August, the final National Register of Citizens was published by Assam, which had begun the process of jailing those who could not prove their ancestors had been in the state before 1971. The peak arrived a few weeks after that with the visit of then US President Donald Trump in the Narendra Modi stadium in Ahmedabad. A few weeks after that was the terrible sequence in Ladakh where we lost 20 soldiers and which altered the national security dynamic of India by default, shifting focus from the west and against Pakistan to the east. In Kashmir, having gutted Article 370, the BJP didn’t appear to know what to do next. Gujarat High Court also sent a judgment against the law there. The CAA law is now three years old but the government for some reason cannot implement it. The government’s data showed that GDP growth slowed across nine quarters, meaning for two years and three months, beginning January 2018.</t>
+          <t>Cryptocurrency exchange Binance plans to reenter the Japanese market after acquiring a 100% stake in a licensed crypto service provider in the country, Cointelegraph Japan reported. Binance Acquires JFSA Registered Sakura Exchange BitCoin, Committed to Enter Japan Under Regulatory Compliancehttps://t.co/xfdnaY2hiO — CZ Binance (@cz_binance) November 30, 2022 Talking about the importance of the latest acquisition, a Binance spokesperson told Cointelegraph: “We can say that the acquisition of SEBC marks Binance’s first license in East Asia, and as Asia is a market with potential, we hope to expand in other regions.” Earlier, Binance managed to reenter the Malaysian market after acquiring a stake in a regulated entity.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2368,58 +2444,58 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9987791180610657</v>
+        <v>0.9999271631240845</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Large cruise ship due on Nov 29 - Sunday Observer</t>
+          <t>Motors partners with IndusInd Bank to offer exclusive Electric Vehicle Dealer Financing | Tata Motors Limited - Tata Motors</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 20:12:38 GMT</t>
+          <t>Wed, 30 Nov 2022 03:06:48 GMT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cruise ship ‘Mein Schiff 5’ with 2,030 passengers, a majority of them Europeans and 945 crew members, will make its maiden call on Sri Lanka on November 29. The ship will call at Hambantota Port on November 30, creating history as the first large passenger ship to call and stay overnight at the HIP Port. Due to the ship being too large to berth in the Colombo Port passenger terminal it will anchor at the East container terminal making it the first cruise ship to be anchored there. Hapag-lloyd Lanka (Pvt) Ltd will make the logistic arrangements while Aitken Spence Travels will be in charge of excursions. It will stay one night in Colombo and Hambantota. This is the second back-to-back passenger cruise ship to call over on Sri Lanka after Norwegian ship Vikingmas carrying 700 tourists and 450 crew members arrived at the Colombo Port last week marking herself as the first cruise ship to call on Sri Lanka post-Covid.</t>
+          <t>Tata Motors partners with IndusInd Bank to offer exclusive Electric Vehicle Dealer Financing (From Left to Right) Mr. Sanjeev Anand, Head – Corporate, Commercial, Rural &amp; Inclusive Banking, IndusInd Bank Ltd. along with Mr. Aasif Malbari, Chief Financial Officer, Tata Passenger Electric Mobility Ltd. and Director, Tata Motors Passenger Vehicles Ltd. at the MoU signing between IndusInd Bank and Tata Motors to offer exclusive Electric Vehicle Dealer Financing to authorized passenger EV Dealers Key Highlights: One-of-its kind Electric Vehicle Inventory Financing program for Tata Motors’ dealers Limits extended towards EVs will be over and above regular dealer finance limits for Internal Combustion Engines (ICE) Attractive special pricing Additional limit to cater in peak seasons, can be extended 2 times in a year In its effort towards increasing EV adoption in the country, Tata Motors, India’s leading automotive manufacturer, today announced that it has joined hands with IndusInd Bank to offer an exclusive Electric Vehicle Dealer Financing solution to its authorized passenger EV dealers. Under this scheme, IndusInd Bank will provide additional inventory funding with attractive pricing to authorized passenger EV dealers of Tata Motors. This additional inventory funding would be over and above the ICE finance limit of the dealers. Repayment tenure will range from 60 to 75 days. Furthermore, IndusInd Bank will also offer additional limit to cater to high demand phases, which will be available to dealers 2 times in a year. The MoU for this partnership was signed by Mr. Aasif Malbari, Chief Financial Officer, Tata Passenger Electric Mobility Ltd. and Director, Tata Motors Passenger Vehicles Ltd. and Mr. Sanjeev Anand, Head – Corporate, Commercial, Rural &amp; Inclusive Banking, IndusInd Bank Ltd. Commenting on the rollout of this offer, Mr. Aasif Malbari, Chief Financial Officer, Tata Passenger Electric Mobility Ltd. and Director, Tata Motors Passenger Vehicles Ltd. said, “As we move along towards our aim of electrification and green mobility, we are ecstatic to partner with IndusInd Bank to assist our authorized electric passenger vehicle dealer partners with an exclusive financing program. Our dealer network is one of our core support pillars and through their constant efforts we have been able to ride the electrification wave in India. We are positive that through this tie-up, we will make EVs more accessible and the EV buying process, a seamless and a memorable experience for our customers.” Speaking of this partnership, Mr. Sanjeev Anand, Head – Corporate, Commercial, Rural &amp; Inclusive Banking, IndusInd Bank Ltd., said, “As a bank with sustainability at our core, we are extremely delighted to partner with Tata Motors, one of India’s leading automotive brands, to offer an exclusive electric vehicle dealer financing program for authorized passenger EV dealers of Tata Motors. We are proud to partner with the segment leader in the journey toward a sustainable future. Through this tie-up, we are also looking forward to expanding our base into new consumer segments and be a bank of choice providing solutions to meet all banking requirements of the customers.” Tata Motors has been pioneering the Indian automotive market with its groundbreaking efforts, and is currently leading the e-mobility wave in India with a commanding market share of 89%, with over 50,000 EVs produced till date in personal and fleet segments. About Tata Motors Part of the USD 128 billion Tata group, Tata Motors Limited (NYSE: TTM; BSE: 500570 and 570001; NSE: TATAMOTORS and TATAMTRDVR), a USD 37 billion organization, is a leading global automobile manufacturer of cars, utility vehicles, pick-ups, trucks and buses, offering extensive range of integrated, smart and e-mobility solutions. With ‘Connecting Aspirations’ at the core of its brand promise, Tata Motors is India’s market leader in commercial vehicles and amongst the top three in the passenger vehicles market. Tata Motors strives to bring new products that fire the imagination of GenNext customers, fueled by state of the art design and R&amp;D centers located in India, UK, US, Italy and South Korea. With a focus on engineering and tech enabled automotive solutions catering to the future of mobility, the company’s innovation efforts are focused to develop pioneering technologies that are sustainable as well as suited to evolving aspirations of the market and the customers. The company is pioneering India’s Electric Vehicle (EV) transition and driving the shift towards sustainable mobility solutions by preparing a tailor-made product strategy, leveraging the synergy between the Group companies and playing an active role liasoning with the Government in developing the policy framework. With operations in India, the UK, South Korea, Thailand, South Africa and Indonesia, Tata Motors’ vehicles are marketed in Africa, Middle East, South &amp; South East Asia, Australia, South America, Russia and other CIS countries. As of March 31, 2022, Tata Motors’ operations include 86 consolidated subsidiaries, two joint operations, four joint ventures and 10 equity-accounted associates, including their subsidiaries, in respect of which the company exercises significant influence. Media Contact Information: Tata Motors Corporate Communications: indiacorpcomm@tatamotors.com / 91 22-66657613 / www.tatamotors.com About IndusInd Bank: IndusInd Bank Limited commenced its operations in 1994 catering to the needs of consumer and corporate customers. Since its inception, the Bank has redefined the banking experience for its customers including various government entities, PSUs and large corporations. As on September 30, 2022, IndusInd Bank has a customer base of approx. 33 million, with 2320 Branches/Banking Outlets and 2807 ATMs spread across geographical locations of the country and covering 1,33,000 villages. The Bank has representative offices in London, Dubai and Abu Dhabi. The Bank believes in driving its business through technology that supports multi-channel delivery capabilities. It enjoys clearing bank status for both major stock exchanges BSE and NSE and settlement bank status for NCDEX. It is an also an empanelled banker for MCX. IndusInd Bank was included in the NIFTY 50 benchmark index on April 1, 2013. RATINGS Domestic Ratings: CRISIL AA + for Infrastructure Bonds program/Tier 2 Bonds CRISIL AA for Additional Tier 1 Bonds program CRISIL A1+ for certificate of deposit program / short term FD program IND AA+ for Senior bonds program/Tier 2 Bonds by India Ratings and Research IND AA for Additional Tier 1 Bonds program by India Ratings and Research IND A1+ for Short Term Debt Instruments by India Ratings and Research International Ratings: Ba1 for Senior Unsecured MTN programme by Moody’s Investors Service Visit us at https://www.indusind.com Twitter: @MyIndusIndBank Facebook: https://www.facebook.com/OfficialIndusIndBankPage</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cruise ship ‘Mein Schiff 5’ with 2,030 passengers, a majority of them Europeans and 945 crew members, will make its maiden call on Sri Lanka on November 29. Due to the ship being too large to berth in the Colombo Port passenger terminal it will anchor at the East container terminal making it the first cruise ship to be anchored there.</t>
+          <t>Under this scheme, IndusInd Bank will provide additional inventory funding with attractive pricing to authorized passenger EV dealers of Tata Motors. This additional inventory funding would be over and above the ICE finance limit of the dealers. Furthermore, IndusInd Bank will also offer additional limit to cater to high demand phases, which will be available to dealers 2 times in a year. Speaking of this partnership, Mr. Sanjeev Anand, Head – Corporate, Commercial, Rural &amp; Inclusive Banking, IndusInd Bank Ltd., said, “As a bank with sustainability at our core, we are extremely delighted to partner with Tata Motors, one of India’s leading automotive brands, to offer an exclusive electric vehicle dealer financing program for authorized passenger EV dealers of Tata Motors. With a focus on engineering and tech enabled automotive solutions catering to the future of mobility, the company’s innovation efforts are focused to develop pioneering technologies that are sustainable as well as suited to evolving aspirations of the market and the customers.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9999957084655762</v>
+        <v>0.9390925765037537</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rule of law, authoritarianism, and civil society - BusinessWorld Online</t>
+          <t>Bank of East Asia reportedly planning to sell insurance arm Blue Cross - Marketing Interactive</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 08:07:17 GMT</t>
+          <t>Fri, 03 Dec 2021 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The Asia Liberty Forum interview with Professor Raul Fabella (Part 2) (This is the second part of the interview with Prof. Raul Fabella conducted by Romeo Bernardo that was the culminating activity of the “Asia Liberty Forum” in Manila on Sept. 29-30, presented by The Atlas Network (https://www.atlasnetwork.org/) and the Foundation for Economic Freedom or FEF (https://www.fef.org.ph/). Through panel discussions, break-out sessions, the Asia Liberty Awards Dinner, and other events, attendees heard from leaders from across the continent about the challenges and opportunities ahead for liberal democracy. The second part of the interview follows below.) Romeo Bernardo (RB): Rule of law is almost always cited as a lynchpin of economic freedom. For example, the index of the Heritage Foundation lists it as No. 1, followed by government size, regulatory efficiency and market openness. The UN Charter and the Universal Declaration of Human Rights, defines such to include right to life and liberty, freedom from slavery and torture, freedom of opinion and expression, the right to work and education, and many more, without discrimination. Your thoughts please on such a broad definition of human rights vs. the narrower one espoused in writings of some authors — and practiced in some authoritarian regimes, especially ones which have been quite successful in bringing millions of their people out of poverty, trading off limitations on political liberties — e.g. China, Vietnam. Arguably even Singapore. RF: Rule of Law and inclusion/inequality: Acemoglu and Robinson’s monumental opus (Why Nations Fail) argues that economic liberalization in the form of thin definition of rule of law (protection of property rights and enforcement of contracts) is the lynchpin of long-term sustained growth. Thus, economic liberalization is conducive to improved inclusion (as poverty reduction shown in the People’s Republic of China [PRC]) as growth reduces poverty (Burnside and Dollar, 2000). However, the reduction in poverty incidence does not preclude the violation of the thick definition of rule of law as including respect for basic human rights (the treatment of Uighurs in PRC comes to mind). Barro and Salai-Martin (2004, Economic Growth) were the first to point out that whereas economic liberalization significantly associates with economic growth, political liberalization has at best a little and negative association. This suggested a tradeoff and a spirited backlash. In the new world of the 21st century, well-being has many more dimensions than monetary income: environmental sustainability, shared well-being and resilience, etc., all of which can be attenuated on the way to higher per capita. The tension spikes when the tradeoff is couched in terms of basic human rights: Did the so-called social contract to attenuate political space in exchange for economic space pay off? Depends upon the criteria of validity. If economic space means economic convergence with the high-income economies and lower poverty incidence, East Asia and PRC are evidence of its payoff. Was it worth the lives lost or crippled? Was the Tiananmen Square Massacre in China a fair price to pay for 600 million graduating out of poverty? This is a question of the Sphinx! There is, however, a strong evidence-based consensus that the race to the top of the per capita income ladder has scarred the environment, sometimes irretrievably; that climate change has a human agency footprint. Incidentally, the scars are worse for the previous socialist bloc than for market economies. Social unrest can follow norm violations in these other dimensions despite or because of rising income which also changes public values and perception. Finally, the carbon footprint of energy-impoverished Filipinos is so small you would need a microscope to see it. RB: In recent years, there seems to be a drift away from liberal regimes that espouse market-based solutions (economic freedoms) towards authoritarian regimes from both the right and the left, everywhere globally. To what extent is this being driven by income inequalities and the failure of governments to address poverty and create jobs with globalization and tech change? Notable examples in developing countries are: to the right Brazil, and to the left, Colombia, Chile, Bolivia. (In the west, the USA is poster boy No. 1, and from the news earlier this week — Italy seems to have turned neo-Fascist!). Is Philippines at any risk at risk of being next? What conditions promote these? RF: There is a great deal of debate and interest on how Francis Fukuyama (End of History) — that liberal democracy is the future of humanity — got it wrong. Is income inequality the culprit: possibly, but more salient in the literature is the loss of accustomed and expected entitlements (falling wages, potential loss of jobs from new entrants, threats to accustomed cultural matrix and social contracts from growing diversity, etc.), which can happen with or without growth in inequality. James Scott (Moral Economy of the Peasants, 1976) noted that peasants in East Asia tended to resort to violence when their accustomed standards (food intake, say) are attenuated, especially after adverse climate and harvests and the shares of the landowners do not adjust to accommodate as dictated by the moral economy. So, both inequality cum rigidity and broken expectations are indicted. RB: I like much of what you have written in the past on the role of civil society and organizations like FEF. What can we in FEF (and similar like-minded institutions) do to help improve social welfare and preserve economic freedoms? How do we help ensure that we don’t suffer the reversals and drift to illiberal regimes, both left and right, as had happened in other developing countries? RF: On the role of Civil Society and incremental market liberalization reforms: Most reform battles in the Philippines involve market liberalization. The reflex response of Philippine political actors to economic difficulties is to find scapegoats among market actors such as the profiteers, oligarchs, foreign investors and speculators. The normal state response is to ban or restrain market exchanges and let government take over: thus the old NFA (National Food Authority, a state monopoly in imports of rice), the OPSF (the Oil Price Stabilization Fund, a state monopoly in imports of petroleum), ban on land ownership over five hectares (CARP, the Comprehensive Agrarian Reform Program), ban on mining and forestry activities; the Agri-Agra law (restraint on bank allocation), blam[ing] oligarchs for nature-triggered water shortages, etc. The Philippine economic saga from the 1990s is one of slow and spasmodic extrication from the straitjacket the state has imposed on the market. On FEF engagements: Economic liberalization is where civil society has had the most impact. FEF has been leading the charge to economic liberalization: rice import liberalization, PSA (amended Public Service Act) law allowing foreign participation in more economic activities, free patent law allowing faster grant of titles to patent holders and now allowing consolidation by lifting the five-hectare ownership ceiling and facilitating farm consolidation in the food production sectors. As in Deng’s China, market liberalization is very inclusive in the sense of poverty reduction although it may raise income inequality. The advantage of FEF over other business clubs (MAP or Management Association of the Philippines, MBC or the Makati Business Club, etc.) is that its membership/fellows is not limited to representatives of businesses and firms but also include academics, independent researchers, and public intellectuals. Note: (i) the relationship between tech revolution/social media and polarization/inclusion is murky and already heavily covered and discussed in many other local and global fora; added insight may be hard to offer; and, (ii) the response to social cost of illiberal politics and economy is imbedded in the discussion above. RB: Economic freedom metrics typically include size of government. As a former Finance undersecretary, I have often wondered whether this is appropriate for a developing country like the Philippines with low tax to GDP ratios and under invests in public goods, especially education and health? In our case we have slipped to the bottom in global rankings on literacy and numeracy, and, not coincidentally, among those who spend least for basic public education. What do you think? RF: Barro and Salai-Martin also used size of government as regressor for growth and found that the sign of association is negative. Their interpretation was that it was a proxy for corruption: the more government the more corruption. This interpretation jibes with the weak institution narrative: weak governance tends to throw money and government administration at perceived problems leading to higher government budgets, waste, and corruption. And the allocation of these state resources is skewed towards the squeakiest wheels, fast burn explosions that threaten Armageddon now. Unfortunately, neglect of education and human capital infrastructure is a slow burn issue and gets the least attention. And when allocation is increased for education, it supports the same tired formula: more classrooms, more teachers, and more textbooks which result in the same more illiteracy. V. Fabella (2017, “Political-Economic Determinants of Education Reform: Evidence and Interest Group and Student Outcome,” European Journal of Political Economy) has shown that in the battle for reforms in education, access reforms (more classrooms and textbooks) normally trump quality reforms (better trained and motivated teachers) due especially to the opposition of the teachers’ union. In our case, a mortal sin: we can never access exam results of national high school exams to compare quality of high school education outcomes. RB. I much enjoyed and learned from your book Capitalism and Inclusion Under Weak Institutions that came out in 2018. It was also the subject of our FEF Paderanga Valera lecture that year. Would you care to talk about it in the remaining time we have? RF: On Capitalism and Inclusion: My thesis in the book is that under weak institutions, a greater role of markets is more inclusive defined as poverty incidence. This flies in the face of Piketty (2011) who showed that capitalism or market economics in affluent well-run economies militates against inclusion defined as income inequality. For low-income countries, poverty incidence is the more compelling metric of success. Poverty incidence in the Philippines is highest in the rural areas where the government has effectively vetoed the role of markets for land and finance. Romeo L. Bernardo was finance undersecretary from 1990-1996. He is a trustee/director of the Foundation for Economic Freedom, the Management Association of the Philippines, and the FINEX Foundation. He is the principal Philippine Adviser of Globalsource Partners (globalsourcepartners.com). He also serves as a board director in leading companies in banking and financial services, telecommunication, energy, food and beverage, education, real estate, and others. romeo.lopez.bernard @gmail.com</t>
+          <t>The Bank of East Asia (BEA) is reportedly planning to sell its general insurance arm Blue Cross (Asia Pacific) Insurance, according to a report from Bloomberg. The report said BEA seeks to continue raising cash through selling non-core assets. The bank is also working with Goldman Sachs Group for the potential transaction which could be worth up to US$400 million. It is expected that the plan will kick off early next year. However, according to a report from Hong Kong Economic Times, BEA does not have the final decision over the transaction and keeping Blue Cross (Asia Pacific) Insurance in its portfolio for the long-term development of the company, could be an option as well. The bank also said it has been assessing its portfolio, including the aspects that match its strategy. In March, BEA Life, formerly a wholly owned subsidiary of BEA providing a comprehensive range of life insurance products to both individual and corporate customers in Hong Kong, and Blue Cross entered into an agreement under which the portfolio will be transferred from Blue Cross to BEA Life. Moreover, in July, BEA commenced the bancassurance partnership, allowing the insurance company to sell its products to the bank's client base, granting AIA exclusive rights to provide life and long-term savings insurance solutions to the bank’s retail customer base in Hong Kong and Mainland China. The transaction saw BEA leverage AIA’s product expertise and resources to build out its regional omni-channel insurance distribution platform, generating sustainable fee income growth. However, BEA also collaborated with Blue Cross (Asia Pacific) Insurance to appoint fencers Edgar Cheung Ka-long and Cheung Siu-lun as brand ambassadors. The group said it has been investing resources into cultivating local athletes and supporting sports development. Since 2015, the company has supported the development of fencing in Hong Kong through Blue Cross, including title sponsorship of the Hong Kong Open Fencing Championships organised by the Hong Kong Fencing Association for six consecutive years, as well as the Asian Fencing Championships in 2017. The BEA Group also supports various youth fencing training programmes that nurture potential fencing talent. Looking ahead, BEA and Blue Cross said they will continue promoting fencing, with an aim to bring a positive vibe to the community through continuous collaborations with the two athletes and a series of brand endorsement activities, adding that they also recognise the importance of youth development, and provide support in many aspects for all-round development of younger members of society, which will improve their personal resilience, build self-confidence and allow them to discover their potential. Related articles Bank of East Asia picks fencers Edgar Cheung and Cheung Siu-lun as brand ambassadors</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The Asia Liberty Forum interview with Professor Raul Fabella (Part 2) (This is the second part of the interview with Prof. Raul Fabella conducted by Romeo Bernardo that was the culminating activity of the “Asia Liberty Forum” in Manila on Sept. 29-30, presented by The Atlas Network (https://www.atlasnetwork.org/) and the Foundation for Economic Freedom or FEF (https://www.fef.org.ph/). For example, the index of the Heritage Foundation lists it as No. If economic space means economic convergence with the high-income economies and lower poverty incidence, East Asia and PRC are evidence of its payoff. There is, however, a strong evidence-based consensus that the race to the top of the per capita income ladder has scarred the environment, sometimes irretrievably; that climate change has a human agency footprint. Is income inequality the culprit: possibly, but more salient in the literature is the loss of accustomed and expected entitlements (falling wages, potential loss of jobs from new entrants, threats to accustomed cultural matrix and social contracts from growing diversity, etc.), is that its membership/fellows is not limited to representatives of businesses and firms but also include academics, independent researchers, and public intellectuals. Note: (i) the relationship between tech revolution/social media and polarization/inclusion is murky and already heavily covered and discussed in many other local and global fora; added insight may be hard to offer; and, (ii) the response to social cost of illiberal politics and economy is imbedded in the discussion above. RB: Economic freedom metrics typically include size of government. Their interpretation was that it was a proxy for corruption: the more government the more corruption. It was also the subject of our FEF Paderanga Valera lecture that year. Would you care to talk about it in the remaining time we have? This flies in the face of Piketty (2011) who showed that capitalism or market economics in affluent well-run economies militates against inclusion defined as income inequality. He is a trustee/director of the Foundation for Economic Freedom, the Management Association of the Philippines, and the FINEX Foundation.</t>
+          <t>The Bank of East Asia (BEA) is reportedly planning to sell its general insurance arm Blue Cross (Asia Pacific) Insurance, according to a report from Bloomberg. The bank also said it has been assessing its portfolio, including the aspects that match its strategy. Moreover, in July, BEA commenced the bancassurance partnership, allowing the insurance company to sell its products to the bank's client base, granting AIA exclusive rights to provide life and long-term savings insurance solutions to the bank’s retail customer base in Hong Kong and Mainland China.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2428,28 +2504,28 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.9999914169311523</v>
+        <v>0.999957799911499</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Deutsche Post AG (OTCMKTS:DPSGY) Given Consensus Rating of "Moderate Buy" by Analysts - MarketBeat</t>
+          <t>Southeast Asia's Growing Interest in Non-dollar Financial Channels—and the Renminbi's Potential Role - Carnegie Endowment for International Peace</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 06:46:12 GMT</t>
+          <t>Mon, 22 Aug 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Deutsche Post AG (OTCMKTS:DPSGY - Get Rating) has received a consensus rating of "Moderate Buy" from the twelve analysts that are presently covering the firm, MarketBeat Ratings reports. Three research analysts have rated the stock with a hold recommendation and seven have assigned a buy recommendation to the company. The average 1 year price target among brokerages that have covered the stock in the last year is $55.96. Several research analysts recently commented on DPSGY shares. The Goldman Sachs Group downgraded shares of Deutsche Post from a "buy" rating to a "neutral" rating in a research note on Tuesday, September 20th. Berenberg Bank cut their target price on shares of Deutsche Post from €64.00 ($65.31) to €61.00 ($62.24) and set a "buy" rating on the stock in a research report on Tuesday, September 13th. Sanford C. Bernstein raised shares of Deutsche Post from a "market perform" rating to an "outperform" rating in a research report on Friday, September 30th. JPMorgan Chase &amp; Co. downgraded shares of Deutsche Post from an "overweight" rating to a "neutral" rating in a research report on Wednesday, November 9th. Finally, AlphaValue downgraded shares of Deutsche Post to a "buy" rating in a research report on Thursday, November 10th. Deutsche Post Trading Up 0.8 % DPSGY stock opened at $39.85 on Friday. The company has a market capitalization of $49.38 billion, a PE ratio of 8.25 and a beta of 1.26. Deutsche Post has a 12 month low of $28.66 and a 12 month high of $65.24. The firm's 50-day moving average is $34.58 and its 200 day moving average is $37.08. The company has a debt-to-equity ratio of 0.77, a current ratio of 1.02 and a quick ratio of 0.99. About Deutsche Post Deutsche Post AG operates as a mail and logistics company in Germany, rest of Europe, the Americas, the Asia Pacific, the Middle East, and Africa. The company operates through five segments: Express; Global Forwarding, Freight; Supply Chain; eCommerce Solutions; and Post &amp; Parcel Germany. The Express segment offers time-definite courier and express services to business and private customers. Read More This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider Deutsche Post, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and Deutsche Post wasn't on the list. While Deutsche Post currently has a "Moderate Buy" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+          <t>In late June, the People’s Bank of China (PBOC)—China’s central bank—announced the launch of a new emergency liquidity arrangement that can be funded using renminbi and tapped by participating central banks during times of market stress. Three of the five participating central banks are Singapore’s, Malaysia’s, and Indonesia’s, which each recently renewed agreements with the PBOC implicitly aimed at reducing dollar usage in cross-border payments. This follows policymakers in Thailand, Laos, Cambodia, and Myanmar all announcing efforts to reduce dollar usage, as well as comments by Indonesia’s central bank head that consumers across five of Southeast Asia’s largest economies will soon be able to make intra-regional cross-border payments via linkages that avoid using the dollar as an intermediary, as is currently often the case. Against this backdrop, some in Beijing are positioning expanding cross-border renminbi financial channels—including the fast-growing Cross-Border Interbank Payment System (CIPS)—as a way for businesses across Southeast Asia to avoid using the dollar. Robert Greene Robert Greene is a nonresident scholar at the Carnegie Endowment for International Peace’s Technology and International Affairs Program and Asia Program, focusing on Chinese financial sector trends and on topics at the nexus of cyberspace governance, global finance, and national security. More &gt; Several factors are behind the various efforts aimed at reducing dollar usage in Southeast Asia. To begin with, many officials are concerned about the potential economic impacts of U.S. monetary policy tightening on the region given its high usage of the dollar; accordingly, some are seeking to reduce usage of the dollar in intra-regional trade payments as a means of curbing dollar reliance more broadly. Recent sanctions may also be spurring demand for alternative financial channels—for example, Myanmar’s military government is actively exploring how to circumvent EU and U.S. sanctions to transact with Russia. And for years, central bankers in the region have had issues with the inefficiencies of existing systems and processes through which most intra-regional trade and financial transactions flow. Beijing sees an opportunity to leverage these dynamics in order to achieve the PBOC’s goal of expanding the renminbi’s use in cross-border trade and investment. So will businesses across the region increasingly abandon the dollar for the renminbi or local currency alternatives? The new emergency renminbi liquidity arrangement and other agreements between the PBOC and Southeast Asian central banks will—in the eyes of some researchers at major Chinese banks and think tanks—lead to greater intra-regional renminbi usage and financial integration, although underdeveloped foreign exchange markets remain an obstacle to these ambitions. Importantly, the future of large-value cross-border payments in Southeast Asia and the renminbi’s role depend in part on how Washington responds to efforts aimed at transforming local currency financial infrastructure in the region. The Dollar’s Dominance in Southeast Asia Data indicate that in recent years over 80 percent of outstanding international debt securities in most major Southeast Asian emerging markets have been dollar-denominated. Also, most cross-border trade payments from, to, and within Southeast Asia are invoiced in dollars. For example, according to an Asian Development Bank report, around 80 to 90 percent of exports from most large emerging market economies in Southeast Asia were invoiced in dollars between 2015 and 2020. The dollar’s dominance in Southeast Asian trade payments reinforces its dominance in financial markets and vice versa. Large-value cross-border dollar payments can flow through the New York–based Clearing House Interbank Payments System (CHIPS), which settled approximately $1.8 trillion in dollar payments daily in 2021, as well as the Clearing House Automated Transfer System (CHATS) in Hong Kong, which settled approximately $50 billion in dollar payments each day. A few Southeast Asian banks are direct dollar clearing participants in CHATS, and only one Southeast Asian bank—a Thai bank—is a participant in CHIPS. Accordingly, Southeast Asia’s intra-regional cross-border dollar payments often must pass through so-called correspondent accounts held by smaller financial institutions at larger banks that are members of CHIPS or CHATS. As explained in a previous Carnegie commentary, this intermediation creates costs. Additionally, although the extent of Washington’s authority over payments made via CHATS is debated, firms that use CHIPS or CHATS to facilitate dollar payments to U.S.-sanctioned entities can be punished and even effectively shut off from dollar access by U.S. authorities; high usage of the dollar inherently strengthens the significance of this capability. The dollar also plays an important role in Southeast Asia’s foreign exchange markets. Markets for regional currency pairs (for example, rupiah-riel) are generally quite underdeveloped, so conversions of one local currency into another often can take place via separate transactions of each currency against the dollar. Regional experts attribute use of the dollar as a vehicle currency in foreign exchange transactions to its liquidity and stability, which in turn drive relatively lower transaction costs of using the dollar as an intermediary. Because no robust foreign exchange market yet exists for many Southeast Asian currency pairs, data indicate that the gap between buying and selling rates—the bid-ask spread, a measure of transaction cost—for local currency pairs in Asia can be more than double the bid-ask spread for a local currency against the dollar. Globally, over 90 percent of over-the-counter foreign exchange transactions include the dollar on one side of the trade; this high turnover reinforces the dollar’s liquidity and status as a vehicle currency. Concerns about the Dollar’s Role in Southeast Asia Officials in Southeast Asia who are seeking to curb regional reliance on dollar financial channels generally are motivated by one or more of three main reasons. First, some Southeast Asian policymakers believe that curbing their country’s high dependence on the dollar will reduce vulnerability to economic shocks—particularly currency depreciation and volatile capital flows—as U.S. monetary policy tightens. Second, Washington’s use of sanctions—which as noted above are powerfully consequential due to dollar dominance—is criticized by some in the region; for example, Cambodian and Laotian leaders have implicitly disagreed with Washington’s use of sanctions against Russian entities in response to the war in Ukraine. Third, and more generally, senior central bank officials in Southeast Asia critique the highly intermediated process by which large-value cross-border payments are facilitated, and are working to create intra-regional solutions. Which of these motivations matters most to national policymakers varies across countries in Southeast Asia. Data suggest, however, that slowly but surely, Southeast Asia is reducing dollar usage. While approximately 80 percent of East and Southeast Asian exports were invoiced in dollars in 2019, this figure was down from closer to 90 percent in much of the early 2000s through mid-2010s. Recent policy initiatives aim to accelerate that decline. Southeast Asia’s Local Currency Settlement Agreements Between 2016 and 2019, the central banks of Thailand, Indonesia, Malaysia, and the Philippines entered into local currency settlement (LCS) agreements that aim to increase local currency use in trade and investment by fostering more liquid and efficient local currency foreign exchange markets. Under the agreements, certain banks are granted licenses to offer direct trading pairs of local currencies, local currency accounts, and hedging instruments that foster increased local currency usage. Last fall, the banks authorized to conduct such activities—called Appointed Cross-Currency Dealers (ACCDs)—grew to include major global financial firms as more details regarding LCS policy initiatives were agreed upon by regional central banks. The central banks that participate in LCS agreements are seeking to “reduce currency risks arising from volatility of major currencies” such as the dollar. Two LCS agreements were also recently implemented by Indonesia with each of the region’s largest economies—Japan and China. The agreement with Japan, Indonesia’s second-largest trading partner by export volume, resulted in LCS transactions growing dramatically between 2020 and late 2021. Indonesia’s 2021 LCS agreement with China, its largest trading partner, has led to the creation of a regional interbank rupiah-renminbi marketplace; several major regional banks, including China’s largest state-owned banks, were appointed as ACCDs. Overall, Indonesia aims to increase local currency usage in trade and settlement by 10 percent this year through its various LCS agreements, which data suggest may be an achievable goal. Indeed, one recent study found that after implementation of the LCS agreement between Thailand and Malaysia began in 2016, the share of Thai exports denominated in baht increased meaningfully (from around 13–15 percent leading up to the start of the agreement’s implementation to around 18 percent in 2019). Also, the share of Malaysia-Indonesia trade facilitated under these countries’ LCS agreement reportedly grew from 1.4 percent in 2018 to 4.1 percent in 2020. However, obstacles to the success of LCS agreements between Southeast Asian countries persist—for most intra-regional currency pairs in Southeast Asia, transaction costs are still high relative to the dollar, and markets for direct currency exchange pairs and related hedging instruments remain underdeveloped. Moreover, as examined in other Carnegie research, businesses in emerging markets can often face limited access to dominant commercial cross-border payments channels. What CIPS and Beijing’s Growing Web of State-Owned Bank Affiliates Means for Southeast Asia These dynamics underscore the importance of PBOC Governor Yi Gang’s pledge at the February 2022 G20 Finance Ministers and Central Bank Governors meeting to support increased local currency usage in Asia. Core to Beijing’s efforts to play an important role in reducing dollar usage in intra-Asian cross-border payments are China’s state-owned banks. In recent years, these banks have launched affiliates across Southeast Asia that offer foreign exchange services and renminbi accounts for local firms as well as renminbi correspondent accounts for local banks. Together, the PBOC and Chinese state-owned banks are encouraging Chinese companies to invoice more trade in renminbi, working to develop foreign exchange markets for renminbi pairs with Southeast Asian currencies, and supporting the utilization of the renminbi in Southeast Asian economies. Some PBOC and state-owned bank officials ultimately envision the renminbi potentially replacing the dollar as Asia’s dominant currency. Critical to such an outcome is CIPS, Beijing’s relatively new large-value renminbi payments system. CIPS was launched in 2015 but through 2017 was reportedly minimally used; across these years it cumulatively processed only about one-quarter of its 2021 renminbi transaction volume of ¥79.6 trillion (approximately $11.7 trillion). Before the growth of CIPS, renminbi cross-border transactions were largely facilitated by the China National Advanced Payment System (CNAPS) through payments made by Chinese banks acting on behalf of overseas banks. This model generally relies on non-Chinese banks sending payment messages via the Society for Worldwide Interbank Financial Telecommunication (SWIFT)—an EU-based messaging system used for most large-value cross-border payments—to Chinese banks with which they have an account. Converting those messages to the format used by CNAPS is reportedly a time-consuming and error-prone process, and because CNAPS was built for domestic use, its operating hours are limited to business hours in China. Although CIPS technically relies upon CNAPS to settle transactions, it addresses these issues by being fully compatible with SWIFT messages and operating twenty-four hours a day, five days a week (fully overlapping with all four of Southeast Asia’s time zones). The system can facilitate cross-border renminbi transactions faster than arrangements reliant on CNAPS and has over seventy “direct participants”—meaning financial institutions that maintain an account with CIPS, including the Chinese affiliates of several major U.S., European, and Japanese banking groups with offices across Southeast Asia. These banking groups can more efficiently facilitate renminbi-denominated trade by using CIPS, but to do so can often involve using SWIFT, as CIPS indirect participants—such as the Southeast Asian affiliates of large non-Chinese banking groups—still generally use SWIFT to send payment instructions to the system’s direct participants. Yet as the EU’s reaction to the war in Ukraine shows, SWIFT can be shut off to banks for strategic reasons. On the other hand, Malaysia, Philippines, Singapore, and Thailand affiliates of Chinese state-owned banks are direct CIPS members, meaning firms banked by these institutions can transact with entities banked by CIPS direct participants without using SWIFT. This functionality, although reportedly currently limited in use, may help explain why Russia’s VTB Bank—recently barred from SWIFT—has said it is applying to be a direct CIPS participant even though it is already a CNAPS participant. CIPS could in theory enable Southeast Asian firms to make renminbi payments with relative ease to entities banked by large Russian financial institutions like VTB Bank that have been cut off from SWIFT. Last month, CIPS’s average daily transaction volume grew to approximately ¥370 billion (around $55 billion)—about the same as the 2021 average daily volume of CHATS dollar payments. To achieve even greater renminbi overseas use, prominent voices at major Chinese state-owned banks are calling for Beijing to implement a number of reforms to foreign exchange markets, including reducing limitations on the renminbi’s convertibility and increasing foreign participation in China’s currency markets. On the other hand, commentary by the chief economist at one large Chinese state-backed financial firm suggests that some in Beijing believe that the renminbi can still evolve into a regional currency without Beijing’s needing to greatly liberalize these restrictions. Instead, regional frustrations with the dollar—this line of thinking goes—could drive Asia to increasingly use controlled but growing offshore renminbi channels accessible via state-owned banks, LCS agreements, and CIPS. What Happens Next? One key question for policymakers concerned about such an outcome is how Southeast Asia’s central bankers could respond to continued local currency depreciation in the region and, relatedly, tightening U.S. monetary policy. Could steps taken by policymakers across the region in response to market volatility put Southeast Asia on a path toward a more multipolar currency paradigm, or instead toward becoming a region anchored around the renminbi, as some Chinese officials envision? To what extent will the dollar remain dominant? In June, one scholar at a Chinese state-backed think tank wrote that increasing geopolitical tensions and market stress will provide the PBOC opportunities to expand bilateral central bank renminbi swap lines across Asia. These arrangements, signed by the PBOC with many of Southeast Asia’s central banks, allow central banks to exchange local currency with the PBOC for renminbi with the aim of promoting renminbi and other local currency usage in cross-border trade and reducing foreign exchange rate volatility. These arrangements can be tapped by central banks to help them respond to currency crises—a situation that some Southeast Asian economies may soon be in. Research suggests that expanded PBOC swap lines with central banks across the region could lead to increases in the share of cross-border trade invoiced in renminbi. Those who do not find a causal effect of swap lines on renminbi usage nevertheless conclude that these arrangements can be leveraged to grow Beijing’s global economic influence. Chinese state-owned bank researchers reportedly believe that the PBOC’s new Renminbi Liquidity Arrangement, which was announced in late June and involves the central banks of Indonesia, Malaysia, and Singapore, is similarly conducive to increasing renminbi usage as well as China’s economic influence in Asia. This new arrangement is more flexible than swap lines, seemingly allowing for a participating central bank to pledge a range of “qualified collateral” from its balance sheet for a sizable renminbi injection. Some researchers in China believe that greater regional renminbi usage will also be fostered by 2021 adjustments to the Chiang Mai Initiative Multilateralization (CMIM)—a multilateral swap arrangement involving Association of Southeast Asian Nations members, South Korea, China, and Japan—allowing for local currency (rather than dollar) emergency liquidity support for participating central banks. Whether the CMIM, the Renminbi Liquidity Arrangement, or the PBOC’s swap lines can be used to advance Beijing’s objectives amid financial market volatility, and the extent to which the renminbi grows in use across Southeast Asia, are not yet certain. What happens in the years ahead depends on what actions policymakers of other Asian nations take to improve the attractiveness of local currency usage, and also in part on how Washington reacts to their concerns regarding high reliance on the dollar, lack of access in emerging markets to dominant financial channels, and U.S. monetary policy tightening. U.S. policymakers should expeditiously work with regional allies to shape policy aimed at addressing these concerns and the growth of LCS initiatives in ways that are tailored to both U.S. interests and particular country-specific concerns. Washington’s engagement with Thailand and Japan on these issues is especially critical, given the relatively higher share of regional cross-border commerce conducted with these countries’ currencies as well as their participation in efforts to bolster local currency settlement in ways that do not necessarily align with the renminbi evolving into a dominant regional currency. Washington should also take note that Vietnam and the Philippines are the two major Southeast Asian economies without live bilateral central bank renminbi swap lines; and given Vietnam’s relatively close commercial and security ties with Russia, the Vietnamese government may increasingly explore non-dollar payment channels. Additionally, it is critical for U.S. policymakers to focus on the impacts to U.S. interests of new technologies and policy approaches evolving in response to the operational limitations of incumbent financial channels in Southeast Asia. In particular, as central banks in Southeast Asia’s five biggest economies (Indonesia, Singapore, Thailand, the Philippines, and Vietnam) research or experiment with central bank digital currency (CBDC), Washington and local U.S. allies must consider how to respond to likely efforts by Beijing to increasingly influence regional CBDC standards—notably, the PBOC is formally leading efforts to build architecture for CBDC interoperability as part of a multi-CBDC project that counts Thailand’s central bank as a member. Monitoring how the growing formalization of cryptocurrency usage in Southeast Asia (such as in Myanmar, where it is supported by the National Unity Government, and Cambodia) could impact the evolution of regional financial market infrastructure is also important. Finally, U.S. policymakers should continue to examine how to foster innovation that enhances the international attractiveness of large-value cross-border dollar payments channels.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Deutsche Post AG (OTCMKTS:DPSGY - Get Rating) has received a consensus rating of "Moderate Buy" from the twelve analysts that are presently covering the firm, MarketBeat Ratings reports. JPMorgan Chase &amp; Co. downgraded shares of Deutsche Post from an "overweight" rating to a "neutral" rating in a research report on Wednesday, November 9th. The company has a market capitalization of $49.38 billion, a PE ratio of 8.25 and a beta of 1.26. The company operates through five segments: Express; Global Forwarding, Freight; Supply Chain; eCommerce Solutions; and Post &amp; Parcel Germany. Read More This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting.</t>
+          <t>In late June, the People’s Bank of China (PBOC)—China’s central bank—announced the launch of a new emergency liquidity arrangement that can be funded using renminbi and tapped by participating central banks during times of market stress. To begin with, many officials are concerned about the potential economic impacts of U.S. monetary policy tightening on the region given its high usage of the dollar; accordingly, some are seeking to reduce usage of the dollar in intra-regional trade payments as a means of curbing dollar reliance more broadly. So will businesses across the region increasingly abandon the dollar for the renminbi or local currency alternatives? The Dollar’s Dominance in Southeast Asia Data indicate that in recent years over 80 percent of outstanding international debt securities in most major Southeast Asian emerging markets have been dollar-denominated. Also, most cross-border trade payments from, to, and within Southeast Asia are invoiced in dollars. As explained in a previous Carnegie commentary, this intermediation creates costs. The dollar also plays an important role in Southeast Asia’s foreign exchange markets. Which of these motivations matters most to national policymakers varies across countries in Southeast Asia. Data suggest, however, that slowly but surely, Southeast Asia is reducing dollar usage. Indeed, one recent study found that after implementation of the LCS agreement between Thailand and Malaysia began in 2016, the share of Thai exports denominated in baht increased meaningfully (from around 13–15 percent leading up to the start of the agreement’s implementation to around 18 percent in 2019). What CIPS and Beijing’s Growing Web of State-Owned Bank Affiliates Means for Southeast Asia These dynamics underscore the importance of PBOC Governor Yi Gang’s pledge at the February 2022 G20 Finance Ministers and Central Bank Governors meeting to support increased local currency usage in Asia. Core to Beijing’s efforts to play an important role in reducing dollar usage in intra-Asian cross-border payments are China’s state-owned banks. In recent years, these banks have launched affiliates across Southeast Asia that offer foreign exchange services and renminbi accounts for local firms as well as renminbi correspondent accounts for local banks. Together, the PBOC and Chinese state-owned banks are encouraging Chinese companies to invoice more trade in renminbi, working to develop foreign exchange markets for renminbi pairs with Southeast Asian currencies, and supporting the utilization of the renminbi in Southeast Asian economies. CIPS was launched in 2015 but through 2017 was reportedly minimally used; across these years it cumulatively processed only about one-quarter of its 2021 renminbi transaction volume of ¥79.6 trillion (approximately $11.7 trillion). One key question for policymakers concerned about such an outcome is how Southeast Asia’s central bankers could respond to continued local currency depreciation in the region and, relatedly, tightening U.S. monetary policy. Chinese state-owned bank researchers reportedly believe that the PBOC’s new Renminbi Liquidity Arrangement, which was announced in late June and involves the central banks of Indonesia, Malaysia, and Singapore, is similarly conducive to increasing renminbi usage as well as China’s economic influence in Asia. Some researchers in China believe that greater regional renminbi usage will also be fostered by 2021 adjustments to the Chiang Mai Initiative Multilateralization (CMIM)—a multilateral swap arrangement involving Association of Southeast Asian Nations members, South Korea, China, and Japan—allowing for local currency (rather than dollar) emergency liquidity support for participating central banks.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2458,88 +2534,88 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9991705417633057</v>
+        <v>0.986672043800354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Yields hit by rate hikes - The Manila Times</t>
+          <t>China’s Manifestation of Geoeconomics &amp; BRI - Modern Diplomacy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 14:51:59 GMT</t>
+          <t>Wed, 30 Nov 2022 08:09:32 GMT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EAST Asian economies, the Philippines included, saw bond yields rise and financial conditions worsen further as major advanced economies tightened monetary policy, the Asian Development Bank (ADB) said last week. "Among regional bond markets, Vietnam and the Philippines recorded the sharpest rise overall in government bond yields," the Manila-based multilateral said in its latest Asia Bond Monitor report released on Friday. Rising inflation forced the US Federal Reserve and the European Central Bank to embark on a rate hike spree this year, which prompted almost all of East Asia's central banks to also tighten policy in response. These, "in combination with a bleak economic outlook, weighed on domestic financial conditions in the region," the ADB noted. Over August 31 to November 4, "emerging East Asia's major currencies depreciated against the United States dollar by a gross domestic product (GDP)-weighted average of 4.2 percent, equity markets retreated by a market-weighted average of 7.5 percent, and risk premiums widened by a GDP-weighted average of 28 basis points (bps)," it added. Get the latest news delivered to your inbox Sign up for The Manila Times’ daily newsletters By signing up with an email address, I acknowledge that I have read and agree to the Terms of Service and Privacy Policy Two- and 10-year bond yields in the Philippines, in particular, rose by 132 and 136 bps during the review period in the wake of the Bangko Sentral ng Pilipinas' (BSP) cumulative 225-bps policy rate hike from May to September. Inflation hit a nearly 14-year high of 7.7 percent in October, also the second highest in East Asia, which prompted the BSP to further raise rates by 75 bps. The peso, which hit a record P59:$1 in October, also fell by 4.1 percent during the review period, while the stock market dropped by a larger 6.0 percent. "Equities in the Philippines declined over aggressive rate hikes by its central bank in response to rising inflation and a weakening currency," the ADB said. Between August 31 and October 14, meanwhile, yields on local currency (LCY) government bonds rose across all tenors by an average of 86 bps, the multilateral noted in its Philippine market summary. "Yields on the shorter end of the curve (from one-month to six-month tenors) inched up an average of 94 bps, with the largest increase seen in the three-month tenor at 112 bps," the ADB said. "Yields for the two-year through 10-year tenors climbed an average of 101 bps, while yields at the longer-end of the curve (from 20-year to 25-year tenors) increased an average of 74 bps," it added. "The smallest increase in yields was seen for the one-year tenor at only one bp. The spread between the 10-year and two-year maturities widened from 145 bps on 31 August to 154 bps on 14 October." As of the third quarter, the size of the Philippines' LCY bond market was P11.06 trillion, mostly composed of government offerings (P9.64 trillion) with the corporate sector accounting for the rest (P1.44 trillion). Year on year, government borrowings increased by 15.8 percent while corporate issuances fell by 0.9 percent. The regional financial conditions outlook, the ADB said, remains tilted to the downside. Investment sentiment, it added, will continue to be eroded by subdued growth outlooks in major advanced economies and in China, Covid-19 uncertainties, continued tightening and the possibility of the Russia-Ukraine war having a larger impact. "Nevertheless, the financial sector in emerging East Asia remained resilient to persistent headwinds not only because of sound economic fundamentals such as sufficient reserves and healthy fiscal and trade balances, but also because of improved institutional quality and more developed domestic capital markets, especially local currency bond markets." "Over the medium term, as many major regional economies commit to transition to net zero emissions, the region's financial sector faces asset vulnerability issues, especially in high-emitting sectors, as well as large financing gaps for investments in low-emission projects and the transitioning of high-emitting sectors," the ADB continued. "Providing enough financing while ensuring a resilient and timely transition calls for further development of the sustainable finance market and innovative financing solutions," it added. The ADB expects the Philippines to grow by 6.5 percent this year, up from 6.0 initially. The forecast for next year was unchanged at 6.3 percent. It said inflation would likely average 5.3 percent in 2022 and 4.3 percent next year, higher than the 4.2 percent and 3.5 percent, respectively, that the multilateral previously forecast.</t>
+          <t>Authors: Dr. Abhishek Srivastava and Ms. Shreyasi* Cinemas are an effective tool to project soft power and influence communities at large. A number of Hollywood production-finance firms in the last decade have seen a major rise in Chinese investments. Some of the biggest Hollywood box office hits are backed by Yuan. To maximize profit off of the Chinese domestic movie consumption market, these movies either have elements of Chinese culture or they self-censor to appease the Chinese censorship authorities. A dominant explanation to this phenomenon is that China pursues a significant influence in the American culture by infiltrating Hollywood. Hollywood itself has, through its movies, exported American values since its inception. Any impact on this industry will consequently reflect on its movie consumers eventually. China wears the global box office crown worth $7.3 billion and reigns as the biggest movie consumer market in the world. It bounced back from the pandemic slump of 2020 and turned twice the amount of revenue only 26% less than pre-pandemic numbers. During the pandemic movie theatres all over the world were shut down, literally zeroing down the movie theatre business. China due to its regime style, somehow managed to open up theatres to some extent and garner revenues. China opened its domestic movie market for outside films only in the 1990’s. The ever-growing domestic movie market China has made it a golden spot for foreign language films to get screen time and thereby huge returns. More and more Hollywood movies and especially blockbuster category movies are lining up to get a spot since Chinese authorities allow only 34 films per year quota to foreign language movies. This strategy along with the promise of money has resulted in Hollywood movies altering their plot, stories, scenes etc., to suite the regulations of the Chinese censorship authority. The censorship authority’s aim is to induct Chinese values and promote their ideas through the Hollywood movies. Last 10 years has culminated into an intersection of free market and Chinese censorship. This is an unprecedented path whose outcome is very unpredictable. Another strategy is the use of China’s economic power to get into the American movie business and then trying to induct a cultural change. Los Angeles has a big presence of Chinese firms and conglomerates who have major or minor shares in big production houses or have co- financed individual movie projects. It is not only limited to production companies but theatre chains, distributing retails and public relations management companies are also being brought by Chinese firms. Chinese Soft power and public diplomacy through movies Joseph Nye coined the term soft power and further broadened the area of study to public diplomacy. Much of what he has written on soft power, tools used by the United States to exercise soft power is relevant even today. According to Nye, Hollywood in itself is the biggest soft power influencer of the United States. The power Hollywood movies have had on different countries through generations is incomparable. According to Stanley Rosen, a professor of political science in University of South California and a specialist on politics in the People’s Republic of China, even after spending $10 billion year in exercising soft power, China has not been able to compete with the U.S. Chinese soft power is much more involved in dealing with the domestic crowd. Much of the soft power is controlled by the state. This does not allow a natural spurt in soft power. Successful American soft power on the other hand has largely grown away from the clutches of the government. And this is what Chinese authorities are trying to bank on. China in Hollywood As explained before, the Chinese production house and firms exert control by buying up screen spaces. But movies themselves self-censor to appease the censorship board of China. The aim is to make it to the list of 34 movies which is allowed screen time in the domestic movie landscape. Chinese real-estate and entertainment conglomerate Dalian Wanda Group Co. has signed a deal for a majority stake in Legendary Entertainment that would value the U.S. film and television company at nearly $4 billion. Chinese internet giant Tencent Holdings bought 10% of Skydance Media, the Hollywood company behind movie Terminator. The valuation of the deal of the production company is at approximately $1.5 billion. As part of the arrangement, Tencent and Skydance will co-finance movies, TV shows and video game projects too. Apart from the Chinese values, an instance which shows the Chinese government’s good governance, foresight, China’s technology boom, good standard of living are expected to be shown in the movie by the producers themselves. The production houses of these movies often have Chinese co-financiers who work to make the Chinese authority happy. Any image which shows the country in a bad light is frowned upon. In the disaster movie, 2012, humanity is saved because the Chinese government had the foresight to build the life-saving arcs. In Gravity, Sandra Bullock survives by getting herself to the Chinese Space Station which was shown to be the most advanced one. The 2006 released book titled World War Z, a zombie apocalyptic horror novel written by American author Max Brooks was adapted in a 2013 movie of the same name by the Paramount pictures production. The original plot of the book is about a global pandemic in which people infected with the virus turns into a zombie. The virus origins or the patient zero as mentioned in the book is found in China but the movie adaptation refers to the source of the virus to be in Taiwan. This allowed the release of the movie in Chinese theatres. In 2014, hacked Sony e-mails revealed that the original script of the movie PIXELS, which was released in 2015, called for blowing up of the Great Wall of China but finally in the movie, Taj Mahal of Agra is seen being blown up. This change was done with the hope that the movie could gain access to the Chinese theatre market. Blowing up of a national heritage site was not something the audience or the national film agencies of China would have appreciated. This incident is a classic example of American movie self- censoring themselves to gain access to a huge market, thereby ensuring a decent profit margin. Understanding how important movies are in constructing imagery, the Chinese authorities make sure the country is represented in the fairest and best way possible. This includes hand picking visuals of the country in movies, curating dialogues, altering plots, storylines and characters, changing the way the people are represented in the movies. The censorship is so strong and rigid that certain words and cases are not allowed in the movies. Issues of homosexuality, democratic values and free spirit, rejection of authority, liberty and equal rights are certain areas which are a significant part of the Western cultural discourse. Nuances regarding these issues are often put up in public discourse through movies. But when such movies are presented to the Chinese censorship for approval, scenes representing these issues are straight away omitted. This is an attempt by the authority to isolate the local population from western cultural values. A prime example is the 2018 hit, Oscar awarded movie The Bohemian Rhapsody. The movie represented the life and times of Freddie Mercury, lead singer of the British music band The Queen and a well-known member of the LGBT community who died of AIDS. The movie’s cut which was shown in Chinese theatres lacked certain sections of the cinema which talked about the lead singer’s life as a homo sexual. This takes us again to Stanley Rosen’s argument that a bigger chunk of Chinese soft power strategy is within its border for its own public. The country keeps her media in check by regulating movies, especially foreign ones. The 1997 movie, Seven years in Tibet starring Brad Pitt, depicts China’s controversial takeover of Tibet and the harsh Chinese rule in the country. Director Jean-Jacques Annaud and stars Brad Pitt and David Thewlis were allegedly banned from even entering China. In the May month of 2021, actor John Cena apologised publicly on Chinese social media platform for referring Taiwan as a country. The production house of the movie, Universal pictures has a long-term co-financing deal with a Chinese entertainment company called the Perfect World Pictures. The movie is backed by Chinese money which made it mandatory for the actor to publicly apologise. The sensitivity regarding Taiwan is so much that even public acknowledgement of the island nation as a country sparks outrage and objection by China. Tibet, Taiwan, Tiannamen square, Uighur province etc. are certain sensitive issues for the Chinese. The authority does not want any incident, in real life or in movies, to happen that could legitimise their existence, both amongst the domestic and the international audience. China’s sensitivity to Tibet could be seen in the 2016 hit movie Doctor Strange, part of the popular Marvel Cinematic Universe of the Marvel production house. The ethnicity of a major character was changed completely. In the original comic books, the Ancient one is a Tibetan character, and the studio that was making Doctor Strange changed it to a Celtic character. The movie went on to earn around $109 million in the country. Eliminating a Tibetan character is an attempt to remove the issue of Tibet from the minds of any average movie watcher. One of the top three highest grossing films in the box office of 2022 is the movie Top Gun: Maverick, a sequel to the 1986 movie Top Gun. In the original 1986 movie, the central character of Tom Cruise’s wears a jacket which went on to become a national rage in Northern America and consequently in more English language movie watching countries. The jacket on its back had a flag patch of US, Japan and Taiwan. In the trailer for the sequel released around two years back, Taiwan’s flag, which the island country has used since 1949, was seen being replaced with an ambiguous patch. This self-censoring by the movie makers was somewhat expected by audience since the movie’s co –producer, Paramount Pictures signed on Tencent, a Chinese tech firm to co-finance the movie. The Shenzhen-based conglomerate hoped to act as an “investor and co-marketer” of the film. But things turned out to be a different when the movie was released. How receptive is the American movie industry and consumer? The reaction of the American audience to the trailer, specifically to the changes made in the original jacket in the movie was extremely fierce. The aware audience has somehow grown a resentment towards artistic changes and additions made to American movies, done solely to appease the Chinese authorities. The makers of the movie sensed it and reverted to the original jacket which had the flag patch of Taiwan. The case of Chinese authorities curating American movies is seen by Hollywood stakeholders as an attempt at altering culture and value system of the nation as well as the larger audience who are American movie watchers. Another matter of concern is the literal buying up of domestic movie production and distribution houses of America by big Chinese firms and conglomerates. A law has been introduced to the US Congress, that would regulate funding of these big American production house by foreign companies. In April 2020, Republican Ted Cruz introduced a bill titled “The Stopping Censorship, Restoring Integrity, Protecting Talkies Act” that the Texas Senator described as “cutting off Hollywood studios from assistance they receive from the Department of Defence if those studios censor their films for screening in China.” The legislation, called the SCRIPT Act, was introduced in May and referred to the Committee on Homeland Security and Governmental Affairs. 2020 was also the time when tensions between the U. S. and China were at its peak and a probable trade war between the two countries was looming large. Conclusion Soft power is a long-term strategy which reaps benefit only in future. It’s arduous, laborious and results might not be visible instantly, unlike hard power which yields outcomes almost as soon as it is used. But when it does, it is the most profitable and significant investment a country could make in terms of both time and money. China realised this way back in the 1970s, when it mended relations with the U.S. The country has come a long way since the days when Bruce Lee’s movies were dubbed and rationalized to suit American and world audience. It is amazing to see how the world’s most powerful movie industry plays tune to China’s censorship authority’s pipe. However, Beijing’s strategy of using money to implement soft power tactics has been unveiled. For a very long time this phenomenon was under wraps. Chinese firms pumping money in Hollywood production houses rose only post-2010 but it was done aggressively around 2015. When it comes to allowing foreign language movies to open in China, a limit of 34 movies have been posed. But these movies happen to be the biggest blockbusters of Hollywood, watched by a huge audience across globe. The impression these movies make is simply unimaginable. By censoring and planting favourable plot lines in movies, Chinese authorities intend to artificially manufacture of opinions. Off course, these opinions work in favour of the Chinese regime. This allows them to present to the world a narrative on issues close to Beijing’s heart. *Ms. Shreyasi Post graduate Student, School of International Studies, Jawaharlal Nehru University, New Delhi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EAST Asian economies, the Philippines included, saw bond yields rise and financial conditions worsen further as major advanced economies tightened monetary policy, the Asian Development Bank (ADB) said last week. " Yields on the shorter end of the curve (from one-month to six-month tenors) inched up an average of 94 bps, with the largest increase seen in the three-month tenor at 112 bps," the ADB said. " As of the third quarter, the size of the Philippines' LCY bond market was P11.06 trillion, mostly composed of government offerings (P9.64 trillion) with the corporate sector accounting for the rest (P1.44 trillion). Investment sentiment, it added, will continue to be eroded by subdued growth outlooks in major advanced economies and in China, Covid-19 uncertainties, continued tightening and the possibility of the Russia-Ukraine war having a larger impact. " It said inflation would likely average 5.3 percent in 2022 and 4.3 percent next year, higher than the 4.2 percent and 3.5 percent, respectively, that the multilateral previously forecast.</t>
+          <t>Authors: Dr. Abhishek Srivastava and Ms. Shreyasi* Cinemas are an effective tool to project soft power and influence communities at large. Some of the biggest Hollywood box office hits are backed by Yuan. To maximize profit off of the Chinese domestic movie consumption market, these movies either have elements of Chinese culture or they self-censor to appease the Chinese censorship authorities. More and more Hollywood movies and especially blockbuster category movies are lining up to get a spot since Chinese authorities allow only 34 films per year quota to foreign language movies. According to Stanley Rosen, a professor of political science in University of South California and a specialist on politics in the People’s Republic of China, even after spending $10 billion year in exercising soft power, China has not been able to compete with the U.S. Chinese soft power is much more involved in dealing with the domestic crowd. The valuation of the deal of the production company is at approximately $1.5 billion. Apart from the Chinese values, an instance which shows the Chinese government’s good governance, foresight, China’s technology boom, good standard of living are expected to be shown in the movie by the producers themselves. The 2006 released book titled World War Z, a zombie apocalyptic horror novel written by American author Max Brooks was adapted in a 2013 movie of the same name by the Paramount pictures production. In 2014, hacked Sony e-mails revealed that the original script of the movie PIXELS, which was released in 2015, called for blowing up of the Great Wall of China but finally in the movie, Taj Mahal of Agra is seen being blown up. This change was done with the hope that the movie could gain access to the Chinese theatre market. Blowing up of a national heritage site was not something the audience or the national film agencies of China would have appreciated. This incident is a classic example of American movie self- censoring themselves to gain access to a huge market, thereby ensuring a decent profit margin. A prime example is the 2018 hit, Oscar awarded movie The Bohemian Rhapsody. In the original comic books, the Ancient one is a Tibetan character, and the studio that was making Doctor Strange changed it to a Celtic character. In the original 1986 movie, the central character of Tom Cruise’s wears a jacket which went on to become a national rage in Northern America and consequently in more English language movie watching countries. This self-censoring by the movie makers was somewhat expected by audience since the movie’s co –producer, Paramount Pictures signed on Tencent, a Chinese tech firm to co-finance the movie. The aware audience has somehow grown a resentment towards artistic changes and additions made to American movies, done solely to appease the Chinese authorities. The makers of the movie sensed it and reverted to the original jacket which had the flag patch of Taiwan. By censoring and planting favourable plot lines in movies, Chinese authorities intend to artificially manufacture of opinions. Ms. Shreyasi Post graduate Student, School of International Studies, Jawaharlal Nehru University, New Delhi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9756258726119995</v>
+        <v>0.5020056366920471</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Middle East Asia-Pacific to account for 58% of global air passengers by 2040: ACI - Arab News</t>
+          <t>Growing debt is 'biggest risk' for East Asia: World Bank VP - Nikkei Asia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 13:03:59 GMT</t>
+          <t>Fri, 19 Aug 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RIYADH: Air passenger demand is likely to double globally over the next 20 years, with Asia-Pacific and the Middle East accounting for 58 percent of the volume, according to a report by Airports Council International. Global passenger numbers are forecast to rise from 9.2 billion in 2019 to about 19 billion in 2040 predicted the ACI Asia-Pacific's Airport Industry Outlook, a quarterly assessment of the airports' performances. Of this volume, Middle Eastern airports are expected to handle 1.1 billion passengers by 2040 – a significant increase of nearly 300 percent of the combined traffic of 505 million they handled in 2019. ACI Director General of ACI Asia-Pacific Stefano Baronci said that the region must prepare itself for the oncoming influx: "The consistent improvement in passenger volumes in the region is a positive indication of a sustained recovery of the industry following prolonged efforts towards rebuilding passenger confidence in air travel." He said restoring international connectivity will take longer and will be partly dependent on the decision of China to re-connect to the World. "The macroeconomic headwinds, less acute in Asia than other western regions, should not hamper a process of growth, subject to continue to maintain the freedom to travel without restrictions." "All the stakeholders engaged in the aviation ecosystem must prepare to the surge in traffic,” insisted the ACI director general. The Middle East is an ideally located axis for travel — aircraft flying from the geographical crossroads can reach almost all of Asia, Africa, and Europe within eight hours. Tourism is one of the pillars of the Kingdom’s Vision 2030, to contribute to diversifying the base of the national economy, attracting investments, increasing sources of income, and providing job opportunities for citizens, as the sector is witnessing rapid growth as a result of plans to promote the tourism sector. Last month, a report by the World Tourism Organization listed Saudi Arabia as top of the Group of 20 countries for the flow rating of international tourists in the first seven months of 2022. The report, released during the G20 tourism ministers’ meeting held in Bali, Indonesia, did not detail the exact number of travelers who visited the Kingdom, but claimed the sector saw a growth rate of 121 percent in the first half of 2022. During the event, Saudi Arabia’s Tourism Minister Ahmed Al-Khateeb said the surge in tourist inflow aligns with the Kingdom’s economic diversification policies and aims to increase tourism’s contribution to the country’s gross domestic product, as outlined in Vision 2030, the Saudi Press Agency reported. Calling Saudi Arabia one of the fastest-growing markets for tourism, Al-Khateeb said the Kingdom’s tourism sector is accelerating at a rate of 14 percent compared to the pre-coronavirus pandemic period. Prior to the COVID-19 pandemic, 450,000 tourist visas were issued, since the Kingdom’s Tourism Authority launched the tourist visa program in 2019, by targeting 49 countries in the initial stage, and facilitated access to tourist visas electronically or through entry points to the Kingdom within specific regulatory controls. Earlier in June, Al-Khateeb said that Saudi Arabia has allocated $100 million to provide training for 100,000 people to work in the tourism and sustainability sector. He added that 90 hotels were launched in the Kingdom as a part of its tourism strategy, and more hotels will be opened soon, with 70 percent being funded by the private sector. Al-Khateeb, in June, told AFP that the Kingdom is hoping to attract 12 million foreign visitors in 2022, up from the 4 million tourists who visited Saudi Arabia in 2021. “Saudi Arabia will change the tourism landscape globally. The destinations that Saudi will offer by 2030, it’s something completely different,” he said.</t>
+          <t>TOKYO -- After years of economic expansion driven by its growing population, Asia has reached a crossroads due to the coronavirus pandemic, historic inflation and rapid interest rate hikes in the U.S. "The biggest risk I see is that debt stocks increased significantly over the past few years," Manuela Ferro, the World Bank's vice president for East Asia and the Pacific, told Nikkei.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RIYADH: Air passenger demand is likely to double globally over the next 20 years, with Asia-Pacific and the Middle East accounting for 58 percent of the volume, according to a report by Airports Council International. Prior to the COVID-19 pandemic, 450,000 tourist visas were issued, since the Kingdom’s Tourism Authority launched the tourist visa program in 2019, by targeting 49 countries in the initial stage, and facilitated access to tourist visas electronically or through entry points to the Kingdom within specific regulatory controls. Al-Khateeb, in June, told AFP that the Kingdom is hoping to attract 12 million foreign visitors in 2022, up from the 4 million tourists who visited Saudi Arabia in 2021. “ The destinations that Saudi will offer by 2030, it’s something completely different,” he said.</t>
+          <t>TOKYO -- After years of economic expansion driven by its growing population, Asia has reached a crossroads due to the coronavirus pandemic, historic inflation and rapid interest rate hikes in the U.S. "The biggest risk I see is that debt stocks increased significantly over the past few years," Manuela Ferro, the World Bank's vice president for East Asia and the Pacific, told Nikkei.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.8941810131072998</v>
+        <v>0.9999222755432129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Islami Bank Asian Banker’s ‘Strongest Bank’ - The Daily Star</t>
+          <t>Chinese papers go black in mourning for late leader Jiang Zemin - The Straits Times</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 05:50:00 GMT</t>
+          <t>Thu, 01 Dec 2022 03:13:57 GMT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Islami Bank Bangladesh has been the "Strongest Bank in Bangladesh" and the "Strongest Islamic bank in Bangladesh" in 2022 according to Singapore-based banking and financial intelligence platform The Asian Banker. Foo Boon Ping, the platform's managing editor, announced this on Thursday through a virtual platform which was joined by Mohammed Monirul Moula, managing director of Islami Bank Bangladesh, said a press release. The platform recognised 22 banks analysing data from 500 lenders from Asia, Middle East and Africa, including Australia and New Zealand, and based on six indicators -- ability to scale, balance sheet growth, risk profile, profitability, asset quality and liquidity. The platform has been recognising banks since 2007.</t>
+          <t>At one of the largest foreign banks in China, employees have been asked to wear black in meetings with regulators, senior staff have been asked not to be photographed at parties and the bank has put marketing activities on hold for 10 days, a senior executive at the lender told Reuters, speaking on condition of anonymity as they were not authorised to speak to the media. Mr Jiang’s death comes at a tumultuous time in China, where authorities are grappling with rare widespread street protests among residents fed up with heavy-handed Covid-19 curbs nearly three years into the pandemic. China is also locked in an increasingly bad-tempered stand-off with the United States and its allies over everything from Chinese threats to democratically-governed Taiwan to trade and human rights issues. While Mr Jiang could have a fierce temper, his jocular side where he would sometimes sing for foreign dignitaries and joke around with them stand in marked contrast to his stiffer successor Hu Jintao and current President Xi Jinping. Some Chinese social media users have posted pictures and videos of Mr Jiang speaking or laughing and articles about his 1997 speech at Harvard University in English, reminiscing about an era when China and the West were on better terms. Foreign governments including the US and Japan have expressed their condolences. US National Security Council spokesperson Adrienne Watson said that during his two visits to the United States as president as well as multiple other meetings with US officials, Mr Jiang worked to advance ties “while managing our differences – an imperative that continues today”. Even Taiwan, which Mr Jiang menaced with war games in the run up to the island’s first direct presidential election in 1996, said it had sent its “best wishes” to Mr Jiang’s family, though it added he did “threaten the development of Taiwan’s democratic system and foreign exchanges with force”. REUTERS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Islami Bank Bangladesh has been the "Strongest Bank in Bangladesh" and the "Strongest Islamic bank in Bangladesh" in 2022 according to Singapore-based banking and financial intelligence platform The Asian Banker. Foo Boon Ping, the platform's managing editor, announced this on Thursday through a virtual platform which was joined by Mohammed Monirul Moula, managing director of Islami Bank Bangladesh, said a press release.</t>
+          <t>At one of the largest foreign banks in China, employees have been asked to wear black in meetings with regulators, senior staff have been asked not to be photographed at parties and the bank has put marketing activities on hold for 10 days, a senior executive at the lender told Reuters, speaking on condition of anonymity as they were not authorised to speak to the media. US National Security Council spokesperson Adrienne Watson said that during his two visits to the United States as president as well as multiple other meetings with US officials, Mr Jiang worked to advance ties “while managing our differences – an imperative that continues today”.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2548,140 +2624,148 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.9979110360145569</v>
+        <v>0.9996392726898193</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gangs of cybercriminals are expanding across Africa, investigators say - The Guardian</t>
+          <t>DBS partners J.P. Morgan Asset Management to develop industry-first personalised retirement proposition to help Singaporeans better prepare for retirement -Asian Wealth Management and Asian Private Banking - Hubbis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 15:40:00 GMT</t>
+          <t>Wed, 30 Nov 2022 16:02:36 GMT</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Police and investigators fear organised gangs of fraudsters are expanding across sub-Saharan Africa, exploiting new opportunities as a result of the Covid-19 pandemic and the global economic crisis to make huge sums with little risk of being caught. The growth will have a direct impact on the rest of the world, where many victims of “hugely lucrative” fraud live, senior police officials have said. Experts attribute the surge in cybercrime in Africa to rapid growth of internet use at a time when police forces and criminal justice systems have been weakened by the economic consequences of a series of major challenges. “The Covid-19 pandemic has accelerated digitalisation around the world, but as life has shifted increasingly online, cybercriminals have exploited the opportunity to attack vital digital infrastructure,” said Prof Landry Signé, a senior fellow at the Brookings Institution and author of a recent report on the problem. “States across Africa have emerged as a favourite target of cybercriminals, with costly consequences.” Interpol have described online scams such as banking and credit card fraud as the most prevalent and pressing cyberthreat in Africa. The Covid-19 pandemic led to a sustained increase in the volume of cyber-attacks, including more than twice as many targeting online banking platforms, analysts at the organisation have said. A major operation earlier this month coordinated by Interpol in 14 countries underlined the scale of the threat from cybercrime on the continent and beyond. Police arrested more than 70 alleged fraudsters linked to a Nigerian criminal network known as Black Axe in South Africa, Nigeria and Ivory Coast – as well as in Europe, the Middle East, south-east Asia and the US. Almost 50 properties were searched and about $1m intercepted in bank accounts. A residential property, three cars, tens of thousands in cash and 12,000 sim cards were seized. “It is way wider and broader than these 14 countries. We are dealing with a highly organised international network. These guys are not opportunists … We’re mapping them out around the world,” said Rory Corcoran, the acting head of Interpol’s new Financial Crime and Anti-Corruption Centre. The recent raids across Africa targeted alleged members of Nigeria’s infamous Black Axe gang, which began as a student movement in Benin City in the 1970s but has since evolved into a global criminal network that specialises in fraud. A regional hub in South Africa was reportedly officially recognised by the Black Axe leadership in 2013, according to US legal documents viewed by the Guardian. The trail leading to the arrests last month began in Ireland, when local police officers recovered phones and other devices belonging to fraudsters linked to Black Axe. Investigators recognised vocabulary typical of the group and were able to trace links back to west Africa. A former South African criminal intelligence official said the impact of operations such as the arrests earlier this month should not be exaggerated, however. “There may be a decrease in activity for a time, but does the organisation stop? Not really. They run these things really effectively and there are work arounds. You get a lot of publicity for law enforcement but really it’s little more than a speed bump for the criminals,” the official said. Corcoran said arrests had a significant disruptive effect. Recently introduced improvements to coordination and communication between the banking sector and local police forces also allowed much more rapid tracking, seizure and restitution of stolen funds. More than $120m has been seized this year, denying fraudsters such as Black Axe capital that could be reinvested in other forms of crime, such as forcing young west African women into sex work in Europe, purchasing weapons or the growing international traffic in methamphetamines. The return of air travel after the pandemic has allowed fraudsters to move again between key hubs of activities, former investigators say. The United Arab Emirates, with its many air links and luxury lifestyle opportunities, has long been a favoured destination for west African fraudsters, for example. Dubai was a favourite base for Ramon Abbas, a flamboyant Nigerian who flaunted a lavish lifestyle fuelled by his efforts to launder millions of stolen dollars. Abbas, under the name Ray Hushpuppi, had more than 2 million Instagram followers before he was arrested in 2020 in Dubai, the United Arab Emirates. His social media posts showed him living a life of luxury, complete with private jets, ultra-expensive cars, high-end clothes and $200,000 watches. Ramon Abbas, aka Ray Hushpuppi, used to flaunt his lavish lifestyle on Instagram before his arrest. Photograph: Ray Huspuppi /Facebook Earlier this month Abbas, 40, was sentenced in Los Angeles to more than 11 years in federal prison and ordered by a federal judge to pay $1.7m in restitution. Sign up to First Edition Free daily newsletter Archie Bland and Nimo Omer take you through the top stories and what they mean, free every weekday morning Privacy Notice: Newsletters may contain info about charities, online ads, and content funded by outside parties. For more information see our Newsletters may contain info about charities, online ads, and content funded by outside parties. For more information see our Privacy Policy . We use Google reCaptcha to protect our website and the Google Privacy Policy and Terms of Service apply. Kenya is also a significant hub for digital extortion schemes, the FBI and Interpol believe, while South Africa is a major base for organised criminals operating across the continent. “As well as hosting Black Axe groups, South Africa also helps enable their spread to other parts of the world … Black Axe members come to South Africa to obtain South African citizenship, which facilitates their travel to the US, Europe or Dubai,” Interpol said in a statement accompanying the raids this month. A second Nigerian network – known as the Air Lords – is also reported to be active in South Africa. Many cyber frauds in Africa involve the use of online dating sites and apps to engage victims in fictitious romantic relationships in order to elicit money or personal and financial information. “There’s been a significant growth in skills in the sector, with hacking and similar activities but also romance fraud. There’s an accumulation of experience about what to do and who to target,” said Mark Shaw, the director of the Global Initiative against Transnational Organized Crime. A major romance fraud ring was cracked in October 2021 when seven members of Black Axe and a conspirator were arrested in Cape Town in a joint operation between the FBI, Interpol and South African police. The men were charged with running a fraud syndicate that had reportedly stolen $4m from about 100 US victims over a decade. Gareth Newham, the head of justice and violence prevention at the Institute for Security Studies in Pretoria, said that the shortage of resources in cash-strapped economies was not the only problem allowing organised crime to flourish on the continent. “The budget is not necessarily the issue. The South African police force is very well resourced but there has been a massive deterioration in capability. This has been more about very poor political leadership than any lack of funding,” said Newham. “At the moment, there is a combination of opportunities for money laundering and weakening law enforcement and a limited ability of the state to keep up with a big growth too in cyber activity. Organised crime has really taken off in the past decade [in South Africa], especially the past five years.” There are concerns that a global focus on African fraudsters could reinforce dangerous stereotypes. “In the collective imagination, people refer to these preconceived ideas, perhaps because these are individuals who are receiving emails … but only a small proportion of cybercrime is originating in Africa,” Signé said. “The attacks on advanced economies are not coming from Africa but from geopolitical competitors.”</t>
+          <t>DBS Bank (DBS) and J.P. Morgan Asset Management (JPMAM) today announced an exclusive multi-year Memorandum of Understanding (MOU) to leverage digital technologies to co-develop a personalised end-to-end retirement proposition for all five million DBS/POSB customers in Singapore. This will comprise an individualised retirement glidepath portfolio that would be integrated into the bank’s AI-powered digital advisory tool DBS NAV Planner, so that customers can retire well by optimising their drawdowns of savings, investments and other retirement benefits wisely in real time. Singapore’s population continues to age rapidly, with one in four Singaporeans expected to be 65 years or older by 2030. Amid rising inflation rates, compounded by other factors such as rising healthcare costs, the ability to retire well is a foremost concern for most. While many are familiar with the concept of investing to accumulate wealth, there is a pressing need to help customers learn to draw down on their retirement nest-egg systematically (i.e., decumulate) while still optimising idle funds for investment, and in a timeframe that reflects their true retirement journey. The DBS-JPMAM partnership seeks to close this gap by creating an industry-first proposition that fuses JPMAM’s expertise in building personalised retirement glidepath model portfolios with existing capabilities in DBS NAV Planner’s “Map Your Money” function. Together, it will take into consideration customers’ current assets and retirement needs/goals to chart a personalised retirement plan, and manage this dynamically as they progress through life: Based on data of customers’ current assets, DBS NAV Planner’s “Map Your Money” function will assess their retirement adequacy and project their future needs. It will also identify the shortfalls and shed light on how to bridge these, in order for customers to achieve their preferred retirement lifestyle. A personalised glidepath-based retirement portfolio solution will then be generated for customers to consider investing in. They will also be able to visualise the impact of the glidepath solution on their retirement plans. Customers will be able to monitor the portfolio solution’s performance digitally at all times. They are also empowered to adjust their investment preferences (e.g. retirement drawdown amount, frequency) along the way should circumstances change. The glidepath-based retirement solution helps ensure that customers stay optimally invested throughout both good and bad times. Upon their retirement, customers can also draw down on their fund systematically with ease, while keeping the rest of it invested. The regular and tailored payouts from this retirement investment portfolio is specifically structured to complement government schemes like CPF and Supplementary Retirement Scheme (SRS), as well as other income flows (e.g. insurance or rental income), to build a system of diversified, predictable cash flows for a sustainable retirement plan. DBS/POSB customers can expect the proposition to launch in Q3 next year. Jeremy Soo, Head of Consumer Banking Group (Singapore), DBS Bank, said: “To mitigate longevity and inflation concerns, we need to have a holistic view of our cash flow projections and clarity on how they can be systematically paid out during retirement. This enables us to avoid two possible extremes – underspending, which impacts quality of life during retirement, and overspending, which could lead to us outliving our nest egg. At DBS, we’re committed to continually innovating and providing our customers with best-in-class solutions and are excited to be partnering JPMAM on the development of this industry-first retirement proposition. It is our hope that this will empower our customers to build a more robust and resilient financial future in their golden years, whilst keeping the entire process seamless and hassle-free.”</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Police and investigators fear organised gangs of fraudsters are expanding across sub-Saharan Africa, exploiting new opportunities as a result of the Covid-19 pandemic and the global economic crisis to make huge sums with little risk of being caught. The Covid-19 pandemic has accelerated digitalisation around the world, but as life has shifted increasingly online, cybercriminals have exploited the opportunity to attack vital digital infrastructure,” said Prof Landry Signé, a senior fellow at the Brookings Institution and author of a recent report on the problem. “ Interpol have described online scams such as banking and credit card fraud as the most prevalent and pressing cyberthreat in Africa. The Covid-19 pandemic led to a sustained increase in the volume of cyber-attacks, including more than twice as many targeting online banking platforms, analysts at the organisation have said. Police arrested more than 70 alleged fraudsters linked to a Nigerian criminal network known as Black Axe in South Africa, Nigeria and Ivory Coast – as well as in Europe, the Middle East, south-east Asia and the US. Almost 50 properties were searched and about $1m intercepted in bank accounts. Investigators recognised vocabulary typical of the group and were able to trace links back to west Africa. They run these things really effectively and there are work arounds. More than $120m has been seized this year, denying fraudsters such as Black Axe capital that could be reinvested in other forms of crime, such as forcing young west African women into sex work in Europe, purchasing weapons or the growing international traffic in methamphetamines. There are concerns that a global focus on African fraudsters could reinforce dangerous stereotypes. “</t>
+          <t>DBS Bank (DBS) and J.P. Morgan Asset Management (JPMAM) today announced an exclusive multi-year Memorandum of Understanding (MOU) to leverage digital technologies to co-develop a personalised end-to-end retirement proposition for all five million DBS/POSB customers in Singapore. This will comprise an individualised retirement glidepath portfolio that would be integrated into the bank’s AI-powered digital advisory tool DBS NAV Planner, so that customers can retire well by optimising their drawdowns of savings, investments and other retirement benefits wisely in real time. They will also be able to visualise the impact of the glidepath solution on their retirement plans. The regular and tailored payouts from this retirement investment portfolio is specifically structured to complement government schemes like CPF and Supplementary Retirement Scheme (SRS), as well as other income flows (e.g. insurance or rental income), to build a system of diversified, predictable cash flows for a sustainable retirement plan.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9691570997238159</v>
+        <v>0.6517918705940247</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Indias low labour costs key in wooing firms to move production from China - Business Standard</t>
+          <t>BEA Sets its Sights on Expanding the Investment Library and Greater Connectivity to the Greater Bay Area -Asian Wealth Management and Asian Private Banking - Hubbis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 10:41:00 GMT</t>
+          <t>Wed, 22 Sep 2021 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A combination of one of the lowest labour costs and a large surplus workforce that is likely to continue growing till FY31, is one of the key competitive edges that India is leveraging to challenge its rivals in South East Asia in the race for a China-plus-one strategy.</t>
+          <t>Jaye Chiu is Head of Investment Products &amp; Advisory for Bank of East Asia, a role he took on in July 2020. Hubbis met with him recently to hear of the latest developments taking place at BEA and some of the projects coming to fruition in the foreseeable future. BEA is one of the largest independent family-owned banks in Hong Kong, with more than 100 years of history, and with a DNA that is distinctly Greater China, and with an extensive branch network across China. Accordingly, the bank is especially well positioned to participate Greater Bay Area wealth management initiatives. Chiu and his teams are also working hard to elevate digitisation and to boost ESG-centricity within the product portfolio. Chiu explains that he heads up the investment products and advisory business at BEA and is therefore responsible for distributing investment products and investment solutions to all the stakeholders of BEA, which include the private bank, the retail bank, onshore BEA China, as well as the corporate bank. “We are sort of the central product kitchen, if you like, and we are organised by different asset classes within the business.” Teaming up for expansion One team focuses on managed products, which includes mutual funds, hedge funds, and discretionary portfolios. Another focuses on currency and equity linked deposits, which he reports are very popular with the retail bank customers in Hong Kong. A team concentrates on product development and product risk management, and another group focuses on securities services, which include dealing, execution and product management for all securities, including global equities, structured notes and fixed income. And finally, he reports that BEA also has a relatively new team called the Chief Investment Strategy Team that provides ‘house view’ support to the bank. “Through an Investment Council with participation from various stakeholders within the organisation,” he explains, “the house view of BEA and recommended asset allocation to clients are decided and published. Our chief investment strategist himself is quite a well-known figure here locally in Hong Kong, frequently participating in television broadcasts, radio and newspapers.” BEA’s Greater China DNA As to the positioning of BEA, he reports that the extensive branch network in China as well as in Hong Kong, means the bank is especially well-positioned to help clients with their cross-border wealth management activities. “We have strong referrals both southbound as well as northbound, because a lot of the Hong Kong customers that we serve also have mainland businesses, and they have onshore wealth management needs. At the same time, BEA also has an extensive international branch network. Accordingly, a very big focus of ours is to make sure that we are able to serve our clients’ cross border and international wealth management needs.” GBA and Wealth Management Connect He cites the importance of the Greater Bay Area Wealth Management Connect programme, through which the bank aims to be a leader. “It has its limitations right now, such as it is a closed loop, and you can only facilitate low to medium risk products, the product selection is relatively restricted at this stage, covering mutual funds, fixed income products, as well as deposits,” he reports. “However, we do believe this programme will eventually develop further. And sooner or later, I think a lot of these constraints will be relaxed, and the whole array of two-way flows will become much more diverse and dynamic. BEA aims to start strong and be one of the major players in these initiatives.” Key Priorities He reiterates the importance of the GBA WMC initiative, and reports that the second key priority is the further development of BEA’s digital capabilities. “BEA wants to make sure that we are at the forefront of the digitalisation movement. Our team is cooking up at least two major projects within this space.” Digital days ahead First, he points to the internal development of an algorithm-assisted investment platform for BEA’s retail customers, which will be developed in-house by various stakeholders, including Jaye’s product team. The second digitisation project is the revamping of the bank’s securities trading. “We are in the process of revamping our digital trading platform that will allow us to effectively serve the investment needs of clients that include both retail as well as private clients” he reports. “This is quite a major undertaking, and one through which we are looking to really advance our firm’s digitalisation capabilities.” Leveraging digital evolution He adds that more complete and advanced digitisation will help clients under the GBA WMC to trade effortlessly either through online banking or mobile. “In the initial stages of WMC, most of the transactions will be done on an execution-only basis, which means that there's no solicitation involved. Clients should be allowed to trade at their own pace and leisure, with their own inputs in various channels,” he explains. “So, with enhanced digital and online capabilities, we will be better placed to serve that market, and better placed to serve the needs of our clients in a more proactive manner when more advisory type activities are later permitted.” CIO-guided investment He explains that BEA, as part of the future WMC advisory rollout, will also want to beef up its capability to offer investment content to these customers. “This is where our newly established Chief Investment Strategy Team will be able to help as we produce timely and relevant investment content, either through our house view booklets or through short videos, voice clips and other media that we aim to offer to our cross-border customers through WMC in the future.” Building more ESG-centricity And the final priority is to bolster and expand the ESG offering by incorporating more ESG products within the product shelf. “BEA has well-devised and extensive ESG policies in place. Within the investment product area, we also have been quite active in the ESG space. We have worked actively to include ESG products within our product library,” he explains. “Moreover, we are expanding our ESG screening capabilities to our mutual funds, equities as well as fixed-income offering.” Hong Kong – perfectly poised and positioned Jaye believes in Hong Kong, remarking that Hong Kong still plays a very important role to connect China with the world. “Hong Kong has unique attributes as a major financial centre within China that operates under the One Country Two System framework. We are a major financial centre, we operate under the common law, so these are still unique attributes that will allow businesses to prosper. We are overcoming the more recent challenges of the past few years, and certainly, the development of the GBA will really see it become recognised as one of the most important economic growth engines in the world. Moreover, for us within the wealth management space, a lot of wealthy individuals and billionaires reside within the Greater Bay Area, so there is great potential.” He draws the conversation towards a close by remarking that there is an ongoing shift within private wealthy away from transaction-first towards a much more holistic portfolio-based advisory approach. “This,” he says, “means we are adding more value, and interestingly digitisation is helping as we are able to offer, for example, in our DPM proposition, a much more proactive building block type approach to clients to help them work more closely with our teams on their portfolios, to thereby create a very transparent and easy to understand the source of information for the clients. Discretionary in the past used to be hands-off once the agreement is signed and the investment mandate is agreed with the client. There tend to be portfolio reviews every six or 12 months. With the help of technology, the process nowadays can be much more fluid and more attuned to client needs and preferences.” He elaborates on this, noting that the digitisation is also allowing clients access and portfolio customisation at much lower commitment levels to DPM services that would previously have been reserved for true HNW or UHNW clients. “Nowadays, tailor-made portfolios can be offered at much more modest commitment levels, using various building blocks, using digital tools to do a lot of back-testing, to conduct forward-looking analysis and allowing the clients to tap into a real-time analysis of their portfolios,” he explains. “These are just some of the developments within the Wealth Management space that that we think are very exciting.” Getting Personal Jaye hails from Hong Kong and after high school, moved to the US for university, studying Business and Computer Sciences at Carnegie Mellon in Pittsburgh, Pennsylvania. He has worked in investment management and wealth management since 2005, starting out with UBS, before moving to HSBC, BNP Paribas, EFG Bank, before becoming MD and Head of Regional Investment Management for the BMO Private Bank, and then taking up his current role at BEA from July last year. “I am lucky to have worked for international and local players and met a lot of wonderful colleagues and clients,” he reports. “It has been energising to witness first-hand the explosive growth of wealth management here at BEA, and I see great potential ahead.” Married with two children of seven and two, he also has his work cut out at home. Hobbies include swimming, where he used to compete regularly, and he is an accomplished violinist, and today strives to teach his two young daughters to play. “I am trying to pass on the torch, if you like,” he quips. He reports that his other spare time sees him quite heavily involved in local community service, and youth mentoring, and he says he is very active within the Rotary Club in Hong Kong. “Oh, and I should say I am delighted at the two silver medals our local swimmer Siobhan Haughey won in Tokyo recently; that is a major positive for Hong Kong, for youth and for the sport.” While he has loved being at home to watch his young daughters grow up, like others in Hong Kong, he is feeling somewhat restive and restricted and hopes to be off on travels again before long. “We can but hope,” he says.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A combination of one of the lowest labour costs and a large surplus workforce that is likely to continue growing till FY31, is one of the key competitive edges that India is leveraging to challenge its rivals in South East Asia in the race for a China-plus-one strategy.</t>
+          <t>Jaye Chiu is Head of Investment Products &amp; Advisory for Bank of East Asia, a role he took on in July 2020. Hubbis met with him recently to hear of the latest developments taking place at BEA and some of the projects coming to fruition in the foreseeable future. BEA is one of the largest independent family-owned banks in Hong Kong, with more than 100 years of history, and with a DNA that is distinctly Greater China, and with an extensive branch network across China. Chiu and his teams are also working hard to elevate digitisation and to boost ESG-centricity within the product portfolio. We are sort of the central product kitchen, if you like, and we are organised by different asset classes within the business.” Teaming up for expansion One team focuses on managed products, which includes mutual funds, hedge funds, and discretionary portfolios. And finally, he reports that BEA also has a relatively new team called the Chief Investment Strategy Team that provides ‘house view’ support to the bank. “ It has its limitations right now, such as it is a closed loop, and you can only facilitate low to medium risk products, the product selection is relatively restricted at this stage, covering mutual funds, fixed income products, as well as deposits,” he reports. “ BEA wants to make sure that we are at the forefront of the digitalisation movement. CIO-guided investment He explains that BEA, as part of the future WMC advisory rollout, will also want to beef up its capability to offer investment content to these customers. “ This,” he says, “means we are adding more value, and interestingly digitisation is helping as we are able to offer, for example, in our DPM proposition, a much more proactive building block type approach to clients to help them work more closely with our teams on their portfolios, to thereby create a very transparent and easy to understand the source of information for the clients. While he has loved being at home to watch his young daughters grow up, like others in Hong Kong, he is feeling somewhat restive and restricted and hopes to be off on travels again before long. “</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9999979734420776</v>
+        <v>0.9599368572235107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Top 10 Saudi banks' net profits surge 9.3% in Q3 as interest income rises: Report - Arab News</t>
+          <t>Bank of East Asia profit jumps 53 per cent as soured loans in China decline - South China Morning Post</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 12:01:39 GMT</t>
+          <t>Thu, 20 Aug 2020 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RIYADH: The aggregate net profit of Saudi Arabia’s top 10 banks increased by 9.3 percent to SR16.5 billion ($4.39 billion) in the third quarter of 2022, compared to the previous three months, as rising interest income boosted their performance, an analysis done by professional services firm Alvarez &amp; Marsal showed. Ten of the largest listed banks it analyzed include Saudi National Bank, Al Rajhi Bank, Riyad Bank, Saudi British Bank, Banque Saudi Fransi, Arab National Bank, Alinma Bank, Bank Albilad, Saudi Investment Bank, and Bank Aljazira. In its report, ‘Saudi Arabia Banking Pulse for Q3’, Alvarez &amp; Marsel noted that the aggregate net interest income of these 10 banks increased by 15.9 percent in the third quarter that ended in September. This comes as Saudi Arabia’s central bank, known as SAMA, raised its repo and reverse repo rates by 150 basis points quarter-on-quarter in the third quarter, to 3.75 percent and 3.25 percent respectively. This was in line with the US Federal Reserve’s move to tame surging inflation and maintain price stability. On Nov. 3, SAMA increased its Repo rate once again by 75 bps to 4.50 percent while also increasing the Reverse Repo rate to 4 percent, following the US Federal Reserve’s decision to raise rates by 75 basis points to curb inflation. “We expect SAMA to continue matching policy rate hikes by the US Federal Reserve, which will help boost the overall banking sectors’ NIMs (net interest margin),” said Asad Ahmed, managing director and head of Middle East financial services at Alvarez &amp; Marsal. He added: “Overall, rising interest rates, improvement in asset quality and strong economic rebound are positives for the banking sector in Saudi Arabia. "The profitability growth is expected to continue for KSA banks as the interest rate outlook remains in an upward trajectory.” The analysis showed that aggregate loans and advances at the end of the third quarter grew 2.9 percent from the previous quarter, continuing to outpace the 0.02 percent growth in deposits quarter on quarter. According to the report, the operating income increased by 4.9 percent quarter-on-quarter, primarily driven by growth in total interest income mainly due to higher interest rates. The report further noted that the loan-to-deposit ratio in these banks continued to increase for the seventh consecutive quarter by 2.6 percent, to settle at 96.2 percent in the July to September period. Saudi National Bank topped the list of banks in terms of assets, as it holds assets worth SR964.4 billion as of the third quarter of 2022. It was followed by Al Rajhi and Riyad Bank with assets worth SR740.6 billion and SR347.9 billion respectively, the report added. Earlier this month, another report by Kamco Invest revealed that Al Rajhi Bank recorded a profit of $1.2 billion in the third quarter, supported by higher net financing and investment income, fees from banking services, and exchange income. The Kamco Invest report further noted that Saudi National Bank reported a 24.6 percent increase in the net profit to $1.3 billion, driven by a 16.1 percent drop in operating expenses due to a lower net impairment charge for credit losses.</t>
+          <t>The Bank of East Asia logo outside the bank building in Central, Hong Kong. Photo: Felix Wong</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RIYADH: The aggregate net profit of Saudi Arabia’s top 10 banks increased by 9.3 percent to SR16.5 billion ($4.39 billion) in the third quarter of 2022, compared to the previous three months, as rising interest income boosted their performance, an analysis done by professional services firm Alvarez &amp; Marsal showed. He added: “Overall, rising interest rates, improvement in asset quality and strong economic rebound are positives for the banking sector in Saudi Arabia. " The report further noted that the loan-to-deposit ratio in these banks continued to increase for the seventh consecutive quarter by 2.6 percent, to settle at 96.2 percent in the July to September period. The Kamco Invest report further noted that Saudi National Bank reported a 24.6 percent increase in the net profit to $1.3 billion, driven by a 16.1 percent drop in operating expenses due to a lower net impairment charge for credit losses.</t>
+          <t>The Bank of East Asia logo outside the bank building in Central, Hong Kong.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.9999977350234985</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ministries, agencies have 2 weeks to discuss subsidies | Free Malaysia Today - Free Malaysia Today</t>
+          <t>Europe and South East Asia Modular Chiller Market size will grow at a (CAGR) of 4.5% during the forecast period from 2022 to 2027 - Taiwan News</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 05:38:09 GMT</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+          <t>Mon, 28 Nov 2022 20:57:47 GMT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Astute Analytica has released new research on the worldwide Europe and South East Asia Modular Chiller Market that provides a thorough explanation of a number of market analysis techniques, including SWOT analysis and five-point analysis. The market report also includes an in-depth analysis of several growth plans and initiatives to broaden the business’s horizons on a regional and international scale. It gives readers a thorough explanation of all the market difficulties and development prospects related to the industry. Along with significant data and other pertinent information, the study evaluates the competitive landscape and global market growth trend based on the business overview and helps businesses and investment organizations better grasp the market’s growth characteristics. The Europe and South East Asia Modular Chiller Market size was US$ 529.2 million in 2021 and forecast to grow to US$ 724.0 million by 2030 by registering a compound annual growth rate (CAGR) of 4.5% during the forecast period from 2022 to 2027. Request To Download Sample of This Strategic Report: https://www.astuteanalytica.com/request-sample/europe-south-east-asia-modular-chiller-market Regional Analysis: North America is expected to grow at a moderate rate, closely followed by Europe due to the well-developed infrastructure of these regions. Furthermore, the presence of various safety standards such as quiet operation, low emission, and others will contribute to the growth of the market. The presence of developing economies such as India, China, etc., will drive the market forward. It is majorly attributable to the growing urbanization and industrialization in the region. Further, the availability of cheap labor and raw materials has increased factory setup in the region. According to Invest India, the Parliament passed a bill with the aim to develop National Bank for Financing Infrastructure and Development (NaBFID) in order to invest in infrastructure projects in the country. Moreover, the same source estimates that infrastructure activities held a 13% share of the total FDI inflows of US$ 81.72 billion in In FY21. COVID-19 Impact Following the coronavirus pandemic, the market experienced a sharp decline in terms of revenue. The COVID-19 pandemic forced the imposition of a lockdown to reduce infection among the population across countries. Moreover, manufacturing companies rely heavily on the supply of raw materials and components from other countries around the world, which was halted during the pandemic. Thus, the negatively affected the industry. Major Key Players in the Europe and South East Asia Modular Chiller Market are: 1st Cooling Inc. AEC Inc. Carrier Corporation ClimaCool Corp. Croll Reynolds Delta T Systems Frigel Gree Electric Appliances Inc Segmental Analysis: The segmentation section of the report focuses on every segment, along with highlighting the ones having a strong impact on the Europe and South East Asia Modular Chiller Market. The segmentation served as the foundation for finding businesses and examining their financial standings, product portfolios, and future growth potential. The second step entailed evaluating the core competencies and market shares of top firms in order to predict the degree of competition. A bottom-up method was used to assess the market’s overall size. Request To Download Sample of This Strategic Report: https://www.astuteanalytica.com/request-sample/europe-south-east-asia-modular-chiller-market Segmentation Overview By Product Type Water-Cooled &lt;50kW 51-100kW 101-200kW 201-300kW &gt;301kW Air-Cooled &lt;50kW 51-100kW 101-200kW 201-300kW &gt;301kW By Demand New Market Replacement Market By Application Commercial Data Centers Corporate Offices Public Buildings Mercantile &amp; Service Healthcare Others Industrial Chemical Food &amp; Beverage Metal Manufacturing &amp; Machining Medical &amp; Pharmaceutical Plastics Others Residential Multistorey Bungalows/ Villas By Region Europe The UK Germany France Italy Spain Netherlands Rest of Europe South East Asia Indonesia Thailand Singapore Malaysia Philippines Vietnam Myanmar Rest of SEA Request Full Report: https://www.astuteanalytica.com/request-sample/europe-south-east-asia-modular-chiller-market About Astute Analytica: Astute Analytica is a global analytics and advisory company that has built a solid reputation in a short period, thanks to the tangible outcomes we have delivered to our clients. We pride ourselves in generating unparalleled, in-depth, and uncannily accurate estimates and projections for our very demanding clients spread across different verticals. We have a long list of satisfied and repeat clients from a wide spectrum including technology, healthcare, chemicals, semiconductors, FMCG, and many more. These happy customers come to us from all across the globe. They are able to make well-calibrated decisions and leverage highly lucrative opportunities while surmounting the fierce challenges all because we analyse for them the complex business environment, segment-wise existing and emerging possibilities, technology formations, growth estimates, and even the strategic choices available. In short, a complete package. All this is possible because we have a highly qualified, competent, and experienced team of professionals comprising business analysts, economists, consultants, and technology experts. In our list of priorities, you-our patron-come at the top. You can be sure of the best cost-effective, value-added package from us, should you decide to engage with us. Get in touch with us: Phone number: +18884296757 Email: sales@astuteanalytica.com Visit our website: https://www.astuteanalytica.com/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Astute Analytica has released new research on the worldwide Europe and South East Asia Modular Chiller Market that provides a thorough explanation of a number of market analysis techniques, including SWOT analysis and five-point analysis. The Europe and South East Asia Modular Chiller Market size was US$ 529.2 million in 2021 and forecast to grow to US$ 724.0 million by 2030 by registering a compound annual growth rate (CAGR) of 4.5% during the forecast period from 2022 to 2027. Further, the availability of cheap labor and raw materials has increased factory setup in the region. Major Key Players in the Europe and South East Asia Modular Chiller Market are: 1st Cooling Inc. AEC Inc. Carrier Corporation ClimaCool Corp. Croll Reynolds Delta T Systems Frigel Gree Electric Appliances Inc Segmental Analysis: The segmentation section of the report focuses on every segment, along with highlighting the ones having a strong impact on the Europe and South East Asia Modular Chiller Market. The second step entailed evaluating the core competencies and market shares of top firms in order to predict the degree of competition.</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9999866485595703</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ACWA Power signs MoU to back Thailand's decarbonization journey - Arab News</t>
+          <t>Bank of East Asia sells life insurance unit to AIA for US$653 million - South China Morning Post</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 13:56:11 GMT</t>
+          <t>Wed, 24 Mar 2021 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIYADH: Saudi Arabia-based energy company ACWA Power has entered into an agreement to support Thailand’s decarbonization ambitions through a green hydrogen and derivatives development project. The firm signed a memorandum of understanding with PTT Public Co. Limited, Thailand’s national integrated energy company; and the Electricity Generating Authority of Thailand, an electric power-related state-owned enterprise, according to a press release. As part of the terms of the MoU, ACWA Power, PTT, and EGAT will begin collaborating exclusively on a comprehensive plan to establish large-scale, renewable-powered green hydrogen and derivatives production facilities in Thailand for local energy consumption and global market export purposes. With an estimated investment of $7 billion, the Southeast Asian country is targeting hydrogen production of around 225,000 tons annually which is equivalent to 1.2 million tons of green ammonia yearly. Paddy Padmanathan, vice chairman and CEO of ACWA Power, said: “We are excited at the prospect of supporting green hydrogen and derivatives exploration and advancement in Thailand, a nation that shares our vision for reliably and responsibly delivering clean energy that drives the sustainability agenda and complements essential climate action worldwide.” Thailand is aiming to use green hydrogen as an alternative energy source in the upcoming years in an attempt to fulfill its vow of achieving carbon neutrality by 2050 and net zero emissions by the year 2065, the press release said. Moreover, it added that using green hydrogen will help in supporting emissions abatement imperatives and in building a low-carbon circular economy at a domestic level. ACWA Power has been expanding its portfolio rapidly, with its asset hitting $75 billion as it posted a 110 percent profit jump in 2022 so far, according to Padmanathan. The company is set to reach assets of $230 billion by 2030, the executive told CNBC Arabia. While the firm’s current capacity currently stands at 42 gigawatts, he said there exists the capacity to increase the volume by up to three times to reach 150 gigawatts. Currently, the company produces 6 million cubic meters of desalinated water, but that figure is estimated to hit 15 million cubic meters by 2030, Padmanathan revealed. ACWA Power, which is part-owned by Saudi Arabia’s Public Investment Fund, is also currently producing up to 240,000 tons of green hydrogen, he added. A recent bourse filing revealed the energy giant’s profits reached SR883.4 million ($235.1 million) during the first nine months of 2022, up from SR419.9 million during the same period last year. The rise was driven by lower costs of development, provisions, and write-offs during the current period. It was also attributed to robust growth in ACWA Power’s operating income before impairment and other expenses, as well as lower profit on account of one-off or non-routine expenses during the same period in the year prior, according to a statement. Operating income in the nine-month period was SR1.8 billion, an 11 percent increase of SR189 million, compared to the same period last year, which was achieved despite plant outages in four facilities.</t>
+          <t>A man fishes in front of the AIA Central building in Hong Kong. Photo: Bloomberg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RIYADH: Saudi Arabia-based energy company ACWA Power has entered into an agreement to support Thailand’s decarbonization ambitions through a green hydrogen and derivatives development project. As part of the terms of the MoU, ACWA Power, PTT, and EGAT will begin collaborating exclusively on a comprehensive plan to establish large-scale, renewable-powered green hydrogen and derivatives production facilities in Thailand for local energy consumption and global market export purposes. Currently, the company produces 6 million cubic meters of desalinated water, but that figure is estimated to hit 15 million cubic meters by 2030, Padmanathan revealed. Operating income in the nine-month period was SR1.8 billion, an 11 percent increase of SR189 million, compared to the same period last year, which was achieved despite plant outages in four facilities.</t>
+          <t>A man fishes in front of the AIA Central building in Hong Kong.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2690,88 +2774,88 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.996329128742218</v>
+        <v>0.9999842643737793</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A growing trend - Philstar.com</t>
+          <t>Secretary Antony J. Blinken At a Press Availability - United States Department of State - Department of State</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 16:00:00 GMT</t>
+          <t>Wed, 30 Nov 2022 17:23:48 GMT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A growing trend If Congress fails to serve as watchdog for people’s money, a growing trend will institutionalize the lack of accountability in the utilization of precious public funds. The Duterte administration set the trend for massive confidential and intelligence fund allocations for the Office of the President (OP). The apple doesn’t fall far from the tree; Daughterte is now doing the same for her current posts, with a substantial CIF not only for the Office of the Vice President but also for the Department of Education. For 2021, according to state auditors, the OP under Rodrigo Duterte spent P2.25 billion in confidential funds and another P2.25 billion in intelligence funds. The OP’s CIF was even bigger in 2020, when P4.57 billion was used up – more than what was appropriated for the year. Even with the 14-year-high inflation factored in, the amounts are a huge jump from the average of P500 million to P600 million CIF accorded to the OP under Gloria Macapagal Arroyo and Benigno Aquino III. Duterte rejected a provision in the 2021 appropriations law, which required quarterly reporting on the utilization of the CIF. The reason cited was that national security matters are exempted from such a disclosure. But if it’s all about national security in the time of COVID, why did the Department of National Defense, which handles counterterrorism apart from external defense, have only P1.86 billion in CIF last year? The Department of the Interior and Local Government, which has supervision over the Philippine National Police, spent P908.45 million in CIF. Among the agencies with some functions related to law enforcement and fighting crime, the Department of Justice spent P258.21 million in CIF; the Department of Finance, P60.63 million; Department of Environment and Natural Resources, P15 million, and Department of Transportation, P16.85 million. Even the Department of Foreign Affairs spent P31.75 million in CIF, while the Department of Social Welfare and Development had P20.04 million. In the current administration, the CIFs have also been extended to the Office of the Solicitor General. * * * Heidi Mendoza, a former head of the United Nations Office of Internal Oversight Services and Commission on Audit commissioner, along with former Senate president Franklin Drilon have said that the COA, an independent constitutional body, can exercise its authority and subject all CIFs to a thorough audit. If the COA finds anomalous expenditures, it can disallow the funding, according to Drilon. The only thing state auditors cannot do is to make their CIF audit public, Drilon told “The Chiefs” on One News last week. There are, of course, limits to the details that even auditors can demand when it comes to the utilization of intelligence funds, especially for security agencies. The lives of informants can be put at risk and security operations can be jeopardized. There is a presumption of regularity in the use of CIFs by law enforcement agencies and the military. How will CIFs be used by the DepEd and OVP? Taxpayers have been told that it will be used to go after child sex abusers, cyber bullies, drug pushers and other lowlifes who prey on school children. But this is a job of law enforcement agencies, not educators. Militant teachers suspect that the money will be used to monitor their ranks for remarks or social media posts that displease DepEd and the administration. Others fear that money may be used to rewrite textbooks to whitewash the dictatorship, although President Marcos has said in public that he’s not into revising history. But even if history books are to be rewritten, funding must be taken from the regular DepEd budget for textbooks, and not from lump sums that elude public accounting. And what does the OVP need CIF for? Its budget has already ballooned to a hefty P2.3 billion from the P713.41 million allotted by Duterte to the OVP under Leni Robredo for 2022 (lower than the P908.79 million for 2021). * * * If the DepEd is going to get a hefty increase in its budget, there are a gazillion other items in public education that urgently need funding – from additional classrooms to gadgets, textbooks and higher salaries for teachers. The top achievement of DepEd in the past half-year is the return to in-person classes. The 100 percent objective was not attained, however, due to natural disasters and the sheer inadequacy of classrooms especially with physical distancing still encouraged. Studies have shown that the pandemic widened the learning gap in this country, and worsened the quality of education. Addressing this critical problem in our human capital development requires so much more investments in public education than what has been allotted so far. * * * The World Bank, in a recent study, said income inequality in the Philippines is one of the widest in East Asia. And one of the factors in this yawning income gap, it said, is uneven access to quality education. Like other similar studies, it noted that the pandemic widened the education gap between rich and poor. Simply attaining Marcos’ objective of restoring Filipinos’ proficiency in English is challenging enough. He also wants greater emphasis on the teaching of science, technology, engineering and mathematics. Seeing what’s happening in the DepEd in the past half year, his education secretary doesn’t seem up to the challenge; her heart and mind are elsewhere. The next six years are looking to become more lost years that will worsen the crisis in Philippine education. Marcos should seriously consider giving his running mate another Cabinet portfolio – perhaps her original preference for the defense post (although there’s talk that this has been reserved for someone else). The President can do this when he finally relinquishes the agriculture portfolio – something that is happening soon, if the buzz proves accurate. Critics of the CIF for the DepEd are pinning their hopes on the robust militancy among educators and students alike to prevent the misuse of public funds. Ideally, the watchdog should be Congress. As Drilon told The Chiefs, approval of CIFs is a political issue. If people want to punish those who went along with the questioned appropriation, they should vote such politicians out of office, he said. This, however, will require informed choices, made by people with sufficient education and the standing in life to say no to political patronage during elections. Only Congress might reverse this tide that goes against transparency. Members of the Malacañang rubberstamp House of Representatives are hopeless. Unfortunately for the nation, the situation is increasingly looking the same in the Senate.</t>
+          <t>SECRETARY BLINKEN: Good afternoon, everyone. Before I speak to what we’ve been doing here for the last couple of days, I just want to first congratulate Team USA on a terrific win last night at the World Cup in what was a very competitive match. I also want to salute the performance of the Iranian team, which played with so much heart during this tournament. I’m proud of the American players for all the skills that they demonstrated on the field as well as their dignity off the field. Having watched our team play in Qatar a week or so ago, then watching the match last night with my colleagues and friends, Foreign Minister Kuleba from Ukraine and Foreign Minister Cleverly from the UK, I’m reminded again of how soccer is such a powerful unifying force. It’s a common language that virtually the entire world speaks. I’m looking forward to the exciting round of 16 that’s coming up. We’ll be watching it closely, and so many others around the world will be doing the same thing. Now, we have just concluded two days of very productive meetings here in Bucharest with our NATO Allies. Let me start by thanking our Romanian hosts for their incredibly warm hospitality and also recognize their many contributions over this difficult past year. And I especially thank NATO Secretary General Jens Stoltenberg for his leadership – leadership that has proven to be decisive in what is a challenging time for our Alliance. We’re meeting at a critical juncture. As Ukraine continues to seize momentum on the battlefield, President Putin has focused his ire and his fire on Ukraine’s civilian population. Over the past several weeks, Russia has bombed out more than a third of Ukraine’s energy system, plunging millions into cold, into darkness, as frigid temperatures set in. Heat, water, electricity – for children, for the elderly, for the sick – these are President Putin’s new targets. He’s hitting them hard. This brutalization of Ukraine’s people is barbaric. We are clear-eyed about the difficult winter that lies ahead. We know President Putin’s playbook: freeze and starve Ukrainians, force them from their homes, drive up energy, food, and other household costs, not only across Europe but around the world, and then try to splinter our coalition. President Putin thinks that if he can just raise the costs high enough, the world will abandon Ukraine, that we’ll leave them to fend for themselves. His strategy has not and will not work. We will continue to prove him wrong. That’s what I heard loudly and clearly from every country here in Bucharest. We know that standing up for Ukraine means accepting difficult costs, particularly for our European allies, but the cost of inaction would be far higher. Caving to Russia’s aggression, accepting its brazen attempts to redraw borders by force, to tear up the rulebook that has made all of us more secure – that would have repercussions not only in Europe but quite literally around the world. And so the message coming out of our meeting is this: Our collective resolve to support Ukraine is and will continue to be ironclad, now, throughout the winter, and for as long as it takes for Ukraine to succeed. We will maintain and bolster our security, humanitarian, and economic support for Ukraine. NATO Allies and partners have provided $40 billion in arms to Ukraine; more is on the way. The United States has contributed more than 19 billion in security assistance and nearly $15 billion in direct economic and humanitarian support. We’ll also continue to ramp up costs on the Kremlin and those enabling President Putin’s war. We welcome the European Union moving forward on its ninth sanctions package that will further curtail the Kremlin’s capacity to rage its brutal war when that package is passed. When Russia began to accelerate its attacks against Ukraine’s civilian infrastructure, the G7 foreign ministers acted swiftly and acted together. We agreed to create a new coordination group to synchronize our defense of Ukraine’s energy grid, just as the Ramstein process has coordinated our provision of the weapons that Ukraine needs to defend its territory. When we convened that group yesterday here in Bucharest, I announced that the United States will commit over $53 million to send equipment to help stabilize Ukraine’s energy grid and keep Ukraine’s power and electricity running. We’ve also submitted a request to Congress for $1.1 billion to secure Ukraine and Moldova’s energy sector and restore their energy supply. And we will take strong, coordinated action to ensure that President Putin cannot hold the rest of the world hostage to weaponized energy. In the spring, the European Union committed to fully phasing out Russian natural gas. The United States is helping to speed up this transition, sending 53 billion cubic meters of LNG to our friends in Europe so far this year – more than double last year’s amount – to help provide a bridge to a clean energy future that’s also free from Russian influence. The united response of our allies and partners to Russia’s aggression has given Ukraine momentum in the fight. We agree with President Zelenskyy: diplomacy is ultimately the only way to definitively end Russia’s war of aggression. We support the need for a just and durable peace. Russia’s savage attacks on Ukrainian civilians are the latest demonstration that President Putin currently has no interest in meaningful diplomacy; that short of erasing Ukraine’s independence, he will try to force Ukraine into a frozen conflict, lock in his gains, rest and refit his forces, and then, at some point, reattack again. That tactic cannot possibly lead to a just and durable peace. President Putin must be disabused of the notion that it can succeed. The best way to actually hasten the prospects for real diplomacy is to sustain our support to Ukraine and continue to tilt the battlefield in its favor. That will also help ensure that Ukraine has the strongest possible negotiating position and hand to play when a negotiating table emerges. Short of Russia ending the aggression it started, that is the only path to a peace that is both just and durable. The collective strength and resolve of NATO in this crisis have demonstrated that alliances and partnerships are our most important strategic asset, and that strength will soon grow with the addition of Sweden and Finland as our newest NATO Allies. Their participation in this meeting here in Bucharest shows their readiness to bring their strengths to bear in our Alliance. Even as we remain focused on maintaining a unified, coordinated effort to support Ukraine, we’re also working to increase NATO’s resilience for the future as it faces new challenges, including those posed by China. In June, Allies met in Brussels and agreed that China’s stated ambitions and assertive behavior present systemic challenges to the rules-based international order and to areas relevant to Alliance security. The members of our Alliance remain concerned by the PRC’s coercive policies, by its use of disinformation, by its rapid, opaque military build‑up, including its cooperation with Russia. But we also remain committed to maintaining a constructive dialogue with China wherever we can, and we welcome opportunities to work together on common challenges. The seven-plus decades since NATO’s founding have proven that, fundamentally, its strength lies in the reality that we’re a living, evolving Alliance, one that is built not merely to endure crises but to use them to emerge stronger, more united, better prepared. This past year has been a powerful reminder of who we are as an Alliance, of our capacity to adapt and evolve, of our unity in the face of threats, and of the sheer force of our collective commitment to the values and interests that we came together originally to defend. And seeing that, I’m confident that NATO will continue to meet the challenges of this moment as well as the challenges to come. Now, before I close, as we would say back in Washington, a moment of personal privilege. I’m soon going to be losing from my team Evan Glover, who has been my trip director and very close aide, to an exciting opportunity with our embassy in Jerusalem. It’s often said of close colleagues that they’re always by your side; in Evan’s case, that happens to be almost literally true. Evan’s been by my side essentially all day every day these past two years, whether in Washington or around the world. He’s a close advisor. He keeps my team and me prepared, on track, on time – well, on time-ish, anyway. But his duties have gone well beyond those in the job description. He’s had to wake me up in the middle of the night, listen to me occasionally strum a guitar – my apologies – and greet me upon returning from all-too-infrequent jogs in various capitals around the world. In short, Evan’s been subjected to a lot, but he’s met every challenge with unrelenting determination, smarts, and good humor. I could not be more grateful. Evan, if you’re out there somewhere, thank you, my friend. And thanks to all of you. MR PRICE: For questions, we’ll start with Courtney McBride, Bloomberg. QUESTION: Thank you. Mr. Secretary, how does the U.S. ensure and commit to Ukraine that the energy infrastructure support that you and allies and partners are providing will not just be rapidly destroyed, as we know that those civilian infrastructure elements are among the most vulnerable? Are the U.S. and your allies and partners pairing the energy assistance with protection, such as Patriots or other air defenses, or are simply conceding that you will have to replace the same infrastructure again? Thank you. SECRETARY BLINKEN: Yeah. Thank you. No, you’re exactly right. These are flip sides of the same coin. Even as we’re working in a very coordinated way with countries around the world to help Ukraine repair and replace as necessary the infrastructure – the generators, the transformers, the grids that are being destroyed – we’re also trying to be very deliberate, and this is primarily the Pentagon and others, in trying to establish the best possible defense for critical energy infrastructure in Ukraine so that we don’t have a process that keeps repeating itself. Stuff gets replaced; it gets destroyed; it gets replaced again. So we have to do both, and we are doing both. I’ll leave it to the planners and the strategists on the military defense side to speak more specifically about that. But yes, a part of this is making sure that not only are we getting Ukraine the weapons that it continues to need to defend itself and ward off the Russian aggression, but that some of that is used in a very deliberate way to, as best as possible, protect the energy infrastructure. But it’s also critical that even as we’re doing that, we of course help Ukrainians get things back online that have been taken offline by Russian bombs and missiles. That’s where this very coordinated effort that we’ve been engaged in comes in, primarily through the G7 and a number of other countries, but also in close coordination with what the European Union is doing and also institutions like the World Bank, European Bank for Reconstruction and Development. And what we’ve established is very akin to what was done on the military equipment side in Ramstein. The same kind of process to make sure that Ukrainians are getting, as quickly as we can possibly get it to them, everything they had to keep their electric grid going. MR PRICE: Henry Foy, FT. QUESTION: Henry Foy, Financial Times. Thank you, Secretary of State. We know that the U.S. and other allies, particularly the UK, are keen for NATO to move on from just assessing the threat and challenge that China poses to actually addressing it. After the discussion you had this morning, are you confident that all of your allies see the challenge posed by China the same way that your administration does? And what concrete measures have you asked your allies to think about in terms of addressing that? Thank you. SECRETARY BLINKEN: Thank you. First, let me step back to say that much of what we’ve done over the last couple of years has been to re-engage, reinvigorate, re-energize our alliances and partnerships, recognizing, as I said earlier, that in many ways, they’re our most powerful strategic asset because the more we can address challenges collectively, the more effective we’re likely to be. And I think some of the fruits of those labors are evident here at NATO, including with regard to the challenge posed by China. What I’ve seen, not only at NATO but also, for example, with the European Union as well as in other parts of the world, is a growing convergence in the approach to the challenges that China poses. We start with a recognition that the relationship for all of us is complex as well as incredibly consequential. Complex because we see it as competitive – we’re very much at an inflection point in the world where we’ve moved beyond the post-Cold War world and there’s a competition on to shape what comes next. There’s a recognition of that. There’s a recognition that there’s also, in many ways, what the Europeans call a systemic rivalry between China and many of our countries. But there’s also a recognition that, wherever possible, we have to find ways to cooperate on the really big issues that affect not just people in our respective countries – in China and the United States or in European countries – but literally people around the world: climate, global health, macro-economics, et cetera. And so we are acting on all of those fronts. And the more we’re able to do that together, again, the more effective we’re going to be. But evidence of that convergence is that, first, everything that I heard around the table today in Bucharest. We had a discussion this morning about China and the challenges that it poses. You saw it before then in a joint statement emanating from our first G7 leaders’ meeting last year in the United Kingdom, and again this year coming out of Germany when the G7 leaders got together. We’ve restarted a dialogue between the European Union and the United States on China that’s actually meeting again in the coming days. And here at NATO, the Strategic Concept that the leaders put out at the last summit refers to China for the first time, and it calls out the systemic challenge that it poses and our collective responsibility to address that challenge. And again, I heard that convergence loud and clear this morning. And what we talked about today is, again, making sure that we are working to adapt in concrete ways to meet the challenge. Let me be very clear, though: As we’ve said repeatedly, we do not seek conflict with China; on the contrary, we want to avoid it. We don’t want a new Cold War; we’re not looking to decouple our economies. We’re simply looking to be clear-eyed about some of the challenges that China poses and, again, as I said, to make sure that in addressing those challenges we’re doing it with others. Everything that I heard today just reinforces the convergence on that point. MR PRICE: Ed Wong, New York Times. QUESTION: Hi, thank you, Mr. Secretary. I’d like to follow up on the China question, and you just mentioned that you talked about the need to address China in concrete ways. Can you give us some more detail on exactly what that means? And given the fact that a lot of the issues you and your aides are bringing up – mainly infrastructure issues, port usage, technology issues – these are all trade issues, and how do you expect officials in NATO to discuss very much trade-related issues when those are negotiated in other fora? SECRETARY BLINKEN: Sure. So what we’re seeing and what we’re doing across a number of institutions, as well as in our relationships with individual countries, is to look at the areas where China poses a challenge to our interests and to our values, and to take appropriate steps accordingly. And so for example, what you’ve seen over the last couple of years is growing convergence and action together on things like investment screening mechanisms to make sure that when China is making investments in our countries – something that, again, we want to sustain – we also need to be careful that in particularly sensitive areas – strategic areas, strategic industries, companies, infrastructure – that we take security considerations fully into account before allowing any investments to go forward. We want to make sure – and we are – that when it comes to exporting sensitive technologies to China that could go to further its own military capacity, that we’re cautious about that and that, again, we’re acting wherever possible together to make sure that, if we have export controls, we’re doing it in a coordinated manner. So that’s a part of what we’re doing. Countries want to make sure that when products in China are made using forced labor, that they can’t come into our countries. We’re sharing information and coordinating on that. And when it comes to NATO, NATO is of course a military Alliance, but it’s also a political Alliance, where we try to develop common perspectives on challenges, we share information, and, as appropriate in the NATO context, we look at what we can do effectively together. This is not about taking NATO to Asia or, in the parlance of NATO, acting out of area. This is about some of the challenges that China poses in-area to countries that are members of NATO and making sure that, for example, we’re building resilience around our infrastructure. We’ve seen the fragility of critical infrastructure in a variety of ways, including from the Russian attacks on Ukraine. We want to make sure that it’s resilient as possible to face all potential future challenges. In that and many other ways, we’re working, again, not only in NATO but across institutions and in our relationships with individual countries. MR PRICE: Veronika Boiko, ICTV Ukraine. QUESTION: Thank you. ICTV Ukraine. In Ukraine, there is not a single powerplant that was not damaged as a result of Russian attacks, and it will take months to restore it. However, winter is coming, so how the United States will help Ukraine to protect this infrastructure from future attacks? And Ukrainians – not only air defense systems, but also other weapons and equipment, as well as rounds of munitions – fighter jets would help to protect Ukraine’s sky and civilians. So will Ukraine get it, and how quickly can Ukraine get it? SECRETARY BLINKEN: Thank you. First, on the energy infrastructure, as we’ve discussed, what President Putin is focused on right now is trying to destroy as much of that infrastructure as possible literally across the country. If you look at a map of the attacks that Russia has undertaken since October 10th when it began this very deliberate campaign to destroy the electric grid and the energy infrastructure, that map shows attacks on that infrastructure in every part of Ukraine. So in many ways, the frontlines are not simply in eastern Ukraine and southern Ukraine – they’re nationwide. So we have taken that fully into account in everything that we’re doing. And as I said before, we’re acting urgently to do two things. One, to make sure that, in a coordinated way, we are getting to Ukraine as much as we possibly can as fast as we can to repair, to replace, to build resilience in its energy infrastructure. At the same time, the other side of that coin is trying to make sure that that infrastructure is as effectively defended as it possibly can be so that we don’t get into this cycle of repairing and replacing equipment, having the Russians destroy it, doing the same thing all over again. And that’s something that the military and other planners are focused on. So even as we’re providing and continue to provide Ukraine with air defense systems, Ukraine is thinking about the most effective way to deploy them – not just to protect civilians and cities, but to protect the infrastructure. And that work is ongoing. As I mentioned earlier, we have just – the United States has just provided $53 million in new equipment: transformers, generators, spare parts. That’s going to get to Ukraine not in a matter of months, but in a matter of days or weeks, again, to make sure that we’re helping get the electric grid back and functioning. At the same time – and this goes to your second question – what we have done from day one – in fact, before day one, when we saw the aggression mounting and we were warning the world that it was coming – we didn’t simply warn the world; we took action to make sure that Ukraine had in its hands the weapons that it would need to defend itself if the aggression actually happened. So going back more than a year ago, we did the first drawdown of military equipment, including things like Stingers and Javelins. There was another very significant drawdown a year ago last Christmas – again, before the Russian aggression – and every week since then, we have continued to adapt to what’s happening to make sure that we could get Ukraine the systems that it needs to deal with the particular threat it was facing at any given time. That threat has evolved over these months. As the initial focus was on Kyiv, it shifted east and south; the nature of the terrain changed, the nature of what the Russian aggression was doing changed, and so we evolved with that. And that is a process that’s going on every single day. Throughout, we’ve wanted to make sure that not only are we getting weapons systems to Ukraine, but that Ukrainians can use them effectively – sometimes that requires training – that they can maintain them effectively. All of that requires work. But what I can tell you is it’s happening every day and it’s evolving every day, and it’s based on what Ukraine needs to most effectively deal with Russia’s aggression. MR PRICE: We have time for one final question. Missy Ryan with The Washington Post. QUESTION: Thanks very much. Hi, Mr. Secretary. You and other NATO leaders have stressed the historic cohesion and unity that characterizes the Alliance at this moment. But at the same time, Alliance countries remain divided on the proposed oil price cap. And also, despite some progress, they have not been able to finalize the accession of Sweden and Finland despite initial hopes that that could be done by last year’s Madrid Summit. How do you square that? And also, given Turkey’s continued reservations about Finland and Sweden and the lack of any apparent substantive resolution on that, would the United States be okay with Turkey holding up those countries’ accession until after the Turkish elections next spring? Thank you. SECRETARY BLINKEN: Thanks, Missy. So sometimes it’s easy to miss the forest for the trees. The forest is dense, strong, substantive, and that is convergence among allies and partners on all of the critical issues – and not only convergence, unity of purpose and unity of action. And we just talked about everything that we’ve been doing and have been doing for months to help Ukraine defend itself and now to help it sustain and defend its energy grid. And at every step along the way there have been suggestions that that unity would fray, would disappear, would be diminished, and thus far, at least, that’s simply not been the case. And as I said earlier, everything I heard here in Bucharest just reaffirms a shared determination when it comes to Ukraine, but not just when it comes to Ukraine – when it comes to many of the other issues that our leaders have been talking about and acting on for the last couple of years, many of which are in the new NATO Strategic Concept. When it comes to the accession of Sweden and Finland, first, all NATO countries have ratified the – have – excuse me – signed the protocols of accession. Twenty-eight of the 30 have actually ratified, so – and that’s happened with remarkable speed. I think if you go back and look at previous enlargements of NATO when it’s brought in new members, it has taken a lot longer than that to go through this process. So this is happening in record speed. Turkey, Sweden, and Finland are engaging directly, as well as with NATO, to make sure that Turkey’s concerns are fully addressed, including concerns about its security. That process has been moving forward. And I’m very confident – and again, based on what I’ve heard these last couple of days – that Finland and Sweden will soon be formally new members of the Alliance. Thank you. Thanks, everyone.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A growing trend If Congress fails to serve as watchdog for people’s money, a growing trend will institutionalize the lack of accountability in the utilization of precious public funds. The apple doesn’t fall far from the tree; Daughterte is now doing the same for her current posts, with a substantial CIF not only for the Office of the Vice President but also for the Department of Education. For 2021, according to state auditors, the OP under Rodrigo Duterte spent P2.25 billion in confidential funds and another P2.25 billion in intelligence funds. The only thing state auditors cannot do is to make their CIF audit public, Drilon told “The Chiefs” on One News last week. Others fear that money may be used to rewrite textbooks to whitewash the dictatorship, although President Marcos has said in public that he’s not into revising history. The top achievement of DepEd in the past half-year is the return to in-person classes. Like other similar studies, it noted that the pandemic widened the education gap between rich and poor. Critics of the CIF for the DepEd are pinning their hopes on the robust militancy among educators and students alike to prevent the misuse of public funds. This, however, will require informed choices, made by people with sufficient education and the standing in life to say no to political patronage during elections. Only Congress might reverse this tide that goes against transparency.</t>
+          <t>Before I speak to what we’ve been doing here for the last couple of days, I just want to first congratulate Team USA on a terrific win last night at the World Cup in what was a very competitive match. I also want to salute the performance of the Iranian team, which played with so much heart during this tournament. Let me start by thanking our Romanian hosts for their incredibly warm hospitality and also recognize their many contributions over this difficult past year. As Ukraine continues to seize momentum on the battlefield, President Putin has focused his ire and his fire on Ukraine’s civilian population. Heat, water, electricity – for children, for the elderly, for the sick – these are President Putin’s new targets. We will maintain and bolster our security, humanitarian, and economic support for Ukraine. The United States has contributed more than 19 billion in security assistance and nearly $15 billion in direct economic and humanitarian support. When we convened that group yesterday here in Bucharest, I announced that the United States will commit over $53 million to send equipment to help stabilize Ukraine’s energy grid and keep Ukraine’s power and electricity running. We’ve also submitted a request to Congress for $1.1 billion to secure Ukraine and Moldova’s energy sector and restore their energy supply. In the spring, the European Union committed to fully phasing out Russian natural gas. The united response of our allies and partners to Russia’s aggression has given Ukraine momentum in the fight. Russia’s savage attacks on Ukrainian civilians are the latest demonstration that President Putin currently has no interest in meaningful diplomacy; that short of erasing Ukraine’s independence, he will try to force Ukraine into a frozen conflict, lock in his gains, rest and refit his forces, and then, at some point, reattack again. Short of Russia ending the aggression it started, that is the only path to a peace that is both just and durable. The seven-plus decades since NATO’s founding have proven that, fundamentally, its strength lies in the reality that we’re a living, evolving Alliance, one that is built not merely to endure crises but to use them to emerge stronger, more united, better prepared. I’m soon going to be losing from my team Evan Glover, who has been my trip director and very close aide, to an exciting opportunity with our embassy in Jerusalem. Evan’s been by my side essentially all day every day these past two years, whether in Washington or around the world. MR PRICE: For questions, we’ll start with Courtney McBride, Bloomberg. Stuff gets replaced; it gets destroyed; it gets replaced again. There’s a recognition that there’s also, in many ways, what the Europeans call a systemic rivalry between China and many of our countries. We’re simply looking to be clear-eyed about some of the challenges that China poses and, again, as I said, to make sure that in addressing those challenges we’re doing it with others. Everything that I heard today just reinforces the convergence on that point. And given the fact that a lot of the issues you and your aides are bringing up – mainly infrastructure issues, port usage, technology issues – these are all trade issues, and how do you expect officials in NATO to discuss very much trade-related issues when those are negotiated in other fora? So what we’re seeing and what we’re doing across a number of institutions, as well as in our relationships with individual countries, is to look at the areas where China poses a challenge to our interests and to our values, and to take appropriate steps accordingly. We want to make sure – and we are – that when it comes to exporting sensitive technologies to China that could go to further its own military capacity, that we’re cautious about that and that, again, we’re acting wherever possible together to make sure that, if we have export controls, we’re doing it in a coordinated manner. However, winter is coming, so how the United States will help Ukraine to protect this infrastructure from future attacks? And that’s something that the military and other planners are focused on. There was another very significant drawdown a year ago last Christmas – again, before the Russian aggression – and every week since then, we have continued to adapt to what’s happening to make sure that we could get Ukraine the systems that it needs to deal with the particular threat it was facing at any given time.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9631349444389343</v>
+        <v>0.9998360872268677</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Economic performance of Bahrain, Oman expected to improve as oil prices surge: S&amp;P - Arab News</t>
+          <t>India GDP Q2 Growth Highlights: India's Q2 GDP growth slows to 6.3%; economy on track to achieve 6.8-7% g... - Economic Times</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 13:00:58 GMT</t>
+          <t>Thu, 01 Dec 2022 04:11:00 GMT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RIYADH: With oil revenue projected to rise amid strengthening crude prices, S&amp;P Global Ratings expects Bahrain and Oman to improve their economic performance as the Gulf nations continue with their fiscal reforms. The global rating agency revised Bahrain’s outlook to positive from stable on expectations that solid growth in non-oil earnings and budget consolidation measures will help ease pressure on the country’s fiscal position. S&amp;P said it expects Bahrain's government to continue pursuing reforms to reduce fiscal deficits that will place debt to the gross domestic product on a more sustainable path. “We also assume the country's external vulnerabilities will decline amid current account surpluses over 2022-2024. We, therefore, revised our outlook on Bahrain to positive from stable and affirmed our 'B+/B' ratings,” said S&amp;P in its report released on Nov. 25. The rating agency kept its transfer and convertibility assessment on Bahrain unchanged at 'BB-'. “The positive outlook indicates that we expect the government will continue implementing fiscal reforms to reduce the budget deficit and benefit from additional support from other Gulf Cooperation Council sovereigns, if needed,” it said. As Bahrain looks at strong economic performance, with its GDP registering the fastest growth over a decade, it is positively impacting the Kingdom’s various sectors including real estate. This comes as the real estate transaction volumes in Bahrain improved in the third quarter of 2022, reaching a total of 5,482, according to American commercial real estate consultancy CBRE. The August month alone saw over 2,400 transactions, making it Bahrain’s second most successful month since 2018. The country’s newer and landmark office buildings hit their highest occupancy levels in the third quarter as occupiers continued with the flight to quality. Oman outlook stable Meanwhile, Oman’s outlook remains stable as S&amp;P expects the government's fiscal reform program and favorable prices for key export oil will strengthen the country’s fiscal and external metrics. “We expect a significant improvement in the economy's external balance sheet this year and for the government to return to a small net asset position in 2023. We, therefore, raised our long-term sovereign credit ratings on Oman to 'BB' from 'BB-',” said S&amp;P, adding that the outlook stays stable. The rating agency also revised its transfer and convertibility assessment to 'BB+' from 'BB' and affirmed its 'B' short-term sovereign credit rating on Oman. Higher oil prices coupled with the government's recent reforms have helped Oman better manage its fiscal and external positions. In addition to rebuilding fiscal buffers on the back of windfall oil revenue, S&amp;P said the Omani government has continued to reduce the budget's reliance on oil receipts, in line with its medium-term fiscal plan to 2025. “We expect fiscal reforms to continue, including the possible introduction of personal income tax on high earners and measures to increase value-added tax receipts,” it noted in the report.</t>
+          <t>India GDP Q2 Growth Highlights: India's Q2 GDP growth slows to 6.3%; economy on track to achieve 6.8-7% growth in current fiscal, says CEA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RIYADH: With oil revenue projected to rise amid strengthening crude prices, S&amp;P Global Ratings expects Bahrain and Oman to improve their economic performance as the Gulf nations continue with their fiscal reforms. We also assume the country's external vulnerabilities will decline amid current account surpluses over 2022-2024. Oman outlook stable Meanwhile, Oman’s outlook remains stable as S&amp;P expects the government's fiscal reform program and favorable prices for key export oil will strengthen the country’s fiscal and external metrics. “ We, therefore, raised our long-term sovereign credit ratings on Oman to 'BB' from 'BB-',” said S&amp;P, adding that the outlook stays stable.</t>
+          <t>India GDP Q2 Growth Highlights: India's Q2 GDP growth slows to 6.3%; economy on track to achieve 6.8-7% growth in current fiscal, says CEA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.9999996423721313</v>
+        <v>0.9992960691452026</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Technology can boost financial inclusion in Saudi Arabia - MEED</t>
+          <t>Bank of East Asia to sell insurance unit after activist pressure - Nikkei Asia</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 09:43:10 GMT</t>
+          <t>Wed, 23 Sep 2020 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The key to increasing financial inclusion in Saudi Arabia is collaboration between fintech companies and traditional banks, says Anas Zaidan of financial app Yap As Saudi Arabia moves closer to achieving its Vision 2030, technology and innovation play a key role. According to Saudi Arabia’s General Authority of Statistics, 36.7 per cent of the kingdom's population is aged 15-34 and has different needs from those of previous generations. One of the most critical is the need for financial inclusion, so that as these young people grow up to become adults, they have the necessary background in learning to save and spend responsibly. This is also paramount if the region is to achieve a cashless society as part of its agenda. While technology is disrupting many industries in the kingdom, it is creating an opportunity in the financial services sector – one that can benefit young people specifically. With its high youth population, Saudi Arabia is also home to a large population of digital adopters who see mobile devices as the gateway to the rest of the world. Kids are becoming more tech-savvy from a younger age as they are increasingly exposed to aspects of everyday life through a digital lens, now that everything can be done at a touch of a button. For example, we are seeing a growing number of kids selecting and ordering food for the family, shopping, booking cars – and with an added element of gamification. This is all because apps and mobile services are increasingly helping to make the day-to-day more seamless and trusted in the household. Banking on technology Technology is rapidly disrupting Saudi Arabia’s banking landscape. In the first three quarters of 2022, the kingdom has made progress towards achieving its digital transformation goals. Alongside the expansion of the Internet of Things, this is also evident in the rise of financial technology (fintech) players that have emerged in the region, paired with correlating consumer uptake. A few years ago, the financial sector in the Middle East had seen little transformation, yet with the advent of platform-based banking, alternative payment methods and various digital financial products, there has been a rise in the number of banked Saudis. The growing fintech sector has not only played a key role in solving predisposed consumer pain points, but also in helping to close the financial inclusion gap. This is because technology companies are agile – we can adapt our products and services quickly in response to the demands of the market, and scale for the future using a data-driven approach. However, we believe that fintech companies and bricks-and-mortar financial institutions need to work collaboratively rather than in silos. Both these entities bring complementary skills that not only keep the sector at pace, but also enhance the opportunity for a wider cohort of underbanked groups to try a new approach to financial services. Fintech companies and bricks-and-mortar financial institutions need to work collaboratively rather than in silos Fintech companies’ nimbleness enables us to learn from our consumers’ patterns and identify products and services to help them. Banks keep regulatory processes synchronised and are trusted establishments for many. Some consumer groups have yet to move past cash on delivery or physically visiting the bank to pay in a cheque because they trust what they are used to. This is where banks and fintech firms can work hand in hand. Simplifying financial processes Saudi Arabia has adopted a digital mindset enabling fintech companies with the tools that simplify the Know Your Customer (KYC) process, a due diligence process that financial firms use to verify the identity of their customers and assess and monitor customer risk. This means it is easier to onboard those that live in remote areas or that have not used a bank before. But it is where regulation must keep up with our sector as the industry proliferates more products. As the region becomes a powerhouse for the global economy, it is imperative that every household member feels empowered to manage their finances in much the same way that they might choose what meal to get on a food delivery app. As the first independent financial super app for the Middle East, South Asia and Africa, YAP is creating an ecosystem for users to manage their finances all in one place, and from a mobile device. There is no cost to sign up and no minimum salary or minimum balance requirement, meaning it is accessible to all. We have created a digital financial toolkit that anyone can use. By everyone, we mean young people as well. We have created a special product for them called YAP Young, which provides parents with the ability to bring financial literacy into their children’s lives by allowing them to create a sub-bank account for their children. They receive a prepaid card and access to the app. Parents can also set up spending limits and card controls and children can earn money by completing missions – a more engaging way to say 'household chores'. This encourages children to save for things that really matter to them with savings goals. By teaching people from a young age how to save and spend wisely, we are investing in our children’s futures. Anas Zaidan is the co-founder and managing director of YAP, the first financial super app for consumers and businesses in the Middle East, Africa and South Asian markets</t>
+          <t>HONG KONG -- Bank of East Asia, the Hong Kong-based lender besieged by activist investor Elliott Management, has agreed to sell its life insurance unit, likely worth as much as $600 million, and seek a partner for its China business after a review aimed at boosting its profits and stock performance. The 102-year-old bank, which counts Sumitomo Mitsui Banking Corp. as its biggest shareholder, said it plans to seek "strategic and synergistic partnerships" for its mainland China banking business. Bank of East Asia also said in a statement that it was eyeing a long-term exclusive distribution agreement with the buyer of BEA Life, gaining a potential new source of revenue.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>The key to increasing financial inclusion in Saudi Arabia is collaboration between fintech companies and traditional banks, says Anas Zaidan of financial app Yap As Saudi Arabia moves closer to achieving its Vision 2030, technology and innovation play a key role. One of the most critical is the need for financial inclusion, so that as these young people grow up to become adults, they have the necessary background in learning to save and spend responsibly. This is also paramount if the region is to achieve a cashless society as part of its agenda. While technology is disrupting many industries in the kingdom, it is creating an opportunity in the financial services sector – one that can benefit young people specifically. However, we believe that fintech companies and bricks-and-mortar financial institutions need to work collaboratively rather than in silos. As the region becomes a powerhouse for the global economy, it is imperative that every household member feels empowered to manage their finances in much the same way that they might choose what meal to get on a food delivery app. We have created a digital financial toolkit that anyone can use.</t>
+          <t>HONG KONG -- Bank of East Asia, the Hong Kong-based lender besieged by activist investor Elliott Management, has agreed to sell its life insurance unit, likely worth as much as $600 million, and seek a partner for its China business after a review aimed at boosting its profits and stock performance. The 102-year-old bank, which counts Sumitomo Mitsui Banking Corp. as its biggest shareholder, said it plans to seek "strategic and synergistic partnerships" for its mainland China banking business.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2780,28 +2864,28 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.9300726652145386</v>
+        <v>0.8533525466918945</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Dharmaj Crop Guard IPO opens tomorrow; 10 things to know before subscribing the issue - Moneycontrol</t>
+          <t>Former BEA Senior Figure Joins EFG Bank Hong Kong - Wealth Briefing</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 10:58:50 GMT</t>
+          <t>Fri, 03 Dec 2021 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dharmaj Crop Guard IPO live bse live nse live Volume Todays L/H More × Agrochemical company Dharmaj Crop Guard's Rs 251.15-crore initial public offering (IPO) will be launched this week, the ninth public issue to open for subscription in November. Here are 10 key things to know before subscribing to the offer: 1) IPO dates The public issue will open for bidding on November 28 and close on November 30, 2022. 2) Price band The offer price has been fixed at Rs 216-237 a share. 3) IPO size The company aims to raise Rs 251.15 crore through the offer at the upper price band. The issue comprises a fresh issue of shares worth Rs 216 crore and a sale of 14.83 lakh shares by promoters. Promoters Manjulaben Rameshbhai Talavia will offload 7.09 lakh shares, Muktaben Jamankumar Talavia 6.56 lakh shares, Domadia Artiben 87,500 shares and Ilaben Jagdishbhai Savaliya 30,000 shares, the company has said. Click Here To Read All IPO Related News The company has reserved 55,000 shares for its employees who will get them a discount of Rs 10 a share to the final offer price. Dharmaj Crop had already raised Rs 75 crore through the anchor book. 4) Objectives of the IPO The fresh issue proceeds will be used for setting up a manufacturing facility at Saykha in Gujarat (nearly Rs 105 crore) and to meet working capital requirements (Rs 45 crore) and for general corporate purposes. The company will also pay its debts through fresh issue proceeds (Rs 10 crore), while the offer for sale money will go to promoters. As of July 2022, the company's borrowings stood at Rs 51.56 crore, significantly up from Rs 36.9 crore as of March 2022. 5) Lot size Investors can bid for a minimum of 60 shares and in multiples of 60 shares thereafter. Retail investors can apply for a minimum of Rs 14,220 worth of shares and the maximum would be Rs 1,99,080 for 14 lots. Half of the offer is reserved for qualified institutional buyers, 15 percent for non-institutional investors and the remaining 35 percent for retail investors. 6) Company profile Dharmaj Crop is an agrochemical company engaged in the business of manufacturing, distributing, and marketing a range of agro-chemical formulations such as insecticides, fungicides, herbicides, plant-growth regulator, micro fertilisers and antibiotic to B2C and B2B customers. The company exports to more than 25 countries in Latin America, East Africa, the Middle East and Far East Asia. It has 464 registrations for agrochemical formulations from the Central Insecticide Board and Registration Committee (CIB&amp;RC), of which 269 agrochemical formulations are for sale in India as well as abroad and 195 are exclusively for exports. It has also applied for registrations of 18 agrochemical formulations and 17 agrochemical technicals. It has 157 trademark registrations. Dharmaj has a manufacturing facility in Ahmedabad with an installed capacity of 25,500 MT for agro-chemical formulations. The company sells its branded products in 17 states through 4,362 dealers. As of September 2022, it had more than 154 institutional products sold to more than 600 customers. Some of its key customers include Atul, Heranba Industries, Innovative Agritech, Meghmani Industries, Bharat Rasayan, Oasis, United Insecticides, and Sadik Agrochemicals. 7) Financials Dharmaj Crop's profit grew 37 percent in FY22 at Rs 28.69 crore from the previous year. The operating revenue for the year ended March 2022 grew by 30 percent to Rs 394.2 crore from the previous year and growth in FY21 was 53 percent, primarily due to an increase in sales of branded products, institutional sales and the addition of more dealers and customers. Even at operating level, EBITDA (earnings before interest, tax, depreciation and amortisation) surged 42.4 percent to Rs 44.3 crore in FY22 and the the same in FY21 increased by 74 percent compared to FY20. The margin, too, has been expanding at 11.2 percent in FY22 against 10.3 percent in FY21 and 9 percent in FY20. For the four months period ended July FY23, the profit was Rs 18.4 crore on revenue of Rs 220.9 crore with the EBITDA margin at 12.2 percent. 8) Promoters Promoter Rameshbhai Ravajibhai Talavia, who is the managing director, has over 28 years of experience in the agrochemical industry, while Jamankumar Hansarajbhai Talavia, a whole time director, has spent 22 years in the industry. Another whole-time director, Jagdishbhai Ravjibhai Savaliya has more than 21 years of experience in the sector, while Chief Financial Officer Vishal Domadia has over 12 years of experience. The company is owned by its promoters and after the IPO, their shareholding will be reduced to around 73 percent. 9) Risks and concerns Here are some risks and concerns highlighted by KRChoksey Research, Anand Rathi, and Swastika Investmart: a) The availability and price of raw materials are subject to a number of factors beyond the company's control. Any interruption in the supply or volatility in the prices may negatively impact the ability of DCGL to operate its production facilities. b) A change in product mix will impact the company’s revenue and profit margins. c) Forex fluctuations might impact its revenue stream from international clients. d) Inability to obtain required registrations and government approvals for its products might hamper the company's profitability. e) The company depends on the success of its relationships with its customers. The loss of one or more customers, the deterioration of their financial condition or prospects, or a reduction in their demand could adversely affect the business. f) Increasing use of alternative pest management and crop-protection measures such as biotechnology products, pest-resistant seeds or genetically modified crops may reduce demand for their products and adversely affect the business. g) Its manufacturing facility is concentrated in a single region and the inability to operate and grow business in this particular region may have an adverse effect on its business. h) A change in government policies towards the agriculture sector or a reduction in subsidies and incentives to farmers could adversely affect the business. i) The company faces competition from both domestic and multinational corporations and an inability to compete effectively could result in a loss of customers. 10) Listing date The company will finalise IPO share allotment by December 5. Refunds will be transferred to the bank accounts of unsuccessful investors and shares credited to the demat accounts of eligible investors by December 6. Dharmaj Crop will make its market debut on December 8. Elara Capital (India) and Monarch Networth Capital are the lead managers to the offer, while Link Intime India is the registrar to the IPO. Disclaimer: The views and investment tips expressed by experts on Moneycontrol.com are their own and not those of the website or its management. Moneycontrol.com advises users to check with certified experts before taking any investment decisions.</t>
+          <t>Jessica Ng is joining after working at Bank of East Asia in various roles for two decades. EFG Bank Hong Kong today announced that it is appointing Jessica Ng as the new head of private banking for Hong Kong, with immediate effect. She will succeed Richard Straus, who has decided to retire at the end of March 2022, the bank said in a statement. Straus will work with Ng in the coming months to ensure a smooth handover. Ng, who will report to Kees Stoute, chief executive and business head for Hong Kong, EFG Bank Hong Kong Branch, will become a member of the Asia business committee, EFG said in a statement. Prior to this, Ng worked at bank of East Asia, where she spent 20 years in various senior positions and had served as head of private banking since 2017. She holds a master’s in business administration from the City University of Hong Kong and a bachelor of arts from the University of Hong Kong. “With her vast knowledge and experience of private banking and her deep understanding of the local markets, Jessica will be a significant addition to our senior management team. In her new role, she will focus on driving the business forward and on further strengthening the bank’s strategic development to deliver long-term, sustainable success,” Stoute said.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Dharmaj Crop Guard IPO live bse live nse live Volume Todays L/H More × Agrochemical company Dharmaj Crop Guard's Rs 251.15-crore initial public offering (IPO) will be launched this week, the ninth public issue to open for subscription in November. 4) Objectives of the IPO The fresh issue proceeds will be used for setting up a manufacturing facility at Saykha in Gujarat (nearly Rs 105 crore) and to meet working capital requirements (Rs 45 crore) and for general corporate purposes. Retail investors can apply for a minimum of Rs 14,220 worth of shares and the maximum would be Rs 1,99,080 for 14 lots. It has 464 registrations for agrochemical formulations from the Central Insecticide Board and Registration Committee (CIB&amp;RC), of which 269 agrochemical formulations are for sale in India as well as abroad and 195 are exclusively for exports. Even at operating level, EBITDA (earnings before interest, tax, depreciation and amortisation) surged 42.4 percent to Rs 44.3 crore in FY22 and the the same in FY21 increased by 74 percent compared to FY20. The margin, too, has been expanding at 11.2 percent in FY22 against 10.3 percent in FY21 and 9 percent in FY20. Another whole-time director, Jagdishbhai Ravjibhai Savaliya has more than 21 years of experience in the sector, while Chief Financial Officer Vishal Domadia has over 12 years of experience. 9) Risks and concerns Here are some risks and concerns highlighted by KRChoksey Research, Anand Rathi, and Swastika Investmart: a) The availability and price of raw materials are subject to a number of factors beyond the company's control. b) A change in product mix will impact the company’s revenue and profit margins. Disclaimer: The views and investment tips expressed by experts on Moneycontrol.com are their own and not those of the website or its management.</t>
+          <t>Jessica Ng is joining after working at Bank of East Asia in various roles for two decades. Ng, who will report to Kees Stoute, chief executive and business head for Hong Kong, EFG Bank Hong Kong Branch, will become a member of the Asia business committee, EFG said in a statement.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2810,200 +2894,200 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.999985933303833</v>
+        <v>0.9999877214431763</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Trade remedies system to boost competitiveness, says Saudi commerce minister - Arab News</t>
+          <t>Reforms for Recovery: East Asia and Pacific Economic Update, October 2022 - World Bank Group</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 13:13:10 GMT</t>
+          <t>Tue, 27 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RIYADH: A trade remedies system for international trade is set to lure investment and boost the competitiveness of domestic products, said the Saudi Minister of Commerce Majid Bin Abdullah Al-Qasabi. The trade remedies will also help curb potential damage subsequent to an increase in imports by imposing measures against these imports at the Kingdom’s customs borders, the minister highlighted. Al-Qasabi who is also the Chairman of the Board of Directors of the General Authority for Foreign Trade stressed that the trade remedies system will play a crucial role in shielding the Kingdom’s national industry from the damage that comes as a result of the dumped as well as subsidized imports. Moreover, the system will also ensure maintaining the Kingdom’s exports that are subject to trade remedies procedures, the minister emphasized. The minister said the cabinet’s approval related to the system is also set to create new industries and generate job opportunities, all in line with the goals and objectives of Saudi Arabia’s Vision 2030, reported Saudi Press Agency. Last month, the Saudi General Authority for Foreign Trade, in collaboration with the World Trade Organization, hosted a workshop in Riyadh from Oct. 25-27. The workshop, titled “Market Access,” was held by a group of international experts at the WTO. It included a number of representatives from government agencies. The event aimed to build the skills of specialists in government agencies through an understanding of market access, customs and non-tariff procedures, and the work of the WTO. It also demonstrated how participants can benefit from WTO databases. The workshop aimed to foster technical expertise and knowledge of the basic principles and rules of the WTO related to tariffs and concession schedules, ongoing issues being discussed at WTO, the Kingdom’s obligations toward other countries in trade agreements and the best practices of other countries. Established in Jan. 2019, the General Authority of Foreign Trade is accountable for enhancing international commercial gains and investment activities in the Kingdom while defending its interests in the foreign trade field, thus contributing to the development of its national economy.</t>
+          <t>Recovery has been uneven across East Asia Pacific (EAP) countries, and output remains below pre-pandemic levels in many of the region’s economies. Nonetheless, growth rebounded in most EAP countries in the first half of 2022. Most of the region is projected to grow faster and have lower inflation than other regions. China, however, lost momentum; its activity slowed in the second quarter of 2022. Poverty in the region is expected to decline, supported by continued recovery from the pandemic. Beyond the end of this year however, three factors could be a drag on growth: global deceleration, rising debt, and policy distortions... Read this section of the report: On desktop | On mobile</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RIYADH: A trade remedies system for international trade is set to lure investment and boost the competitiveness of domestic products, said the Saudi Minister of Commerce Majid Bin Abdullah Al-Qasabi. Al-Qasabi who is also the Chairman of the Board of Directors of the General Authority for Foreign Trade stressed that the trade remedies system will play a crucial role in shielding the Kingdom’s national industry from the damage that comes as a result of the dumped as well as subsidized imports. It included a number of representatives from government agencies.</t>
+          <t>Recovery has been uneven across East Asia Pacific (EAP) countries, and output remains below pre-pandemic levels in many of the region’s economies. China, however, lost momentum; its activity slowed in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.9081262946128845</v>
+        <v>0.9999551773071289</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Shelling Reported Across Ukraine As Authorities Work To Restore Power - Radio Free Europe / Radio Liberty</t>
+          <t>Bank of East Asia caves to pressure for review of operations - Nikkei Asia</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 09:45:24 GMT</t>
+          <t>Wed, 04 Mar 2020 08:00:00 GMT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>KYIV -- President Volodymyr Zelenskiy declared that Ukraine “cannot be broken” as he cited his country’s fight against the Russian invasion and marked the anniversary of the famine regarded by Ukrainians to be a deliberate act perpetrated by Soviet dictator Joseph Stalin. Live Briefing: Russia's Invasion Of Ukraine RFE/RL's Live Briefing gives you all of the latest developments on Russia's ongoing invasion, Kyiv's counteroffensive, Western military aid, global reaction, and the plight of civilians. For all of RFE/RL's coverage of the war, click here. "Ukrainians went through very terrible things...Once they wanted to destroy us with hunger -- now, with darkness and cold," Zelenskiy said on November 26 in a video message. "We cannot be broken," he declared. The prime ministers of EU and NATO members Belgium, Lithuania, and Poland were in Kyiv to mark the day and to attend a summit hosted by Zelenskiy to press the “Grain From Ukraine” initiative designed to get crucial supplies to world markets. German Chancellor Olaf Scholz and French President Emmanuel Macron were among those speaking through video addresses. Zelenskiy’s remarks came amid widespread cuts in power and water supplies in his country after weeks of Russian strikes on Ukrainian infrastructure and as temperatures plunge with the beginning of winter. Zelenskiy and other leaders commemorated the victims of the Holodomor famine, which took place in 1932-33 as Stalin's police forced peasants in Ukraine to join collective farms by requisitioning their grain and other foodstuffs. Historians say the failure to properly harvest crops in Ukraine in 1932 under Soviet mismanagement was the main cause of the famine. It is estimated that up to 9 million people died as a result of executions, deportation, and starvation during the Stalin-era campaign. Many Ukrainians consider the famine an act of genocide aimed at wiping out Ukrainian farmers. Along with Ukraine, at least 16 other countries have officially recognized the Holodomor as “genocide.” In October 2018, the U.S. Senate adopted a nonbinding resolution recognizing that Stalin and those around him committed genocide against the Ukrainians in 1932-33. German lawmakers are preparing to recognize the Holodomor as genocide, according to a draft text seen by the AFP news agency of a joint resolution from Germany's ruling coalition and opposition. Moscow has long denied any systematic effort to target Ukrainians, arguing that a poor harvest at the time wiped out many in other parts of the Soviet Union. Polish Prime Minister Mateusz Morawiecki said that he "honored the memory of the Holodomor victims" at a memorial in the Ukrainian capital. Belgian Prime Minister Alexander De Croo, on his first visit to Kyiv since the Russian invasion, said on Twitter that "after the heavy bombing of recent days, we stand with the people of Ukraine. More than ever before." "With the cold winter months ahead, Belgium is releasing new humanitarian and military aid," he added. Zelenskiy told the grain summit that Kyiv is one of the guarantors of world food security and will fulfill its duties despite the Russian invasion, citing the new “Grain From Ukraine” initiative. He pressed world leaders to support the initiative aimed at feeding about 5 million people in poor countries, particularly Ethiopia, Sudan, South Sudan, Somalia, Yemen, Congo, Kenya, and Nigeria. Speaking through video statements to the summit, Scholz and Macron unveiled new financial packages designed to aid Ukrainian grain exports, which have been hit hard by the war, causing food shortages in many of the world’s poorer nations. "The most vulnerable countries must not pay the price of a war they did not want," Macron said. Zelenskiy said the Black Sea Grain Initiative -- brokered by Turkey and the UN and agreed to by Russia and Ukraine -- is not operating at full capacity, blaming what he called Moscow's efforts to delay the movement of ships, leaving many vessels trapped at Ukrainian ports. The deal took effect in August, aimed at unblocking grain shipments to countries in Africa, the Middle East, and parts of Asia. Ukraine and Russia are key global suppliers of wheat, barley, sunflower oil, and other food to those countries, and Russia was the world's top exporter of fertilizer before it launched its ongoing invasion of Ukraine in February. Many in the West have accused Russia of weaponizing the shipment of crucial food-related supplies to world markets. Moscow denies the accusations. Meanwhile, throughout Ukraine, millions of people are still without heat or electricity after the recent devastating Russian air strikes on infrastructure sites. Authorities on November 26 were gradually restoring power in many cities -- helped by the reconnection to the grid of the nation’s four nuclear plants. Fighting between Russian and Ukrainian forces was reported in the east and south of the country, as Kyiv’s troops continue their counteroffensive, which has recaptured thousands of kilometers of territory seized by Russia early in the war. In the recently liberated southern city of Kherson and its environs, authorities said at least 32 people have been killed by Russian shelling since pro-Kremlin forces withdrew two weeks ago and moved to the eastern bank of the Dnieper River. "Daily Russian shelling is destroying the city and killing peaceful local residents. In all, Russia has killed 32 civilians in the Kherson region since the de-occupation," Ihor Klymenko, chief of the National Police of Ukraine, said on Facebook. "Many people are evacuating to seek refuge in calmer regions of the country. But many residents remain in their homes, and we need to provide them with the maximum possible security," he added. With reporting by AFP and AP</t>
+          <t>HONG KONG -- Bank of East Asia, which counts Sumitomo Mitsui Banking Corp. as its biggest shareholder, has submitted under pressure from activist investor Elliott Management and announced a review that could lead to a sale of assets, sending its shares higher on Wednesday. The 101-year-old Hong Kong-based bank, which last month reported that profit fell by half in 2019 to a 10-year low due to a surge in loan losses in its mainland China business, said in a statement on Wednesday that it has engaged Goldman Sachs as its financial adviser for the review and will update investors by June 30.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>KYIV -- President Volodymyr Zelenskiy declared that Ukraine “cannot be broken” as he cited his country’s fight against the Russian invasion and marked the anniversary of the famine regarded by Ukrainians to be a deliberate act perpetrated by Soviet dictator Joseph Stalin. It is estimated that up to 9 million people died as a result of executions, deportation, and starvation during the Stalin-era campaign. In October 2018, the U.S. Senate adopted a nonbinding resolution recognizing that Stalin and those around him committed genocide against the Ukrainians in 1932-33. Zelenskiy said the Black Sea Grain Initiative -- brokered by Turkey and the UN and agreed to by Russia and Ukraine -- is not operating at full capacity, blaming what he called Moscow's efforts to delay the movement of ships, leaving many vessels trapped at Ukrainian ports. Meanwhile, throughout Ukraine, millions of people are still without heat or electricity after the recent devastating Russian air strikes on infrastructure sites. Authorities on November 26 were gradually restoring power in many cities -- helped by the reconnection to the grid of the nation’s four nuclear plants. Fighting between Russian and Ukrainian forces was reported in the east and south of the country, as Kyiv’s troops continue their counteroffensive, which has recaptured thousands of kilometers of territory seized by Russia early in the war.</t>
+          <t>HONG KONG -- Bank of East Asia, which counts Sumitomo Mitsui Banking Corp. as its biggest shareholder, has submitted under pressure from activist investor Elliott Management and announced a review that could lead to a sale of assets, sending its shares higher on Wednesday. The 101-year-old Hong Kong-based bank, which last month reported that profit fell by half in 2019 to a 10-year low due to a surge in loan losses in its mainland China business, said in a statement on Wednesday that it has engaged Goldman Sachs as its financial adviser for the review and will update investors by June 30.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9892115592956543</v>
+        <v>0.9950283169746399</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Second person dies after being critically injured in Jerusalem bomb blasts - WION</t>
+          <t>Latest News Live Updates: Islamic State group announces death of leader Hashimi al-Qurashi, replacement a... - Economic Times</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 11:20:18 GMT</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>An Israeli man succumbed to his injuries and passed away, on Saturday, after he had sustained injuries in one of the twin blasts that hit Jerusalem, raising the death toll from the attack to two. Earlier this week, Jerusalem was hit by two explosions, one of which resulted in the death of Aryeh Schupak, a 15-year-old Israeli-Canadian national. The victim who recently passed away was a man named Tadesse Teshome Ben Ma’ada, said the Shaare Zedek Medical Centre in Jerusalem. They also said that he was critically injured after the first blast that took place on Wednesday near a typically crowded bus stop on the outskirts of the city. ALSO READ | 16-year-old boy killed, 22 injured in two explosions near bus stops in Jerusalem “The trauma and intensive care teams of Shaare Zedek fought for his life, but unfortunately his injury was very fatal,” said the hospital in a statement. It added, “We offer our deepest condolences to the family.” The 50-year-old immigrated from Ethiopia nearly two decades ago, said the local media reports. ALSO WATCH | The West Asia Post: Twin blasts rock Jerusalem The city was rocked by two explosions on Wednesday morning (November 23) within an hour. According to media reports, the first one took place at around 7:00 am at the main entrance of Jerusalem in Givat Shaul. At 7:30 a second blast was reported at the Ramot junction which is another entrance to the city. ALSO READ | 18-year-old Palestinian kills three Israelis in West Bank At least 18 injuries were reported at the time while three were in critical condition after the attack. Subsequently, the Israeli police blamed Palestinians but no group has claimed responsibility yet. This comes amid a rise in tensions between Israelis and Palestinians and an uptick in attacks from both sides. (With inputs from agencies) WATCH WION LIVE HERE</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>An Israeli man succumbed to his injuries and passed away, on Saturday, after he had sustained injuries in one of the twin blasts that hit Jerusalem, raising the death toll from the attack to two. ALSO READ | 16-year-old boy killed, 22 injured in two explosions near bus stops in Jerusalem “The trauma and intensive care teams of Shaare Zedek fought for his life, but unfortunately his injury was very fatal,” said the hospital in a statement. According to media reports, the first one took place at around 7:00 am at the main entrance of Jerusalem in Givat Shaul.</t>
-        </is>
-      </c>
+          <t>Wed, 30 Nov 2022 19:12:00 GMT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.5066425800323486</v>
+        <v>0.9673531651496887</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Petromin's National Motor Co. wins 'Best Automotive Dealer' award in the Kingdom for 2022 - Arab News</t>
+          <t>Bank of East Asia picks fencers Edgar Cheung and Cheung Siu-lun as brand ambassadors - Marketing Interactive</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 14:07:46 GMT</t>
+          <t>Fri, 22 Oct 2021 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Middle East Asia-Pacific to account for 58% of global air passengers by 2040: ACI RIYADH: Air passenger demand is likely to double globally over the next 20 years, with Asia-Pacific and the Middle East accounting for 58 percent of the volume, according to a report by Airports Council International. Global passenger numbers are forecast to rise from 9.2 billion in 2019 to about 19 billion in 2040 predicted the ACI Asia-Pacific's Airport Industry Outlook, a quarterly assessment of the airports' performances. Of this volume, Middle Eastern airports are expected to handle 1.1 billion passengers by 2040 – a significant increase of nearly 300 percent of the combined traffic of 505 million they handled in 2019. ACI Director General of ACI Asia-Pacific Stefano Baronci said that the region must prepare itself for the oncoming influx: "The consistent improvement in passenger volumes in the region is a positive indication of a sustained recovery of the industry following prolonged efforts towards rebuilding passenger confidence in air travel." He said restoring international connectivity will take longer and will be partly dependent on the decision of China to re-connect to the World. "The macroeconomic headwinds, less acute in Asia than other western regions, should not hamper a process of growth, subject to continue to maintain the freedom to travel without restrictions." "All the stakeholders engaged in the aviation ecosystem must prepare to the surge in traffic,” insisted the ACI director general. The Middle East is an ideally located axis for travel — aircraft flying from the geographical crossroads can reach almost all of Asia, Africa, and Europe within eight hours. Tourism is one of the pillars of the Kingdom’s Vision 2030, to contribute to diversifying the base of the national economy, attracting investments, increasing sources of income, and providing job opportunities for citizens, as the sector is witnessing rapid growth as a result of plans to promote the tourism sector. Last month, a report by the World Tourism Organization listed Saudi Arabia as top of the Group of 20 countries for the flow rating of international tourists in the first seven months of 2022. The report, released during the G20 tourism ministers’ meeting held in Bali, Indonesia, did not detail the exact number of travelers who visited the Kingdom, but claimed the sector saw a growth rate of 121 percent in the first half of 2022. During the event, Saudi Arabia’s Tourism Minister Ahmed Al-Khateeb said the surge in tourist inflow aligns with the Kingdom’s economic diversification policies and aims to increase tourism’s contribution to the country’s gross domestic product, as outlined in Vision 2030, the Saudi Press Agency reported. Calling Saudi Arabia one of the fastest-growing markets for tourism, Al-Khateeb said the Kingdom’s tourism sector is accelerating at a rate of 14 percent compared to the pre-coronavirus pandemic period. Prior to the COVID-19 pandemic, 450,000 tourist visas were issued, since the Kingdom’s Tourism Authority launched the tourist visa program in 2019, by targeting 49 countries in the initial stage, and facilitated access to tourist visas electronically or through entry points to the Kingdom within specific regulatory controls. Earlier in June, Al-Khateeb said that Saudi Arabia has allocated $100 million to provide training for 100,000 people to work in the tourism and sustainability sector. He added that 90 hotels were launched in the Kingdom as a part of its tourism strategy, and more hotels will be opened soon, with 70 percent being funded by the private sector. Al-Khateeb, in June, told AFP that the Kingdom is hoping to attract 12 million foreign visitors in 2022, up from the 4 million tourists who visited Saudi Arabia in 2021. “Saudi Arabia will change the tourism landscape globally. The destinations that Saudi will offer by 2030, it’s something completely different,” he said.</t>
+          <t>The Bank of East Asia (BEA) and its subsidiary Blue Cross Asia Pacific Insurance (Blue Cross) have appointed fencers Edgar Cheung Ka-long and Cheung Siu-lun as brand ambassadors. The group said it has been investing resources into cultivating local athletes and supporting sports development. Since 2015, the company has supported the development of fencing in Hong Kong through Blue Cross, including title sponsorship of the Hong Kong Open Fencing Championships organised by the Hong Kong Fencing Association for six consecutive years, as well as the Asian Fencing Championships in 2017. The BEA Group also supports various youth fencing training programmes that nurture potential fencing talent. “Insurance and fencing share a common core value; whether in life or in competition. We believe that formulating a comprehensive strategy and planning wisely with sufficient protection will allow us to be both defensive and offensive at the same time, and lead us to success. Edgar Cheung and Cheung Siu-lun are excellent fencers, and this partnership will further promote our outstanding products and services to a wider target audience," said Patrick Wan, managing director of Blue Cross. “We’ve worked closely with Blue Cross for many years. In addition to supporting the Hong Kong Open Fencing Championships, in 2018 Blue Cross helped host a competition in a shopping mall, the first of its kind in the city, which greatly increased public awareness of fencing. Being appointed by BEA as its brand ambassador symbolises the importance both parties attach to long-term commitment," said Cheung Siu-lun. Looking ahead, BEA and Blue Cross said they will continue promoting fencing, with an aim to bring a positive vibe to the community through continuous collaborations with the two athletes and a series of brand endorsement activities, adding that they also recognise the importance of youth development, and provide support in many aspects for all-round development of younger members of society, which will improve their personal resilience, build self-confidence and allow them to discover their potential. “Homegrown athletes Edgar Cheung and Cheung Siu-lun have achieved remarkable success, with their perseverance in various fencing competitions truly demonstrating the spirit of Hong Kong. BEA, with over a century of customer service excellence and deep roots in Hong Kong, shares the same belief and spirit these two incredible athletes have in pushing beyond limits. Therefore, we would like to continue a long-term relationship with them and support local sports together," said Adrian Li, co-chief executive of BEA. Previously, MARKETING-INTERACTIVE spoke to industry experts on brand support for athletes. Jonathan Cummings, APAC president of Landor &amp; Fitch, said "Brand advocacy is a two-way street. Just as brands work with successful athletes to raise their profiles, brands too have the ability to raise the profile of rising sports stars. The raw star power of many athletes is an instant way to resonate with and attract consumers. Cummings added that what is important in any sponsorship is sustainability – be it through marketing or advocacy." Cummings added that there are some benefits that athletes can offer. For example, the momentous and ephemeral nature of watching live sports is often followed by a sustained fandom for athletes off the pitch. "Sports are universal, it’s not bound by any cultural or linguistic barriers and the followers of the athletes are from everywhere. That's why footballer Cristiano Ronaldo has the most followers on Instagram, while Nike, adidas and Under Armour are among the highest value apparel brands. It’s because they leverage the universal appeal of sports in their own brand expression." Strengthen your omnichannel marketing capabilities today with MARKETING-INTERACTIVE's Omnichannel Marketing Asia on 23 November. Learn ways to build an evidence-based practice, up the ante on your strategies, and be head and shoulders above your competition. Click here to register today! Related articles Olympian City celebrates HK athletes with interactive exhibition on history and glory Will HK's success in sports see more marketing dollars for emerging athletes? Brands in HK celebrate Edgar Cheung's triumphant gold at the Olympics</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Middle East Asia-Pacific to account for 58% of global air passengers by 2040: ACI RIYADH: Air passenger demand is likely to double globally over the next 20 years, with Asia-Pacific and the Middle East accounting for 58 percent of the volume, according to a report by Airports Council International. Prior to the COVID-19 pandemic, 450,000 tourist visas were issued, since the Kingdom’s Tourism Authority launched the tourist visa program in 2019, by targeting 49 countries in the initial stage, and facilitated access to tourist visas electronically or through entry points to the Kingdom within specific regulatory controls. Al-Khateeb, in June, told AFP that the Kingdom is hoping to attract 12 million foreign visitors in 2022, up from the 4 million tourists who visited Saudi Arabia in 2021. “ The destinations that Saudi will offer by 2030, it’s something completely different,” he said.</t>
+          <t>The Bank of East Asia (BEA) and its subsidiary Blue Cross Asia Pacific Insurance (Blue Cross) have appointed fencers Edgar Cheung Ka-long and Cheung Siu-lun as brand ambassadors. Edgar Cheung and Cheung Siu-lun are excellent fencers, and this partnership will further promote our outstanding products and services to a wider target audience," said Patrick Wan, managing director of Blue Cross. “ In addition to supporting the Hong Kong Open Fencing Championships, in 2018 Blue Cross helped host a competition in a shopping mall, the first of its kind in the city, which greatly increased public awareness of fencing. Previously, MARKETING-INTERACTIVE spoke to industry experts on brand support for athletes. The raw star power of many athletes is an instant way to resonate with and attract consumers. Cummings added that what is important in any sponsorship is sustainability – be it through marketing or advocacy."</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9693971276283264</v>
+        <v>0.945112407207489</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Economic gloom to deepen? OECD raises inflation forecast - Economic Times</t>
+          <t>Hong Kong’s biggest banks raise prime rates for first time in 4 years - South China Morning Post</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 04:47:00 GMT</t>
+          <t>Thu, 22 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Central banks around the world must be steadfast in their inflation fight even though economies will suffer as a result, the OECD said this week.The organization boosted its 2023 inflation estimates and said it expects price increases the following year will remain above the targets set by many global central banks. While economies will slow because of tighter monetary policies, the OECD didn’t forecast a recession.Though a survey of US manufacturers showed a fifth month of shrinking activity, another report indicated a healthy increase in business investment. A survey of the euro area businesses indicated that any downturn may not be severe as initially expected.Meantime, the Bank of China eased reserve requirements for banks to help bolster the world’s second-largest economy.Here are some of the charts that appeared on Bloomberg this week on the latest developments in the global economy The world’s central banks must keep raising interest rates to fight pervasive inflation, even as the global economy sinks into a significant slowdown, according to the OECD. The organization raised inflation projections for next year and said that while the global economy will suffer a “significant growth slowdown,” it’s not forecasting a recession.This week saw more major rate hikes across the world, with 75 basis-point hikes in Sweden, New Zealand and South Africa and full percentage-point moves in Pakistan and Nigeria. Turkey went the opposite way, cutting rates by 150 basis points.Business activity contracted for a fifth month in November as demand faltered, while inflationary pressures continued to slowly ease. The S&amp;P Global flash composite purchasing managers’ index slid to the second-lowest level since the immediate aftermath of the pandemic.Orders placed with US factories for business equipment rebounded in October, suggesting capital spending plans are holding up in the face of higher borrowing costs and broader economic uncertainty. Core capital goods shipments jumped the most since the start of the year, suggesting a solid start to fourth-quarter gross domestic product Euro-area businesses see tentative signs that the region’s economic slump may be easing as record inflation cools and expectations for future production improve. A gauge measuring activity in manufacturing and services unexpectedly rose in November, according to S&amp;P Global.Sweden’s home-price decline accelerated in October, as the Nordic country gripped by the most severe housing slump in three decades shows what may lie ahead for many other developed economies.For the second time this year, China’s central bank cut the amount of cash lenders must hold in reserve, ramping up support for an economy racked by surging Covid cases and a continued property downturn. The People’s Bank of China reduced the reserve requirement ratio for most banks by 25 basis points.Signs are growing in China that local government debt burdens are becoming unsustainable. China’s 31 provincial governments have a stockpile of outstanding bonds that’s close to the Ministry of Finance’s risk threshold of 120% of income. A major cause of the financial squeeze is the property crisis.Australia has spent big to attract swathes of Indian tourists to its shores, signed a free-trade deal with post-Brexit Britain and uncovered new Middle East markets during its 30-month trade rift with China. Still, outside iron ore and other key commodities, there’s been substantial pain for exporters.Chile is set to lead the world into a steep interest rate-cutting cycle next year as inflation slows and its economy goes from boom to bust, according to swap markets. Traders are forecasting more than 5 percentage points in cuts in the next 12 months after a surprise inflation print last month and as the economy teeters on the edge of recession.Shipments of boats, vehicles and computer parts are leading Mexico’s export boom, showing growing US demand for industrial products from its southern neighbor. The export of boats produced in Mexico increased 266% in September compared to a year ago, the fastest-growing item among Mexican exports worth more than $100 million.(With assistance from Maya Averbuch, Sebastian Boyd, Valentina Fuentes, Sybilla Gross, William Horobin, John Liu, Yujing Liu, Swati Pandey, Reade Pickert, Jana Randow, Niclas Rolander, Zoe Schneeweiss and Ben Westcott)</t>
+          <t>Storm clouds hovered over the Hong Kong skyline on 6 June 2022. Photo: Felix Wong</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Central banks around the world must be steadfast in their inflation fight even though economies will suffer as a result, the OECD said this week. This week saw more major rate hikes across the world, with 75 basis-point hikes in Sweden, New Zealand and South Africa and full percentage-point moves in Pakistan and Nigeria. Core capital goods shipments jumped the most since the start of the year, suggesting a solid start to fourth-quarter gross domestic product Euro-area businesses see tentative signs that the region’s economic slump may be easing as record inflation cools and expectations for future production improve. For the second time this year, China’s central bank cut the amount of cash lenders must hold in reserve, ramping up support for an economy racked by surging Covid cases and a continued property downturn. Signs are growing in China that local government debt burdens are becoming unsustainable. Australia has spent big to attract swathes of Indian tourists to its shores, signed a free-trade deal with post-Brexit Britain and uncovered new Middle East markets during its 30-month trade rift with China.</t>
+          <t>Storm clouds hovered over the Hong Kong skyline on 6 June 2022.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9999940395355225</v>
+        <v>0.9999960660934448</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>International Commercial Cards Market Status by Manufactures, SWOT Analysis, Types and Competitors Study, Key - openPR</t>
+          <t>25 years since the East Asian financial crisis: 2 forgotten lessons - Brookings Institution</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 07:01:00 GMT</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+          <t>Thu, 07 Jul 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>My friend Bert Hofman, director of the East Asian Institute at the National University of Singapore, has just written an insightful account of the East Asian financial crisis. On July 2, 1997, exactly 25 years ago, the Thai authorities devalued the baht, triggering a wave of economic crises in East Asia with ripple effects onto other emerging economies including Russia and Brazil. Much has been written about the causes of the East Asian crisis and the policy responses of different countries. The crisis triggered a wave of structural reforms that undoubtedly strengthened East Asian economies to the point where they were relatively unaffected by the Great Recession in 2008 and 2009 great financial recession. It also seems to have spurred a learning culture that spread to other areas: Asian experiences in managing the SARS and avian flu outbreaks in 2003 helped them set up public health systems that were effective in managing the coronavirus. Yet there are two lessons of the East Asian financial crisis that seem to have been forgotten, but that are relevant to today’s economic concerns. The first lesson is that when economies are built on a faulty foundation, growth is not always beneficial. It can simply lead to an accumulation of risk. In the case of East Asia, the crack in the foundation was the assumption that pegging currency to the U.S. dollar through fixed exchange rate would not change much. These pegs were not formal but institutionalized into norms of behavior. East Asian policymakers, with their export orientation and strong links into global supply chains were commonly described as having a “fear of floating.” Banks, businesses, and government policymakers acted for years on the presumption that any deviations in bilateral exchange rates of their currency versus the U.S. dollar would be minimal. For all the talk and warnings of “stranded assets,” businesses, financial institutions, and many governments—including in the developing world—are still increasing exposure to fossil fuels. This is dangerous. The result was a huge buildup of currency mismatches on balance sheets. Large property and construction companies in the region developed real estate assets financed by borrowing in U.S. dollars. Banks and financial institutions used credit from abroad to expand loans to domestic businesses and small and medium enterprises. Governments used transactions in forward markets to disguise the size of their net foreign exchange reserves against which domestic credit was being issued. The consequence of these currency mismatches on so many balance sheets is that, when currencies were adjusted in the face of dollar shortages, the economic damage was devastating. The exact timing of the crisis origin in Thailand, and the spread to other countries, is still a matter of considerable academic debate. I personally favor explanations that revolve around the depreciation of the yen after 1995 causing Japanese banks to shrink their balance sheets and reduce dollar loan exposure—a $100 billion flight of capital out of the region in a few months. But the real point I am making is that an external shock had a huge economic impact even in economies that had long been seen as strong performers. What’s the relevance to today? Again, we see economies built on a faulty foundation—fossil fuels. We are in the throes of another energy crisis, but the response in advanced economies is to double down on oil and coal production, rather than accelerating the structural reforms to transition economies onto a more sustainable basis. For all the talk and warnings of “stranded assets,” businesses, financial institutions, and many governments—including in the developing world—are still increasing exposure to fossil fuels. This is dangerous. The second forgotten lesson from the East Asia crisis is that the onset of debt crises has more to do with weak institutions and low resilience than with debt indicators. Each of the affected East Asian countries had relatively strong macroeconomic fundamentals—low public debt levels, high growth, reasonable fiscal and current account balances, low inflation. Yet governments had to take on large debts to bail out banks and businesses (and in some instances to preserve a safety net for the poorest) when the crisis hit. Their finances were not resilient. Today, we hear concerns that investments in resilience to climate risks by developing country governments are not affordable because of their high level of indebtedness. Transitions from disaster response to disaster risk reduction are being put on hold. Nature-based solutions and human capital investments that build resilience are being postponed. This is backwards economics. The risks of a debt crisis in developing countries are growing not because of excessive spending by governments, but because access to financing for key projects to build resilience is shrinking. So, 25 years after the East Asian crisis, let’s remember two things. When economic foundations are faulty, it’s never too early to start to transition to a sustainable structure. Doing otherwise might support growth for a few years but exposes it to much larger downturns when a crisis hits. And let’s pay more attention to public institutions and the resilience of public finance when thinking about creditworthiness, and less attention to numerical debt thresholds with little explanatory power in predicting debt crises, when we assess the size and allocation of public spending. Ignoring these lessons is making the global economy weaker today than it need be.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>My friend Bert Hofman, director of the East Asian Institute at the National University of Singapore, has just written an insightful account of the East Asian financial crisis. On July 2, 1997, exactly 25 years ago, the Thai authorities devalued the baht, triggering a wave of economic crises in East Asia with ripple effects onto other emerging economies including Russia and Brazil. Banks and financial institutions used credit from abroad to expand loans to domestic businesses and small and medium enterprises. The consequence of these currency mismatches on so many balance sheets is that, when currencies were adjusted in the face of dollar shortages, the economic damage was devastating. I personally favor explanations that revolve around the depreciation of the yen after 1995 causing Japanese banks to shrink their balance sheets and reduce dollar loan exposure—a $100 billion flight of capital out of the region in a few months. Transitions from disaster response to disaster risk reduction are being put on hold. The risks of a debt crisis in developing countries are growing not because of excessive spending by governments, but because access to financing for key projects to build resilience is shrinking.</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9988240599632263</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Smart Banking Solutions Market – A Comprehensive Study by Key Players:IBM, Yinzhijie Tech, KingTeller Tech, Huawei, Sinodata, Hundsun, Parsa Technologies, GRG Banking, Sunyard, Chengdu Santai Electronics, Info-Vision Research Systems Inc., iCSha - Skegness Siren</t>
+          <t>Bank of America Sees Asian Telcos Turning Towers Into Treasure - Bloomberg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 14:03:20 GMT</t>
+          <t>Thu, 08 Sep 2022 07:00:00 GMT</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>The Latest published a market study on Smart Banking Solutions Market provides an overview of the current market dynamics in the Smart Banking Solutions space, as well as what our survey respondents— all outsourcing decision-makers— predict the market will look like in 2028. The study breaks the market by revenue and volume (wherever applicable) and price history to estimate the size and trend analysis and identify gaps and opportunities. Some of the players that are in coverage of the study are IBM, Yinzhijie Tech, KingTeller Tech, Huawei, Sinodata, Hundsun, Parsa Technologies, GRG Banking, Sunyard, Chengdu Santai Electronics, Info-Vision Research Systems Inc., iCSharp, Virtusa Get ready to identify the pros and cons of the regulatory framework, local reforms, and its impact on the Industry. Know how Leaders in Smart Banking Solutions are keeping themselves one step forward with our latest survey analysis Click to get Smart Banking Solutions Market Research Sample PDF Copy Here @ https://www.mraccuracyreports.com/report-sample/321361 Major highlights from the Study along with most frequently asked questions: 1) What so unique about this Smart Banking Solutions Assessment? Market Factor Analysis: In this economic slowdown, impact on various industries is huge. Moreover, the increase in demand &amp; supply gap as a resultant of sluggish supply chain and production line have made market worth observing. It also discusses technological, regulatory and economic trends that are affecting the market. It also explains the major drivers and regional dynamics of the global market and current trends within the industry. Market Concentration: Includes C4 Index, HHI, Comparative Smart Banking Solutions Market Share Analysis (Y-o-Y), Major Companies, Emerging Players with Heat Map Analysis Market Entropy: Randomness of the market highlighting aggressive steps that players are taking to overcome current scenario. Development activity and steps like expansions, technological advancement, M&amp;A, joint ventures, launches are highlighted here. Patent Analysis: Comparison of patents issued by each players per year. Peer Analysis: An evaluation of players by financial metrics such as EBITDA, Net Profit, Gross Margin, Total Revenue, Segmented Market Share, Assets etc to understand management effectiveness, operation and liquidity status. 2)Why only few Companies are profiled in the report? Industry standards like NAICS, ICB etc are considered to derive the most important manufacturers. More emphasis is given on SMEs that are emerging and evolving in the market with their product presence and technological upgraded modes, current version includes players like IBM, Yinzhijie Tech, KingTeller Tech, Huawei, Sinodata, Hundsun, Parsa Technologies, GRG Banking, Sunyard, Chengdu Santai Electronics, Info-Vision Research Systems Inc., iCSharp, Virtusa etc and many more. ** Companies reported may vary subject to Name Change / Merger etc. Access full Report Description, TOC, Table of figures, Chart, etc. : https://www.mraccuracyreports.com/reportdetails/reportview/321361 3) What details will competitive landscape will provide? A value proposition chapter to gauge Smart Banking Solutions market. 2-Page profiles of all listed company with 3 to 5 years financial data to track and comparison of business overview, product specification etc. 4) What all regional segmentation covered? Can specific country of interest be added? Country that are included in the analysis are North America, US, Canada, Mexico, Europe, Germany, France, U.K., Italy, Russia, Nordic Countries, Benelux, Rest of Europe, Asia, China, Japan, South Korea, Southeast Asia, India, Rest of Asia, South America, Brazil, Argentina, Rest of South America, Middle East &amp; Africa, Turkey, Israel, Saudi Arabia, UAE &amp; Rest of Middle East &amp; Africa ** Countries of primary interest can be added if missing. 5) Is it possible to limit/customize scope of study to applications of our interest? Yes, general version of study is broad, however if you have limited application in your scope &amp; target, then study can also be customize to only those application. As of now it covers applications Aeronautics, Airports &amp; Others. ** Depending upon the requirement the deliverable time may vary. To comprehend Smart Banking Solutions market dynamics in the world mainly, the worldwide Smart Banking Solutions market is analyzed across major global regions. Customized study by specific regional or country can be provided, usually client prefers below North America: United States of America (US), Canada, and Mexico. • South &amp; Central America: Argentina, Chile, Colombia and Brazil. • Middle East &amp; Africa: Kingdom of Saudi Arabia, United Arab Emirates, Turkey, Israel, Egypt and South Africa. • Europe: the UK, France, Italy, Germany, Spain, NORDICs, BALTIC Countries, Russia, Austria and Rest of Europe. • Asia: India, China, Japan, South Korea, Taiwan, Southeast Asia (Singapore, Thailand, Malaysia, Indonesia, Philippines &amp; Vietnam etc) &amp; Rest • Oceania: Australia &amp; New Zealand Basic Segmentation Details Smart Banking Solutions Product Types In-Depth: . Smart Banking Solutions Major Applications/End users: Commercial Bank, Medium Business Bank, Others Geographical Analysis: North America, US, Canada, Mexico, Europe, Germany, France, U.K., Italy, Russia, Nordic Countries, Benelux, Rest of Europe, Asia, China, Japan, South Korea, Southeast Asia, India, Rest of Asia, South America, Brazil, Argentina, Rest of South America, Middle East &amp; Africa, Turkey, Israel, Saudi Arabia, UAE &amp; Rest of Middle East &amp; Africa &amp; Rest of World For deep analysis of Smart Banking Solutions Market Size, Competition Analysis is provided which includes Revenue (M USD) by Players (2022-2028) &amp; Market Share (%) by Players (2022-2028) complimented with concentration rate. Complete Purchase of Smart Banking Solutions Report 2022 at Revised Offered Price @ https://www.mraccuracyreports.com/checkout/321361 Actual Numbers &amp; In-Depth Analysis of Smart Banking Solutions Market Size Estimation and Trends Available in Full Version of the Report. Thanks for reading this article, you can also make sectional purchase or opt-in for regional report by limiting the scope to only North America, ANZ, Europe or MENA Countries, Eastern Europe or European Union.</t>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The Latest published a market study on Smart Banking Solutions Market provides an overview of the current market dynamics in the Smart Banking Solutions space, as well as what our survey respondents— all outsourcing decision-makers— predict the market will look like in 2028. It also explains the major drivers and regional dynamics of the global market and current trends within the industry. More emphasis is given on SMEs that are emerging and evolving in the market with their product presence and technological upgraded modes, current version includes players like IBM, Yinzhijie Tech, KingTeller Tech, Huawei, Sinodata, Hundsun, Parsa Technologies, GRG Banking, Sunyard, Chengdu Santai Electronics, Info-Vision Research Systems Inc., iCSharp, Virtusa etc and many more. ** Companies reported may vary subject to Name Change / Merger etc. To comprehend Smart Banking Solutions market dynamics in the world mainly, the worldwide Smart Banking Solutions market is analyzed across major global regions. Middle East &amp; Africa: Kingdom of Saudi Arabia, United Arab Emirates, Turkey, Israel, Egypt and South Africa. • Complete Purchase of Smart Banking Solutions Report 2022 at Revised Offered Price @ https://www.mraccuracyreports.com/checkout/321361 Actual Numbers &amp; In-Depth Analysis of Smart Banking Solutions Market Size Estimation and Trends Available in Full Version of the Report.</t>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3012,51 +3096,1707 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.999997615814209</v>
+        <v>0.9998307228088379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Pakistan's ex-PM Khan calls off protest march to avoid 'havoc' - Free Malaysia Today</t>
+          <t>2021 bonuses to shrink for Hong Kong’s brokers after market rout - South China Morning Post</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sat, 26 Nov 2022 22:37:35 GMT</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+          <t>Sun, 23 Jan 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Hong Kong’s stockbrokers are in for disappointing bonuses after a rotten year for the stock market. Photo: Sam Tsang</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Hong Kong’s stockbrokers are in for disappointing bonuses after a rotten year for the stock market.</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9673531651496887</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ASX Escrow Watch: Which lithium play leads resource stocks releasing shares heading into Christmas? - Stockhead</t>
+          <t>U.S. boutique bank Raine expands in Southeast Asia, bets on media and tech - Reuters</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sun, 27 Nov 2022 11:41:49 GMT</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+          <t>Wed, 28 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SINGAPORE, Sept 28 (Reuters) - Southeast Asia's digital media and tech sectors, underpinned by young consumers and one of the fastest growing internet markets, had drawn U.S. investment bank Raine Group to expand in the region, senior executives said. "This is the last major market in the world, where you can see a free for all between Alibaba, Tencent, Bytedance on one hand, and the likes of Amazon, Apple, Facebook and Netflix on the other," said Joe Ravitch, Raine's co-founder and partner. Ravitch, a former Goldman Sachs banker for 16 years, before he co-founded Raine in the aftermath of the global financial crisis, expects increased cross-border deals in the region, home to about 650 million people. "The scarcity of capital in an era of volatility, rising interest rates and inflation, will create investment opportunities and require companies to be more strategic," Ravitch told Reuters in an interview on the sidelines of the Forbes Global CEO Conference. Ravitch oversaw the sale of Premier League soccer club Chelsea in May. Global media, entertainment and gaming giants are ramping up their presence in Southeast Asia's fast-growing economies. Tencent bought Malaysian video streaming platform Iflix in 2020 and companies including Netflix (NFLX.O), Amazon Prime and TikTok are boosting local content and presence. Raine is looking to add five to seven bankers in Singapore in 1-2 years, said Deborah Yupin Mei, who heads Raine's Asia business and recently moved to Singapore from Shanghai. Raine specializes in media, sports and technology deals and also oversees $4 billion in growth equity and venture capital. It advised Southeast Asia's biggest ride-hailing firm Grab on its purchase of Uber's regional business in 2018. Reuters reported last week that Raine had tapped Jonathan Pflug, Morgan Stanley's head of Southeast Asia M&amp;A, to lead its regional coverage. Mei said the trend of Chinese entrepreneurs setting up base in Singapore as a beachhead for Southeast Asia, was likely to bring capital and new business opportunities in sectors such as digital media and gaming. "This is another generation that's coming, and whether they bring models that they've tried and tested, to this part of the world or start something new is to be seen," she said. Reporting by Anshuman Daga and Yantoultra Ngui; editing by David Evans Our Standards: The Thomson Reuters Trust Principles.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SINGAPORE, Sept 28 (Reuters) - Southeast Asia's digital media and tech sectors, underpinned by young consumers and one of the fastest growing internet markets, had drawn U.S. investment bank Raine Group to expand in the region, senior executives said. " Ravitch oversaw the sale of Premier League soccer club Chelsea in May. Raine is looking to add five to seven bankers in Singapore in 1-2 years, said Deborah Yupin Mei, who heads Raine's Asia business and recently moved to Singapore from Shanghai.</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
       <c r="F92" t="n">
+        <v>0.9998617172241211</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Regional financial integration is unfinished business - East Asia Forum</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Mon, 19 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Author: Yu Yongding, CASS Twenty-five years ago, the Asian Financial Crisis set back the economic progress made by East Asian countries by years, if not decades. The crisis was triggered by the crash of the Thai baht, but it quickly spread across East Asia. All of the economies in the region, regardless of their economic performance, were hit badly. The International Monetary Fund (IMF) came to the rescue, but its assistance was too little and too late. Its conditions were harsh, with the Fund demanding recipient countries accept sharp increases in interest rates, capital account liberalisation and the shuttering of troubled financial institutions. The conditionality imposed by the IMF worsened the Asian Financial Crisis. Disappointed by the IMF’s insensitivity, Japan proposed the creation of an Asian Monetary Fund (AMF) in September 1997 — arguing it would respond faster and impose conditions more in line with the ‘Asian way’. But the AMF faced objections from Washington and the IMF on the grounds that it would duplicate existing institutions and create moral hazard problems. The response from East Asian countries was lukewarm due to the lack of trust between East Asian countries, especially Japan and China. In May 2000, ASEAN countries plus China, Japan, and South Korea (the ASEAN+3) finally signed an agreement to create a network of bilateral swap arrangements designed to address a regional liquidity shortage called the Chiang Mai Initiative (CMI). The signing of the CMI marked the beginning of Asian financial cooperation. In December 2009, ASEAN+3 members agreed to expand the Chiang Mai Initiative into a multilateral reserve pooling scheme, the Chiang Mai Initiative Multilateralisation (CMIM), whose size grew from US$120 billion to US$240 billion. The CMIM became a regional pool of foreign exchange reserves funded by the contributions of member countries. Under the CMIM, the link to the IMF-supported program was maintained but reduced. Although it was still not a regional financial institution, the signing of the CMIM and the creation of the ASEAN+3 Macroeconomic Research Office (AMRO) to support and supervise the implementation of CMIM was one step closer to a regional financial architecture such as the Asian Monetary Fund. The second advance in regional financial cooperation was the Asian Bond Markets Initiative (ABMI) launched in December 2002, a regional arrangement for facilitating the issuance of bonds denominated in local currencies. Under the ABMI, Thai baht bonds could be issued by the Japan Bank for International Cooperation to finance the business operations of Japanese firms in Thailand, reducing the need for firms operating in Thailand to issue dollar-denominated bonds to finance their operations. The ABMI was designed to reduce the region’s overreliance on money from outside the region, especially international bank loans, making East Asian countries more resilient to the sudden reversal of outside capital flows. The emerging East Asia local currency bond market reached a total value of US$23.5 trillion in April 2022. China’s local currency bond market is the largest, accounting for the largest bulk of the region’s total. The third and most ambitious attempt at regional financial cooperation was the Asian Development Bank’s 2005 proposal to create an Asian common currency — the Asian Currency Unit (ACU). The ACU was a currency basket consisting of ASEAN+3 currencies to which currencies in the region would be pegged. It aimed to help central banks stabilise their currencies to avoid a competitive devaluation while enabling them to float collectively against the US dollar so that the region’s current account imbalances could adjust in a timely fashion. The proposal was welcomed as a first step in the creation of the regional common currency. After some solid progress, efforts toward Asian financial cooperation seem to have lost momentum. Multiple factors have contributed to this. First, most ASEAN+3 countries have run current account surpluses since the Asian Financial Crisis, accumulating a huge amount of foreign exchange reserves. With foreign reserves rising from US$542 billion in 1997 to US$3.7 trillion in 2008, liquidity support is less necessary. Countries prefer to accumulate their own foreign exchange reserves rather than inactivate the CMIM, which was inconvenient to inactivate because of its link with IMF-supported programs and many self-imposed conditions. Second, although the Asian Bond Market Initiative has achieved significant progress over the last 10 years, the increase in outstanding local currency bonds in the region was mainly driven by country-specific ambitions to achieve domestic financial development rather than regional financial cooperation. As a result, the cross-border issuance of bonds denominated in local currencies is very limited. The development of the Asian Bond Market Initiative has also been hampered by a lack of progress in the standardisation of regulations, infrastructure for a securities settlement system and, among other things, market liquidity. It is doubtful that East Asian countries will be happy to incur a large expense to improve this infrastructure. Third, the ACU has achieved no real traction in public policy. Most East Asian countries have adopted managed floats but are unwilling to peg their respective currencies to a basket of regional currencies. While it is hard to say whether the ASEAN+3 bloc would have constituted an optimum currency area, the key obstacle to the ACU’s creation was political rather than economic. The 2012 European sovereign debt crisis dealt a blow to those who advocated for a common Asian currency. Since the 1997–1998 Asian Financial Crisis, the regional and global economic reality has changed such that regional financial cooperation is no longer high on the agenda. Faced with a new geopolitical reality, the old economic case for regional financial cooperation has ceased to exist. But with close geographic proximity and economic connectivity, East Asian countries must look to the long term and try harder to promote regional financial cooperation. Yu Yongding is Senior Fellow at the Chinese Academy of Social Sciences and former member of the Monetary Policy Committee of the People’s Bank of China.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Author: Yu Yongding, CASS Twenty-five years ago, the Asian Financial Crisis set back the economic progress made by East Asian countries by years, if not decades. The International Monetary Fund (IMF) came to the rescue, but its assistance was too little and too late. Although it was still not a regional financial institution, the signing of the CMIM and the creation of the ASEAN+3 Macroeconomic Research Office (AMRO) to support and supervise the implementation of CMIM was one step closer to a regional financial architecture such as the Asian Monetary Fund. First, most ASEAN+3 countries have run current account surpluses since the Asian Financial Crisis, accumulating a huge amount of foreign exchange reserves. Third, the ACU has achieved no real traction in public policy. While it is hard to say whether the ASEAN+3 bloc would have constituted an optimum currency area, the key obstacle to the ACU’s creation was political rather than economic. The 2012 European sovereign debt crisis dealt a blow to those who advocated for a common Asian currency. Since the 1997–1998 Asian Financial Crisis, the regional and global economic reality has changed such that regional financial cooperation is no longer high on the agenda.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9996128678321838</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Reality check for investors in Asia - Euromoney magazine</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Fri, 07 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>There’s never a good time for bad news, be it the energy shock, China’s economic slowdown, big geopolitical tremors or central banks falling behind the inflation curve. In 2022, markets have had to adapt to – and navigate around – these disruptions and myriad others. Investors face daunting visibility challenges as virtually everything that they thought they knew about the road ahead goes awry all at once. These visibility challenges make it hard to assess the true health of balance sheets – and to know which companies’ shares to buy or sell. This disorientation is muddying once-sacrosanct relationships between bond yields, currencies, stock valuations and the health of bank balance sheets. Where to turn? Euromoney Market Leaders rankings are here to fill the intelligence void across Asia. This new accreditation programme, unveiled this year, is a comprehensive and dynamic ranking of banking and finance names across a host of sectors and key themes – all presented at a country level. The ranking process is a meticulous and rigorous one, drawing on Euromoney’s 25 years of evaluating institutions around the world.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>There’s never a good time for bad news, be it the energy shock, China’s economic slowdown, big geopolitical tremors or central banks falling behind the inflation curve. The ranking process is a meticulous and rigorous one, drawing on Euromoney’s 25 years of evaluating institutions around the world.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9991070628166199</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Permira to buy Bank of East Asia's Tricor unit for $838 million - Reuters</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Wed, 05 Oct 2016 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HONG KONG (Reuters) - Hong Kong-based Bank of East Asia 0023.HK said it has agreed to sell its share registry arm Tricor Holdings to private equity firm Permira for HK$6.5 billion ($837.91 million) in a deal that will bolster the lender's capital reserve. A logo of Bank of East Asia is displayed at a news conference in Hong Kong, China February 15, 2016. REUTERS/Bobby Yip/File Photo Tricor provides corporate services and its stable and steady cash generation is attractive to private equity firms. Permira’s offer values Tricor at about 15 times its core earnings of about $55 million last year. The all-cash deal marks the first major sale of any business by Bank of East Asia, which was established nearly a century ago and whose offerings include corporate and retail banking, wealth management and investment services. Bank of East Asia announced plans to review its 75.6 percent stake in Tricor in February this year. Hong Kong port operator NWS Holdings Ltd, backed by billionaire Cheng Yu-tung, owns the remaining stake and is also selling out. The bank, like several other financial firms, has been hit by regulatory challenges and a slowdown in the Chinese and Hong Kong economies. It posted a 37 percent drop in half-yearly profit, hit by a surge in loan impairment losses. The cash generated from the transaction will improve Bank of East Asia’s capital position, and will be used for “strategic opportunities” relating to its core banking business, the lender told the stock exchange in a statement on Wednesday. The bank is likely to book a profit of about HK$3.1 billion after the divestment, after deducting relevant transaction costs and expenses, and the carrying amount of Tricor of about HK$1.6 billion on the book of the bank as of end-August, it said. Reuters reported last week Permira emerged as the preferred bidder to buy Tricor for between $750 million and $800 million, after six months of bidding that attracted the interest of top Chinese insurers, among others. Permira, which manages 31 billion euros ($34.8 billion) of investments globally, emerged as the dark horse in the auction in which Vistra Group, a business owned by Baring Asia Private Equity, was seen as the front runner. While several Hong Kong-based family-owned banks have sold out due to deteriorating market conditions, Bank of East Asia has survived as an independent bank in a market that is dominated by HSBC HSBA.L and Standard Chartered Plc STAN.L. The bank, run by the founding Li family, however, has been facing pressure from activist investor Elliott Management which has been agitating for the sale of the bank and in July filed a lawsuit against the bank over a share placement. The dispute has pitted the hedge fund founded by billionaire Paul Singer against the bank’s chairman and former politician David Li, whose grandfather founded the bank and whose family is among the city’s best connected. Goldman Sachs GS.N acted as financial advisor to Bank of East Asia and NWS Holdings, while HSBC HSBA.L advised Permira on the deal. ($1=7.7574 Hong Kong dollars)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>HONG KONG (Reuters) - Hong Kong-based Bank of East Asia 0023.HK said it has agreed to sell its share registry arm Tricor Holdings to private equity firm Permira for HK$6.5 billion ($837.91 million) in a deal that will bolster the lender's capital reserve. A logo of Bank of East Asia is displayed at a news conference in Hong Kong, China February 15, 2016. The cash generated from the transaction will improve Bank of East Asia’s capital position, and will be used for “strategic opportunities” relating to its core banking business, the lender told the stock exchange in a statement on Wednesday. While several Hong Kong-based family-owned banks have sold out due to deteriorating market conditions, Bank of East Asia has survived as an independent bank in a market that is dominated by HSBC HSBA.L and Standard Chartered Plc STAN.L. The bank, run by the founding Li family, however, has been facing pressure from activist investor Elliott Management which has been agitating for the sale of the bank and in July filed a lawsuit against the bank over a share placement.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.7801243662834167</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>What to Know About Expanding to Southeast Asia - JP Morgan</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mon, 13 Jun 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Located at the centre of the broader Asia-Pacific region, Southeast Asia collectively is the world’s third-most populous economy. Several Southeast Asian countries are well-positioned to be hubs for multinational companies. Among the member countries in the Association of Southeast Asian Nations ( ASEAN ), J.P. Morgan maintains a presence in: Total population of ASEAN countries; if it was a single country, ASEAN would be the third largest in the world ASEAN countries’ combined GDP, which ranks fifth globally after the U.S., China, Japan and Germany What’s driving growth in Southeast Asia Southeast Asian countries are working to integrate their economies with one another and attract foreign investment through ASEAN. The countries’ rapid growth is propelled by a handful of forces including a fast-rising population and a global shift toward supply chain diversity. An untapped consumer market: Southeast Asia will add about 140 million new consumers by 2030, according to a World Economic Forum report on ASEAN. By that time, about 1 in 6 consuming households globally will be in Southeast Asia. Proximity to China : Southeast Asia has grown in popularity as multinationals seek to diversify their supply chains and take advantage of low-cost labour. Thanks to their population growth and proximity to China, Southeast Asian countries are a convenient location for companies looking to expand their Asia-Pacific operations. : Southeast Asia has grown in popularity as multinationals seek to diversify their supply chains and take advantage of low-cost labour. Thanks to their population growth and proximity to China, Southeast Asian countries are a convenient location for companies looking to expand their Asia-Pacific operations. A digital moment: Across Vietnam, Thailand, the Philippines, Malaysia, Singapore and Indonesia, the internet economy—including e-commerce, food delivery and financial services—is expected to approach $360 billion in gross manufactured value by 2025, according to research by Google, Temasek and Bain &amp; Co. A trade partner: Southeast Asian countries have worked to reduce trade barriers within the region and across the globe. In 2022, the region’s countries ratified the Regional Comprehensive Economic Partnership (RCEP) a free-trade agreement with Australia, China, Japan, New Zealand and South Korea. RCEP created the world’s largest free-trade area covering 30% of the world’s population. A favourable business environment: Building on centuries as a strategic shipping hub, Singapore is now a valuable digital hub as well. Businesses are drawn to Singapore’s independent government, strong legal system, sophisticated digital infrastructure and deep talent pool.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Located at the centre of the broader Asia-Pacific region, Southeast Asia collectively is the world’s third-most populous economy. Thanks to their population growth and proximity to China, Southeast Asian countries are a convenient location for companies looking to expand their Asia-Pacific operations. A digital moment: Across Vietnam, Thailand, the Philippines, Malaysia, Singapore and Indonesia, the internet economy—including e-commerce, food delivery and financial services—is expected to approach $360 billion in gross manufactured value by 2025, according to research by Google, Temasek and Bain &amp; Co. A trade partner: Southeast Asian countries have worked to reduce trade barriers within the region and across the globe.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9352872371673584</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Elliott Management moves in on Bank of East Asia - Hong Kong Standard</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tue, 02 Jun 2020 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Billionaire investor Paul Singer runs the hedge fund, Elliott Management Previous Next Billionaire Paul Singer's Elliott Management is closing in on victory in its long-running battle with the Bank of East Asia, as the city’s last large family-owned lender starts discussions about a sale of its banking operations, the Financial Times reports. The two sides in March called a truce in a fierce, six-year conflict for control, announcing a strategic review of the bank’s assets conducted by Goldman Sachs. Elliott, bought a significant stake in BEA in 2014 and has long pushed for the controlling Li family to sell the business it founded in 1918. The strategic review has led to early discussions with financial and strategic investors about the sale of the bank’s Hong Kong and China banking businesses, according to people familiar with the matter. BEA owns an insurance unit that is also for sale, the people added. “Everything is up for grabs,” one of the people said. A sale of one or both of the banking businesses would be a victory for the hedge fund, which claims BEA has been poorly managed in recent years. In one scenario, the Hong Kong bank and the China-based bank could be sold separately, subject to regulatory reviews in both jurisdictions, the people said. The review is still under way and discussions with potential investors are at an early stage, they added. Elliott and BEA declined to comment. BEA is one of the largest foreign banks in mainland China and has an expansive branch network in the country. However, in recent years it has faced severe credit quality problems connected to the mainland business. Hong Kong has been plagued for almost a year by violent anti-government protests that have at times disrupted banking operations and hurt the city’s reputation as a stable financial hub. Divestment by the Lis would signal the end of an era for family-owned banks in the territory, where hostile takeovers and activist investments are rare. BEA is the last large lender in Hong Kong to remain under the control of a tycoon family. The Lis own just 7 per cent of BEA shares but have been able to retain control through a complex family holding structure common to many Asian conglomerates and rarely challenged in court. Elliott holds about 8 per cent of BEA while Japan’s SMBC and Spain’s Caixa have stakes of 17.5 percent and 16 percent, respectively. The strategic review was scheduled to conclude in June but the outbreak of the coronavirus has pushed that date back to the end of September. The pause in the hostile takeover battle came just before the scheduled start of a trial due to determine whether BEA had taken on strategic investments from SMBC and Caixa in order to protect itself against Elliott. Such actions, Elliott has argued, unjustifiably diluted ordinary shareholders. David Li was chief executive of BEA until last year, when he handed the reins to his two sons, Brian and Adrian, who are now co-chief executives. People familiar with BEA have said Li, who remains executive chairman of the bank, was adamant about retaining control over the family business but that his sons have become more open to a sale after several years of facing off with Elliott.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Billionaire investor Paul Singer runs the hedge fund, Elliott Management Previous Next Billionaire Paul Singer's Elliott Management is closing in on victory in its long-running battle with the Bank of East Asia, as the city’s last large family-owned lender starts discussions about a sale of its banking operations, the Financial Times reports. A sale of one or both of the banking businesses would be a victory for the hedge fund, which claims BEA has been poorly managed in recent years. The review is still under way and discussions with potential investors are at an early stage, they added. BEA is the last large lender in Hong Kong to remain under the control of a tycoon family.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9996856451034546</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Brokers, banks shut outlets as Hong Kong hunkers down for Covid-19 - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Thu, 10 Feb 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Photo of a closed Bank of China (Hong Kong) branch in the middle of a work week in Hong Kong’s Central district on 7 February 2022. Photo: Felix Wong</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Photo of a closed Bank of China (Hong Kong) branch in the middle of a work week in Hong Kong’s Central district on 7 February 2022.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9999943971633911</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BEA takes on the tech firms in mobile payments race - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mon, 13 Aug 2018 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Vincent Hui, general manager and head of personal banking division at Bank of East Asia, demonstrates the i-Payment hub, the lender’s new offering in the mobile payments market. Photo: Nora Tam</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Vincent Hui, general manager and head of personal banking division at Bank of East Asia, demonstrates the i-Payment hub, the lender’s new offering in the mobile payments market.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9999884366989136</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Brokers Offer Predictions for The Bank of East Asia, Limited's FY2022 Earnings (OTCMKTS:BKEAY) - MarketBeat</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 11:20:03 GMT</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>The Bank of East Asia, Limited (OTCMKTS:BKEAY - Get Rating) - Investment analysts at Jefferies Financial Group dropped their FY2022 earnings estimates for shares of Bank of East Asia in a report released on Wednesday, November 30th. Jefferies Financial Group analyst S. Wong now expects that the bank will post earnings of $0.11 per share for the year, down from their previous forecast of $0.16. The consensus estimate for Bank of East Asia's current full-year earnings is $0.13 per share. Jefferies Financial Group also issued estimates for Bank of East Asia's FY2023 earnings at $0.25 EPS and FY2024 earnings at $0.32 EPS. Separately, The Goldman Sachs Group began coverage on shares of Bank of East Asia in a research report on Monday, September 12th. They issued a "neutral" rating for the company. Bank of East Asia Stock Performance Shares of OTCMKTS:BKEAY opened at $1.10 on Friday. The firm has a 50 day moving average of $1.05 and a 200-day moving average of $1.22. Bank of East Asia has a 12 month low of $0.90 and a 12 month high of $1.82. Bank of East Asia Increases Dividend The company also recently announced a dividend, which was paid on Monday, October 24th. Stockholders of record on Friday, September 30th were given a $0.0538 dividend. The ex-dividend date of this dividend was Thursday, September 29th. This is a boost from Bank of East Asia's previous dividend of $0.02. This represents a dividend yield of 9.41%. Bank of East Asia Company Profile The Bank of East Asia, Limited, together with its subsidiaries, provides various banking and related financial services. Its personal banking services include corporate, individual, savings, current, time deposit, and supreme accounts; and fixed and call deposits, foreign currency deposits, MAS services, and auto-payroll products, as well as safe deposit boxes and remittance services. See Also This instant news alert was generated by narrative science technology and financial data from MarketBeat in order to provide readers with the fastest and most accurate reporting. This story was reviewed by MarketBeat's editorial team prior to publication. Please send any questions or comments about this story to contact@marketbeat.com. Before you consider Bank of East Asia, you'll want to hear this. MarketBeat keeps track of Wall Street's top-rated and best performing research analysts and the stocks they recommend to their clients on a daily basis. MarketBeat has identified the five stocks that top analysts are quietly whispering to their clients to buy now before the broader market catches on... and Bank of East Asia wasn't on the list. While Bank of East Asia currently has a "Hold" rating among analysts, top-rated analysts believe these five stocks are better buys. View The Five Stocks Here</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>The Bank of East Asia, Limited (OTCMKTS:BKEAY - Get Rating) - Investment analysts at Jefferies Financial Group dropped their FY2022 earnings estimates for shares of Bank of East Asia in a report released on Wednesday, November 30th. The consensus estimate for Bank of East Asia's current full-year earnings is $0.13 per share. Separately, The Goldman Sachs Group began coverage on shares of Bank of East Asia in a research report on Monday, September 12th. Please send any questions or comments about this story to contact@marketbeat.com. While Bank of East Asia currently has a "Hold" rating among analysts, top-rated analysts believe these five stocks are better buys.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.99671870470047</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>South East Asian Central Bank Center (SEACEN) - IMF Singapore Training Institute (STI) High Level Seminar on Policy Challenges and Peer-Learning Event on Climate - International Monetary Fund</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 14:12:53 GMT</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tuesday, December 6, 2022 Peer-Learning Seminar: Climate Challenges and Financial Stress Tests Asia and the Pacific is highly vulnerable to the effects of climate change and climate issues are on top of many countries’ policy agenda. Climate-related events, for example, can significantly undermine financial sector stability with adverse macroeconomic and social implications. This seminar will provide insights into how climate change is perceived in the region and provide an overview of selected climate issues. Finally, the regional seminar will introduce an analytical framework to conduct climate-related stress tests and share country-specific experiences.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tuesday, December 6, 2022 Peer-Learning Seminar: Climate Challenges and Financial Stress Tests Asia and the Pacific is highly vulnerable to the effects of climate change and climate issues are on top of many countries’ policy agenda. Finally, the regional seminar will introduce an analytical framework to conduct climate-related stress tests and share country-specific experiences.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.992833137512207</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hong Kong to mourn Jiang Zemin with citywide arrangements planned for Tuesday - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 14:20:12 GMT</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mourners queue up outside the liaison office in Hong Kong to mourn Jiang Zemin. Photo: Dickson Lee</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Mourners queue up outside the liaison office in Hong Kong to mourn Jiang Zemin.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9999902248382568</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>This California city asked where its recycling went. The answer wasn’t pretty. - NBC News</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 10:43:21 GMT</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>In 2020, international police organization Interpol said it had noticed coordinated efforts to export plastic, particularly to Southeast Asia, in violation of national laws. But investigators still struggle to track suspicious shipments, said Ioana Cotutiu, a project coordinator with the United Nations Office on Drugs and Crime who works on the trade in illegal waste. “Very often there are a lot of intermediaries and we’re losing track of the waste,” she said in a webinar this year. “Once it reaches the destination country, we don’t know what happens after.” The global recycling trade dates back at least 30 years, enabling rich countries like the U.S. to keep the cost of recycling lower for consumers by outsourcing some of it to developing countries. In recent years the global plastic trade has shrunk amid new controls by rich and developing countries alike. U.S. plastic waste exports to Asia fell to 330 million pounds in 2021, according to government data, half their 2017 level. But even these reduced volumes, environmental groups charge, can overwhelm developing countries that lack the facilities to manage them. Asia is a key danger zone: According to a World Bank estimate, only about 9% of waste in the East Asia and Pacific region gets recycled. The balance goes to landfills and incinerators or into nature, with local and global consequences. “Some in Laos see the imported waste as an opportunity,” said Serge Doussant, head of Green Vientiane, an advocacy group in the Laotian capital. “But Laos doesn’t have the necessary factories to treat the amount of plastic waste coming from wealthy countries.” At one informal dump site in Vientiane, discarded water bottles, shredded plastic bags and shards of styrofoam were strewn across a 50-foot stretch of the bank of the Mekong River. According to the World Bank, this is one of 149 known informal dump sites in Laos. Such sites can leach plastics into the 2,500-mile Mekong and — as it travels downriver through several other countries — into the sea. Research suggests countries in Southeast Asia rank among the top global sources of ocean plastic. That issue came into focus in 2017, when China, which had long absorbed about half of plastic scrap traded worldwide, effectively banned all imports. Imports to Southeast Asia surged the following year: more than tripling in Malaysia, doubling in Vietnam and growing nearly tenfold in Thailand, according to a report last year by the Global Initiative Against Transnational Organized Crime. The reception was mixed. In China’s exit, business and political elites in other countries saw opportunities to establish a new “green” industry in plastics recycling. But environmental campaigners have also documented disastrous side effects: mountains of abandoned trash set aflame, dozens of bootleg recycling operations, and evidence of toxins in local soil and food. Pursuing transparency — and hitting a wall The headlines out of Southeast Asia stirred consciences in Palo Alto. Concerned residents asked the city to require their trash hauler, GreenWaste, to annually report how and where their recycling was handled. The city agreed, and GreenWaste complied. But as GreenWaste’s reports show, it could not establish full traceability. A key reason, Palo Alto officials said, is that GreenWaste conducts some recycling through middlemen called brokers. Brokers do not recycle goods, but instead buy and sell them like commodities. Industry participants say they play an important role in linking waste collectors, like GreenWaste, with recycling factories around the world. But when GreenWaste asked its brokers to specify where and with whom they did business, they balked. Revealing those relationships would show competitors his company’s cost structure “and how to compete against us,” said William Winchester, chief operations officer for Los Angeles-based Berg Mill, one of the companies that buys materials from GreenWaste. “I understand their desire for transparency. But let me frame it differently. Should KFC reveal their original chicken recipe? Should Ben &amp; Jerry’s tell us the secret sauce of how they make their ice cream?” he said. “It’s not a cover-up. It’s about protecting our relationships and how we get things done.” Reshoring recycling Palo Alto officials said they’ve taken two lessons from this saga. First, they want to recycle more in the U.S. In May, city staff asked to divert some of Palo Alto’s waste streams to facilities in Louisiana and Southern California. The move would bump the city’s domestic recycling rate to about 60%, they said. If made permanent, staff said, the change could increase the average citizen’s recycling bill by about $33 a year. The second lesson, City Manager Ed Shikada said, is that Palo Alto can’t transform the global recycling system alone. In March the city began talks with other interested California cities to discuss possible reforms at the local or state levels. The group includes San Jose, the largest city in the San Francisco Bay Area, and about a dozen other Northern California municipalities. Shikada said they might seek to expand recycling capacity in California, for instance, or ask lawmakers to impose new transparency requirements on companies that export recyclable goods. Winchester, of Berg Mill, said he attended a recent meeting but came away disappointed. He said it felt like a missed opportunity to finally grapple with the “big societal questions” — the trade-offs — that come with recycling. One question he thinks about: Shouldn’t developing countries get to decide, for themselves, how to balance environmental goals with economic gains — as China and the U.S. once did? “If we want to say no waste gets exported, and it all has to get done here, not a bad concept, it’s just going to raise the cost a lot,” he said. “It goes back to what do we want as citizens? What do we really care about that we’re really ready to participate in with our money and time?”</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>In 2020, international police organization Interpol said it had noticed coordinated efforts to export plastic, particularly to Southeast Asia, in violation of national laws. Some in Laos see the imported waste as an opportunity,” said Serge Doussant, head of Green Vientiane, an advocacy group in the Laotian capital. “ That issue came into focus in 2017, when China, which had long absorbed about half of plastic scrap traded worldwide, effectively banned all imports. But as GreenWaste’s reports show, it could not establish full traceability. Should Ben &amp; Jerry’s tell us the secret sauce of how they make their ice cream?” First, they want to recycle more in the U.S. In May, city staff asked to divert some of Palo Alto’s waste streams to facilities in Louisiana and Southern California. If made permanent, staff said, the change could increase the average citizen’s recycling bill by about $33 a year. Winchester, of Berg Mill, said he attended a recent meeting but came away disappointed. He said it felt like a missed opportunity to finally grapple with the “big societal questions” — the trade-offs — that come with recycling.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9831959009170532</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Singapore's DBS, other Southeast Asia banks gain on MUFG in market cap - Nikkei Asia</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Wed, 09 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SINGAPORE -- Top Singaporean bank DBS Group Holdings and Indonesia's Bank Central Asia now hold market values that match or exceed that of Mitsubishi UFJ Financial Group, Japan's largest bank, the sea change reflecting the ascendant earning power among Southeast Asia lenders. DBS's market capitalization stood at $63.4 billion on Monday while BCA finished at $68.6 billion, according to data from Refinitiv. The figures hover around MUFG's market cap of $63.7 billion.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SINGAPORE -- Top Singaporean bank DBS Group Holdings and Indonesia's Bank Central Asia now hold market values that match or exceed that of Mitsubishi UFJ Financial Group, Japan's largest bank, the sea change reflecting the ascendant earning power among Southeast Asia lenders. DBS's market capitalization stood at $63.4 billion on Monday while BCA finished at $68.6 billion, according to data from Refinitiv.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9911948442459106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WePOWER Conference 2023 - World Bank Group</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 06:22:02 GMT</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Conference Highlights December 6 Just transition and achieving gender equity in infrastructure and green jobs (9:30-11:00 UTC +7) The energy transition in South Asia will create opportunities for growth and equality. It is important to manage the distributional impacts. The distinguished technical panel will discuss the global trends, national and institutional strategies being planned and implemented, and the challenges and multi-sectoral responses to achieving a just transition. The discussion will center on the infrastructure sectors and ensuring that women are not just beneficiaries, but also workers, decision-makers and leaders to combat climate change and spur green growth. Speakers: Dr. Bindu Lohani, Distinguished Fellow, Emerging Market Forum (USA), Distinguished Adjunct Faculty (AIT). Former Vice President for Knowledge Management and Sustainable Development (ADB). Dr. Demetrios Papathanasiou, Global Director for the World Bank's Energy and Extractives Global Practice, World Bank. Mr. Mohammad Hossain, Director General, Power Cell, Ministry of Power, Energy and Mineral Resources, Bangladesh Ms. Reema Nanavati, Director, Self-Employed Women's Association (SEWA) Mr. Guangzhe Chen, Regional Director of Infrastructure for South Asia, World Bank Ms. Hana Brixi, Global Director of Gender, World Bank The evolving energy sector: Jobs and recruitment challenges (2:30-4:00 UTC +7) Domain experts will discuss the changing jobs roles in the energy sector, and steps to develop a skilled workforce for the energy transition. How can women be recruited/trained/retained for these new jobs? Speakers: Dr. Masood Ahmed, Retired Lead Water Resources Specialist, World Bank Mr. Deepak Rai, Head - Standards and Research, India Skills Council for Green Jobs Dr. Tripta Thakur, National Power Training Institute (NPTI) December 7 Institutional solutions for improving gender equity (9:25-10:45 UTC+7) WePOWER Partners and energy sector stakeholders are implementing various gender activities towards improving women’s representation in their organizations. However, various institutional, regulatory, and societal barriers exist. This session will prepare participants for the Solve-a-thon, which will focus on adjusting the institutional policies and norms for gender diversity. The expert tutors will cover practical solutions that utilities can implement - including Gender Informed HR Performance Management Systems and Unconscious Bias Trainings - to improve their institutional systems and norms. Speakers Ms. Hana Brixi, Global Director of Gender, World Bank Ms. Clare Novak, International Gender Diversity and Inclusion Expert Dr. Josebe Bilbao-Henry, Senior HR Diversity, Equity &amp; Inclusion Specialist, World Bank December 8 Helping women transition from STEM education to energy sector jobs (2:00-3:30 UTC+7) Experts will discuss good practices in supporting transition for students (especially women) into STEM jobs. Effective internship and apprenticeship programs are essential to bring qualified women into the job pool. Following the panel discussion, the WePOWER Internship Module will be launched. This resource, developed by the WePOWER Regional Working Group for interships, will provide a framework for utilities to implement practical steps towards improving or creating their own well structured, gender, and youth-friendly internship programs. Speakers: Dr. Ashley Bear, Director of the Committee on Women in Science, Engineering, and Medicine of the National Academies, USA Ms. Thercy Devika Abeysuriya, Chair, Women Engineers Forum of Institution of Engineers, Sri Lanka, Ms. Amira El-Mazni, Independent Oil &amp; Gas Advisor, former Vice Chairman for Gas Regulatory Affairs in the Egyptian Natural Gas Holding Company (EGAS) Ms. Azia Shoaib, HR Director, Lahore Electricity Supply Company (LESCO), Pakistan Ms. Tshewang Lhamo, Senior HR Officer, Druk Green Power Corporation (DGPC), Bhutan</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Conference Highlights December 6 Just transition and achieving gender equity in infrastructure and green jobs (9:30-11:00 UTC +7) The energy transition in South Asia will create opportunities for growth and equality. Mr. Mohammad Hossain, Director General, Power Cell, Ministry of Power, Energy and Mineral Resources, Bangladesh Ms. Reema Nanavati, Director, Self-Employed Women's Association (SEWA) Mr. Guangzhe Chen, Regional Director of Infrastructure for South Asia, World Bank Ms. Hana Brixi, Global Director of Gender, World Bank The evolving energy sector: Jobs and recruitment challenges (2:30-4:00 UTC +7) Domain experts will discuss the changing jobs roles in the energy sector, and steps to develop a skilled workforce for the energy transition. How can women be recruited/trained/retained for these new jobs? This resource, developed by the WePOWER Regional Working Group for interships, will provide a framework for utilities to implement practical steps towards improving or creating their own well structured, gender, and youth-friendly internship programs.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9687306880950928</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>To end extreme poverty, getting back to pre-COVID-19 reduction rates is not enough - World Bank</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Wed, 30 Nov 2022 12:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>This is the first blog in a series about how countries can correct course and make progress in global poverty reduction. For more information on the topic, read the 2022 Poverty and Shared Prosperity Report. In 2020, the COVID-19 crisis caused the most significant setback to global poverty reduction in decades, with 71 million more people living in extreme poverty in that year compared to 2019 . But a closer look at poverty trends shows that there’s more to the story: progress in poverty reduction was already slowing before the pandemic hit. Slowing progress From 1990 to 2014, the world made astonishing progress in reducing extreme deprivation: more than one billion people moved out of extreme poverty. The global poverty rate declined by 1.1 percentage points a year on average, from 37.8 percent in 1990 to 11.2 percent in 2014 (Figure 1). Figure 1: Global poverty at the US$2.15 poverty line, 1990-2019 Yet, in the period that followed, between 2014 and 2019, poverty reduction slowed to 0.6 percentage points a year — the slowest rate over the past three decades (Figure 2). Poverty fell on average by at least one percentage point per year in all the five-year spells preceding 2015 – except for the 1995-2000 period when the Asian financial crisis caused global poverty to increase for two years in a row (1996-1998). Mathematically, it is harder to keep up the pace of poverty reduction at lower poverty rates. However, this is not the root cause for the change in trend. The main reason for the slowdown is that extreme poverty is becoming increasingly concentrated in regions with lower per capita income growth. Figure 2: Annualized change in the global poverty rate, by period Unequal progress Two regions, East Asia and the Pacific and South Asia, accounted for most of the reduction in global poverty between 1990 and 2014. In East Asia and the Pacific, extreme poverty fell from 66 percent of the population in 1990 to 4 percent by 2014. In South Asia, poverty was reduced from 50 percent in 1990 to 18 percent in 2014. By 2014, these two regions accounted for a much smaller share of the global extreme poor. In contrast, poverty fell at a much slower rate in Sub-Saharan Africa: from 60 percent in 1990 to 38 percent in 2014. After 2014, South Asia was the only region with a considerable share of the global poor that continued with substantial poverty reduction. In the five years between 2014 to 2019, the region halved its extreme poverty rate to 9 percent. In Sub-Saharan Africa, as GDP growth slowed and the population continued growing fast, poverty fell by only three percentage points to 35 percent. With that, the share of the global extreme poor living in Sub-Saharan Africa reached 60 percent in 2019 — 389 million of the 648 million people in extreme poverty globally. This is six times higher than the region’s share in 1990 — when the region accounted for only 13 percent of the total (Figure 3). Figure 3: Regional distribution of the global poor, 1990 - 2019 What does this mean for the goal of ending extreme poverty globally? These regional trends have important implications for our ability to reach the first Sustainable Development Goal of eradicating global poverty by 2030 or the World Bank Group’s target of reducing global extreme poverty to under three percent by 2030. The estimates beyond 2019 utilize data from Mahler ⓡ Yonzan ⓡ Lakner (2022) for 2020 and growth forecasts from the Global Economic Prospects for years 2021 to 2024 as described here. Beyond 2024, poverty is projected using each country’s historical average growth from the 2010-2019 period (see Poverty and Shared Prosperity Report 2022 for details). We estimate that poverty will decline to less than three percent of the population in most regions by 2030 — although insufficient data make projections uncertain for the Middle East and North Africa. Yet, to reach such a target in Sub-Saharan Africa, each country in the region would need to grow at about eight times the average annual growth rates achieved between 2010 and 2019. In a more realistic scenario, we expect 30 percent of the population in Sub-Saharan Africa to be still living in extreme poverty in 2030. This would bring global extreme poverty close to 7 percent in 2030, more than double the World Bank Group’s goal of 3 percent (Figure 4). Figure 4: Projecting extreme poverty to 2030 Addressing fragility One of the reasons for the high levels of poverty in Sub-Saharan Africa is the strong link between extreme poverty and a country’s fragile and conflict-affected status. Only 10 percent of the global population lives in fragile and conflict-affected areas, yet these countries are home to 40 percent of those living in extreme poverty. Of the 46 African countries with available data for global poverty monitoring, 19 are affected by conflict and fragility, according to 2019 data. These include the most populous country in the region, Nigeria, which has seen little progress in poverty reduction over the decade leading up to the pandemic, and the second poorest country in the region, the Democratic Republic of Congo, where more than half of the population lived in extreme poverty in 2019. Fragility also contributed to rising poverty in the Middle East and North Africa. Extreme poverty rates are still relatively low there, but it is the only region where poverty levels have been increasing since 2014, driven mostly by the situation in fragile and conflict-affected economies. The latest data for the region shows the extreme poverty rate at 7.5 percent, three times higher than in 2014. However, the estimates for the Middle East and North Africa are subject to a great degree of uncertainty. Due to the lack of recent survey data for some countries, data coverage in the region fell below 50 percent in 2019, preventing a regional poverty estimate from being published. The latest data are from 2018. As we live through a time of uneven post-COVID-19 economic recovery and other crises, timely and accurate data to measure progress on extreme poverty reduction will be crucial. Improvements in data availability have taken place in several parts of Sub-Saharan Africa, especially in West Africa. Yet critical gaps persist in others, such as East and Southern Africa. As poverty remains increasingly concentrated in countries impacted by conflict and fragility, which makes using traditional data-collection methods more challenging, this issue is poised to affect the monitoring of global poverty throughout this decade. The authors gratefully acknowledge financial support from the UK Government through the Data and Evidence for Tackling Extreme Poverty (DEEP) Research Program.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>This is the first blog in a series about how countries can correct course and make progress in global poverty reduction. Figure 1: Global poverty at the US$2.15 poverty line, 1990-2019 Yet, in the period that followed, between 2014 and 2019, poverty reduction slowed to 0.6 percentage points a year — the slowest rate over the past three decades (Figure 2). Mathematically, it is harder to keep up the pace of poverty reduction at lower poverty rates. In East Asia and the Pacific, extreme poverty fell from 66 percent of the population in 1990 to 4 percent by 2014. These regional trends have important implications for our ability to reach the first Sustainable Development Goal of eradicating global poverty by 2030 or the World Bank Group’s target of reducing global extreme poverty to under three percent by 2030. The estimates beyond 2019 utilize data from Mahler ⓡ Yonzan ⓡ Lakner (2022) for 2020 and growth forecasts from the Global Economic Prospects for years 2021 to 2024 as described here. Extreme poverty rates are still relatively low there, but it is the only region where poverty levels have been increasing since 2014, driven mostly by the situation in fragile and conflict-affected economies. The latest data for the region shows the extreme poverty rate at 7.5 percent, three times higher than in 2014. However, the estimates for the Middle East and North Africa are subject to a great degree of uncertainty.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9574001431465149</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ASIA RICE-Thailand, Vietnam bank on new deals; few eye cheaper India supply - Nasdaq</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 13:05:00 GMT</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>By Brijesh Patel Dec 1 (Reuters) - Rice export prices rose across major Asian hubs this week on robust demand emerging out of Indonesia, with some buyers switching to the cheaper Indian variety. Vietnam's 5% broken rice RI-VNBKN5-P1 was offered at $440-$445 per tonne, free-on-board, up from $438 a week ago. "Prices are rising on strong demand, especially from Indonesia's food procurement agency Bulog," a trader based in Ho Chi Minh City said. "The rise in Vietnam's prices could have prompted a Cuban buyer to switch to buy cheaper grain from India," the trader said, adding a vessel is loading 28,000 tonnes at Kakinada port, in the southern Indian state of Andhra Pradesh for delivery to Cuba. Moreover, traders said domestic supplies are running low, which will likely keep Vietnamese rice prices at high levels over the next few weeks. Top exporter India's 5% broken parboiled variety RI-INBKN5-P1 was quoted at $375 to $380 per tonne, up from last week's $373-$378. "Indian rice is available at a discount. It is prompting buyers to switch to India from other supplying countries," said an exporter based at Kakinada in Andhra Pradesh. India's exports of premium basmati rice are likely to jump 15% over last year as key buyers in the Middle East build their inventories. Thailand's 5% broken rice prices RI-THBKN5-P1 rose to $427-$440 per tonne this week from $419-$425 last week, with traders attributing the gains to news of new deals on the table. "Prices surged from last week after talks of Indonesia wanting to buy 1,000 to 2,000 hundred thousands tons of rice," a Bangkok-based trader said. Another trader said that local importers are also stocking up ahead of the year-end, adding to the price gains. Meanwhile, a Bangladeshi delegation is visiting Thailand, Vietnam and Cambodia this week seeking rice imports, a senior food ministry official said, as the country struggles to build reserves. (Reporting by Rajendra Jadhav in Mumbai, Khanh Vu in Hanoi, Panu Wongcha-um in Bangkok and Ruma Paul in Dhaka; Editing by Sherry Jacob-Phillips) ((Brijesh.Patel1@thomsonreuters.com; Within U.S. +1 651 848 5832, Outside U.S. +91 8067493865; Reuters Messaging: Brijesh.Patel1.thomsonreuters.com@reuters.net)) The views and opinions expressed herein are the views and opinions of the author and do not necessarily reflect those of Nasdaq, Inc.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>By Brijesh Patel Dec 1 (Reuters) - Rice export prices rose across major Asian hubs this week on robust demand emerging out of Indonesia, with some buyers switching to the cheaper Indian variety. The rise in Vietnam's prices could have prompted a Cuban buyer to switch to buy cheaper grain from India," the trader said, adding a vessel is loading 28,000 tonnes at Kakinada port, in the southern Indian state of Andhra Pradesh for delivery to Cuba. Top exporter India's 5% broken parboiled variety RI-INBKN5-P1 was quoted at $375 to $380 per tonne, up from last week's $373-$378. "</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9994798302650452</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Investment activity in Southeast Asia will continue but investors expected to scrutinize valuations 'more closely', says InnoVen Capital SEA Partner [Q&amp;A] - TechNode Global</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 02:37:14 GMT</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Investment activity in the Southeast Asia region will continue in 2023 but investors are expected to scrutinize valuations more closely, according to Southeast Asia venture debt provider InnoVen Capital SEA. “Fund-raising is projected to get tougher in the following year and this will force companies to be disciplined in their expenditure, prioritizing spending on activities which are accretive to the bottom line and minimizing cash burn rates,” its Partner Ben Cheah told TechNode Global in a recent interview. “This financial discipline will not only help companies survive tough times but will put them in a better position to grow even faster when the market recovers.” His comments come as financial markets across the globe have experienced valuation shocks due to rising interest rates, causing private market investors to become cautious about the valuation levels. This risk-adverse behavior, he said, coupled with the wariness of not overpaying, has caused the pace of investments to slow down. A lot of startups that have sufficient capital on hand are also postponing raising funds given these market conditions, Cheah noticed. To weather the forecasted slowdown in venture capital funding, he opined that early-stage companies can incorporate venture debt into their equity fund raising rounds to increase the size of the round while keeping equity dilution minimal. “Companies can then use this debt funding to fund a wide variety of purposes such as working capital, inventory, capital expenditure or acquisitions, ultimately helping companies to not only extend cash runway but also to sustain their growth,” he added. Southeast Asia was introduced to venture debt only six years ago, Cheah said. As the technology ecosystem grew and flourished in the region, knowledge and demand for venture debt grew steadily over the past six years. The appeal of venture debt has also been accelerated by current market conditions. More companies are starting to explore minimally dilutive funding options like venture debt as equity valuations come under pressure, he said. “With Southeast Asia’s continued attractiveness as an investment location and rising venture capital activity over the past decade, we will only continue to see an upward momentum for venture debt,” he shared. InnoVen Capital SEA is the leading venture debt provider to start-up and growth stage companies in the region. It pioneered the concept of venture debt in Southeast Asia, and are the trusted partner for companies to accelerate growth and extend cash runway while optimizing equity dilution, according to its website. InnoVen Capital is Asia’s leading venture lending platform providing debt capital to high growth, venture-backed technology companies. It is established as a joint venture between Seviora (a wholly-owned subsidiary of Temasek) and United Overseas Bank in 2015. In June last year, InnoVen Capital announced that it has closed an investment from Japan’s Aozora Bank into its South East Asian Venture Debt fund. Meanwhile, from InnoVen Capital SEA’s point of view, Cheah said venture debt should always be an option for all startups to consider regardless of market conditions, as it allows founders to raise more capital to grow their companies at a less dilutive cost. “The current macro environment allows companies to raise capital without having to set a valuation, and we have observed that more companies are interested in venture debt in Southeast Asia. InnoVen Capital continues to see strong interest in venture debt, not just from early-stage companies but later-stage companies that have closed large rounds of funding but still want to use debt to raise even more capital to extend their cash runway,” he added. In the interview, he also shared his views on how can startups strategically leverage venture debt to extend their cash runway, advices and suggestions to startups on how to decide the suitable ratio between equity fundraising and venture debt, among others. Below are the edited excerpts: Southeast Asia venture capital landscape for 2023 – what do the continued Fed rate hikes spell for the venture capital market in 2023 and how will both investors and startups be affected? Will the market see any form of stability in the year? Financial markets across the globe have experienced valuation shocks due to rising interest rates, causing private market investors to become cautious about the valuation levels. This risk-adverse behaviour, coupled with the wariness of not overpaying, has caused the pace of investments to slow down. A lot of startups that have sufficient capital on hand are also postponing raising funds given these market conditions. However, many startups still need to raise money for a runway extension, and we have observed that much of the capital raised for Southeast Asian venture capital investments has not been deployed. Hence, although the region is not immune to the global macroeconomic situation, we believe that investment activity in the region will continue but with investors scrutinizing valuations more closely. What are some of the positive impacts companies will gain as they reassess where and how they spend in the coming year? Fund-raising is projected to get tougher in the following year and this will force companies to be disciplined in their expenditure, prioritising spending on activities which are accretive to the bottom line and minimising cash burn rates. This financial discipline will not only help companies survive tough times but will put them in a better position to grow even faster when the market recovers. How can startups strategically leverage venture debt now to extend their cash runway in order to weather the forecasted slowdown in venture capital funding? Early-stage companies can incorporate venture debt into their equity fundraising rounds to increase the size of the round while keeping equity dilution minimal. Companies can then use this debt funding to fund a wide variety of purposes such as working capital, inventory, capital expenditure or acquisitions, ultimately helping companies to not only extend cash runway but also to sustain their growth. How should startups decide the perfect/ suitable ratio between equity fundraising and venture debt? Do you have any advice/suggestions? The appropriate ratio for each company is different and specific to the business model and situation of the company. Some factors companies should consider are whether the debt can be secured by tangible collateral, whether the projected debt repayment is from profits or future fund raise, current cash runway, use case for the debt and how it will help the company raise a subsequent funding round or achieve profitability. In what kind of circumstances venture debt is a better option? Or is it just a matter of preference? Generally speaking, venture debt could be a better financing option as opposed to equity financing if there is high certainty that it can be used to generate future cashflow that can be used to fully repay the debt. However, because there is always an element of uncertainty in business, a mix of debt and equity is always recommended. What is the general view on venture debt these days? How is the trend like in the Southeast Asia region as compared to other regions? Is it getting more popular? Why or why not? As venture debt has been available in Silicon Valley since the 1980s, raising venture debt is a reasonably common financing strategy for startups and technology companies in the US and even Europe as those markets are more mature. Southeast Asia was introduced to venture debt only six years ago. As the technology ecosystem grew and flourished in the region, knowledge and demand for venture debt grew steadily over the past six years. The appeal of venture debt has also been accelerated by current market conditions. More companies are starting to explore minimally dilutive funding options like venture debt as equity valuations come under pressure. With Southeast Asia’s continued attractiveness as an investment location and rising venture capital activity over the past decade, we will only continue to see an upward momentum for venture debt. From InnoVen Capital SEA’s point of view, what is the potential of venture debt? Venture debt should always be an option for all startups to consider regardless of market conditions, as it allows founders to raise more capital to grow their companies at a less dilutive cost. The current macro environment allows companies to raise capital without having to set a valuation, and we have observed that more companies are interested in venture debt in Southeast Asia. InnoVen Capital continues to see strong interest in venture debt, not just from early-stage companies but later-stage companies that have closed large rounds of funding but still want to use debt to raise even more capital to extend their cash runway. How do you manage risks, especially when there are many uncertainties, such as the startup job-cuts and potential slowdown in many economies? We will continue to be rigorous in our due-diligence process, looking at companies which are backed by strong investors, show strong unit economics and sufficient cash runway.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Investment activity in the Southeast Asia region will continue in 2023 but investors are expected to scrutinize valuations more closely, according to Southeast Asia venture debt provider InnoVen Capital SEA. “ Fund-raising is projected to get tougher in the following year and this will force companies to be disciplined in their expenditure, prioritizing spending on activities which are accretive to the bottom line and minimizing cash burn rates,” its Partner Ben Cheah told TechNode Global in a recent interview. “ A lot of startups that have sufficient capital on hand are also postponing raising funds given these market conditions, Cheah noticed. Southeast Asia was introduced to venture debt only six years ago, Cheah said. As the technology ecosystem grew and flourished in the region, knowledge and demand for venture debt grew steadily over the past six years. The appeal of venture debt has also been accelerated by current market conditions. Below are the edited excerpts: Southeast Asia venture capital landscape for 2023 – what do the continued Fed rate hikes spell for the venture capital market in 2023 and how will both investors and startups be affected? Financial markets across the globe have experienced valuation shocks due to rising interest rates, causing private market investors to become cautious about the valuation levels. In what kind of circumstances venture debt is a better option? As venture debt has been available in Silicon Valley since the 1980s, raising venture debt is a reasonably common financing strategy for startups and technology companies in the US and even Europe as those markets are more mature. Venture debt should always be an option for all startups to consider regardless of market conditions, as it allows founders to raise more capital to grow their companies at a less dilutive cost.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9890311360359192</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Perpetual bond rout spreads to giants like AIA after Korea shock - The Edge Markets MY</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Thu, 03 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>HONG KONG/SINGAPORE (Nov 3): An obscure South Korean insurer's decision to buck market convention by skipping a call option sparked a region-wide sell-off in so-called perpetual bonds. That is now providing a wake-up call to investors that a wave of financial companies could follow suit. A perpetual note from AIA Group Ltd, one of Asia's largest insurers, fell by a record 6.7 cents (RM3.18) to 70 cents on the dollar on Thursday. Similar securities from Kyobo Life Insurance Co and Bank of East Asia Ltd tumbled more than 13 cents. A perpetual bond of Woori Bank dropped, while notes from Shinhan Financial Group Co and Kookmin Bank headed for their worst weekly retreats. The drama started on Tuesday, when Korean insurer Heungkuk Life Insurance Co's perpetual securities slid to an all-time low. The firm shocked markets by taking the unusual step of saying it would delay buying back the bonds, in the first such case for the nation's issuers since 2009. DB Life, another of the country's insurers, is also pushing back the first call date for its hybrid debt, according to a spokesperson. That is a reality check for global investors in bank bonds, who recall when Spanish lender Banco Santander SA rattled markets in 2019 after it skipped a call option. What is different and riskier this time is that central banks battling inflation are pushing up interest rates, raising the risk that more financial firms could balk at refinancing at higher costs, as Heungkuk Life did. "Investors are reassessing the risks of non-call for financial subordinated debt in Asia following Heungkuk Life's decision not to call their subordinated bonds," said Nicholas Yap, head of Asia credit desk analysts at Nomura Holdings Inc in Hong Kong. It has been happening in Europe, too. Spain's Banco de Sabadell extended an Additional Tier 1 note, citing the "replacement cost", as did Russia-exposed Raiffeisen Bank International. And a specialist UK lender, Shawbrook Group, offered investors an exchange instead of taking the risk of directly tapping the market. The deep discounts in several contingent convertible bonds in Europe signal more calls may be skipped. A warning Surging yields even prompted an Australian regulator to warn financial institutions this week not to call capital securities if they need to pay higher interest to issue new ones. That also contributed to the broader sell-off in such notes, as did Federal Reserve (Fed) chairman Jerome Powell saying on Wednesday that he was prepared to drive rates even higher than previously expected. The type of debt securities dropping is those that banks and insurers use to raise funds to meet capital adequacy ratios. They have no set maturities or have very long ones, but they do have call dates. Investors had grown accustomed to treating it as a foregone conclusion that the borrowers would opt to pay them back at the first such call date. But the development with Heungkuk Life showed that is no longer a safe assumption in all cases. Some of the securities, such as Additional Tier 1 notes, were created after the Global Financial Crisis to ensure that losses in times of crises would be borne by investors, rather than taxpayers bailing out borrowers. The warning from Australia's regulator encapsulated some of the broader concerns. "With global credit spreads widening significantly over the past 12 months, the prospect of new capital instruments being issued at higher credit spreads than equivalent outstanding instruments has become more pronounced," the Australian Prudential Regulation Authority (APRA) said in a letter dated Nov 1 to financial institutions. APRA "is seeing requests to make 'uneconomic calls,'" it said. "The Australian regulator may want to reset investor and issuer expectations for these securities, especially given the sharp rise in yields of late," according to Pri de Silva, senior credit analyst at Bloomberg Intelligence. "Asia investors can no longer assume like in the past that all perpetual notes will be called on their first call date by issuers." Asia's broader credit markets have been suddenly beset by mounting problems in recent weeks, adding to strains posed by a property debt crisis in China that intensified from last year. Investors recently pushed Asian credit-default swaps to the highest since 2009 when compared to those in Europe and North America. The region is particularly vulnerable because borrowers had relied on cheap debt to fuel some of the fastest growth in the world, but now face surging refinancing costs and weakening currencies as the global economic backdrop worsens. That has all brought a focus to debt securities from the region's financial institutions, as they face rising risks of collecting on loans extended to weaker companies. Last month, the yield to next call on Bank of East Asia Ltd's Additional Tier 1 note jumped by a record, amid investor concerns about the lender's comparatively high rate of soured loans to the Chinese property sector. The note also came under more pressure on Thursday amid the broader sell-off, dropping by a record. Elsewhere in credit markets: • Europe, the Middle East, and Africa Deutsche Bank AG is the lone issuer in Europe's syndicated primary debt market on Thursday, offering a euro covered bond just days after it gave a positive quarterly earnings update. The lender has pulled in €1.6 billion (RM7.42 billion) of investor orders for a €1 billion sale. Sales of European corporate bonds are set to rise 10% to €270 billion in 2023 but stay well below historic averages, ING strategists wrote in a 2023 outlook report. The Bank of England raised interest rates by 75 basis points — the most in 33 years — but strongly pushed back against market expectations for the scale of future increases, warning that following that path would induce a two-year recession. • Asia Yield premiums on Asia ex-Japan investment-grade dollar notes rose as risk appetite took a hit after the latest Fed meeting. Spreads on such debt widened about three basis points on Thursday morning, according to credit traders; they are headed for a sixth straight week of widening in the longest such streak since April 2020. There was no new offering in Asia excluding Japan's primary dollar bond market. Meanwhile, Vietnam real estate companies are struggling to obtain loans and face difficulties issuing corporate bonds during the third quarter, Minister of Construction Nguyen Thanh Nghi told the National Assembly during its televised Thursday session. • Americas No US investment-grade bond sales or investor outreach events were announced overnight after a blank session on Wednesday amid the Fed's latest 75-basis-point rate hike. The US leverage loan market appears to have a window opening with some positive risk-on sentiment sneaking in even after the Fed's latest hike. INEOS boosted its planned euro and dollar term loans and firmed pricing at the tight end, while Starwood accelerated the timing of commitments due.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>HONG KONG/SINGAPORE (Nov 3): An obscure South Korean insurer's decision to buck market convention by skipping a call option sparked a region-wide sell-off in so-called perpetual bonds. A perpetual bond of Woori Bank dropped, while notes from Shinhan Financial Group Co and Kookmin Bank headed for their worst weekly retreats. DB Life, another of the country's insurers, is also pushing back the first call date for its hybrid debt, according to a spokesperson. What is different and riskier this time is that central banks battling inflation are pushing up interest rates, raising the risk that more financial firms could balk at refinancing at higher costs, as Heungkuk Life did. " Some of the securities, such as Additional Tier 1 notes, were created after the Global Financial Crisis to ensure that losses in times of crises would be borne by investors, rather than taxpayers bailing out borrowers. The warning from Australia's regulator encapsulated some of the broader concerns. " With global credit spreads widening significantly over the past 12 months, the prospect of new capital instruments being issued at higher credit spreads than equivalent outstanding instruments has become more pronounced," the Australian Prudential Regulation Authority (APRA) said in a letter dated Nov 1 to financial institutions. APRA "is seeing requests to make 'uneconomic calls,'" it said. " Asia Yield premiums on Asia ex-Japan investment-grade dollar notes rose as risk appetite took a hit after the latest Fed meeting.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5023388266563416</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>The Financial Times' The Banker Magazine Selects FirstBank Puerto Rico as “Bank of the Year - Puerto Rico” - Marketscreener.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 14:05:02 GMT</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>First BanCorp. (the “Corporation”) (NYSE: FBP), the bank holding company for FirstBank Puerto Rico (the “Bank”), announced today that The Banker, a Financial Times international banking magazine, has selected the Bank as Puerto Rico’s Bank of the Year - 2022. The Banker recognized the Bank’s leadership position within the Puerto Rico market as well as its strong fundamentals, robust capital position, and high profitability levels when compared to its peers. The Banker also highlighted the strides made by the Bank to enhance its digital banking offerings and supporting its clients during the COVID-19 pandemic, while embedding sustainability practices in its operations. “We are thrilled to have been selected as Puerto Rico’s Bank of the Year. This award showcases the strength of our expanded franchise and the profound commitment placed by our institution on servicing our clients while supporting our communities and employing extensive efforts to operate a sustainable organization,” said Aurelio Alemán, President and CEO of the Corporation. “Following the successful integration of over 150,000 customers from the recently acquired operation, we are now focused on growing market share by leveraging our fortress balance sheet across all core business segments and continuing to improve and expand our digital self-service offerings all for the benefit of our shareholders, employees, clients, and the communities we serve.” Founded in 1926, The Banker is a monthly international financial affairs publication owned by The Financial Times and is recognized as the world’s premier banking and financial resource for data and analysis of the banking industry. The Banker’s Bank of the Year award is contested by the world’s leading financial institutions, with winners chosen across Africa, Asia-Pacific, Central &amp; Eastern Europe, the Middle East, America, and Western Europe. This marks the 23rd year of the rankings and awards. About First BanCorp. First BanCorp. is the parent corporation of FirstBank Puerto Rico, a state-chartered commercial bank with operations in Puerto Rico, the U.S. and British Virgin Islands and Florida, and of FirstBank Insurance Agency, LLC. Among the subsidiaries of FirstBank Puerto Rico is First Federal Finance Limited Liability Company, a small loan company. First BanCorp’s shares of common stock trade on the New York Stock Exchange under the symbol “FBP.” View source version on businesswire.com: https://www.businesswire.com/news/home/20221202005213/en/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>the “Corporation”) (NYSE: FBP), the bank holding company for FirstBank Puerto Rico (the “Bank”), announced today that The Banker, a Financial Times international banking magazine, has selected the Bank as Puerto Rico’s Bank of the Year - 2022. The Banker recognized the Bank’s leadership position within the Puerto Rico market as well as its strong fundamentals, robust capital position, and high profitability levels when compared to its peers. View source version on businesswire.com: https://www.businesswire.com/news/home/20221202005213/en/</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9999991655349731</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WB sees slower growth in PHL remittances in 2023 - BusinessWorld Online</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Thu, 01 Dec 2022 16:33:42 GMT</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>By Keisha B. Ta-asan, Reporter REMITTANCE INFLOWS to the Philippines are expected to rise by 3.6% this year, the World Bank (WB) said, but it sees growth slowing in 2023 as a looming global economic slowdown is likely to weigh on overseas Filipino workers’ (OFWs) ability to send more money home. On the other hand, Bangko Sentral ng Pilipinas Governor Felipe M. Medalla said he expects OFW remittances “to be 4% to 5% higher (in 2022) than last year.” In the latest World Bank Migration and Development Brief, the multilateral lender said remittance inflows to the Philippines are estimated to go up 3.6% to $38 billion this year. The World Bank and BSP’s remittance growth forecasts are slower than the 5.1% annual expansion seen in 2021. “(Remittance growth) reflected benefits of bilateral arrangements that the Filipino government forged recently with destination governments (including Saudi Arabia) to improve the treatment of Filipino workers,” the World Bank said. The Philippines lifted the ban on the deployment of OFWs to Saudi Arabia in November. The ban was imposed in 2021 due to reports of alleged maltreatment of OFWs by Saudi employers. The World Bank also said demand for skilled Filipino workers in the health and hospitality sectors also drove remittances higher. “With nearly 40-60% of their emigrants employed in the United States and the United Kingdom, the Philippines and Vietnam benefited from the wage hikes and labor shortages in these countries, even as the pandemic-related stimulus subsidies were phased out and record-high inflation eroded their remitting ability,” it said. According to the World Bank, remittances to low- and middle-income countries jumped by an estimated 5% to $626 billion this year, slower than the 10.2% increase in 2021. This year, the Philippines is expected to be the fourth-biggest recipient of remittances, after India ($100 billion), Mexico ($60 billion) and China ($51 billion). India is the first country on track to receive more than $100 billion in annual remittances, the World Bank said. Remittances to East Asia are projected to have inched up 0.7% to $134 billion in 2022, reversing the decline in the last two years. Excluding China, remittances to the region likely went up 3.7%. “Migrants help to ease tight labor markets in host countries while supporting their families through remittances. Inclusive social protection policies have helped workers weather the income and employment uncertainties created by the COVID-19 (coronavirus disease 2019) pandemic. Such policies have global impacts through remittances and must be continued,” Michal Rutkowski, World Bank Global Director for Social Protection and Jobs, said in a statement. SLOWER GROWTH The World Bank said remittances may grow at a slower pace of 2% to $639 billion in 2023, as a global slowdown may slash migrants’ wage gains in host countries. “Downside risks, including a further deterioration in the war in Ukraine, volatile oil prices and currency exchange rates, and a deeper-than-expected downturn in major high-income countries, are substantial,” it added. The World Bank expects the growth of remittance inflows to the Philippines to ease to 2% to $39 billion in 2023. An economic slowdown and a cost-of-living crisis in migrants’ destination countries will likely affect remittance inflows to East Asia, including the Philippines. “Real GDP growth in high-income countries is projected to halve from 2.4% to 1.1%, with inflation remaining high at 4.4%. This will curtail East Asian migrants’ ability to remit, especially if job losses occur,” it said. The World Bank noted lower oil prices may dampen remittance growth from Middle East countries to East Asian nations. Slower demand for East Asia’s manufactured exports “is expected to depress remittance flows to the lower-income East Asian countries,” it added. Higher-income East Asian countries like China, Malaysia and Thailand, which export manufactured goods, usually employ migrants from lower-income countries like the Philippines. “When global demand for manufactured products slumps and migrants loses their jobs, remittance flows to the lower-income countries are adversely affected. The combined impact of these factors suggests that remittance growth in East Asia will be marginally negative (-1%) in 2023 with inflows totaling $133 billion,” the World Bank said. Excluding China, remittances to East Asia are expected to grow “sluggishly” or 0.8% to $84 billion from $82.9 billion in 2022, the World Bank said.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>By Keisha B. Ta-asan, Reporter REMITTANCE INFLOWS to the Philippines are expected to rise by 3.6% this year, the World Bank (WB) said, but it sees growth slowing in 2023 as a looming global economic slowdown is likely to weigh on overseas Filipino workers’ (OFWs) ability to send more money home. The Philippines lifted the ban on the deployment of OFWs to Saudi Arabia in November. Migrants help to ease tight labor markets in host countries while supporting their families through remittances. An economic slowdown and a cost-of-living crisis in migrants’ destination countries will likely affect remittance inflows to East Asia, including the Philippines. “ The combined impact of these factors suggests that remittance growth in East Asia will be marginally negative (-1%) in 2023 with inflows totaling $133 billion,” the World Bank said. Excluding China, remittances to East Asia are expected to grow “sluggishly” or 0.8% to $84 billion from $82.9 billion in 2022, the World Bank said.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9895853400230408</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Why ASEAN Needs a Region-Wide Digital Payment System - The Diplomat</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Advertisement Southeast Asia is experiencing a financial transformation driven by the rise of digital payments, a trend that has been accelerated by the COVID-19 pandemic. As the impacts of this transformation continue to play out, the region must seek to take full advantage of the forms of digital payment now on offer. But the Association of Southeast Asian Nations (ASEAN) should also go one step further. The group should seriously consider the creation of an ASEAN-wide, powerhouse digital payment system, a move that has the potential to generate huge benefits for the region and its 10 member states. The upcoming ASEAN Summit in Phnom Penh should be used as an opportunity for member states to raise the discussion on developing a regional digital payment system. Last month, Google, Temasek, and Bain &amp; Company released the seventh edition of its e-Conomy SEA report, which showed that more than 60 million people in six Southeast Asian countries (Singapore, Thailand, Indonesia, Philippines, Vietnam, and Malaysia) used digital service for the first time from 2020 to 2022. The report also found that more than 75 percent of the population in these six Southeast Asian countries have access to the internet and that a majority of them have shopped online at least once. Diplomat Brief Weekly Newsletter N Get briefed on the story of the week, and developing stories to watch across the Asia-Pacific. Get the Newsletter The report forecasts that e-commerce in this region is only set to increase. Online spending will rise by 162 percent by 2025 to reach $179.8 billion, it projects, with digital payments accounting for 91 percent of transactions. These figures show that the region has huge potential when it comes to digital payments and e-commerce. Enjoying this article? Click here to subscribe for full access. Just $5 a month. Across the region, there have already been extensive discussions on the use of blockchain technology in financial instruments, such as Central Bank Digital Currencies (CBDC) and cryptocurrencies. A few ASEAN member states (Indonesia, Malaysia, Philippines, Singapore, and Thailand) have already prepared to sign a general agreement to develop an interoperable cross-border payment system. This system would allow residents of each country to use their mobile banking app to make instant real-time QR code-based payments for goods and services in any of these countries. Meanwhile, other countries like Cambodia and Malaysia have worked together to launch a mobile cross-border remittance service through Bakong, which is a Cambodia-based payment system that uses blockchain technology. In May, Indonesia’s central bank also announced its plan to launch a central bank digital currency due to the spike in online banking activity. In addition, in other parts of Asia, common digital currency systems are already being floated. Japan’s Kobe University, for instance, has proposed that East Asia create a digital common currency, based on blockchain and issued by individual central banks, which could serve to promote integration and deepen cooperation within multilateral frameworks, as well as protect the rights of smaller and medium-sized economies. Recently, Thailand, China, Hong Kong, and the United Arab Emirates announced the completion of a cross-border digital currency trial coordinated by the Bank for International Settlements. Advertisement A common purpose of all of these payment systems and digital currencies is to reduce cost and boost both cross-border economic activity and the flow of money either domestically or regionally. Therefore, it’s extremely timely for ASEAN to discuss a common digital payment system, based on blockchain technology. How would such a common digital payment system benefit Southeast Asia? One clear benefit is that it would allow people to use their mobile banking apps to make QR code-based payments for goods and services in all 10 ASEAN countries. It would create an interoperable cross-border payment system in which a buyer’s home currency would be converted into the local currency of recipients instantly without having to be exchanged via an intermediary currency, such as the U.S. dollar or Chinese renminbi. This would allow the region to become much less dependent on these intermediary currencies. In addition to increasing efficiency, adopting a digital payment system would also strengthen the relations between the countries of the region. ASEAN members would have the potential to develop closer ties through cooperation between their central banks. This sort of innovation has the potential to strengthen transparency and security by enhancing financial traceability and accountability, which could reduce corruption and cross-border fraud. Under this common system, each member state would achieve greater benefits in terms of trade and tourism, as people in the region would be able to trade goods and services across borders more conveniently, quickly, and cheaply. It would also do away with the need to exchange currencies during travel within the region. The greater access to efficient, accessible, and safe payment systems would also likely improve financial inclusion in places where this is low. A regional common payment system would be particularly beneficial for migrant workers to transfer money to their families in real-time and without transaction costs. Increased regional access to digital payment systems would also contribute directly to poverty reduction efforts. A 2016 study provides evidence that the widespread use of mobile money services in Kenya, for instance, helped to lift 194,000 households – or 2 percent of Kenyan households – out of poverty between 2008 and 2014. The impact was driven by changes in financial behavior, particularly the increased levels of financial resilience and saving by mobile users. The growing e-commerce sector and a rapidly evolving digital payment ecosystem could also help this region’s SMEs unlock new markets, especially if they enhance their digital presence. It could improve cash flow and boost growth through the relationship between businesses. And digital payment also helps to reduce the operating costs that used to take place in physical forms. Developing a payment system is important but having a payment system that is transparent and secure is critical. Therefore, there are a few criteria that the ASEAN countries would need to consider to successfully adopt a digital payment system that is reliable for the residents in the region. Enjoying this article? Click here to subscribe for full access. Just $5 a month. First, ASEAN must create a body that takes charge of the payment system, a sort of ASEAN central bank, to manage and provide guidelines on the payment system. This body must be independent and reliable with an available backup system in place. It must be a transparent body that could provide timely service to make the system more efficient. Second, a digital payment system must be designed to a high standard of security. There are a lot of technologies that ASEAN could adopt to design a digital payment system, and it must choose one that both meets users’ demands and is secure enough to prevent data breaches. In this area, ASEAN could learn from other countries that have already adopted these types of technologies. Third, the payment system must be designed to serve all levels of people, meaning that it must be friendly and inclusive, easy to use, and flexible, so that all residents in each country can adapt to the system quickly. This would encourage more users into the system and ensure that the region derives the maximum benefits in terms of financial inclusion and economic connection to the region.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Advertisement Southeast Asia is experiencing a financial transformation driven by the rise of digital payments, a trend that has been accelerated by the COVID-19 pandemic. Diplomat Brief Weekly Newsletter N Get briefed on the story of the week, and developing stories to watch across the Asia-Pacific. In addition, in other parts of Asia, common digital currency systems are already being floated. Japan’s Kobe University, for instance, has proposed that East Asia create a digital common currency, based on blockchain and issued by individual central banks, which could serve to promote integration and deepen cooperation within multilateral frameworks, as well as protect the rights of smaller and medium-sized economies. Recently, Thailand, China, Hong Kong, and the United Arab Emirates announced the completion of a cross-border digital currency trial coordinated by the Bank for International Settlements. Advertisement A common purpose of all of these payment systems and digital currencies is to reduce cost and boost both cross-border economic activity and the flow of money either domestically or regionally. One clear benefit is that it would allow people to use their mobile banking apps to make QR code-based payments for goods and services in all 10 ASEAN countries. In addition to increasing efficiency, adopting a digital payment system would also strengthen the relations between the countries of the region. Developing a payment system is important but having a payment system that is transparent and secure is critical. There are a lot of technologies that ASEAN could adopt to design a digital payment system, and it must choose one that both meets users’ demands and is secure enough to prevent data breaches.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6451430916786194</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Trans-Afghan Railway Line - Daily Times</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 04:17:14 GMT</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>As connectivity of Southeast Asia and the Middle East with Central Asia and the Caucasus hinges on Afghanistan and Pakistan, the Trans-Afghan Railway Line, if completed, will serve as a lifeline for an integrated Eurasia. Initially, a conception of Uzbek President Shavkat Mirziyoyev to diversify trade and supply routes of his landlocked Central Asian country, Trans-Afghan Railway Line has ever since become a dream of all stakeholders in the region for boosting connectivity. “Termez-Mazar-e-Sharif-Kabul-Peshawar Railway is our common future. When the construction of this route is completed, we will create the closest, cheapest and safest corridor connecting Pakistan to Central Asia,” Mirziyoyev said during his visit to Islamabad in 2020. Uzbekistan’s major purpose behind the project was to gain access to Pakistan’s Karachi Port, Port Qasim and Gwadar Port for its trade outreach to Southeast Asia, the Middle East and North Africa. Pakistan and Afghanistan found it more amenable to their economic revival plans. Even Kazakhstan and Russia took immense interest when the feasibility study of the project was launched in July 2021. The Russian Railway promised to develop a digital model of the project, besides agreeing to help in laying a 1520-millimetre gauge wide rail track up to the Pakistani territory. While working on the proposal, Uzbekistan had three options to reach out to the world. Iran’s Bander Abbas and Chabahar Ports were given thorough consideration. But international sanctions against Tehran did not encourage Tashkent to take that route. Iran’s relations with the Arab world might also have been a disadvantage. The China-Kyrgyzstan-Uzbekistan-Afghanistan rail-road economic corridor has already been made functional. Similarly, Turkmenistan had much tougher import-export processing and higher transit tariff. So Pakistan and Afghanistan were found the viable option to materialise the dream. Media reports at that time quoted Uzbek officials as describing Pakistan as a more stable partner than Iran and Turkmenistan. Trans-Afghan Railway Line also turned out to be the shortest and most economical route for Uzbek freight. In fact, Uzbekistan had already constructed, in 2011, a 75-kilometre rail track between its border city, Termez and Mazar-e-Sharif in northern Afghanistan, though the railway line has, for some reasons, remained non-functional and its cargo has been diverted to the road. The 2018 Uzbek plan envisages shipment of goods from Termez to Afghanistan’s border town of Hairatan from where it is to be moved to Pakistan’s Landikotal town after passing through Mazar-e-Sharif, Kabul and Jalalabad. At Peshawar, the shipment will be offloaded and transported through Pakistan’s rail system to Karachi and Gwadar. Afghanistan’s rugged terrain, tough climate and security hazards pose challenges in the implementation of the project. But both the previous government in Kabul and the present Taliban dispensation have vowed their commitment to undertake the project. The project route in northern Afghanistan also includes the three-and-a-half-kilometre Salang Pass, which mostly remains closed due to heavy snowfall and avalanches in the winter season. To avoid that, a second tunnel, parallel to the existing Salang Tunnel has been proposed, albeit at a higher cost. In January this year, the Taliban cabinet approved a plan to sideline the Salang Pass and pass the railway through Baghlan and Bamyan provinces. This will make the 573-kilometre railway line a bit lengthier but will ensure its topographic safety. Besides security problems, a big challenge in the implementation of the project is the arrangement of funds. Uzbekistan is trying to secure financial support from the World Bank, Asia Development Bank, European Bank for Reconstruction and Development, besides the US International Development Finance Corporation. Of late, there are reports that besides most of these financial institutions, the Asia Infrastructure Investment Bank and International Finance Corporation have also indicated their willingness to finance the $4.80 billion five-year project. With the Central Asian geopolitics disturbed by the Ukraine war, supply routes in the region have been largely destabilized, making such infrastructure projects rather more feasible. Located at the centre of major regions, the Trans-Afghan Railway Line is also poised to provide linkages to major export markets from the European Union boundaries down in China. In 2021, Uzbekistan’s Ministry of Investment and Foreign Affairs had, in a statement, said, “once the Trans-Afghan Railway Line project is completed Pakistan’s trade with Central Asia will rise up to $six billion. It also projected high growth in India’s trade with the region.” The China-Kyrgyzstan-Uzbekistan-Afghanistan rail-road economic corridor has already been made functional: only with willpower as infrastructure for the project is yet to be developed. The first convoy of Chinese goods left Kashghar in southwestern China via Osh in Kyrgyzstan and Termez in Uzbekistan on September 13 this year and reached Afghanistan’s Hairatan border town on September 23. This 523-kilometre supply route is estimated to reduce China’s distance to Europe by 900 kilometres with a shipping time of seven to nine days. Once connected with the prevailing and potential supply routes of the region, the Afghan rail corridor will go a long way in bringing lasting economic prosperity and cultural diversity, making the region a meeting point of eastern and western civilizations. If nations in the region opt to shift the paradigm of their national policies from geopolitics to geoeconomics, they will use such linkages as highways of prosperity and development for their people. The writer is an independent freelance journalist based in Islamabad covering South Asia/ Central Asia.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>As connectivity of Southeast Asia and the Middle East with Central Asia and the Caucasus hinges on Afghanistan and Pakistan, the Trans-Afghan Railway Line, if completed, will serve as a lifeline for an integrated Eurasia. Uzbekistan’s major purpose behind the project was to gain access to Pakistan’s Karachi Port, Port Qasim and Gwadar Port for its trade outreach to Southeast Asia, the Middle East and North Africa. Pakistan and Afghanistan found it more amenable to their economic revival plans. While working on the proposal, Uzbekistan had three options to reach out to the world. This will make the 573-kilometre railway line a bit lengthier but will ensure its topographic safety. Located at the centre of major regions, the Trans-Afghan Railway Line is also poised to provide linkages to major export markets from the European Union boundaries down in China. In 2021, Uzbekistan’s Ministry of Investment and Foreign Affairs had, in a statement, said, “once the Trans-Afghan Railway Line project is completed Pakistan’s trade with Central Asia will rise up to $six billion. The China-Kyrgyzstan-Uzbekistan-Afghanistan rail-road economic corridor has already been made functional: only with willpower as infrastructure for the project is yet to be developed.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9999911785125732</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Crumbling cornerstone? Australia’s education ties with Southeast Asia - The Interpreter</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Fri, 04 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Australia’s relationships with the countries of Southeast Asia are diverse. Some are characterised by deep security partnerships, others by strong trade ties, and others still by development cooperation. Education, however, is a mainstay in each of these relationships, whether through the growing presence of Australian university campuses in the region or the outbound flow of Australian undergraduates to the region through the New Colombo Plan. Above all, the long-term relationships formed by educating students from Southeast Asia in Australia have been a source of Australian access and influence in political, economic, and other institutions across the region. These ties have been recognised by all recent Australian governments. Speaking in Malaysia in June 2022, Australian Foreign Minister Penny Wong described education as “the foundation on which our countries — and our peoples — have built mutual respect and understanding”. Former prime minister Malcolm Turnbull described education as the “hallmark” of Australia–ASEAN cooperation. Education is often central in Australian diplomats’ talking points, and acknowledged by regional leaders in their public statements about Australia. Leading experts, including key academics, have recognised education as “the cheapest and most effective soft power a country like Australia can deploy”. Since the heyday of Australia’s participation in the Colombo Plan — between 1951 and the mid-1970s — the lifeblood of these education relationships has been the students travelling from Southeast Asia to undertake higher education in Australia. As Singaporean Prime Minister Lee Hsien Loong said in 2019 while in Australia, these include “two presidents, several cabinet ministers, two heads of Civil Service and many senior public servants”. Indeed, prominent Southeast Asian leaders with connections to Australia are too numerous to quantify. However, in Indonesia alone they include former vice president and Central Bank governor Boediono, former foreign minister Marty Natalegawa, and former trade minister Mari Pangestu, who were among five Australian alumni to serve in Susilo Bambang Yudhoyono’s cabinets during his decade as Indonesian president. Leading experts, including key academics, have recognised education as “the cheapest and most effective soft power a country like Australia can deploy”. These connections do not necessarily mean that the alumni of Australian universities will support Australian policy positions or adopt Australian values. Yet education creates connections between people, institutions, and governments that can be used as building blocks for further cooperation. According to Peter Drysdale, the leading intellectual architect of the Asia-Pacific Economic Cooperation (APEC), few of Australia’s achievements in building economic ties with Southeast Asia since the 1960s would have been possible without the connections to regional scholars and practitioners built through education. The cabinets of both Singapore and Indonesia each now contain only one minister who has studied in Australia, an appreciable decline. However, Australia has been slow to recognise that the era that established this unique network of influence across Southeast Asia is largely over. The Colombo Plan generation of scholars who studied in Australian universities from the late 1950s until the 1980s has largely retired. This is already reflected in the changing composition of cabinet ministries in the region: the cabinets of both Singapore and Indonesia each now contain only one minister who has studied in Australia, an appreciable decline compared to even ten years ago. Lao Deputy Prime Minister and Foreign Minister Saleumxay Kommasith, who studied at Monash University under the Australia Awards in the 1990s, is likely the most senior alumnus of an Australian institution in government in Southeast Asia at present. In large part, this decline is the result of shifting economic relativities. In 1980, Australia’s economy alone was around 85 per cent of all the Association of Southeast Asian Nations (ASEAN) economies combined. Even excluding ASEAN’s newer member states such as Vietnam, these combined economies are now around twice as large as Australia’s. The region’s growing and prosperous middle class need no longer rely on Australia for education, as access to higher education at home has proliferated. For example, in Malaysia, just four per cent of the population had a tertiary education in 1980. This number has since expanded tenfold. And while the quality of tertiary education remains a challenge across Southeast Asia, the region has been serviced by increasingly competitive international education markets, from the United Kingdom and United States to newer destinations such as Japan. The cumulative effect of these changes means that Australia can no longer take for granted the proposition that it will educate the next generation of Southeast Asian leaders.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Australia’s relationships with the countries of Southeast Asia are diverse. Some are characterised by deep security partnerships, others by strong trade ties, and others still by development cooperation. Above all, the long-term relationships formed by educating students from Southeast Asia in Australia have been a source of Australian access and influence in political, economic, and other institutions across the region. Leading experts, including key academics, have recognised education as “the cheapest and most effective soft power a country like Australia can deploy”. The Colombo Plan generation of scholars who studied in Australian universities from the late 1950s until the 1980s has largely retired. In 1980, Australia’s economy alone was around 85 per cent of all the Association of Southeast Asian Nations (ASEAN) economies combined.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8629454970359802</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Inflection Points – December 2022 - Seeking Alpha</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 06:45:00 GMT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>primeimages Editor’s Note: Inflection Points is a monthly series intended to explore the underlying trends, dynamics and opportunities shaping the thematic investing landscape. A number of years ago, I began compiling an annual list of major geopolitical risks that could prove relevant to the market in the year ahead, with the operative word being “could.” The piece is not a forecast of what’s to come, but rather an exploration of issues that may not be fully priced into the market. Past lists touched on topics ranging from concurrent election cycles in western economies to public health risks from genetic engineering. I generate the list in consultation with colleagues, policymakers, investors, and academics. The related themes identified below are associated with each individual risk rather than intended as an outlook or strategy for 2023. At the close of 2022, I am more optimistic than most for the year ahead. Major triggers of recession, beyond Federal Reserve (Fed) rate hikes alone, are not flashing red. The labor market remains strong with low unemployment rates and strong nominal wage gains that can continue to support consumer sentiment.1 Leverage remains modest in the household sector while companies continue to maintain record cash balances.2 Liquidity is getting tighter as rates rise, but financial conditions remain loose and are only moving toward neutral after several Fed hikes.3 Growth can slow without the U.S. tipping into recession. Several risks could shake my optimism, and here are my top five for 2023. Five Risks China’s 2023 Strategy: Nationalism or Reopening Fed Sticks with 2% Inflation Target Contagion from Emerging Markets Addicted to Stimulus Russia Escalates the Conflict in Ukraine China’s 2023 Strategy: Nationalism or Reopening China’s policy decisions could result in two very different scenarios in the year ahead amid growing protests over the zero-Covid policy.4 Softening of the zero-Covid policy that facilitates even a modest economic reopening would offer a tailwind for global and regional growth likely increasing investor appetite for risk assets like equities.5 Should the government choose to maintain the current restrictive economic conditions, China’s policies may turn increasingly nationalist, including applying pressure on Taiwan.6 The closing events of the National Party Congress did little to reassure investors that a reopening would materialize in the near term, and Hong Kong shares sold off over 9%.7 When the U.S. and China met at the G20 meeting in Bali, Chinese leadership reiterated that Taiwan remained a critical policy consideration, while U.S. leadership indicated that their longstanding Taiwan policy remained in place.8 The meeting was said to be cordial, but there were references to multiple areas of competition between the two nations.9 Strained since 2016, U.S.-China relations show few signs of improving meaningfully, which may be driving a view within China that the current world trading system is no longer advantageous.10 More hawkish policies that have potentially disruptive impacts on the economy and markets are possible. Related themes: Cybersecurity, alternative energy, and robotics may well be the front lines of the next “arms race” amid chillier U.S.-China relations. Fed Sticks with 2% Inflation Target The Fed adopted the 2% inflation target back in 2012 after the Great Financial Crisis and decades of importing deflation from China. At the time, getting inflation to reach that level was an ordeal, and the target signaled that monetary policy would remain loose to bring inflation up.11 However, there’s nothing special about the 2% target, and pursuing a target with little rationale other than historical precedent could undermine a U.S. economy that might be perfectly capable of accepting 3% or even 4% inflation.12 Central banks can be slow in adjusting to changes in inflation expectations.13 Fed officials reiterated that inflation was “transitory” for nine months before changing their messaging.14 The November policy statement reiterated a commitment to the 2% inflation target. In attempting to drive price increases down to that level, a risk is that central banks hike too aggressively. Rate hikes are already impacting housing affordability, a major component of core inflation. Excluding housing, core inflation already shows signs of slowing, as are producer prices, but higher mortgage rates put upward pressure on inflation through housing and rental markets. With one-year ahead inflation expectations at 5.9%, aiming for 2% might lead to overly aggressive policy.15 Related themes: The old adage of “don’t fight the Fed” means there are not many options among risk assets. Healthcare themes like aging population are one option. Cloud computing with a recurring revenue model is another. Contagion from Emerging Markets Emerging market countries suffered a hat trick of challenges since 2019.16 Public health consequences associated with the spread of Covid-19 was the initial blow.17 Economic pressures followed as governments incurred debt to provide support through fiscal stimulus.18 The most recent impediment is the combination of the war in Ukraine and inflationary pressures making food and energy more expensive.19 EM equities reflected these pressures and underperformed the MSCI ACWI since 2019.20 The resilience of markets like Southeast Asia and China’s potential reopening offer reasons for optimism, but challenges persist in a global economy likely to see slowing growth. Risk of an EM crisis leading to contagion seems elevated after these successive events. Past crises like those in Mexico (1994), East and Southeast Asia (1997), and Russia (1998) triggered selloffs in global markets.21 Much of the recent debt issuance to support EM economies wound up on local bank balance sheets, which is both good and bad.22 Unlike prior crises, where debt was issued in foreign currency, debt held with banks is denominated in local currency. The bad news is that government borrowing now accounts for 17% of EM bank balance sheets amid record government indebtedness.23 As a reference point, debt-to-GDP before the Asian Crisis in the four largest ASEAN countries rose from 100% to 167%.24 Today, that number among the broader EM countries is 250%.25 Related themes: Less exposure to EM and more exposure to U.S. infrastructure could prove a resilient strategy. Commodity exposure in lithium &amp; battery technology could also weather EM pressure given elevated demand from electrification. Addicted to Fiscal Stimulus After approximately $5 trillion of U.S. fiscal stimulus in just about two years, government spending is likely to level off going into 2023.26 Governments around the world spent considerable sums during the pandemic, and removal of that support, at a time of higher rates and slowing growth, could be difficult for markets.27 Shrinking public sector engagement in the economy would place more pressure on the private sector, especially the U.S. consumer. The Covid-19 pandemic struck at an odd time for government spending. Concepts like universal basic income (UBI) and Modern Monetary Theory (MMT) were gaining popularity in U.S. policy circles, with MMT arguing that governments could borrow as much as they wanted, provided the debt was denominated in the home country currency.28 The Covid-19 response anecdotally tested these theories and revealed potential shortcomings. Labor markets have been very tight since Covid stimulus was introduced, which is a concern associated with UBI.29 Simultaneously, massive amounts of stimulus likely contributed to the current inflationary impetus. 30 With the 2022 midterm elections in the U.S. delivering a divided government and global public sector borrowing stretched, markets will likely be forced to move forward with less government-offered liquidity.31 The U.S. consumer may offer the best hope of muddling through as markets adjust to a more austere fiscal environment. Related themes: Consumer spending on staples and low-cost activities could find support in this scenario with themes like the millennial consumer and gaming &amp; esports playing key roles. Russia Escalates the Conflict in Ukraine The decision to employ nuclear weapons in Ukraine would be tragic. Loss of life could be considerable, and this would be the first time nuclear weapons were used since 1945. There have been almost 20 wars and countless military operations since then, but no major power has crossed the line and utilized nuclear weapons.32 The specter of Russia using nuclear weapons in Ukraine remains a possibility that could grow more acute in 2023. When Russia invaded Ukraine in February 2022, there was little talk about use of tactical nuclear weapons, but Ukraine’s ability to withstand and even push back Russia’s advance increases the likelihood that Russia’s leadership gambles.33 With winter stasis likely to set in on the battlefield, Ukrainian forces appear well-positioned for major gains, including taking back Crimea, when the spring fighting season begins.34 The logic to using small-scale nuclear weapons is quite limited, particularly in urban settings.35 Hopefully, Russia has done that calculation, as the implications of nuclear use would be far-reaching.36 The U.S. and Europe would almost certainly have to take a more active role in the conflict, increasing exogenous market risk possibly driving funds out of risk assets and into government bonds.37 Russia’s willingness to attack critical infrastructure and trading routes could mean further constraints on energy, food, and material exports.38 International organizations and agreements would be tested. China has largely avoided commenting on Russia’s invasion, but leadership condemned use of nuclear weapons in the conflict during the recent G20 bilateral with the U.S., a sign that Beijing is also concerned.39 Related themes: Further pressure on exports could bolster demand for alternative energy areas like cleantech, wind, solar, and hydrogen as means of countering disruption in energy markets. Agriculture technology may attract attention amid further tightening of global food supplies. Conclusion The five risks highlighted in this report are just a few of the exogenous and geopolitical events that could impact markets in 2023. For example, political polarization in Western democracies persists. Continued meltdown in crypto and potential regulation could put pressure on liquidity. North Korea and Iran maintain nuclear weapons programs outside of accepted international conventions. Politics in South America and the Middle East are often challenging. Fossil fuel supplies or pricing can turn volatile. Cybersecurity remains a weak point for many public and private institutions. A follow-on pandemic could upend public health. Currency markets and default rates will remain an area of concern. As always, investors will have an array of variables beyond economic and market activity to consider at the start of 2023. Original Post Editor's Note: The summary bullets for this article were chosen by Seeking Alpha editors.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>primeimages Editor’s Note: Inflection Points is a monthly series intended to explore the underlying trends, dynamics and opportunities shaping the thematic investing landscape. The related themes identified below are associated with each individual risk rather than intended as an outlook or strategy for 2023. Several risks could shake my optimism, and here are my top five for 2023. Risk of an EM crisis leading to contagion seems elevated after these successive events. The bad news is that government borrowing now accounts for 17% of EM bank balance sheets amid record government indebtedness.23 As a reference point, debt-to-GDP before the Asian Crisis in the four largest ASEAN countries rose from 100% to 167%.24 Today, that number among the broader EM countries is 250%.25 Related themes: Less exposure to EM and more exposure to U.S. infrastructure could prove a resilient strategy. Russia Escalates the Conflict in Ukraine The decision to employ nuclear weapons in Ukraine would be tragic. Agriculture technology may attract attention amid further tightening of global food supplies. For example, political polarization in Western democracies persists.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9107659459114075</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bank of East Asia to tap into AIA China power after sale of insurance unit - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sun, 28 Mar 2021 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Commissioners Ask Whether HSBC Is Undermining Democratic Freedoms in Hong Kong - Congressional-Executive Commission on China</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Thu, 03 Mar 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Bipartisan letter seeks end to restrictions on accounts of American citizens and groups in Hong Kong March 3, 2022 (Washington)—A bipartisan group of members of the bipartisan and bicameral Congressional-Executive Commission on China (CECC) today released a letter to HSBC, a British multinational investment bank and financial services company, inquiring specifically about the freezing of accounts of Hong Kong media and civil society groups and restrictions placed on the accounts of American citizens at HSBC branches located in the United States. The Commissioners also asked HSBC whether its business practices contribute to the “inability of the people of Hong Kong (a) to enjoy freedom of assembly, speech, press, or independent rule of law; or (b) to participate in democratic outcomes,” as stipulated under the Hong Kong Autonomy Act of 2020 (Public Law No. 116-149). Under this legislation, financial and other sanctions can be levied on any individual or entity complicit in undermining human rights and democracy in Hong Kong. Signing the bipartisan letter were Senator Jeff Merkley (D-OR) and Representative James P. McGovern (D-MA), the CECC’s Chair and Cochair; Senator Marco Rubio (R-FL) and Representative Chris Smith (R-NJ), the CECC’s ranking members; and Senators Dianne Feinstein (D-CA), James Lankford (R-OK), Angus King (I-ME), and Steve Daines (R-MT) and Representatives Vicky Hartzler (R-MO), Tom Suozzi (D-NY), Jennifer Wexton (D-VA), Tom Malinowski (D-NJ), and Michelle Steel (R-CA), all CECC Commissioners. The text of that letter can be found below and here. Noel Quinn Group Chief Executive HSBC Dear Mr. Quinn, We are writing to raise questions and concerns about HSBC’s business practices in Hong Kong and globally, including restrictions placed on the accounts of American citizens and the freezing of accounts of Hong Kong activists, independent media, and civic groups. We ask you to provide transparent answers to us about why HSBC has engaged in such activities, in order to assist the U.S. Congress in its oversight of the Hong Kong Autonomy Act (Public Law No. 116-149), the Hong Kong Human Rights and Democracy Act (Public Law No. 116-76), and the Hong Kong Policy Act (Public Law No. 102-383). Statements by HSBC Asia Pacific’s chief executive Peter Tung-shun Wong publicly pledging support for the National Security Law heighten our concern. Since his statement in June 2020, the Hong Kong authorities have put almost the entirety of the city’s opposition figures behind bars and denied bail to most. The government further disqualified and arrested previously elected legislators and district councilors, and went on to rewrite electoral rules to allow only “patriots” fully vetted by the national security police to run in future elections. In July 2021, Mr. Wong was appointed to the 1,500-member Election Committee tasked with nominating, appointing, and electing 40 out of 90 legislators in Legislative Council elections on December 19, 2021. U.S. Secretary of State Anthony Blinken expressed “grave concern over the erosion of democratic elements of the Special Administrative Region’s electoral system.” The Election Committee will pick the next Chief Executive in May 2022. In addition, HSBC has frozen the bank accounts of activists, independent media, and civic groups, many which were forced to close or end operations. Some of the most prominent cases include: In November 2019, HSBC closed a corporate account used to raise funds for the non-profit Spark Alliance which provided legal, medical, food, and education assistance to protestors against the extradition bill; In August 2020, HSBC froze the personal accounts of Apple Daily’s top executives -- publisher Jimmy Lai, his aide Mark Simon, and CEO Cheung Kim-hung -- after the police arrested Lai, Cheung, and others under the National Security Law. The city’s only print pro-democracy newspaper was later forced to shut down in June 2021 after its business accounts with other banks were frozen. A total of 7 top executives including Lai have been arrested and denied bail as of today In December 2020, HSBC froze the accounts of Ted Hui, a former pro-democracy legislator who had fled to Europe, along with the accounts of his wife and parents; In December 2020, HSBC froze the accounts of pastor Ray Chan and the Good Neighbour North District Church whose senior volunteers organized “Protect Our Children” to de-escalate clashes between protesters and police officers during the anti-extradition protests of 2019; In September 2021, HSBC, along with Hang Seng Bank and Bank of East Asia, froze HK$2.2 million assets of the Hong Kong Alliance in Support of Patriotic Democratic Movements of China. The Alliance was forced to close down. Former top officers have been convicted and sentenced for commemorating the June 4 massacre in addition to being charged and denied bail under the National Security Law; and Holders of the British National (Overseas) passports have been denied the ability to withdraw pension funds from HSBC as they leave the city for the UK which raises questions whether HSBC is aiding and abetting the government’s policy to restrain exit. We have also been told that the accounts of American citizens are restricted, including at HSBC branches in the United States. If true, this practice targeting American citizens or legal permanent residents is unacceptable and requires immediate rectification. We ask HSBC to address the concerns stated above and to justify why these actions were taken, including whether these actions were requested by Hong Kong authorities or officials from the People’s Republic of China and whether these actions are consistent with HSBC’s stated policies and the UN Guiding Principles on Business and Human Rights. While you are reviewing HSBC’s policies and actions, we ask that you reverse all actions taken targeting the groups listed above and end any and all restrictions immediately on the accounts of American citizens or legal permanent residents.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Bipartisan letter seeks end to restrictions on accounts of American citizens and groups in Hong Kong March 3, 2022 (Washington)—A bipartisan group of members of the bipartisan and bicameral Congressional-Executive Commission on China (CECC) today released a letter to HSBC, a British multinational investment bank and financial services company, inquiring specifically about the freezing of accounts of Hong Kong media and civil society groups and restrictions placed on the accounts of American citizens at HSBC branches located in the United States. Since his statement in June 2020, the Hong Kong authorities have put almost the entirety of the city’s opposition figures behind bars and denied bail to most. The Election Committee will pick the next Chief Executive in May 2022. Some of the most prominent cases include: In November 2019, HSBC closed a corporate account used to raise funds for the non-profit Spark Alliance which provided legal, medical, food, and education assistance to protestors against the extradition bill; In August 2020, HSBC froze the personal accounts of Apple Daily’s top executives -- publisher Jimmy Lai, his aide Mark Simon, and CEO Cheung Kim-hung -- after the police arrested Lai, Cheung, and others under the National Security Law. While you are reviewing HSBC’s policies and actions, we ask that you reverse all actions taken targeting the groups listed above and end any and all restrictions immediately on the accounts of American citizens or legal permanent residents.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.99994957447052</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Waze West Mids, COP27, Korea sales - the week - just-auto.com</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 13:37:34 GMT</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>To combat congestion and keep communities up to date with traffic dilemmas, Transport for West Midlands (a UK local government body) has partnered with navigation app, Waze. Over the last few years, the area of the West Midlands in England has seen increased economic investment which in turn has resulted in more people driving to the region, attracted by the pull of modern infrastructure and new jobs. Although a positive for the area’s economy, this has led to an increased number of vehicles on the roads and added to pressures on public transport. In order to assist with this increased traffic flow and congestion issues, Transport for West Midlands (TfWM) has partnered with crowdsourced sat-nav app, Waze. The partnership will allow TfWM to analyse data across the whole highway network, aiding the aims of lower road congestion, shorter journey times and increased road safety. We spoke to Mark Corbin, director of network resilience at TfWM and Ru Roberts, UK country manager at Waze, to learn more about the benefits of the partnership and what goals are hoping to be achieved. The COP27 gathering in Egypt this year has been interesting to view from afar. Politicians were grandstanding, officials and scientists issuing hand-wringing warnings and assorted industrialists used the occasion to promote their green credentials through exhibitions and presence at fringe events. Curiously though, the big beasts of the automotive world seemed to have decided that it wasn’t the place to be. Maybe they have other, more immediate or pressing concerns, but we were surprised a few didn’t use the platform to give high profile to electrification and sustainability strategies. The IEA estimates that transport as a whole accounts for 38% of end-use carbon emissions and road transport accounts for the majority of that. There’s a pretty positive story around how the transport industry – which we all depend on – is dealing with that. Progress in developing zero emission vehicles and getting them to market in volume is one obvious highlight. There are also a whole bunch of less obvious sustainability initiatives going on of course, right across the automotive value chain from raw materials through manufacturing and to retail and the final product offering. Occasionally, something pops out from a less obvious source. For example, there are the huge data centres that companies operate these days. As data needs and volumes proliferate, the computing power and equipment to serve growing data processing needs gets greater, as do the energy requirements. Fresh in today: domestic sales by South Korea’s five main automakers combined rose by just over 3% to 127,157 units in November 2022 from 123,136 units a year earlier, according to preliminary wholesale data released individually by the companies. The data did not include sales by low volume commercial vehicle manufacturers such as Tata Daewoo and Edison Motors, as well as sales of imported vehicles which are covered in a separate report later in the month. The domestic vehicle market last month was supported by improving semiconductor supplies and recent new model launches, particularly by the leading domestic brands. The central bank raised its benchmark interest rate by a further 25 basis points in November to 3.25%, from just 1% earlier this year, to help control inflation, after annual GDP growth picked up slightly to 3.1% in the third quarter. Market leader Hyundai reported a 2% fall in domestic sales to 60,926 units last month, while sister company Kia’s sales were up 13% at 52,200 units. GM Korea’s sales fell 21% to 2,057 units while Renault Korea reported a 9% drop to 5,553 units. Domestic SUV manufacturer Ssangyong saw its local deliveries rise 2% to 6,421 units. Also a good November in India where the local festive season helped drive strong overall sales at most Indian automakers, with market leader Maruti Suzuki posting a 14.3% jump for the month, Reuters reported. The news agency noted auto sales numbers are keenly watched as they are among the key indicators for assessing private consumption, which has a more than 50% weightage in calculating the country’s economic growth. India’s inflation has remained at elevated levels well above the Reserve Bank of India’s upper tolerance band of 6%, but has recently shown some signs of easing. Reuters said total passenger car sales rose 22.6% at Maruti Suzuki India, 56.2% at Mahindra &amp; Mahindra and 55% at Tata Motors. Sales of utility vehicles, one of the fastest growing segments, rose 32.5% at Maruti and 56% at Mahindra. BYD’s march into new markets continues with the launch of its Han EV and Tang EV SUV at a track based media test drive event in Mexico and announcement of distribution through eight local dealers. Local launch will be in 2023. Zhou Zou, country manager of BYD Mexico, said “BYD Mexico now boasts more than nine years of local experience, achieving significant milestones in new energy taxis, trucks, and forklifts. [Now] we will bring new energy passenger vehicles to Mexican users in the first half of 2023.” Neva Zhang, commercial director, said BYD was excited to grow its global market presence in Mexico. BYD’s not doing badly at home, either. It was the top-selling car brand in China in the first four weeks of November, brokerage data showed, outperforming the Volkswagen brand in a reversal that, Reuters said, highlighted the pressure on legacy brands in the world’s largest car market. Tesla retail sales in China also nearly doubled in November, from a year earlier, after the automaker cut prices and offered incentives on its Model 3 and Model Y, data from China Merchants Bank International (CMBI) cited by the news agency showed. BYD retail sales reached 152,863 vehicles from 1-27 November, a nearly 83% year on year increase in average daily sales, according to the data, the report said. BYD beat VW’s 143,602 retail sales and Toyota Motor’s 115,272, which were 0.3% and 0.5% lower, respectively, Reuters said. However, the news agency noted, the VW group still outsold BYD when 36,847 Audis were included. Ford said it had invested a further GBP125m in its Halewood Plant, on Merseyside – increasing capacity by 70% – plus GBP24m in the supporting E:PRiME product development centre. The announcement takes total investment in turning Halewood into an EV component plant to almost GBP380m. The latest investment – which includes government support from UK Export Finance, through their Export Development Guarantee – will help safeguard 500 jobs. Kieran Cahill, Ford’s European industrial operations vice-president, said: “Ford is a global American brand, woven into the fabric of Europe for more than 100 years and a major employer at Halewood for almost 60 years. “Our vision in Europe is to build a thriving business, by extending leadership in commercial vehicles and through the electrification of our car range. Halewood is playing a critical part as our first in-house investment in EV component manufacturing in Europe.” Last year’s news that the plant, which currently produces transmissions for internal combustion engine vehicles, had won assembly of electric vehicles power units brought an initial backing of GBP230m to deliver 250,000 units a year from 2024. This was supported by BEIS’ Automotive Transformation Fund, which aims to electrify Britain’s automotive supply chain and protect its competitiveness in the global market. The GBP24m E:PRiME centre, at Ford’s Dunton product development HQ, is building prototypes of the electric power unit and training Halewood employees in machining and assembly, assisted by the Advanced Propulsion Centre. Halewood will supply the Ford Otosan plants in Turkey and Romania but Ford’s Mexican built EV is going great guns with a production boost in the works. It has produced its 150,000th Mustang Mach-E since starting production nearly two years ago, a significant milestone as the company scales EV production to a rate of 600,000 annually by late 2023 and 2m annually by 2026. It is targeting global annual production of 270,000 of the electric Mustangs. Almost all of growth to date is coming from customers replacing an internal combustion vehicle with electric – eight in 10 US customers and nine in 10 European customers, the automaker claimed. The EV is available in 37 countries for 2023, up from 22 in the first year. New Zealand, Brazil and Argentina are among the latest markets. Renault UK is the latest automaker to offer subscription service, pitching its new Megane E-Tech EV from GBP599 a month. The deal is managed by Bipi, Renault Group’s recently-acquired subscription arm. Terms range from three month to two years and the package includes servicing, insurance, road tax, breakdown cover, and congestion charges. A security deposit is the same as one monthly payment and 750 miles a month are included. Subscribers can also cancel at any time. Starting a subscription is done online and there is a delivery fee of GBP99.50. Airbus and Renault Group have signed a research and development agreement which aims at “enhancing transversalities and synergies to accelerate both companies’ electrification roadmaps, improving their respective range of products”. This deal will help Airbus with technology associated with future hybrid-electric aircraft. Airbus and Renault engineering teams will work to mature technology related to energy storage, which remains one of the main roadblocks for the development of long range electric vehicles. The cooperation agreement will notably cover technology bricks related to energy management optimisation and battery weight improvement, and will look for the best pathways to move from current cell chemistries (advanced lithium-ion) to all solid-state designs which could double the energy density of batteries in the 2030 timeframe. The joint work will also study the full lifecycle of future batteries, from production to recyclability, in order to prepare the industrialisation of these future battery designs while assessing their carbon footprint across their entire lifecycle. Another step on the road to autonomous driving: Germany’s Federal Motor Transport Authority (KBA) has approved the Mercedes-Benz/Bosch automated parking system in the P6 parking garage run by APCOA at Stuttgart Airport. This makes it the world’s first automated driverless parking function (SAE Level 4) to be officially approved for commercial use. Mercedes chief technology officer Markus Schaefer said: “Following the market launch of our Drive Pilot Level 3 system, we will soon be offering a Level 4 system for parking with our Intelligent Park Pilot.” “It will be with driverless parking that everyday automated driving will start,” said Markus Heyn, head of Bosch mobility solutions. The driver enters the parking garage, exits the vehicle and uses an app to send it to a pre-booked parking space. The vehicle drives itself to its assigned space and parks. Later, the vehicle returns to the pick up point. Vietnamese automaker VinFast said it had begun exporting vehicles with the first batch of 999 battery powered VF8 SUVs shipped to the US earlier this month. In Vietnam, 999 is considered a lucky number. VinFast CEO Le Thi Thu Thuy said some of the VF8 models shipped to the US were destined for EV subscription company Autonomy but most were to fulfil orders placed by US retail buyers. Autonomy has ordered 2,500 EVs from VinFast so far, becoming the largest corporate buyer. By fulfilling this export order, VinFast has succeeded in establishing a Vietnamese vehicle production hub for global markets with the company also targeting exports to south east Asia and Europe in the near future. Hyundai Motor Group (HMG) plans to join with SK On Company to invest in an electric vehicle (EV) battery manufacturing plant in the US to help meet forthcoming local content requirements for battery materials. According to local reports, the two companies have been in talks over the joint investment since May with a preliminary agreement originally expected to have been signed in the third quarter of 2022. The automaker is spending US$5.5bn on a new dedicated EV manufacturing plant in Bryan County in Georgia with capacity to produce 300,000 units per year from 2025, to be sold mainly in the North American region under the Hyundai, Kia and Genesis brands. Hyundai and SK On were expected to sign a memorandum of understanding this week to invest KRW2.5trn (US$1.9bn) in the battery cell plant with the port city of Savannah the likely location. The two companies were expected to each take a 50% stake in the joint venture which was expected to have a production capacity of 20 gigawatt-hours (GWh) of battery cells per year from 2026, enough to power 300,000 EVs. Have a nice weekend. Graeme Roberts, Deputy Editor, Just Auto</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>To combat congestion and keep communities up to date with traffic dilemmas, Transport for West Midlands (a UK local government body) has partnered with navigation app, Waze. In order to assist with this increased traffic flow and congestion issues, Transport for West Midlands (TfWM) has partnered with crowdsourced sat-nav app, Waze. The COP27 gathering in Egypt this year has been interesting to view from afar. Politicians were grandstanding, officials and scientists issuing hand-wringing warnings and assorted industrialists used the occasion to promote their green credentials through exhibitions and presence at fringe events. For example, there are the huge data centres that companies operate these days. Fresh in today: domestic sales by South Korea’s five main automakers combined rose by just over 3% to 127,157 units in November 2022 from 123,136 units a year earlier, according to preliminary wholesale data released individually by the companies. GM Korea’s sales fell 21% to 2,057 units while Renault Korea reported a 9% drop to 5,553 units. Reuters said total passenger car sales rose 22.6% at Maruti Suzuki India, 56.2% at Mahindra &amp; Mahindra and 55% at Tata Motors. Zhou Zou, country manager of BYD Mexico, said “BYD Mexico now boasts more than nine years of local experience, achieving significant milestones in new energy taxis, trucks, and forklifts. [ This was supported by BEIS’ Automotive Transformation Fund, which aims to electrify Britain’s automotive supply chain and protect its competitiveness in the global market. Halewood will supply the Ford Otosan plants in Turkey and Romania but Ford’s Mexican built EV is going great guns with a production boost in the works. A security deposit is the same as one monthly payment and 750 miles a month are included. The cooperation agreement will notably cover technology bricks related to energy management optimisation and battery weight improvement, and will look for the best pathways to move from current cell chemistries (advanced lithium-ion) to all solid-state designs which could double the energy density of batteries in the 2030 timeframe. Hyundai Motor Group (HMG) plans to join with SK On Company to invest in an electric vehicle (EV) battery manufacturing plant in the US to help meet forthcoming local content requirements for battery materials. The automaker is spending US$5.5bn on a new dedicated EV manufacturing plant in Bryan County in Georgia with capacity to produce 300,000 units per year from 2025, to be sold mainly in the North American region under the Hyundai, Kia and Genesis brands.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9967645406723022</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TOPIC PAGE: War in Ukraine, gas crisis - ICIS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 08:48:45 GMT</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>LATEST HEADLINES Asia acetic acid market seasonally quiet, economic concerns linger By Josh Quah 02-Dec-22 13:16 SINGAPORE (ICIS)–Asia’s acetic acid market have been quiet on the spot front after India’s Diwali festival in October, amid a seasonal lull, although economic concerns weighed on players’ minds while the recent trucker strikes in South Korea could cloud the outlook further. Deep-sea cargoes create arbitrage opportunities in Asia capro market By Josh Quah 02-Dec-22 12:25 SINGAPORE (ICIS)–Asia’s caprolactam (capro) market dynamics have in the past few weeks been impacted by a supply influx from deep-sea origins and the year-end clearing out of inventories from some sellers, in what has been a largely challenging year for capro and its nylon 6 derivative, and are expected to continue in the near term. Asian R-LDPE producers turn to deep-sea origins for feedstock By Arianne Perez 02-Dec-22 12:02 SINGAPORE (ICIS)–Asian producers of recycled low-density polyethylene (R-LDPE) will continue to turn to deep-sea sources of feedstock as availability in the region was drained by lower manufacturing rates. NE Asia ethylene little changed; China sees high January spot demand By Yeow Pei Lin 02-Dec-22 11:21 SINGAPORE (ICIS)–Northeast Asia’s spot ethylene import prices were broadly stable, as the emergence of more competitive offers for December-arrival cargoes was offset by high spot demand for January amid limited 2023 term offers. INSIGHT: Chlorum sees US as next market for its small chlor-alkali plant By Al Greenwood 02-Dec-22 01:01 HOUSTON (ICIS)–The chlor-alkali firm Chlorum Solutions sees the US as the next market where it can bring its model of developing small regional chlor-alkali plants to serve customers eager to avoid the trouble and expense of shipping chlorine over long distances. INSIGHT: Europe EV uptake changing fuels landscape, US moving fast By Man Yiu Tse 01-Dec-22 20:44 SINGAPORE (ICIS)–Electric vehicles (EVs) will make up 80% of Europe’s car fleet by 2050 while take up of low emission vehicles in the US rises and an estimated 30% of the country’s light duty vehicles (LDVs) are electric by that date, new data from ICIS show. South Korea truckers’ strike results in $1.2bn of shipment disruptions in November By Pearl Bantillo 01-Dec-22 20:02 SINGAPORE (ICIS)–The ongoing truckers’ strike in South Korea has caused won (W) 1.6tr ($1.2bn) worth of shipment disruptions in November across all industries, with some petrochemical companies now looking to reduce production this week. Asia naphtha prices buoyed by crude oil; defies low petchem demand By Melanie Wee 01-Dec-22 15:03 SINGAPORE (ICIS)–Asia naphtha prices are riding on the coattails of elevated crude oil prices amid choppy trade, even as petrochemical demand is subdued. India fiscal Q2 GDP growth slows to 6.3% on high inflation, weak exports By Priya Jestin 01-Dec-22 14:32 MUMBAI (ICIS)–India’s economic growth slowed down to a 6.3% in its fiscal second quarter ending September 2022, dragged down by contractions in the manufacturing and mining sectors amid high inflation and weak exports. S Korea Nov petrochemical exports fall 27%; Q4 GDP to contract on truckers’ strike By Nurluqman Suratman 01-Dec-22 13:04 SINGAPORE (ICIS)–South Korea’s petrochemical exports in November fell by 26.5% year on year to $3.55bn due to weaker overall demand from primary market China and amid logistics disruptions late in the month caused by the nationwide truckers’ strike. US ethylene run rates low amid weak demand By John Donnelly 01-Dec-22 07:13 HOUSTON (ICIS)–The ethylene market continues to see weak derivative demand and ample inventories. Exports have slowed this month because of a lack of ship availability, which is pressuring domestic pricing. US propylene market sees weak demand, good supply into next year By John Donnelly 01-Dec-22 06:19 HOUSTON (ICIS)–US propylene contract prices rose in November, halting a two-month slide, but the market remains long amid weak demand and sufficient inventory. Europe domestic Group I base oils demand eases for Dec as supply grows By Eashani Chavda 01-Dec-22 05:43 LONDON (ICIS)–European domestic Group I base oils demand weakens for December while supply levels rise. Prices continue their downtrend, driving some suppliers to optimise diesel production. Wide Spanish discount to support natural gas exports to France By Daniela Miccoli 01-Dec-22 03:44 LONDON (ICIS)–Spain is likely to continue exporting natural gas to France via the VIP Pirineos interconnection in December on the back of a wide PVB front-month discount to France, ICIS price assessments showed. Energy crisis to be eased by French power measures this winter By Karishma Sadanandan 01-Dec-22 01:21 LONDON (ICIS)–With France likely to face a tight winter, specific measures have to be followed to ease tension for power supply. Ukraine scrambles to cover power peak deficit By Valeriia Gutsalo 01-Dec-22 01:09 ARLSRUHE, Germany (ICIS)– Ukraine is forced to continue emergency blackouts across the country as its supply deficit stands at 18% during peak hours, according to ICIS analysis. Asia ethylene dichloride demand may stay muted amid cloudy downstream view By Jonathan Chou 30-Nov-22 17:44 SINGAPORE(ICIS)–Asia’s spot demand for ethylene dichloride (EDC) is likely to be capped in the near-term, due to main derivative polyvinyl chloride’s (PVC) poor performance, while spot supply could remain healthy from deep-sea suppliers. Asia spot PX trade to slow amid market uncertainties By Samuel Wong 30-Nov-22 15:35 SINGAPORE (ICIS)–Trade for spot physical cargoes for paraxylene (PX) in Asia is expected to slow amid market uncertainties and ongoing negotiations for 2023 term contracts. China MEG 2023 import contract talks ongoing; bid-offer gap wide By Judith Wang 30-Nov-22 12:16 SINGAPORE (ICIS)–Negotiations for China’s 2023 monoethylene glycol (MEG) import contracts are under way, with market players having difficulty in reconciling bids and offers. North American TiO2 demand weakens in Q4, still stronger than European, Asian demand By Deniz Koray 30-Nov-22 07:06 HOUSTON (ICIS)–After seeing robust demand for much of 2021 and H1 2022, demand for titanium dioxide (TiO2) end-users has softened in Q4 2022. PODCAST: High gas prices, shortages here to stay, Europe chemicals must adapt By Will Beacham 29-Nov-22 22:04 BARCELONA (ICIS)–Europe gas prices will remain high and shortages will persist for 2-3 years with major risks for winter 2023, according to a scenario analysis by ICIS. South Korea government orders striking truckers in cement industry back to work By Nurluqman Suratman 29-Nov-22 12:19 SINGAPORE (ICIS)–South Korea’s government issued on Tuesday an executive order to force protesting unionised truckers serving the cement industry to return to work, taking into account a huge number of halted construction projects because of the nationwide strike. INSIGHT: Asia BDO entrenched in downtrend, a reversal to prior year’s bull-run By Clive Ong 28-Nov-22 20:01 SINGAPORE (ICIS)–The downtrend in Asia’s 1,4-butanediol (BDO) market appears to have become entrenched with a further slump seen as we head towards year end. South Korea’s construction projects halted as truckers’ strike hits fifth day By Pearl Bantillo 28-Nov-22 18:44 SINGAPORE (ICIS)–A huge number of construction projects in South Korea have had to be halted as the unionised truckers’ strike in the country has been hampering deliveries of cement and steel deliveries over the past five days. Global weekly spot IPEX down with northwest Europe leading regional declines By Yashas Mudumbai 28-Nov-22 18:32 LONDON (ICIS)–The ICIS Petrochemical Index (IPEX) fell 2.5% in the week, dragged down by large fall in northwest Europe and declines in Asia and the US Gulf. Crude falls more than $2/bbl on China COVID-19 unrest, wiping out Ukraine war gains By James Dennis 28-Nov-22 16:59 SINGAPORE (ICIS)–Crude prices fell by more than $2/bbl on Monday on heightened demand concerns following an outbreak of unrest in China. Crude falls by $2/bbl, Asia petrochemical shares dip on China COVID-19 protests By Pearl Bantillo 28-Nov-22 13:18 SINGAPORE (ICIS)–Crude prices slumped on Monday, tumbling by more than $2/bbl, while shares of petrochemical companies in Asia took a beating on demand concerns amid growing protests in China against strict pandemic curbs. INSIGHT: Under margin pressure, China’s SM producers look to expand downstream By Tina Zhang 28-Nov-22 11:00 SINGAPORE (ICIS)–China’s styrene monomer (SM) producers are eying development downstream to help ease margin pressure from oversupply following the rapid capacity expansion of recent years. NE Asia ethylene output to remain weak up to at least H1 2023 By Yeow Pei Lin 25-Nov-22 11:53 SINGAPORE (ICIS)–Northeast Asia’s ethylene production is expected to be constricted by heavy cracker turnarounds, poor margins and weak downstream demand up to at least the first half of 2023. UK price cap to have minimal impact on consumers, hedging By Jack Grant 25-Nov-22 01:45 LONDON (ICIS)–Energy regulator Ofgem announced a further increase to the level of the default tariff cap to £4,279 from 1 January 2023 with impact to consumers and suppliers remaining minimal amid the current energy price guarantee. INSIGHT: Poor demand plagues MX, PX and OX value chain in Europe By Zubair Adam 24-Nov-22 22:42 LONDON (ICIS)–Sluggish consumption is widespread among mixed xylenes (MX) and downstream products paraxylene (PX) and orthoxylene (OX), with no significant recovery expected in the near term. Malaysian shares rally as Anwar appointed as new prime minister By Nurluqman Suratman 24-Nov-22 17:28 SINGAPORE (ICIS)–Malaysian shares rallied on Thursday following news that opposition leader Anwar Ibrahim was appointed as the country’s new prime minister, ending a five-day political impasse. SE Asia PE market dazed by China stop-start demand By Izham Ahmad 24-Nov-22 16:36 SINGAPORE (ICIS)–Initial spot import offers for December shipments of polyethylene (PE) in southeast Asia were announced in the same range as the previous week’s assessment or softer this week, with market players baffled by the stop-start nature of China’s demand for PE. S Korea unionised truckers’ strike begins; may disrupt petrochemical ops anew By Nurluqman Suratman 24-Nov-22 13:25 SINGAPORE (ICIS)–South Korea’s unionised cargo truck drivers began a nationwide strike on Thursday, potentially disrupting petrochemical production and logistics operations across the country. INSIGHT: A third US cracker wave would crest much lower By Joseph Chang 24-Nov-22 05:42 NEW YORK (ICIS)–Chevron Phillips Chemical (CP Chem) and partner QatarEnergy’s announcement on a final investment decision (FID) for their $8.5bn integrated cracker project in Orange, Texas will kick off speculation on whether the US will see a new or third wave of new cracker projects. CDI Economic Summary: All eyes on US inflation and the Fed By Joseph Chang 24-Nov-22 05:16 NEW YORK (ICIS)–Inflation and the Fed – all eyes are on this key metric and the central bank’s response which will drive the U.S. economy heading into 2023. On a slightly weaker-than-expected Consumer Price Index (CPI) print, both Treasury and equity markets rallied hard on hopes that the Federal Reserve may finally be ready to ease the pace of rate increases after four consecutive jumbo hikes of 0.75 percentage points. CP Chem, partner working towards Qatar cracker project FID for 2023 – CEO By Joseph Chang 24-Nov-22 01:52 NEW YORK (ICIS)–Chevron Phillips Chemical (CP Chem) and joint venture partner QatarEnergy are working towards a potential final investment decision (FID) on an integrated cracker and polyethylene (PE) complex in Qatar in 2023, said CP Chem’s CEO. German energy caps to maintain demand pressure By Daniel Muir 24-Nov-22 01:25 LONDON (ICIS)–German domestic power and gas price cap proposals should be sufficient to support domestic energy reductions in the face of a tight supply outlook, according to ICIS analysis. Rising fuel costs cap coal plant margins gains By David Battista 23-Nov-22 23:57 LONDON (ICIS)–European coal prices climbed on cooler temperatures and supply issues, as winter power demand picked up following a mild start to November. INSIGHT: Gasoline blending dynamics driving Asia MX and toluene By Jun Kai Heng 23-Nov-22 23:13 SINGAPORE (ICIS)–Mixed xylenes (MX) and toluene prices in the second half of 2022 have notably become decoupled from, or even defied, the dynamics of theIr downstream counterparts and moved more in line with gasoline blending economics. IMF urges China to further recalibrate COVID-19 strategy By Nurluqman Suratman 23-Nov-22 18:22 SINGAPORE (ICIS)–The International Monetary Fund (IMF) has urged China to further recalibrate its COVID-19 strategy and provide additional support to its beleaguered property sector to mitigate risks from a global economic slowdown. INSIGHT: Sustainability a double-edged sword for China’s petrochemical industry By Yvonne Shi 23-Nov-22 17:00 SINGAPORE (ICIS)–China’s accelerating sustainability drive opens doors of opportunity for the chemicals sector as well as posing challenges. China’s EVA market sentiment sluggish, supply exceeds demand By Joanne Wang 23-Nov-22 16:29 SINGAPORE (ICIS)–Supply outstripped demand amid downbeat sentiment owing to a combination of strict zero-COVID measures and ample supply from home and abroad. South Korea bracing for another truckers’ strike from 24 November By Nurluqman Suratman 23-Nov-22 12:52 SINGAPORE (ICIS)–South Korea’s unionised cargo truck drivers are planning to stage an indefinite nationwide strike for the second time this year starting 24 November, potentially causing manufacturing and supply chain disruptions at major petrochemical sites. Singapore 2023 GDP growth to ease to 0.5-2.5% on weaker external demand By Nurluqman Suratman 23-Nov-22 11:19 SINGAPORE (ICIS)–Singapore’s economy is projected to grow by 0.5% to 2.5% in 2023, slowing down from the expected growth of around 3.5% this year, on the back of worsening external demand, official data showed on Wednesday. INSIGHT: China’s new property market policy expected to drive longer-term demand recovery By Lina Xu 22-Nov-22 23:03 SINGAPORE (ICIS)–On 11 November, the People’s Bank of China and the China Banking and Insurance Regulatory Commission jointly issued a notice to financial institutions laying out plans to ensure the “stable and healthy development” of the property sector. PODCAST: China chemicals demand outlook poor on scheduled shutdowns, pandemic policies By Morgan Condon 22-Nov-22 22:13 LONDON (ICIS)–Global holidays loom large, with Thanksgiving taking place this week, Christmas a month away and the Chinese Lunar New Year celebrations on the horizon, taking place at the end of January 2023. Falling crude, feedstocks weigh on NE Asia polyester; outlook bearish By Judith Wang 22-Nov-22 12:22 SINGAPORE (ICIS)–The recent declines in crude and feedstock prices have weighed on the spot polyester export market in northeast Asia, with the year-end outlook bearish. China plans CNY200bn refinancing to help delivery of pre-sold homes By Fanny Zhang 22-Nov-22 12:22 SINGAPORE (ICIS)–China’s central bank is planning to provide yuan (CNY) 200bn interest-free refinancing to commercial banks to encourage them to support delivery of unfinished homes, the official Xinhua news outlet reported. INSIGHT: A warm November, easing costs, benefit Europe’s cracker operators By Nigel Davis 22-Nov-22 01:03 LONDON (ICIS)–Gas-driven energy costs in Europe have come off spectacular highs but petrochemical producers in the region are still contending with the exceptionally difficult operating environment. VIDEO: European power outlook for Winter 2022 By Laura Mendes 21-Nov-22 21:02 LONDON (ICIS)–The ICIS Power team presents the key drivers for the remaining of Q4 ’22 and for Q1 ’23 in the main Global weekly spot IPEX little changed as gains in NE Asia offsets losses in NW Europe, US Gulf By Yashas Mudumbai 21-Nov-22 18:42 LONDON (ICIS)–The weekly ICIS Petrochemical Index (IPEX) was barely changed in the week, rising by 0.1% as gains in northeast Asia offset declines in northwest Europe and the US Gulf. Asian currency appreciation attracts limited PE pipe grade import buying interest By Hazel Goh 21-Nov-22 17:15 SINGAPORE (ICIS)–Limited Asia PE black 100 pipe grade import buying interest emerged from the appreciation of Asian currencies against the US dollar. Crude, China petrochemical futures, shares tumble on demand concerns By Pearl Bantillo 21-Nov-22 17:04 SINGAPORE (ICIS)–Crude prices were extending their losses on Monday, with declines in China equities and petrochemical futures markets, due to demand concerns amid continued lockdowns in the world’s second-biggest economy caused by rising COVID-19 cases. Yansab to shut Saudi complex for 53 days in ’23 amid poor global demand By Pearl Bantillo 21-Nov-22 14:03 SINGAPORE (ICIS)–Yanbu National Petrochemical Company (Yansab) plans to shut its complex in Saudi Arabia at the start of 2023, for nearly two months of turnaround amid weakening global demand. India faces further LNG import decline in 2023 on greater spot exposure, domestic supply growth By Joachim Moxon 21-Nov-22 10:55 SINGAPORE(ICIS)–Indian LNG imports are tumbling to the weakest levels since 2017 and could fall again in 2023 as the disruption in a long-term contract has opened up a significant supply gap. Asia fatty alcohol ethoxylates to remain sluggish on weak macro conditions By Helen Yan 18-Nov-22 16:57 SINGAPORE (ICIS)–Asia’s fatty alcohol ethoxylates (FAEs) spot market is expected to remain sluggish till the end of the year due to prevailing weak macroeconomic conditions and the global downturn. China’s phenol faces headwinds from poor demand, new capacities By Yoyo Liu 18-Nov-22 15:16 SINGAPORE (ICIS)–China’s phenol prices are expected to fluctuate downwards in the short term as a result of intensive start-ups of new capacities and muted downstream demand, said most market participants. China C2 spot buying supported up to year-end; ’23 term talks see slow start By Yeow Pei Lin 18-Nov-22 10:50 SINGAPORE (ICIS)–China’s spot ethylene (C2) buying is expected to remain healthy until at least the end of the year due to the uncertain term supply for 2023, downstream capacity growth and weak domestic methanol-based output. Asia-US container rates continue to slide despite increase in blank sailings By Adam Yanelli 18-Nov-22 06:44 HOUSTON (ICIS)–Rates for shipping containers from east Asia and China to both US coasts fell this week as waning US consumer demand for goods has outweighed reduced capacity along the trade lane. Production cuts to continue in European P-series glycol ethers market By Cameron Birch 17-Nov-22 23:33 LONDON (ICIS)–Production curtailments on P-series glycol ethers already in place for some time are to continue for the foreseeable future, with the European market set to see persistent weakness at the end of the year. Bulgaria’s Maritsa East 2’s power selling activity to continue in the near-term By Luka Dimitrov 17-Nov-22 21:23 LONDON (ICIS)–Bulgarian coal producer Maritsa East 2 (ME2) is set to continue selling forward power futures on local exchange IBEX in the near term as Bulgarian spot price remains high, according to local market sources. INSIGHT: Lacklustre demand from various outlets impacting polyols, TDI and toluene By Zubair Adam 17-Nov-22 21:03 LONDON (ICIS)–Weaker activity from the automotive and flexible foam industries is impacting the consumption of polyols and toluene diisocyanate (TDI), with some additional impacts from the latter on feedstock toluene due to lower production. No short term demand recovery is envisaged for the whole value chain. Saudi Aramco to build $7bn Shaheen petrochemical project in South Korea By Nurluqman Suratman 17-Nov-22 13:05 SINGAPORE (ICIS)–Saudi Aramco, through its subsidiary S-Oil, will build a won (W) 9.3tr ($7bn) petrochemical project in Ulsan, South Korea which would include a 1.8m tonne/year mixed-feed cracking facility. Rail strike could fuel recession; US Congress must act to prevent it – ACC By Adam Yanelli 17-Nov-22 01:38 HOUSTON (ICIS)–With the possibility of a rail worker strike looming, the American Chemistry Council is urging Congress to take action to prevent it or risk pushing the US economy closer to a recession. Coal prices climb on mounting supply fears By Jack Grant 17-Nov-22 00:29 LONDON (ICIS)–Profit margins for German coal-fired power plants continued to fall in week 46, with front-year margins reaching their lowest level since July 25 as global supply risks mounted. Tight nuclear in France likely to support Q1 ’23 delivery By Karishma Sadanandan 17-Nov-22 00:06 LONDON (ICIS)–French power supply margins are likely to tighten significantly in Q1 ‘23 if, as is likely, further nuclear maintenance and outages endure into the first quarter. PODCAST: Macroeconomics prove challenging for global chems in 2023, although some bright spots remain By Morgan Condon 16-Nov-22 22:50 LONDON (ICIS)–After several challenging years in the wake of the COVID-19 pandemic, volatile geopolitical conditions and a tough macroeconomic backdrop mean that things are unlikely to turn a corner for global chemicals producers heading into the new year. INSIGHT: China’s property rescue plan to boost some petrochemicals By Fanny Zhang 16-Nov-22 20:57 SINGAPORE (ICIS)–China’s latest measures to rescue the stressed property sector are expected to lift some petrochemicals, although they are unlikely to reverse bearish sentiment on the sluggish property market, according to economists and analysts. Europe epoxy under pressure in Nov; further Dec operational actions likely By Heidi Finch 16-Nov-22 19:03 LONDON (ICIS)–Europe epoxy resins prices are generally under downward pressure in November, due to the recent easing in gas and raw material costs, depressed demand and very competitively priced Asian product. China outlook dims further on fresh COVID-19 surge, real estate slump By Nurluqman Suratman 16-Nov-22 13:17 SINGAPORE (ICIS)–China’s economic outlook just turned dimmer amid downbeat October data, with surging domestic COVID-19 infections and slumping real estate market threatening to aggravate weak petrochemical demand. INSIGHT: US refiners prioritise diesel, limiting base oil output By Amanda Hay 16-Nov-22 02:06 HOUSTON (ICIS)–Several US refiners are maximizing distillate (diesel and fuel oils) production to address global shortages and strong demand for these products – a move that limits base oil output. Weak demand outweighs refined COVID-19 policy, capping China PP price rise By Zhibo Xiao 15-Nov-22 16:02 SINGAPORE (ICIS)–China’s polypropylene (PP) futures surged following the release of the refined COVID-19 policy on 11 November, but the market may still face pressure toward the year-end amid tepid demand recovery, intensive arrivals of competitively-priced imports and expected new plant start-ups. Prompt prices to support Dutch power exports to Germany By Daniel Muir 15-Nov-22 01:53 LONDON (ICIS)–Volatile prompt prices and power production uncertainty in France are likely to continue to support German imports of Dutch power throughout winter 2022. APLA ’22: INTERVIEW: Indorama expects surfactants demand growth in ag, oil By Al Greenwood 14-Nov-22 21:00 CANCUN (ICIS)–Indorama expects surfactants demand in South America will continue to grow in the agricultural and energy markets, an executive said. Global weekly spot IPEX ticks higher after gains in all regions By Yashas Mudumbai 14-Nov-22 20:05 LONDON (ICIS)–The weekly ICIS Petrochemical Index (IPEX) rose by 0.8% on the back of gains in all three main regions. INSIGHT: Chemicals specialisation, focus on sustainability paying dividends in tough operating environment By Nigel Davis 14-Nov-22 19:44 LONDON (ICIS)–Specialisation and a focus on higher added value chemicals and services provided some shelter from the storm for certain producers in Europe in the third quarter. Asia butyl acetate slides to two-year low on tepid demand By Melanie Wee 14-Nov-22 17:11 SINGAPORE (ICIS)–Asia butyl acetate (butac) market fundamentals were undermined by lacklustre demand, sending spot prices to a two-year low, although some pick-up in sentiment may be seen towards year-end. China PC import price at over two-year low; demand outlook poor By Li Peng Seng 14-Nov-22 09:34 SINGAPORE (ICIS)–China’s average import price of moulding grade polycarbonate (PC) slumped to more than a two-year low as poor demand lingered while supply stayed plentiful. APLA ’22: LatAm PE supply to remain sufficient to good By Bruno Menini 13-Nov-22 22:00 CANCUN, Mexico (ICIS)–Latin America polyethylene (PE) fourth-quarter supply is expected to remain sufficient to good for most regional markets amid normal plant operations and improving US export availability as logistic challenges eased, heading into this year’s annual meeting of the Latin America Petrochemical Association (APLA). PODCAST: China’s EVA producers overhaul plants amid price routs By Joanne Wang 11-Nov-22 13:07 SINGAPORE (ICIS)–ICIS analysts Jady Ma and Joanne Wang discuss the recent developments in China’s Ethylene vinyl acetate (EVA) market. Asia ethylene little changed as players await direction from ’23 term talks By Yeow Pei Lin 11-Nov-22 11:16 SINGAPORE (ICIS)–Asia’s ethylene spot import prices for December-arrival cargoes were broadly stable this week, as the weak downstream margins and strong US arrivals continued to be counterbalanced by limited regional supply. Bearish sentiment dominates Asia November petrochemical markets By Amy Yu 11-Nov-22 10:29 SINGAPORE (ICIS)–Bearish sentiment in Asian petrochemical markets has risen due to weak demand from late October, and we expect prices of most products in the region to remain on a downward trend in November. German Cal ’23 facing downward revision on bearish fundamentals By Daniel Muir 11-Nov-22 00:47 LONDON (ICIS)– The German power front-year baseload contract looks set to continue its downward revision towards expiry on bearish winter ’22 fundamentals. Europe capro and nylon 6 demand to stay weak By Marta Fern 10-Nov-22 23:58 LONDON (ICIS)–Europe caprolactam (capro) and nylon 6 demand is expected to stay subdued in November and December and output curtailed, limiting overproduction. INSIGHT: Imminent US slowdown piles up problems for Mexican chems By Al Greenwood 10-Nov-22 23:16 HOUSTON (ICIS)–The imminent downturn in the US economy will slow growth in Mexico, lowering demand for plastics and chemicals in an industry that can’t get enough feedstock. Europe’s energy-intensive chemicals could reach ‘point of no return’: Brenntag CEO By Will Beacham 10-Nov-22 22:50 BARCELONA (ICIS)–Europe’s energy-intensive chemical sector and value chains could reach the “point of no return” as they operate at an increasing cost disadvantage to other regions, according to the CEO of Brenntag, the world’s largest distributor of chemicals. Brenntag to double M&amp;A war chest, expand digital focus By Will Beacham 10-Nov-22 22:11 BARCELONA (ICIS)–Brenntag has doubled its annual mergers &amp; acquisitions (M&amp;A) budget with an eye to investing beyond the chemicals distribution space to enhance its data and technology offering. Saudi Arabia H1 2022 PE exports increase year on year By Nadim Salamoun 10-Nov-22 16:07 DUBAI (ICIS)–Latest available data on the ICIS Supply and Demand Database showed that Saudi Arabia’s polyethylene (PE) exports during the first half of 2022 increased year on year by 5.6% from a total of 4,584,012 tonnes to a total of 4,842,267 tonnes. VIDEO: China faces strong gasoil demand, gasoline demand softening By Floria Dai 10-Nov-22 15:51 SINGAPORE (ICIS)–Watch industry analyst Floria Dai discuss China’s gasoline and gasoil market which have seen varying trends in wholesale prices. Asia naphtha slumps on poor downstream margins, maintenance shutdowns By Melanie Wee 10-Nov-22 15:13 SINGAPORE (ICIS)–Asia naphtha markets could remain undermined by bearish conditions, generating downward pressure on spot prices. Asia BDO retreats on poor demand, weak domestic China market By Clive Ong 10-Nov-22 11:27 SINGAPORE (ICIS)–The Asian 1,4-butanediol (BDO) market trended lower as demand in the region dissipated amid a poor economic outlook. Some participants believe that demand in the region, in particular China, could remain weak until after the Lunar New Year in late January. China, India ethanolamines markets under downward pressure as demand wanes By Clive Ong 10-Nov-22 14:28 SINGAPORE (ICIS)–The ethanolamines markets in China and India remain under downward pressure amid prevailing weak demand and ample supply. British industrial demand to remain below previous years By ICIS Editorial 10-Nov-22 01:05 LONDON (ICIS)–Despite recent pressure to NBP Day-ahead and front month gas prices, a return to high levels of industrial offtake in Britain is unlikely, ICIS analysis shows. INSIGHT: Some recent energy cost relief for Europe but demand outlook poor By Nigel Davis 10-Nov-22 00:35 LONDON (ICIS)–ICIS price-based indexes have tracked down in the second half of the year with significant falls pushing year on year comparison deeply negative. INTERVIEW: Chemical industry must attract talent to tackle world’s big challenges – Dow CEO By Joseph Chang 09-Nov-22 23:42 NEW YORK (ICIS)–The chemical industry needs to attract qualified people to solve some of the world’s greatest challenges such as decarbonisation, the CEO of Dow said. German front year clean darks hit 3-month low By Jack Grant 09-Nov-22 23:16 LONDON (ICIS)–Front year profit margins for German coal-fired power plants continued to fall going into week 45, reaching the lowest level since July, despite fuel costs falling and becoming less expensive relative to revenue. PODCAST: European companies resume imports and gas injections in Ukraine By Aura Sabadus 09-Nov-22 21:14 LONDON (ICIS)– Ukrainian energy companies are facing one of their toughest winters ever, scrambling to repair infrastructure damaged by ongoing Russian missile attacks ahead of winter and secure financial resources to keep the energy system running. Despite the risks, European companies are importing and injecting gas in storage, taking advantage of falling gas prices and Ukraine’s large available capacity. Thailand’s PTTGC swings to Q3 net loss amid weaker petchem margins By Nurluqman Suratman 09-Nov-22 16:22 SINGAPORE (ICIS)–PTT Global Chemical (PTTGC) swung to a net loss of Thai baht (Bt) 13.4bn in the third quarter amid weaker petrochemical spreads, the Thai producer said on Wednesday. Asia petrochemical markets mixed amid high inflation By Felicia Loo 09-Nov-22 14:28 SINGAPORE (ICIS)–Asia’s petrochemical markets were mixed amid economic headwinds and dampening consumption in China amid a slowing economy, with no let-up on its harsh zero COVID-19 policy, dampening consumption. SE Asia MTBE supply shortage keeps export window for China open By Keven Zhang 09-Nov-22 12:38 SINGAPORE (ICIS)–Supply of methyl tertiary butyl ether (MTBE) tightened in Asia due to low production and plant issues, keeping China’s export window to the region wide open. Dull outlook for India synthetic rubbers import talks amid declining offers By Ai Teng Lim 09-Nov-22 11:29 SINGAPORE (ICIS)–Discussions for Indian imports of various synthetic rubbers, from styrene-butadiene-rubber (SBR) to polybutadiene rubber (PBR), may stay under pressure in the near term, as import offers are softening amid stiffer competition for market share. INSIGHT: ICIS price indexes continue extended downtrend on demand concerns By Nigel Davis 09-Nov-22 01:18 LONDON (ICIS)–ICIS petrochemical indexes started to turn down in mid year, with the NE Asia IPEX taking a lead on coronavirus lockdowns and deepening concern about China’s rate of economic growth. PODCAST: Asia IPA tight despite weak demand also seen in Europe and US By ICIS Editorial 08-Nov-22 19:58 LONDON (ICIS)–Demand for isopropanol (IPA) is globally soft, though tight supply in Asia has contributed to continued limited exports to Europe. Philippines’ Petron Jan-Sept net profit surges; to build coco-methyl ester plant By Pearl Bantillo 08-Nov-22 15:08 SINGAPORE (ICIS)–Petron Corp posted a 64% year-on-year increase in nine-month net profit on the back of higher fuel demand even as recession fears drove down oil prices in the third quarter, the Philippine refiner said on Tuesday. Supply uncertainty drives risk premium towards Dutch TTF gas curve and away from the prompt By Rob Dalton 08-Nov-22 00:06 LONDON (ICIS)–Since the outbreak of conflict between Russia and Ukraine, much of the risk premium w</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>LATEST HEADLINES Asia acetic acid market seasonally quiet, economic concerns linger By Josh Quah 02-Dec-22 13:16 SINGAPORE (ICIS)–Asia’s acetic acid market have been quiet on the spot front after India’s Diwali festival in October, amid a seasonal lull, although economic concerns weighed on players’ minds while the recent trucker strikes in South Korea could cloud the outlook further. NE Asia ethylene little changed; China sees high January spot demand By Yeow Pei Lin 02-Dec-22 11:21 SINGAPORE (ICIS)–Northeast Asia’s spot ethylene import prices were broadly stable, as the emergence of more competitive offers for December-arrival cargoes was offset by high spot demand for January amid limited 2023 term offers. US ethylene run rates low amid weak demand By John Donnelly 01-Dec-22 07:13 HOUSTON (ICIS)–The ethylene market continues to see weak derivative demand and ample inventories. Exports have slowed this month because of a lack of ship availability, which is pressuring domestic pricing. Europe domestic Group I base oils demand eases for Dec as supply grows By Eashani Chavda 01-Dec-22 05:43 LONDON (ICIS)–European domestic Group I base oils demand weakens for December while supply levels rise. Prices continue their downtrend, driving some suppliers to optimise diesel production. Asia ethylene dichloride demand may stay muted amid cloudy downstream view By Jonathan Chou 30-Nov-22 17:44 SINGAPORE(ICIS)–Asia’s spot demand for ethylene dichloride (EDC) is likely to be capped in the near-term, due to main derivative polyvinyl chloride’s (PVC) poor performance, while spot supply could remain healthy from deep-sea suppliers. South Korea government orders striking truckers in cement industry back to work By Nurluqman Suratman 29-Nov-22 12:19 SINGAPORE (ICIS)–South Korea’s government issued on Tuesday an executive order to force protesting unionised truckers serving the cement industry to return to work, taking into account a huge number of halted construction projects because of the nationwide strike. Crude falls by $2/bbl, Asia petrochemical shares dip on China COVID-19 protests By Pearl Bantillo 28-Nov-22 13:18 SINGAPORE (ICIS)–Crude prices slumped on Monday, tumbling by more than $2/bbl, while shares of petrochemical companies in Asia took a beating on demand concerns amid growing protests in China against strict pandemic curbs. INSIGHT: Under margin pressure, China’s SM producers look to expand downstream By Tina Zhang 28-Nov-22 11:00 SINGAPORE (ICIS)–China’s styrene monomer (SM) producers are eying development downstream to help ease margin pressure from oversupply following the rapid capacity expansion of recent years. INSIGHT: A third US cracker wave would crest much lower By Joseph Chang 24-Nov-22 05:42 NEW YORK (ICIS)–Chevron Phillips Chemical (CP Chem) and partner QatarEnergy’s announcement on a final investment decision (FID) for their $8.5bn integrated cracker project in Orange, Texas will kick off speculation on whether the US will see a new or third wave of new cracker projects. On a slightly weaker-than-expected Consumer Price Index (CPI) print, both Treasury and equity markets rallied hard on hopes that the Federal Reserve may finally be ready to ease the pace of rate increases after four consecutive jumbo hikes of 0.75 percentage points. IMF urges China to further recalibrate COVID-19 strategy By Nurluqman Suratman 23-Nov-22 18:22 SINGAPORE (ICIS)–The International Monetary Fund (IMF) has urged China to further recalibrate its COVID-19 strategy and provide additional support to its beleaguered property sector to mitigate risks from a global economic slowdown. INSIGHT: China’s new property market policy expected to drive longer-term demand recovery By Lina Xu 22-Nov-22 23:03 SINGAPORE (ICIS)–On 11 November, the People’s Bank of China and the China Banking and Insurance Regulatory Commission jointly issued a notice to financial institutions laying out plans to ensure the “stable and healthy development” of the property sector. No short term demand recovery is envisaged for the whole value chain. China PC import price at over two-year low; demand outlook poor By Li Peng Seng 14-Nov-22 09:34 SINGAPORE (ICIS)–China’s average import price of moulding grade polycarbonate (PC) slumped to more than a two-year low as poor demand lingered while supply stayed plentiful. Bearish sentiment dominates Asia November petrochemical markets By Amy Yu 11-Nov-22 10:29 SINGAPORE (ICIS)–Bearish sentiment in Asian petrochemical markets has risen due to weak demand from late October, and we expect prices of most products in the region to remain on a downward trend in November. Some participants believe that demand in the region, in particular China, could remain weak until after the Lunar New Year in late January. German front year clean darks hit 3-month low By Jack Grant 09-Nov-22 23:16 LONDON (ICIS)–Front year profit margins for German coal-fired power plants continued to fall going into week 45, reaching the lowest level since July, despite fuel costs falling and becoming less expensive relative to revenue. Despite the risks, European companies are importing and injecting gas in storage, taking advantage of falling gas prices and Ukraine’s large available capacity. INSIGHT: ICIS price indexes continue extended downtrend on demand concerns By Nigel Davis 09-Nov-22 01:18 LONDON (ICIS)–ICIS petrochemical indexes started to turn down in mid year, with the NE Asia IPEX taking a lead on coronavirus lockdowns and deepening concern about China’s rate of economic growth. This could provide some upside for wholesale electricity prompt prices in the near term, particularly if supply margins tighten elsewhere. In this podcast, PVC editor Damini Dabholkar discusses recent developments and what lies ahead for PVC. Global weekly spot IPEX down on decreases across regions By Yashas Mudumbai 07-Nov-22 18:14 LONDON (ICIS)–The weekly ICIS Petrochemical Index (IPEX) fell by 2.3% on the back of declines across all regions. INSIGHT: Greater commitment needed to move climate dial further By Nigel Davis 04-Nov-22 01:33 LONDON (ICIS)–The world is nearing ‘peak oil’ and, indeed, the peak of demand for all fossil fuels as the drive to abate rampant climate change continues. It’s not pausing or pivoting, and not budging from its target. Asian recyclers seek balance between feedstock security, storage constraints By Arianne Perez 02-Nov-22 17:21 SINGAPORE (ICIS)–Asian producers of recycled polyethylene terephthalate (R-PET) and recycled polyethylene (R-PE) require a delicate balance between continuous purchases of feedstock while avoiding full storage capacities at plants. As of October 31, the ICIS China Petrochemical Price Index (which tracks 17 commodities) dropped 5.4% from September 30 to close at 1220.11 points. The report lays out the country’s development objectives for 2035, with the goal of “significantly increasing economic strength, scientific and technological capabilities, and composite national strength”. K Fair ‘22: Cost saving key for Europe TiO2 players in challenging climate By Heidi Finch 27-Oct-22 18:59 LONDON (ICIS)–Cost saving is vital in the fourth quarter and into 2023 in the Europe titanium dioxide (TiO2) market, as demand is falling and economic conditions are worsening, as discussed by players at K Fair. This is likely to continue through at least the first part of Q4. INSIGHT: BASF expecting extremely volatile markets and further uncertainty By Nigel Davis 26-Oct-22 23:54 LONDON (ICIS)–BASF is sticking with its 2022 financial forecasts and is targeting earnings at the upper end of its €6.8-7.2bn range for earnings before interest and tax (EBIT), a steep fall on last year, but is having to be creative in the way it handles the energy crisis in Europe and the wider global economic downturn. Some EU firms resume Ukraine storage injections to clear supply overhang By Aura Sabadus 26-Oct-22 23:49 LONDON (ICIS)–Some EU-based companies have resumed gas injections in Ukrainian storage as hub prices have been falling and markets are facing a supply overhang, several traders told ICIS. Asia PVC likely to see muted demand, healthy supply in the short term By Jonathan Chou 26-Oct-22 16:52 SINGAPORE (ICIS)–Regional spot demand for polyvinyl chloride (PVC) in Asia is likely to remain muted on the back of recession fears and rising inflation, while availability is expected to stay healthy in the short term. US epoxy resins softening as market tries to gauge 2023 demand By Tarun Raizada 26-Oct-22 06:14 HOUSTON (ICIS)–US epoxy resins continued to be pressured in October due to aggressively-priced imports and slowing demand tied to seasonal and economic headwinds. PODCAST: Global chemicals loses China as engine of demand growth By Will Beacham 25-Oct-22 22:10 BARCELONA (ICIS)–China’s economic growth will continue at low levels, removing a major source of expanding demand for the global chemical sector. Input shortages that have dogged the manufacturing sector in the country are likely to last beyond the COVID-19 pandemic and the Russia-Ukraine war, according to ifo researcher Joachim Ragnitz. US LNG provided 5.3 billion cubic metres (bcm) of gas in September, with total Russian supply at 3.7bcm. Asia FAE market to remain sluggish in Q4 on economic slowdown and uncertainties By Helen Yan 14-Oct-22 16:13 SINGAPORE (ICIS)–Asia’s fatty alcohols ethoxylates (FAE) market is expected to remain sluggish in the fourth quarter amid a global economic slowdown and gloomy macroeconomic outlook. It is why companies have been attracted to China and all those consumers. Moreover, the age composition of the population, incomes, and the development of downstream durable and non-durable end-use markets, and other factors also impact plastic resin demand. While pricing has held up in the US and Europe thus far, downward pressure is building. S Korea raises benchmark interest rate to 10-year high of 3% By Nurluqman Suratman 12-Oct-22 12:40 SINGAPORE (ICIS)–South Korea’s central bank on Wednesday raised its key interest rate by half a percentage point to a 10-year high of 3% as inflationary pressures, fuelled by a strong US dollar, continue to weigh on its economy. EPCA ’22: Bearish outlook for Europe styrene market for Q4, at least By Fergus Jensen 11-Oct-22 06:10 LONDON (ICIS)–Heightened bearish sentiment has dominated the European styrene market in recent months and threatens to continue to overshadow consumption through to the end of 2022, as the broader market grapples with high inflation, spiking energy costs and expectations of a recession in several regions. EPCA ’22: European MEG supply could be limited in Q4 on imports, local cuts; demand remains uncertain By Melissa Hurley 11-Oct-22 01:56 LONDON (ICIS)–European monoethylene glycol (MEG) market players have faced a challenging 2022 and there are mixed expectations for the end of the year and beyond. EPCA 22: INSIGHT: Europe BDO costs bite and demand concerns grip the market By Katherine Sale 10-Oct-22 17:00 BERLIN (ICIS)–Uncertainty reigns in the European butanediol (BDO) market, with local sellers hit by potential market changing costs, and demand looking to fall off a cliff from November. EPCA ’22: Europe olefins preparing for the worst, production cuts key By Nel Weddle 06-Oct-22 21:47 BERLIN (ICIS)–Every conversation on the sidelines of the European Petrochemical Association (EPCA) meeting has been the same – anyone hoping to find some positives or even just some clarity among all the pessimism over the months ahead will likely not have been too successful. Global merchandise trade growth to slow to 1% in 2023 – WTO By Nurluqman Suratman 06-Oct-22 12:53 SINGAPORE (ICIS)–World trade is expected to lose momentum in the second half of 2022 and remain subdued in 2023 as multiple shocks weigh on the global economy, the World Trade Organization (WTO) said late on Wednesday. Asia manufacturing faces Q4 gloom; export demand may weaken further By Nurluqman Suratman 05-Oct-22 13:04 SINGAPORE (ICIS)–Asia’s factories will likely face continued weakness in export demand in the fourth quarter as European and the US economies may be looking at a sharp slowdown. EPCA ’22: EU energy crisis points to ‘major’ role for fossil fuels, need for staggered regulations – EPCA pres By Tom Brown 04-Oct-22 20:14 BERLIN (ICIS)–The reinvention of the EU’s energy mix in the wake of the Russia-Ukraine war is likely to keep fossil fuels as a key energy source and raw materials until the late 2030s and should prompt a re-examination of new chemicals legislation, according to the president of the European Petrochemicals Association (EPCA). INSIGHT: Trends converging to create Q4 glut in US plastics By Al Greenwood 30-Sep-22 05:21 HOUSTON (ICIS)–North American polymer markets are facing a growing glut because of weakening demand, expanding capacity and rising inventories. There are growing fears that energy costs will spike again in Q4 and demand will come under further pressure as macroeconomic headwinds pick up. Mideast petchems a mixed picture on supply and demand By Felicia Loo 28-Sep-22 11:37 SINGAPORE (ICIS)–Middle eastern petrochemicals is facing a mixed picture on demand and supply, with bad economic situations engulfing both Jordan and Lebanon when it comes to products like polyethylene (PE). It would use the resulting proceeds to finance a new €65bn energy relief package designed to support consumers and mitigate the impact of high inflation and energy bills. This new package brings the total cost of the aid measures Germany has enacted this year to €95bn. Asia naphtha market in limbo on thin demand, ample supply By Melanie Wee 08-Sep-22 13:39 SINGAPORE (ICIS)–Asia’s naphtha prices are being weighed down by thin demand and ample supply, with its forward market structure languishing at parity. Saudi Arabia Q2 economic growth revised up to 12.2% year on year By Pearl Bantillo 07-Sep-22 19:27 SINGAPORE (ICIS)–Saudi Arabia’s economy posted a revised second-quarter annualized growth rate of 12.2%, the highest in nearly 11 years, on the back of oil price spikes, official data showed on Wednesday. Although details have yet to be announced, it could be set at a level of around half the current Brent oil price. The move is aimed at hacking away at Russia’s war fund and curbing rising energy prices. The quietest days of August give way to a busier September and often a relatively strong fourth quarter. UK power exports fall during August, net flows to France set to persist By Jack Grant 05-Sep-22 21:45 LONDON (ICIS)–Discounts on UK baseload power prompt products compared with equivalent contracts on European markets suggests the UK will maintain its net export position to Europe through delivery in September. Global weekly spot IPEX down on declines in NW Europe, US Gulf By Yashas Mudumbai 05-Sep-22 17:00 LONDON (ICIS)–The weekly ICIS Petrochemical Index (IPEX) dropped by 1% as declines in northwest Europe and the US Gulf offset the slight uptick seen in northeast Asia. INSIGHT: Global chemicals must ‘prepare for pain’ as central banks press ahead to quash inflation By Joseph Chang 01-Sep-22 23:45 NEW YORK (ICIS)–‘Pain and sacrifice’ – those are the words coming from the head of the world’s largest central bank – the US Federal Reserve – and the European Central Bank (ECB) on what looms on the horizon. Stamping out inflation is job number one, and they will do whatever it takes, even if it means recession and higher unemployment. Gas uncertainty could cause German power spot prices to rise in Q4 delivery By Karishma Sadanandan 01-Sep-22 23:18 LONDON (ICIS)–German Q4 spot prices are likely to rise above the current forward contract, should cold spells, low winds, and rising gas prices combine to support prices in delivery. Record high temperatures have prompted petrochemical plant operating rate cuts and shut downs. Supply concerns intensified as OPEC+ threatened to cut production quotas and the US Strategic Petroleum Reserve was at its lowest level in decades. China’s Sinopec H1 net profit up 10.5%; chemical earnings slump 94% By Fanny Zhang 29-Aug-22 14:07 SINGAPORE (ICIS)–Chinese petrochemical giant Sinopec reported a 10.5% year-on-year increase in first-half 2022 net profit on the back of strong crude, even as its chemical earnings shrunk 94% as demand collapsed amid COVID-19 curbs. Concerns over affordability are mounting as costs drift further away from market dynamics. INSIGHT: Downside uncertainty hits Europe refined products market but tightness remains By Tom Brown 25-Aug-22 22:19 LONDON (ICIS)–Pricing for some refined products has started to ease from the highs during the summer as the peak demand season comes to a close and macroeconomic pressure intensifies, but structural tightness in the sector continues to buffer pricing and galvanise future demand upticks.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.5824615955352783</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Bank of East Asia to sell life insurance business after strategic review - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Wed, 23 Sep 2020 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Bank of East Asia posted a 53 per cent increase in first half net profit despite a weak economic environment. Photo: Bloomberg</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Bank of East Asia posted a 53 per cent increase in first half net profit despite a weak economic environment.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.9999997615814209</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>HK regulator imposes $4.2m fine on The Bank of East Asia for regulatory breaches - FinanceFeeds</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Thu, 17 Sep 2020 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>The Week in Detail: Vietnam, entrenching law, Covid summer - Newsroom</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Fri, 02 Dec 2022 16:04:33 GMT</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Bonnie Harrison is the associate producer of The Detail. Podcast: The Detail The Week in Detail: Vietnam, entrenching law, Covid summer Every weekday, The Detail makes sense of the big news stories. This week, we looked at New Zealand's blossoming trade relationship with Vietnam, the curious rules and regulations surrounding iconic New Zealand art, why entrenching politically-charged policies is such a dangerous move, what happens when New Zealanders get into diplomatic trouble overseas, and what's shaping up to be another Covid summer. Whakarongo mai to any episodes you might have missed. In November, Prime Minister Jacinda Ardern touched down in Vietnam with a sizeable trade delegation, with a mission to sell New Zealand to one of South East Asia's most quickly emerging markets. It's also climbing up the ranks of our closest trade partners, with trade between the countries more than doubling in the past seven years to $2.4 billion. Matthew Scott talks to RNZ business editor Gyles Beckford and Vietnamese-New Zealander businessman Mitchell Pham. Back in September, a collection of works by some of New Zealand's most celebrated artists was sold off for more than $13.5 million. Webb's auction of the BNZ art collection in September brought in more than $13.5 million. Photo: Supplied/Cheska Brown It was the Bank of New Zealand's art collection, assembled in the 1980s by famed curator Peter McLeavey. When the bank was privatised, the artworks went with it - McCahons, Anguses, Fomisons and all. And while New Zealand law seeks to stop these works from leaving the country, there's nothing stopping owners from hiding them away - or even destroying them. Sarah Robson and Sharon Brettkelly speak to Webb's auction house's director of art Charles Ninow and AUT art and property law lecturer Rod Thomas. The Greens' attempt to entrench a party-political piece of legislation pertaining to Three Waters has gone back to Parliament's business committee, a sign that the Government will not persevere with it. The unusual move came in the form of a supplementary order paper, or SOP, which was introduced by Eugenie Sage as the House debated legislation under urgency last week. Photo: Lynn Grieveson This was a stark break from convention: while we do have entrenched laws, they tend to apply to foundational, constitutional matters, like the voting age or the term of Parliament, rather than party-political policies. Emile Donovan speaks to University of Otago public law professor Andrew Geddis. "What you see here is today's temporary [parliamentary] majority saying we are so sure on this particular issue that we're right, we're saying to tomorrow's majority, you just can't change it, you're not going to be allowed to," says Geddis. Back in late October, news broke that New Zealanders Topher Richwhite and Bridget Thackwray had been released from detention in Iran after entering the country in July and subsequently going MIA on social media. Social media influencers Topher Richwhite and Bridget Thackwray spent nearly four months being detained in Iran before their release. Photo: expeditionearth.live/Instagram New Zealand media got wind of the story, but were asked not to publish details of what had happened to the couple, as the Government tried to negotiate their safe exit. The case shone a spotlight on so-called "quiet diplomacy" - and the practical limits of consular assistance. Sarah Robson talks to former trade minister and ambassador Tim Groser and transnational criminal justice lawyer Craig Tuck. This summer, New Zealand's in a markedly different place to what it was a year ago when it comes to Covid-19. Photo: Lynn Grieveson Last December, Auckland was just coming out of lockdown, with widespread health measures still in place - but here we are now, with case numbers ticking up again and a complex mix of subvariants at play. Matthew Scott talks to Newsroom's Marc Daalder and University of Auckland computational biologist David Welch. Find out how to listen and subscribe to The Detail here. You can also stay up-to-date by liking us on Facebook or following us on Twitter.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Podcast: The Detail The Week in Detail: Vietnam, entrenching law, Covid summer Every weekday, The Detail makes sense of the big news stories. Back in September, a collection of works by some of New Zealand's most celebrated artists was sold off for more than $13.5 million. Photo: Lynn Grieveson This was a stark break from convention: while we do have entrenched laws, they tend to apply to foundational, constitutional matters, like the voting age or the term of Parliament, rather than party-political policies. Back in late October, news broke that New Zealanders Topher Richwhite and Bridget Thackwray had been released from detention in Iran after entering the country in July and subsequently going MIA on social media. Matthew Scott talks to Newsroom's Marc Daalder and University of Auckland computational biologist David Welch.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9999861717224121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Bank of East Asia revamps China business after a five-fold jump in bad loans - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Wed, 19 Feb 2020 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Customers at a Bank of East Asia branch in Mong Kok, Hong Kong. Photo: Nora Tam</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Customers at a Bank of East Asia branch in Mong Kok, Hong Kong.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9999755620956421</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Hong Kong’s MPF picks 5 providers for e-platform launch next summer - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mon, 15 Aug 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Brokers Predict The Bank of East Asia, Limited Earnings for FY2022 - Best Stocks</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Sun, 04 Dec 2022 05:02:13 GMT</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Preventing the next pandemic in East Asia and the Pacific - Philstar.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 16:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Preventing the next pandemic in East Asia and the Pacific The unprecedented impact of COVID-19 has brought into alarming focus the risk posed by infectious diseases that can explode into full-blown global pandemics. The East Asia and Pacific region, with its expanding agriculture, urban sprawl, extensive animal trade and large concentration of human and livestock population, is particularly susceptible to such outbreaks, which unfortunately are increasingly common. The possibility of another pandemic is not far-fetched. A shift is critically needed, away from reactive responses toward a comprehensive, integrated approach aimed at prevention and preparation. Pandemics are preventable, if policymakers are willing to plan and finance an approach that recognizes that that human health is inseparable from the health of the environment and animals, both wild and domesticated. This approach, which emphasizes prevention, is known as “One Health” because it rests on an understanding of the interdependence of humans and the natural environment and is designed as an integrated framework. One Health is particularly relevant for the East Asia and Pacific region, which is undergoing large-scale and rapid landscape, trade, consumption and demographic change and is one of the global hotspots for emerging infectious diseases caused by transmission from animals to humans. SARS, the Nipah virus and H5N1 viruses all emerged from East and Southeast Asia, not to mention COVID-19, and research suggests that the next global pandemic could begin again in this region. Multilateral institutions including the World Bank, the Food and Agriculture Organization, the United Nations Environment Program, the World Organization for Animal Health and the World Health Organization as well as individual countries are renewing their commitments to the One Health approach, which mobilizes sectors and communities to work together and use interventions that cut across a range of sectors, including health, environmental, agriculture and food to address the complex origins and breadth of emerging infectious diseases. An early instance of this multisectoral strategy occurred after the emergence of the Nipah virus in Malaysia in 1998-99, when hog farms and fruit orchards were expanded to areas adjacent to forests that were fruit bat habitat, resulting in animal-to-human disease transmission and a serious epidemic. Detecting this chain required collaboration among experts from forestry, wildlife, veterinary and human health. Malaysia and Thailand ultimately required fruit orchards to be distanced from hog farms, and mandated increased surveillance of areas at high risk of disease spillover, followed by an expansion of agricultural extension services. Vietnam is a country where climate change, an overstretched health care system and limited infrastructure in rural areas, combined with rapid population growth and a prominent agricultural sector, create vulnerabilities to infectious disease outbreaks. Concerns about antimicrobial resistance, stemming from widespread use of antibiotics in the health care system and in aquaculture and livestock production, have spurred Vietnam to approve a national action plan that includes an inter-ministerial surveillance strategy and upgrades to laboratory capacity to track and detect resistant bacteria. More broadly, several government agencies this year issued a five-year master plan for prevention and control of diseases transferred from animals to humans. In recent years, countries in the region have updated legislation relating to animal health, diseases transferrable from animals to humans and food safety, but considerable gaps remain in policies and in the implementation of national action plans. Steps should be taken now to improve coordination and the exchange of critical data between human health, animal health and environmental health sectors. Implementing One Health principles will require a shift from programs focused narrowly on specific diseases to ones that strengthen overall systems, including by going beyond the health sector to livestock keepers, park rangers, extractive industries and communities responsible for environmental stewardship. And while this approach requires investment, an ounce of prevention could be worth a pound of cure. The World Bank recently proposed an investment framework to incorporate One Health and prevention considerations into investment decision-making processes, which found that globally, prevention costs guided by One Health principles range from $10.3 billion to $11.5 billion per year – less than 1 percent of the cost of COVID-19 in 2020. To be sure, the costs and benefits of this approach can be uneven: benefits will largely accrue at the national and global levels, while the costs of reducing deforestation, monitoring wildlife trade and enhancing the safety of livestock farms are largely borne locally and in countries most susceptible to infectious disease outbreaks. Nevertheless, pandemic prevention is a global public good – no country can be excluded from benefiting and there is no limit to the number of countries that can benefit. In addition, many of the activities associated with infectious disease prevention are important contributors to employment and economic growth. For example, in Vietnam agriculture represents 37 percent of total employment and the agriculture, aquaculture and forestry sectors contributed almost 15 percent to the country’s GDP. However, the attendant benefits of climate change mitigation and adaptation, greater food safety, sustainable agriculture and human health will pay economic dividends as well. There is a clear opportunity for the East Asia and Pacific region to muster support for the global coordination of policy and financing required for successful implementation of One Health. In a world still recovering from the devastation of COVID-19, governments need to optimize scarce funding resources across a range of financial, fiscal, social and health challenges. One Health is no panacea, but it offers a sustainable and cost-effective way to minimize the risk of a future pandemic. * * * Benoit Bosquet and Daniel Dulitzky are the East Asia Pacific Regional Directors for Sustainable Development and Human Development, respectively, at the World Bank. Martien Van Nieuwkoop is the Global Director for Agriculture and Food at the World Bank.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Preventing the next pandemic in East Asia and the Pacific The unprecedented impact of COVID-19 has brought into alarming focus the risk posed by infectious diseases that can explode into full-blown global pandemics. One Health is particularly relevant for the East Asia and Pacific region, which is undergoing large-scale and rapid landscape, trade, consumption and demographic change and is one of the global hotspots for emerging infectious diseases caused by transmission from animals to humans. Detecting this chain required collaboration among experts from forestry, wildlife, veterinary and human health. For example, in Vietnam agriculture represents 37 percent of total employment and the agriculture, aquaculture and forestry sectors contributed almost 15 percent to the country’s GDP. In a world still recovering from the devastation of COVID-19, governments need to optimize scarce funding resources across a range of financial, fiscal, social and health challenges. Martien Van Nieuwkoop is the Global Director for Agriculture and Food at the World Bank.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8653038144111633</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Philippines income inequality among highest in East Asia – World Bank - Philstar.com</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Thu, 24 Nov 2022 16:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Philippines income inequality among highest in East Asia – World Bank In its report “Overcoming Poverty and Inequality in the Philippines: Past, Present, and Prospects for the Future” launched yesterday, the World Bank said the country has made important gains in poverty reduction, with the poverty rate falling to 16.7 percent in 2018 from 49.2 percent in 1985. MANILA, Philippines — The Philippines has made gains in reducing poverty, but it is among the countries with the highest income inequality in East Asia, which the World Bank said could be addressed through policies that build resilience and promote equal access to opportunities. In its report “Overcoming Poverty and Inequality in the Philippines: Past, Present, and Prospects for the Future” launched yesterday, the World Bank said the country has made important gains in poverty reduction, with the poverty rate falling to 16.7 percent in 2018 from 49.2 percent in 1985. “By 2018, the middle class had expanded to nearly 12 million people and the economically secure population had risen to 44 million,” the multilateral lender said. Income inequality, however, is still high, with the country’s income Gini coefficient, which measures the distribution of income across a population, at 42.3 percent in 2018, one of the highest income inequality rates in East Asia, the World Bank said. “The wealthiest one percent of earners capture 17 percent of national income; all those in the bottom 50 percent collectively receive only 14 percent,” the World Bank said. It also said the COVID-19 pandemic has reversed the country’s gains in reducing poverty and inequality, with the national poverty rate rising to 18.1 percent last year and unemployment rising in industries that require in-person work. As the Philippines has a long-term vision of having a society where no one is poor under the AmBisyon Natin 2040, the World Bank said reducing inequality and promoting inclusion are vital to the country’s national development. “The Philippines aims to become a middle-class society free of poverty by 2040, but we know from global experience that no country has managed to make this transition while maintaining high levels of inequality,” said Ndiamé Diop, World Bank country director for Brunei, Malaysia, the Philippines and Thailand. “Inequality of opportunity and low mobility across generations waste human potential and slow down innovation, which is crucial for building a competitive and prosperous economy that will in turn improve the well-being and quality of life of all Filipinos,” he said. The World Bank said inequality in the Philippines starts even before birth, particularly with maternal nutrition and health during pregnancy, and is perpetuated over the life cycle. Differences continue into childhood, with disparities in access to health care, proper nutrition, safe drinking water, sanitation and quality education determining the development of human capital. “Inequality shapes outcomes later in life, such as employment opportunities and income, which in turn influence how much support adult Filipinos are able to provide for their children to help maximize their potential,” World Bank senior economist Nadia Belhaj Hassine Belghith said. To reduce inequality, the World Bank said the government’s policies could be structured around the following: healing the pandemic’s scars and building resilience, preparing for inclusive recovery, and promoting greater equality of opportunity.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Philippines income inequality among highest in East Asia – World Bank In its report “Overcoming Poverty and Inequality in the Philippines: Past, Present, and Prospects for the Future” launched yesterday, the World Bank said the country has made important gains in poverty reduction, with the poverty rate falling to 16.7 percent in 2018 from 49.2 percent in 1985. In its report “Overcoming Poverty and Inequality in the Philippines: Past, Present, and Prospects for the Future” launched yesterday, the World Bank said the country has made important gains in poverty reduction, with the poverty rate falling to 16.7 percent in 2018 from 49.2 percent in 1985. “ Differences continue into childhood, with disparities in access to health care, proper nutrition, safe drinking water, sanitation and quality education determining the development of human capital. “</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9973534345626831</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Germany Shifting Asian Focus in Bid to Reduce Reliance on China - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Fri, 11 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Trudeau puts cash behind Indo-Pacific pledges during visit to Southeast Asia summit - CTV News</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sat, 12 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PHNOM PENH, Cambodia - Prime Minister Justin Trudeau unveiled a slew of funding announcements in Cambodia on Saturday aimed at deepening economic and academic ties with Southeast Asia, after decades of sporadic engagement with the region. "This is a generational shift," Trudeau told leaders gathered in Phnom Penh for a summit of the Association of Southeast Asian Nations. "I am announcing concrete investments that are part of our commitment to this relationship," he said, before listing $333 million in new funding. He was speaking at an event commemorating Canada's 45 years of relations with ASEAN, which comes as the group negotiates a free-trade agreement with Canada. The bloc of 10 countries includes some of the world's fastest-growing economies, and the Liberals say they want to shift trade away from China over concerns that span human rights to intellectual property. "There are no surprises; the cards are on the table and our goal is to be present in the region," Foreign Affairs Minister Melanie Joly told reporters in French. Trudeau unveiled funding for closer ties in Southeast Asia, spread over the course of five years. The largest chunk, $133 million, will involve feminist-focused development aid in ASEAN countries, a quarter of which will be earmarked for Canadian civil-society groups. Ottawa will also spend $84.3 million for a new Shared Ocean Fund aimed at cracking down on illicit fishing in the region, and $40 million for an engagement fund that will help public servants as well as civil society do research on the Indo-Pacific region. The Liberals are allocating $24 million for a private-sector centre to inform businesses of opportunities in Asia, and the same amount for the Asia-Pacific Foundation to operate an office on the continent. There is also funding to run educational exchanges and to help ASEAN counties partake in trade-deal negotiations with Canada. Meanwhile, Trudeau's office said ASEAN granted Canada status as a comprehensive strategic partnership, which is the highest tier of recognition for non-member countries. The U.S. and India were also granted this status Saturday, placing them alongside previously recognized partners Australia and China. ASEAN as a bloc already makes up Canada's sixth largest trading partner. The majority of the population in ASEAN member countries is under 30, a demographic shift that's shaping economic opportunities in the region. A rising middle class is boosting countries such as Indonesia and Thailand, while the prospect of cheap labour has companies relocating jobs from China to places like Vietnam and the Philippines. As for Cambodia, Canada is one of its top trading partners, with bilateral trade amounting to $1.82 billion last year. Some 98 per cent of that involved goods Cambodia sold to Canada, such as garments and footwear, in exchange for just $38.5 million in Canadian goods like vehicle parts and artificial fur. Trade between the two countries has ballooned despite a limited diplomatic presence. In 2009, the government of then prime minister Stephen Harper closed Canada's embassy in Phnom Penh, downgrading it to a consular office. At the time, Ottawa cited a "serious examination of Canada's current diplomatic representation abroad," but many chalked the move up to budget cuts. Trudeau met Saturday with Cambodian Prime Minister Hun Sen but made no mention of re-opening an embassy, and Joly was vague on the idea. "Our goal is to be more present in the region," she said in English, noting the Liberals have opened embassies in Africa after their Conservative predecessors had closed them. Wayne Farmer, head of the Canada-ASEAN Business Council, said Ottawa is falling behind the U.S., Australia, Britain and France in establishing strong trade ties with the region. "It is the farthest part of the world from Canada; it's farther than Africa, it's farther than North Asia and farther than Europe. It's not that surprising that we would be latecomers," said Farmer. "But in the world of today with communication and transportation as they are, that's also not as much of an excuse." Farmer said Canada used to have a large presence in ASEAN countries decades ago, in the post-colonial period of the 1960s, as a major aid partner. Canada is still renowned in the region for taking a leading role in a global effort in the 1990s to clean up landmines. And yet, Canada pulled back from the region just as some of the countries had crossed the threshold into being considered developed and started to become economic heavyweights. "We did have a reputation as the end of being in-and-out of the markets, as fairweather friends, and doing some strange things," said Farmer, who is based in Singapore. "It would have been the natural transition to go from assistance with development to then developing business." Still, Canada's private sector has a growing presence in the area, with Canadian pension funds investing across the region. Insurance companies like Manulife and Sun Life are household names in ASEAN countries like the Philippines. One of Cambodia's largest banks, ABA, is owned by Montreal-based National Bank. Farmer argues Ottawa has made it harder to build on these ties. Canada requires a visa for business travellers from each ASEAN country, and upheld some of the strictest COVID-19 travel rules. Immigration processing backlogs have delayed student visas, including for some who were halfway through their degree in Canada, and Farmer says Ottawa risks losing students to places like Australia. Jeffrey Reeves, research director of the Asia-Pacific Foundation, said the West also hurt its reputation by doing little to allow developing countries to produce COVID-19 vaccines, such as through waving patents. "China provided most of Asia with vaccines while the global West hoarded supplies and prevented technology transfers in overseas production," he noted at a Nov. 1 panel. "Those sort of things don't honestly go unnoticed and they are not easily forgotten." Reeves added that Canada's constant rhetoric about a rules-based international order does not resonate in Southeast Asia, where polling suggests many have a favourable view of China and Russia. "Not only are these priorities out of tune with one another, but they can actually be oppositional," he said, arguing Canada is wanted for its commodities but not for "unwanted interference" in geopolitics. Stephanie Martel, a Queen's University international-relations professor and leading expert on ASEAN, says Canada could instead play a role in building consensus on various issues. She said Canada can build relationships with Southeast Asian countries by focusing on their individual trajectories, instead of painting them as under the thumb of China or the United States. Martel says that comes down to "recognizing and respecting the fact that a lot of these countries do not fit neatly in these democratic versus authoritarian categories." In Cambodia, for example, Sen has reigned since 1985, and Human Rights Watch accuses his party of persecuting its political opposition. The country is beset by corruption, limits on press freedom and human trafficking. China is helping upgrade Cambodia's main naval base, which the U.S. sees as a threat to regional stability. The ASEAN bloc is also dealing with an alarming human-rights situation in Myanmar, one of its 10 member states, where chaos has reigned since a February 2021 coup d'etat by that country's military. The bloc has isolated Myanmar's leadership, but failed to reach consensus Friday on how to implement a peace plan developed months ago. This report by The Canadian Press was first published Nov. 12, 2022.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>PHNOM PENH, Cambodia - Prime Minister Justin Trudeau unveiled a slew of funding announcements in Cambodia on Saturday aimed at deepening economic and academic ties with Southeast Asia, after decades of sporadic engagement with the region. " Ottawa will also spend $84.3 million for a new Shared Ocean Fund aimed at cracking down on illicit fishing in the region, and $40 million for an engagement fund that will help public servants as well as civil society do research on the Indo-Pacific region. ASEAN as a bloc already makes up Canada's sixth largest trading partner. Trade between the two countries has ballooned despite a limited diplomatic presence. At the time, Ottawa cited a "serious examination of Canada's current diplomatic representation abroad," but many chalked the move up to budget cuts. Trudeau met Saturday with Cambodian Prime Minister Hun Sen but made no mention of re-opening an embassy, and Joly was vague on the idea. " But in the world of today with communication and transportation as they are, that's also not as much of an excuse." Farmer said Canada used to have a large presence in ASEAN countries decades ago, in the post-colonial period of the 1960s, as a major aid partner. Still, Canada's private sector has a growing presence in the area, with Canadian pension funds investing across the region. Farmer argues Ottawa has made it harder to build on these ties. This report by The Canadian Press was first published Nov. 12, 2022.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9999892711639404</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Myanmar Crisis - 7 students sentenced to death: UN - The Daily Star</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 18:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>The Myanmar junta handed out at least seven more death sentences this week, taking the tally of those on death row to 139, according to the United Nations. Myanmar has been in chaos since Aung San Suu Kyi's civilian government was toppled in a military coup in February 2021, ending the southeast Asian nation's brief period of democracy. At least seven male university students were sentenced to death by a military court behind closed doors on Wednesday, UN High Commissioner for Human Rights Volker Turk said in a statement, accusing Myanmar of using death sentences as a political tool to crush opposition. Local media reports said the university students were accused of involvement in a bank shooting.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>The Myanmar junta handed out at least seven more death sentences this week, taking the tally of those on death row to 139, according to the United Nations. At least seven male university students were sentenced to death by a military court behind closed doors on Wednesday, UN High Commissioner for Human Rights Volker Turk said in a statement, accusing Myanmar of using death sentences as a political tool to crush opposition.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.5609291791915894</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ECB’s Chance to Guide Rate-Hike Views Won’t Last Long: Eco Week - BNN Bloomberg</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 21:40:47 GMT</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>(Bloomberg) -- If European Central Bank President Christine Lagarde and her colleagues need to hone the guidance about their final interest-rate increase for 2022, the window to do so is closing. Wednesday will mark the final opportunity to give hints to investors on a hike in borrowing costs that might be a half point or 75 basis points. A tricky accord over how to unwind the ECB’s multi-trillion-euro balance sheet is also looming. The pre-decision blackout period kicks in on Thursday for policymakers to stop commenting on monetary matters before their Dec. 15 meeting. The ECB can break its silence to massage expectations at the last minute, as it did in July, but that’s less optimal. Just as the US Federal Reserve looks likely to switch to less aggression, investors anticipate a 50 basis-point rate increase in the euro zone after weaker-than-expected inflation data. While ECB officials haven’t yet tried hinting otherwise, markets still shows a small chance of a third consecutive 75 basis-point move. That may give them leeway to do such a hike without sending a signal ahead of time, even if it springs more of a surprise. Money markets on Friday were pricing a 54 basis-point increase, down from as much as 67 basis points reflected a month ago, showing how they’re leaning more toward 50 bps. Only a few, final appearances are scheduled for this week, with Lagarde featuring at two: one about climate change, and the second -- on Thursday, during the blackout period -- on financial stability. What Bloomberg Economics Says: “Decelerating euro-area inflation reinforces our view that the ECB will slow the pace of rate hikes on Dec. 15 to 50 basis points, from 75 basis points. Still, any sense of relief at the ECB will be tempered by the fact that underlying pressures remain strong.” --For full analysis, click here Aside from German economic data, officials are awaiting their own survey of consumer inflation expectations, as well as a tally of how much of the ECB’s long-term loan program will be repaid at the second opportunity for banks to do so. If that number, due on Friday, is large, it may point to progress toward shrinking the bank’s balance sheet just as talks to do so intensify. Also relevant will be data on Tuesday showing the flexible use of pandemic emergency reinvestments -- a tool to smooth speculation in fiscally weaker countries’ bonds. Behind the scenes, final touches to the ECB’s quarterly economic forecasts will also be made in preparation for the forthcoming decision. Elsewhere, further rate hikes from Australia to Canada, and US data showing a slowdown in producer-price inflation, will be among the events keeping investors busy. Click here for what happened last week, and below is our wrap of what is coming up in the global economy. Canada and the US The Bank of Canada is set to wind down one of the most aggressive rate hiking cycles in its history, but markets and economists are split on whether policymakers, led by Governor Tiff Macklem, will deliver a half or quarter percentage-point increase before bracing for an impending economic downturn. In the US, the economic data schedule quiets down and Fed officials are in a blackout period ahead of their final policy meeting for 2022 the following week. Central bankers should get more favorable inflation news from the producer price index on Friday. The November PPI is forecast to rise a little more than 7% from a year ago, down from the 8% rate a month earlier. The core measure, which excludes food and energy, is also projected to cool. While still elevated, moderating inflation in the production pipeline can help alleviate price pressures at the consumer level. Also Friday, investors will parse the University of Michigan’s consumer sentiment survey to get a sense of household inflation expectations. Among other data is the Institute for Supply Management’s survey of service providers and the Labor Department’s weekly jobless claims. For more, read Bloomberg Economics’ full Week Ahead for the US Asia Australia’s central bank chief Philip Lowe is likely to raise rates by a quarter-percentage point on Tuesday as the Reserve Bank tries to engineer a soft landing for the economy with smaller hikes, amid early signs inflation is starting to slow. Growth figures out the following day will show how Australia’s economy fared in the third quarter. Japanese household spending and wage figures will provide the latest gauge of how the strongest inflation in four-decades is crimping expenditure and squeezing family budgets. Amid debate over the Bank of Japan’s 2% price goal, BOJ board member Toyoaki Nakamura lays out the bank’s latest thinking in a speech on Wednesday. Stronger-than-expected capital spending figures suggest revised figures out Thursday will show Japan’s economy shrank less than first estimated. India’s central bank is poised to increase its key rate for a fifth time this year to steer inflation back to target. For more, read Bloomberg Economics’ full Week Ahead for Asia Europe, Middle East, Africa With most observers forecasting a German recession, manufacturing data will show how one part of Europe’s biggest economy started the fourth quarter. Factory orders are released on Tuesday and industrial production on Wednesday. For the latter, economists anticipate a decline in output in October. Among euro-zone statistics will be a breakdown of gross domestic product from the third quarter, showing expenditure components from consumer spending to investment. A quieter week for the UK will feature the RICS house-price report on Wednesday, which is likely to reaffirm the slump taking hold there, and the Bank of England’s inflation expectations survey on Friday. Policy makers will stay silent ahead of their Dec. 15 decision. In Norway, where inflation hit a 35-year high in October, the reading for November will be released on Friday. The strength of price pressures previously raised speculation that the central bank may need to ramp up its rate hikes. Meanwhile, Hungarian inflation on Thursday is poised to accelerate further toward the highest level in the European Union after the likely removal of caps on fuel and food costs. Three European monetary decisions will draw attention. Poland’s central bank will likely keep rates unchanged on Wednesday for a third month, betting that inflation will start to ease. Its Serbian counterpart may hike further, while a decision is also due in Ukraine. Turkish inflation data on Monday are expected to show a slight slowdown in November from 85%. It’s still the highest inflation rate in the G-20 after Argentina, and the hit to consumer spending is countering the effect of four back-to-back rate cuts, which have so far fallen short in giving impetus to Turkey’s $800 billion economy. Data on Tuesday will likely show South Africa’s economy grew an annual 2.1% in the third quarter and shrank 0.2% quarter-on-quarter, entering a recession. That’s after Eskom Holdings, the state-owned power company that generates most of the nation’s electricity, implemented record power rationing. Egyptian inflation due Thursday will show an acceleration after a currency devaluation. Saudi Arabia is expected to announce its final 2023 budget figures after a bumper year for oil revenues. For more, read Bloomberg Economics’ full Week Ahead for EMEA Latin America Mexico’s November consumer price data are likely to confirm that inflation has peaked, with early forecasts seeing sub-8% year-on-year prints but a 24th straight rise in core readings to above 8.5%. In Colombia, the piping hot economy likely pushed up consumer prices yet again, with an early consensus above 12.3%. While the direction of travel isn’t in doubt, preliminary estimates suggest Chile’s consumer prices may have inched back up in November after a dramatic slowing from August’s 14.1% print. However unwelcome that may be, Banco Central de Chile, led by President Rosanna Costa, is all but certain to hold its key rate at 11.25% on Dec. 6. In Peru, November’s surprise jump in prices will probably persuade the central bank to go for a 17th straight rate hike on Dec. 7 from the current 7.25%. For its final meeting of 2022 this week, Banco Central do Brasil is locked in on 13.75%, where an 1,175 basis-point hiking cycle left it in August. Analysts polled by the bank expect a long period of restrictive policy with just 225 basis points of easing in 2023. Inflation in Latin America’s biggest economy may have slowed below 6% last month, down from April’s 12.13%, but double-digit core readings will likely push the central bank into higher-for-longer mode. For more, read Bloomberg Economics’ full Week Ahead for Latin America --With assistance from Vince Golle, Erik Hertzberg, Robert Jameson, Benjamin Harvey, Malcolm Scott and James Hirai. ©2022 Bloomberg L.P.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>(Bloomberg) -- If European Central Bank President Christine Lagarde and her colleagues need to hone the guidance about their final interest-rate increase for 2022, the window to do so is closing. Just as the US Federal Reserve looks likely to switch to less aggression, investors anticipate a 50 basis-point rate increase in the euro zone after weaker-than-expected inflation data. Also relevant will be data on Tuesday showing the flexible use of pandemic emergency reinvestments -- a tool to smooth speculation in fiscally weaker countries’ bonds. In the US, the economic data schedule quiets down and Fed officials are in a blackout period ahead of their final policy meeting for 2022 the following week. Japanese household spending and wage figures will provide the latest gauge of how the strongest inflation in four-decades is crimping expenditure and squeezing family budgets. For the latter, economists anticipate a decline in output in October. Poland’s central bank will likely keep rates unchanged on Wednesday for a third month, betting that inflation will start to ease. Its Serbian counterpart may hike further, while a decision is also due in Ukraine. Turkish inflation data on Monday are expected to show a slight slowdown in November from 85%. That’s after Eskom Holdings, the state-owned power company that generates most of the nation’s electricity, implemented record power rationing. For more, read Bloomberg Economics’ full Week Ahead for EMEA Latin America Mexico’s November consumer price data are likely to confirm that inflation has peaked, with early forecasts seeing sub-8% year-on-year prints but a 24th straight rise in core readings to above 8.5%. Inflation in Latin America’s biggest economy may have slowed below 6% last month, down from April’s 12.13%, but double-digit core readings will likely push the central bank into higher-for-longer mode.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.999521017074585</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>HSBC among five major lenders raising prime rates to 14-year high - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Thu, 03 Nov 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Pedestrians walk past a branch of the HSBC bank at Pedder Street, Central. Photo: Yik Yeung -man</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Pedestrians walk past a branch of the HSBC bank at Pedder Street, Central.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.9999910593032837</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Russia denounces oil price cap agreed by EU, G7 - The Daily Star</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Sun, 04 Dec 2022 01:56:16 GMT</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>An aerial view shows the Vladimir Arsenyev tanker at the crude oil terminal Kozmino on the shore of Nakhodka Bay near the port city of Nakhodka, Russia August 12, 2022. REUTERS/Tatiana Meel Russia on Saturday denounced a $60 price cap on its oil agreed by the EU, G7 and Australia, even as Ukraine suggested it was not tough enough and might have to be revisited. "We will not accept this price cap," Kremlin spokesman Dmitry Peskov told domestic news agencies, adding that Russia, the world's second-largest crude exporter, was "analysing" the move. The $60 oil price cap will come into effect on Monday or soon after, alongside an EU embargo on maritime deliveries of Russian crude oil. The embargo will prevent seaborne shipments of Russian crude to the European Union, which account for two thirds of the bloc's oil imports from Russia, potentially depriving Russia's war chest of billions of euros. But while Kyiv welcomed the price cap earlier Saturday, Ukraine President Volodymyr Zelensky said in his evening address that the level set was not "serious" as it would not do enough damage to the Russian economy. "Russia has already caused huge losses to all countries of the world by deliberately destabilizing the energy market," he argued in his nightly address, describing the decision on the price cap as "a weak position". It is "only a matter of time when stronger tools will have to be used", Zelensky added. The G7 nations -- Canada, France, Germany, Italy, Japan, the United Kingdom and the United States -- along with Australia have already said they are prepared to adjust the price ceiling if necessary. The cap stops countries paying more than $60 a barrel for Russian oil deliveries by tanker vessel and is designed to make it harder for Russia to bypass EU sanctions by selling beyond the European Union at market prices. - Limit funds for the 'war machine' - Zelensky, in his speech, appeared to be backing the position that Poland had tried to hold out for before agreeing to the $60 ceiling late Friday. Warsaw and the Baltic states had argued for a $30 cap. The market price of a barrel of Russian Urals crude is currently around $65 dollars, just slightly higher than the $60 cap agreed, suggesting the measure may have only a limited impact in the short term. The G7 said it was delivering on its vow "to prevent Russia from profiting from its war of aggression against Ukraine, to support stability in global energy markets and to minimise negative economic spillovers of Russia's war of aggression". The White House described the cap as "welcome news" that would help limit Russian President Vladimir Putin's ability to fund the Kremlin's "war machine". Russia has threatened to stop deliveries to countries adopting the measure. Russia has earned 67 billion euros ($71 billion) from the sale of oil to the European Union since the start of the war in February. Its annual military budget amounts to around 60 billion, said Phuc-Vinh Nguyen, an energy expert at the Institut Jacques-Delors in Paris. The EU embargo on seaborne deliveries follows a decision by Germany and Poland to stop taking Russian oil via pipeline by the end of 2022. In all, more than 90 percent of Russian deliveries to the European Union will be hit, according to the bloc. - 'Endure' power cuts - On the ground, Russian forces carried out strikes in the east of Ukraine on Saturday, hitting a "civilian infrastructure facility" in the eastern city of Kramatorsk, the Ukrainian army said. After suffering humiliating defeats during what has become the largest armed conflict in Europe since World War II, Russia began targeting Ukrainian energy infrastructure in October. The strikes have caused sweeping blackouts, and cut off water supplies and heating to civilians at a time when the temperature in some regions has dropped to minus five degrees Celsius (41 degrees Fahrenheit). The authorities have introduced scheduled power cuts several times a day to keep essential infrastructure working. In eastern Ukraine, where the fighting is still raging, the governor of Lugansk region, Sergei Gaidai, said the conflict was heavy, "because the Russians had time to prepare". Ukraine's forces were nevertheless slowly moving forward, he added. Ukraine's presidency said the situation was also difficult in Bakhmut, in the neighbouring Donetsk region, which Russian forces have been trying to capture since summer. On Saturday, the governor of the southern region of Mykolaiv, Vitaly Kim, urged citizens to "endure" the electricity shortages. Putin on Friday told Germany's Chancellor Olaf Scholz the Russian strikes, which have destroyed close to half of the Ukrainian energy system, were an "inevitable response to Kyiv's provocative attacks on Russia's civilian infrastructure". He was referring in particular to the October attack on a bridge linking Moscow-annexed Crimea to the Russian mainland. Putin accused the West of carrying out "destructive" policies in Ukraine, the Kremlin said, stressing that Western political and financial aid meant Kyiv "completely rejects the idea of any negotiations". Ukrainian President Volodymyr Zelensky has ruled out talks with Russia while Putin is in power after the Kremlin claimed to have annexed several Ukrainian regions. The Kremlin also said Saturday that Putin would "in due time" visit the Donbas region of eastern Ukraine, which he claims to have annexed. But Peskov gave no indication of when this could happen.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>An aerial view shows the Vladimir Arsenyev tanker at the crude oil terminal Kozmino on the shore of Nakhodka Bay near the port city of Nakhodka, Russia August 12, 2022. The $60 oil price cap will come into effect on Monday or soon after, alongside an EU embargo on maritime deliveries of Russian crude oil. The G7 said it was delivering on its vow "to prevent Russia from profiting from its war of aggression against Ukraine, to support stability in global energy markets and to minimise negative economic spillovers of Russia's war of aggression". Russia has threatened to stop deliveries to countries adopting the measure. In eastern Ukraine, where the fighting is still raging, the governor of Lugansk region, Sergei Gaidai, said the conflict was heavy, "because the Russians had time to prepare". Ukraine's forces were nevertheless slowly moving forward, he added. On Saturday, the governor of the southern region of Mykolaiv, Vitaly Kim, urged citizens to "endure" the electricity shortages.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.7386630773544312</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TC Chan appointed to CVC's Global Financial Institutions Advisory Board - CVC Capital Partners</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Tue, 02 Nov 2010 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CVC Capital Partners ("CVC"), a leading global private equity firm, is pleased to announce the appointment of CHAN Tze Ching, Ignatius as Senior Advisor to CVC, with immediate effect. TC will join CVC's Global Financial Institutions Advisory Board to support CVC’s activities in the financial services sector in Asia. TC Chan was previously Head of Corporate &amp; Investment Banking / Senior Country Corporate Officer for Greater China at Citigroup and Deputy Chief Executive at Bank of China. TC has over 30 years of experience in the banking industry in Asia, which includes senior executive positions in Hong Kong, Taiwan, and Japan during his distinguished career at Citigroup. He currently serves as senior advisor to the Bank of East Asia, the third largest bank in Hong Kong and as a Non-executive Director on the board of the Hong Kong Exchanges &amp; Clearing Limited. Among his many public and community services, TC currently chairs the Hong Kong Advisory Committee on HR Development in the Financial Services Sector and is a member of the Hong Kong Advisory Committee on Bond Market Development. Jonathan Feuer, a Managing Partner at CVC and head of the Global Financial Institutions Team, said: “We are delighted to have TC join our advisory board. He is a great complement to our global platform and we look forward to working with him to further expand our Financial Institutions Group activities in Asia.” Roy Kuan, Managing Partner, Asia and Japan, said: "TC is one of the most respected professionals in Hong Kong. With his extensive and accomplished career in the financial industry, he will be able to add significant value to developing and realising future opportunities." With 20 offices throughout Europe, Asia, and the United States, CVC has an industry-leading global presence. CVC currently has approximately US$44 billion of equity capital under management, making the firm one of the top five sources of available private equity funds in the world. CVC has significant experience in financial services investments, and its dedicated Global Financial Institutions Team focuses on investing in leading financial businesses across Europe, North America and Asia.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CVC Capital Partners ("CVC"), a leading global private equity firm, is pleased to announce the appointment of CHAN Tze Ching, Ignatius as Senior Advisor to CVC, with immediate effect. Among his many public and community services, TC currently chairs the Hong Kong Advisory Committee on HR Development in the Financial Services Sector and is a member of the Hong Kong Advisory Committee on Bond Market Development. CVC has significant experience in financial services investments, and its dedicated Global Financial Institutions Team focuses on investing in leading financial businesses across Europe, North America and Asia.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7850530743598938</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Morgan Stanley Names Badalia as M&amp;A Head for Southeast Asia - Bloomberg</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mon, 10 Oct 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Why did this happen? Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Please make sure your browser supports JavaScript and cookies and that you are not blocking them from loading. For more information you can review our Terms of Service and Cookie Policy.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.9998307228088379</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>How tech is empowering Southeast Asia's financially underserved - National Geographic</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Thu, 02 Jun 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Did you know that over 70% of Southeast Asia’s population are unbanked or underbanked? The former has no access to basic financial services, while the latter are underserved and face problems such as an inability to get credit cards, loans, or adequate insurance. These people make up over 70% of the regional population, and the countries that have the highest combined rates of unbanked and underbanked are Vietnam (79%), the Philippines (78%), and Indonesia (77%). They also happen to be the region’s most populous nations. Please be respectful of copyright. Unauthorized use is prohibited. Micro, small, and medium-sized enterprises (MSME) make up 97% of all regional enterprises, while employing 69% of the labor force. However, over 60% of these companies cannot get loans when they need them, which limits their growth potential. The lack of access to credit means that many MSME operators and their employees are forced to live cash-in-hand. Many are unable to secure important services such as proper health insurance. The proprietors of these businesses also face an uphill battle when it comes to trying to understand what loans they could be eligible for, and how to apply for them. They deal with additional worries due to not fully understanding banking fees, interest, and other rules and regulations related to financial products. Please be respectful of copyright. Unauthorized use is prohibited. Technology provides new opportunities to the underbanked While banks around the region have started to create more products like microloans for MSMEs, a larger opportunity to help the underbanked is coming through technology. What many of the unbanked have access to is the internet, with the region having 440 million internet users out of a total population of 680 million. In contrast, only around a quarter of those with internet access count as fully banked. Numerous companies are now trying to help fill the gap, which has led to a fintech boom in the region. For example, cashless payments increased from 18% to 58% in Indonesia between 2018 and 2021, and from 22% to 63% in the Philippines. Please be respectful of copyright. Unauthorized use is prohibited. Many of these internet users are already tapped into superapps which have increased their focus on financial services. For example, in 2018, Grab set up Grab Financial Group (GFG), a regional fintech platform with the mission of driving financial inclusion across Southeast Asia. Fintech companies like GFG fractionalize financial products and make them ‘micro’ so they are more accessible to the underbanked—these include small business loans, critical illness insurance and micro-investment products. Instead of having to rely on things like credit history, small businesses are now able to leverage data like their daily transaction history and app usage when they are being assessed for loan approval. In 2021, over 60% of working capital loans issued by GFG were to small merchants. On top of getting access to financial services, MSMEs also benefit from being able to provide their consumers with more flexible options, such as via PayLater by Grab, which gives customers a chance to make purchases and then pay for them in interest-free installments—a big help for the nine in 10 Southeast Asians who lack access to credit cards. Please be respectful of copyright. Unauthorized use is prohibited. Khaw Keng Kin Keng, known to his peers as ‘Mac’, is an example of a merchant who has benefited from such financial products. As a restaurant operator in Bangkok, Thailand, Mac tried to apply for a bank loan. He needed to buy more equipment and hire additional staff but found it difficult to get a loan due to the need for a formal credit history and the monthly lump sum repayments required. However, thanks to his status as a Grab partner, Mac was eligible for a small business loan which broke down his monthly fixed costs into more affordable daily repayments—deducted from his sales—over four months. “It inspires me to work hard so that I can repay it, and I don’t consider it a burden,” shared Mac. With that additional stressor removed, he has been able to focus on growing his business. Another example of how Grab is able to fractionalize financial products to meet the needs of the unbanked and underbanked is its microinsurance products. Instead of having to fork out large monthly or annual payments for insurance coverage, Grab’s driver-partners are able to accumulate up to S$200,000 of critical illness coverage for as low as S$0.30 per ride. This makes it affordable and accessible for many more driver-partners, and allows them to work with peace of mind. Please be respectful of copyright. Unauthorized use is prohibited. An example is Zheng Wei, a Grab delivery-partner with access to premium health insurance products that can be paid for through his earnings as a delivery-partner. The critical illness plan that he is on gives him coverage for 37 severe stage critical illnesses, and he also has a basic hospitalization plan. Thanks to the power of data, technology and large ecosystems with millions of users, many of the underbanked and unbanked now have access to key financial services and products such as insurance and financing. This will help to economically uplift millions by enabling small businesses to expand and individuals to improve their financial well-being.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Did you know that over 70% of Southeast Asia’s population are unbanked or underbanked? The former has no access to basic financial services, while the latter are underserved and face problems such as an inability to get credit cards, loans, or adequate insurance. Micro, small, and medium-sized enterprises (MSME) make up 97% of all regional enterprises, while employing 69% of the labor force. Instead of having to rely on things like credit history, small businesses are now able to leverage data like their daily transaction history and app usage when they are being assessed for loan approval. On top of getting access to financial services, MSMEs also benefit from being able to provide their consumers with more flexible options, such as via PayLater by Grab, which gives customers a chance to make purchases and then pay for them in interest-free installments—a big help for the nine in 10 Southeast Asians who lack access to credit cards. As a restaurant operator in Bangkok, Thailand, Mac tried to apply for a bank loan. The critical illness plan that he is on gives him coverage for 37 severe stage critical illnesses, and he also has a basic hospitalization plan.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9967435598373413</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Stronger Climate Action Will Support Sustainable Recovery and Accelerate Poverty Reduction in the Philippines - World Bank Group</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Wed, 09 Nov 2022 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MANILA, November 09, 2022 – Climate change is exacting a heavy toll on Filipinos’ lives, properties, and livelihoods, and left unaddressed, could hamper the country’s ambition of becoming an upper middle-income country by 2040. However, the Philippines has many of the tools and instruments required to reduce damages substantially, according to the World Bank Group’s Country Climate and Development Report (CCDR) for the Philippines, released today. With 50 percent of its 111 million population living in urban areas, and many cities in coastal areas, the Philippines is vulnerable to sea level rise. Changes due to the variability and intensity of rainfall in the country and increased temperatures will affect food security and the safety of the population. Multiple indices rank the Philippines as one of the countries most affected by extreme climate events. The country has experienced highly destructive typhoons almost annually for the past 10 years. Annual losses from typhoons have been estimated at 1.2 percent of GDP. Climate action in the Philippines must address both extreme and slow-onset events. Adaptation and mitigation actions, some of which are already underway in the country, would reduce vulnerability and future losses if fully implemented. “Climate impacts threaten to significantly lower the country’s GDP and the well-being of Filipinos by 2040. However, policy actions and investments – principally to protect valuable infrastructure from typhoons and to make agriculture more resilient through climate-smart measures -- could reduce these negative climate impacts by two-thirds,” said World Bank Vice President for East Asia and Pacific, Manuela V. Ferro. The private sector has a crucial role to play in accelerating the adoption of green technologies and ramping up climate finance by working with local financial institutions and regulators. “The investments needed to undertake these actions are substantial, but not out of reach,” said IFC Acting Vice President for Asia and the Pacific, John Gandolfo. “The business leaders and bankers who embrace climate as a business opportunity and offer these low-carbon technologies, goods and services will be the front runners of our future.” The report also undertakes an in-depth analysis of challenges and opportunities for climate-related actions in agriculture, water, energy, and transport. Among the recommendations are: Avoiding new construction in flood-prone areas. Improving water storage to reduce the risk of damaging floods and droughts. This will also increase water availability. Extending irrigation in rainfed areas and promoting climate-smart agriculture practices such as Alternate Wetting and Drying (AWD). Making social protection programs adaptive and scalable to respond to climate shocks. Removing obstacles that private actors face in scaling investments in renewable energy. Ensuring new buildings are energy efficient and climate resilient. Many climate actions will make the Philippines more resilient while also contributing to mitigating climate change. “The Philippines would benefit from an energy transition towards more renewable energy. Accelerated decarbonization would reduce electricity costs by about 20 percent below current levels which is good for the country’s competitiveness and would also dramatically reduce air pollution,” said Ferro. Even with vigorous adaptation efforts, climate change will affect many people. Some climate actions may also have adverse effects on particular groups, such as workers displaced by the move away from high-emission activities. The report recommends that the existing social protection system in the country be strengthened and scaled up to provide support to affected sectors and groups. World Bank Group Country Climate and Development Reports: The World Bank Group’s Country Climate and Development Reports (CCDRs) are new core diagnostic reports that integrate climate change and development considerations. They will help countries prioritize the most impactful actions to reduce greenhouse gas (GHG) emissions and boost adaptation while delivering on broader development goals. CCDRs build on data and rigorous research and identify main pathways to reduce GHG emissions and climate vulnerabilities, including the costs and challenges as well as benefits and opportunities from doing so. The reports suggest concrete, priority actions to support the low-carbon, resilient transition. As public documents, CCDRs aim to inform governments, citizens, the private sector, and development partners and enable engagements with the development and climate agenda. CCDRs will feed into other core Bank Group diagnostics, country engagements, and operations to help attract funding and direct financing for high-impact climate action.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MANILA, November 09, 2022 – Climate change is exacting a heavy toll on Filipinos’ lives, properties, and livelihoods, and left unaddressed, could hamper the country’s ambition of becoming an upper middle-income country by 2040. However, the Philippines has many of the tools and instruments required to reduce damages substantially, according to the World Bank Group’s Country Climate and Development Report (CCDR) for the Philippines, released today. Changes due to the variability and intensity of rainfall in the country and increased temperatures will affect food security and the safety of the population. The country has experienced highly destructive typhoons almost annually for the past 10 years. Adaptation and mitigation actions, some of which are already underway in the country, would reduce vulnerability and future losses if fully implemented. “ Extending irrigation in rainfed areas and promoting climate-smart agriculture practices such as Alternate Wetting and Drying (AWD). As public documents, CCDRs aim to inform governments, citizens, the private sector, and development partners and enable engagements with the development and climate agenda.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.5095170140266418</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Bank of East Asia sells life insurance unit to AIA for US$653 million in a nod to activist fund's prodding - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Wed, 24 Mar 2021 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A closed portfolio of life policies underwritten by Blue Cross (Asia-Pacific) Insurance Limited will also be transferred to AIA as part of the sale, expected to close by the end of the year. Get the latest insights and analysis from our Global Impact newsletter on the big stories originating in China. The century-old bank, controlled by the Li family since 1918, previously said the sale of BEA Life would enhance the value of its business, improve its financial position and enable management to focus on its core banking operations in Hong Kong and mainland China. Brian Li Man-bun (left) and Adrian Li Man-kiu (right), Bank of East Asia's co-CEOs. Photo: Handout alt=Brian Li Man-bun (left) and Adrian Li Man-kiu (right), Bank of East Asia's co-CEOs. Photo: Handout&gt; Net premium income from whole life and annuity products grew by 9.5 times in 2020 from a year earlier, leading to an 83 per cent increase in commission income from sales of BEA Life products last year, the bank said at the time. Part of the proceeds will be paid to shareholders following the disposal, taking into account "prevailing market conditions and regulatory expectations", the bank said. The proceeds also will be used to support its future business development. "AIA has an extraordinary track record in bancassurance and deep commitment to the GBA," BEA's co-CEOs Adrian Li Man-kiu and Brian Li Man-bun said. "We are delighted that they share our vision and recognise the opportunities presented by our franchise." This article originally appeared in the South China Morning Post (SCMP), the most authoritative voice reporting on China and Asia for more than a century. For more SCMP stories, please explore the SCMP app or visit the SCMP's Facebook and Twitter pages. Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved. Copyright (c) 2021. South China Morning Post Publishers Ltd. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>A closed portfolio of life policies underwritten by Blue Cross (Asia-Pacific) Insurance Limited will also be transferred to AIA as part of the sale, expected to close by the end of the year. Photo: Handout alt=Brian Li Man-bun (left) and Adrian Li Man-kiu (right), Bank of East Asia's co-CEOs. Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9999686479568481</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Rising risks in Bangladesh's banking sector - The Financial Express</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 15:33:04 GMT</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Bangladesh's banking sector is always in public discussion and debate mainly centre around corruption and irregularities. This rot from within has turned most state-owned banks loss-incurring and also weakened a few private commercial banks. Barring the Oriental Bank in 2006, the country did not see any major crisis in the banking sector until 2008. Even the deeply-troubled Oriental Bank was somehow saved as the central bank dissolved its board of directors after detecting massive corruption, and appointed administrator in 2006. In August, the central bank also floated a tender to dispose of the major stakes of the bank. Later in 2008, the bank was renamed ICB Islamic Bank. Many depositors of the former Oriental Bank have yet to get back their money, however. In fact, the government in Bangladesh always provides some shields to prevent any bank from getting liquidated. Even a problem bank which was almost insolvent due to irregularities and wrong business polices had the bailout. Farmers' Bank is a vivid example. The bank came into commercial operation in 2013. Within a few years, it came to the brink of collapse when irregularities involving funds worth Tk 35 billion had been unearthed. The government, through the central bank, intervened. Four state-owned commercial banks along with a state-owned investment corporation purchased 60 per cent of the bank's shares at Tk 7.15 billion in 2018. The bank has also been renamed Padma Bank through the resurrection bid. Some big irregularities in a few more banks have surfaced in recent months, sparking further debate about the real health of the country's banking sector. In the last month, an unscrupulous group allegedly withdrew some Tk 20 billion in loans from Islami Bank Bangladesh Limited (IBBL) using two companies that only exist on paper. In total, the group reportedly extracted Tk 90 billion from three banks, including (IBBL), in the name of loans and advances without proper documentation and verification. The news came as a huge shock the banking sector which, for long, has long been troubled by huge non-performing loans (NPLs), loan scams, capital flight, and weak regulations. The most alarming thing is that IBBL, is the largest private bank well-known for its strong financial position and sound banking activities for the last four decades. The bank is the pioneer in Bangladesh, as well as in East Asia, in terms of Shariah-compliant banking. It has the second-largest network in the country after the state-owned Sonali Bank. IBBL has also introduced many diversified banking services to attract the largest volume of remittance and disburse the same to the beneficiaries. The trouble with the bank actually started after a big change in ownership and management in 2017 through a questionable process which was criticised by many. A big industrial group and its associates became the largest shareholder of the bank. In the following years, financial performance of the bank has started to deteriorate. The latest loan scam involving some banks is, however, not an isolated incident. If anyone closely examines the banking sector's situation in the last decade, it may be clear that a pattern has developed regarding embezzlement of big chunks of money from different banks by a number of groups. New or fake companies were opened to seek bank loans without proper documentation. Politically influential persons were appointed to the board of directors. Bank officials were forced to overlook lack of papers and other shortcomings while examining loan applications. Political pressure is often mounted on the central bank to avoid inspections and monitoring. The net outcome of all these has been the siphoning off funds worth billions of taka from a number of banks and financial institutions. The marauding had started with BASIC Bank, which otherwise was a sound state-owned bank. Around Tk 45 billion, according to an estimate, had been embezzled from the bank in the name of loans during 2009-2013. The Anti-Corruption Commission (ACC) lodged a raft of cases against a number of former directors, bank officials and clients. Little progress has been made so far. Four industrial groups allegedly misappropriated Tk 130 billion from Janata Bank and another group defalcated Tk 35 billion from Sonali Bank. There were also some more such incidents. The list of the scams is not small and the amount of misappropriated money is quite big. That's why many have termed it 'plundering of banks.' All these misappropriated money turned into default loans and increased the financial burden of the banks. The banks have become further vulnerable. The unveiling of alleged loan forgery in IBBL appears to be a big blow to the country's financial sector. This will surely create a crisis of confidence among the depositors. The government has rightly asked the agencies concerned to initiate probe into the alleged loan scam. Already, depletion of foreign- exchange reserves and shortage of dollars in banks have compelled the central bank to restrict some imports. Exporters are facing some difficulties to open letters of credit. Inflow of remittance in the official channels has ebbed. The government has negotiated with the International Monetary Fund (IMF) to get a loan support of $4.5 billion to overcome a looming crisis. When the country is facing turmoil on the foreign- exchange market, troublesome news in the country's banking sector has made things even worse. In the Financial Stability Report 2021, Bangladesh Bank said that the banks and FIs would remain moderately resilient to different shock scenarios. "The stress- test results indicate that loan concentration to top large borrowers and considerable level of NPLs in some banks could concern the overall financial stability. Proper corporate practice in following the guideline on large loan/single-borrower exposure would be helpful to reducing the risks on banks' exposure to large corporate or to speci­fic group, sector or region." The statement shows that the central bank is aware of the risks and troubles facing the country's banking sector. Nevertheless, regulatory monitoring and intervention to curb the irregularities is still weak. Unfortunately, the weakness of the central bank has intensified the risks and vulnerabilities in the banking sector. [email protected]</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Bangladesh's banking sector is always in public discussion and debate mainly centre around corruption and irregularities. Even the deeply-troubled Oriental Bank was somehow saved as the central bank dissolved its board of directors after detecting massive corruption, and appointed administrator in 2006. The trouble with the bank actually started after a big change in ownership and management in 2017 through a questionable process which was criticised by many. In the following years, financial performance of the bank has started to deteriorate. If anyone closely examines the banking sector's situation in the last decade, it may be clear that a pattern has developed regarding embezzlement of big chunks of money from different banks by a number of groups. Four industrial groups allegedly misappropriated Tk 130 billion from Janata Bank and another group defalcated Tk 35 billion from Sonali Bank. The unveiling of alleged loan forgery in IBBL appears to be a big blow to the country's financial sector. Already, depletion of foreign- exchange reserves and shortage of dollars in banks have compelled the central bank to restrict some imports. Exporters are facing some difficulties to open letters of credit. The government has negotiated with the International Monetary Fund (IMF) to get a loan support of $4.5 billion to overcome a looming crisis.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9999970197677612</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Career leap for Tok Mat after years in state leadership - Free Malaysia Today</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sat, 03 Dec 2022 13:40:56 GMT</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9673531651496887</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Chinese tech tie-ups prove a boon for Bank of East Asia - South China Morning Post</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Thu, 13 Sep 2018 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Partnerships with tech companies have allowed BEA to offer 5 billion yuan (US$730 million) in loans to mainlanders over the past year. Photo: Bloomberg</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Partnerships with tech companies have allowed BEA to offer 5 billion yuan (US$730 million) in loans to mainlanders over the past year.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.7765581607818604</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Yields hit by rate hikes - The Manila Times</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sun, 27 Nov 2022 14:51:59 GMT</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Read this in The Manila Times digital edition. EAST Asian economies, the Philippines included, saw bond yields rise and financial conditions worsen further as major advanced economies tightened monetary policy, the Asian Development Bank (ADB) said last week. "Among regional bond markets, Vietnam and the Philippines recorded the sharpest rise overall in government bond yields," the Manila-based multilateral said in its latest Asia Bond Monitor report released on Friday. Rising inflation forced the US Federal Reserve and the European Central Bank to embark on a rate hike spree this year, which prompted almost all of East Asia's central banks to also tighten policy in response. These, "in combination with a bleak economic outlook, weighed on domestic financial conditions in the region," the ADB noted. Over August 31 to November 4, "emerging East Asia's major currencies depreciated against the United States dollar by a gross domestic product (GDP)-weighted average of 4.2 percent, equity markets retreated by a market-weighted average of 7.5 percent, and risk premiums widened by a GDP-weighted average of 28 basis points (bps)," it added. Get the latest news delivered to your inbox Sign up for The Manila Times’ daily newsletters By signing up with an email address, I acknowledge that I have read and agree to the Terms of Service and Privacy Policy Two- and 10-year bond yields in the Philippines, in particular, rose by 132 and 136 bps during the review period in the wake of the Bangko Sentral ng Pilipinas' (BSP) cumulative 225-bps policy rate hike from May to September. Inflation hit a nearly 14-year high of 7.7 percent in October, also the second highest in East Asia, which prompted the BSP to further raise rates by 75 bps. The peso, which hit a record P59:$1 in October, also fell by 4.1 percent during the review period, while the stock market dropped by a larger 6.0 percent. "Equities in the Philippines declined over aggressive rate hikes by its central bank in response to rising inflation and a weakening currency," the ADB said. Between August 31 and October 14, meanwhile, yields on local currency (LCY) government bonds rose across all tenors by an average of 86 bps, the multilateral noted in its Philippine market summary. "Yields on the shorter end of the curve (from one-month to six-month tenors) inched up an average of 94 bps, with the largest increase seen in the three-month tenor at 112 bps," the ADB said. "Yields for the two-year through 10-year tenors climbed an average of 101 bps, while yields at the longer-end of the curve (from 20-year to 25-year tenors) increased an average of 74 bps," it added. "The smallest increase in yields was seen for the one-year tenor at only one bp. The spread between the 10-year and two-year maturities widened from 145 bps on 31 August to 154 bps on 14 October." As of the third quarter, the size of the Philippines' LCY bond market was P11.06 trillion, mostly composed of government offerings (P9.64 trillion) with the corporate sector accounting for the rest (P1.44 trillion). Year on year, government borrowings increased by 15.8 percent while corporate issuances fell by 0.9 percent. The regional financial conditions outlook, the ADB said, remains tilted to the downside. Investment sentiment, it added, will continue to be eroded by subdued growth outlooks in major advanced economies and in China, Covid-19 uncertainties, continued tightening and the possibility of the Russia-Ukraine war having a larger impact. "Nevertheless, the financial sector in emerging East Asia remained resilient to persistent headwinds not only because of sound economic fundamentals such as sufficient reserves and healthy fiscal and trade balances, but also because of improved institutional quality and more developed domestic capital markets, especially local currency bond markets." "Over the medium term, as many major regional economies commit to transition to net zero emissions, the region's financial sector faces asset vulnerability issues, especially in high-emitting sectors, as well as large financing gaps for investments in low-emission projects and the transitioning of high-emitting sectors," the ADB continued. "Providing enough financing while ensuring a resilient and timely transition calls for further development of the sustainable finance market and innovative financing solutions," it added. The ADB expects the Philippines to grow by 6.5 percent this year, up from 6.0 initially. The forecast for next year was unchanged at 6.3 percent. It said inflation would likely average 5.3 percent in 2022 and 4.3 percent next year, higher than the 4.2 percent and 3.5 percent, respectively, that the multilateral previously forecast. THE MANILA TIMES</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>EAST Asian economies, the Philippines included, saw bond yields rise and financial conditions worsen further as major advanced economies tightened monetary policy, the Asian Development Bank (ADB) said last week. " Yields on the shorter end of the curve (from one-month to six-month tenors) inched up an average of 94 bps, with the largest increase seen in the three-month tenor at 112 bps," the ADB said. " As of the third quarter, the size of the Philippines' LCY bond market was P11.06 trillion, mostly composed of government offerings (P9.64 trillion) with the corporate sector accounting for the rest (P1.44 trillion). Investment sentiment, it added, will continue to be eroded by subdued growth outlooks in major advanced economies and in China, Covid-19 uncertainties, continued tightening and the possibility of the Russia-Ukraine war having a larger impact. " It said inflation would likely average 5.3 percent in 2022 and 4.3 percent next year, higher than the 4.2 percent and 3.5 percent, respectively, that the multilateral previously forecast.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9756258726119995</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Middle East Asia-Pacific to account for 58% of global air passengers by 2040: ACI - Arab News</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sun, 27 Nov 2022 13:03:59 GMT</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>RIYADH: Air passenger demand is likely to double globally over the next 20 years, with Asia-Pacific and the Middle East accounting for 58 percent of the volume, according to a report by Airports Council International. Global passenger numbers are forecast to rise from 9.2 billion in 2019 to about 19 billion in 2040 predicted the ACI Asia-Pacific's Airport Industry Outlook, a quarterly assessment of the airports' performances. Of this volume, Middle Eastern airports are expected to handle 1.1 billion passengers by 2040 – a significant increase of nearly 300 percent of the combined traffic of 505 million they handled in 2019. ACI Director General of ACI Asia-Pacific Stefano Baronci said that the region must prepare itself for the oncoming influx: "The consistent improvement in passenger volumes in the region is a positive indication of a sustained recovery of the industry following prolonged efforts towards rebuilding passenger confidence in air travel." He said restoring international connectivity will take longer and will be partly dependent on the decision of China to re-connect to the World. "The macroeconomic headwinds, less acute in Asia than other western regions, should not hamper a process of growth, subject to continue to maintain the freedom to travel without restrictions." "All the stakeholders engaged in the aviation ecosystem must prepare to the surge in traffic,” insisted the ACI director general. The Middle East is an ideally located axis for travel — aircraft flying from the geographical crossroads can reach almost all of Asia, Africa, and Europe within eight hours. Tourism is one of the pillars of the Kingdom’s Vision 2030, to contribute to diversifying the base of the national economy, attracting investments, increasing sources of income, and providing job opportunities for citizens, as the sector is witnessing rapid growth as a result of plans to promote the tourism sector. Last month, a report by the World Tourism Organization listed Saudi Arabia as top of the Group of 20 countries for the flow rating of international tourists in the first seven months of 2022. The report, released during the G20 tourism ministers’ meeting held in Bali, Indonesia, did not detail the exact number of travelers who visited the Kingdom, but claimed the sector saw a growth rate of 121 percent in the first half of 2022. During the event, Saudi Arabia’s Tourism Minister Ahmed Al-Khateeb said the surge in tourist inflow aligns with the Kingdom’s economic diversification policies and aims to increase tourism’s contribution to the country’s gross domestic product, as outlined in Vision 2030, the Saudi Press Agency reported. Calling Saudi Arabia one of the fastest-growing markets for tourism, Al-Khateeb said the Kingdom’s tourism sector is accelerating at a rate of 14 percent compared to the pre-coronavirus pandemic period. Prior to the COVID-19 pandemic, 450,000 tourist visas were issued, since the Kingdom’s Tourism Authority launched the tourist visa program in 2019, by targeting 49 countries in the initial stage, and facilitated access to tourist visas electronically or through entry points to the Kingdom within specific regulatory controls. Earlier in June, Al-Khateeb said that Saudi Arabia has allocated $100 million to provide training for 100,000 people to work in the tourism and sustainability sector. He added that 90 hotels were launched in the Kingdom as a part of its tourism strategy, and more hotels will be opened soon, with 70 percent being funded by the private sector. Al-Khateeb, in June, told AFP that the Kingdom is hoping to attract 12 million foreign visitors in 2022, up from the 4 million tourists who visited Saudi Arabia in 2021. “Saudi Arabia will change the tourism landscape globally. The destinations that Saudi will offer by 2030, it’s something completely different,” he said.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>RIYADH: Air passenger demand is likely to double globally over the next 20 years, with Asia-Pacific and the Middle East accounting for 58 percent of the volume, according to a report by Airports Council International. Prior to the COVID-19 pandemic, 450,000 tourist visas were issued, since the Kingdom’s Tourism Authority launched the tourist visa program in 2019, by targeting 49 countries in the initial stage, and facilitated access to tourist visas electronically or through entry points to the Kingdom within specific regulatory controls. Al-Khateeb, in June, told AFP that the Kingdom is hoping to attract 12 million foreign visitors in 2022, up from the 4 million tourists who visited Saudi Arabia in 2021. “ The destinations that Saudi will offer by 2030, it’s something completely different,” he said.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.8941810131072998</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>LBank Exchange Will List WAHED Token (WAHED) on December 5, 2022 - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sun, 04 Dec 2022 13:49:00 GMT</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Internet City, Dubai--(Newsfile Corp. - December 4, 2022) - LBank Exchange, a global digital asset trading platform, will list WAHED Token (WAHED) on December 5, 2022. For all users of LBank Exchange, the WAHED/USDT trading pair will be officially available for trading at 10:00 UTC on December 5, 2022. WAHED Listing Banner To view an enhanced version of this graphic, please visit: https://images.newsfilecorp.com/files/8831/146586_1d96c689c4a5d8e2_001full.jpg As the world's first investment hub for blockchain businesses in technology, sustainable initiatives, and innovative companies, WAHED is focused on revolutionizing revenue management for the ones looking for investment funding and organizations handling social impact projects. Its native token WAHED Token (WAHED) will be listed on LBank Exchange at 10:00 UTC on December 5, 2022, to further expand its global reach and help it achieve its vision. Introducing WAHED Start-ups need capital, and owing to no credit history, acquiring traditional bank loans remains a challenge for new small businesses even to this day. WAHED is the solution to the hassle of funding for technology startups and eco-friendly and sustainability-oriented startups, and works towards offering a world of transparency, which is built on trust. Driven by the power of blockchain, WAHED streamlines a decentralized ecosystem of fund generation with its six core components, including token, portals, projects management, NFT marketplace, crypto exchange, and foundation. All six components provide smart solutions to associate partners, helping them generate funds seamlessly and incentivize WAHED's ecosystem as a whole. The ecosystem of WAHED allows organizations to leverage funding from blockchain-based solutions. The token-based economy system of WAHED will help in generating returns that will be reinvested into the capital generation stream, creating a community-generated revenue stream that is distributed amongst all partners to establish equitable profit sharing. Story continues WAHED's leadership team is composed of passionate philanthropists with expertise in entrepreneurship, blockchain technology, and project management. Over the years they have worked with various NGOs and charitable organizations in the Middle East, Europe, and Southeast Asia. Team members including the chairman Shaikh Abdulla Bin Ahmed Bin Salman AlKhalifa, vice chairman Eng. Abdulrahman Bin Ahmed Al Abdulkader, board member Sergio Torromino and Salvatore Nicotra, business development director Eng. Anas Mahmood, finance director Khalid Mustafa Jalili, strategy director Eng. Muath Abdulrahman Al Abdulkader, technology &amp; operations director Migin Vincent, worldwide marketing director Ahmad Fayadh, sharia consultant Prof. Dr. Muwaffaq AlDulaimi, media advisor Ebrahim Alnaham, senior PR &amp; communications officer Farah Asad Abuzzait, and head of administration Tariq Mohamed Hassan are the building blocks of WAHED that work towards achieving the aim of partnering with new high growth innovative technology ventures and make this world a healthy space for tech-based startups. Partnerships, Grant Campaign, and More Building partnerships is an essential part of WAHED project's future development. In addition to supporting human welfare and philanthropic initiatives, WAHED focuses on collaborating with environmental welfare initiatives and wildlife protection &amp; animal welfare projects. WAHED recently announced its partnership with logistics specialists TASAWUQ. Currently operational in Riyadh, Jeddah, and Dammam, TASAWUQ made the growing global demand for same-day delivery a reality in Saudi Arabia's largest cities. By partnering with the blockchain specialists at WAHED, the advantages of TASAWUQ's cloud technology and extensive partner network will be scaled for the rest of the Kingdom to experience. WAHED also built Partnerships with The Creator's Group and EnterMed. The partnerships stand to provide a range of benefits that will undoubtedly elevate the experience and cost savings of the end users. By utilizing blockchain as a tool to promote efficiency and transparency, WAHED aims to raise the bar on how businesses can be conducted, and how lives can be improved. In addition, WAHED will be hosting their Grants Program on Questbook, to provide equity-free grants and support the buidlers and help them grow, while striking a long-lasting strategic partnership to nurture them. As WAHED build partnerships and grow with the communities, it will be shifting towards an autonomous governance body. Once active, WAHED team will propose pre-listed activities for the community to vote on. WAHED believes in keeping things crystal clear and all its partners can enjoy transparency with all funding activity and project progress as it produces measurable performance metrics while leveraging blockchain ledger technology. Additionally, WAHED has also held a campaign where participants can pitch in their best business ideas for a grant worth 25K USDT. This campaign helped Web3 entrepreneurs get access to funds in an alternative and more approachable way, allowing them to build their dreams without worrying about the capital. Focused on revolutionizing revenue management for the ones looking for investment funding and organizations handling social impact projects, WAHED extends full support to the ones who want to pave the way for global welfare and human economic development. The amount raised in WAHED seed round sold for private investors reached up to $500,000 and the tokens will be locked for one year and after that only 5% can be withdrawn every month. About WAHED Token As the native utility token of the WAHED project, WAHED token fuels the entire ecosystem by acting as the medium for economic exchange and solving core issues like transparency and lack of trust. WAHED tokens will be used for investment in the new, high-growth innovative technology start-ups. It will also be allocated to various NGOs, and periodically, these tokens will be sold in the market and the money will be released to the NGO. Investing in WAHED tokens can offer participants great wealth-building opportunities. Investors can make a strong investment portfolio and can benefit from the potential increase in its value. The WAHED token will be listed on LBank Exchange at 10:00 UTC on December 5, 2022. This listing will undoubtedly help it further expand its business and draw more attention in the market. Learn More about WAHED Token: Official Website: https://wahedprojects.org/ Discord: https://discord.gg/YGDBk9UbmN Twitter: https://twitter.com/wahedprojects Instagram: https://instagram.com/wahedprojectscoin Facebook: https://www.facebook.com/wahedprojects About LBank LBank is one of the top crypto exchanges, established in 2015. It offers specialized financial derivatives, expert asset management services, and safe crypto trading to its users. The platform holds over 7 million users from more than 210 regions across the world. LBank is a cutting-edge growing platform that ensures the integrity of users' funds and aims to contribute the global adoption of cryptocurrencies. Start Trading Now: lbank.com Community &amp; Social Media: l Telegram l Twitter l Facebook l LinkedIn l Instagram l YouTube Contact Details: LBK Blockchain Co. Limited LBank Exchange marketing@lbank.info business@lbank.info To view the source version of this press release, please visit https://www.newsfilecorp.com/release/146586</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Internet City, Dubai--(Newsfile Corp. - December 4, 2022) - LBank Exchange, a global digital asset trading platform, will list WAHED Token (WAHED) on December 5, 2022. For all users of LBank Exchange, the WAHED/USDT trading pair will be officially available for trading at 10:00 UTC on December 5, 2022. The token-based economy system of WAHED will help in generating returns that will be reinvested into the capital generation stream, creating a community-generated revenue stream that is distributed amongst all partners to establish equitable profit sharing. Abdulrahman Bin Ahmed Al Abdulkader, board member Sergio Torromino and Salvatore Nicotra, business development director Eng. In addition, WAHED will be hosting their Grants Program on Questbook, to provide equity-free grants and support the buidlers and help them grow, while striking a long-lasting strategic partnership to nurture them. Once active, WAHED team will propose pre-listed activities for the community to vote on. WAHED tokens will be used for investment in the new, high-growth innovative technology start-ups. This listing will undoubtedly help it further expand its business and draw more attention in the market. Start Trading Now: lbank.com Community &amp; Social Media: l Telegram l Twitter l Facebook l LinkedIn l Instagram l YouTube Contact Details: LBK Blockchain Co. Limited LBank Exchange marketing@lbank.info business@lbank.info To view the source version of this press release, please visit https://www.newsfilecorp.com/release/146586</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.9921574592590332</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BEA offers space to fintechs | The Standard - Hong Kong Standard</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Thu, 22 Sep 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Bank of East Asia (0023) said it will offer a co-working space in Kwun Tong to local fintech startups with rental waived, in an attempt to support fintech development in Hong Kong. The Hong Kong-based bank will provide a fund of up to HK$300,000 for projects deployed by the bank, encouraging the startups to tailor their solutions to the lender's customer demand. Located in BEA Tower in Kwun Tong, a space of over 6,000 square feet will be the working site for fintech startups. On the digital Hong Kong dollar, Stephen Leung Siu-yan, BEA's head of IT, said the plans are still in the early stage and BEA will focus on research for application and risk management. The city's de facto central bank, Hong Kong Monetary Authority said this week it will start the preparation work of implementing e-HKD in the next quarter.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Bank of East Asia (0023) said it will offer a co-working space in Kwun Tong to local fintech startups with rental waived, in an attempt to support fintech development in Hong Kong. On the digital Hong Kong dollar, Stephen Leung Siu-yan, BEA's head of IT, said the plans are still in the early stage and BEA will focus on research for application and risk management.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9999988079071045</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>UN says Myanmar sentences seven students to death... - Jordan News</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Sun, 04 Dec 2022 13:59:44 GMT</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>BANGKOK اضافة اعلان — The Myanmar junta handed out at least seven more death sentences this week, taking the tally of those on death row to 139, according to the UN.A junta spokesperson did not respond to calls from outside Myanmar seeking confirmation of the latest death sentences. The UN accused it of using capital punishment as a “tool to crush opposition”.Myanmar has been in chaos since Aung San Suu Kyi’s civilian government was toppled in a military coup in February 2021, ending the Southeast Asian nation’s brief period of democracy.At least seven male university students were sentenced to death by a military court behind closed doors on Wednesday, UN High Commissioner for Human Rights Volker Turk said in a statement.“By resorting to use death sentences as a political tool to crush opposition, the military confirms its disdain for the efforts by ASEAN and the international community at large to end violence and create the conditions for a political dialogue to lead Myanmar out of a human rights crisis created by the military,” Turk said, referring to the Association of South East Asian Nations.Local media reports said the Yangon-based university students were arrested in April and accused of involvement in a bank shooting.“Imposing the death penalty on students is an act of vengeance by the military,” Dagon University’s student union said in a statement.The UN is also investigating reports another four youth activists were also sentenced to death on Thursday.“The military continues to hold proceedings in secretive courts in violation of basic principles of fair trial and contrary to core judicial guarantees of independence and impartiality,” Turk said.He said the secret tribunal hearings sometimes last just minutes and those detained often don’t have access to lawyers or their families.Scores of Myanmar social media users took to Facebook and Twitter to protest against the death penalties under hashtags such as “StopExecuteOurStudents”.The latest death sentences follow July’s executions of four prisoners that included former lawmaker Phyo Zeya Thaw and democracy activist Kyaw Min Yu — better known as “Jimmy”.It was the first use of the death penalty by the Myanmar state in around 30 years and sparked worldwide condemnation.ASEAN, which has spearheaded so far fruitless efforts to restore peace to Myanmar, warned the junta in August against carrying out further executions.Close to 2,280 civilians have been killed and 11,637 are still detained as part of the military junta’s campaign to stamp out dissent, according to a local monitoring group.Jordan News</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>BANGKOK اضافة اعلان — The Myanmar junta handed out at least seven more death sentences this week, taking the tally of those on death row to 139, according to the UN.A junta spokesperson did not respond to calls from outside Myanmar seeking confirmation of the latest death sentences. At least seven male university students were sentenced to death by a military court behind closed doors on Wednesday, UN High Commissioner for Human Rights Volker Turk said in a statement. It was the first use of the death penalty by the Myanmar state in around 30 years and sparked worldwide condemnation.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9839942455291748</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Geidea partnering with ACT to foster e-payment solutions in the Egyptian hospitality sector - ZAWYA</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Sun, 04 Dec 2022 11:37:45 GMT</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt – Geidea, a leading fintech company in the region, Advanced Computer Technology (ACT) the leading system integrator in the hospitality sector has forged a new strategic partnership to power the transformation of payments in the hotels and restaurants market in Egypt. The deal was signed on the sidelines of HACE- Hotel Expo, the leading exhibition for hotels and restaurants equipment in Egypt. The partnership, which will see Geidea digital payment solutions plugged into ACT customers' existing technologies, will provide hospitality businesses with improved operational efficiencies by eliminating human errors that occur during the customer payment process on point-of-sale (POS) machines. With more than 34 years of experience in the hospitality sector, the agreement will allow ACT to empower nearly all high-end hotels and restaurants in Egypt with the ability to deliver a seamless payment experience to their guests. Ahmed Nader, Country General Manager, Geidea Egypt said: "Geidea's new partnership with ACT represents an important step forward for us, as we set out to widen access to the benefits of the digital economy. Our solution will support hotels and restaurants by providing them with scope to optimize their revenue streams, simplify their operations and better serve their guests." Sameh Elmallah, CEO, ACT said: "ACT is the digital transformation enabler for the hospitality sector. Now, through our partnership with Geidea, we are well-placed to transform the country's hospitality sector by providing seamless and incredibly cost-effective payment experiences. Through robust integration of Geidea's payment technology solutions, we can remove friction at the payment touchpoint so that thousands of hotels and restaurants across the country can focus on delivering a high-quality guest experience. In doing so, we are helping to unleash the power of digital solutions and build empowered cashless communities." Ahmed Magdy, Commercial Senior Director &amp; VP, Geidea Egypt added: "We are delighted to team up with Advanced Computer Technology (ACT) to advance the hotel guest experience through our innovative digital payment solutions that will improve hotel operations and increase their efficiency while reducing human errors in all payment transactions." Mohamed Tawfik, ACT Hospitality Group CEO, we continue to grow and diversify our solution portfolio to cater to our customers' business demands. Partnering with Geidea, a leading fintech provider, is a major milestone in complementing ACT Hospitality's portfolio offerings to our clients in the Hotels and restaurants industry. We continue to deliver on our promise to enable our customers with the right and advanced technologies that keep them at the forefront of their guests. ACT, which employs more than 450 professionals, is a one-stop-shop that serves more than 1000 hospitality customers worldwide, driving the digital economy through fully-fledged technology products, implementation services, and specialized solutions. Geidea is a leading fintech and fully licensed payment service provider offering digital banking technologies, smart payment terminals, and business management solutions for both financial institutions and small businesses in retail and digital commerce across the region. -Ends- About ACT Since 1988, ACT was determined to play a pivotal role in contributing to the development of the ICT industry in Egypt. Today, ACT employs more than 450 professionals, which include more than 200 qualified engineers who have served more than 1000+ hospitality customers worldwide and implemented more than 700 professional service projects abroad. ACT exists to realize unfulfilled possibilities for organizations by truly being their first-choice technology partner. ACT achieves this by accomplishing its mission of providing the markets they operate in with quality, value-added solutions and services that enable customers to achieve their business goals effectively and efficiently. Capitalizing on its leadership in the Egyptian ICT industry as a prominent system integration organization, ACT International was founded as ACT's global subsidiary arm to venture into international markets. It was created to provide Oracle Hospitality (previously Micros-Fidelio) implementation and support services but eventually expanded to serve as a one-stop- shop for hospitality solutions and services. Broader installation and implementation services, specialized solutions that suit the hospitality market worldwide, consultation, and project management are just a few of the global services developed to serve more customers around the world. ACT International operates in the Middle East, Asia Pacific, Australia, France, and North Africa through dedicated offices in each region. About Geidea Geidea is a leading fintech and fully licensed payment service provider offering digital banking technology, smart payment terminals, and business management solutions for both financial institutions and small businesses in retail and digital commerce. Founded in Saudi Arabia, the company is expanding rapidly across the region with operations in UAE and Egypt and is targeting seven more countries in the next two years, serving both financial institutions and small and medium businesses. Founded in 2008 by Saudi entrepreneur Abdullah Faisal Al-Othman, the company believes that the latest payments and commerce technology should be accessible, affordable, and intuitive for everyone. The company continues to focus on its mission of empowering merchants with the tools to start, manage and grow their businesses which is at the heart of what Geidea does. Geidea has become the first non-bank entity in the Kingdom to obtain an acquiring license from the Saudi Central Bank "SAMA" to provide financial services directly to merchants and small and medium enterprises. Geidea now has more than 2000 employees across all offices, with over 150,000 merchants, and provides support to more than 700,000 terminals within the Kingdom with a 75% market share. The company is proud to say that it is the biggest fintech company in Saudi and is ranked one of the top 25 fintech companies in the Middle East by Forbes.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt – Geidea, a leading fintech company in the region, Advanced Computer Technology (ACT) the leading system integrator in the hospitality sector has forged a new strategic partnership to power the transformation of payments in the hotels and restaurants market in Egypt. The deal was signed on the sidelines of HACE- Hotel Expo, the leading exhibition for hotels and restaurants equipment in Egypt. The partnership, which will see Geidea digital payment solutions plugged into ACT customers' existing technologies, will provide hospitality businesses with improved operational efficiencies by eliminating human errors that occur during the customer payment process on point-of-sale (POS) machines. With more than 34 years of experience in the hospitality sector, the agreement will allow ACT to empower nearly all high-end hotels and restaurants in Egypt with the ability to deliver a seamless payment experience to their guests. Ahmed Nader, Country General Manager, Geidea Egypt said: "Geidea's new partnership with ACT represents an important step forward for us, as we set out to widen access to the benefits of the digital economy. Mohamed Tawfik, ACT Hospitality Group CEO, we continue to grow and diversify our solution portfolio to cater to our customers' business demands. Geidea is a leading fintech and fully licensed payment service provider offering digital banking technologies, smart payment terminals, and business management solutions for both financial institutions and small businesses in retail and digital commerce across the region.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9999985694885254</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BEA Union Investment Hires Equities CIO - finews.asia</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Tue, 31 May 2022 07:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Bank of East Asia’s asset management arm has hired a chief investment officer for equities. Desmond Tjiang joins BEA Union Investment Management as chief investment officer, equities, according to a statement, effective May 3, replacing Henry Chan who has been working at the firm since 2014 and will now seek opportunities elsewhere. Tjiang will be responsible for leading the firm’s equities and multi-asset strategies, overseeing the investment process and formulating ESG integration approaches. He has 25 years of experience, most recently with Conning Asia Pacific where he was its chief investment officer chairing the global asset allocation committee. Previously, he also held senior leadership roles at Mount Logan Capital, Pinebridge Investments and the former Fortis Investments. «We noticed an increasing demand for Asian assets from international markets, especially institutional investors, to diversify asset allocation and seek alpha for their portfolios,» said BEA Union Investment Management chief executive Eleanor Wan.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Bank of East Asia’s asset management arm has hired a chief investment officer for equities. Previously, he also held senior leadership roles at Mount Logan Capital, Pinebridge Investments and the former Fortis Investments. «</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9999526739120483</v>
       </c>
     </row>
   </sheetData>
